--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -458,6994 +458,6990 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29768</v>
+        <v>29830</v>
       </c>
       <c r="B2" t="n">
-        <v>68861000000</v>
+        <v>69880000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29799</v>
+        <v>29860</v>
       </c>
       <c r="B3" t="n">
-        <v>69386000000</v>
+        <v>70600000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29830</v>
+        <v>29891</v>
       </c>
       <c r="B4" t="n">
-        <v>69954000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>79947428571.42857</v>
-      </c>
+        <v>71160000000</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29860</v>
+        <v>29921</v>
       </c>
       <c r="B5" t="n">
-        <v>70670000000</v>
+        <v>71680000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.136234505894393</v>
+        <v>1.127649990162945</v>
       </c>
       <c r="D5" t="n">
-        <v>80297692531.55672</v>
+        <v>80829951294.87991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29891</v>
+        <v>29952</v>
       </c>
       <c r="B6" t="n">
-        <v>71254000000</v>
+        <v>72400000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.15273773887334</v>
+        <v>1.090037061260083</v>
       </c>
       <c r="D6" t="n">
-        <v>82137174845.68098</v>
+        <v>78918683235.23001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="B7" t="n">
-        <v>71699000000</v>
+        <v>73000000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1.127649990162945</v>
+        <v>1.073076487325325</v>
       </c>
       <c r="D7" t="n">
-        <v>80851376644.69302</v>
+        <v>78334583574.74872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="B8" t="n">
-        <v>72252000000</v>
+        <v>73610000000</v>
       </c>
       <c r="C8" t="n">
-        <v>1.090037061260083</v>
+        <v>1.049538225221205</v>
       </c>
       <c r="D8" t="n">
-        <v>78757357750.16351</v>
+        <v>77256508758.53293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29983</v>
+        <v>30042</v>
       </c>
       <c r="B9" t="n">
-        <v>72880000000</v>
+        <v>74470000000</v>
       </c>
       <c r="C9" t="n">
-        <v>1.073076487325325</v>
+        <v>1.062360599034121</v>
       </c>
       <c r="D9" t="n">
-        <v>78205814396.26968</v>
+        <v>79113993810.07098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="B10" t="n">
-        <v>73467000000</v>
+        <v>75820000000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.049538225221205</v>
+        <v>1.050640901981938</v>
       </c>
       <c r="D10" t="n">
-        <v>77106424792.32629</v>
+        <v>79659593188.27057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="B11" t="n">
-        <v>74505000000</v>
+        <v>75980000000</v>
       </c>
       <c r="C11" t="n">
-        <v>1.062360599034121</v>
+        <v>1.023227269244114</v>
       </c>
       <c r="D11" t="n">
-        <v>79151176431.03719</v>
+        <v>77744807917.16779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="B12" t="n">
-        <v>75829000000</v>
+        <v>76400000000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.050640901981938</v>
+        <v>0.9930486889686798</v>
       </c>
       <c r="D12" t="n">
-        <v>79669048956.38841</v>
+        <v>75868919837.20714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="B13" t="n">
-        <v>76033000000</v>
+        <v>76840000000</v>
       </c>
       <c r="C13" t="n">
-        <v>1.023227269244114</v>
+        <v>0.9654373617578175</v>
       </c>
       <c r="D13" t="n">
-        <v>77799038962.43771</v>
+        <v>74184206877.47069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="B14" t="n">
-        <v>76435000000</v>
+        <v>77720000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9930486889686798</v>
+        <v>0.9494872678552291</v>
       </c>
       <c r="D14" t="n">
-        <v>75903676541.32104</v>
+        <v>73794150457.7084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="B15" t="n">
-        <v>76892000000</v>
+        <v>77980000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9654373617578175</v>
+        <v>0.9358038029681562</v>
       </c>
       <c r="D15" t="n">
-        <v>74234409620.2821</v>
+        <v>72973980555.45682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="B16" t="n">
-        <v>77729000000</v>
+        <v>78870000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9494872678552291</v>
+        <v>0.9554748892695373</v>
       </c>
       <c r="D16" t="n">
-        <v>73802695843.11909</v>
+        <v>75358304516.6884</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="B17" t="n">
-        <v>78019000000</v>
+        <v>79890000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9358038029681562</v>
+        <v>0.9800077920419547</v>
       </c>
       <c r="D17" t="n">
-        <v>73010476903.77258</v>
+        <v>78292822506.23175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="B18" t="n">
-        <v>78920000000</v>
+        <v>80460000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9554748892695373</v>
+        <v>0.9691800454783859</v>
       </c>
       <c r="D18" t="n">
-        <v>75406078261.15189</v>
+        <v>77980226459.19093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="B19" t="n">
-        <v>79968000000</v>
+        <v>81370000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9800077920419547</v>
+        <v>0.9542895678705817</v>
       </c>
       <c r="D19" t="n">
-        <v>78369263114.01103</v>
+        <v>77650542137.62924</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="B20" t="n">
-        <v>80311000000</v>
+        <v>83110000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9691800454783859</v>
+        <v>0.8649770556618704</v>
       </c>
       <c r="D20" t="n">
-        <v>77835818632.41464</v>
+        <v>71888243096.05806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="B21" t="n">
-        <v>81306000000</v>
+        <v>83600000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9542895678705817</v>
+        <v>0.8673779316051338</v>
       </c>
       <c r="D21" t="n">
-        <v>77589467605.28552</v>
+        <v>72512795082.18918</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30376</v>
+        <v>30437</v>
       </c>
       <c r="B22" t="n">
-        <v>82957000000</v>
+        <v>84750000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8649770556618704</v>
+        <v>0.8816787318229365</v>
       </c>
       <c r="D22" t="n">
-        <v>71755901606.54179</v>
+        <v>74722272521.99387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="B23" t="n">
-        <v>83633000000</v>
+        <v>85700000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8673779316051338</v>
+        <v>0.8754267628869232</v>
       </c>
       <c r="D23" t="n">
-        <v>72541418553.93216</v>
+        <v>75024073579.40932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30437</v>
+        <v>30498</v>
       </c>
       <c r="B24" t="n">
-        <v>84747000000</v>
+        <v>86530000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8816787318229365</v>
+        <v>0.880514228057711</v>
       </c>
       <c r="D24" t="n">
-        <v>74719627485.7984</v>
+        <v>76190896153.83372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30468</v>
+        <v>30529</v>
       </c>
       <c r="B25" t="n">
-        <v>85780000000</v>
+        <v>87400000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8754267628869232</v>
+        <v>0.8775778696344384</v>
       </c>
       <c r="D25" t="n">
-        <v>75094107720.44028</v>
+        <v>76700305806.04991</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="B26" t="n">
-        <v>86624000000</v>
+        <v>88350000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.880514228057711</v>
+        <v>0.8973438380112031</v>
       </c>
       <c r="D26" t="n">
-        <v>76273664491.27115</v>
+        <v>79280328088.28979</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30529</v>
+        <v>30590</v>
       </c>
       <c r="B27" t="n">
-        <v>87437000000</v>
+        <v>89090000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8775778696344384</v>
+        <v>0.9143274703151014</v>
       </c>
       <c r="D27" t="n">
-        <v>76732776187.22639</v>
+        <v>81457434330.37239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30560</v>
+        <v>30621</v>
       </c>
       <c r="B28" t="n">
-        <v>88324000000</v>
+        <v>90100000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8973438380112031</v>
+        <v>0.9153318329152906</v>
       </c>
       <c r="D28" t="n">
-        <v>79256997148.5015</v>
+        <v>82471398145.66768</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30590</v>
+        <v>30651</v>
       </c>
       <c r="B29" t="n">
-        <v>89086000000</v>
+        <v>91340000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9143274703151014</v>
+        <v>0.8987148458588554</v>
       </c>
       <c r="D29" t="n">
-        <v>81453777020.49112</v>
+        <v>82088614020.74785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30621</v>
+        <v>30682</v>
       </c>
       <c r="B30" t="n">
-        <v>90109000000</v>
+        <v>92420000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9153318329152906</v>
+        <v>0.9180207135584059</v>
       </c>
       <c r="D30" t="n">
-        <v>82479636132.16393</v>
+        <v>84843474347.06787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30651</v>
+        <v>30713</v>
       </c>
       <c r="B31" t="n">
-        <v>91360000000</v>
+        <v>93680000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8987148458588554</v>
+        <v>0.943841452455714</v>
       </c>
       <c r="D31" t="n">
-        <v>82106588317.66502</v>
+        <v>88419067266.05128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30682</v>
+        <v>30742</v>
       </c>
       <c r="B32" t="n">
-        <v>92251000000</v>
+        <v>94490000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9180207135584059</v>
+        <v>0.9363296230835064</v>
       </c>
       <c r="D32" t="n">
-        <v>84688328846.4765</v>
+        <v>88473786085.16052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30713</v>
+        <v>30773</v>
       </c>
       <c r="B33" t="n">
-        <v>93664000000</v>
+        <v>94900000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.943841452455714</v>
+        <v>0.9191175963721915</v>
       </c>
       <c r="D33" t="n">
-        <v>88403965802.812</v>
+        <v>87224259895.72098</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30742</v>
+        <v>30803</v>
       </c>
       <c r="B34" t="n">
-        <v>94326000000</v>
+        <v>95600000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9363296230835064</v>
+        <v>0.8991997041704909</v>
       </c>
       <c r="D34" t="n">
-        <v>88320228026.97482</v>
+        <v>85963491718.69893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30773</v>
+        <v>30834</v>
       </c>
       <c r="B35" t="n">
-        <v>94975000000</v>
+        <v>96370000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9191175963721915</v>
+        <v>0.8608074299663646</v>
       </c>
       <c r="D35" t="n">
-        <v>87293193715.44888</v>
+        <v>82956012025.85855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30803</v>
+        <v>30864</v>
       </c>
       <c r="B36" t="n">
-        <v>95622000000</v>
+        <v>97560000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8991997041704909</v>
+        <v>0.8352823672877899</v>
       </c>
       <c r="D36" t="n">
-        <v>85983274112.19067</v>
+        <v>81490147752.59679</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30834</v>
+        <v>30895</v>
       </c>
       <c r="B37" t="n">
-        <v>96505000000</v>
+        <v>98990000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8608074299663646</v>
+        <v>0.8490405408877293</v>
       </c>
       <c r="D37" t="n">
-        <v>83072221028.90402</v>
+        <v>84046523142.47632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30864</v>
+        <v>30926</v>
       </c>
       <c r="B38" t="n">
-        <v>97693000000</v>
+        <v>100020000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8352823672877899</v>
+        <v>0.832639480976511</v>
       </c>
       <c r="D38" t="n">
-        <v>81601240307.44606</v>
+        <v>83280600887.27063</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30895</v>
+        <v>30956</v>
       </c>
       <c r="B39" t="n">
-        <v>98993000000</v>
+        <v>101120000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8490405408877293</v>
+        <v>0.8403360920838945</v>
       </c>
       <c r="D39" t="n">
-        <v>84049070264.09898</v>
+        <v>84974785631.52341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30926</v>
+        <v>30987</v>
       </c>
       <c r="B40" t="n">
-        <v>99962000000</v>
+        <v>102730000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.832639480976511</v>
+        <v>0.8579272919317412</v>
       </c>
       <c r="D40" t="n">
-        <v>83232307797.37399</v>
+        <v>88134870700.14778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30956</v>
+        <v>31017</v>
       </c>
       <c r="B41" t="n">
-        <v>101053000000</v>
+        <v>104100000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8403360920838945</v>
+        <v>0.8254229952363601</v>
       </c>
       <c r="D41" t="n">
-        <v>84918483113.35379</v>
+        <v>85926533804.10509</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30987</v>
+        <v>31048</v>
       </c>
       <c r="B42" t="n">
-        <v>102636000000</v>
+        <v>105970000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8579272919317412</v>
+        <v>0.8137358878260522</v>
       </c>
       <c r="D42" t="n">
-        <v>88054225534.70619</v>
+        <v>86231592032.92676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31017</v>
+        <v>31079</v>
       </c>
       <c r="B43" t="n">
-        <v>104120000000</v>
+        <v>107270000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8254229952363601</v>
+        <v>0.7095217873529288</v>
       </c>
       <c r="D43" t="n">
-        <v>85943042264.00981</v>
+        <v>76110402129.34868</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31048</v>
+        <v>31107</v>
       </c>
       <c r="B44" t="n">
-        <v>105845000000</v>
+        <v>108710000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8137358878260522</v>
+        <v>0.700525389138176</v>
       </c>
       <c r="D44" t="n">
-        <v>86129875046.9485</v>
+        <v>76154115053.21111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31079</v>
+        <v>31138</v>
       </c>
       <c r="B45" t="n">
-        <v>107400000000</v>
+        <v>109920000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7095217873529288</v>
+        <v>0.64649598336571</v>
       </c>
       <c r="D45" t="n">
-        <v>76202639961.70456</v>
+        <v>71062838491.55884</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31107</v>
+        <v>31168</v>
       </c>
       <c r="B46" t="n">
-        <v>108579000000</v>
+        <v>111430000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.700525389138176</v>
+        <v>0.6633059386875146</v>
       </c>
       <c r="D46" t="n">
-        <v>76062346227.23401</v>
+        <v>73912180747.94975</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31138</v>
+        <v>31199</v>
       </c>
       <c r="B47" t="n">
-        <v>110029000000</v>
+        <v>111520000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.64649598336571</v>
+        <v>0.6680026809352395</v>
       </c>
       <c r="D47" t="n">
-        <v>71133306553.74571</v>
+        <v>74495658977.8979</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31168</v>
+        <v>31229</v>
       </c>
       <c r="B48" t="n">
-        <v>111434000000</v>
+        <v>114430000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6633059386875146</v>
+        <v>0.7240081298583299</v>
       </c>
       <c r="D48" t="n">
-        <v>73914833971.70451</v>
+        <v>82848250299.68869</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31199</v>
+        <v>31260</v>
       </c>
       <c r="B49" t="n">
-        <v>111727000000</v>
+        <v>115720000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6680026809352395</v>
+        <v>0.7039774528975021</v>
       </c>
       <c r="D49" t="n">
-        <v>74633935532.8515</v>
+        <v>81464270849.29895</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31229</v>
+        <v>31291</v>
       </c>
       <c r="B50" t="n">
-        <v>114499000000</v>
+        <v>117180000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7240081298583299</v>
+        <v>0.7058159132437054</v>
       </c>
       <c r="D50" t="n">
-        <v>82898206860.64891</v>
+        <v>82707508713.8974</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31260</v>
+        <v>31321</v>
       </c>
       <c r="B51" t="n">
-        <v>115605000000</v>
+        <v>117900000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7039774528975021</v>
+        <v>0.6999860247790153</v>
       </c>
       <c r="D51" t="n">
-        <v>81383313442.21573</v>
+        <v>82528352321.44591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31291</v>
+        <v>31352</v>
       </c>
       <c r="B52" t="n">
-        <v>117056000000</v>
+        <v>118900000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7058159132437054</v>
+        <v>0.6860122063112286</v>
       </c>
       <c r="D52" t="n">
-        <v>82619987540.65518</v>
+        <v>81566851330.40508</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31321</v>
+        <v>31382</v>
       </c>
       <c r="B53" t="n">
-        <v>117794000000</v>
+        <v>119260000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6999860247790153</v>
+        <v>0.6823144058248198</v>
       </c>
       <c r="D53" t="n">
-        <v>82454153802.81932</v>
+        <v>81372816038.66801</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31352</v>
+        <v>31413</v>
       </c>
       <c r="B54" t="n">
-        <v>118761000000</v>
+        <v>119610000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6860122063112286</v>
+        <v>0.7139797433665498</v>
       </c>
       <c r="D54" t="n">
-        <v>81471495633.72781</v>
+        <v>85399117104.07301</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31382</v>
+        <v>31444</v>
       </c>
       <c r="B55" t="n">
-        <v>119343000000</v>
+        <v>119810000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6823144058248198</v>
+        <v>0.6995942500264639</v>
       </c>
       <c r="D55" t="n">
-        <v>81429448134.35147</v>
+        <v>83818387095.67064</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31413</v>
+        <v>31472</v>
       </c>
       <c r="B56" t="n">
-        <v>119576000000</v>
+        <v>121660000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7139797433665498</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D56" t="n">
-        <v>85374841792.79855</v>
+        <v>86559940001.42511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31444</v>
+        <v>31503</v>
       </c>
       <c r="B57" t="n">
-        <v>120085000000</v>
+        <v>123710000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6995942500264639</v>
+        <v>0.7407956090021808</v>
       </c>
       <c r="D57" t="n">
-        <v>84010775514.42792</v>
+        <v>91643824789.65979</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31472</v>
+        <v>31533</v>
       </c>
       <c r="B58" t="n">
-        <v>121574000000</v>
+        <v>124870000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.7157171537053905</v>
       </c>
       <c r="D58" t="n">
-        <v>86498751814.34537</v>
+        <v>89371600983.19211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31503</v>
+        <v>31564</v>
       </c>
       <c r="B59" t="n">
-        <v>123769000000</v>
+        <v>125460000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7407956090021808</v>
+        <v>0.6734006688659887</v>
       </c>
       <c r="D59" t="n">
-        <v>91687531730.59091</v>
+        <v>84484847915.92694</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31533</v>
+        <v>31594</v>
       </c>
       <c r="B60" t="n">
-        <v>124819000000</v>
+        <v>126350000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7157171537053905</v>
+        <v>0.5965163623394286</v>
       </c>
       <c r="D60" t="n">
-        <v>89335099408.35313</v>
+        <v>75369842381.58681</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31564</v>
+        <v>31625</v>
       </c>
       <c r="B61" t="n">
-        <v>125719000000</v>
+        <v>127230000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6734006688659887</v>
+        <v>0.6090875682455973</v>
       </c>
       <c r="D61" t="n">
-        <v>84659258689.16324</v>
+        <v>77494211307.88734</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31594</v>
+        <v>31656</v>
       </c>
       <c r="B62" t="n">
-        <v>126420000000</v>
+        <v>127640000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5965163623394286</v>
+        <v>0.6279829385827349</v>
       </c>
       <c r="D62" t="n">
-        <v>75411598526.95056</v>
+        <v>80155742280.70029</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31625</v>
+        <v>31686</v>
       </c>
       <c r="B63" t="n">
-        <v>127052000000</v>
+        <v>128660000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6090875682455973</v>
+        <v>0.6413956646514849</v>
       </c>
       <c r="D63" t="n">
-        <v>77385793720.73962</v>
+        <v>82521966214.06004</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31656</v>
+        <v>31717</v>
       </c>
       <c r="B64" t="n">
-        <v>127533000000</v>
+        <v>128720000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6279829385827349</v>
+        <v>0.6504064956044684</v>
       </c>
       <c r="D64" t="n">
-        <v>80088548106.27193</v>
+        <v>83720324114.20717</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31686</v>
+        <v>31747</v>
       </c>
       <c r="B65" t="n">
-        <v>128584000000</v>
+        <v>130180000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6413956646514849</v>
+        <v>0.6649820322187385</v>
       </c>
       <c r="D65" t="n">
-        <v>82473220143.54654</v>
+        <v>86567360954.23538</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31717</v>
+        <v>31778</v>
       </c>
       <c r="B66" t="n">
-        <v>128560000000</v>
+        <v>131860000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6504064956044684</v>
+        <v>0.6615068996194966</v>
       </c>
       <c r="D66" t="n">
-        <v>83616259074.91046</v>
+        <v>87226299783.82683</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31747</v>
+        <v>31809</v>
       </c>
       <c r="B67" t="n">
-        <v>130152000000</v>
+        <v>133000000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6649820322187385</v>
+        <v>0.6769105572019712</v>
       </c>
       <c r="D67" t="n">
-        <v>86548741457.33325</v>
+        <v>90029104107.86218</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31778</v>
+        <v>31837</v>
       </c>
       <c r="B68" t="n">
-        <v>131821000000</v>
+        <v>133140000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6615068996194966</v>
+        <v>0.7059155774806973</v>
       </c>
       <c r="D68" t="n">
-        <v>87200501014.74167</v>
+        <v>93985599985.78004</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31809</v>
+        <v>31868</v>
       </c>
       <c r="B69" t="n">
-        <v>133379000000</v>
+        <v>133870000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6769105572019712</v>
+        <v>0.7025925517615565</v>
       </c>
       <c r="D69" t="n">
-        <v>90285653209.04172</v>
+        <v>94056064904.31958</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31837</v>
+        <v>31898</v>
       </c>
       <c r="B70" t="n">
-        <v>133062000000</v>
+        <v>136030000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7059155774806973</v>
+        <v>0.7124029401752721</v>
       </c>
       <c r="D70" t="n">
-        <v>93930538570.73654</v>
+        <v>96908171952.04225</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31868</v>
+        <v>31929</v>
       </c>
       <c r="B71" t="n">
-        <v>133797000000</v>
+        <v>137480000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7025925517615565</v>
+        <v>0.7207206947488037</v>
       </c>
       <c r="D71" t="n">
-        <v>94004775648.04099</v>
+        <v>99084681114.06554</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31898</v>
+        <v>31959</v>
       </c>
       <c r="B72" t="n">
-        <v>136003000000</v>
+        <v>139420000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7124029401752721</v>
+        <v>0.6989097204056394</v>
       </c>
       <c r="D72" t="n">
-        <v>96888937072.65753</v>
+        <v>97441993218.95424</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31929</v>
+        <v>31990</v>
       </c>
       <c r="B73" t="n">
-        <v>137803000000</v>
+        <v>140680000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7207206947488037</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D73" t="n">
-        <v>99317473898.46941</v>
+        <v>100092490213.7143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31959</v>
+        <v>32021</v>
       </c>
       <c r="B74" t="n">
-        <v>139505000000</v>
+        <v>142170000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6989097204056394</v>
+        <v>0.7099751710323087</v>
       </c>
       <c r="D74" t="n">
-        <v>97501400545.18872</v>
+        <v>100937170065.6633</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31990</v>
+        <v>32051</v>
       </c>
       <c r="B75" t="n">
-        <v>140505000000</v>
+        <v>143900000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.6687174223858975</v>
       </c>
       <c r="D75" t="n">
-        <v>99967979367.91251</v>
+        <v>96228437081.33064</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32021</v>
+        <v>32082</v>
       </c>
       <c r="B76" t="n">
-        <v>142123000000</v>
+        <v>146010000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7099751710323087</v>
+        <v>0.7057162721644487</v>
       </c>
       <c r="D76" t="n">
-        <v>100903801232.6248</v>
+        <v>103041632898.7312</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32051</v>
+        <v>32112</v>
       </c>
       <c r="B77" t="n">
-        <v>143875000000</v>
+        <v>146600000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6687174223858975</v>
+        <v>0.7224389643467557</v>
       </c>
       <c r="D77" t="n">
-        <v>96211719145.771</v>
+        <v>105909552173.2344</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32082</v>
+        <v>32143</v>
       </c>
       <c r="B78" t="n">
-        <v>145891000000</v>
+        <v>147260000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7057162721644487</v>
+        <v>0.7090187030129318</v>
       </c>
       <c r="D78" t="n">
-        <v>102957652662.3436</v>
+        <v>104410094205.6843</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32112</v>
+        <v>32174</v>
       </c>
       <c r="B79" t="n">
-        <v>146409000000</v>
+        <v>148180000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7224389643467557</v>
+        <v>0.7188039361272259</v>
       </c>
       <c r="D79" t="n">
-        <v>105771566331.0442</v>
+        <v>106512367255.3323</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32143</v>
+        <v>32203</v>
       </c>
       <c r="B80" t="n">
-        <v>147194000000</v>
+        <v>150050000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7090187030129318</v>
+        <v>0.7416747124775601</v>
       </c>
       <c r="D80" t="n">
-        <v>104363298971.2855</v>
+        <v>111288290607.2579</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32174</v>
+        <v>32234</v>
       </c>
       <c r="B81" t="n">
-        <v>148579000000</v>
+        <v>151400000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7188039361272259</v>
+        <v>0.7579776809833542</v>
       </c>
       <c r="D81" t="n">
-        <v>106799170025.8471</v>
+        <v>114757820900.8798</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32203</v>
+        <v>32264</v>
       </c>
       <c r="B82" t="n">
-        <v>149930000000</v>
+        <v>152860000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7416747124775601</v>
+        <v>0.8017317212763958</v>
       </c>
       <c r="D82" t="n">
-        <v>111199289641.7606</v>
+        <v>122552710914.3099</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32234</v>
+        <v>32295</v>
       </c>
       <c r="B83" t="n">
-        <v>151175000000</v>
+        <v>155210000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7579776809833542</v>
+        <v>0.7907013145867962</v>
       </c>
       <c r="D83" t="n">
-        <v>114587275922.6586</v>
+        <v>122724751037.0166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32264</v>
+        <v>32325</v>
       </c>
       <c r="B84" t="n">
-        <v>152849000000</v>
+        <v>156250000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8017317212763958</v>
+        <v>0.8037293104302308</v>
       </c>
       <c r="D84" t="n">
-        <v>122543891865.3758</v>
+        <v>125582704754.7236</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32295</v>
+        <v>32356</v>
       </c>
       <c r="B85" t="n">
-        <v>155574000000</v>
+        <v>157950000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7907013145867962</v>
+        <v>0.803470955963155</v>
       </c>
       <c r="D85" t="n">
-        <v>123012566315.5262</v>
+        <v>126908237494.3803</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32325</v>
+        <v>32387</v>
       </c>
       <c r="B86" t="n">
-        <v>156412000000</v>
+        <v>160370000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8037293104302308</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D86" t="n">
-        <v>125712908903.0133</v>
+        <v>125968107360.4884</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32356</v>
+        <v>32417</v>
       </c>
       <c r="B87" t="n">
-        <v>157852000000</v>
+        <v>163980000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.803470955963155</v>
+        <v>0.8196721109916694</v>
       </c>
       <c r="D87" t="n">
-        <v>126829497340.6959</v>
+        <v>134409832760.4139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32387</v>
+        <v>32448</v>
       </c>
       <c r="B88" t="n">
-        <v>160431000000</v>
+        <v>167140000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.8749671963860984</v>
       </c>
       <c r="D88" t="n">
-        <v>126016021899.0492</v>
+        <v>146242017203.9725</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32417</v>
+        <v>32478</v>
       </c>
       <c r="B89" t="n">
-        <v>164003000000</v>
+        <v>171100000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8196721109916694</v>
+        <v>0.8539709649871904</v>
       </c>
       <c r="D89" t="n">
-        <v>134428685218.9668</v>
+        <v>146114432109.3083</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32448</v>
+        <v>32509</v>
       </c>
       <c r="B90" t="n">
-        <v>167025000000</v>
+        <v>175150000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8749671963860984</v>
+        <v>0.8895214453791269</v>
       </c>
       <c r="D90" t="n">
-        <v>146141395976.3881</v>
+        <v>155799681158.1541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32478</v>
+        <v>32540</v>
       </c>
       <c r="B91" t="n">
-        <v>170765000000</v>
+        <v>178790000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8539709649871904</v>
+        <v>0.8005123342980495</v>
       </c>
       <c r="D91" t="n">
-        <v>145828351836.0376</v>
+        <v>143123600249.1483</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32509</v>
+        <v>32568</v>
       </c>
       <c r="B92" t="n">
-        <v>174975000000</v>
+        <v>182170000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8895214453791269</v>
+        <v>0.8185315878911184</v>
       </c>
       <c r="D92" t="n">
-        <v>155644014905.2127</v>
+        <v>149111899366.125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32540</v>
+        <v>32599</v>
       </c>
       <c r="B93" t="n">
-        <v>179128000000</v>
+        <v>185280000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8005123342980495</v>
+        <v>0.7940288963472376</v>
       </c>
       <c r="D93" t="n">
-        <v>143394173418.141</v>
+        <v>147117673915.2162</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32568</v>
+        <v>32629</v>
       </c>
       <c r="B94" t="n">
-        <v>182131000000</v>
+        <v>187880000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8185315878911184</v>
+        <v>0.750018756094043</v>
       </c>
       <c r="D94" t="n">
-        <v>149079976634.1973</v>
+        <v>140913523894.9488</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32599</v>
+        <v>32660</v>
       </c>
       <c r="B95" t="n">
-        <v>185008000000</v>
+        <v>192850000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7940288963472376</v>
+        <v>0.755972157364011</v>
       </c>
       <c r="D95" t="n">
-        <v>146901698055.4097</v>
+        <v>145789230547.6495</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32629</v>
+        <v>32690</v>
       </c>
       <c r="B96" t="n">
-        <v>187894000000</v>
+        <v>196160000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.750018756094043</v>
+        <v>0.7555152328681159</v>
       </c>
       <c r="D96" t="n">
-        <v>140924024157.5341</v>
+        <v>148201868079.4096</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32660</v>
+        <v>32721</v>
       </c>
       <c r="B97" t="n">
-        <v>193272000000</v>
+        <v>199870000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.755972157364011</v>
+        <v>0.7645260114187923</v>
       </c>
       <c r="D97" t="n">
-        <v>146108250798.0571</v>
+        <v>152805813902.274</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32690</v>
+        <v>32752</v>
       </c>
       <c r="B98" t="n">
-        <v>196289000000</v>
+        <v>200090000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7555152328681159</v>
+        <v>0.7754943776657619</v>
       </c>
       <c r="D98" t="n">
-        <v>148299329544.4496</v>
+        <v>155168670027.1423</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32721</v>
+        <v>32782</v>
       </c>
       <c r="B99" t="n">
-        <v>199681000000</v>
+        <v>201950000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7645260114187923</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D99" t="n">
-        <v>152661318486.1159</v>
+        <v>158131708357.9604</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32752</v>
+        <v>32813</v>
       </c>
       <c r="B100" t="n">
-        <v>200205000000</v>
+        <v>203480000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7754943776657619</v>
+        <v>0.7824726134585289</v>
       </c>
       <c r="D100" t="n">
-        <v>155257851880.5739</v>
+        <v>159217527386.5415</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32782</v>
+        <v>32843</v>
       </c>
       <c r="B101" t="n">
-        <v>201978000000</v>
+        <v>205230000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7900142202559646</v>
       </c>
       <c r="D101" t="n">
-        <v>158153633031.5629</v>
+        <v>162134618423.1316</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32813</v>
+        <v>32874</v>
       </c>
       <c r="B102" t="n">
-        <v>203384000000</v>
+        <v>207140000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.768698605099525</v>
       </c>
       <c r="D102" t="n">
-        <v>159142410015.6494</v>
+        <v>159228229060.3156</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32843</v>
+        <v>32905</v>
       </c>
       <c r="B103" t="n">
-        <v>204788000000</v>
+        <v>209580000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7900142202559646</v>
+        <v>0.7606876674325853</v>
       </c>
       <c r="D103" t="n">
-        <v>161785432137.7785</v>
+        <v>159424921340.5212</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32874</v>
+        <v>32933</v>
       </c>
       <c r="B104" t="n">
-        <v>207007000000</v>
+        <v>211460000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.768698605099525</v>
+        <v>0.753693101851772</v>
       </c>
       <c r="D104" t="n">
-        <v>159125992145.8374</v>
+        <v>159375943317.5757</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32905</v>
+        <v>32964</v>
       </c>
       <c r="B105" t="n">
-        <v>209830000000</v>
+        <v>214340000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7606876674325853</v>
+        <v>0.7505253902889639</v>
       </c>
       <c r="D105" t="n">
-        <v>159615093257.3794</v>
+        <v>160867612154.5365</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32933</v>
+        <v>32994</v>
       </c>
       <c r="B106" t="n">
-        <v>211673000000</v>
+        <v>215060000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.753693101851772</v>
+        <v>0.7695267469759658</v>
       </c>
       <c r="D106" t="n">
-        <v>159536479948.2701</v>
+        <v>165494422204.6512</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32964</v>
+        <v>33025</v>
       </c>
       <c r="B107" t="n">
-        <v>214107000000</v>
+        <v>216610000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7505253902889639</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D107" t="n">
-        <v>160692739738.5992</v>
+        <v>171558695214.5848</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32994</v>
+        <v>33055</v>
       </c>
       <c r="B108" t="n">
-        <v>215067000000</v>
+        <v>216950000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7695267469759658</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D108" t="n">
-        <v>165499808891.88</v>
+        <v>171827980826.3892</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33025</v>
+        <v>33086</v>
       </c>
       <c r="B109" t="n">
-        <v>216989000000</v>
+        <v>219100000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7920165053071639</v>
+        <v>0.8145312372729494</v>
       </c>
       <c r="D109" t="n">
-        <v>171858869470.0962</v>
+        <v>178463794086.5032</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33055</v>
+        <v>33117</v>
       </c>
       <c r="B110" t="n">
-        <v>217039000000</v>
+        <v>221570000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7920165053071639</v>
+        <v>0.8259684207163319</v>
       </c>
       <c r="D110" t="n">
-        <v>171898470295.3615</v>
+        <v>183009822978.1177</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33086</v>
+        <v>33147</v>
       </c>
       <c r="B111" t="n">
-        <v>218783000000</v>
+        <v>222960000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8145312372729494</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D111" t="n">
-        <v>178205587684.2877</v>
+        <v>175131565860.7876</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33117</v>
+        <v>33178</v>
       </c>
       <c r="B112" t="n">
-        <v>221767000000</v>
+        <v>225290000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8259684207163319</v>
+        <v>0.7738740312770631</v>
       </c>
       <c r="D112" t="n">
-        <v>183172538756.9988</v>
+        <v>174346080506.4095</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33147</v>
+        <v>33208</v>
       </c>
       <c r="B113" t="n">
-        <v>223002000000</v>
+        <v>227100000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.771009993407479</v>
       </c>
       <c r="D113" t="n">
-        <v>175164556198.813</v>
+        <v>175096369502.8385</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33178</v>
+        <v>33239</v>
       </c>
       <c r="B114" t="n">
-        <v>225226000000</v>
+        <v>224960000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7738740312770631</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D114" t="n">
-        <v>174296552568.4078</v>
+        <v>176149091914.8639</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33208</v>
+        <v>33270</v>
       </c>
       <c r="B115" t="n">
-        <v>226571000000</v>
+        <v>224750000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.771009993407479</v>
+        <v>0.7849909541174906</v>
       </c>
       <c r="D115" t="n">
-        <v>174688505216.3259</v>
+        <v>176426716937.906</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33239</v>
+        <v>33298</v>
       </c>
       <c r="B116" t="n">
-        <v>224786000000</v>
+        <v>225720000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7750135567308878</v>
       </c>
       <c r="D116" t="n">
-        <v>176012845728.9056</v>
+        <v>174936060025.296</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33270</v>
+        <v>33329</v>
       </c>
       <c r="B117" t="n">
-        <v>224942000000</v>
+        <v>225760000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7849909541174906</v>
+        <v>0.7819831030498662</v>
       </c>
       <c r="D117" t="n">
-        <v>176577435201.0966</v>
+        <v>176540505344.5378</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33298</v>
+        <v>33359</v>
       </c>
       <c r="B118" t="n">
-        <v>226131000000</v>
+        <v>227470000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7750135567308878</v>
+        <v>0.7599939489281786</v>
       </c>
       <c r="D118" t="n">
-        <v>175254590597.1124</v>
+        <v>172875823562.6928</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33329</v>
+        <v>33390</v>
       </c>
       <c r="B119" t="n">
-        <v>225651000000</v>
+        <v>228320000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7819831030498662</v>
+        <v>0.7675186358897425</v>
       </c>
       <c r="D119" t="n">
-        <v>176455269186.3054</v>
+        <v>175239854946.346</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33359</v>
+        <v>33420</v>
       </c>
       <c r="B120" t="n">
-        <v>227506000000</v>
+        <v>228940000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7599939489281786</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D120" t="n">
-        <v>172903183344.8542</v>
+        <v>177983363134.572</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33390</v>
+        <v>33451</v>
       </c>
       <c r="B121" t="n">
-        <v>228657000000</v>
+        <v>229750000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7675186358897425</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D121" t="n">
-        <v>175498508726.6408</v>
+        <v>180465003841.5678</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33420</v>
+        <v>33482</v>
       </c>
       <c r="B122" t="n">
-        <v>228959000000</v>
+        <v>231010000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.7994883210786031</v>
       </c>
       <c r="D122" t="n">
-        <v>177998134183.3165</v>
+        <v>184689797052.3681</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33451</v>
+        <v>33512</v>
       </c>
       <c r="B123" t="n">
-        <v>229316000000</v>
+        <v>230590000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.7800312012480499</v>
       </c>
       <c r="D123" t="n">
-        <v>180124103681.9715</v>
+        <v>179867394695.7878</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33482</v>
+        <v>33543</v>
       </c>
       <c r="B124" t="n">
-        <v>231221000000</v>
+        <v>230200000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7994883210786031</v>
+        <v>0.7845598619174643</v>
       </c>
       <c r="D124" t="n">
-        <v>184858489088.1157</v>
+        <v>180605680213.4003</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33512</v>
+        <v>33573</v>
       </c>
       <c r="B125" t="n">
-        <v>230603000000</v>
+        <v>231700000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7800312012480499</v>
+        <v>0.7595321282090233</v>
       </c>
       <c r="D125" t="n">
-        <v>179877535101.4041</v>
+        <v>175983594106.0307</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33543</v>
+        <v>33604</v>
       </c>
       <c r="B126" t="n">
-        <v>230243000000</v>
+        <v>231890000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7845598619174643</v>
+        <v>0.753012048192771</v>
       </c>
       <c r="D126" t="n">
-        <v>180639416287.4627</v>
+        <v>174615963855.4217</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33573</v>
+        <v>33635</v>
       </c>
       <c r="B127" t="n">
-        <v>231048000000</v>
+        <v>232850000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7595321282090233</v>
+        <v>0.7535227187099691</v>
       </c>
       <c r="D127" t="n">
-        <v>175488379158.4384</v>
+        <v>175457765051.6163</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33604</v>
+        <v>33664</v>
       </c>
       <c r="B128" t="n">
-        <v>231738000000</v>
+        <v>231500000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.753012048192771</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D128" t="n">
-        <v>174501506024.0964</v>
+        <v>178145440554.0592</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33635</v>
+        <v>33695</v>
       </c>
       <c r="B129" t="n">
-        <v>233070000000</v>
+        <v>233570000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7535227187099691</v>
+        <v>0.75642965204236</v>
       </c>
       <c r="D129" t="n">
-        <v>175623540049.7325</v>
+        <v>176679273827.534</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33664</v>
+        <v>33725</v>
       </c>
       <c r="B130" t="n">
-        <v>231966000000</v>
+        <v>234660000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.7570022710068131</v>
       </c>
       <c r="D130" t="n">
-        <v>178504040015.3905</v>
+        <v>177638152914.4587</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33695</v>
+        <v>33756</v>
       </c>
       <c r="B131" t="n">
-        <v>233513000000</v>
+        <v>234970000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.75642965204236</v>
+        <v>0.7483349547257352</v>
       </c>
       <c r="D131" t="n">
-        <v>176636157337.3676</v>
+        <v>175836264311.906</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33725</v>
+        <v>33786</v>
       </c>
       <c r="B132" t="n">
-        <v>234740000000</v>
+        <v>236720000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7570022710068131</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D132" t="n">
-        <v>177698713096.1393</v>
+        <v>176013086474.8308</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33756</v>
+        <v>33817</v>
       </c>
       <c r="B133" t="n">
-        <v>235266000000</v>
+        <v>238900000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7483349547257352</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D133" t="n">
-        <v>176057771458.5048</v>
+        <v>170630669237.9116</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33786</v>
+        <v>33848</v>
       </c>
       <c r="B134" t="n">
-        <v>236651000000</v>
+        <v>238680000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7130124777183601</v>
       </c>
       <c r="D134" t="n">
-        <v>175961781545.0963</v>
+        <v>170181818181.8182</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33817</v>
+        <v>33878</v>
       </c>
       <c r="B135" t="n">
-        <v>238443000000</v>
+        <v>238790000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.6965243435258063</v>
       </c>
       <c r="D135" t="n">
-        <v>170304263981.1442</v>
+        <v>166323047990.5273</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33848</v>
+        <v>33909</v>
       </c>
       <c r="B136" t="n">
-        <v>239038000000</v>
+        <v>239970000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7130124777183601</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D136" t="n">
-        <v>170437076648.8414</v>
+        <v>162989879779.9362</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33878</v>
+        <v>33939</v>
       </c>
       <c r="B137" t="n">
-        <v>238758000000</v>
+        <v>241020000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6965243435258063</v>
+        <v>0.6890374147316199</v>
       </c>
       <c r="D137" t="n">
-        <v>166300759211.5345</v>
+        <v>166071797698.6151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33909</v>
+        <v>33970</v>
       </c>
       <c r="B138" t="n">
-        <v>240103000000</v>
+        <v>242950000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.679671039217019</v>
       </c>
       <c r="D138" t="n">
-        <v>163080214630.1705</v>
+        <v>165126078977.7747</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33939</v>
+        <v>34001</v>
       </c>
       <c r="B139" t="n">
-        <v>240204000000</v>
+        <v>244550000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6890374147316199</v>
+        <v>0.6957973838018369</v>
       </c>
       <c r="D139" t="n">
-        <v>165509543168.194</v>
+        <v>170157250208.7392</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33970</v>
+        <v>34029</v>
       </c>
       <c r="B140" t="n">
-        <v>242817000000</v>
+        <v>245610000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.679671039217019</v>
+        <v>0.7055669230226487</v>
       </c>
       <c r="D140" t="n">
-        <v>165035682729.5589</v>
+        <v>173294291963.5927</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34001</v>
+        <v>34060</v>
       </c>
       <c r="B141" t="n">
-        <v>244699000000</v>
+        <v>245920000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6957973838018369</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D141" t="n">
-        <v>170260924018.9257</v>
+        <v>173868778280.543</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34029</v>
+        <v>34090</v>
       </c>
       <c r="B142" t="n">
-        <v>246063000000</v>
+        <v>246560000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7055669230226487</v>
+        <v>0.6761782405842179</v>
       </c>
       <c r="D142" t="n">
-        <v>173613913779.722</v>
+        <v>166718506998.4448</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34060</v>
+        <v>34121</v>
       </c>
       <c r="B143" t="n">
-        <v>245972000000</v>
+        <v>249860000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.6657789613848203</v>
       </c>
       <c r="D143" t="n">
-        <v>173905542986.4253</v>
+        <v>166351531291.6112</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34090</v>
+        <v>34151</v>
       </c>
       <c r="B144" t="n">
-        <v>246730000000</v>
+        <v>250840000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6761782405842179</v>
+        <v>0.6898454746136865</v>
       </c>
       <c r="D144" t="n">
-        <v>166833457299.3441</v>
+        <v>173040838852.0971</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34121</v>
+        <v>34182</v>
       </c>
       <c r="B145" t="n">
-        <v>250191000000</v>
+        <v>250160000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6657789613848203</v>
+        <v>0.6734006734006733</v>
       </c>
       <c r="D145" t="n">
-        <v>166571904127.8296</v>
+        <v>168457912457.9124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34151</v>
+        <v>34213</v>
       </c>
       <c r="B146" t="n">
-        <v>250604000000</v>
+        <v>252080000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6898454746136865</v>
+        <v>0.6471654154801968</v>
       </c>
       <c r="D146" t="n">
-        <v>172878035320.0883</v>
+        <v>163137457934.248</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34182</v>
+        <v>34243</v>
       </c>
       <c r="B147" t="n">
-        <v>249641000000</v>
+        <v>253450000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6734006734006733</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="D147" t="n">
-        <v>168108417508.4175</v>
+        <v>168921620901.093</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34213</v>
+        <v>34274</v>
       </c>
       <c r="B148" t="n">
-        <v>252513000000</v>
+        <v>254480000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6471654154801968</v>
+        <v>0.6586747464102226</v>
       </c>
       <c r="D148" t="n">
-        <v>163417680559.1509</v>
+        <v>167619549466.4734</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34243</v>
+        <v>34304</v>
       </c>
       <c r="B149" t="n">
-        <v>253355000000</v>
+        <v>255700000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6664889362836577</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D149" t="n">
-        <v>168858304452.1461</v>
+        <v>173638462583.1862</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34274</v>
+        <v>34335</v>
       </c>
       <c r="B150" t="n">
-        <v>254771000000</v>
+        <v>258520000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6586747464102226</v>
+        <v>0.7084159818645509</v>
       </c>
       <c r="D150" t="n">
-        <v>167811223817.6788</v>
+        <v>183139699631.6237</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34304</v>
+        <v>34366</v>
       </c>
       <c r="B151" t="n">
-        <v>254801000000</v>
+        <v>259890000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.7132667617689016</v>
       </c>
       <c r="D151" t="n">
-        <v>173027977726.4702</v>
+        <v>185370898716.1198</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34335</v>
+        <v>34394</v>
       </c>
       <c r="B152" t="n">
-        <v>258491000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7084159818645509</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D152" t="n">
-        <v>183119155568.1496</v>
+        <v>185142937614.4205</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34366</v>
+        <v>34425</v>
       </c>
       <c r="B153" t="n">
-        <v>260035000000</v>
+        <v>264880000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7132667617689016</v>
+        <v>0.7150007150007149</v>
       </c>
       <c r="D153" t="n">
-        <v>185474322396.5763</v>
+        <v>189389389389.3894</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B154" t="n">
-        <v>263290000000</v>
+        <v>266860000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7370826269624825</v>
       </c>
       <c r="D154" t="n">
-        <v>185389381777.2145</v>
+        <v>196697869831.2081</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B155" t="n">
-        <v>264924000000</v>
+        <v>267840000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7150007150007149</v>
+        <v>0.728650539201399</v>
       </c>
       <c r="D155" t="n">
-        <v>189420849420.8494</v>
+        <v>195161760419.7027</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B156" t="n">
-        <v>266960000000</v>
+        <v>269080000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7370826269624825</v>
+        <v>0.7392622163081245</v>
       </c>
       <c r="D156" t="n">
-        <v>196771578093.9043</v>
+        <v>198920677164.1902</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B157" t="n">
-        <v>268119000000</v>
+        <v>271380000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.728650539201399</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D157" t="n">
-        <v>195365053920.1399</v>
+        <v>201574686176.9294</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B158" t="n">
-        <v>268803000000</v>
+        <v>271120000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7392622163081245</v>
+        <v>0.7397544015386892</v>
       </c>
       <c r="D158" t="n">
-        <v>198715901530.2728</v>
+        <v>200562213345.1694</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B159" t="n">
-        <v>270876000000</v>
+        <v>274930000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7425007425007425</v>
       </c>
       <c r="D159" t="n">
-        <v>201200326821.6594</v>
+        <v>204135729135.7291</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B160" t="n">
-        <v>271654000000</v>
+        <v>277990000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7397544015386892</v>
+        <v>0.7691124442393478</v>
       </c>
       <c r="D160" t="n">
-        <v>200957242195.5911</v>
+        <v>213805568374.0963</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B161" t="n">
-        <v>274833000000</v>
+        <v>280660000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7425007425007425</v>
+        <v>0.7753741180119407</v>
       </c>
       <c r="D161" t="n">
-        <v>204063706563.7066</v>
+        <v>217616499961.2313</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B162" t="n">
-        <v>278387000000</v>
+        <v>280400000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7691124442393478</v>
+        <v>0.7564868749527195</v>
       </c>
       <c r="D162" t="n">
-        <v>214110906014.4593</v>
+        <v>212118919736.7426</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B163" t="n">
-        <v>279944000000</v>
+        <v>281790000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7753741180119407</v>
+        <v>0.7388798581350673</v>
       </c>
       <c r="D163" t="n">
-        <v>217061332092.7347</v>
+        <v>208208955223.8806</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B164" t="n">
-        <v>280517000000</v>
+        <v>285000000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7564868749527195</v>
+        <v>0.7351319561861354</v>
       </c>
       <c r="D164" t="n">
-        <v>212207428701.112</v>
+        <v>209512607513.0486</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B165" t="n">
-        <v>281917000000</v>
+        <v>286460000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7388798581350673</v>
+        <v>0.727749072119933</v>
       </c>
       <c r="D165" t="n">
-        <v>208302792965.8638</v>
+        <v>208470999199.476</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B166" t="n">
-        <v>285173000000</v>
+        <v>288080000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7351319561861354</v>
+        <v>0.7183908045977012</v>
       </c>
       <c r="D166" t="n">
-        <v>209639785341.4688</v>
+        <v>206954022988.5058</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B167" t="n">
-        <v>286509000000</v>
+        <v>288190000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.727749072119933</v>
+        <v>0.709622480840193</v>
       </c>
       <c r="D167" t="n">
-        <v>208506658904.0099</v>
+        <v>204506102753.3352</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B168" t="n">
-        <v>288000000000</v>
+        <v>290340000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7183908045977012</v>
+        <v>0.7383343177790903</v>
       </c>
       <c r="D168" t="n">
-        <v>206896551724.1379</v>
+        <v>214367985823.9811</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B169" t="n">
-        <v>288347000000</v>
+        <v>292930000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.709622480840193</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D169" t="n">
-        <v>204617513482.8271</v>
+        <v>220181900180.3969</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B170" t="n">
-        <v>290033000000</v>
+        <v>296290000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7383343177790903</v>
+        <v>0.7553440592189742</v>
       </c>
       <c r="D170" t="n">
-        <v>214141317188.4229</v>
+        <v>223800891305.9899</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B171" t="n">
-        <v>292435000000</v>
+        <v>299240000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.751653638003608</v>
+        <v>0.76103500761035</v>
       </c>
       <c r="D171" t="n">
-        <v>219809831629.5851</v>
+        <v>227732115677.3211</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B172" t="n">
-        <v>296712000000</v>
+        <v>301580000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7553440592189742</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D172" t="n">
-        <v>224119646498.9803</v>
+        <v>224239720425.3104</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B173" t="n">
-        <v>299192000000</v>
+        <v>305960000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.76103500761035</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D173" t="n">
-        <v>227695585996.9558</v>
+        <v>227158660628.109</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B174" t="n">
-        <v>302119000000</v>
+        <v>307030000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="D174" t="n">
-        <v>224640493717.005</v>
+        <v>229126865671.6418</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B175" t="n">
-        <v>305490000000</v>
+        <v>309240000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7640003056001222</v>
       </c>
       <c r="D175" t="n">
-        <v>226809711188.6554</v>
+        <v>236259454503.7818</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B176" t="n">
-        <v>307211000000</v>
+        <v>310810000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7462686567164178</v>
+        <v>0.7820442637053258</v>
       </c>
       <c r="D176" t="n">
-        <v>229261940298.5074</v>
+        <v>243067177602.2523</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B177" t="n">
-        <v>309336000000</v>
+        <v>312640000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7640003056001222</v>
+        <v>0.7871536523929471</v>
       </c>
       <c r="D177" t="n">
-        <v>236332798533.1194</v>
+        <v>246095717884.131</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B178" t="n">
-        <v>310744000000</v>
+        <v>312680000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7820442637053258</v>
+        <v>0.7986582541330565</v>
       </c>
       <c r="D178" t="n">
-        <v>243015562680.8477</v>
+        <v>249724462902.3241</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B179" t="n">
-        <v>312659000000</v>
+        <v>315970000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7871536523929471</v>
+        <v>0.7877116975187081</v>
       </c>
       <c r="D179" t="n">
-        <v>246110673803.5265</v>
+        <v>248893265064.9862</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B180" t="n">
-        <v>312486000000</v>
+        <v>319500000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7986582541330565</v>
+        <v>0.7730364873222015</v>
       </c>
       <c r="D180" t="n">
-        <v>249569523201.0223</v>
+        <v>246985157699.4434</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B181" t="n">
-        <v>316093000000</v>
+        <v>321170000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7877116975187081</v>
+        <v>0.7901390644753477</v>
       </c>
       <c r="D181" t="n">
-        <v>248990153603.781</v>
+        <v>253768963337.5474</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B182" t="n">
-        <v>319265000000</v>
+        <v>320120000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7730364873222015</v>
+        <v>0.7912644405760405</v>
       </c>
       <c r="D182" t="n">
-        <v>246803494124.9227</v>
+        <v>253299572717.2021</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B183" t="n">
-        <v>320822000000</v>
+        <v>326780000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7901390644753477</v>
+        <v>0.7917656373713381</v>
       </c>
       <c r="D183" t="n">
-        <v>253493994943.11</v>
+        <v>258733174980.2059</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B184" t="n">
-        <v>320525000000</v>
+        <v>330160000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7912644405760405</v>
+        <v>0.8167265599477296</v>
       </c>
       <c r="D184" t="n">
-        <v>253620034815.6354</v>
+        <v>269650441032.3424</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B185" t="n">
-        <v>326842000000</v>
+        <v>332270000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7917656373713381</v>
+        <v>0.794533608771651</v>
       </c>
       <c r="D185" t="n">
-        <v>258782264449.7229</v>
+        <v>263999682186.5565</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B186" t="n">
-        <v>330664000000</v>
+        <v>334060000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.8167265599477296</v>
+        <v>0.7627183281214248</v>
       </c>
       <c r="D186" t="n">
-        <v>270062071218.5561</v>
+        <v>254793684692.2432</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B187" t="n">
-        <v>331846000000</v>
+        <v>336880000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.794533608771651</v>
+        <v>0.7789375292101574</v>
       </c>
       <c r="D187" t="n">
-        <v>263662799936.4373</v>
+        <v>262408474840.3178</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B188" t="n">
-        <v>334235000000</v>
+        <v>338230000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7627183281214248</v>
+        <v>0.7855459544383347</v>
       </c>
       <c r="D188" t="n">
-        <v>254927160399.6644</v>
+        <v>265695208169.6779</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B189" t="n">
-        <v>336909000000</v>
+        <v>340960000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7789375292101574</v>
+        <v>0.7805182641273807</v>
       </c>
       <c r="D189" t="n">
-        <v>262431064028.6649</v>
+        <v>266125507336.8717</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B190" t="n">
-        <v>337993000000</v>
+        <v>343490000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7855459544383347</v>
+        <v>0.7600516835144789</v>
       </c>
       <c r="D190" t="n">
-        <v>265509033778.4761</v>
+        <v>261070152770.3884</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B191" t="n">
-        <v>340931000000</v>
+        <v>345100000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7805182641273807</v>
+        <v>0.75431847325941</v>
       </c>
       <c r="D191" t="n">
-        <v>266102872307.212</v>
+        <v>260315305121.8224</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B192" t="n">
-        <v>343241000000</v>
+        <v>346110000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7600516835144789</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D192" t="n">
-        <v>260880899901.1933</v>
+        <v>258561183325.8628</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B193" t="n">
-        <v>345237000000</v>
+        <v>347530000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.75431847325941</v>
+        <v>0.7322252324815114</v>
       </c>
       <c r="D193" t="n">
-        <v>260418646752.6589</v>
+        <v>254470235044.2997</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B194" t="n">
-        <v>345923000000</v>
+        <v>347250000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7246376811594204</v>
       </c>
       <c r="D194" t="n">
-        <v>258421485133.7218</v>
+        <v>251630434782.6087</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B195" t="n">
-        <v>347450000000</v>
+        <v>350470000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7322252324815114</v>
+        <v>0.7011147724882564</v>
       </c>
       <c r="D195" t="n">
-        <v>254411657025.7011</v>
+        <v>245719694313.9592</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B196" t="n">
-        <v>347708000000</v>
+        <v>351820000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7246376811594204</v>
+        <v>0.681384573453257</v>
       </c>
       <c r="D196" t="n">
-        <v>251962318840.5797</v>
+        <v>239724720632.3249</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B197" t="n">
-        <v>350540000000</v>
+        <v>354150000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7011147724882564</v>
+        <v>0.6503219093451258</v>
       </c>
       <c r="D197" t="n">
-        <v>245768772348.0334</v>
+        <v>230311504194.5763</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B198" t="n">
-        <v>352258000000</v>
+        <v>355660000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.681384573453257</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D198" t="n">
-        <v>240023167075.4974</v>
+        <v>244171357956.8859</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B199" t="n">
-        <v>353695000000</v>
+        <v>357450000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6503219093451258</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D199" t="n">
-        <v>230015607725.8243</v>
+        <v>242783400122.2577</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B200" t="n">
-        <v>355672000000</v>
+        <v>358330000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6624710168930109</v>
       </c>
       <c r="D200" t="n">
-        <v>244179596320.1978</v>
+        <v>237383239483.2726</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B201" t="n">
-        <v>357540000000</v>
+        <v>361170000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D201" t="n">
-        <v>242844528968.2809</v>
+        <v>234480296046.2248</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B202" t="n">
-        <v>358061000000</v>
+        <v>362750000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6624710168930109</v>
+        <v>0.6229365227683299</v>
       </c>
       <c r="D202" t="n">
-        <v>237205034779.7284</v>
+        <v>225970223634.2117</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B203" t="n">
-        <v>361056000000</v>
+        <v>366170000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6206168931918327</v>
       </c>
       <c r="D203" t="n">
-        <v>234406284490.0344</v>
+        <v>227251287780.0534</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B204" t="n">
-        <v>362539000000</v>
+        <v>371130000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6229365227683299</v>
+        <v>0.6060238773407672</v>
       </c>
       <c r="D204" t="n">
-        <v>225838784027.9076</v>
+        <v>224913641597.4789</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35947</v>
+        <v>36008</v>
       </c>
       <c r="B205" t="n">
-        <v>366379000000</v>
+        <v>373880000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6206168931918327</v>
+        <v>0.5656748500961647</v>
       </c>
       <c r="D205" t="n">
-        <v>227380996710.7305</v>
+        <v>211494512953.9541</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35977</v>
+        <v>36039</v>
       </c>
       <c r="B206" t="n">
-        <v>371049000000</v>
+        <v>376200000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6060238773407672</v>
+        <v>0.5935774915415207</v>
       </c>
       <c r="D206" t="n">
-        <v>224864553663.4143</v>
+        <v>223303852317.9201</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36008</v>
+        <v>36069</v>
       </c>
       <c r="B207" t="n">
-        <v>373899000000</v>
+        <v>377710000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.5656748500961647</v>
+        <v>0.623208276205908</v>
       </c>
       <c r="D207" t="n">
-        <v>211505260776.1059</v>
+        <v>235391998005.7335</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36039</v>
+        <v>36100</v>
       </c>
       <c r="B208" t="n">
-        <v>376368000000</v>
+        <v>378810000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5935774915415207</v>
+        <v>0.6285355122564426</v>
       </c>
       <c r="D208" t="n">
-        <v>223403573336.4991</v>
+        <v>238095537397.863</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36069</v>
+        <v>36130</v>
       </c>
       <c r="B209" t="n">
-        <v>377646000000</v>
+        <v>382120000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.623208276205908</v>
+        <v>0.611321677466683</v>
       </c>
       <c r="D209" t="n">
-        <v>235352112676.0563</v>
+        <v>233598239393.5689</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36100</v>
+        <v>36161</v>
       </c>
       <c r="B210" t="n">
-        <v>379133000000</v>
+        <v>385160000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6285355122564426</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D210" t="n">
-        <v>238298554368.3218</v>
+        <v>242742799521.0185</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36130</v>
+        <v>36192</v>
       </c>
       <c r="B211" t="n">
-        <v>381833000000</v>
+        <v>387510000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.611321677466683</v>
+        <v>0.6187353050365053</v>
       </c>
       <c r="D211" t="n">
-        <v>233422790072.136</v>
+        <v>239766118054.6962</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="B212" t="n">
-        <v>385206000000</v>
+        <v>391450000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6338742393509128</v>
       </c>
       <c r="D212" t="n">
-        <v>242771790508.6028</v>
+        <v>248130070993.9148</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36192</v>
+        <v>36251</v>
       </c>
       <c r="B213" t="n">
-        <v>388005000000</v>
+        <v>395750000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6187353050365053</v>
+        <v>0.6612007405448295</v>
       </c>
       <c r="D213" t="n">
-        <v>240072392030.6892</v>
+        <v>261670193070.6163</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36220</v>
+        <v>36281</v>
       </c>
       <c r="B214" t="n">
-        <v>391239000000</v>
+        <v>399910000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6338742393509128</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D214" t="n">
-        <v>247996323529.4118</v>
+        <v>259631240667.4025</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36251</v>
+        <v>36312</v>
       </c>
       <c r="B215" t="n">
-        <v>395496000000</v>
+        <v>403120000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6612007405448295</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D215" t="n">
-        <v>261502248082.5179</v>
+        <v>269123439481.9414</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36281</v>
+        <v>36342</v>
       </c>
       <c r="B216" t="n">
-        <v>399819000000</v>
+        <v>405520000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6514233600416911</v>
       </c>
       <c r="D216" t="n">
-        <v>259572161267.2856</v>
+        <v>264165200964.1066</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36312</v>
+        <v>36373</v>
       </c>
       <c r="B217" t="n">
-        <v>403297000000</v>
+        <v>407890000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D217" t="n">
-        <v>269241604913.5457</v>
+        <v>260682558956.9886</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36342</v>
+        <v>36404</v>
       </c>
       <c r="B218" t="n">
-        <v>405325000000</v>
+        <v>411000000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6514233600416911</v>
+        <v>0.6525285481239804</v>
       </c>
       <c r="D218" t="n">
-        <v>264038173408.8984</v>
+        <v>268189233278.956</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36373</v>
+        <v>36434</v>
       </c>
       <c r="B219" t="n">
-        <v>407888000000</v>
+        <v>414510000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.6388551715326136</v>
       </c>
       <c r="D219" t="n">
-        <v>260681280756.6946</v>
+        <v>264811857151.9837</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36404</v>
+        <v>36465</v>
       </c>
       <c r="B220" t="n">
-        <v>410871000000</v>
+        <v>417830000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6525285481239804</v>
+        <v>0.6352029473416757</v>
       </c>
       <c r="D220" t="n">
-        <v>268105057096.248</v>
+        <v>265406847487.7724</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36434</v>
+        <v>36495</v>
       </c>
       <c r="B221" t="n">
-        <v>414144000000</v>
+        <v>417850000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6388551715326136</v>
+        <v>0.6535520554212143</v>
       </c>
       <c r="D221" t="n">
-        <v>264578036159.2027</v>
+        <v>273086726357.7544</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36465</v>
+        <v>36526</v>
       </c>
       <c r="B222" t="n">
-        <v>418075000000</v>
+        <v>418870000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6352029473416757</v>
+        <v>0.6369832473405949</v>
       </c>
       <c r="D222" t="n">
-        <v>265562472209.8711</v>
+        <v>266813172813.555</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36495</v>
+        <v>36557</v>
       </c>
       <c r="B223" t="n">
-        <v>417633000000</v>
+        <v>420650000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6535520554212143</v>
+        <v>0.6178178672927221</v>
       </c>
       <c r="D223" t="n">
-        <v>272944905561.728</v>
+        <v>259885085876.6836</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36526</v>
+        <v>36586</v>
       </c>
       <c r="B224" t="n">
-        <v>418958000000</v>
+        <v>422650000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6369832473405949</v>
+        <v>0.6076810889645115</v>
       </c>
       <c r="D224" t="n">
-        <v>266869227339.321</v>
+        <v>256836412250.8508</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36557</v>
+        <v>36617</v>
       </c>
       <c r="B225" t="n">
-        <v>421677000000</v>
+        <v>426220000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6178178672927221</v>
+        <v>0.5838052425710782</v>
       </c>
       <c r="D225" t="n">
-        <v>260519584826.3932</v>
+        <v>248829470488.645</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36586</v>
+        <v>36647</v>
       </c>
       <c r="B226" t="n">
-        <v>422768000000</v>
+        <v>429660000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.6076810889645115</v>
+        <v>0.5727048851726705</v>
       </c>
       <c r="D226" t="n">
-        <v>256908118619.3486</v>
+        <v>246068380963.2896</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="B227" t="n">
-        <v>425874000000</v>
+        <v>431980000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5838052425710782</v>
+        <v>0.5969080164746613</v>
       </c>
       <c r="D227" t="n">
-        <v>248627473874.7154</v>
+        <v>257852324956.7242</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="B228" t="n">
-        <v>429740000000</v>
+        <v>434970000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5727048851726705</v>
+        <v>0.5809225049378413</v>
       </c>
       <c r="D228" t="n">
-        <v>246114197354.1034</v>
+        <v>252683861972.8128</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36678</v>
+        <v>36739</v>
       </c>
       <c r="B229" t="n">
-        <v>432161000000</v>
+        <v>438260000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5969080164746613</v>
+        <v>0.576468553640399</v>
       </c>
       <c r="D229" t="n">
-        <v>257960365307.7061</v>
+        <v>252643108318.4413</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36708</v>
+        <v>36770</v>
       </c>
       <c r="B230" t="n">
-        <v>434653000000</v>
+        <v>439950000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5809225049378413</v>
+        <v>0.5429176393941039</v>
       </c>
       <c r="D230" t="n">
-        <v>252499709538.7475</v>
+        <v>238856615451.436</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36739</v>
+        <v>36800</v>
       </c>
       <c r="B231" t="n">
-        <v>438079000000</v>
+        <v>442280000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.576468553640399</v>
+        <v>0.5178127589063795</v>
       </c>
       <c r="D231" t="n">
-        <v>252538767510.2323</v>
+        <v>229018227009.1135</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36770</v>
+        <v>36831</v>
       </c>
       <c r="B232" t="n">
-        <v>439475000000</v>
+        <v>436650000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5429176393941039</v>
+        <v>0.5281504172388296</v>
       </c>
       <c r="D232" t="n">
-        <v>238598729572.7238</v>
+        <v>230616879687.335</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36800</v>
+        <v>36861</v>
       </c>
       <c r="B233" t="n">
-        <v>441681000000</v>
+        <v>438420000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5178127589063795</v>
+        <v>0.5586280096084018</v>
       </c>
       <c r="D233" t="n">
-        <v>228708057166.5286</v>
+        <v>244913691972.5155</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36831</v>
+        <v>36892</v>
       </c>
       <c r="B234" t="n">
-        <v>436684000000</v>
+        <v>443340000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5281504172388296</v>
+        <v>0.5509338328466752</v>
       </c>
       <c r="D234" t="n">
-        <v>230634836801.5211</v>
+        <v>244251005454.245</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36861</v>
+        <v>36923</v>
       </c>
       <c r="B235" t="n">
-        <v>438162000000</v>
+        <v>448720000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5586280096084018</v>
+        <v>0.5259835893120135</v>
       </c>
       <c r="D235" t="n">
-        <v>244769565946.0365</v>
+        <v>236019356196.0867</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36892</v>
+        <v>36951</v>
       </c>
       <c r="B236" t="n">
-        <v>443487000000</v>
+        <v>453480000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5509338328466752</v>
+        <v>0.4857198367981348</v>
       </c>
       <c r="D236" t="n">
-        <v>244331992727.6734</v>
+        <v>220264231591.2182</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36923</v>
+        <v>36982</v>
       </c>
       <c r="B237" t="n">
-        <v>450306000000</v>
+        <v>457780000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5259835893120135</v>
+        <v>0.5123738279448686</v>
       </c>
       <c r="D237" t="n">
-        <v>236853566168.7356</v>
+        <v>234554490956.602</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36951</v>
+        <v>37012</v>
       </c>
       <c r="B238" t="n">
-        <v>454083000000</v>
+        <v>463620000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.4857198367981348</v>
+        <v>0.506868062243398</v>
       </c>
       <c r="D238" t="n">
-        <v>220557120652.8074</v>
+        <v>234994171017.2842</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="B239" t="n">
-        <v>457351000000</v>
+        <v>468500000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5123738279448686</v>
+        <v>0.5109078833086395</v>
       </c>
       <c r="D239" t="n">
-        <v>234334682584.4136</v>
+        <v>239360343330.0976</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="B240" t="n">
-        <v>463834000000</v>
+        <v>466790000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.506868062243398</v>
+        <v>0.5097099750242112</v>
       </c>
       <c r="D240" t="n">
-        <v>235102640782.6042</v>
+        <v>237927519241.5515</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37043</v>
+        <v>37104</v>
       </c>
       <c r="B241" t="n">
-        <v>468445000000</v>
+        <v>474320000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5109078833086395</v>
+        <v>0.5293526017680377</v>
       </c>
       <c r="D241" t="n">
-        <v>239332243396.5156</v>
+        <v>251082526070.6156</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37073</v>
+        <v>37135</v>
       </c>
       <c r="B242" t="n">
-        <v>466366000000</v>
+        <v>481010000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5097099750242112</v>
+        <v>0.4912556494399685</v>
       </c>
       <c r="D242" t="n">
-        <v>237711402212.1413</v>
+        <v>236298879937.1193</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37104</v>
+        <v>37165</v>
       </c>
       <c r="B243" t="n">
-        <v>474087000000</v>
+        <v>488360000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5293526017680377</v>
+        <v>0.5031699708161417</v>
       </c>
       <c r="D243" t="n">
-        <v>250959186914.4037</v>
+        <v>245728086947.7709</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37135</v>
+        <v>37196</v>
       </c>
       <c r="B244" t="n">
-        <v>480299000000</v>
+        <v>494090000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4912556494399685</v>
+        <v>0.5217028380634391</v>
       </c>
       <c r="D244" t="n">
-        <v>235949597170.3674</v>
+        <v>257768155258.7646</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37165</v>
+        <v>37226</v>
       </c>
       <c r="B245" t="n">
-        <v>487548000000</v>
+        <v>498600000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5031699708161417</v>
+        <v>0.5105166428425566</v>
       </c>
       <c r="D245" t="n">
-        <v>245319512931.4682</v>
+        <v>254543598121.2987</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37196</v>
+        <v>37257</v>
       </c>
       <c r="B246" t="n">
-        <v>494022000000</v>
+        <v>503470000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.5217028380634391</v>
+        <v>0.5079752108097125</v>
       </c>
       <c r="D246" t="n">
-        <v>257732679465.7763</v>
+        <v>255750279386.366</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37226</v>
+        <v>37288</v>
       </c>
       <c r="B247" t="n">
-        <v>498246000000</v>
+        <v>506280000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.5105166428425566</v>
+        <v>0.5176787285810426</v>
       </c>
       <c r="D247" t="n">
-        <v>254362875229.7325</v>
+        <v>262090386706.0102</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37257</v>
+        <v>37316</v>
       </c>
       <c r="B248" t="n">
-        <v>503546000000</v>
+        <v>513230000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5079752108097125</v>
+        <v>0.5332195798229711</v>
       </c>
       <c r="D248" t="n">
-        <v>255788885502.3875</v>
+        <v>273664284952.5435</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37288</v>
+        <v>37347</v>
       </c>
       <c r="B249" t="n">
-        <v>508286000000</v>
+        <v>499220000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5176787285810426</v>
+        <v>0.5384449709239716</v>
       </c>
       <c r="D249" t="n">
-        <v>263128850235.5438</v>
+        <v>268802498384.6651</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37316</v>
+        <v>37377</v>
       </c>
       <c r="B250" t="n">
-        <v>514389000000</v>
+        <v>502860000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5332195798229711</v>
+        <v>0.5673115107505532</v>
       </c>
       <c r="D250" t="n">
-        <v>274282286445.5583</v>
+        <v>285278266296.0232</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37347</v>
+        <v>37408</v>
       </c>
       <c r="B251" t="n">
-        <v>499353000000</v>
+        <v>496270000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5384449709239716</v>
+        <v>0.5634755169887868</v>
       </c>
       <c r="D251" t="n">
-        <v>268874111565.798</v>
+        <v>279635994816.0253</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37377</v>
+        <v>37438</v>
       </c>
       <c r="B252" t="n">
-        <v>503573000000</v>
+        <v>506220000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5673115107505532</v>
+        <v>0.5422405379026136</v>
       </c>
       <c r="D252" t="n">
-        <v>285682759403.1883</v>
+        <v>274493005097.0611</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37408</v>
+        <v>37469</v>
       </c>
       <c r="B253" t="n">
-        <v>496932000000</v>
+        <v>513150000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.5634755169887868</v>
+        <v>0.550812448361333</v>
       </c>
       <c r="D253" t="n">
-        <v>280009015608.2719</v>
+        <v>282649407876.618</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37438</v>
+        <v>37500</v>
       </c>
       <c r="B254" t="n">
-        <v>505998000000</v>
+        <v>515929999999.9999</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5422405379026136</v>
+        <v>0.5425935973955507</v>
       </c>
       <c r="D254" t="n">
-        <v>274372627697.6467</v>
+        <v>279940314704.2864</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37469</v>
+        <v>37530</v>
       </c>
       <c r="B255" t="n">
-        <v>512908000000</v>
+        <v>519380000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.550812448361333</v>
+        <v>0.5541701302299806</v>
       </c>
       <c r="D255" t="n">
-        <v>282516111264.1146</v>
+        <v>287824882238.8474</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37500</v>
+        <v>37561</v>
       </c>
       <c r="B256" t="n">
-        <v>515631000000</v>
+        <v>526200000000.0001</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5425935973955507</v>
+        <v>0.5607895917451773</v>
       </c>
       <c r="D256" t="n">
-        <v>279778079218.6652</v>
+        <v>295087483176.3124</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37530</v>
+        <v>37591</v>
       </c>
       <c r="B257" t="n">
-        <v>518953999999.9999</v>
+        <v>531549999999.9999</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5541701302299806</v>
+        <v>0.5616399887672002</v>
       </c>
       <c r="D257" t="n">
-        <v>287588805763.3693</v>
+        <v>298539736029.2052</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37561</v>
+        <v>37622</v>
       </c>
       <c r="B258" t="n">
-        <v>526909999999.9999</v>
+        <v>537549999999.9999</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5607895917451773</v>
+        <v>0.5868544600938967</v>
       </c>
       <c r="D258" t="n">
-        <v>295485643786.4513</v>
+        <v>315463615023.4741</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37591</v>
+        <v>37653</v>
       </c>
       <c r="B259" t="n">
-        <v>532898000000</v>
+        <v>540590000000.0001</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5616399887672002</v>
+        <v>0.6086797735711242</v>
       </c>
       <c r="D259" t="n">
-        <v>299296826734.0635</v>
+        <v>329046198794.8141</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37622</v>
+        <v>37681</v>
       </c>
       <c r="B260" t="n">
-        <v>538592999999.9999</v>
+        <v>547510000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.5868544600938967</v>
+        <v>0.6046680372475511</v>
       </c>
       <c r="D260" t="n">
-        <v>316075704225.3521</v>
+        <v>331061797073.4067</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37653</v>
+        <v>37712</v>
       </c>
       <c r="B261" t="n">
-        <v>543006999999.9999</v>
+        <v>553070000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6086797735711242</v>
+        <v>0.6265271599523839</v>
       </c>
       <c r="D261" t="n">
-        <v>330517377807.5354</v>
+        <v>346513376354.865</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37681</v>
+        <v>37742</v>
       </c>
       <c r="B262" t="n">
-        <v>549219000000.0001</v>
+        <v>563650000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6046680372475511</v>
+        <v>0.6533385600418137</v>
       </c>
       <c r="D262" t="n">
-        <v>332095174749.0629</v>
+        <v>368254279367.5683</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37712</v>
+        <v>37773</v>
       </c>
       <c r="B263" t="n">
-        <v>552484000000</v>
+        <v>564390000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6265271599523839</v>
+        <v>0.6738544474393531</v>
       </c>
       <c r="D263" t="n">
-        <v>346146231439.1329</v>
+        <v>380316711590.2965</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37742</v>
+        <v>37803</v>
       </c>
       <c r="B264" t="n">
-        <v>563779000000</v>
+        <v>557870000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6533385600418137</v>
+        <v>0.6487187804086928</v>
       </c>
       <c r="D264" t="n">
-        <v>368338560041.8137</v>
+        <v>361900746026.5975</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37773</v>
+        <v>37834</v>
       </c>
       <c r="B265" t="n">
-        <v>564752000000</v>
+        <v>570820000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.6738544474393531</v>
+        <v>0.6472073004983496</v>
       </c>
       <c r="D265" t="n">
-        <v>380560646900.2695</v>
+        <v>369438871270.468</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37803</v>
+        <v>37865</v>
       </c>
       <c r="B266" t="n">
-        <v>557280000000</v>
+        <v>577790000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.6487187804086928</v>
+        <v>0.6807351940095303</v>
       </c>
       <c r="D266" t="n">
-        <v>361518001946.1563</v>
+        <v>393321987746.7665</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37834</v>
+        <v>37895</v>
       </c>
       <c r="B267" t="n">
-        <v>570042000000</v>
+        <v>582450000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.6472073004983496</v>
+        <v>0.7085163667280714</v>
       </c>
       <c r="D267" t="n">
-        <v>368935343990.6802</v>
+        <v>412675357800.7652</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37865</v>
+        <v>37926</v>
       </c>
       <c r="B268" t="n">
-        <v>577077000000</v>
+        <v>587230000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.6807351940095303</v>
+        <v>0.7242702976750923</v>
       </c>
       <c r="D268" t="n">
-        <v>392836623553.4377</v>
+        <v>425313246903.7444</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37895</v>
+        <v>37956</v>
       </c>
       <c r="B269" t="n">
-        <v>581938000000</v>
+        <v>594210000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7085163667280714</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D269" t="n">
-        <v>412312597421.0004</v>
+        <v>445034451767.5255</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37926</v>
+        <v>37987</v>
       </c>
       <c r="B270" t="n">
-        <v>587540000000</v>
+        <v>595400000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7242702976750923</v>
+        <v>0.7641170627340108</v>
       </c>
       <c r="D270" t="n">
-        <v>425537770696.0237</v>
+        <v>454955299151.83</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37956</v>
+        <v>38018</v>
       </c>
       <c r="B271" t="n">
-        <v>595210000000</v>
+        <v>603830000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D271" t="n">
-        <v>445783403235.4703</v>
+        <v>467216032188.177</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37987</v>
+        <v>38047</v>
       </c>
       <c r="B272" t="n">
-        <v>596137000000</v>
+        <v>610420000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7641170627340108</v>
+        <v>0.7667535654040791</v>
       </c>
       <c r="D272" t="n">
-        <v>455518453427.065</v>
+        <v>468041711393.958</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38018</v>
+        <v>38078</v>
       </c>
       <c r="B273" t="n">
-        <v>605603000000</v>
+        <v>616240000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7206168480219068</v>
       </c>
       <c r="D273" t="n">
-        <v>468587898483.4417</v>
+        <v>444072926425.0199</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38047</v>
+        <v>38108</v>
       </c>
       <c r="B274" t="n">
-        <v>612057000000</v>
+        <v>616410000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7667535654040791</v>
+        <v>0.7153075822603721</v>
       </c>
       <c r="D274" t="n">
-        <v>469296886980.5245</v>
+        <v>440922746781.116</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38078</v>
+        <v>38139</v>
       </c>
       <c r="B275" t="n">
-        <v>615997000000</v>
+        <v>621360000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7206168480219068</v>
+        <v>0.6989097008666479</v>
       </c>
       <c r="D275" t="n">
-        <v>443897816530.9506</v>
+        <v>434274531730.5004</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="B276" t="n">
-        <v>616902000000</v>
+        <v>628300000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7153075822603721</v>
+        <v>0.7026419336706015</v>
       </c>
       <c r="D276" t="n">
-        <v>441274678111.588</v>
+        <v>441469926925.2389</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38139</v>
+        <v>38200</v>
       </c>
       <c r="B277" t="n">
-        <v>622726000000</v>
+        <v>631750000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.6989097008666479</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D277" t="n">
-        <v>435229242381.8842</v>
+        <v>444831713843.1207</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38169</v>
+        <v>38231</v>
       </c>
       <c r="B278" t="n">
-        <v>627842000000</v>
+        <v>631890000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7026419336706015</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D278" t="n">
-        <v>441148116919.6177</v>
+        <v>459589788348.2435</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38200</v>
+        <v>38261</v>
       </c>
       <c r="B279" t="n">
-        <v>630891000000</v>
+        <v>636610000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7484469725319961</v>
       </c>
       <c r="D279" t="n">
-        <v>444226869455.0064</v>
+        <v>476468827183.5941</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38231</v>
+        <v>38292</v>
       </c>
       <c r="B280" t="n">
-        <v>631275000000</v>
+        <v>643610000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7728572532653218</v>
       </c>
       <c r="D280" t="n">
-        <v>459142483089.6792</v>
+        <v>497418656774.0938</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38261</v>
+        <v>38322</v>
       </c>
       <c r="B281" t="n">
-        <v>636956000000</v>
+        <v>647030000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7484469725319961</v>
+        <v>0.7802137785753296</v>
       </c>
       <c r="D281" t="n">
-        <v>476727789836.0901</v>
+        <v>504821721151.5955</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38292</v>
+        <v>38353</v>
       </c>
       <c r="B282" t="n">
-        <v>644188000000</v>
+        <v>651950000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7728572532653218</v>
+        <v>0.7757350089209527</v>
       </c>
       <c r="D282" t="n">
-        <v>497865368266.4811</v>
+        <v>505740439066.0151</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38322</v>
+        <v>38384</v>
       </c>
       <c r="B283" t="n">
-        <v>648120000000</v>
+        <v>655630000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.7802137785753296</v>
+        <v>0.791702953052015</v>
       </c>
       <c r="D283" t="n">
-        <v>505672154170.2426</v>
+        <v>519064207109.4926</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38353</v>
+        <v>38412</v>
       </c>
       <c r="B284" t="n">
-        <v>652699000000</v>
+        <v>658170000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7757350089209527</v>
+        <v>0.7723200494284832</v>
       </c>
       <c r="D284" t="n">
-        <v>506321464587.6969</v>
+        <v>508317886932.3448</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38384</v>
+        <v>38443</v>
       </c>
       <c r="B285" t="n">
-        <v>656880000000</v>
+        <v>663270000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.791702953052015</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D285" t="n">
-        <v>520053835800.8076</v>
+        <v>518301164335.3911</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38412</v>
+        <v>38473</v>
       </c>
       <c r="B286" t="n">
-        <v>659577000000</v>
+        <v>670110000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.7723200494284832</v>
+        <v>0.7558007709167863</v>
       </c>
       <c r="D286" t="n">
-        <v>509404541241.8907</v>
+        <v>506469654599.0477</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38443</v>
+        <v>38504</v>
       </c>
       <c r="B287" t="n">
-        <v>663075000000</v>
+        <v>677030000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7625438462711607</v>
       </c>
       <c r="D287" t="n">
-        <v>518148784871.4543</v>
+        <v>516265060240.9639</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38473</v>
+        <v>38534</v>
       </c>
       <c r="B288" t="n">
-        <v>670792000000</v>
+        <v>678460000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.7558007709167863</v>
+        <v>0.7568303943086355</v>
       </c>
       <c r="D288" t="n">
-        <v>506985110724.8129</v>
+        <v>513479149322.6368</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38504</v>
+        <v>38565</v>
       </c>
       <c r="B289" t="n">
-        <v>678364000000</v>
+        <v>681150000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7625438462711607</v>
+        <v>0.7554011179936546</v>
       </c>
       <c r="D289" t="n">
-        <v>517282293731.8896</v>
+        <v>514541471521.3779</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38534</v>
+        <v>38596</v>
       </c>
       <c r="B290" t="n">
-        <v>678494000000</v>
+        <v>690110000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.7568303943086355</v>
+        <v>0.7620208793720947</v>
       </c>
       <c r="D290" t="n">
-        <v>513504881556.0433</v>
+        <v>525878229063.4763</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38565</v>
+        <v>38626</v>
       </c>
       <c r="B291" t="n">
-        <v>680814000000</v>
+        <v>688190000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.7554011179936546</v>
+        <v>0.7485590238790328</v>
       </c>
       <c r="D291" t="n">
-        <v>514287656745.732</v>
+        <v>515150834643.3116</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38596</v>
+        <v>38657</v>
       </c>
       <c r="B292" t="n">
-        <v>689607000000</v>
+        <v>692280000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.7620208793720947</v>
+        <v>0.738061849582995</v>
       </c>
       <c r="D292" t="n">
-        <v>525494932561.1521</v>
+        <v>510945457229.3158</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38626</v>
+        <v>38687</v>
       </c>
       <c r="B293" t="n">
-        <v>689073000000</v>
+        <v>700040000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.7485590238790328</v>
+        <v>0.7345379756133392</v>
       </c>
       <c r="D293" t="n">
-        <v>515811812261.3968</v>
+        <v>514205964448.362</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38657</v>
+        <v>38718</v>
       </c>
       <c r="B294" t="n">
-        <v>693226000000</v>
+        <v>708110000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.738061849582995</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D294" t="n">
-        <v>511643663739.0213</v>
+        <v>537138739285.4434</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38687</v>
+        <v>38749</v>
       </c>
       <c r="B295" t="n">
-        <v>701002000000</v>
+        <v>711320000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7345379756133392</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D295" t="n">
-        <v>514912589980.902</v>
+        <v>528351778949.714</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38718</v>
+        <v>38777</v>
       </c>
       <c r="B296" t="n">
-        <v>708887000000</v>
+        <v>721570000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7165376898824879</v>
       </c>
       <c r="D296" t="n">
-        <v>537728134718.9562</v>
+        <v>517032100888.5068</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38749</v>
+        <v>38808</v>
       </c>
       <c r="B297" t="n">
-        <v>711608000000</v>
+        <v>737180000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7598206823189727</v>
       </c>
       <c r="D297" t="n">
-        <v>528565698581.2969</v>
+        <v>560124610591.9003</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38777</v>
+        <v>38838</v>
       </c>
       <c r="B298" t="n">
-        <v>722698000000</v>
+        <v>740080000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.7165376898824879</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D298" t="n">
-        <v>517840355402.6942</v>
+        <v>556660398646.1077</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38808</v>
+        <v>38869</v>
       </c>
       <c r="B299" t="n">
-        <v>736546000000</v>
+        <v>746280000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.7598206823189727</v>
+        <v>0.7427213309566251</v>
       </c>
       <c r="D299" t="n">
-        <v>559642884279.3101</v>
+        <v>554278074866.3102</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38838</v>
+        <v>38899</v>
       </c>
       <c r="B300" t="n">
-        <v>740725000000</v>
+        <v>752990000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7659313725490196</v>
       </c>
       <c r="D300" t="n">
-        <v>557145543437.3826</v>
+        <v>576738664215.6863</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38869</v>
+        <v>38930</v>
       </c>
       <c r="B301" t="n">
-        <v>747499000000</v>
+        <v>761270000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.7427213309566251</v>
+        <v>0.7638252367858235</v>
       </c>
       <c r="D301" t="n">
-        <v>555183452168.7463</v>
+        <v>581477238007.9438</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38899</v>
+        <v>38961</v>
       </c>
       <c r="B302" t="n">
-        <v>753419000000</v>
+        <v>767370000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7659313725490196</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D302" t="n">
-        <v>577067248774.5098</v>
+        <v>573477318586.0548</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38930</v>
+        <v>38991</v>
       </c>
       <c r="B303" t="n">
-        <v>761447000000</v>
+        <v>776600000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7638252367858235</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D303" t="n">
-        <v>581612435074.855</v>
+        <v>601083591331.2693</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38961</v>
+        <v>39022</v>
       </c>
       <c r="B304" t="n">
-        <v>766868000000</v>
+        <v>781710000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7894529091339701</v>
       </c>
       <c r="D304" t="n">
-        <v>573102159778.7908</v>
+        <v>617123233599.1158</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="B305" t="n">
-        <v>777845000000</v>
+        <v>791340000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.7895775759968418</v>
       </c>
       <c r="D305" t="n">
-        <v>602047213622.291</v>
+        <v>624824318989.3407</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39022</v>
+        <v>39083</v>
       </c>
       <c r="B306" t="n">
-        <v>783033000000</v>
+        <v>797720000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7894529091339701</v>
+        <v>0.777363184079602</v>
       </c>
       <c r="D306" t="n">
-        <v>618167679797.9</v>
+        <v>620118159203.9801</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39052</v>
+        <v>39114</v>
       </c>
       <c r="B307" t="n">
-        <v>792229000000</v>
+        <v>814180000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7895775759968418</v>
+        <v>0.7879599716334411</v>
       </c>
       <c r="D307" t="n">
-        <v>625526253454.402</v>
+        <v>641541249704.5151</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39083</v>
+        <v>39142</v>
       </c>
       <c r="B308" t="n">
-        <v>798816000000</v>
+        <v>825660000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.777363184079602</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D308" t="n">
-        <v>620970149253.7313</v>
+        <v>667847609803.4458</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39114</v>
+        <v>39173</v>
       </c>
       <c r="B309" t="n">
-        <v>813694000000</v>
+        <v>839080000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.7879599716334411</v>
+        <v>0.8300821781356353</v>
       </c>
       <c r="D309" t="n">
-        <v>641158301158.3013</v>
+        <v>696505354030.049</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B310" t="n">
-        <v>826536000000</v>
+        <v>846460000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8279516476237788</v>
       </c>
       <c r="D310" t="n">
-        <v>668556175685.5133</v>
+        <v>700827951647.6238</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39173</v>
+        <v>39234</v>
       </c>
       <c r="B311" t="n">
-        <v>837877000000</v>
+        <v>869580000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8300821781356353</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D311" t="n">
-        <v>695506765169.7517</v>
+        <v>738496815286.6243</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39203</v>
+        <v>39264</v>
       </c>
       <c r="B312" t="n">
-        <v>846975000000</v>
+        <v>880350000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8279516476237788</v>
+        <v>0.8509189925119128</v>
       </c>
       <c r="D312" t="n">
-        <v>701254346746.15</v>
+        <v>749106535057.8624</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39234</v>
+        <v>39295</v>
       </c>
       <c r="B313" t="n">
-        <v>869860000000</v>
+        <v>899030000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8180628272251309</v>
       </c>
       <c r="D313" t="n">
-        <v>738734607218.6837</v>
+        <v>735463023560.2095</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39264</v>
+        <v>39326</v>
       </c>
       <c r="B314" t="n">
-        <v>881272000000</v>
+        <v>912930000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8509189925119128</v>
+        <v>0.8889679082585119</v>
       </c>
       <c r="D314" t="n">
-        <v>749891082368.9585</v>
+        <v>811565472486.4432</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39295</v>
+        <v>39356</v>
       </c>
       <c r="B315" t="n">
-        <v>899768000000</v>
+        <v>938410000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8180628272251309</v>
+        <v>0.9325748391308403</v>
       </c>
       <c r="D315" t="n">
-        <v>736066753926.7015</v>
+        <v>875137554788.7719</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39326</v>
+        <v>39387</v>
       </c>
       <c r="B316" t="n">
-        <v>912458000000</v>
+        <v>962560000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8889679082585119</v>
+        <v>0.8844078889183691</v>
       </c>
       <c r="D316" t="n">
-        <v>811145879633.7452</v>
+        <v>851295657557.2654</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39356</v>
+        <v>39417</v>
       </c>
       <c r="B317" t="n">
-        <v>939916000000</v>
+        <v>971820000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9325748391308403</v>
+        <v>0.8749671887304226</v>
       </c>
       <c r="D317" t="n">
-        <v>876542012496.5028</v>
+        <v>850310613351.9993</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39387</v>
+        <v>39448</v>
       </c>
       <c r="B318" t="n">
-        <v>964843000000</v>
+        <v>984270000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.8844078889183691</v>
+        <v>0.8962982880702699</v>
       </c>
       <c r="D318" t="n">
-        <v>853314760767.666</v>
+        <v>882199515998.9246</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39417</v>
+        <v>39479</v>
       </c>
       <c r="B319" t="n">
-        <v>972720000000</v>
+        <v>992020000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.8749671887304226</v>
+        <v>0.9313588525658936</v>
       </c>
       <c r="D319" t="n">
-        <v>851098083821.8567</v>
+        <v>923926608922.4177</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39448</v>
+        <v>39508</v>
       </c>
       <c r="B320" t="n">
-        <v>985627000000</v>
+        <v>1001360000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.8962982880702699</v>
+        <v>0.9139097057210747</v>
       </c>
       <c r="D320" t="n">
-        <v>883415792775.8359</v>
+        <v>915152622920.8553</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39479</v>
+        <v>39539</v>
       </c>
       <c r="B321" t="n">
-        <v>990897000000</v>
+        <v>1012690000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9313588525658936</v>
+        <v>0.9437523593808984</v>
       </c>
       <c r="D321" t="n">
-        <v>922880692930.9862</v>
+        <v>955728576821.442</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39508</v>
+        <v>39569</v>
       </c>
       <c r="B322" t="n">
-        <v>1002004000000</v>
+        <v>1016350000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9139097057210747</v>
+        <v>0.9562057754828839</v>
       </c>
       <c r="D322" t="n">
-        <v>915741180771.3397</v>
+        <v>971839739912.0291</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39539</v>
+        <v>39600</v>
       </c>
       <c r="B323" t="n">
-        <v>1010323000000</v>
+        <v>1035620000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9437523593808984</v>
+        <v>0.9590486237652249</v>
       </c>
       <c r="D323" t="n">
-        <v>953494714986.7875</v>
+        <v>993209935743.7422</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39569</v>
+        <v>39630</v>
       </c>
       <c r="B324" t="n">
-        <v>1016348000000</v>
+        <v>1056950000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9562057754828839</v>
+        <v>0.9417969485778865</v>
       </c>
       <c r="D324" t="n">
-        <v>971837827500.478</v>
+        <v>995432284799.3972</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39600</v>
+        <v>39661</v>
       </c>
       <c r="B325" t="n">
-        <v>1037557000000</v>
+        <v>1069430000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9590486237652249</v>
+        <v>0.8582217645039478</v>
       </c>
       <c r="D325" t="n">
-        <v>995067612927.9755</v>
+        <v>917808101613.4569</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39630</v>
+        <v>39692</v>
       </c>
       <c r="B326" t="n">
-        <v>1059989000000</v>
+        <v>1089220000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9417969485778865</v>
+        <v>0.7951653944020356</v>
       </c>
       <c r="D326" t="n">
-        <v>998294405726.1254</v>
+        <v>866110050890.5852</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39661</v>
+        <v>39722</v>
       </c>
       <c r="B327" t="n">
-        <v>1071512000000</v>
+        <v>1102950000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.8582217645039478</v>
+        <v>0.6685832720465333</v>
       </c>
       <c r="D327" t="n">
-        <v>919594919327.1542</v>
+        <v>737413919903.724</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39692</v>
+        <v>39753</v>
       </c>
       <c r="B328" t="n">
-        <v>1089760000000</v>
+        <v>1129340000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.7951653944020356</v>
+        <v>0.6549646319098769</v>
       </c>
       <c r="D328" t="n">
-        <v>866539440203.5623</v>
+        <v>739677757401.1003</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39722</v>
+        <v>39783</v>
       </c>
       <c r="B329" t="n">
-        <v>1105429000000</v>
+        <v>1130780000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.6685832720465333</v>
+        <v>0.7015574575557738</v>
       </c>
       <c r="D329" t="n">
-        <v>739071337835.1273</v>
+        <v>793307141854.918</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="B330" t="n">
-        <v>1133342000000</v>
+        <v>1144920000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.6549646319098769</v>
+        <v>0.6358087487283826</v>
       </c>
       <c r="D330" t="n">
-        <v>742298925858.0037</v>
+        <v>727950152594.0997</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39783</v>
+        <v>39845</v>
       </c>
       <c r="B331" t="n">
-        <v>1132970000000</v>
+        <v>1163770000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.7015574575557738</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D331" t="n">
-        <v>794843552686.9651</v>
+        <v>743765578066.083</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39814</v>
+        <v>39873</v>
       </c>
       <c r="B332" t="n">
-        <v>1147401000000</v>
+        <v>1142150000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.6358087487283826</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D332" t="n">
-        <v>729527594099.6948</v>
+        <v>790305840022.1422</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39845</v>
+        <v>39904</v>
       </c>
       <c r="B333" t="n">
-        <v>1163445000000</v>
+        <v>1161370000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.7257420712678715</v>
       </c>
       <c r="D333" t="n">
-        <v>743557870518.3103</v>
+        <v>842855069308.3679</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39873</v>
+        <v>39934</v>
       </c>
       <c r="B334" t="n">
-        <v>1143465000000</v>
+        <v>1167730000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.691945751453086</v>
+        <v>0.8014747134727899</v>
       </c>
       <c r="D334" t="n">
-        <v>791215748685.303</v>
+        <v>935906067163.5809</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39904</v>
+        <v>39965</v>
       </c>
       <c r="B335" t="n">
-        <v>1159224000000</v>
+        <v>1179010000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.7257420712678715</v>
+        <v>0.8062565508344756</v>
       </c>
       <c r="D335" t="n">
-        <v>841297626823.427</v>
+        <v>950584535999.355</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39934</v>
+        <v>39995</v>
       </c>
       <c r="B336" t="n">
-        <v>1168146000000</v>
+        <v>1180970000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8014747134727899</v>
+        <v>0.8364700961940611</v>
       </c>
       <c r="D336" t="n">
-        <v>936239480644.3856</v>
+        <v>987846089502.3003</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39965</v>
+        <v>40026</v>
       </c>
       <c r="B337" t="n">
-        <v>1180374000000</v>
+        <v>1185310000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.8062565508344756</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D337" t="n">
-        <v>951684269934.6932</v>
+        <v>1000430452397.029</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39995</v>
+        <v>40057</v>
       </c>
       <c r="B338" t="n">
-        <v>1184086000000</v>
+        <v>1184770000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.8364700961940611</v>
+        <v>0.8841732979664014</v>
       </c>
       <c r="D338" t="n">
-        <v>990452530322.041</v>
+        <v>1047541998231.653</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40026</v>
+        <v>40087</v>
       </c>
       <c r="B339" t="n">
-        <v>1187571000000</v>
+        <v>1183580000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.901631953836444</v>
       </c>
       <c r="D339" t="n">
-        <v>1002338791357.191</v>
+        <v>1067153547921.738</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40057</v>
+        <v>40118</v>
       </c>
       <c r="B340" t="n">
-        <v>1185474000000</v>
+        <v>1182230000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.8841732979664014</v>
+        <v>0.9161704076958315</v>
       </c>
       <c r="D340" t="n">
-        <v>1048164456233.422</v>
+        <v>1083124141090.243</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40087</v>
+        <v>40148</v>
       </c>
       <c r="B341" t="n">
-        <v>1185899000000</v>
+        <v>1178440000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.901631953836444</v>
+        <v>0.8979078746520608</v>
       </c>
       <c r="D341" t="n">
-        <v>1069244432422.685</v>
+        <v>1058130555804.974</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="B342" t="n">
-        <v>1186672000000</v>
+        <v>1182990000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9161704076958315</v>
+        <v>0.8842514811212309</v>
       </c>
       <c r="D342" t="n">
-        <v>1087193770041.228</v>
+        <v>1046060659651.605</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40148</v>
+        <v>40210</v>
       </c>
       <c r="B343" t="n">
-        <v>1180168000000</v>
+        <v>1195990000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.8979078746520608</v>
+        <v>0.8957362952346829</v>
       </c>
       <c r="D343" t="n">
-        <v>1059682140612.373</v>
+        <v>1071291651737.728</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="B344" t="n">
-        <v>1185764000000</v>
+        <v>1209570000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8842514811212309</v>
+        <v>0.9175153683824203</v>
       </c>
       <c r="D344" t="n">
-        <v>1048513573260.235</v>
+        <v>1109799064134.324</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B345" t="n">
-        <v>1196121000000</v>
+        <v>1216770000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.8957362952346829</v>
+        <v>0.9247272054743851</v>
       </c>
       <c r="D345" t="n">
-        <v>1071408993192.404</v>
+        <v>1125180321805.068</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="B346" t="n">
-        <v>1211052000000</v>
+        <v>1221560000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9175153683824203</v>
+        <v>0.8475294516484448</v>
       </c>
       <c r="D346" t="n">
-        <v>1111158821910.267</v>
+        <v>1035308076955.674</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40269</v>
+        <v>40330</v>
       </c>
       <c r="B347" t="n">
-        <v>1215240000000</v>
+        <v>1231580000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9247272054743851</v>
+        <v>0.8404773911581779</v>
       </c>
       <c r="D347" t="n">
-        <v>1123765489180.692</v>
+        <v>1035115145402.589</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40299</v>
+        <v>40360</v>
       </c>
       <c r="B348" t="n">
-        <v>1221744000000</v>
+        <v>1242560000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.8475294516484448</v>
+        <v>0.904649900488511</v>
       </c>
       <c r="D348" t="n">
-        <v>1035464022374.778</v>
+        <v>1124081780351.004</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="B349" t="n">
-        <v>1233330000000</v>
+        <v>1253020000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.8404773911581779</v>
+        <v>0.8930166101089481</v>
       </c>
       <c r="D349" t="n">
-        <v>1036585980837.115</v>
+        <v>1118967672798.714</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40360</v>
+        <v>40422</v>
       </c>
       <c r="B350" t="n">
-        <v>1245794000000</v>
+        <v>1260810000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.904649900488511</v>
+        <v>0.9662769349695624</v>
       </c>
       <c r="D350" t="n">
-        <v>1127007418129.184</v>
+        <v>1218291622378.974</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="B351" t="n">
-        <v>1255320000000</v>
+        <v>1273880000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.8930166101089481</v>
+        <v>0.98405825624877</v>
       </c>
       <c r="D351" t="n">
-        <v>1121021611001.965</v>
+        <v>1253572131470.183</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40422</v>
+        <v>40483</v>
       </c>
       <c r="B352" t="n">
-        <v>1261332000000</v>
+        <v>1294340000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9662769349695624</v>
+        <v>0.959140610013428</v>
       </c>
       <c r="D352" t="n">
-        <v>1218796018939.028</v>
+        <v>1241454057164.78</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40452</v>
+        <v>40513</v>
       </c>
       <c r="B353" t="n">
-        <v>1275611000000</v>
+        <v>1302300000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.98405825624877</v>
+        <v>1.02364622786365</v>
       </c>
       <c r="D353" t="n">
-        <v>1255275536311.75</v>
+        <v>1333094482546.832</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40483</v>
+        <v>40544</v>
       </c>
       <c r="B354" t="n">
-        <v>1298148000000</v>
+        <v>1311480000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.959140610013428</v>
+        <v>0.9979044007584074</v>
       </c>
       <c r="D354" t="n">
-        <v>1245106464607.711</v>
+        <v>1308731663506.636</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40513</v>
+        <v>40575</v>
       </c>
       <c r="B355" t="n">
-        <v>1303870000000</v>
+        <v>1325230000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.02364622786365</v>
+        <v>1.018952516812716</v>
       </c>
       <c r="D355" t="n">
-        <v>1334701607124.578</v>
+        <v>1350346443855.716</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40544</v>
+        <v>40603</v>
       </c>
       <c r="B356" t="n">
-        <v>1313732000000</v>
+        <v>1333630000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9979044007584074</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D356" t="n">
-        <v>1310978944217.144</v>
+        <v>1378571428571.428</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40575</v>
+        <v>40634</v>
       </c>
       <c r="B357" t="n">
-        <v>1325559000000</v>
+        <v>1342680000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.018952516812716</v>
+        <v>1.097574360662935</v>
       </c>
       <c r="D357" t="n">
-        <v>1350681679233.748</v>
+        <v>1473691142574.909</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="B358" t="n">
-        <v>1335256000000</v>
+        <v>1347820000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.033698573495968</v>
+        <v>1.066325442525059</v>
       </c>
       <c r="D358" t="n">
-        <v>1380252222451.933</v>
+        <v>1437214757944.125</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40634</v>
+        <v>40695</v>
       </c>
       <c r="B359" t="n">
-        <v>1342172000000</v>
+        <v>1343520000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.097574360662935</v>
+        <v>1.071466838101361</v>
       </c>
       <c r="D359" t="n">
-        <v>1473133574799.693</v>
+        <v>1439537126325.94</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40664</v>
+        <v>40725</v>
       </c>
       <c r="B360" t="n">
-        <v>1347654000000</v>
+        <v>1352690000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.066325442525059</v>
+        <v>1.1001100110011</v>
       </c>
       <c r="D360" t="n">
-        <v>1437037747920.666</v>
+        <v>1488107810781.078</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40695</v>
+        <v>40756</v>
       </c>
       <c r="B361" t="n">
-        <v>1345036000000</v>
+        <v>1373330000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.071466838101361</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="D361" t="n">
-        <v>1441161470052.502</v>
+        <v>1468802139037.433</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40725</v>
+        <v>40787</v>
       </c>
       <c r="B362" t="n">
-        <v>1355904000000</v>
+        <v>1383780000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.1001100110011</v>
+        <v>0.9666505558240697</v>
       </c>
       <c r="D362" t="n">
-        <v>1491643564356.436</v>
+        <v>1337631706138.231</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40756</v>
+        <v>40817</v>
       </c>
       <c r="B363" t="n">
-        <v>1375698000000</v>
+        <v>1390450000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.06951871657754</v>
+        <v>1.05496360375567</v>
       </c>
       <c r="D363" t="n">
-        <v>1471334759358.289</v>
+        <v>1466874142842.072</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40787</v>
+        <v>40848</v>
       </c>
       <c r="B364" t="n">
-        <v>1385020000000</v>
+        <v>1396040000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9666505558240697</v>
+        <v>1.02880658436214</v>
       </c>
       <c r="D364" t="n">
-        <v>1338830352827.453</v>
+        <v>1436255144032.922</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40817</v>
+        <v>40878</v>
       </c>
       <c r="B365" t="n">
-        <v>1392170000000</v>
+        <v>1406570000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.05496360375567</v>
+        <v>1.021554806415364</v>
       </c>
       <c r="D365" t="n">
-        <v>1468688680240.532</v>
+        <v>1436888344059.659</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40848</v>
+        <v>40909</v>
       </c>
       <c r="B366" t="n">
-        <v>1399816000000</v>
+        <v>1416700000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.02880658436214</v>
+        <v>1.062699256110521</v>
       </c>
       <c r="D366" t="n">
-        <v>1440139917695.473</v>
+        <v>1505526036131.775</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40878</v>
+        <v>40940</v>
       </c>
       <c r="B367" t="n">
-        <v>1409145000000</v>
+        <v>1424080000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.021554806415364</v>
+        <v>1.073767851390529</v>
       </c>
       <c r="D367" t="n">
-        <v>1439518847686.178</v>
+        <v>1529131321808.225</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40909</v>
+        <v>40969</v>
       </c>
       <c r="B368" t="n">
-        <v>1418837000000</v>
+        <v>1433570000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.062699256110521</v>
+        <v>1.034447088031447</v>
       </c>
       <c r="D368" t="n">
-        <v>1507797024442.083</v>
+        <v>1482952311989.242</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40940</v>
+        <v>41000</v>
       </c>
       <c r="B369" t="n">
-        <v>1424830000000</v>
+        <v>1439230000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.073767851390529</v>
+        <v>1.043405676126878</v>
       </c>
       <c r="D369" t="n">
-        <v>1529936647696.768</v>
+        <v>1501700751252.087</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40969</v>
+        <v>41030</v>
       </c>
       <c r="B370" t="n">
-        <v>1435577000000</v>
+        <v>1457460000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.034447088031447</v>
+        <v>0.97323600973236</v>
       </c>
       <c r="D370" t="n">
-        <v>1485028447294.921</v>
+        <v>1418452554744.525</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="B371" t="n">
-        <v>1439935000000</v>
+        <v>1465340000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.043405676126878</v>
+        <v>1.024275325207416</v>
       </c>
       <c r="D371" t="n">
-        <v>1502436352253.756</v>
+        <v>1500911605039.435</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41030</v>
+        <v>41091</v>
       </c>
       <c r="B372" t="n">
-        <v>1457070000000</v>
+        <v>1472270000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.97323600973236</v>
+        <v>1.049758555532228</v>
       </c>
       <c r="D372" t="n">
-        <v>1418072992700.73</v>
+        <v>1545528028553.433</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41061</v>
+        <v>41122</v>
       </c>
       <c r="B373" t="n">
-        <v>1468335000000</v>
+        <v>1482870000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.024275325207416</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D373" t="n">
-        <v>1503979309638.431</v>
+        <v>1532840603679.967</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41091</v>
+        <v>41153</v>
       </c>
       <c r="B374" t="n">
-        <v>1475236000000</v>
+        <v>1488540000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.049758555532228</v>
+        <v>1.03777501037775</v>
       </c>
       <c r="D374" t="n">
-        <v>1548641612429.141</v>
+        <v>1544769613947.696</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41122</v>
+        <v>41183</v>
       </c>
       <c r="B375" t="n">
-        <v>1484825000000</v>
+        <v>1495460000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.033698573495968</v>
+        <v>1.038205980066445</v>
       </c>
       <c r="D375" t="n">
-        <v>1534861484391.151</v>
+        <v>1552595514950.166</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41153</v>
+        <v>41214</v>
       </c>
       <c r="B376" t="n">
-        <v>1490479000000</v>
+        <v>1500120000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.03777501037775</v>
+        <v>1.043187982474442</v>
       </c>
       <c r="D376" t="n">
-        <v>1546781859692.819</v>
+        <v>1564907156269.56</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41183</v>
+        <v>41244</v>
       </c>
       <c r="B377" t="n">
-        <v>1497051000000</v>
+        <v>1508390000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.038205980066445</v>
+        <v>1.039933444259567</v>
       </c>
       <c r="D377" t="n">
-        <v>1554247300664.452</v>
+        <v>1568625207986.689</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41214</v>
+        <v>41275</v>
       </c>
       <c r="B378" t="n">
-        <v>1503195000000</v>
+        <v>1519100000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.043187982474442</v>
+        <v>1.043079169708981</v>
       </c>
       <c r="D378" t="n">
-        <v>1568114959315.669</v>
+        <v>1584541566704.913</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41244</v>
+        <v>41306</v>
       </c>
       <c r="B379" t="n">
-        <v>1511707000000</v>
+        <v>1521770000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.039933444259567</v>
+        <v>1.022076860179886</v>
       </c>
       <c r="D379" t="n">
-        <v>1572074667221.298</v>
+        <v>1555365903515.944</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="B380" t="n">
-        <v>1520635000000</v>
+        <v>1533120000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.043079169708981</v>
+        <v>1.042535446205171</v>
       </c>
       <c r="D380" t="n">
-        <v>1586142693230.416</v>
+        <v>1598331943286.072</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41306</v>
+        <v>41365</v>
       </c>
       <c r="B381" t="n">
-        <v>1522100000000</v>
+        <v>1544670000000</v>
       </c>
       <c r="C381" t="n">
-        <v>1.022076860179886</v>
+        <v>1.037129226301597</v>
       </c>
       <c r="D381" t="n">
-        <v>1555703188879.804</v>
+        <v>1602022401991.288</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41334</v>
+        <v>41395</v>
       </c>
       <c r="B382" t="n">
-        <v>1534892000000</v>
+        <v>1560880000000</v>
       </c>
       <c r="C382" t="n">
-        <v>1.042535446205171</v>
+        <v>0.9552010698251983</v>
       </c>
       <c r="D382" t="n">
-        <v>1600179316096.747</v>
+        <v>1490954245868.755</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41365</v>
+        <v>41426</v>
       </c>
       <c r="B383" t="n">
-        <v>1545666000000</v>
+        <v>1561340000000</v>
       </c>
       <c r="C383" t="n">
-        <v>1.037129226301597</v>
+        <v>0.9149967975112088</v>
       </c>
       <c r="D383" t="n">
-        <v>1603055382700.685</v>
+        <v>1428621099826.151</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B384" t="n">
-        <v>1560520000000</v>
+        <v>1565700000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9552010698251983</v>
+        <v>0.8943743851176101</v>
       </c>
       <c r="D384" t="n">
-        <v>1490610373483.618</v>
+        <v>1400321974778.642</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="B385" t="n">
-        <v>1564637000000</v>
+        <v>1567000000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9149967975112088</v>
+        <v>0.8903926631644555</v>
       </c>
       <c r="D385" t="n">
-        <v>1431637844267.545</v>
+        <v>1395245303178.702</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41456</v>
+        <v>41518</v>
       </c>
       <c r="B386" t="n">
-        <v>1568644000000</v>
+        <v>1578330000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8943743851176101</v>
+        <v>0.9329228472805299</v>
       </c>
       <c r="D386" t="n">
-        <v>1402955012968.428</v>
+        <v>1472460117548.279</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41487</v>
+        <v>41548</v>
       </c>
       <c r="B387" t="n">
-        <v>1569147000000</v>
+        <v>1589840000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8903926631644555</v>
+        <v>0.9463423866754992</v>
       </c>
       <c r="D387" t="n">
-        <v>1397156976226.516</v>
+        <v>1504532980032.176</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41518</v>
+        <v>41579</v>
       </c>
       <c r="B388" t="n">
-        <v>1580284000000</v>
+        <v>1599870000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9329228472805299</v>
+        <v>0.9112447603426281</v>
       </c>
       <c r="D388" t="n">
-        <v>1474283048791.865</v>
+        <v>1457873154729.361</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B389" t="n">
-        <v>1591624000000</v>
+        <v>1613690000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9463423866754992</v>
+        <v>0.8918219923303309</v>
       </c>
       <c r="D389" t="n">
-        <v>1506221254850.005</v>
+        <v>1439124230803.532</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41579</v>
+        <v>41640</v>
       </c>
       <c r="B390" t="n">
-        <v>1602712000000</v>
+        <v>1622300000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9112447603426281</v>
+        <v>0.8759635599159076</v>
       </c>
       <c r="D390" t="n">
-        <v>1460462912338.254</v>
+        <v>1421075683251.577</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41609</v>
+        <v>41671</v>
       </c>
       <c r="B391" t="n">
-        <v>1616991000000</v>
+        <v>1631980000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8918219923303309</v>
+        <v>0.8934953538241601</v>
       </c>
       <c r="D391" t="n">
-        <v>1442068135200.214</v>
+        <v>1458166547533.953</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B392" t="n">
-        <v>1623983000000</v>
+        <v>1636970000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.8759635599159076</v>
+        <v>0.9266981744045965</v>
       </c>
       <c r="D392" t="n">
-        <v>1422549929922.915</v>
+        <v>1516977110555.092</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B393" t="n">
-        <v>1632324000000</v>
+        <v>1649000000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.8934953538241601</v>
+        <v>0.9288500835965076</v>
       </c>
       <c r="D393" t="n">
-        <v>1458473909935.668</v>
+        <v>1531673787850.641</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41699</v>
+        <v>41760</v>
       </c>
       <c r="B394" t="n">
-        <v>1639857000000</v>
+        <v>1661150000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9266981744045965</v>
+        <v>0.931445603576751</v>
       </c>
       <c r="D394" t="n">
-        <v>1519652488184.598</v>
+        <v>1547270864381.52</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="B395" t="n">
-        <v>1650966000000</v>
+        <v>1669190000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9288500835965076</v>
+        <v>0.9433072351664937</v>
       </c>
       <c r="D395" t="n">
-        <v>1533499907114.992</v>
+        <v>1574559003867.56</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="B396" t="n">
-        <v>1661904000000</v>
+        <v>1680440000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.931445603576751</v>
+        <v>0.9296272194849864</v>
       </c>
       <c r="D396" t="n">
-        <v>1547973174366.617</v>
+        <v>1562182764711.351</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="B397" t="n">
-        <v>1673316000000</v>
+        <v>1693780000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9433072351664937</v>
+        <v>0.9344921035417251</v>
       </c>
       <c r="D397" t="n">
-        <v>1578451089519.857</v>
+        <v>1582824035136.903</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41821</v>
+        <v>41883</v>
       </c>
       <c r="B398" t="n">
-        <v>1683554000000</v>
+        <v>1705970000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9296272194849864</v>
+        <v>0.8748906386701663</v>
       </c>
       <c r="D398" t="n">
-        <v>1565077623872.827</v>
+        <v>1492537182852.144</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B399" t="n">
-        <v>1696297000000</v>
+        <v>1712420000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.9344921035417251</v>
+        <v>0.880126738250308</v>
       </c>
       <c r="D399" t="n">
-        <v>1585176151761.518</v>
+        <v>1507146629114.592</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41883</v>
+        <v>41944</v>
       </c>
       <c r="B400" t="n">
-        <v>1708182000000</v>
+        <v>1716790000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.8748906386701663</v>
+        <v>0.8511362669163333</v>
       </c>
       <c r="D400" t="n">
-        <v>1494472440944.882</v>
+        <v>1461222231679.292</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41913</v>
+        <v>41974</v>
       </c>
       <c r="B401" t="n">
-        <v>1714806000000</v>
+        <v>1731120000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.880126738250308</v>
+        <v>0.8176614881439084</v>
       </c>
       <c r="D401" t="n">
-        <v>1509246611512.058</v>
+        <v>1415470155355.683</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41944</v>
+        <v>42005</v>
       </c>
       <c r="B402" t="n">
-        <v>1719226000000</v>
+        <v>1735430000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8511362669163333</v>
+        <v>0.7771215418091389</v>
       </c>
       <c r="D402" t="n">
-        <v>1463295599625.5</v>
+        <v>1348640037301.834</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41974</v>
+        <v>42036</v>
       </c>
       <c r="B403" t="n">
-        <v>1733588000000</v>
+        <v>1755980000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8176614881439084</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D403" t="n">
-        <v>1417488143908.422</v>
+        <v>1372180979917.168</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B404" t="n">
-        <v>1737087000000</v>
+        <v>1759290000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7771215418091389</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D404" t="n">
-        <v>1349927727696.612</v>
+        <v>1339288976857.491</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B405" t="n">
-        <v>1756633000000</v>
+        <v>1769930000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7902015013828526</v>
       </c>
       <c r="D405" t="n">
-        <v>1372691255763.07</v>
+        <v>1398601343342.552</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B406" t="n">
-        <v>1763091000000</v>
+        <v>1772740000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D406" t="n">
-        <v>1342182551766.139</v>
+        <v>1355513075393.791</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B407" t="n">
-        <v>1772713000000</v>
+        <v>1781460000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7902015013828526</v>
+        <v>0.7705347511172753</v>
       </c>
       <c r="D407" t="n">
-        <v>1400800474120.901</v>
+        <v>1372676837725.381</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B408" t="n">
-        <v>1774723000000</v>
+        <v>1795870000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7316894709885124</v>
       </c>
       <c r="D408" t="n">
-        <v>1357029362287.812</v>
+        <v>1314019170264.14</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B409" t="n">
-        <v>1785873000000</v>
+        <v>1799200000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7705347511172753</v>
+        <v>0.7115411982353779</v>
       </c>
       <c r="D409" t="n">
-        <v>1376077207582.062</v>
+        <v>1280204923865.092</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B410" t="n">
-        <v>1799047000000</v>
+        <v>1812350000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7316894709885124</v>
+        <v>0.702000702000702</v>
       </c>
       <c r="D410" t="n">
-        <v>1316343747713.47</v>
+        <v>1272270972270.972</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B411" t="n">
-        <v>1802311000000</v>
+        <v>1818380000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7115411982353779</v>
+        <v>0.7140307033202428</v>
       </c>
       <c r="D411" t="n">
-        <v>1282418528532.802</v>
+        <v>1298379150303.463</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B412" t="n">
-        <v>1814379000000</v>
+        <v>1831460000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.702000702000702</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D412" t="n">
-        <v>1273695331695.332</v>
+        <v>1323978891057.616</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B413" t="n">
-        <v>1820747000000</v>
+        <v>1836330000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7140307033202428</v>
+        <v>0.7291286912139993</v>
       </c>
       <c r="D413" t="n">
-        <v>1300069260978.222</v>
+        <v>1338920889537.003</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B414" t="n">
-        <v>1833272000000</v>
+        <v>1846170000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7085665698292355</v>
       </c>
       <c r="D414" t="n">
-        <v>1325288802139.811</v>
+        <v>1308134344221.64</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B415" t="n">
-        <v>1835720000000</v>
+        <v>1852880000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7291286912139993</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D415" t="n">
-        <v>1338476121035.363</v>
+        <v>1323391186343.833</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B416" t="n">
-        <v>1846919000000</v>
+        <v>1864210000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7085665698292355</v>
+        <v>0.7666360012266176</v>
       </c>
       <c r="D416" t="n">
-        <v>1308665060582.442</v>
+        <v>1429170499846.673</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B417" t="n">
-        <v>1853576000000</v>
+        <v>1868720000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.7617306520414382</v>
       </c>
       <c r="D417" t="n">
-        <v>1323888293693.308</v>
+        <v>1423461304082.876</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B418" t="n">
-        <v>1868820000000</v>
+        <v>1876260000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7666360012266176</v>
+        <v>0.7233273056057866</v>
       </c>
       <c r="D418" t="n">
-        <v>1432704691812.327</v>
+        <v>1357150090415.913</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B419" t="n">
-        <v>1872520000000</v>
+        <v>1883960000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7617306520414382</v>
+        <v>0.7444353457902182</v>
       </c>
       <c r="D419" t="n">
-        <v>1426355880560.634</v>
+        <v>1402486414054.939</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B420" t="n">
-        <v>1879658000000</v>
+        <v>1901750000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7233273056057866</v>
+        <v>0.761208799573723</v>
       </c>
       <c r="D420" t="n">
-        <v>1359607956600.362</v>
+        <v>1447628834589.328</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B421" t="n">
-        <v>1889173000000</v>
+        <v>1909580000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7444353457902182</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D421" t="n">
-        <v>1406367155512.544</v>
+        <v>1435342754058.93</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B422" t="n">
-        <v>1904425000000</v>
+        <v>1914220000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.761208799573723</v>
+        <v>0.7660487206986365</v>
       </c>
       <c r="D422" t="n">
-        <v>1449665068128.188</v>
+        <v>1466385782135.744</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B423" t="n">
-        <v>1912363000000</v>
+        <v>1927220000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.751653638003608</v>
+        <v>0.7608034083992696</v>
       </c>
       <c r="D423" t="n">
-        <v>1437434606133.494</v>
+        <v>1466235544735.24</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B424" t="n">
-        <v>1916339000000</v>
+        <v>1943720000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7660487206986365</v>
+        <v>0.7384978952809984</v>
       </c>
       <c r="D424" t="n">
-        <v>1468009039374.904</v>
+        <v>1435433129015.582</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B425" t="n">
-        <v>1929969000000</v>
+        <v>1962910000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7608034083992696</v>
+        <v>0.7213445863088797</v>
       </c>
       <c r="D425" t="n">
-        <v>1468326993304.93</v>
+        <v>1415934501911.563</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B426" t="n">
-        <v>1945194000000</v>
+        <v>1975580000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7384978952809984</v>
+        <v>0.7586102260658474</v>
       </c>
       <c r="D426" t="n">
-        <v>1436521674913.226</v>
+        <v>1498695190411.167</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B427" t="n">
-        <v>1958409000000</v>
+        <v>1985340000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7213445863088797</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D427" t="n">
-        <v>1412687729928.587</v>
+        <v>1520284861015.392</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B428" t="n">
-        <v>1974826000000</v>
+        <v>1988640000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7586102260658474</v>
+        <v>0.7640586797066015</v>
       </c>
       <c r="D428" t="n">
-        <v>1498123198300.713</v>
+        <v>1519437652811.736</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B429" t="n">
-        <v>1984940000000</v>
+        <v>2007380000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7499062617172854</v>
       </c>
       <c r="D429" t="n">
-        <v>1519978558848.304</v>
+        <v>1505346831646.044</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B430" t="n">
-        <v>1994407000000</v>
+        <v>2014980000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7640586797066015</v>
+        <v>0.7432181345224824</v>
       </c>
       <c r="D430" t="n">
-        <v>1523843979217.604</v>
+        <v>1497569676700.112</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B431" t="n">
-        <v>2012433000000</v>
+        <v>2029770000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7499062617172854</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D431" t="n">
-        <v>1509136107986.502</v>
+        <v>1563044817495.765</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B432" t="n">
-        <v>2021066000000</v>
+        <v>2033570000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7432181345224824</v>
+        <v>0.8002560819462228</v>
       </c>
       <c r="D432" t="n">
-        <v>1502092902266.815</v>
+        <v>1627376760563.38</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B433" t="n">
-        <v>2036683000000</v>
+        <v>2038080000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7947862025115244</v>
       </c>
       <c r="D433" t="n">
-        <v>1568368242722.932</v>
+        <v>1619837863614.688</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B434" t="n">
-        <v>2036130000000</v>
+        <v>2045090000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.8002560819462228</v>
+        <v>0.7840677434530343</v>
       </c>
       <c r="D434" t="n">
-        <v>1629425416133.163</v>
+        <v>1603489101458.366</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B435" t="n">
-        <v>2041181000000</v>
+        <v>2053920000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7947862025115244</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D435" t="n">
-        <v>1622302495628.676</v>
+        <v>1572800367562.6</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B436" t="n">
-        <v>2047566000000</v>
+        <v>2058440000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7840677434530343</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D436" t="n">
-        <v>1605430453191.156</v>
+        <v>1557418476204.887</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B437" t="n">
-        <v>2057004000000</v>
+        <v>2054690000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D437" t="n">
-        <v>1575161957270.848</v>
+        <v>1604349184039.978</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B438" t="n">
-        <v>2059682000000</v>
+        <v>2062000000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.8058017727639</v>
       </c>
       <c r="D438" t="n">
-        <v>1558358175077.552</v>
+        <v>1661563255439.162</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B439" t="n">
-        <v>2046059000000</v>
+        <v>2062550000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.7762769756249029</v>
       </c>
       <c r="D439" t="n">
-        <v>1597609900835.48</v>
+        <v>1601110076075.144</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B440" t="n">
-        <v>2059279000000</v>
+        <v>2061800000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.8058017727639</v>
+        <v>0.7682851874615857</v>
       </c>
       <c r="D440" t="n">
-        <v>1659370668815.471</v>
+        <v>1584050399508.297</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B441" t="n">
-        <v>2060707000000</v>
+        <v>2057150000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7762769756249029</v>
+        <v>0.7532389273877674</v>
       </c>
       <c r="D441" t="n">
-        <v>1599679397609.067</v>
+        <v>1549525459475.746</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B442" t="n">
-        <v>2068706000000</v>
+        <v>2062740000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7682851874615857</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D442" t="n">
-        <v>1589356177012.907</v>
+        <v>1561026184349.932</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B443" t="n">
-        <v>2063242000000</v>
+        <v>2065920000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7532389273877674</v>
+        <v>0.7406310176270182</v>
       </c>
       <c r="D443" t="n">
-        <v>1554114191021.392</v>
+        <v>1530084431936.01</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B444" t="n">
-        <v>2070999000000</v>
+        <v>2073320000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D444" t="n">
-        <v>1567276373543.212</v>
+        <v>1540013369976.974</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B445" t="n">
-        <v>2074985000000</v>
+        <v>2087740000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7406310176270182</v>
+        <v>0.7193209610128039</v>
       </c>
       <c r="D445" t="n">
-        <v>1536798252110.798</v>
+        <v>1501755143144.871</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B446" t="n">
-        <v>2075941000000</v>
+        <v>2087960000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D446" t="n">
-        <v>1541960187179.677</v>
+        <v>1508096785843.265</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B447" t="n">
-        <v>2091131000000</v>
+        <v>2095390000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7193209610128039</v>
+        <v>0.7078142695356738</v>
       </c>
       <c r="D447" t="n">
-        <v>1504194360523.666</v>
+        <v>1483146942242.356</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B448" t="n">
-        <v>2092361000000</v>
+        <v>2097020000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D448" t="n">
-        <v>1511275550740.339</v>
+        <v>1534030724213.606</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B449" t="n">
-        <v>2099983000000</v>
+        <v>2107230000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7078142695356738</v>
+        <v>0.7052186177715092</v>
       </c>
       <c r="D449" t="n">
-        <v>1486397933182.333</v>
+        <v>1486057827926.657</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B450" t="n">
-        <v>2099146000000</v>
+        <v>2118150000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7275902211874272</v>
       </c>
       <c r="D450" t="n">
-        <v>1535585954645.208</v>
+        <v>1541145227008.149</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B451" t="n">
-        <v>2097303000000</v>
+        <v>2130360000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7052186177715092</v>
+        <v>0.7094714437743881</v>
       </c>
       <c r="D451" t="n">
-        <v>1479057122708.04</v>
+        <v>1511429584959.205</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B452" t="n">
-        <v>2110369000000</v>
+        <v>2144250000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7275902211874272</v>
+        <v>0.7098743522396536</v>
       </c>
       <c r="D452" t="n">
-        <v>1535483847497.09</v>
+        <v>1522148079789.877</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B453" t="n">
-        <v>2125549000000</v>
+        <v>2147360000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7094714437743881</v>
+        <v>0.7049203440011278</v>
       </c>
       <c r="D453" t="n">
-        <v>1508016317843.207</v>
+        <v>1513717749894.262</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B454" t="n">
-        <v>2150293000000</v>
+        <v>2145170000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.7098743522396536</v>
+        <v>0.6937699458859442</v>
       </c>
       <c r="D454" t="n">
-        <v>1526437850500.461</v>
+        <v>1488254474816.151</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B455" t="n">
-        <v>2153515000000</v>
+        <v>2146470000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7049203440011278</v>
+        <v>0.7023458350891979</v>
       </c>
       <c r="D455" t="n">
-        <v>1518056534611.589</v>
+        <v>1507564264643.911</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B456" t="n">
-        <v>2155103000000</v>
+        <v>2124300000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6937699458859442</v>
+        <v>0.6845564074479736</v>
       </c>
       <c r="D456" t="n">
-        <v>1495145691688.636</v>
+        <v>1454203176341.73</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B457" t="n">
-        <v>2157451000000</v>
+        <v>2126860000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.7023458350891979</v>
+        <v>0.6738998584810297</v>
       </c>
       <c r="D457" t="n">
-        <v>1515276724259.025</v>
+        <v>1433290653008.963</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B458" t="n">
-        <v>2128068000000</v>
+        <v>2132480000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6845564074479736</v>
+        <v>0.6751282743721306</v>
       </c>
       <c r="D458" t="n">
-        <v>1456782584884.994</v>
+        <v>1439697542533.081</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B459" t="n">
-        <v>2131117000000</v>
+        <v>2143460000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6738998584810297</v>
+        <v>0.6892748828232699</v>
       </c>
       <c r="D459" t="n">
-        <v>1436159444706.517</v>
+        <v>1477433140336.366</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B460" t="n">
-        <v>2138349000000</v>
+        <v>2152460000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6751282743721306</v>
+        <v>0.6764526821348847</v>
       </c>
       <c r="D460" t="n">
-        <v>1443659870375.371</v>
+        <v>1456037340188.054</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B461" t="n">
-        <v>2148438000000</v>
+        <v>2158240000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6892748828232699</v>
+        <v>0.7019514249613926</v>
       </c>
       <c r="D461" t="n">
-        <v>1480864350703.06</v>
+        <v>1514979643408.676</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B462" t="n">
-        <v>2155581000000</v>
+        <v>2169160000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6764526821348847</v>
+        <v>0.6690305746972637</v>
       </c>
       <c r="D462" t="n">
-        <v>1458148549008.997</v>
+        <v>1451234361410.316</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B463" t="n">
-        <v>2153549000000</v>
+        <v>2179370000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7019514249613926</v>
+        <v>0.6512112529304506</v>
       </c>
       <c r="D463" t="n">
-        <v>1511686789274.182</v>
+        <v>1419230268299.036</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B464" t="n">
-        <v>2164201000000</v>
+        <v>2240450000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6690305746972637</v>
+        <v>0.6160290765724142</v>
       </c>
       <c r="D464" t="n">
-        <v>1447916638790.393</v>
+        <v>1380182344606.666</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B465" t="n">
-        <v>2169111000000</v>
+        <v>2308210000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6512112529304506</v>
+        <v>0.6506011554676522</v>
       </c>
       <c r="D465" t="n">
-        <v>1412549492055.223</v>
+        <v>1501724093061.99</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B466" t="n">
-        <v>2231552000000</v>
+        <v>2313050000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.6160290765724142</v>
+        <v>0.6669779230307477</v>
       </c>
       <c r="D466" t="n">
-        <v>1374700917883.324</v>
+        <v>1542753284866.271</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B467" t="n">
-        <v>2298597000000</v>
+        <v>2328290000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6506011554676522</v>
+        <v>0.6903836461921891</v>
       </c>
       <c r="D467" t="n">
-        <v>1495469864154.479</v>
+        <v>1607413339592.812</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B468" t="n">
-        <v>2301675000000</v>
+        <v>2357680000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.6669779230307477</v>
+        <v>0.7144388083160678</v>
       </c>
       <c r="D468" t="n">
-        <v>1535166410991.796</v>
+        <v>1684418089590.627</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B469" t="n">
-        <v>2324261000000</v>
+        <v>2377970000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.6903836461921891</v>
+        <v>0.7377024993360677</v>
       </c>
       <c r="D469" t="n">
-        <v>1604631783882.303</v>
+        <v>1754234412346.189</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B470" t="n">
-        <v>2357338000000</v>
+        <v>2390620000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7144388083160678</v>
+        <v>0.7162092476938062</v>
       </c>
       <c r="D470" t="n">
-        <v>1684173751518.183</v>
+        <v>1712184151721.767</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B471" t="n">
-        <v>2377698000000</v>
+        <v>2403890000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7377024993360677</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="D471" t="n">
-        <v>1754033757266.369</v>
+        <v>1689905096660.808</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B472" t="n">
-        <v>2399494000000</v>
+        <v>2420220000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7162092476938062</v>
+        <v>0.7344840249724569</v>
       </c>
       <c r="D472" t="n">
-        <v>1718539792585.802</v>
+        <v>1777612926918.84</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B473" t="n">
-        <v>2412329000000</v>
+        <v>2431700000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7029876977152899</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D473" t="n">
-        <v>1695837609841.828</v>
+        <v>1871258176221.624</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B474" t="n">
-        <v>2431156000000</v>
+        <v>2447500000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7344840249724569</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D474" t="n">
-        <v>1785645244215.938</v>
+        <v>1871463526533.109</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B475" t="n">
-        <v>2441471000000</v>
+        <v>2457230000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.7710694733595498</v>
       </c>
       <c r="D475" t="n">
-        <v>1878777222008.465</v>
+        <v>1894695042023.287</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B476" t="n">
-        <v>2460580000000</v>
+        <v>2461270000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7597052343690648</v>
       </c>
       <c r="D476" t="n">
-        <v>1881465055818.932</v>
+        <v>1869839702195.548</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B477" t="n">
-        <v>2461879000000</v>
+        <v>2470370000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7710694733595498</v>
+        <v>0.7714263673532361</v>
       </c>
       <c r="D477" t="n">
-        <v>1898279744004.935</v>
+        <v>1905708555118.414</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B478" t="n">
-        <v>2463626000000</v>
+        <v>2474230000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7597052343690648</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D478" t="n">
-        <v>1871629567727.722</v>
+        <v>1914445991952.956</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B479" t="n">
-        <v>2464508000000</v>
+        <v>2508270000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7714263673532361</v>
+        <v>0.7502438292445045</v>
       </c>
       <c r="D479" t="n">
-        <v>1901186453752.989</v>
+        <v>1881814089579.113</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B480" t="n">
-        <v>2468461000000</v>
+        <v>2541620000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7346998751010212</v>
       </c>
       <c r="D480" t="n">
-        <v>1909982203652.12</v>
+        <v>1867327896554.258</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B481" t="n">
-        <v>2512398000000</v>
+        <v>2546150000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7502438292445045</v>
+        <v>0.7317483663717721</v>
       </c>
       <c r="D481" t="n">
-        <v>1884911096106.235</v>
+        <v>1863141103037.488</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B482" t="n">
-        <v>2542430000000</v>
+        <v>2580300000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7346998751010212</v>
+        <v>0.7232592956900978</v>
       </c>
       <c r="D482" t="n">
-        <v>1867923003453.089</v>
+        <v>1866225960669.159</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B483" t="n">
-        <v>2547933000000</v>
+        <v>2596780000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7317483663717721</v>
+        <v>0.7523888345496953</v>
       </c>
       <c r="D483" t="n">
-        <v>1864445810374.728</v>
+        <v>1953788277781.958</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B484" t="n">
-        <v>2581488000000</v>
+        <v>2617810000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7232592956900978</v>
+        <v>0.7129565595568262</v>
       </c>
       <c r="D484" t="n">
-        <v>1867085192712.439</v>
+        <v>1866384811173.455</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="B485" t="n">
-        <v>2597566000000</v>
+        <v>2658280000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7523888345496953</v>
+        <v>0.726907951646083</v>
       </c>
       <c r="D485" t="n">
-        <v>1954379655405.914</v>
+        <v>1932324869701.75</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="B486" t="n">
-        <v>2619080000000</v>
+        <v>2660780000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7129565595568262</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D486" t="n">
-        <v>1867290266004.093</v>
+        <v>1881207579185.52</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="B487" t="n">
-        <v>2658875000000</v>
+        <v>2668500000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.726907951646083</v>
+        <v>0.7264115993404182</v>
       </c>
       <c r="D487" t="n">
-        <v>1932757379932.979</v>
+        <v>1938429352839.906</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B488" t="n">
-        <v>2663370000000</v>
+        <v>2690630000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.7486542939067027</v>
       </c>
       <c r="D488" t="n">
-        <v>1883038744343.891</v>
+        <v>2014351702814.191</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B489" t="n">
-        <v>2666546000000</v>
+        <v>2707430000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7264115993404182</v>
+        <v>0.7064142413111049</v>
       </c>
       <c r="D489" t="n">
-        <v>1937009944574.795</v>
+        <v>1912567109352.925</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B490" t="n">
-        <v>2690216000000</v>
+        <v>2729080000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7486542939067027</v>
+        <v>0.7179111656723597</v>
       </c>
       <c r="D490" t="n">
-        <v>2014041759936.514</v>
+        <v>1959237004013.123</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B491" t="n">
-        <v>2701959000000</v>
+        <v>2754890000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7064142413111049</v>
+        <v>0.6904170118751727</v>
       </c>
       <c r="D491" t="n">
-        <v>1908702317038.712</v>
+        <v>1902022921844.794</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B492" t="n">
-        <v>2729080000000</v>
+        <v>2771400000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7179111656723597</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D492" t="n">
-        <v>1959237004013.123</v>
+        <v>1938177494929.716</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B493" t="n">
-        <v>2754890000000</v>
+        <v>2773386000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.6904170118751727</v>
+        <v>0.6845189201029517</v>
       </c>
       <c r="D493" t="n">
-        <v>1902022921844.794</v>
+        <v>1898435189748.645</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B494" t="n">
-        <v>2771400000000</v>
+        <v>2768622000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.6402048655569782</v>
       </c>
       <c r="D494" t="n">
-        <v>1938177494929.716</v>
+        <v>1772485275288.092</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B495" t="n">
-        <v>2773386000000</v>
+        <v>2790928000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6845189201029517</v>
+        <v>0.6400860275621043</v>
       </c>
       <c r="D495" t="n">
-        <v>1898435189748.645</v>
+        <v>1786434016731.849</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B496" t="n">
-        <v>2768622000000</v>
+        <v>2810152000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.6402048655569782</v>
+        <v>0.6789788158609451</v>
       </c>
       <c r="D496" t="n">
-        <v>1772485275288.092</v>
+        <v>1908033677349.267</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B497" t="n">
-        <v>2790928000000</v>
+        <v>2829079000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.6400860275621043</v>
+        <v>0.6818491749624983</v>
       </c>
       <c r="D497" t="n">
-        <v>1786434016731.849</v>
+        <v>1929005182053.73</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B498" t="n">
-        <v>2810152000000</v>
+        <v>2852199000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.6789788158609451</v>
+        <v>0.7056167090036692</v>
       </c>
       <c r="D498" t="n">
-        <v>1908033677349.267</v>
+        <v>2012559271803.556</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="B499" t="n">
-        <v>2829079000000</v>
+        <v>2851195000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6818491749624983</v>
+        <v>0.6730833950326446</v>
       </c>
       <c r="D499" t="n">
-        <v>1929005182053.73</v>
+        <v>1919092010500.101</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B500" t="n">
-        <v>2852199000000</v>
+        <v>2870550000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.7056167090036692</v>
+        <v>0.6686726847208291</v>
       </c>
       <c r="D500" t="n">
-        <v>2012559271803.556</v>
+        <v>1919458375125.376</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="B501" t="n">
-        <v>2851195000000</v>
+        <v>2877200000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6730833950326446</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D501" t="n">
-        <v>1919092010500.101</v>
+        <v>1904043412083.912</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -458,6990 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29830</v>
+        <v>29860</v>
       </c>
       <c r="B2" t="n">
-        <v>69880000000</v>
+        <v>70600000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B3" t="n">
-        <v>70600000000</v>
+        <v>71160000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B4" t="n">
-        <v>71160000000</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>71680000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.127649990162945</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80829951294.87991</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B5" t="n">
-        <v>71680000000</v>
+        <v>72400000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.127649990162945</v>
+        <v>1.090037061260083</v>
       </c>
       <c r="D5" t="n">
-        <v>80829951294.87991</v>
+        <v>78918683235.23001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B6" t="n">
-        <v>72400000000</v>
+        <v>73000000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.090037061260083</v>
+        <v>1.073076487325325</v>
       </c>
       <c r="D6" t="n">
-        <v>78918683235.23001</v>
+        <v>78334583574.74872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B7" t="n">
-        <v>73000000000</v>
+        <v>73610000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1.073076487325325</v>
+        <v>1.049538225221205</v>
       </c>
       <c r="D7" t="n">
-        <v>78334583574.74872</v>
+        <v>77256508758.53293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B8" t="n">
-        <v>73610000000</v>
+        <v>74470000000</v>
       </c>
       <c r="C8" t="n">
-        <v>1.049538225221205</v>
+        <v>1.062360599034121</v>
       </c>
       <c r="D8" t="n">
-        <v>77256508758.53293</v>
+        <v>79113993810.07098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B9" t="n">
-        <v>74470000000</v>
+        <v>75820000000</v>
       </c>
       <c r="C9" t="n">
-        <v>1.062360599034121</v>
+        <v>1.050640901981938</v>
       </c>
       <c r="D9" t="n">
-        <v>79113993810.07098</v>
+        <v>79659593188.27057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B10" t="n">
-        <v>75820000000</v>
+        <v>75980000000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.050640901981938</v>
+        <v>1.023227269244114</v>
       </c>
       <c r="D10" t="n">
-        <v>79659593188.27057</v>
+        <v>77744807917.16779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B11" t="n">
-        <v>75980000000</v>
+        <v>76400000000</v>
       </c>
       <c r="C11" t="n">
-        <v>1.023227269244114</v>
+        <v>0.9930486889686798</v>
       </c>
       <c r="D11" t="n">
-        <v>77744807917.16779</v>
+        <v>75868919837.20714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B12" t="n">
-        <v>76400000000</v>
+        <v>76840000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9930486889686798</v>
+        <v>0.9654373617578175</v>
       </c>
       <c r="D12" t="n">
-        <v>75868919837.20714</v>
+        <v>74184206877.47069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B13" t="n">
-        <v>76840000000</v>
+        <v>77720000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9654373617578175</v>
+        <v>0.9494872678552291</v>
       </c>
       <c r="D13" t="n">
-        <v>74184206877.47069</v>
+        <v>73794150457.7084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B14" t="n">
-        <v>77720000000</v>
+        <v>77980000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9494872678552291</v>
+        <v>0.9358038029681562</v>
       </c>
       <c r="D14" t="n">
-        <v>73794150457.7084</v>
+        <v>72973980555.45682</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B15" t="n">
-        <v>77980000000</v>
+        <v>78870000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9358038029681562</v>
+        <v>0.9554748892695373</v>
       </c>
       <c r="D15" t="n">
-        <v>72973980555.45682</v>
+        <v>75358304516.6884</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B16" t="n">
-        <v>78870000000</v>
+        <v>79890000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9554748892695373</v>
+        <v>0.9800077920419547</v>
       </c>
       <c r="D16" t="n">
-        <v>75358304516.6884</v>
+        <v>78292822506.23175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B17" t="n">
-        <v>79890000000</v>
+        <v>80460000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9800077920419547</v>
+        <v>0.9691800454783859</v>
       </c>
       <c r="D17" t="n">
-        <v>78292822506.23175</v>
+        <v>77980226459.19093</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B18" t="n">
-        <v>80460000000</v>
+        <v>81370000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9691800454783859</v>
+        <v>0.9542895678705817</v>
       </c>
       <c r="D18" t="n">
-        <v>77980226459.19093</v>
+        <v>77650542137.62924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B19" t="n">
-        <v>81370000000</v>
+        <v>83110000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9542895678705817</v>
+        <v>0.8649770556618704</v>
       </c>
       <c r="D19" t="n">
-        <v>77650542137.62924</v>
+        <v>71888243096.05806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B20" t="n">
-        <v>83110000000</v>
+        <v>83600000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8649770556618704</v>
+        <v>0.8673779316051338</v>
       </c>
       <c r="D20" t="n">
-        <v>71888243096.05806</v>
+        <v>72512795082.18918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B21" t="n">
-        <v>83600000000</v>
+        <v>84750000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8673779316051338</v>
+        <v>0.8816787318229365</v>
       </c>
       <c r="D21" t="n">
-        <v>72512795082.18918</v>
+        <v>74722272521.99387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B22" t="n">
-        <v>84750000000</v>
+        <v>85700000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8816787318229365</v>
+        <v>0.8754267628869232</v>
       </c>
       <c r="D22" t="n">
-        <v>74722272521.99387</v>
+        <v>75024073579.40932</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B23" t="n">
-        <v>85700000000</v>
+        <v>86530000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8754267628869232</v>
+        <v>0.880514228057711</v>
       </c>
       <c r="D23" t="n">
-        <v>75024073579.40932</v>
+        <v>76190896153.83372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B24" t="n">
-        <v>86530000000</v>
+        <v>87400000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.880514228057711</v>
+        <v>0.8775778696344384</v>
       </c>
       <c r="D24" t="n">
-        <v>76190896153.83372</v>
+        <v>76700305806.04991</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B25" t="n">
-        <v>87400000000</v>
+        <v>88350000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8775778696344384</v>
+        <v>0.8973438380112031</v>
       </c>
       <c r="D25" t="n">
-        <v>76700305806.04991</v>
+        <v>79280328088.28979</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B26" t="n">
-        <v>88350000000</v>
+        <v>89090000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8973438380112031</v>
+        <v>0.9143274703151014</v>
       </c>
       <c r="D26" t="n">
-        <v>79280328088.28979</v>
+        <v>81457434330.37239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B27" t="n">
-        <v>89090000000</v>
+        <v>90100000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9143274703151014</v>
+        <v>0.9153318329152906</v>
       </c>
       <c r="D27" t="n">
-        <v>81457434330.37239</v>
+        <v>82471398145.66768</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B28" t="n">
-        <v>90100000000</v>
+        <v>91340000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9153318329152906</v>
+        <v>0.8987148458588554</v>
       </c>
       <c r="D28" t="n">
-        <v>82471398145.66768</v>
+        <v>82088614020.74785</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B29" t="n">
-        <v>91340000000</v>
+        <v>92420000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8987148458588554</v>
+        <v>0.9180207135584059</v>
       </c>
       <c r="D29" t="n">
-        <v>82088614020.74785</v>
+        <v>84843474347.06787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B30" t="n">
-        <v>92420000000</v>
+        <v>93680000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9180207135584059</v>
+        <v>0.943841452455714</v>
       </c>
       <c r="D30" t="n">
-        <v>84843474347.06787</v>
+        <v>88419067266.05128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B31" t="n">
-        <v>93680000000</v>
+        <v>94490000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.943841452455714</v>
+        <v>0.9363296230835064</v>
       </c>
       <c r="D31" t="n">
-        <v>88419067266.05128</v>
+        <v>88473786085.16052</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B32" t="n">
-        <v>94490000000</v>
+        <v>94900000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9363296230835064</v>
+        <v>0.9191175963721915</v>
       </c>
       <c r="D32" t="n">
-        <v>88473786085.16052</v>
+        <v>87224259895.72098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B33" t="n">
-        <v>94900000000</v>
+        <v>95600000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9191175963721915</v>
+        <v>0.8991997041704909</v>
       </c>
       <c r="D33" t="n">
-        <v>87224259895.72098</v>
+        <v>85963491718.69893</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B34" t="n">
-        <v>95600000000</v>
+        <v>96370000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8991997041704909</v>
+        <v>0.8608074299663646</v>
       </c>
       <c r="D34" t="n">
-        <v>85963491718.69893</v>
+        <v>82956012025.85855</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B35" t="n">
-        <v>96370000000</v>
+        <v>97560000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8608074299663646</v>
+        <v>0.8352823672877899</v>
       </c>
       <c r="D35" t="n">
-        <v>82956012025.85855</v>
+        <v>81490147752.59679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B36" t="n">
-        <v>97560000000</v>
+        <v>98990000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8352823672877899</v>
+        <v>0.8490405408877293</v>
       </c>
       <c r="D36" t="n">
-        <v>81490147752.59679</v>
+        <v>84046523142.47632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B37" t="n">
-        <v>98990000000</v>
+        <v>100020000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8490405408877293</v>
+        <v>0.832639480976511</v>
       </c>
       <c r="D37" t="n">
-        <v>84046523142.47632</v>
+        <v>83280600887.27063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B38" t="n">
-        <v>100020000000</v>
+        <v>101120000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.832639480976511</v>
+        <v>0.8403360920838945</v>
       </c>
       <c r="D38" t="n">
-        <v>83280600887.27063</v>
+        <v>84974785631.52341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B39" t="n">
-        <v>101120000000</v>
+        <v>102730000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8403360920838945</v>
+        <v>0.8579272919317412</v>
       </c>
       <c r="D39" t="n">
-        <v>84974785631.52341</v>
+        <v>88134870700.14778</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B40" t="n">
-        <v>102730000000</v>
+        <v>104100000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8579272919317412</v>
+        <v>0.8254229952363601</v>
       </c>
       <c r="D40" t="n">
-        <v>88134870700.14778</v>
+        <v>85926533804.10509</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B41" t="n">
-        <v>104100000000</v>
+        <v>105970000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254229952363601</v>
+        <v>0.8137358878260522</v>
       </c>
       <c r="D41" t="n">
-        <v>85926533804.10509</v>
+        <v>86231592032.92676</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B42" t="n">
-        <v>105970000000</v>
+        <v>107270000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8137358878260522</v>
+        <v>0.7095217873529288</v>
       </c>
       <c r="D42" t="n">
-        <v>86231592032.92676</v>
+        <v>76110402129.34868</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B43" t="n">
-        <v>107270000000</v>
+        <v>108710000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7095217873529288</v>
+        <v>0.700525389138176</v>
       </c>
       <c r="D43" t="n">
-        <v>76110402129.34868</v>
+        <v>76154115053.21111</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B44" t="n">
-        <v>108710000000</v>
+        <v>109920000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.700525389138176</v>
+        <v>0.64649598336571</v>
       </c>
       <c r="D44" t="n">
-        <v>76154115053.21111</v>
+        <v>71062838491.55884</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B45" t="n">
-        <v>109920000000</v>
+        <v>111430000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.64649598336571</v>
+        <v>0.6633059386875146</v>
       </c>
       <c r="D45" t="n">
-        <v>71062838491.55884</v>
+        <v>73912180747.94975</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B46" t="n">
-        <v>111430000000</v>
+        <v>111520000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6633059386875146</v>
+        <v>0.6680026809352395</v>
       </c>
       <c r="D46" t="n">
-        <v>73912180747.94975</v>
+        <v>74495658977.8979</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B47" t="n">
-        <v>111520000000</v>
+        <v>114430000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6680026809352395</v>
+        <v>0.7240081298583299</v>
       </c>
       <c r="D47" t="n">
-        <v>74495658977.8979</v>
+        <v>82848250299.68869</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B48" t="n">
-        <v>114430000000</v>
+        <v>115720000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7240081298583299</v>
+        <v>0.7039774528975021</v>
       </c>
       <c r="D48" t="n">
-        <v>82848250299.68869</v>
+        <v>81464270849.29895</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B49" t="n">
-        <v>115720000000</v>
+        <v>117180000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7039774528975021</v>
+        <v>0.7058159132437054</v>
       </c>
       <c r="D49" t="n">
-        <v>81464270849.29895</v>
+        <v>82707508713.8974</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B50" t="n">
-        <v>117180000000</v>
+        <v>117900000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7058159132437054</v>
+        <v>0.6999860247790153</v>
       </c>
       <c r="D50" t="n">
-        <v>82707508713.8974</v>
+        <v>82528352321.44591</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B51" t="n">
-        <v>117900000000</v>
+        <v>118900000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6999860247790153</v>
+        <v>0.6860122063112286</v>
       </c>
       <c r="D51" t="n">
-        <v>82528352321.44591</v>
+        <v>81566851330.40508</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B52" t="n">
-        <v>118900000000</v>
+        <v>119260000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6860122063112286</v>
+        <v>0.6823144058248198</v>
       </c>
       <c r="D52" t="n">
-        <v>81566851330.40508</v>
+        <v>81372816038.66801</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B53" t="n">
-        <v>119260000000</v>
+        <v>119610000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6823144058248198</v>
+        <v>0.7139797433665498</v>
       </c>
       <c r="D53" t="n">
-        <v>81372816038.66801</v>
+        <v>85399117104.07301</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B54" t="n">
-        <v>119610000000</v>
+        <v>119810000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7139797433665498</v>
+        <v>0.6995942500264639</v>
       </c>
       <c r="D54" t="n">
-        <v>85399117104.07301</v>
+        <v>83818387095.67064</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B55" t="n">
-        <v>119810000000</v>
+        <v>121660000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6995942500264639</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D55" t="n">
-        <v>83818387095.67064</v>
+        <v>86559940001.42511</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B56" t="n">
-        <v>121660000000</v>
+        <v>123710000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.7407956090021808</v>
       </c>
       <c r="D56" t="n">
-        <v>86559940001.42511</v>
+        <v>91643824789.65979</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B57" t="n">
-        <v>123710000000</v>
+        <v>124870000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7407956090021808</v>
+        <v>0.7157171537053905</v>
       </c>
       <c r="D57" t="n">
-        <v>91643824789.65979</v>
+        <v>89371600983.19211</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>124870000000</v>
+        <v>125460000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7157171537053905</v>
+        <v>0.6734006688659887</v>
       </c>
       <c r="D58" t="n">
-        <v>89371600983.19211</v>
+        <v>84484847915.92694</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>125460000000</v>
+        <v>126350000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6734006688659887</v>
+        <v>0.5965163623394286</v>
       </c>
       <c r="D59" t="n">
-        <v>84484847915.92694</v>
+        <v>75369842381.58681</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>126350000000</v>
+        <v>127230000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5965163623394286</v>
+        <v>0.6090875682455973</v>
       </c>
       <c r="D60" t="n">
-        <v>75369842381.58681</v>
+        <v>77494211307.88734</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>127230000000</v>
+        <v>127640000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6090875682455973</v>
+        <v>0.6279829385827349</v>
       </c>
       <c r="D61" t="n">
-        <v>77494211307.88734</v>
+        <v>80155742280.70029</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>127640000000</v>
+        <v>128660000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6279829385827349</v>
+        <v>0.6413956646514849</v>
       </c>
       <c r="D62" t="n">
-        <v>80155742280.70029</v>
+        <v>82521966214.06004</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>128660000000</v>
+        <v>128720000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6413956646514849</v>
+        <v>0.6504064956044684</v>
       </c>
       <c r="D63" t="n">
-        <v>82521966214.06004</v>
+        <v>83720324114.20717</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>128720000000</v>
+        <v>130180000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6504064956044684</v>
+        <v>0.6649820322187385</v>
       </c>
       <c r="D64" t="n">
-        <v>83720324114.20717</v>
+        <v>86567360954.23538</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>130180000000</v>
+        <v>131860000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6649820322187385</v>
+        <v>0.6615068996194966</v>
       </c>
       <c r="D65" t="n">
-        <v>86567360954.23538</v>
+        <v>87226299783.82683</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>131860000000</v>
+        <v>133000000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6615068996194966</v>
+        <v>0.6769105572019712</v>
       </c>
       <c r="D66" t="n">
-        <v>87226299783.82683</v>
+        <v>90029104107.86218</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>133000000000</v>
+        <v>133140000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6769105572019712</v>
+        <v>0.7059155774806973</v>
       </c>
       <c r="D67" t="n">
-        <v>90029104107.86218</v>
+        <v>93985599985.78004</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>133140000000</v>
+        <v>133870000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7059155774806973</v>
+        <v>0.7025925517615565</v>
       </c>
       <c r="D68" t="n">
-        <v>93985599985.78004</v>
+        <v>94056064904.31958</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>133870000000</v>
+        <v>136030000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7025925517615565</v>
+        <v>0.7124029401752721</v>
       </c>
       <c r="D69" t="n">
-        <v>94056064904.31958</v>
+        <v>96908171952.04225</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>136030000000</v>
+        <v>137480000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7124029401752721</v>
+        <v>0.7207206947488037</v>
       </c>
       <c r="D70" t="n">
-        <v>96908171952.04225</v>
+        <v>99084681114.06554</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>137480000000</v>
+        <v>139420000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7207206947488037</v>
+        <v>0.6989097204056394</v>
       </c>
       <c r="D71" t="n">
-        <v>99084681114.06554</v>
+        <v>97441993218.95424</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>139420000000</v>
+        <v>140680000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6989097204056394</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D72" t="n">
-        <v>97441993218.95424</v>
+        <v>100092490213.7143</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>140680000000</v>
+        <v>142170000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.7099751710323087</v>
       </c>
       <c r="D73" t="n">
-        <v>100092490213.7143</v>
+        <v>100937170065.6633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>142170000000</v>
+        <v>143900000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7099751710323087</v>
+        <v>0.6687174223858975</v>
       </c>
       <c r="D74" t="n">
-        <v>100937170065.6633</v>
+        <v>96228437081.33064</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>143900000000</v>
+        <v>146010000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6687174223858975</v>
+        <v>0.7057162721644487</v>
       </c>
       <c r="D75" t="n">
-        <v>96228437081.33064</v>
+        <v>103041632898.7312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>146010000000</v>
+        <v>146600000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7057162721644487</v>
+        <v>0.7224389643467557</v>
       </c>
       <c r="D76" t="n">
-        <v>103041632898.7312</v>
+        <v>105909552173.2344</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>146600000000</v>
+        <v>147260000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7224389643467557</v>
+        <v>0.7090187030129318</v>
       </c>
       <c r="D77" t="n">
-        <v>105909552173.2344</v>
+        <v>104410094205.6843</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>147260000000</v>
+        <v>148180000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7090187030129318</v>
+        <v>0.7188039361272259</v>
       </c>
       <c r="D78" t="n">
-        <v>104410094205.6843</v>
+        <v>106512367255.3323</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>148180000000</v>
+        <v>150050000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7188039361272259</v>
+        <v>0.7416747124775601</v>
       </c>
       <c r="D79" t="n">
-        <v>106512367255.3323</v>
+        <v>111288290607.2579</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>150050000000</v>
+        <v>151400000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7416747124775601</v>
+        <v>0.7579776809833542</v>
       </c>
       <c r="D80" t="n">
-        <v>111288290607.2579</v>
+        <v>114757820900.8798</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>151400000000</v>
+        <v>152860000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7579776809833542</v>
+        <v>0.8017317212763958</v>
       </c>
       <c r="D81" t="n">
-        <v>114757820900.8798</v>
+        <v>122552710914.3099</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>152860000000</v>
+        <v>155210000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8017317212763958</v>
+        <v>0.7907013145867962</v>
       </c>
       <c r="D82" t="n">
-        <v>122552710914.3099</v>
+        <v>122724751037.0166</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>155210000000</v>
+        <v>156250000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7907013145867962</v>
+        <v>0.8037293104302308</v>
       </c>
       <c r="D83" t="n">
-        <v>122724751037.0166</v>
+        <v>125582704754.7236</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>156250000000</v>
+        <v>157950000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8037293104302308</v>
+        <v>0.803470955963155</v>
       </c>
       <c r="D84" t="n">
-        <v>125582704754.7236</v>
+        <v>126908237494.3803</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>157950000000</v>
+        <v>160370000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.803470955963155</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D85" t="n">
-        <v>126908237494.3803</v>
+        <v>125968107360.4884</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>160370000000</v>
+        <v>163980000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.8196721109916694</v>
       </c>
       <c r="D86" t="n">
-        <v>125968107360.4884</v>
+        <v>134409832760.4139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>163980000000</v>
+        <v>167140000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8196721109916694</v>
+        <v>0.8749671963860984</v>
       </c>
       <c r="D87" t="n">
-        <v>134409832760.4139</v>
+        <v>146242017203.9725</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>167140000000</v>
+        <v>171100000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8749671963860984</v>
+        <v>0.8539709649871904</v>
       </c>
       <c r="D88" t="n">
-        <v>146242017203.9725</v>
+        <v>146114432109.3083</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>171100000000</v>
+        <v>175150000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8539709649871904</v>
+        <v>0.8895214453791269</v>
       </c>
       <c r="D89" t="n">
-        <v>146114432109.3083</v>
+        <v>155799681158.1541</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>175150000000</v>
+        <v>178790000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8895214453791269</v>
+        <v>0.8005123342980495</v>
       </c>
       <c r="D90" t="n">
-        <v>155799681158.1541</v>
+        <v>143123600249.1483</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>178790000000</v>
+        <v>182170000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8005123342980495</v>
+        <v>0.8185315878911184</v>
       </c>
       <c r="D91" t="n">
-        <v>143123600249.1483</v>
+        <v>149111899366.125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>182170000000</v>
+        <v>185280000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8185315878911184</v>
+        <v>0.7940288963472376</v>
       </c>
       <c r="D92" t="n">
-        <v>149111899366.125</v>
+        <v>147117673915.2162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>185280000000</v>
+        <v>187880000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7940288963472376</v>
+        <v>0.750018756094043</v>
       </c>
       <c r="D93" t="n">
-        <v>147117673915.2162</v>
+        <v>140913523894.9488</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>187880000000</v>
+        <v>192850000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.750018756094043</v>
+        <v>0.755972157364011</v>
       </c>
       <c r="D94" t="n">
-        <v>140913523894.9488</v>
+        <v>145789230547.6495</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>192850000000</v>
+        <v>196160000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.755972157364011</v>
+        <v>0.7555152328681159</v>
       </c>
       <c r="D95" t="n">
-        <v>145789230547.6495</v>
+        <v>148201868079.4096</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>196160000000</v>
+        <v>199870000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7555152328681159</v>
+        <v>0.7645260114187923</v>
       </c>
       <c r="D96" t="n">
-        <v>148201868079.4096</v>
+        <v>152805813902.274</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>199870000000</v>
+        <v>200090000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7645260114187923</v>
+        <v>0.7754943776657619</v>
       </c>
       <c r="D97" t="n">
-        <v>152805813902.274</v>
+        <v>155168670027.1423</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>200090000000</v>
+        <v>201950000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7754943776657619</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D98" t="n">
-        <v>155168670027.1423</v>
+        <v>158131708357.9604</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>201950000000</v>
+        <v>203480000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7824726134585289</v>
       </c>
       <c r="D99" t="n">
-        <v>158131708357.9604</v>
+        <v>159217527386.5415</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>203480000000</v>
+        <v>205230000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.7900142202559646</v>
       </c>
       <c r="D100" t="n">
-        <v>159217527386.5415</v>
+        <v>162134618423.1316</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>205230000000</v>
+        <v>207140000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7900142202559646</v>
+        <v>0.768698605099525</v>
       </c>
       <c r="D101" t="n">
-        <v>162134618423.1316</v>
+        <v>159228229060.3156</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>207140000000</v>
+        <v>209580000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.768698605099525</v>
+        <v>0.7606876674325853</v>
       </c>
       <c r="D102" t="n">
-        <v>159228229060.3156</v>
+        <v>159424921340.5212</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>209580000000</v>
+        <v>211460000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7606876674325853</v>
+        <v>0.753693101851772</v>
       </c>
       <c r="D103" t="n">
-        <v>159424921340.5212</v>
+        <v>159375943317.5757</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>211460000000</v>
+        <v>214340000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.753693101851772</v>
+        <v>0.7505253902889639</v>
       </c>
       <c r="D104" t="n">
-        <v>159375943317.5757</v>
+        <v>160867612154.5365</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>214340000000</v>
+        <v>215060000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7505253902889639</v>
+        <v>0.7695267469759658</v>
       </c>
       <c r="D105" t="n">
-        <v>160867612154.5365</v>
+        <v>165494422204.6512</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>215060000000</v>
+        <v>216610000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7695267469759658</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D106" t="n">
-        <v>165494422204.6512</v>
+        <v>171558695214.5848</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>216610000000</v>
+        <v>216950000000</v>
       </c>
       <c r="C107" t="n">
         <v>0.7920165053071639</v>
       </c>
       <c r="D107" t="n">
-        <v>171558695214.5848</v>
+        <v>171827980826.3892</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>216950000000</v>
+        <v>219100000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7920165053071639</v>
+        <v>0.8145312372729494</v>
       </c>
       <c r="D108" t="n">
-        <v>171827980826.3892</v>
+        <v>178463794086.5032</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>219100000000</v>
+        <v>221570000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8145312372729494</v>
+        <v>0.8259684207163319</v>
       </c>
       <c r="D109" t="n">
-        <v>178463794086.5032</v>
+        <v>183009822978.1177</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>221570000000</v>
+        <v>222960000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8259684207163319</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D110" t="n">
-        <v>183009822978.1177</v>
+        <v>175131565860.7876</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>222960000000</v>
+        <v>225290000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.7738740312770631</v>
       </c>
       <c r="D111" t="n">
-        <v>175131565860.7876</v>
+        <v>174346080506.4095</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>225290000000</v>
+        <v>227100000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7738740312770631</v>
+        <v>0.771009993407479</v>
       </c>
       <c r="D112" t="n">
-        <v>174346080506.4095</v>
+        <v>175096369502.8385</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>227100000000</v>
+        <v>224960000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.771009993407479</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D113" t="n">
-        <v>175096369502.8385</v>
+        <v>176149091914.8639</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>224960000000</v>
+        <v>224750000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7849909541174906</v>
       </c>
       <c r="D114" t="n">
-        <v>176149091914.8639</v>
+        <v>176426716937.906</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>224750000000</v>
+        <v>225720000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7849909541174906</v>
+        <v>0.7750135567308878</v>
       </c>
       <c r="D115" t="n">
-        <v>176426716937.906</v>
+        <v>174936060025.296</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>225720000000</v>
+        <v>225760000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7750135567308878</v>
+        <v>0.7819831030498662</v>
       </c>
       <c r="D116" t="n">
-        <v>174936060025.296</v>
+        <v>176540505344.5378</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>225760000000</v>
+        <v>227470000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7819831030498662</v>
+        <v>0.7599939489281786</v>
       </c>
       <c r="D117" t="n">
-        <v>176540505344.5378</v>
+        <v>172875823562.6928</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>227470000000</v>
+        <v>228320000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7599939489281786</v>
+        <v>0.7675186358897425</v>
       </c>
       <c r="D118" t="n">
-        <v>172875823562.6928</v>
+        <v>175239854946.346</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>228320000000</v>
+        <v>228940000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7675186358897425</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D119" t="n">
-        <v>175239854946.346</v>
+        <v>177983363134.572</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>228940000000</v>
+        <v>229750000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D120" t="n">
-        <v>177983363134.572</v>
+        <v>180465003841.5678</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>229750000000</v>
+        <v>231010000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.7994883210786031</v>
       </c>
       <c r="D121" t="n">
-        <v>180465003841.5678</v>
+        <v>184689797052.3681</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>231010000000</v>
+        <v>230590000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7994883210786031</v>
+        <v>0.7800312012480499</v>
       </c>
       <c r="D122" t="n">
-        <v>184689797052.3681</v>
+        <v>179867394695.7878</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>230590000000</v>
+        <v>230200000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7800312012480499</v>
+        <v>0.7845598619174643</v>
       </c>
       <c r="D123" t="n">
-        <v>179867394695.7878</v>
+        <v>180605680213.4003</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>230200000000</v>
+        <v>231700000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7845598619174643</v>
+        <v>0.7595321282090233</v>
       </c>
       <c r="D124" t="n">
-        <v>180605680213.4003</v>
+        <v>175983594106.0307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>231700000000</v>
+        <v>231890000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7595321282090233</v>
+        <v>0.753012048192771</v>
       </c>
       <c r="D125" t="n">
-        <v>175983594106.0307</v>
+        <v>174615963855.4217</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>231890000000</v>
+        <v>232850000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.753012048192771</v>
+        <v>0.7535227187099691</v>
       </c>
       <c r="D126" t="n">
-        <v>174615963855.4217</v>
+        <v>175457765051.6163</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>232850000000</v>
+        <v>231500000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7535227187099691</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D127" t="n">
-        <v>175457765051.6163</v>
+        <v>178145440554.0592</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>231500000000</v>
+        <v>233570000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.75642965204236</v>
       </c>
       <c r="D128" t="n">
-        <v>178145440554.0592</v>
+        <v>176679273827.534</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>233570000000</v>
+        <v>234660000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.75642965204236</v>
+        <v>0.7570022710068131</v>
       </c>
       <c r="D129" t="n">
-        <v>176679273827.534</v>
+        <v>177638152914.4587</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>234660000000</v>
+        <v>234970000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7570022710068131</v>
+        <v>0.7483349547257352</v>
       </c>
       <c r="D130" t="n">
-        <v>177638152914.4587</v>
+        <v>175836264311.906</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>234970000000</v>
+        <v>236720000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7483349547257352</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D131" t="n">
-        <v>175836264311.906</v>
+        <v>176013086474.8308</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>236720000000</v>
+        <v>238900000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D132" t="n">
-        <v>176013086474.8308</v>
+        <v>170630669237.9116</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>238900000000</v>
+        <v>238680000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.7130124777183601</v>
       </c>
       <c r="D133" t="n">
-        <v>170630669237.9116</v>
+        <v>170181818181.8182</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>238680000000</v>
+        <v>238790000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7130124777183601</v>
+        <v>0.6965243435258063</v>
       </c>
       <c r="D134" t="n">
-        <v>170181818181.8182</v>
+        <v>166323047990.5273</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>238790000000</v>
+        <v>239970000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6965243435258063</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D135" t="n">
-        <v>166323047990.5273</v>
+        <v>162989879779.9362</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>239970000000</v>
+        <v>241020000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6890374147316199</v>
       </c>
       <c r="D136" t="n">
-        <v>162989879779.9362</v>
+        <v>166071797698.6151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>241020000000</v>
+        <v>242950000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6890374147316199</v>
+        <v>0.679671039217019</v>
       </c>
       <c r="D137" t="n">
-        <v>166071797698.6151</v>
+        <v>165126078977.7747</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>242950000000</v>
+        <v>244550000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.679671039217019</v>
+        <v>0.6957973838018369</v>
       </c>
       <c r="D138" t="n">
-        <v>165126078977.7747</v>
+        <v>170157250208.7392</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>244550000000</v>
+        <v>245610000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6957973838018369</v>
+        <v>0.7055669230226487</v>
       </c>
       <c r="D139" t="n">
-        <v>170157250208.7392</v>
+        <v>173294291963.5927</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>245610000000</v>
+        <v>245920000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7055669230226487</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D140" t="n">
-        <v>173294291963.5927</v>
+        <v>173868778280.543</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>245920000000</v>
+        <v>246560000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.6761782405842179</v>
       </c>
       <c r="D141" t="n">
-        <v>173868778280.543</v>
+        <v>166718506998.4448</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>246560000000</v>
+        <v>249860000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6761782405842179</v>
+        <v>0.6657789613848203</v>
       </c>
       <c r="D142" t="n">
-        <v>166718506998.4448</v>
+        <v>166351531291.6112</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>249860000000</v>
+        <v>250840000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6657789613848203</v>
+        <v>0.6898454746136865</v>
       </c>
       <c r="D143" t="n">
-        <v>166351531291.6112</v>
+        <v>173040838852.0971</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>250840000000</v>
+        <v>250160000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6898454746136865</v>
+        <v>0.6734006734006733</v>
       </c>
       <c r="D144" t="n">
-        <v>173040838852.0971</v>
+        <v>168457912457.9124</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>250160000000</v>
+        <v>252080000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6734006734006733</v>
+        <v>0.6471654154801968</v>
       </c>
       <c r="D145" t="n">
-        <v>168457912457.9124</v>
+        <v>163137457934.248</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>252080000000</v>
+        <v>253450000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6471654154801968</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="D146" t="n">
-        <v>163137457934.248</v>
+        <v>168921620901.093</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>253450000000</v>
+        <v>254480000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6664889362836577</v>
+        <v>0.6586747464102226</v>
       </c>
       <c r="D147" t="n">
-        <v>168921620901.093</v>
+        <v>167619549466.4734</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>254480000000</v>
+        <v>255700000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6586747464102226</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D148" t="n">
-        <v>167619549466.4734</v>
+        <v>173638462583.1862</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>255700000000</v>
+        <v>258520000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.7084159818645509</v>
       </c>
       <c r="D149" t="n">
-        <v>173638462583.1862</v>
+        <v>183139699631.6237</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>258520000000</v>
+        <v>259890000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7084159818645509</v>
+        <v>0.7132667617689016</v>
       </c>
       <c r="D150" t="n">
-        <v>183139699631.6237</v>
+        <v>185370898716.1198</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>259890000000</v>
+        <v>262940000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7132667617689016</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D151" t="n">
-        <v>185370898716.1198</v>
+        <v>185142937614.4205</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>262940000000</v>
+        <v>264880000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7150007150007149</v>
       </c>
       <c r="D152" t="n">
-        <v>185142937614.4205</v>
+        <v>189389389389.3894</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>264880000000</v>
+        <v>266860000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7150007150007149</v>
+        <v>0.7370826269624825</v>
       </c>
       <c r="D153" t="n">
-        <v>189389389389.3894</v>
+        <v>196697869831.2081</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>266860000000</v>
+        <v>267840000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7370826269624825</v>
+        <v>0.728650539201399</v>
       </c>
       <c r="D154" t="n">
-        <v>196697869831.2081</v>
+        <v>195161760419.7027</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>267840000000</v>
+        <v>269080000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.728650539201399</v>
+        <v>0.7392622163081245</v>
       </c>
       <c r="D155" t="n">
-        <v>195161760419.7027</v>
+        <v>198920677164.1902</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>269080000000</v>
+        <v>271380000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7392622163081245</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D156" t="n">
-        <v>198920677164.1902</v>
+        <v>201574686176.9294</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>271380000000</v>
+        <v>271120000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7397544015386892</v>
       </c>
       <c r="D157" t="n">
-        <v>201574686176.9294</v>
+        <v>200562213345.1694</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>271120000000</v>
+        <v>274930000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7397544015386892</v>
+        <v>0.7425007425007425</v>
       </c>
       <c r="D158" t="n">
-        <v>200562213345.1694</v>
+        <v>204135729135.7291</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>274930000000</v>
+        <v>277990000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7425007425007425</v>
+        <v>0.7691124442393478</v>
       </c>
       <c r="D159" t="n">
-        <v>204135729135.7291</v>
+        <v>213805568374.0963</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>277990000000</v>
+        <v>280660000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7691124442393478</v>
+        <v>0.7753741180119407</v>
       </c>
       <c r="D160" t="n">
-        <v>213805568374.0963</v>
+        <v>217616499961.2313</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>280660000000</v>
+        <v>280400000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7753741180119407</v>
+        <v>0.7564868749527195</v>
       </c>
       <c r="D161" t="n">
-        <v>217616499961.2313</v>
+        <v>212118919736.7426</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>280400000000</v>
+        <v>281790000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7564868749527195</v>
+        <v>0.7388798581350673</v>
       </c>
       <c r="D162" t="n">
-        <v>212118919736.7426</v>
+        <v>208208955223.8806</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>281790000000</v>
+        <v>285000000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7388798581350673</v>
+        <v>0.7351319561861354</v>
       </c>
       <c r="D163" t="n">
-        <v>208208955223.8806</v>
+        <v>209512607513.0486</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>285000000000</v>
+        <v>286460000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7351319561861354</v>
+        <v>0.727749072119933</v>
       </c>
       <c r="D164" t="n">
-        <v>209512607513.0486</v>
+        <v>208470999199.476</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>286460000000</v>
+        <v>288080000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.727749072119933</v>
+        <v>0.7183908045977012</v>
       </c>
       <c r="D165" t="n">
-        <v>208470999199.476</v>
+        <v>206954022988.5058</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>288080000000</v>
+        <v>288190000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7183908045977012</v>
+        <v>0.709622480840193</v>
       </c>
       <c r="D166" t="n">
-        <v>206954022988.5058</v>
+        <v>204506102753.3352</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>288190000000</v>
+        <v>290340000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.709622480840193</v>
+        <v>0.7383343177790903</v>
       </c>
       <c r="D167" t="n">
-        <v>204506102753.3352</v>
+        <v>214367985823.9811</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>290340000000</v>
+        <v>292930000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7383343177790903</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D168" t="n">
-        <v>214367985823.9811</v>
+        <v>220181900180.3969</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>292930000000</v>
+        <v>296290000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.751653638003608</v>
+        <v>0.7553440592189742</v>
       </c>
       <c r="D169" t="n">
-        <v>220181900180.3969</v>
+        <v>223800891305.9899</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>296290000000</v>
+        <v>299240000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7553440592189742</v>
+        <v>0.76103500761035</v>
       </c>
       <c r="D170" t="n">
-        <v>223800891305.9899</v>
+        <v>227732115677.3211</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>299240000000</v>
+        <v>301580000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.76103500761035</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D171" t="n">
-        <v>227732115677.3211</v>
+        <v>224239720425.3104</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>301580000000</v>
+        <v>305960000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D172" t="n">
-        <v>224239720425.3104</v>
+        <v>227158660628.109</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>305960000000</v>
+        <v>307030000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="D173" t="n">
-        <v>227158660628.109</v>
+        <v>229126865671.6418</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>307030000000</v>
+        <v>309240000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7462686567164178</v>
+        <v>0.7640003056001222</v>
       </c>
       <c r="D174" t="n">
-        <v>229126865671.6418</v>
+        <v>236259454503.7818</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>309240000000</v>
+        <v>310810000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7640003056001222</v>
+        <v>0.7820442637053258</v>
       </c>
       <c r="D175" t="n">
-        <v>236259454503.7818</v>
+        <v>243067177602.2523</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>310810000000</v>
+        <v>312640000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7820442637053258</v>
+        <v>0.7871536523929471</v>
       </c>
       <c r="D176" t="n">
-        <v>243067177602.2523</v>
+        <v>246095717884.131</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>312640000000</v>
+        <v>312680000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7871536523929471</v>
+        <v>0.7986582541330565</v>
       </c>
       <c r="D177" t="n">
-        <v>246095717884.131</v>
+        <v>249724462902.3241</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>312680000000</v>
+        <v>315970000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7986582541330565</v>
+        <v>0.7877116975187081</v>
       </c>
       <c r="D178" t="n">
-        <v>249724462902.3241</v>
+        <v>248893265064.9862</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>315970000000</v>
+        <v>319500000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7877116975187081</v>
+        <v>0.7730364873222015</v>
       </c>
       <c r="D179" t="n">
-        <v>248893265064.9862</v>
+        <v>246985157699.4434</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>319500000000</v>
+        <v>321170000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7730364873222015</v>
+        <v>0.7901390644753477</v>
       </c>
       <c r="D180" t="n">
-        <v>246985157699.4434</v>
+        <v>253768963337.5474</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>321170000000</v>
+        <v>320120000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7901390644753477</v>
+        <v>0.7912644405760405</v>
       </c>
       <c r="D181" t="n">
-        <v>253768963337.5474</v>
+        <v>253299572717.2021</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>320120000000</v>
+        <v>326780000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7912644405760405</v>
+        <v>0.7917656373713381</v>
       </c>
       <c r="D182" t="n">
-        <v>253299572717.2021</v>
+        <v>258733174980.2059</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>326780000000</v>
+        <v>330160000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7917656373713381</v>
+        <v>0.8167265599477296</v>
       </c>
       <c r="D183" t="n">
-        <v>258733174980.2059</v>
+        <v>269650441032.3424</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>330160000000</v>
+        <v>332270000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.8167265599477296</v>
+        <v>0.794533608771651</v>
       </c>
       <c r="D184" t="n">
-        <v>269650441032.3424</v>
+        <v>263999682186.5565</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>332270000000</v>
+        <v>334060000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.794533608771651</v>
+        <v>0.7627183281214248</v>
       </c>
       <c r="D185" t="n">
-        <v>263999682186.5565</v>
+        <v>254793684692.2432</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>334060000000</v>
+        <v>336880000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7627183281214248</v>
+        <v>0.7789375292101574</v>
       </c>
       <c r="D186" t="n">
-        <v>254793684692.2432</v>
+        <v>262408474840.3178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>336880000000</v>
+        <v>338230000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7789375292101574</v>
+        <v>0.7855459544383347</v>
       </c>
       <c r="D187" t="n">
-        <v>262408474840.3178</v>
+        <v>265695208169.6779</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>338230000000</v>
+        <v>340960000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7855459544383347</v>
+        <v>0.7805182641273807</v>
       </c>
       <c r="D188" t="n">
-        <v>265695208169.6779</v>
+        <v>266125507336.8717</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>340960000000</v>
+        <v>343490000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7805182641273807</v>
+        <v>0.7600516835144789</v>
       </c>
       <c r="D189" t="n">
-        <v>266125507336.8717</v>
+        <v>261070152770.3884</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>343490000000</v>
+        <v>345100000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7600516835144789</v>
+        <v>0.75431847325941</v>
       </c>
       <c r="D190" t="n">
-        <v>261070152770.3884</v>
+        <v>260315305121.8224</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>345100000000</v>
+        <v>346110000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.75431847325941</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D191" t="n">
-        <v>260315305121.8224</v>
+        <v>258561183325.8628</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>346110000000</v>
+        <v>347530000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7322252324815114</v>
       </c>
       <c r="D192" t="n">
-        <v>258561183325.8628</v>
+        <v>254470235044.2997</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>347530000000</v>
+        <v>347250000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7322252324815114</v>
+        <v>0.7246376811594204</v>
       </c>
       <c r="D193" t="n">
-        <v>254470235044.2997</v>
+        <v>251630434782.6087</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>347250000000</v>
+        <v>350470000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7246376811594204</v>
+        <v>0.7011147724882564</v>
       </c>
       <c r="D194" t="n">
-        <v>251630434782.6087</v>
+        <v>245719694313.9592</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>350470000000</v>
+        <v>351820000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7011147724882564</v>
+        <v>0.681384573453257</v>
       </c>
       <c r="D195" t="n">
-        <v>245719694313.9592</v>
+        <v>239724720632.3249</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>351820000000</v>
+        <v>354150000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.681384573453257</v>
+        <v>0.6503219093451258</v>
       </c>
       <c r="D196" t="n">
-        <v>239724720632.3249</v>
+        <v>230311504194.5763</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>354150000000</v>
+        <v>355660000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6503219093451258</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D197" t="n">
-        <v>230311504194.5763</v>
+        <v>244171357956.8859</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>355660000000</v>
+        <v>357450000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D198" t="n">
-        <v>244171357956.8859</v>
+        <v>242783400122.2577</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>357450000000</v>
+        <v>358330000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6624710168930109</v>
       </c>
       <c r="D199" t="n">
-        <v>242783400122.2577</v>
+        <v>237383239483.2726</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>358330000000</v>
+        <v>361170000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6624710168930109</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D200" t="n">
-        <v>237383239483.2726</v>
+        <v>234480296046.2248</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>361170000000</v>
+        <v>362750000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6229365227683299</v>
       </c>
       <c r="D201" t="n">
-        <v>234480296046.2248</v>
+        <v>225970223634.2117</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>362750000000</v>
+        <v>366170000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6229365227683299</v>
+        <v>0.6206168931918327</v>
       </c>
       <c r="D202" t="n">
-        <v>225970223634.2117</v>
+        <v>227251287780.0534</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>366170000000</v>
+        <v>371130000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6206168931918327</v>
+        <v>0.6060238773407672</v>
       </c>
       <c r="D203" t="n">
-        <v>227251287780.0534</v>
+        <v>224913641597.4789</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>371130000000</v>
+        <v>373880000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6060238773407672</v>
+        <v>0.5656748500961647</v>
       </c>
       <c r="D204" t="n">
-        <v>224913641597.4789</v>
+        <v>211494512953.9541</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>373880000000</v>
+        <v>376200000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5656748500961647</v>
+        <v>0.5935774915415207</v>
       </c>
       <c r="D205" t="n">
-        <v>211494512953.9541</v>
+        <v>223303852317.9201</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>376200000000</v>
+        <v>377710000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5935774915415207</v>
+        <v>0.623208276205908</v>
       </c>
       <c r="D206" t="n">
-        <v>223303852317.9201</v>
+        <v>235391998005.7335</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>377710000000</v>
+        <v>378810000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.623208276205908</v>
+        <v>0.6285355122564426</v>
       </c>
       <c r="D207" t="n">
-        <v>235391998005.7335</v>
+        <v>238095537397.863</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>378810000000</v>
+        <v>382120000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6285355122564426</v>
+        <v>0.611321677466683</v>
       </c>
       <c r="D208" t="n">
-        <v>238095537397.863</v>
+        <v>233598239393.5689</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>382120000000</v>
+        <v>385160000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.611321677466683</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D209" t="n">
-        <v>233598239393.5689</v>
+        <v>242742799521.0185</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>385160000000</v>
+        <v>387510000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6187353050365053</v>
       </c>
       <c r="D210" t="n">
-        <v>242742799521.0185</v>
+        <v>239766118054.6962</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>387510000000</v>
+        <v>391450000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6187353050365053</v>
+        <v>0.6338742393509128</v>
       </c>
       <c r="D211" t="n">
-        <v>239766118054.6962</v>
+        <v>248130070993.9148</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>391450000000</v>
+        <v>395750000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6338742393509128</v>
+        <v>0.6612007405448295</v>
       </c>
       <c r="D212" t="n">
-        <v>248130070993.9148</v>
+        <v>261670193070.6163</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>395750000000</v>
+        <v>399910000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6612007405448295</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D213" t="n">
-        <v>261670193070.6163</v>
+        <v>259631240667.4025</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>399910000000</v>
+        <v>403120000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D214" t="n">
-        <v>259631240667.4025</v>
+        <v>269123439481.9414</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>403120000000</v>
+        <v>405520000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6514233600416911</v>
       </c>
       <c r="D215" t="n">
-        <v>269123439481.9414</v>
+        <v>264165200964.1066</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>405520000000</v>
+        <v>407890000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6514233600416911</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D216" t="n">
-        <v>264165200964.1066</v>
+        <v>260682558956.9886</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>407890000000</v>
+        <v>411000000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.6525285481239804</v>
       </c>
       <c r="D217" t="n">
-        <v>260682558956.9886</v>
+        <v>268189233278.956</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>411000000000</v>
+        <v>414510000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6525285481239804</v>
+        <v>0.6388551715326136</v>
       </c>
       <c r="D218" t="n">
-        <v>268189233278.956</v>
+        <v>264811857151.9837</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>414510000000</v>
+        <v>417830000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6388551715326136</v>
+        <v>0.6352029473416757</v>
       </c>
       <c r="D219" t="n">
-        <v>264811857151.9837</v>
+        <v>265406847487.7724</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>417830000000</v>
+        <v>417850000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6352029473416757</v>
+        <v>0.6535520554212143</v>
       </c>
       <c r="D220" t="n">
-        <v>265406847487.7724</v>
+        <v>273086726357.7544</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>417850000000</v>
+        <v>418870000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6535520554212143</v>
+        <v>0.6369832473405949</v>
       </c>
       <c r="D221" t="n">
-        <v>273086726357.7544</v>
+        <v>266813172813.555</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>418870000000</v>
+        <v>420650000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6369832473405949</v>
+        <v>0.6178178672927221</v>
       </c>
       <c r="D222" t="n">
-        <v>266813172813.555</v>
+        <v>259885085876.6836</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>420650000000</v>
+        <v>422650000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6178178672927221</v>
+        <v>0.6076810889645115</v>
       </c>
       <c r="D223" t="n">
-        <v>259885085876.6836</v>
+        <v>256836412250.8508</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>422650000000</v>
+        <v>426220000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6076810889645115</v>
+        <v>0.5838052425710782</v>
       </c>
       <c r="D224" t="n">
-        <v>256836412250.8508</v>
+        <v>248829470488.645</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>426220000000</v>
+        <v>429660000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5838052425710782</v>
+        <v>0.5727048851726705</v>
       </c>
       <c r="D225" t="n">
-        <v>248829470488.645</v>
+        <v>246068380963.2896</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>429660000000</v>
+        <v>431980000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5727048851726705</v>
+        <v>0.5969080164746613</v>
       </c>
       <c r="D226" t="n">
-        <v>246068380963.2896</v>
+        <v>257852324956.7242</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>431980000000</v>
+        <v>434970000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5969080164746613</v>
+        <v>0.5809225049378413</v>
       </c>
       <c r="D227" t="n">
-        <v>257852324956.7242</v>
+        <v>252683861972.8128</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>434970000000</v>
+        <v>438260000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5809225049378413</v>
+        <v>0.576468553640399</v>
       </c>
       <c r="D228" t="n">
-        <v>252683861972.8128</v>
+        <v>252643108318.4413</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>438260000000</v>
+        <v>439950000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.576468553640399</v>
+        <v>0.5429176393941039</v>
       </c>
       <c r="D229" t="n">
-        <v>252643108318.4413</v>
+        <v>238856615451.436</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>439950000000</v>
+        <v>442280000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5429176393941039</v>
+        <v>0.5178127589063795</v>
       </c>
       <c r="D230" t="n">
-        <v>238856615451.436</v>
+        <v>229018227009.1135</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>442280000000</v>
+        <v>436650000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5178127589063795</v>
+        <v>0.5281504172388296</v>
       </c>
       <c r="D231" t="n">
-        <v>229018227009.1135</v>
+        <v>230616879687.335</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>436650000000</v>
+        <v>438420000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5281504172388296</v>
+        <v>0.5586280096084018</v>
       </c>
       <c r="D232" t="n">
-        <v>230616879687.335</v>
+        <v>244913691972.5155</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>438420000000</v>
+        <v>443340000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5586280096084018</v>
+        <v>0.5509338328466752</v>
       </c>
       <c r="D233" t="n">
-        <v>244913691972.5155</v>
+        <v>244251005454.245</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>443340000000</v>
+        <v>448720000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5509338328466752</v>
+        <v>0.5259835893120135</v>
       </c>
       <c r="D234" t="n">
-        <v>244251005454.245</v>
+        <v>236019356196.0867</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>448720000000</v>
+        <v>453480000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5259835893120135</v>
+        <v>0.4857198367981348</v>
       </c>
       <c r="D235" t="n">
-        <v>236019356196.0867</v>
+        <v>220264231591.2182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>453480000000</v>
+        <v>457780000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4857198367981348</v>
+        <v>0.5123738279448686</v>
       </c>
       <c r="D236" t="n">
-        <v>220264231591.2182</v>
+        <v>234554490956.602</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>457780000000</v>
+        <v>463620000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5123738279448686</v>
+        <v>0.506868062243398</v>
       </c>
       <c r="D237" t="n">
-        <v>234554490956.602</v>
+        <v>234994171017.2842</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>463620000000</v>
+        <v>468500000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.506868062243398</v>
+        <v>0.5109078833086395</v>
       </c>
       <c r="D238" t="n">
-        <v>234994171017.2842</v>
+        <v>239360343330.0976</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>468500000000</v>
+        <v>466790000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5109078833086395</v>
+        <v>0.5097099750242112</v>
       </c>
       <c r="D239" t="n">
-        <v>239360343330.0976</v>
+        <v>237927519241.5515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>466790000000</v>
+        <v>474320000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5097099750242112</v>
+        <v>0.5293526017680377</v>
       </c>
       <c r="D240" t="n">
-        <v>237927519241.5515</v>
+        <v>251082526070.6156</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>474320000000</v>
+        <v>481010000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5293526017680377</v>
+        <v>0.4912556494399685</v>
       </c>
       <c r="D241" t="n">
-        <v>251082526070.6156</v>
+        <v>236298879937.1193</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>481010000000</v>
+        <v>488360000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.4912556494399685</v>
+        <v>0.5031699708161417</v>
       </c>
       <c r="D242" t="n">
-        <v>236298879937.1193</v>
+        <v>245728086947.7709</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>488360000000</v>
+        <v>494090000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5031699708161417</v>
+        <v>0.5217028380634391</v>
       </c>
       <c r="D243" t="n">
-        <v>245728086947.7709</v>
+        <v>257768155258.7646</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>494090000000</v>
+        <v>498600000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5217028380634391</v>
+        <v>0.5105166428425566</v>
       </c>
       <c r="D244" t="n">
-        <v>257768155258.7646</v>
+        <v>254543598121.2987</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>498600000000</v>
+        <v>503470000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5105166428425566</v>
+        <v>0.5079752108097125</v>
       </c>
       <c r="D245" t="n">
-        <v>254543598121.2987</v>
+        <v>255750279386.366</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>503470000000</v>
+        <v>506280000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.5079752108097125</v>
+        <v>0.5176787285810426</v>
       </c>
       <c r="D246" t="n">
-        <v>255750279386.366</v>
+        <v>262090386706.0102</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>506280000000</v>
+        <v>513230000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.5176787285810426</v>
+        <v>0.5332195798229711</v>
       </c>
       <c r="D247" t="n">
-        <v>262090386706.0102</v>
+        <v>273664284952.5435</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>513230000000</v>
+        <v>499220000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5332195798229711</v>
+        <v>0.5384449709239716</v>
       </c>
       <c r="D248" t="n">
-        <v>273664284952.5435</v>
+        <v>268802498384.6651</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>499220000000</v>
+        <v>502860000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5384449709239716</v>
+        <v>0.5673115107505532</v>
       </c>
       <c r="D249" t="n">
-        <v>268802498384.6651</v>
+        <v>285278266296.0232</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>502860000000</v>
+        <v>496270000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5673115107505532</v>
+        <v>0.5634755169887868</v>
       </c>
       <c r="D250" t="n">
-        <v>285278266296.0232</v>
+        <v>279635994816.0253</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>496270000000</v>
+        <v>506220000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5634755169887868</v>
+        <v>0.5422405379026136</v>
       </c>
       <c r="D251" t="n">
-        <v>279635994816.0253</v>
+        <v>274493005097.0611</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>506220000000</v>
+        <v>513150000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5422405379026136</v>
+        <v>0.550812448361333</v>
       </c>
       <c r="D252" t="n">
-        <v>274493005097.0611</v>
+        <v>282649407876.618</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>513150000000</v>
+        <v>515929999999.9999</v>
       </c>
       <c r="C253" t="n">
-        <v>0.550812448361333</v>
+        <v>0.5425935973955507</v>
       </c>
       <c r="D253" t="n">
-        <v>282649407876.618</v>
+        <v>279940314704.2864</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>515929999999.9999</v>
+        <v>519380000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5425935973955507</v>
+        <v>0.5541701302299806</v>
       </c>
       <c r="D254" t="n">
-        <v>279940314704.2864</v>
+        <v>287824882238.8474</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>519380000000</v>
+        <v>526200000000.0001</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5541701302299806</v>
+        <v>0.5607895917451773</v>
       </c>
       <c r="D255" t="n">
-        <v>287824882238.8474</v>
+        <v>295087483176.3124</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>526200000000.0001</v>
+        <v>531549999999.9999</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5607895917451773</v>
+        <v>0.5616399887672002</v>
       </c>
       <c r="D256" t="n">
-        <v>295087483176.3124</v>
+        <v>298539736029.2052</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>531549999999.9999</v>
+        <v>537549999999.9999</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5616399887672002</v>
+        <v>0.5868544600938967</v>
       </c>
       <c r="D257" t="n">
-        <v>298539736029.2052</v>
+        <v>315463615023.4741</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>537549999999.9999</v>
+        <v>540590000000.0001</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5868544600938967</v>
+        <v>0.6086797735711242</v>
       </c>
       <c r="D258" t="n">
-        <v>315463615023.4741</v>
+        <v>329046198794.8141</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>540590000000.0001</v>
+        <v>547510000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6086797735711242</v>
+        <v>0.6046680372475511</v>
       </c>
       <c r="D259" t="n">
-        <v>329046198794.8141</v>
+        <v>331061797073.4067</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>547510000000</v>
+        <v>553070000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6046680372475511</v>
+        <v>0.6265271599523839</v>
       </c>
       <c r="D260" t="n">
-        <v>331061797073.4067</v>
+        <v>346513376354.865</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>553070000000</v>
+        <v>563650000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6265271599523839</v>
+        <v>0.6533385600418137</v>
       </c>
       <c r="D261" t="n">
-        <v>346513376354.865</v>
+        <v>368254279367.5683</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>563650000000</v>
+        <v>564390000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6533385600418137</v>
+        <v>0.6738544474393531</v>
       </c>
       <c r="D262" t="n">
-        <v>368254279367.5683</v>
+        <v>380316711590.2965</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>564390000000</v>
+        <v>557870000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6738544474393531</v>
+        <v>0.6487187804086928</v>
       </c>
       <c r="D263" t="n">
-        <v>380316711590.2965</v>
+        <v>361900746026.5975</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>557870000000</v>
+        <v>570820000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6487187804086928</v>
+        <v>0.6472073004983496</v>
       </c>
       <c r="D264" t="n">
-        <v>361900746026.5975</v>
+        <v>369438871270.468</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>570820000000</v>
+        <v>577790000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.6472073004983496</v>
+        <v>0.6807351940095303</v>
       </c>
       <c r="D265" t="n">
-        <v>369438871270.468</v>
+        <v>393321987746.7665</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>577790000000</v>
+        <v>582450000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.6807351940095303</v>
+        <v>0.7085163667280714</v>
       </c>
       <c r="D266" t="n">
-        <v>393321987746.7665</v>
+        <v>412675357800.7652</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>582450000000</v>
+        <v>587230000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7085163667280714</v>
+        <v>0.7242702976750923</v>
       </c>
       <c r="D267" t="n">
-        <v>412675357800.7652</v>
+        <v>425313246903.7444</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>587230000000</v>
+        <v>594210000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7242702976750923</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D268" t="n">
-        <v>425313246903.7444</v>
+        <v>445034451767.5255</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>594210000000</v>
+        <v>595400000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7641170627340108</v>
       </c>
       <c r="D269" t="n">
-        <v>445034451767.5255</v>
+        <v>454955299151.83</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>595400000000</v>
+        <v>603830000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7641170627340108</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D270" t="n">
-        <v>454955299151.83</v>
+        <v>467216032188.177</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>603830000000</v>
+        <v>610420000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7667535654040791</v>
       </c>
       <c r="D271" t="n">
-        <v>467216032188.177</v>
+        <v>468041711393.958</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>610420000000</v>
+        <v>616240000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7667535654040791</v>
+        <v>0.7206168480219068</v>
       </c>
       <c r="D272" t="n">
-        <v>468041711393.958</v>
+        <v>444072926425.0199</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>616240000000</v>
+        <v>616410000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7206168480219068</v>
+        <v>0.7153075822603721</v>
       </c>
       <c r="D273" t="n">
-        <v>444072926425.0199</v>
+        <v>440922746781.116</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>616410000000</v>
+        <v>621360000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7153075822603721</v>
+        <v>0.6989097008666479</v>
       </c>
       <c r="D274" t="n">
-        <v>440922746781.116</v>
+        <v>434274531730.5004</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>621360000000</v>
+        <v>628300000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.6989097008666479</v>
+        <v>0.7026419336706015</v>
       </c>
       <c r="D275" t="n">
-        <v>434274531730.5004</v>
+        <v>441469926925.2389</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>628300000000</v>
+        <v>631750000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7026419336706015</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D276" t="n">
-        <v>441469926925.2389</v>
+        <v>444831713843.1207</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>631750000000</v>
+        <v>631890000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D277" t="n">
-        <v>444831713843.1207</v>
+        <v>459589788348.2435</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>631890000000</v>
+        <v>636610000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7484469725319961</v>
       </c>
       <c r="D278" t="n">
-        <v>459589788348.2435</v>
+        <v>476468827183.5941</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>636610000000</v>
+        <v>643610000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7484469725319961</v>
+        <v>0.7728572532653218</v>
       </c>
       <c r="D279" t="n">
-        <v>476468827183.5941</v>
+        <v>497418656774.0938</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>643610000000</v>
+        <v>647030000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7728572532653218</v>
+        <v>0.7802137785753296</v>
       </c>
       <c r="D280" t="n">
-        <v>497418656774.0938</v>
+        <v>504821721151.5955</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>647030000000</v>
+        <v>651950000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7802137785753296</v>
+        <v>0.7757350089209527</v>
       </c>
       <c r="D281" t="n">
-        <v>504821721151.5955</v>
+        <v>505740439066.0151</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>651950000000</v>
+        <v>655630000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7757350089209527</v>
+        <v>0.791702953052015</v>
       </c>
       <c r="D282" t="n">
-        <v>505740439066.0151</v>
+        <v>519064207109.4926</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>655630000000</v>
+        <v>658170000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.791702953052015</v>
+        <v>0.7723200494284832</v>
       </c>
       <c r="D283" t="n">
-        <v>519064207109.4926</v>
+        <v>508317886932.3448</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>658170000000</v>
+        <v>663270000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7723200494284832</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D284" t="n">
-        <v>508317886932.3448</v>
+        <v>518301164335.3911</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>663270000000</v>
+        <v>670110000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7558007709167863</v>
       </c>
       <c r="D285" t="n">
-        <v>518301164335.3911</v>
+        <v>506469654599.0477</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>670110000000</v>
+        <v>677030000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.7558007709167863</v>
+        <v>0.7625438462711607</v>
       </c>
       <c r="D286" t="n">
-        <v>506469654599.0477</v>
+        <v>516265060240.9639</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>677030000000</v>
+        <v>678460000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.7625438462711607</v>
+        <v>0.7568303943086355</v>
       </c>
       <c r="D287" t="n">
-        <v>516265060240.9639</v>
+        <v>513479149322.6368</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>678460000000</v>
+        <v>681150000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.7568303943086355</v>
+        <v>0.7554011179936546</v>
       </c>
       <c r="D288" t="n">
-        <v>513479149322.6368</v>
+        <v>514541471521.3779</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>681150000000</v>
+        <v>690110000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7554011179936546</v>
+        <v>0.7620208793720947</v>
       </c>
       <c r="D289" t="n">
-        <v>514541471521.3779</v>
+        <v>525878229063.4763</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>690110000000</v>
+        <v>688190000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.7620208793720947</v>
+        <v>0.7485590238790328</v>
       </c>
       <c r="D290" t="n">
-        <v>525878229063.4763</v>
+        <v>515150834643.3116</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>688190000000</v>
+        <v>692280000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.7485590238790328</v>
+        <v>0.738061849582995</v>
       </c>
       <c r="D291" t="n">
-        <v>515150834643.3116</v>
+        <v>510945457229.3158</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>692280000000</v>
+        <v>700040000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.738061849582995</v>
+        <v>0.7345379756133392</v>
       </c>
       <c r="D292" t="n">
-        <v>510945457229.3158</v>
+        <v>514205964448.362</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>700040000000</v>
+        <v>708110000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.7345379756133392</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D293" t="n">
-        <v>514205964448.362</v>
+        <v>537138739285.4434</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>708110000000</v>
+        <v>711320000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D294" t="n">
-        <v>537138739285.4434</v>
+        <v>528351778949.714</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>711320000000</v>
+        <v>721570000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7165376898824879</v>
       </c>
       <c r="D295" t="n">
-        <v>528351778949.714</v>
+        <v>517032100888.5068</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>721570000000</v>
+        <v>737180000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.7165376898824879</v>
+        <v>0.7598206823189727</v>
       </c>
       <c r="D296" t="n">
-        <v>517032100888.5068</v>
+        <v>560124610591.9003</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>737180000000</v>
+        <v>740080000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7598206823189727</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D297" t="n">
-        <v>560124610591.9003</v>
+        <v>556660398646.1077</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>740080000000</v>
+        <v>746280000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7427213309566251</v>
       </c>
       <c r="D298" t="n">
-        <v>556660398646.1077</v>
+        <v>554278074866.3102</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>746280000000</v>
+        <v>752990000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.7427213309566251</v>
+        <v>0.7659313725490196</v>
       </c>
       <c r="D299" t="n">
-        <v>554278074866.3102</v>
+        <v>576738664215.6863</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>752990000000</v>
+        <v>761270000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.7659313725490196</v>
+        <v>0.7638252367858235</v>
       </c>
       <c r="D300" t="n">
-        <v>576738664215.6863</v>
+        <v>581477238007.9438</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>761270000000</v>
+        <v>767370000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.7638252367858235</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D301" t="n">
-        <v>581477238007.9438</v>
+        <v>573477318586.0548</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>767370000000</v>
+        <v>776600000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D302" t="n">
-        <v>573477318586.0548</v>
+        <v>601083591331.2693</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>776600000000</v>
+        <v>781710000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.7894529091339701</v>
       </c>
       <c r="D303" t="n">
-        <v>601083591331.2693</v>
+        <v>617123233599.1158</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>781710000000</v>
+        <v>791340000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.7894529091339701</v>
+        <v>0.7895775759968418</v>
       </c>
       <c r="D304" t="n">
-        <v>617123233599.1158</v>
+        <v>624824318989.3407</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>791340000000</v>
+        <v>797720000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7895775759968418</v>
+        <v>0.777363184079602</v>
       </c>
       <c r="D305" t="n">
-        <v>624824318989.3407</v>
+        <v>620118159203.9801</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>797720000000</v>
+        <v>814180000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.777363184079602</v>
+        <v>0.7879599716334411</v>
       </c>
       <c r="D306" t="n">
-        <v>620118159203.9801</v>
+        <v>641541249704.5151</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>814180000000</v>
+        <v>825660000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7879599716334411</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D307" t="n">
-        <v>641541249704.5151</v>
+        <v>667847609803.4458</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>825660000000</v>
+        <v>839080000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8300821781356353</v>
       </c>
       <c r="D308" t="n">
-        <v>667847609803.4458</v>
+        <v>696505354030.049</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>839080000000</v>
+        <v>846460000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8300821781356353</v>
+        <v>0.8279516476237788</v>
       </c>
       <c r="D309" t="n">
-        <v>696505354030.049</v>
+        <v>700827951647.6238</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>846460000000</v>
+        <v>869580000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8279516476237788</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D310" t="n">
-        <v>700827951647.6238</v>
+        <v>738496815286.6243</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>869580000000</v>
+        <v>880350000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8509189925119128</v>
       </c>
       <c r="D311" t="n">
-        <v>738496815286.6243</v>
+        <v>749106535057.8624</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>880350000000</v>
+        <v>899030000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8509189925119128</v>
+        <v>0.8180628272251309</v>
       </c>
       <c r="D312" t="n">
-        <v>749106535057.8624</v>
+        <v>735463023560.2095</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>899030000000</v>
+        <v>912930000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.8180628272251309</v>
+        <v>0.8889679082585119</v>
       </c>
       <c r="D313" t="n">
-        <v>735463023560.2095</v>
+        <v>811565472486.4432</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>912930000000</v>
+        <v>938410000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8889679082585119</v>
+        <v>0.9325748391308403</v>
       </c>
       <c r="D314" t="n">
-        <v>811565472486.4432</v>
+        <v>875137554788.7719</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>938410000000</v>
+        <v>962560000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9325748391308403</v>
+        <v>0.8844078889183691</v>
       </c>
       <c r="D315" t="n">
-        <v>875137554788.7719</v>
+        <v>851295657557.2654</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>962560000000</v>
+        <v>971820000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8844078889183691</v>
+        <v>0.8749671887304226</v>
       </c>
       <c r="D316" t="n">
-        <v>851295657557.2654</v>
+        <v>850310613351.9993</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>971820000000</v>
+        <v>984270000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.8749671887304226</v>
+        <v>0.8962982880702699</v>
       </c>
       <c r="D317" t="n">
-        <v>850310613351.9993</v>
+        <v>882199515998.9246</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>984270000000</v>
+        <v>992020000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.8962982880702699</v>
+        <v>0.9313588525658936</v>
       </c>
       <c r="D318" t="n">
-        <v>882199515998.9246</v>
+        <v>923926608922.4177</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>992020000000</v>
+        <v>1001360000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9313588525658936</v>
+        <v>0.9139097057210747</v>
       </c>
       <c r="D319" t="n">
-        <v>923926608922.4177</v>
+        <v>915152622920.8553</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>1001360000000</v>
+        <v>1012690000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9139097057210747</v>
+        <v>0.9437523593808984</v>
       </c>
       <c r="D320" t="n">
-        <v>915152622920.8553</v>
+        <v>955728576821.442</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>1012690000000</v>
+        <v>1016350000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9437523593808984</v>
+        <v>0.9562057754828839</v>
       </c>
       <c r="D321" t="n">
-        <v>955728576821.442</v>
+        <v>971839739912.0291</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>1016350000000</v>
+        <v>1035620000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9562057754828839</v>
+        <v>0.9590486237652249</v>
       </c>
       <c r="D322" t="n">
-        <v>971839739912.0291</v>
+        <v>993209935743.7422</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>1035620000000</v>
+        <v>1056950000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9590486237652249</v>
+        <v>0.9417969485778865</v>
       </c>
       <c r="D323" t="n">
-        <v>993209935743.7422</v>
+        <v>995432284799.3972</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>1056950000000</v>
+        <v>1069430000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9417969485778865</v>
+        <v>0.8582217645039478</v>
       </c>
       <c r="D324" t="n">
-        <v>995432284799.3972</v>
+        <v>917808101613.4569</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>1069430000000</v>
+        <v>1089220000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8582217645039478</v>
+        <v>0.7951653944020356</v>
       </c>
       <c r="D325" t="n">
-        <v>917808101613.4569</v>
+        <v>866110050890.5852</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>1089220000000</v>
+        <v>1102950000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.7951653944020356</v>
+        <v>0.6685832720465333</v>
       </c>
       <c r="D326" t="n">
-        <v>866110050890.5852</v>
+        <v>737413919903.724</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>1102950000000</v>
+        <v>1129340000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.6685832720465333</v>
+        <v>0.6549646319098769</v>
       </c>
       <c r="D327" t="n">
-        <v>737413919903.724</v>
+        <v>739677757401.1003</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>1129340000000</v>
+        <v>1130780000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.6549646319098769</v>
+        <v>0.7015574575557738</v>
       </c>
       <c r="D328" t="n">
-        <v>739677757401.1003</v>
+        <v>793307141854.918</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>1130780000000</v>
+        <v>1144920000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.7015574575557738</v>
+        <v>0.6358087487283826</v>
       </c>
       <c r="D329" t="n">
-        <v>793307141854.918</v>
+        <v>727950152594.0997</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>1144920000000</v>
+        <v>1163770000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.6358087487283826</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D330" t="n">
-        <v>727950152594.0997</v>
+        <v>743765578066.083</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>1163770000000</v>
+        <v>1142150000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D331" t="n">
-        <v>743765578066.083</v>
+        <v>790305840022.1422</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>1142150000000</v>
+        <v>1161370000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.691945751453086</v>
+        <v>0.7257420712678715</v>
       </c>
       <c r="D332" t="n">
-        <v>790305840022.1422</v>
+        <v>842855069308.3679</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>1161370000000</v>
+        <v>1167730000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.7257420712678715</v>
+        <v>0.8014747134727899</v>
       </c>
       <c r="D333" t="n">
-        <v>842855069308.3679</v>
+        <v>935906067163.5809</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>1167730000000</v>
+        <v>1179010000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.8014747134727899</v>
+        <v>0.8062565508344756</v>
       </c>
       <c r="D334" t="n">
-        <v>935906067163.5809</v>
+        <v>950584535999.355</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>1179010000000</v>
+        <v>1180970000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8062565508344756</v>
+        <v>0.8364700961940611</v>
       </c>
       <c r="D335" t="n">
-        <v>950584535999.355</v>
+        <v>987846089502.3003</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>1180970000000</v>
+        <v>1185310000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8364700961940611</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D336" t="n">
-        <v>987846089502.3003</v>
+        <v>1000430452397.029</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>1185310000000</v>
+        <v>1184770000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8841732979664014</v>
       </c>
       <c r="D337" t="n">
-        <v>1000430452397.029</v>
+        <v>1047541998231.653</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>1184770000000</v>
+        <v>1183580000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.8841732979664014</v>
+        <v>0.901631953836444</v>
       </c>
       <c r="D338" t="n">
-        <v>1047541998231.653</v>
+        <v>1067153547921.738</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>1183580000000</v>
+        <v>1182230000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.901631953836444</v>
+        <v>0.9161704076958315</v>
       </c>
       <c r="D339" t="n">
-        <v>1067153547921.738</v>
+        <v>1083124141090.243</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>1182230000000</v>
+        <v>1178440000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9161704076958315</v>
+        <v>0.8979078746520608</v>
       </c>
       <c r="D340" t="n">
-        <v>1083124141090.243</v>
+        <v>1058130555804.974</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>1178440000000</v>
+        <v>1182990000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.8979078746520608</v>
+        <v>0.8842514811212309</v>
       </c>
       <c r="D341" t="n">
-        <v>1058130555804.974</v>
+        <v>1046060659651.605</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>1182990000000</v>
+        <v>1195990000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.8842514811212309</v>
+        <v>0.8957362952346829</v>
       </c>
       <c r="D342" t="n">
-        <v>1046060659651.605</v>
+        <v>1071291651737.728</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>1195990000000</v>
+        <v>1209570000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.8957362952346829</v>
+        <v>0.9175153683824203</v>
       </c>
       <c r="D343" t="n">
-        <v>1071291651737.728</v>
+        <v>1109799064134.324</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>1209570000000</v>
+        <v>1216770000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9175153683824203</v>
+        <v>0.9247272054743851</v>
       </c>
       <c r="D344" t="n">
-        <v>1109799064134.324</v>
+        <v>1125180321805.068</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>1216770000000</v>
+        <v>1221560000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9247272054743851</v>
+        <v>0.8475294516484448</v>
       </c>
       <c r="D345" t="n">
-        <v>1125180321805.068</v>
+        <v>1035308076955.674</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>1221560000000</v>
+        <v>1231580000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.8475294516484448</v>
+        <v>0.8404773911581779</v>
       </c>
       <c r="D346" t="n">
-        <v>1035308076955.674</v>
+        <v>1035115145402.589</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>1231580000000</v>
+        <v>1242560000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8404773911581779</v>
+        <v>0.904649900488511</v>
       </c>
       <c r="D347" t="n">
-        <v>1035115145402.589</v>
+        <v>1124081780351.004</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>1242560000000</v>
+        <v>1253020000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.904649900488511</v>
+        <v>0.8930166101089481</v>
       </c>
       <c r="D348" t="n">
-        <v>1124081780351.004</v>
+        <v>1118967672798.714</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>1253020000000</v>
+        <v>1260810000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.8930166101089481</v>
+        <v>0.9662769349695624</v>
       </c>
       <c r="D349" t="n">
-        <v>1118967672798.714</v>
+        <v>1218291622378.974</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>1260810000000</v>
+        <v>1273880000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9662769349695624</v>
+        <v>0.98405825624877</v>
       </c>
       <c r="D350" t="n">
-        <v>1218291622378.974</v>
+        <v>1253572131470.183</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>1273880000000</v>
+        <v>1294340000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.98405825624877</v>
+        <v>0.959140610013428</v>
       </c>
       <c r="D351" t="n">
-        <v>1253572131470.183</v>
+        <v>1241454057164.78</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>1294340000000</v>
+        <v>1302300000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.959140610013428</v>
+        <v>1.02364622786365</v>
       </c>
       <c r="D352" t="n">
-        <v>1241454057164.78</v>
+        <v>1333094482546.832</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>1302300000000</v>
+        <v>1311480000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.02364622786365</v>
+        <v>0.9979044007584074</v>
       </c>
       <c r="D353" t="n">
-        <v>1333094482546.832</v>
+        <v>1308731663506.636</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>1311480000000</v>
+        <v>1325230000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9979044007584074</v>
+        <v>1.018952516812716</v>
       </c>
       <c r="D354" t="n">
-        <v>1308731663506.636</v>
+        <v>1350346443855.716</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>1325230000000</v>
+        <v>1333630000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.018952516812716</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D355" t="n">
-        <v>1350346443855.716</v>
+        <v>1378571428571.428</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>1333630000000</v>
+        <v>1342680000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.033698573495968</v>
+        <v>1.097574360662935</v>
       </c>
       <c r="D356" t="n">
-        <v>1378571428571.428</v>
+        <v>1473691142574.909</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>1342680000000</v>
+        <v>1347820000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.097574360662935</v>
+        <v>1.066325442525059</v>
       </c>
       <c r="D357" t="n">
-        <v>1473691142574.909</v>
+        <v>1437214757944.125</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>1347820000000</v>
+        <v>1343520000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.066325442525059</v>
+        <v>1.071466838101361</v>
       </c>
       <c r="D358" t="n">
-        <v>1437214757944.125</v>
+        <v>1439537126325.94</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>1343520000000</v>
+        <v>1352690000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.071466838101361</v>
+        <v>1.1001100110011</v>
       </c>
       <c r="D359" t="n">
-        <v>1439537126325.94</v>
+        <v>1488107810781.078</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>1352690000000</v>
+        <v>1373330000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.1001100110011</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="D360" t="n">
-        <v>1488107810781.078</v>
+        <v>1468802139037.433</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>1373330000000</v>
+        <v>1383780000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.06951871657754</v>
+        <v>0.9666505558240697</v>
       </c>
       <c r="D361" t="n">
-        <v>1468802139037.433</v>
+        <v>1337631706138.231</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>1383780000000</v>
+        <v>1390450000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9666505558240697</v>
+        <v>1.05496360375567</v>
       </c>
       <c r="D362" t="n">
-        <v>1337631706138.231</v>
+        <v>1466874142842.072</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>1390450000000</v>
+        <v>1396040000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.05496360375567</v>
+        <v>1.02880658436214</v>
       </c>
       <c r="D363" t="n">
-        <v>1466874142842.072</v>
+        <v>1436255144032.922</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>1396040000000</v>
+        <v>1406570000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.02880658436214</v>
+        <v>1.021554806415364</v>
       </c>
       <c r="D364" t="n">
-        <v>1436255144032.922</v>
+        <v>1436888344059.659</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>1406570000000</v>
+        <v>1416700000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.021554806415364</v>
+        <v>1.062699256110521</v>
       </c>
       <c r="D365" t="n">
-        <v>1436888344059.659</v>
+        <v>1505526036131.775</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>1416700000000</v>
+        <v>1424080000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.062699256110521</v>
+        <v>1.073767851390529</v>
       </c>
       <c r="D366" t="n">
-        <v>1505526036131.775</v>
+        <v>1529131321808.225</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>1424080000000</v>
+        <v>1433570000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.073767851390529</v>
+        <v>1.034447088031447</v>
       </c>
       <c r="D367" t="n">
-        <v>1529131321808.225</v>
+        <v>1482952311989.242</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>1433570000000</v>
+        <v>1439230000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.034447088031447</v>
+        <v>1.043405676126878</v>
       </c>
       <c r="D368" t="n">
-        <v>1482952311989.242</v>
+        <v>1501700751252.087</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>1439230000000</v>
+        <v>1457460000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.043405676126878</v>
+        <v>0.97323600973236</v>
       </c>
       <c r="D369" t="n">
-        <v>1501700751252.087</v>
+        <v>1418452554744.525</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>1457460000000</v>
+        <v>1465340000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.97323600973236</v>
+        <v>1.024275325207416</v>
       </c>
       <c r="D370" t="n">
-        <v>1418452554744.525</v>
+        <v>1500911605039.435</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>1465340000000</v>
+        <v>1472270000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.024275325207416</v>
+        <v>1.049758555532228</v>
       </c>
       <c r="D371" t="n">
-        <v>1500911605039.435</v>
+        <v>1545528028553.433</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>1472270000000</v>
+        <v>1482870000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.049758555532228</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D372" t="n">
-        <v>1545528028553.433</v>
+        <v>1532840603679.967</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>1482870000000</v>
+        <v>1488540000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.033698573495968</v>
+        <v>1.03777501037775</v>
       </c>
       <c r="D373" t="n">
-        <v>1532840603679.967</v>
+        <v>1544769613947.696</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>1488540000000</v>
+        <v>1495460000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.03777501037775</v>
+        <v>1.038205980066445</v>
       </c>
       <c r="D374" t="n">
-        <v>1544769613947.696</v>
+        <v>1552595514950.166</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>1495460000000</v>
+        <v>1500120000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.038205980066445</v>
+        <v>1.043187982474442</v>
       </c>
       <c r="D375" t="n">
-        <v>1552595514950.166</v>
+        <v>1564907156269.56</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>1500120000000</v>
+        <v>1508390000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.043187982474442</v>
+        <v>1.039933444259567</v>
       </c>
       <c r="D376" t="n">
-        <v>1564907156269.56</v>
+        <v>1568625207986.689</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>1508390000000</v>
+        <v>1519100000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.039933444259567</v>
+        <v>1.043079169708981</v>
       </c>
       <c r="D377" t="n">
-        <v>1568625207986.689</v>
+        <v>1584541566704.913</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>1519100000000</v>
+        <v>1521770000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.043079169708981</v>
+        <v>1.022076860179886</v>
       </c>
       <c r="D378" t="n">
-        <v>1584541566704.913</v>
+        <v>1555365903515.944</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>1521770000000</v>
+        <v>1533120000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.022076860179886</v>
+        <v>1.042535446205171</v>
       </c>
       <c r="D379" t="n">
-        <v>1555365903515.944</v>
+        <v>1598331943286.072</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>1533120000000</v>
+        <v>1544670000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.042535446205171</v>
+        <v>1.037129226301597</v>
       </c>
       <c r="D380" t="n">
-        <v>1598331943286.072</v>
+        <v>1602022401991.288</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>1544670000000</v>
+        <v>1560880000000</v>
       </c>
       <c r="C381" t="n">
-        <v>1.037129226301597</v>
+        <v>0.9552010698251983</v>
       </c>
       <c r="D381" t="n">
-        <v>1602022401991.288</v>
+        <v>1490954245868.755</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>1560880000000</v>
+        <v>1561340000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9552010698251983</v>
+        <v>0.9149967975112088</v>
       </c>
       <c r="D382" t="n">
-        <v>1490954245868.755</v>
+        <v>1428621099826.151</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>1561340000000</v>
+        <v>1565700000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9149967975112088</v>
+        <v>0.8943743851176101</v>
       </c>
       <c r="D383" t="n">
-        <v>1428621099826.151</v>
+        <v>1400321974778.642</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>1565700000000</v>
+        <v>1567000000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.8943743851176101</v>
+        <v>0.8903926631644555</v>
       </c>
       <c r="D384" t="n">
-        <v>1400321974778.642</v>
+        <v>1395245303178.702</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>1567000000000</v>
+        <v>1578330000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8903926631644555</v>
+        <v>0.9329228472805299</v>
       </c>
       <c r="D385" t="n">
-        <v>1395245303178.702</v>
+        <v>1472460117548.279</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>1578330000000</v>
+        <v>1589840000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9329228472805299</v>
+        <v>0.9463423866754992</v>
       </c>
       <c r="D386" t="n">
-        <v>1472460117548.279</v>
+        <v>1504532980032.176</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>1589840000000</v>
+        <v>1599870000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9463423866754992</v>
+        <v>0.9112447603426281</v>
       </c>
       <c r="D387" t="n">
-        <v>1504532980032.176</v>
+        <v>1457873154729.361</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>1599870000000</v>
+        <v>1613690000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9112447603426281</v>
+        <v>0.8918219923303309</v>
       </c>
       <c r="D388" t="n">
-        <v>1457873154729.361</v>
+        <v>1439124230803.532</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>1613690000000</v>
+        <v>1622300000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8918219923303309</v>
+        <v>0.8759635599159076</v>
       </c>
       <c r="D389" t="n">
-        <v>1439124230803.532</v>
+        <v>1421075683251.577</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>1622300000000</v>
+        <v>1631980000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8759635599159076</v>
+        <v>0.8934953538241601</v>
       </c>
       <c r="D390" t="n">
-        <v>1421075683251.577</v>
+        <v>1458166547533.953</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>1631980000000</v>
+        <v>1636970000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8934953538241601</v>
+        <v>0.9266981744045965</v>
       </c>
       <c r="D391" t="n">
-        <v>1458166547533.953</v>
+        <v>1516977110555.092</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>1636970000000</v>
+        <v>1649000000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9266981744045965</v>
+        <v>0.9288500835965076</v>
       </c>
       <c r="D392" t="n">
-        <v>1516977110555.092</v>
+        <v>1531673787850.641</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>1649000000000</v>
+        <v>1661150000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9288500835965076</v>
+        <v>0.931445603576751</v>
       </c>
       <c r="D393" t="n">
-        <v>1531673787850.641</v>
+        <v>1547270864381.52</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>1661150000000</v>
+        <v>1669190000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.931445603576751</v>
+        <v>0.9433072351664937</v>
       </c>
       <c r="D394" t="n">
-        <v>1547270864381.52</v>
+        <v>1574559003867.56</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>1669190000000</v>
+        <v>1680440000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9433072351664937</v>
+        <v>0.9296272194849864</v>
       </c>
       <c r="D395" t="n">
-        <v>1574559003867.56</v>
+        <v>1562182764711.351</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>1680440000000</v>
+        <v>1693780000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9296272194849864</v>
+        <v>0.9344921035417251</v>
       </c>
       <c r="D396" t="n">
-        <v>1562182764711.351</v>
+        <v>1582824035136.903</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>1693780000000</v>
+        <v>1705970000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9344921035417251</v>
+        <v>0.8748906386701663</v>
       </c>
       <c r="D397" t="n">
-        <v>1582824035136.903</v>
+        <v>1492537182852.144</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>1705970000000</v>
+        <v>1712420000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8748906386701663</v>
+        <v>0.880126738250308</v>
       </c>
       <c r="D398" t="n">
-        <v>1492537182852.144</v>
+        <v>1507146629114.592</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>1712420000000</v>
+        <v>1716790000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.880126738250308</v>
+        <v>0.8511362669163333</v>
       </c>
       <c r="D399" t="n">
-        <v>1507146629114.592</v>
+        <v>1461222231679.292</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>1716790000000</v>
+        <v>1731120000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.8511362669163333</v>
+        <v>0.8176614881439084</v>
       </c>
       <c r="D400" t="n">
-        <v>1461222231679.292</v>
+        <v>1415470155355.683</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>1731120000000</v>
+        <v>1735430000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.8176614881439084</v>
+        <v>0.7771215418091389</v>
       </c>
       <c r="D401" t="n">
-        <v>1415470155355.683</v>
+        <v>1348640037301.834</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>1735430000000</v>
+        <v>1755980000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7771215418091389</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D402" t="n">
-        <v>1348640037301.834</v>
+        <v>1372180979917.168</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>1755980000000</v>
+        <v>1759290000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D403" t="n">
-        <v>1372180979917.168</v>
+        <v>1339288976857.491</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>1759290000000</v>
+        <v>1769930000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.7902015013828526</v>
       </c>
       <c r="D404" t="n">
-        <v>1339288976857.491</v>
+        <v>1398601343342.552</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>1769930000000</v>
+        <v>1772740000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7902015013828526</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D405" t="n">
-        <v>1398601343342.552</v>
+        <v>1355513075393.791</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>1772740000000</v>
+        <v>1781460000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7705347511172753</v>
       </c>
       <c r="D406" t="n">
-        <v>1355513075393.791</v>
+        <v>1372676837725.381</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>1781460000000</v>
+        <v>1795870000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7705347511172753</v>
+        <v>0.7316894709885124</v>
       </c>
       <c r="D407" t="n">
-        <v>1372676837725.381</v>
+        <v>1314019170264.14</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>1795870000000</v>
+        <v>1799200000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7316894709885124</v>
+        <v>0.7115411982353779</v>
       </c>
       <c r="D408" t="n">
-        <v>1314019170264.14</v>
+        <v>1280204923865.092</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>1799200000000</v>
+        <v>1812350000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7115411982353779</v>
+        <v>0.702000702000702</v>
       </c>
       <c r="D409" t="n">
-        <v>1280204923865.092</v>
+        <v>1272270972270.972</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>1812350000000</v>
+        <v>1818380000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.702000702000702</v>
+        <v>0.7140307033202428</v>
       </c>
       <c r="D410" t="n">
-        <v>1272270972270.972</v>
+        <v>1298379150303.463</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>1818380000000</v>
+        <v>1831460000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7140307033202428</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D411" t="n">
-        <v>1298379150303.463</v>
+        <v>1323978891057.616</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>1831460000000</v>
+        <v>1836330000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7291286912139993</v>
       </c>
       <c r="D412" t="n">
-        <v>1323978891057.616</v>
+        <v>1338920889537.003</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>1836330000000</v>
+        <v>1846170000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7291286912139993</v>
+        <v>0.7085665698292355</v>
       </c>
       <c r="D413" t="n">
-        <v>1338920889537.003</v>
+        <v>1308134344221.64</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>1846170000000</v>
+        <v>1852880000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7085665698292355</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D414" t="n">
-        <v>1308134344221.64</v>
+        <v>1323391186343.833</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>1852880000000</v>
+        <v>1864210000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.7666360012266176</v>
       </c>
       <c r="D415" t="n">
-        <v>1323391186343.833</v>
+        <v>1429170499846.673</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>1864210000000</v>
+        <v>1868720000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7666360012266176</v>
+        <v>0.7617306520414382</v>
       </c>
       <c r="D416" t="n">
-        <v>1429170499846.673</v>
+        <v>1423461304082.876</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>1868720000000</v>
+        <v>1876260000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7617306520414382</v>
+        <v>0.7233273056057866</v>
       </c>
       <c r="D417" t="n">
-        <v>1423461304082.876</v>
+        <v>1357150090415.913</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>1876260000000</v>
+        <v>1883960000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7233273056057866</v>
+        <v>0.7444353457902182</v>
       </c>
       <c r="D418" t="n">
-        <v>1357150090415.913</v>
+        <v>1402486414054.939</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>1883960000000</v>
+        <v>1901750000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.7444353457902182</v>
+        <v>0.761208799573723</v>
       </c>
       <c r="D419" t="n">
-        <v>1402486414054.939</v>
+        <v>1447628834589.328</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>1901750000000</v>
+        <v>1909580000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.761208799573723</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D420" t="n">
-        <v>1447628834589.328</v>
+        <v>1435342754058.93</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>1909580000000</v>
+        <v>1914220000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.751653638003608</v>
+        <v>0.7660487206986365</v>
       </c>
       <c r="D421" t="n">
-        <v>1435342754058.93</v>
+        <v>1466385782135.744</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>1914220000000</v>
+        <v>1927220000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7660487206986365</v>
+        <v>0.7608034083992696</v>
       </c>
       <c r="D422" t="n">
-        <v>1466385782135.744</v>
+        <v>1466235544735.24</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>1927220000000</v>
+        <v>1943720000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7608034083992696</v>
+        <v>0.7384978952809984</v>
       </c>
       <c r="D423" t="n">
-        <v>1466235544735.24</v>
+        <v>1435433129015.582</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>1943720000000</v>
+        <v>1962910000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7384978952809984</v>
+        <v>0.7213445863088797</v>
       </c>
       <c r="D424" t="n">
-        <v>1435433129015.582</v>
+        <v>1415934501911.563</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>1962910000000</v>
+        <v>1975580000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7213445863088797</v>
+        <v>0.7586102260658474</v>
       </c>
       <c r="D425" t="n">
-        <v>1415934501911.563</v>
+        <v>1498695190411.167</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>1975580000000</v>
+        <v>1985340000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7586102260658474</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D426" t="n">
-        <v>1498695190411.167</v>
+        <v>1520284861015.392</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>1985340000000</v>
+        <v>1988640000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7640586797066015</v>
       </c>
       <c r="D427" t="n">
-        <v>1520284861015.392</v>
+        <v>1519437652811.736</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>1988640000000</v>
+        <v>2007380000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7640586797066015</v>
+        <v>0.7499062617172854</v>
       </c>
       <c r="D428" t="n">
-        <v>1519437652811.736</v>
+        <v>1505346831646.044</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>2007380000000</v>
+        <v>2014980000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7499062617172854</v>
+        <v>0.7432181345224824</v>
       </c>
       <c r="D429" t="n">
-        <v>1505346831646.044</v>
+        <v>1497569676700.112</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>2014980000000</v>
+        <v>2029770000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7432181345224824</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D430" t="n">
-        <v>1497569676700.112</v>
+        <v>1563044817495.765</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>2029770000000</v>
+        <v>2033570000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.8002560819462228</v>
       </c>
       <c r="D431" t="n">
-        <v>1563044817495.765</v>
+        <v>1627376760563.38</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>2033570000000</v>
+        <v>2038080000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8002560819462228</v>
+        <v>0.7947862025115244</v>
       </c>
       <c r="D432" t="n">
-        <v>1627376760563.38</v>
+        <v>1619837863614.688</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>2038080000000</v>
+        <v>2045090000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7947862025115244</v>
+        <v>0.7840677434530343</v>
       </c>
       <c r="D433" t="n">
-        <v>1619837863614.688</v>
+        <v>1603489101458.366</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>2045090000000</v>
+        <v>2053920000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7840677434530343</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D434" t="n">
-        <v>1603489101458.366</v>
+        <v>1572800367562.6</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>2053920000000</v>
+        <v>2058440000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D435" t="n">
-        <v>1572800367562.6</v>
+        <v>1557418476204.887</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>2058440000000</v>
+        <v>2054690000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D436" t="n">
-        <v>1557418476204.887</v>
+        <v>1604349184039.978</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>2054690000000</v>
+        <v>2062000000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.8058017727639</v>
       </c>
       <c r="D437" t="n">
-        <v>1604349184039.978</v>
+        <v>1661563255439.162</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>2062000000000</v>
+        <v>2062550000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.8058017727639</v>
+        <v>0.7762769756249029</v>
       </c>
       <c r="D438" t="n">
-        <v>1661563255439.162</v>
+        <v>1601110076075.144</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>2062550000000</v>
+        <v>2061800000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7762769756249029</v>
+        <v>0.7682851874615857</v>
       </c>
       <c r="D439" t="n">
-        <v>1601110076075.144</v>
+        <v>1584050399508.297</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>2061800000000</v>
+        <v>2057150000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7682851874615857</v>
+        <v>0.7532389273877674</v>
       </c>
       <c r="D440" t="n">
-        <v>1584050399508.297</v>
+        <v>1549525459475.746</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>2057150000000</v>
+        <v>2062740000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7532389273877674</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D441" t="n">
-        <v>1549525459475.746</v>
+        <v>1561026184349.932</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>2062740000000</v>
+        <v>2065920000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7406310176270182</v>
       </c>
       <c r="D442" t="n">
-        <v>1561026184349.932</v>
+        <v>1530084431936.01</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>2065920000000</v>
+        <v>2073320000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7406310176270182</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D443" t="n">
-        <v>1530084431936.01</v>
+        <v>1540013369976.974</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>2073320000000</v>
+        <v>2087740000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7193209610128039</v>
       </c>
       <c r="D444" t="n">
-        <v>1540013369976.974</v>
+        <v>1501755143144.871</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>2087740000000</v>
+        <v>2087960000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7193209610128039</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D445" t="n">
-        <v>1501755143144.871</v>
+        <v>1508096785843.265</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>2087960000000</v>
+        <v>2095390000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7078142695356738</v>
       </c>
       <c r="D446" t="n">
-        <v>1508096785843.265</v>
+        <v>1483146942242.356</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>2095390000000</v>
+        <v>2097020000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7078142695356738</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D447" t="n">
-        <v>1483146942242.356</v>
+        <v>1534030724213.606</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>2097020000000</v>
+        <v>2107230000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7052186177715092</v>
       </c>
       <c r="D448" t="n">
-        <v>1534030724213.606</v>
+        <v>1486057827926.657</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>2107230000000</v>
+        <v>2118150000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7052186177715092</v>
+        <v>0.7275902211874272</v>
       </c>
       <c r="D449" t="n">
-        <v>1486057827926.657</v>
+        <v>1541145227008.149</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>2118150000000</v>
+        <v>2130360000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7275902211874272</v>
+        <v>0.7094714437743881</v>
       </c>
       <c r="D450" t="n">
-        <v>1541145227008.149</v>
+        <v>1511429584959.205</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>2130360000000</v>
+        <v>2144250000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7094714437743881</v>
+        <v>0.7098743522396536</v>
       </c>
       <c r="D451" t="n">
-        <v>1511429584959.205</v>
+        <v>1522148079789.877</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>2144250000000</v>
+        <v>2147360000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7098743522396536</v>
+        <v>0.7049203440011278</v>
       </c>
       <c r="D452" t="n">
-        <v>1522148079789.877</v>
+        <v>1513717749894.262</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>2147360000000</v>
+        <v>2145170000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7049203440011278</v>
+        <v>0.6937699458859442</v>
       </c>
       <c r="D453" t="n">
-        <v>1513717749894.262</v>
+        <v>1488254474816.151</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>2145170000000</v>
+        <v>2146470000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.6937699458859442</v>
+        <v>0.7023458350891979</v>
       </c>
       <c r="D454" t="n">
-        <v>1488254474816.151</v>
+        <v>1507564264643.911</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>2146470000000</v>
+        <v>2124300000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.7023458350891979</v>
+        <v>0.6845564074479736</v>
       </c>
       <c r="D455" t="n">
-        <v>1507564264643.911</v>
+        <v>1454203176341.73</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>2124300000000</v>
+        <v>2126860000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6845564074479736</v>
+        <v>0.6738998584810297</v>
       </c>
       <c r="D456" t="n">
-        <v>1454203176341.73</v>
+        <v>1433290653008.963</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>2126860000000</v>
+        <v>2132480000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6738998584810297</v>
+        <v>0.6751282743721306</v>
       </c>
       <c r="D457" t="n">
-        <v>1433290653008.963</v>
+        <v>1439697542533.081</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>2132480000000</v>
+        <v>2143460000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6751282743721306</v>
+        <v>0.6892748828232699</v>
       </c>
       <c r="D458" t="n">
-        <v>1439697542533.081</v>
+        <v>1477433140336.366</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>2143460000000</v>
+        <v>2152460000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6892748828232699</v>
+        <v>0.6764526821348847</v>
       </c>
       <c r="D459" t="n">
-        <v>1477433140336.366</v>
+        <v>1456037340188.054</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>2152460000000</v>
+        <v>2158240000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6764526821348847</v>
+        <v>0.7019514249613926</v>
       </c>
       <c r="D460" t="n">
-        <v>1456037340188.054</v>
+        <v>1514979643408.676</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>2158240000000</v>
+        <v>2169160000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7019514249613926</v>
+        <v>0.6690305746972637</v>
       </c>
       <c r="D461" t="n">
-        <v>1514979643408.676</v>
+        <v>1451234361410.316</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>2169160000000</v>
+        <v>2179370000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6690305746972637</v>
+        <v>0.6512112529304506</v>
       </c>
       <c r="D462" t="n">
-        <v>1451234361410.316</v>
+        <v>1419230268299.036</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>2179370000000</v>
+        <v>2240450000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.6512112529304506</v>
+        <v>0.6160290765724142</v>
       </c>
       <c r="D463" t="n">
-        <v>1419230268299.036</v>
+        <v>1380182344606.666</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>2240450000000</v>
+        <v>2308210000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6160290765724142</v>
+        <v>0.6506011554676522</v>
       </c>
       <c r="D464" t="n">
-        <v>1380182344606.666</v>
+        <v>1501724093061.99</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>2308210000000</v>
+        <v>2313050000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6506011554676522</v>
+        <v>0.6669779230307477</v>
       </c>
       <c r="D465" t="n">
-        <v>1501724093061.99</v>
+        <v>1542753284866.271</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>2313050000000</v>
+        <v>2328290000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.6669779230307477</v>
+        <v>0.6903836461921891</v>
       </c>
       <c r="D466" t="n">
-        <v>1542753284866.271</v>
+        <v>1607413339592.812</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>2328290000000</v>
+        <v>2357680000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.6903836461921891</v>
+        <v>0.7144388083160678</v>
       </c>
       <c r="D467" t="n">
-        <v>1607413339592.812</v>
+        <v>1684418089590.627</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>2357680000000</v>
+        <v>2377970000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7144388083160678</v>
+        <v>0.7377024993360677</v>
       </c>
       <c r="D468" t="n">
-        <v>1684418089590.627</v>
+        <v>1754234412346.189</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>2377970000000</v>
+        <v>2390620000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7377024993360677</v>
+        <v>0.7162092476938062</v>
       </c>
       <c r="D469" t="n">
-        <v>1754234412346.189</v>
+        <v>1712184151721.767</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>2390620000000</v>
+        <v>2403890000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7162092476938062</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="D470" t="n">
-        <v>1712184151721.767</v>
+        <v>1689905096660.808</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>2403890000000</v>
+        <v>2420220000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7029876977152899</v>
+        <v>0.7344840249724569</v>
       </c>
       <c r="D471" t="n">
-        <v>1689905096660.808</v>
+        <v>1777612926918.84</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>2420220000000</v>
+        <v>2431700000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7344840249724569</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D472" t="n">
-        <v>1777612926918.84</v>
+        <v>1871258176221.624</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>2431700000000</v>
+        <v>2447500000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D473" t="n">
-        <v>1871258176221.624</v>
+        <v>1871463526533.109</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>2447500000000</v>
+        <v>2457230000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7710694733595498</v>
       </c>
       <c r="D474" t="n">
-        <v>1871463526533.109</v>
+        <v>1894695042023.287</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>2457230000000</v>
+        <v>2461270000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7710694733595498</v>
+        <v>0.7597052343690648</v>
       </c>
       <c r="D475" t="n">
-        <v>1894695042023.287</v>
+        <v>1869839702195.548</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>2461270000000</v>
+        <v>2470370000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7597052343690648</v>
+        <v>0.7714263673532361</v>
       </c>
       <c r="D476" t="n">
-        <v>1869839702195.548</v>
+        <v>1905708555118.414</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>2470370000000</v>
+        <v>2474230000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7714263673532361</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D477" t="n">
-        <v>1905708555118.414</v>
+        <v>1914445991952.956</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>2474230000000</v>
+        <v>2508270000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7502438292445045</v>
       </c>
       <c r="D478" t="n">
-        <v>1914445991952.956</v>
+        <v>1881814089579.113</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>2508270000000</v>
+        <v>2541620000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7502438292445045</v>
+        <v>0.7346998751010212</v>
       </c>
       <c r="D479" t="n">
-        <v>1881814089579.113</v>
+        <v>1867327896554.258</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>2541620000000</v>
+        <v>2546150000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7346998751010212</v>
+        <v>0.7317483663717721</v>
       </c>
       <c r="D480" t="n">
-        <v>1867327896554.258</v>
+        <v>1863141103037.488</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>2546150000000</v>
+        <v>2580300000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7317483663717721</v>
+        <v>0.7232592956900978</v>
       </c>
       <c r="D481" t="n">
-        <v>1863141103037.488</v>
+        <v>1866225960669.159</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>2580300000000</v>
+        <v>2596780000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7232592956900978</v>
+        <v>0.7523888345496953</v>
       </c>
       <c r="D482" t="n">
-        <v>1866225960669.159</v>
+        <v>1953788277781.958</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>2596780000000</v>
+        <v>2617810000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7523888345496953</v>
+        <v>0.7129565595568262</v>
       </c>
       <c r="D483" t="n">
-        <v>1953788277781.958</v>
+        <v>1866384811173.455</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>2617810000000</v>
+        <v>2658280000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7129565595568262</v>
+        <v>0.726907951646083</v>
       </c>
       <c r="D484" t="n">
-        <v>1866384811173.455</v>
+        <v>1932324869701.75</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>2658280000000</v>
+        <v>2660780000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.726907951646083</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D485" t="n">
-        <v>1932324869701.75</v>
+        <v>1881207579185.52</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>2660780000000</v>
+        <v>2668500000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.7264115993404182</v>
       </c>
       <c r="D486" t="n">
-        <v>1881207579185.52</v>
+        <v>1938429352839.906</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>2668500000000</v>
+        <v>2690630000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7264115993404182</v>
+        <v>0.7486542939067027</v>
       </c>
       <c r="D487" t="n">
-        <v>1938429352839.906</v>
+        <v>2014351702814.191</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>2690630000000</v>
+        <v>2707430000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7486542939067027</v>
+        <v>0.7064142413111049</v>
       </c>
       <c r="D488" t="n">
-        <v>2014351702814.191</v>
+        <v>1912567109352.925</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>2707430000000</v>
+        <v>2729080000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7064142413111049</v>
+        <v>0.7179111656723597</v>
       </c>
       <c r="D489" t="n">
-        <v>1912567109352.925</v>
+        <v>1959237004013.123</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>2729080000000</v>
+        <v>2754890000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7179111656723597</v>
+        <v>0.6904170118751727</v>
       </c>
       <c r="D490" t="n">
-        <v>1959237004013.123</v>
+        <v>1902022921844.794</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>2754890000000</v>
+        <v>2771400000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6904170118751727</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D491" t="n">
-        <v>1902022921844.794</v>
+        <v>1938177494929.716</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>2771400000000</v>
+        <v>2773386000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.6845189201029517</v>
       </c>
       <c r="D492" t="n">
-        <v>1938177494929.716</v>
+        <v>1898435189748.645</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>2773386000000</v>
+        <v>2768622000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.6845189201029517</v>
+        <v>0.6402048655569782</v>
       </c>
       <c r="D493" t="n">
-        <v>1898435189748.645</v>
+        <v>1772485275288.092</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>2768622000000</v>
+        <v>2790928000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6402048655569782</v>
+        <v>0.6400860275621043</v>
       </c>
       <c r="D494" t="n">
-        <v>1772485275288.092</v>
+        <v>1786434016731.849</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>2790928000000</v>
+        <v>2810152000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6400860275621043</v>
+        <v>0.6789788158609451</v>
       </c>
       <c r="D495" t="n">
-        <v>1786434016731.849</v>
+        <v>1908033677349.267</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>2810152000000</v>
+        <v>2829079000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.6789788158609451</v>
+        <v>0.6818491749624983</v>
       </c>
       <c r="D496" t="n">
-        <v>1908033677349.267</v>
+        <v>1929005182053.73</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>2829079000000</v>
+        <v>2852199000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.6818491749624983</v>
+        <v>0.7056167090036692</v>
       </c>
       <c r="D497" t="n">
-        <v>1929005182053.73</v>
+        <v>2012559271803.556</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>2852199000000</v>
+        <v>2851195000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7056167090036692</v>
+        <v>0.6730833950326446</v>
       </c>
       <c r="D498" t="n">
-        <v>2012559271803.556</v>
+        <v>1919092010500.101</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>2851195000000</v>
+        <v>2870550000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6730833950326446</v>
+        <v>0.6686726847208291</v>
       </c>
       <c r="D499" t="n">
-        <v>1919092010500.101</v>
+        <v>1919458375125.376</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B500" t="n">
-        <v>2870550000000</v>
+        <v>2876660000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.6686726847208291</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D500" t="n">
-        <v>1919458375125.376</v>
+        <v>1903686056515.121</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>2877200000000</v>
+        <v>2886600000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="D501" t="n">
-        <v>1904043412083.912</v>
+        <v>1877463414634.146</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -458,6994 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B2" t="n">
-        <v>70600000000</v>
+        <v>71159000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B3" t="n">
-        <v>71160000000</v>
+        <v>71681000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B4" t="n">
-        <v>71680000000</v>
+        <v>72407000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.127649990162945</v>
+        <v>1.090037061260083</v>
       </c>
       <c r="D4" t="n">
-        <v>80829951294.87991</v>
+        <v>78926313494.65883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B5" t="n">
-        <v>72400000000</v>
+        <v>72996000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.090037061260083</v>
+        <v>1.073076487325325</v>
       </c>
       <c r="D5" t="n">
-        <v>78918683235.23001</v>
+        <v>78330291268.79942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B6" t="n">
-        <v>73000000000</v>
+        <v>73612000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.073076487325325</v>
+        <v>1.049538225221205</v>
       </c>
       <c r="D6" t="n">
-        <v>78334583574.74872</v>
+        <v>77258607834.98337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B7" t="n">
-        <v>73610000000</v>
+        <v>74469000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1.049538225221205</v>
+        <v>1.062360599034121</v>
       </c>
       <c r="D7" t="n">
-        <v>77256508758.53293</v>
+        <v>79112931449.47195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B8" t="n">
-        <v>74470000000</v>
+        <v>75818000000</v>
       </c>
       <c r="C8" t="n">
-        <v>1.062360599034121</v>
+        <v>1.050640901981938</v>
       </c>
       <c r="D8" t="n">
-        <v>79113993810.07098</v>
+        <v>79657491906.46661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B9" t="n">
-        <v>75820000000</v>
+        <v>75986000000</v>
       </c>
       <c r="C9" t="n">
-        <v>1.050640901981938</v>
+        <v>1.023227269244114</v>
       </c>
       <c r="D9" t="n">
-        <v>79659593188.27057</v>
+        <v>77750947280.78325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B10" t="n">
-        <v>75980000000</v>
+        <v>76398000000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.023227269244114</v>
+        <v>0.9930486889686798</v>
       </c>
       <c r="D10" t="n">
-        <v>77744807917.16779</v>
+        <v>75866933739.82919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B11" t="n">
-        <v>76400000000</v>
+        <v>76839000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9930486889686798</v>
+        <v>0.9654373617578175</v>
       </c>
       <c r="D11" t="n">
-        <v>75868919837.20714</v>
+        <v>74183241440.10893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B12" t="n">
-        <v>76840000000</v>
+        <v>77716000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9654373617578175</v>
+        <v>0.9494872678552291</v>
       </c>
       <c r="D12" t="n">
-        <v>74184206877.47069</v>
+        <v>73790352508.63698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B13" t="n">
-        <v>77720000000</v>
+        <v>77971000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9494872678552291</v>
+        <v>0.9358038029681562</v>
       </c>
       <c r="D13" t="n">
-        <v>73794150457.7084</v>
+        <v>72965558321.23012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B14" t="n">
-        <v>77980000000</v>
+        <v>78867000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9358038029681562</v>
+        <v>0.9554748892695373</v>
       </c>
       <c r="D14" t="n">
-        <v>72973980555.45682</v>
+        <v>75355438092.0206</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B15" t="n">
-        <v>78870000000</v>
+        <v>79896000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9554748892695373</v>
+        <v>0.9800077920419547</v>
       </c>
       <c r="D15" t="n">
-        <v>75358304516.6884</v>
+        <v>78298702552.98401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B16" t="n">
-        <v>79890000000</v>
+        <v>80459000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9800077920419547</v>
+        <v>0.9691800454783859</v>
       </c>
       <c r="D16" t="n">
-        <v>78292822506.23175</v>
+        <v>77979257279.14545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B17" t="n">
-        <v>80460000000</v>
+        <v>81369000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9691800454783859</v>
+        <v>0.9542895678705817</v>
       </c>
       <c r="D17" t="n">
-        <v>77980226459.19093</v>
+        <v>77649587848.06137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B18" t="n">
-        <v>81370000000</v>
+        <v>83111000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9542895678705817</v>
+        <v>0.8649770556618704</v>
       </c>
       <c r="D18" t="n">
-        <v>77650542137.62924</v>
+        <v>71889108073.11371</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B19" t="n">
-        <v>83110000000</v>
+        <v>83602000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8649770556618704</v>
+        <v>0.8673779316051338</v>
       </c>
       <c r="D19" t="n">
-        <v>71888243096.05806</v>
+        <v>72514529838.0524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B20" t="n">
-        <v>83600000000</v>
+        <v>84753000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8673779316051338</v>
+        <v>0.8816787318229365</v>
       </c>
       <c r="D20" t="n">
-        <v>72512795082.18918</v>
+        <v>74724917558.18935</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B21" t="n">
-        <v>84750000000</v>
+        <v>85713000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8816787318229365</v>
+        <v>0.8754267628869232</v>
       </c>
       <c r="D21" t="n">
-        <v>74722272521.99387</v>
+        <v>75035454127.32684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B22" t="n">
-        <v>85700000000</v>
+        <v>86532000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8754267628869232</v>
+        <v>0.880514228057711</v>
       </c>
       <c r="D22" t="n">
-        <v>75024073579.40932</v>
+        <v>76192657182.28984</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B23" t="n">
-        <v>86530000000</v>
+        <v>87396000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.880514228057711</v>
+        <v>0.8775778696344384</v>
       </c>
       <c r="D23" t="n">
-        <v>76190896153.83372</v>
+        <v>76696795494.57138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B24" t="n">
-        <v>87400000000</v>
+        <v>88347000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8775778696344384</v>
+        <v>0.8973438380112031</v>
       </c>
       <c r="D24" t="n">
-        <v>76700305806.04991</v>
+        <v>79277636056.77576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B25" t="n">
-        <v>88350000000</v>
+        <v>89071000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8973438380112031</v>
+        <v>0.9143274703151014</v>
       </c>
       <c r="D25" t="n">
-        <v>79280328088.28979</v>
+        <v>81440062108.4364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B26" t="n">
-        <v>89090000000</v>
+        <v>90096000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9143274703151014</v>
+        <v>0.9153318329152906</v>
       </c>
       <c r="D26" t="n">
-        <v>81457434330.37239</v>
+        <v>82467736818.33603</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B27" t="n">
-        <v>90100000000</v>
+        <v>91342000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9153318329152906</v>
+        <v>0.8987148458588554</v>
       </c>
       <c r="D27" t="n">
-        <v>82471398145.66768</v>
+        <v>82090411450.43958</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B28" t="n">
-        <v>91340000000</v>
+        <v>92416000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8987148458588554</v>
+        <v>0.9180207135584059</v>
       </c>
       <c r="D28" t="n">
-        <v>82088614020.74785</v>
+        <v>84839802264.21364</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B29" t="n">
-        <v>92420000000</v>
+        <v>93676000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9180207135584059</v>
+        <v>0.943841452455714</v>
       </c>
       <c r="D29" t="n">
-        <v>84843474347.06787</v>
+        <v>88415291900.24147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B30" t="n">
-        <v>93680000000</v>
+        <v>94512000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.943841452455714</v>
+        <v>0.9363296230835064</v>
       </c>
       <c r="D30" t="n">
-        <v>88419067266.05128</v>
+        <v>88494385336.86836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B31" t="n">
-        <v>94490000000</v>
+        <v>94904000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9363296230835064</v>
+        <v>0.9191175963721915</v>
       </c>
       <c r="D31" t="n">
-        <v>88473786085.16052</v>
+        <v>87227936366.10646</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B32" t="n">
-        <v>94900000000</v>
+        <v>95596000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9191175963721915</v>
+        <v>0.8991997041704909</v>
       </c>
       <c r="D32" t="n">
-        <v>87224259895.72098</v>
+        <v>85959894919.88225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B33" t="n">
-        <v>95600000000</v>
+        <v>96374000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8991997041704909</v>
+        <v>0.8608074299663646</v>
       </c>
       <c r="D33" t="n">
-        <v>85963491718.69893</v>
+        <v>82959455255.57843</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B34" t="n">
-        <v>96370000000</v>
+        <v>97560000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8608074299663646</v>
+        <v>0.8352823672877899</v>
       </c>
       <c r="D34" t="n">
-        <v>82956012025.85855</v>
+        <v>81490147752.59679</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B35" t="n">
-        <v>97560000000</v>
+        <v>98987000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8352823672877899</v>
+        <v>0.8490405408877293</v>
       </c>
       <c r="D35" t="n">
-        <v>81490147752.59679</v>
+        <v>84043976020.85365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B36" t="n">
-        <v>98990000000</v>
+        <v>100017000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8490405408877293</v>
+        <v>0.832639480976511</v>
       </c>
       <c r="D36" t="n">
-        <v>84046523142.47632</v>
+        <v>83278102968.8277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B37" t="n">
-        <v>100020000000</v>
+        <v>101110000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.832639480976511</v>
+        <v>0.8403360920838945</v>
       </c>
       <c r="D37" t="n">
-        <v>83280600887.27063</v>
+        <v>84966382270.60257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B38" t="n">
-        <v>101120000000</v>
+        <v>102721000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8403360920838945</v>
+        <v>0.8579272919317412</v>
       </c>
       <c r="D38" t="n">
-        <v>84974785631.52341</v>
+        <v>88127149354.52039</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B39" t="n">
-        <v>102730000000</v>
+        <v>104098000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8579272919317412</v>
+        <v>0.8254229952363601</v>
       </c>
       <c r="D39" t="n">
-        <v>88134870700.14778</v>
+        <v>85924882958.11461</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B40" t="n">
-        <v>104100000000</v>
+        <v>105967000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8254229952363601</v>
+        <v>0.8137358878260522</v>
       </c>
       <c r="D40" t="n">
-        <v>85926533804.10509</v>
+        <v>86229150825.26328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B41" t="n">
-        <v>105970000000</v>
+        <v>107266000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8137358878260522</v>
+        <v>0.7095217873529288</v>
       </c>
       <c r="D41" t="n">
-        <v>86231592032.92676</v>
+        <v>76107564042.19926</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B42" t="n">
-        <v>107270000000</v>
+        <v>108745000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7095217873529288</v>
+        <v>0.700525389138176</v>
       </c>
       <c r="D42" t="n">
-        <v>76110402129.34868</v>
+        <v>76178633441.83095</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B43" t="n">
-        <v>108710000000</v>
+        <v>109921000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.700525389138176</v>
+        <v>0.64649598336571</v>
       </c>
       <c r="D43" t="n">
-        <v>76154115053.21111</v>
+        <v>71063484987.54221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B44" t="n">
-        <v>109920000000</v>
+        <v>111426000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.64649598336571</v>
+        <v>0.6633059386875146</v>
       </c>
       <c r="D44" t="n">
-        <v>71062838491.55884</v>
+        <v>73909527524.19501</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B45" t="n">
-        <v>111430000000</v>
+        <v>111527000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6633059386875146</v>
+        <v>0.6680026809352395</v>
       </c>
       <c r="D45" t="n">
-        <v>73912180747.94975</v>
+        <v>74500334996.66446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B46" t="n">
-        <v>111520000000</v>
+        <v>114424000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6680026809352395</v>
+        <v>0.7240081298583299</v>
       </c>
       <c r="D46" t="n">
-        <v>74495658977.8979</v>
+        <v>82843906250.90953</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B47" t="n">
-        <v>114430000000</v>
+        <v>115716000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7240081298583299</v>
+        <v>0.7039774528975021</v>
       </c>
       <c r="D47" t="n">
-        <v>82848250299.68869</v>
+        <v>81461454939.48735</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B48" t="n">
-        <v>115720000000</v>
+        <v>117171000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7039774528975021</v>
+        <v>0.7058159132437054</v>
       </c>
       <c r="D48" t="n">
-        <v>81464270849.29895</v>
+        <v>82701156370.67821</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B49" t="n">
-        <v>117180000000</v>
+        <v>117884000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7058159132437054</v>
+        <v>0.6999860247790153</v>
       </c>
       <c r="D49" t="n">
-        <v>82707508713.8974</v>
+        <v>82517152545.04944</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B50" t="n">
-        <v>117900000000</v>
+        <v>118880000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6999860247790153</v>
+        <v>0.6860122063112286</v>
       </c>
       <c r="D50" t="n">
-        <v>82528352321.44591</v>
+        <v>81553131086.27885</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B51" t="n">
-        <v>118900000000</v>
+        <v>119260000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6860122063112286</v>
+        <v>0.6823144058248198</v>
       </c>
       <c r="D51" t="n">
-        <v>81566851330.40508</v>
+        <v>81372816038.66801</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B52" t="n">
-        <v>119260000000</v>
+        <v>119603000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6823144058248198</v>
+        <v>0.7139797433665498</v>
       </c>
       <c r="D52" t="n">
-        <v>81372816038.66801</v>
+        <v>85394119245.86946</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B53" t="n">
-        <v>119610000000</v>
+        <v>119806000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7139797433665498</v>
+        <v>0.6995942500264639</v>
       </c>
       <c r="D53" t="n">
-        <v>85399117104.07301</v>
+        <v>83815588718.67053</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B54" t="n">
-        <v>119810000000</v>
+        <v>121533000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6995942500264639</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D54" t="n">
-        <v>83818387095.67064</v>
+        <v>86469580701.90038</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B55" t="n">
-        <v>121660000000</v>
+        <v>123887000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.7407956090021808</v>
       </c>
       <c r="D55" t="n">
-        <v>86559940001.42511</v>
+        <v>91774945612.45317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B56" t="n">
-        <v>123710000000</v>
+        <v>124860000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7407956090021808</v>
+        <v>0.7157171537053905</v>
       </c>
       <c r="D56" t="n">
-        <v>91643824789.65979</v>
+        <v>89364443811.65506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B57" t="n">
-        <v>124870000000</v>
+        <v>125466000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7157171537053905</v>
+        <v>0.6734006688659887</v>
       </c>
       <c r="D57" t="n">
-        <v>89371600983.19211</v>
+        <v>84488888319.94014</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B58" t="n">
-        <v>125460000000</v>
+        <v>126349000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6734006688659887</v>
+        <v>0.5965163623394286</v>
       </c>
       <c r="D58" t="n">
-        <v>84484847915.92694</v>
+        <v>75369245865.22447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B59" t="n">
-        <v>126350000000</v>
+        <v>127225000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5965163623394286</v>
+        <v>0.6090875682455973</v>
       </c>
       <c r="D59" t="n">
-        <v>75369842381.58681</v>
+        <v>77491165870.04611</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B60" t="n">
-        <v>127230000000</v>
+        <v>127635000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6090875682455973</v>
+        <v>0.6279829385827349</v>
       </c>
       <c r="D60" t="n">
-        <v>77494211307.88734</v>
+        <v>80152602366.00737</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B61" t="n">
-        <v>127640000000</v>
+        <v>128658000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6279829385827349</v>
+        <v>0.6413956646514849</v>
       </c>
       <c r="D61" t="n">
-        <v>80155742280.70029</v>
+        <v>82520683422.73074</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B62" t="n">
-        <v>128660000000</v>
+        <v>128693000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6413956646514849</v>
+        <v>0.6504064956044684</v>
       </c>
       <c r="D62" t="n">
-        <v>82521966214.06004</v>
+        <v>83702763138.82585</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B63" t="n">
-        <v>128720000000</v>
+        <v>130172000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6504064956044684</v>
+        <v>0.6649820322187385</v>
       </c>
       <c r="D63" t="n">
-        <v>83720324114.20717</v>
+        <v>86562041097.97763</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B64" t="n">
-        <v>130180000000</v>
+        <v>131854000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6649820322187385</v>
+        <v>0.6615068996194966</v>
       </c>
       <c r="D64" t="n">
-        <v>86567360954.23538</v>
+        <v>87222330742.42911</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B65" t="n">
-        <v>131860000000</v>
+        <v>133002000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6615068996194966</v>
+        <v>0.6769105572019712</v>
       </c>
       <c r="D65" t="n">
-        <v>87226299783.82683</v>
+        <v>90030457928.97658</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B66" t="n">
-        <v>133000000000</v>
+        <v>133229000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6769105572019712</v>
+        <v>0.7059155774806973</v>
       </c>
       <c r="D66" t="n">
-        <v>90029104107.86218</v>
+        <v>94048426472.17583</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B67" t="n">
-        <v>133140000000</v>
+        <v>133828000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7059155774806973</v>
+        <v>0.7025925517615565</v>
       </c>
       <c r="D67" t="n">
-        <v>93985599985.78004</v>
+        <v>94026556017.14558</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B68" t="n">
-        <v>133870000000</v>
+        <v>136015000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7025925517615565</v>
+        <v>0.7124029401752721</v>
       </c>
       <c r="D68" t="n">
-        <v>94056064904.31958</v>
+        <v>96897485907.93964</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B69" t="n">
-        <v>136030000000</v>
+        <v>137500000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7124029401752721</v>
+        <v>0.7207206947488037</v>
       </c>
       <c r="D69" t="n">
-        <v>96908171952.04225</v>
+        <v>99099095527.96051</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B70" t="n">
-        <v>137480000000</v>
+        <v>139415000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7207206947488037</v>
+        <v>0.6989097204056394</v>
       </c>
       <c r="D70" t="n">
-        <v>99084681114.06554</v>
+        <v>97438498670.35222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B71" t="n">
-        <v>139420000000</v>
+        <v>140680000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6989097204056394</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D71" t="n">
-        <v>97441993218.95424</v>
+        <v>100092490213.7143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B72" t="n">
-        <v>140680000000</v>
+        <v>142162000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.7099751710323087</v>
       </c>
       <c r="D72" t="n">
-        <v>100092490213.7143</v>
+        <v>100931490264.2951</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B73" t="n">
-        <v>142170000000</v>
+        <v>143897000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7099751710323087</v>
+        <v>0.6687174223858975</v>
       </c>
       <c r="D73" t="n">
-        <v>100937170065.6633</v>
+        <v>96226430929.06349</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B74" t="n">
-        <v>143900000000</v>
+        <v>145973000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6687174223858975</v>
+        <v>0.7057162721644487</v>
       </c>
       <c r="D74" t="n">
-        <v>96228437081.33064</v>
+        <v>103015521396.6611</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B75" t="n">
-        <v>146010000000</v>
+        <v>146592000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7057162721644487</v>
+        <v>0.7224389643467557</v>
       </c>
       <c r="D75" t="n">
-        <v>103041632898.7312</v>
+        <v>105903772661.5196</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B76" t="n">
-        <v>146600000000</v>
+        <v>147252000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7224389643467557</v>
+        <v>0.7090187030129318</v>
       </c>
       <c r="D76" t="n">
-        <v>105909552173.2344</v>
+        <v>104404422056.0602</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B77" t="n">
-        <v>147260000000</v>
+        <v>148183000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7090187030129318</v>
+        <v>0.7188039361272259</v>
       </c>
       <c r="D77" t="n">
-        <v>104410094205.6843</v>
+        <v>106514523667.1407</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B78" t="n">
-        <v>148180000000</v>
+        <v>150179000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7188039361272259</v>
+        <v>0.7416747124775601</v>
       </c>
       <c r="D78" t="n">
-        <v>106512367255.3323</v>
+        <v>111383966645.1675</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B79" t="n">
-        <v>150050000000</v>
+        <v>151321000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7416747124775601</v>
+        <v>0.7579776809833542</v>
       </c>
       <c r="D79" t="n">
-        <v>111288290607.2579</v>
+        <v>114697940664.0821</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B80" t="n">
-        <v>151400000000</v>
+        <v>152842000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7579776809833542</v>
+        <v>0.8017317212763958</v>
       </c>
       <c r="D80" t="n">
-        <v>114757820900.8798</v>
+        <v>122538279743.3269</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B81" t="n">
-        <v>152860000000</v>
+        <v>155233000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8017317212763958</v>
+        <v>0.7907013145867962</v>
       </c>
       <c r="D81" t="n">
-        <v>122552710914.3099</v>
+        <v>122742937167.2521</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B82" t="n">
-        <v>155210000000</v>
+        <v>156245000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7907013145867962</v>
+        <v>0.8037293104302308</v>
       </c>
       <c r="D82" t="n">
-        <v>122724751037.0166</v>
+        <v>125578686108.1714</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B83" t="n">
-        <v>156250000000</v>
+        <v>157947000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8037293104302308</v>
+        <v>0.803470955963155</v>
       </c>
       <c r="D83" t="n">
-        <v>125582704754.7236</v>
+        <v>126905827081.5124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B84" t="n">
-        <v>157950000000</v>
+        <v>160379000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.803470955963155</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D84" t="n">
-        <v>126908237494.3803</v>
+        <v>125975176718.6368</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B85" t="n">
-        <v>160370000000</v>
+        <v>163969000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.8196721109916694</v>
       </c>
       <c r="D85" t="n">
-        <v>125968107360.4884</v>
+        <v>134400816367.193</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B86" t="n">
-        <v>163980000000</v>
+        <v>167104000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8196721109916694</v>
+        <v>0.8749671963860984</v>
       </c>
       <c r="D86" t="n">
-        <v>134409832760.4139</v>
+        <v>146210518384.9026</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B87" t="n">
-        <v>167140000000</v>
+        <v>171100000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8749671963860984</v>
+        <v>0.8539709649871904</v>
       </c>
       <c r="D87" t="n">
-        <v>146242017203.9725</v>
+        <v>146114432109.3083</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B88" t="n">
-        <v>171100000000</v>
+        <v>175146000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8539709649871904</v>
+        <v>0.8895214453791269</v>
       </c>
       <c r="D88" t="n">
-        <v>146114432109.3083</v>
+        <v>155796123072.3726</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B89" t="n">
-        <v>175150000000</v>
+        <v>178785000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8895214453791269</v>
+        <v>0.8005123342980495</v>
       </c>
       <c r="D89" t="n">
-        <v>155799681158.1541</v>
+        <v>143119597687.4768</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B90" t="n">
-        <v>178790000000</v>
+        <v>182050000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8005123342980495</v>
+        <v>0.8185315878911184</v>
       </c>
       <c r="D90" t="n">
-        <v>143123600249.1483</v>
+        <v>149013675575.5781</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B91" t="n">
-        <v>182170000000</v>
+        <v>185463000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8185315878911184</v>
+        <v>0.7940288963472376</v>
       </c>
       <c r="D91" t="n">
-        <v>149111899366.125</v>
+        <v>147262981203.2477</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B92" t="n">
-        <v>185280000000</v>
+        <v>187851000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7940288963472376</v>
+        <v>0.750018756094043</v>
       </c>
       <c r="D92" t="n">
-        <v>147117673915.2162</v>
+        <v>140891773351.0221</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B93" t="n">
-        <v>187880000000</v>
+        <v>192873000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.750018756094043</v>
+        <v>0.755972157364011</v>
       </c>
       <c r="D93" t="n">
-        <v>140913523894.9488</v>
+        <v>145806617907.2689</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B94" t="n">
-        <v>192850000000</v>
+        <v>196146000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.755972157364011</v>
+        <v>0.7555152328681159</v>
       </c>
       <c r="D94" t="n">
-        <v>145789230547.6495</v>
+        <v>148191290866.1495</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B95" t="n">
-        <v>196160000000</v>
+        <v>199868000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7555152328681159</v>
+        <v>0.7645260114187923</v>
       </c>
       <c r="D95" t="n">
-        <v>148201868079.4096</v>
+        <v>152804284850.2512</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B96" t="n">
-        <v>199870000000</v>
+        <v>200107000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7645260114187923</v>
+        <v>0.7754943776657619</v>
       </c>
       <c r="D96" t="n">
-        <v>152805813902.274</v>
+        <v>155181853431.5626</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B97" t="n">
-        <v>200090000000</v>
+        <v>201936000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7754943776657619</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D97" t="n">
-        <v>155168670027.1423</v>
+        <v>158120746021.1591</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B98" t="n">
-        <v>201950000000</v>
+        <v>203441000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7824726134585289</v>
       </c>
       <c r="D98" t="n">
-        <v>158131708357.9604</v>
+        <v>159187010954.6166</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B99" t="n">
-        <v>203480000000</v>
+        <v>205222000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.7900142202559646</v>
       </c>
       <c r="D99" t="n">
-        <v>159217527386.5415</v>
+        <v>162128298309.3696</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B100" t="n">
-        <v>205230000000</v>
+        <v>207127000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7900142202559646</v>
+        <v>0.768698605099525</v>
       </c>
       <c r="D100" t="n">
-        <v>162134618423.1316</v>
+        <v>159218235978.4493</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B101" t="n">
-        <v>207140000000</v>
+        <v>209565000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.768698605099525</v>
+        <v>0.7606876674325853</v>
       </c>
       <c r="D101" t="n">
-        <v>159228229060.3156</v>
+        <v>159413511025.5097</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B102" t="n">
-        <v>209580000000</v>
+        <v>211691000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7606876674325853</v>
+        <v>0.753693101851772</v>
       </c>
       <c r="D102" t="n">
-        <v>159424921340.5212</v>
+        <v>159550046424.1035</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B103" t="n">
-        <v>211460000000</v>
+        <v>214181000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.753693101851772</v>
+        <v>0.7505253902889639</v>
       </c>
       <c r="D103" t="n">
-        <v>159375943317.5757</v>
+        <v>160748278617.4806</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B104" t="n">
-        <v>214340000000</v>
+        <v>215027000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7505253902889639</v>
+        <v>0.7695267469759658</v>
       </c>
       <c r="D104" t="n">
-        <v>160867612154.5365</v>
+        <v>165469027822.001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B105" t="n">
-        <v>215060000000</v>
+        <v>216615000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7695267469759658</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D105" t="n">
-        <v>165494422204.6512</v>
+        <v>171562655297.1113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B106" t="n">
-        <v>216610000000</v>
+        <v>216930000000</v>
       </c>
       <c r="C106" t="n">
         <v>0.7920165053071639</v>
       </c>
       <c r="D106" t="n">
-        <v>171558695214.5848</v>
+        <v>171812140496.2831</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B107" t="n">
-        <v>216950000000</v>
+        <v>219096000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7920165053071639</v>
+        <v>0.8145312372729494</v>
       </c>
       <c r="D107" t="n">
-        <v>171827980826.3892</v>
+        <v>178460535961.5541</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B108" t="n">
-        <v>219100000000</v>
+        <v>221612000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8145312372729494</v>
+        <v>0.8259684207163319</v>
       </c>
       <c r="D108" t="n">
-        <v>178463794086.5032</v>
+        <v>183044513651.7878</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B109" t="n">
-        <v>221570000000</v>
+        <v>222945000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8259684207163319</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D109" t="n">
-        <v>183009822978.1177</v>
+        <v>175119783597.2071</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B110" t="n">
-        <v>222960000000</v>
+        <v>225259000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.7738740312770631</v>
       </c>
       <c r="D110" t="n">
-        <v>175131565860.7876</v>
+        <v>174322090411.44</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B111" t="n">
-        <v>225290000000</v>
+        <v>227094000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7738740312770631</v>
+        <v>0.771009993407479</v>
       </c>
       <c r="D111" t="n">
-        <v>174346080506.4095</v>
+        <v>175091743442.878</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B112" t="n">
-        <v>227100000000</v>
+        <v>224942000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.771009993407479</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D112" t="n">
-        <v>175096369502.8385</v>
+        <v>176134997481.8338</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B113" t="n">
-        <v>224960000000</v>
+        <v>224739000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7849909541174906</v>
       </c>
       <c r="D113" t="n">
-        <v>176149091914.8639</v>
+        <v>176418082037.4107</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B114" t="n">
-        <v>224750000000</v>
+        <v>225580000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7849909541174906</v>
+        <v>0.7750135567308878</v>
       </c>
       <c r="D114" t="n">
-        <v>176426716937.906</v>
+        <v>174827558127.3537</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B115" t="n">
-        <v>225720000000</v>
+        <v>225992000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7750135567308878</v>
+        <v>0.7819831030498662</v>
       </c>
       <c r="D115" t="n">
-        <v>174936060025.296</v>
+        <v>176721925424.4453</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B116" t="n">
-        <v>225760000000</v>
+        <v>227444000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7819831030498662</v>
+        <v>0.7599939489281786</v>
       </c>
       <c r="D116" t="n">
-        <v>176540505344.5378</v>
+        <v>172856063720.0207</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B117" t="n">
-        <v>227470000000</v>
+        <v>228308000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7599939489281786</v>
+        <v>0.7675186358897425</v>
       </c>
       <c r="D117" t="n">
-        <v>172875823562.6928</v>
+        <v>175230644722.7153</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B118" t="n">
-        <v>228320000000</v>
+        <v>228924000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7675186358897425</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D118" t="n">
-        <v>175239854946.346</v>
+        <v>177970924356.6819</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B119" t="n">
-        <v>228940000000</v>
+        <v>229742000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D119" t="n">
-        <v>177983363134.572</v>
+        <v>180458719967.6582</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B120" t="n">
-        <v>229750000000</v>
+        <v>231055000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.7994883210786031</v>
       </c>
       <c r="D120" t="n">
-        <v>180465003841.5678</v>
+        <v>184725774026.8167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B121" t="n">
-        <v>231010000000</v>
+        <v>230570000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7994883210786031</v>
+        <v>0.7800312012480499</v>
       </c>
       <c r="D121" t="n">
-        <v>184689797052.3681</v>
+        <v>179851794071.7629</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B122" t="n">
-        <v>230590000000</v>
+        <v>230186000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7800312012480499</v>
+        <v>0.7845598619174643</v>
       </c>
       <c r="D122" t="n">
-        <v>179867394695.7878</v>
+        <v>180594696375.3334</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B123" t="n">
-        <v>230200000000</v>
+        <v>231685000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7845598619174643</v>
+        <v>0.7595321282090233</v>
       </c>
       <c r="D123" t="n">
-        <v>180605680213.4003</v>
+        <v>175972201124.1075</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B124" t="n">
-        <v>231700000000</v>
+        <v>231871000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7595321282090233</v>
+        <v>0.753012048192771</v>
       </c>
       <c r="D124" t="n">
-        <v>175983594106.0307</v>
+        <v>174601656626.506</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B125" t="n">
-        <v>231890000000</v>
+        <v>232831000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.753012048192771</v>
+        <v>0.7535227187099691</v>
       </c>
       <c r="D125" t="n">
-        <v>174615963855.4217</v>
+        <v>175443448119.9608</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B126" t="n">
-        <v>232850000000</v>
+        <v>231708000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7535227187099691</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D126" t="n">
-        <v>175457765051.6163</v>
+        <v>178305502116.1985</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B127" t="n">
-        <v>231500000000</v>
+        <v>233455000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.75642965204236</v>
       </c>
       <c r="D127" t="n">
-        <v>178145440554.0592</v>
+        <v>176592284417.5492</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B128" t="n">
-        <v>233570000000</v>
+        <v>234636000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.75642965204236</v>
+        <v>0.7570022710068131</v>
       </c>
       <c r="D128" t="n">
-        <v>176679273827.534</v>
+        <v>177619984859.9546</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B129" t="n">
-        <v>234660000000</v>
+        <v>234934000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7570022710068131</v>
+        <v>0.7483349547257352</v>
       </c>
       <c r="D129" t="n">
-        <v>177638152914.4587</v>
+        <v>175809324253.5359</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B130" t="n">
-        <v>234970000000</v>
+        <v>236713000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7483349547257352</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D130" t="n">
-        <v>175836264311.906</v>
+        <v>176007881626.8867</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B131" t="n">
-        <v>236720000000</v>
+        <v>238887000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D131" t="n">
-        <v>176013086474.8308</v>
+        <v>170621384186.8438</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B132" t="n">
-        <v>238900000000</v>
+        <v>238735000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.7130124777183601</v>
       </c>
       <c r="D132" t="n">
-        <v>170630669237.9116</v>
+        <v>170221033868.0927</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B133" t="n">
-        <v>238680000000</v>
+        <v>238779000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7130124777183601</v>
+        <v>0.6965243435258063</v>
       </c>
       <c r="D133" t="n">
-        <v>170181818181.8182</v>
+        <v>166315386222.7485</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B134" t="n">
-        <v>238790000000</v>
+        <v>239956000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6965243435258063</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D134" t="n">
-        <v>166323047990.5273</v>
+        <v>162980370848.3326</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B135" t="n">
-        <v>239970000000</v>
+        <v>241001000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6890374147316199</v>
       </c>
       <c r="D135" t="n">
-        <v>162989879779.9362</v>
+        <v>166058705987.7351</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B136" t="n">
-        <v>241020000000</v>
+        <v>242941000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6890374147316199</v>
+        <v>0.679671039217019</v>
       </c>
       <c r="D136" t="n">
-        <v>166071797698.6151</v>
+        <v>165119961938.4218</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B137" t="n">
-        <v>242950000000</v>
+        <v>244542000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.679671039217019</v>
+        <v>0.6957973838018369</v>
       </c>
       <c r="D137" t="n">
-        <v>165126078977.7747</v>
+        <v>170151683829.6688</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B138" t="n">
-        <v>244550000000</v>
+        <v>245778000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6957973838018369</v>
+        <v>0.7055669230226487</v>
       </c>
       <c r="D138" t="n">
-        <v>170157250208.7392</v>
+        <v>173412827206.6606</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B139" t="n">
-        <v>245610000000</v>
+        <v>245850000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7055669230226487</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D139" t="n">
-        <v>173294291963.5927</v>
+        <v>173819287330.3167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B140" t="n">
-        <v>245920000000</v>
+        <v>246522000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.6761782405842179</v>
       </c>
       <c r="D140" t="n">
-        <v>173868778280.543</v>
+        <v>166692812225.3026</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B141" t="n">
-        <v>246560000000</v>
+        <v>249827000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6761782405842179</v>
+        <v>0.6657789613848203</v>
       </c>
       <c r="D141" t="n">
-        <v>166718506998.4448</v>
+        <v>166329560585.8855</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B142" t="n">
-        <v>249860000000</v>
+        <v>250827000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6657789613848203</v>
+        <v>0.6898454746136865</v>
       </c>
       <c r="D142" t="n">
-        <v>166351531291.6112</v>
+        <v>173031870860.9272</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B143" t="n">
-        <v>250840000000</v>
+        <v>250151000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6898454746136865</v>
+        <v>0.6734006734006733</v>
       </c>
       <c r="D143" t="n">
-        <v>173040838852.0971</v>
+        <v>168451851851.8518</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B144" t="n">
-        <v>250160000000</v>
+        <v>252121000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6734006734006733</v>
+        <v>0.6471654154801968</v>
       </c>
       <c r="D144" t="n">
-        <v>168457912457.9124</v>
+        <v>163163991716.2827</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B145" t="n">
-        <v>252080000000</v>
+        <v>253450000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6471654154801968</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="D145" t="n">
-        <v>163137457934.248</v>
+        <v>168921620901.093</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B146" t="n">
-        <v>253450000000</v>
+        <v>254478000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6664889362836577</v>
+        <v>0.6586747464102226</v>
       </c>
       <c r="D146" t="n">
-        <v>168921620901.093</v>
+        <v>167618232116.9806</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B147" t="n">
-        <v>254480000000</v>
+        <v>255662000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6586747464102226</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D147" t="n">
-        <v>167619549466.4734</v>
+        <v>173612657884.0147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B148" t="n">
-        <v>255700000000</v>
+        <v>258513000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.7084159818645509</v>
       </c>
       <c r="D148" t="n">
-        <v>173638462583.1862</v>
+        <v>183134740719.7506</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B149" t="n">
-        <v>258520000000</v>
+        <v>259889000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7084159818645509</v>
+        <v>0.7132667617689016</v>
       </c>
       <c r="D149" t="n">
-        <v>183139699631.6237</v>
+        <v>185370185449.3581</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B150" t="n">
-        <v>259890000000</v>
+        <v>263081000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7132667617689016</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D150" t="n">
-        <v>185370898716.1198</v>
+        <v>185242219405.7175</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B151" t="n">
-        <v>262940000000</v>
+        <v>264823000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7150007150007149</v>
       </c>
       <c r="D151" t="n">
-        <v>185142937614.4205</v>
+        <v>189348634348.6343</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B152" t="n">
-        <v>264880000000</v>
+        <v>266825000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7150007150007149</v>
+        <v>0.7370826269624825</v>
       </c>
       <c r="D152" t="n">
-        <v>189389389389.3894</v>
+        <v>196672071939.2644</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B153" t="n">
-        <v>266860000000</v>
+        <v>267811000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7370826269624825</v>
+        <v>0.728650539201399</v>
       </c>
       <c r="D153" t="n">
-        <v>196697869831.2081</v>
+        <v>195140629554.0659</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B154" t="n">
-        <v>267840000000</v>
+        <v>269074000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.728650539201399</v>
+        <v>0.7392622163081245</v>
       </c>
       <c r="D154" t="n">
-        <v>195161760419.7027</v>
+        <v>198916241590.8923</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B155" t="n">
-        <v>269080000000</v>
+        <v>271370000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7392622163081245</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D155" t="n">
-        <v>198920677164.1902</v>
+        <v>201567258411.9438</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B156" t="n">
-        <v>271380000000</v>
+        <v>271152000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7397544015386892</v>
       </c>
       <c r="D156" t="n">
-        <v>201574686176.9294</v>
+        <v>200585885486.0186</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B157" t="n">
-        <v>271120000000</v>
+        <v>274934000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7397544015386892</v>
+        <v>0.7425007425007425</v>
       </c>
       <c r="D157" t="n">
-        <v>200562213345.1694</v>
+        <v>204138699138.6991</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B158" t="n">
-        <v>274930000000</v>
+        <v>277991000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7425007425007425</v>
+        <v>0.7691124442393478</v>
       </c>
       <c r="D158" t="n">
-        <v>204135729135.7291</v>
+        <v>213806337486.5405</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B159" t="n">
-        <v>277990000000</v>
+        <v>280618000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7691124442393478</v>
+        <v>0.7753741180119407</v>
       </c>
       <c r="D159" t="n">
-        <v>213805568374.0963</v>
+        <v>217583934248.2748</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B160" t="n">
-        <v>280660000000</v>
+        <v>280403000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7753741180119407</v>
+        <v>0.7564868749527195</v>
       </c>
       <c r="D160" t="n">
-        <v>217616499961.2313</v>
+        <v>212121189197.3674</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B161" t="n">
-        <v>280400000000</v>
+        <v>281798000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7564868749527195</v>
+        <v>0.7388798581350673</v>
       </c>
       <c r="D161" t="n">
-        <v>212118919736.7426</v>
+        <v>208214866262.7457</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B162" t="n">
-        <v>281790000000</v>
+        <v>285117000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7388798581350673</v>
+        <v>0.7351319561861354</v>
       </c>
       <c r="D162" t="n">
-        <v>208208955223.8806</v>
+        <v>209598617951.9224</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B163" t="n">
-        <v>285000000000</v>
+        <v>286401000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7351319561861354</v>
+        <v>0.727749072119933</v>
       </c>
       <c r="D163" t="n">
-        <v>209512607513.0486</v>
+        <v>208428062004.2209</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B164" t="n">
-        <v>286460000000</v>
+        <v>288031000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.727749072119933</v>
+        <v>0.7183908045977012</v>
       </c>
       <c r="D164" t="n">
-        <v>208470999199.476</v>
+        <v>206918821839.0805</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B165" t="n">
-        <v>288080000000</v>
+        <v>288176000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7183908045977012</v>
+        <v>0.709622480840193</v>
       </c>
       <c r="D165" t="n">
-        <v>206954022988.5058</v>
+        <v>204496168038.6035</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B166" t="n">
-        <v>288190000000</v>
+        <v>290343000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.709622480840193</v>
+        <v>0.7383343177790903</v>
       </c>
       <c r="D166" t="n">
-        <v>204506102753.3352</v>
+        <v>214370200826.9344</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B167" t="n">
-        <v>290340000000</v>
+        <v>292935000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7383343177790903</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D167" t="n">
-        <v>214367985823.9811</v>
+        <v>220185658448.5869</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B168" t="n">
-        <v>292930000000</v>
+        <v>296311000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.751653638003608</v>
+        <v>0.7553440592189742</v>
       </c>
       <c r="D168" t="n">
-        <v>220181900180.3969</v>
+        <v>223816753531.2335</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B169" t="n">
-        <v>296290000000</v>
+        <v>299249000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7553440592189742</v>
+        <v>0.76103500761035</v>
       </c>
       <c r="D169" t="n">
-        <v>223800891305.9899</v>
+        <v>227738964992.3896</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B170" t="n">
-        <v>299240000000</v>
+        <v>301591000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.76103500761035</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D170" t="n">
-        <v>227732115677.3211</v>
+        <v>224247899472.0797</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B171" t="n">
-        <v>301580000000</v>
+        <v>305907000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D171" t="n">
-        <v>224239720425.3104</v>
+        <v>227119311010.4685</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B172" t="n">
-        <v>305960000000</v>
+        <v>307042000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="D172" t="n">
-        <v>227158660628.109</v>
+        <v>229135820895.5224</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B173" t="n">
-        <v>307030000000</v>
+        <v>309248000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7462686567164178</v>
+        <v>0.7640003056001222</v>
       </c>
       <c r="D173" t="n">
-        <v>229126865671.6418</v>
+        <v>236265566506.2266</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B174" t="n">
-        <v>309240000000</v>
+        <v>310928000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7640003056001222</v>
+        <v>0.7820442637053258</v>
       </c>
       <c r="D174" t="n">
-        <v>236259454503.7818</v>
+        <v>243159458825.3695</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B175" t="n">
-        <v>310810000000</v>
+        <v>312550000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7820442637053258</v>
+        <v>0.7871536523929471</v>
       </c>
       <c r="D175" t="n">
-        <v>243067177602.2523</v>
+        <v>246024874055.4156</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B176" t="n">
-        <v>312640000000</v>
+        <v>312639000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7871536523929471</v>
+        <v>0.7986582541330565</v>
       </c>
       <c r="D176" t="n">
-        <v>246095717884.131</v>
+        <v>249691717913.9046</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B177" t="n">
-        <v>312680000000</v>
+        <v>315972000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7986582541330565</v>
+        <v>0.7877116975187081</v>
       </c>
       <c r="D177" t="n">
-        <v>249724462902.3241</v>
+        <v>248894840488.3812</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B178" t="n">
-        <v>315970000000</v>
+        <v>319512000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7877116975187081</v>
+        <v>0.7730364873222015</v>
       </c>
       <c r="D178" t="n">
-        <v>248893265064.9862</v>
+        <v>246994434137.2913</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B179" t="n">
-        <v>319500000000</v>
+        <v>321169000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7730364873222015</v>
+        <v>0.7901390644753477</v>
       </c>
       <c r="D179" t="n">
-        <v>246985157699.4434</v>
+        <v>253768173198.4829</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B180" t="n">
-        <v>321170000000</v>
+        <v>320134000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7901390644753477</v>
+        <v>0.7912644405760405</v>
       </c>
       <c r="D180" t="n">
-        <v>253768963337.5474</v>
+        <v>253310650419.3701</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B181" t="n">
-        <v>320120000000</v>
+        <v>326787000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7912644405760405</v>
+        <v>0.7917656373713381</v>
       </c>
       <c r="D181" t="n">
-        <v>253299572717.2021</v>
+        <v>258738717339.6674</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B182" t="n">
-        <v>326780000000</v>
+        <v>330167000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7917656373713381</v>
+        <v>0.8167265599477296</v>
       </c>
       <c r="D182" t="n">
-        <v>258733174980.2059</v>
+        <v>269656158118.262</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B183" t="n">
-        <v>330160000000</v>
+        <v>332215000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.8167265599477296</v>
+        <v>0.794533608771651</v>
       </c>
       <c r="D183" t="n">
-        <v>269650441032.3424</v>
+        <v>263955982838.074</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B184" t="n">
-        <v>332270000000</v>
+        <v>334061000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.794533608771651</v>
+        <v>0.7627183281214248</v>
       </c>
       <c r="D184" t="n">
-        <v>263999682186.5565</v>
+        <v>254794447410.5713</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B185" t="n">
-        <v>334060000000</v>
+        <v>336884000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7627183281214248</v>
+        <v>0.7789375292101574</v>
       </c>
       <c r="D185" t="n">
-        <v>254793684692.2432</v>
+        <v>262411590590.4347</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B186" t="n">
-        <v>336880000000</v>
+        <v>337800000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7789375292101574</v>
+        <v>0.7855459544383347</v>
       </c>
       <c r="D186" t="n">
-        <v>262408474840.3178</v>
+        <v>265357423409.2695</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B187" t="n">
-        <v>338230000000</v>
+        <v>341418000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7855459544383347</v>
+        <v>0.7805182641273807</v>
       </c>
       <c r="D187" t="n">
-        <v>265695208169.6779</v>
+        <v>266482984701.8421</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B188" t="n">
-        <v>340960000000</v>
+        <v>343454000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7805182641273807</v>
+        <v>0.7600516835144789</v>
       </c>
       <c r="D188" t="n">
-        <v>266125507336.8717</v>
+        <v>261042790909.7819</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B189" t="n">
-        <v>343490000000</v>
+        <v>345110000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7600516835144789</v>
+        <v>0.75431847325941</v>
       </c>
       <c r="D189" t="n">
-        <v>261070152770.3884</v>
+        <v>260322848306.555</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B190" t="n">
-        <v>345100000000</v>
+        <v>346119000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.75431847325941</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D190" t="n">
-        <v>260315305121.8224</v>
+        <v>258567906768.2654</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B191" t="n">
-        <v>346110000000</v>
+        <v>347534000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7322252324815114</v>
       </c>
       <c r="D191" t="n">
-        <v>258561183325.8628</v>
+        <v>254473163945.2296</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B192" t="n">
-        <v>347530000000</v>
+        <v>347261000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7322252324815114</v>
+        <v>0.7246376811594204</v>
       </c>
       <c r="D192" t="n">
-        <v>254470235044.2997</v>
+        <v>251638405797.1015</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B193" t="n">
-        <v>347250000000</v>
+        <v>350477000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7246376811594204</v>
+        <v>0.7011147724882564</v>
       </c>
       <c r="D193" t="n">
-        <v>251630434782.6087</v>
+        <v>245724602117.3666</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B194" t="n">
-        <v>350470000000</v>
+        <v>351809000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7011147724882564</v>
+        <v>0.681384573453257</v>
       </c>
       <c r="D194" t="n">
-        <v>245719694313.9592</v>
+        <v>239717225402.0169</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B195" t="n">
-        <v>351820000000</v>
+        <v>354102000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.681384573453257</v>
+        <v>0.6503219093451258</v>
       </c>
       <c r="D195" t="n">
-        <v>239724720632.3249</v>
+        <v>230280288742.9277</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B196" t="n">
-        <v>354150000000</v>
+        <v>355662000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6503219093451258</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D196" t="n">
-        <v>230311504194.5763</v>
+        <v>244172731017.4379</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B197" t="n">
-        <v>355660000000</v>
+        <v>357456000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D197" t="n">
-        <v>244171357956.8859</v>
+        <v>242787475378.6593</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B198" t="n">
-        <v>357450000000</v>
+        <v>358460000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6624710168930109</v>
       </c>
       <c r="D198" t="n">
-        <v>242783400122.2577</v>
+        <v>237469360715.4687</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B199" t="n">
-        <v>358330000000</v>
+        <v>361075000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6624710168930109</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D199" t="n">
-        <v>237383239483.2726</v>
+        <v>234418619749.3995</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B200" t="n">
-        <v>361170000000</v>
+        <v>362734000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6229365227683299</v>
       </c>
       <c r="D200" t="n">
-        <v>234480296046.2248</v>
+        <v>225960256649.8474</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B201" t="n">
-        <v>362750000000</v>
+        <v>366181000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6229365227683299</v>
+        <v>0.6206168931918327</v>
       </c>
       <c r="D201" t="n">
-        <v>225970223634.2117</v>
+        <v>227258114565.8785</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B202" t="n">
-        <v>366170000000</v>
+        <v>371148000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6206168931918327</v>
+        <v>0.6060238773407672</v>
       </c>
       <c r="D202" t="n">
-        <v>227251287780.0534</v>
+        <v>224924550027.2711</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B203" t="n">
-        <v>371130000000</v>
+        <v>373883000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6060238773407672</v>
+        <v>0.5656748500961647</v>
       </c>
       <c r="D203" t="n">
-        <v>224913641597.4789</v>
+        <v>211496209978.5043</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B204" t="n">
-        <v>373880000000</v>
+        <v>376207000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5656748500961647</v>
+        <v>0.5935774915415207</v>
       </c>
       <c r="D204" t="n">
-        <v>211494512953.9541</v>
+        <v>223308007360.3609</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B205" t="n">
-        <v>376200000000</v>
+        <v>377701000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5935774915415207</v>
+        <v>0.623208276205908</v>
       </c>
       <c r="D205" t="n">
-        <v>223303852317.9201</v>
+        <v>235386389131.2477</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B206" t="n">
-        <v>377710000000</v>
+        <v>378780000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.623208276205908</v>
+        <v>0.6285355122564426</v>
       </c>
       <c r="D206" t="n">
-        <v>235391998005.7335</v>
+        <v>238076681332.4953</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B207" t="n">
-        <v>378810000000</v>
+        <v>382072000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6285355122564426</v>
+        <v>0.611321677466683</v>
       </c>
       <c r="D207" t="n">
-        <v>238095537397.863</v>
+        <v>233568895953.0505</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B208" t="n">
-        <v>382120000000</v>
+        <v>385148000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.611321677466683</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D208" t="n">
-        <v>233598239393.5689</v>
+        <v>242735236654.6921</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B209" t="n">
-        <v>385160000000</v>
+        <v>387506000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6187353050365053</v>
       </c>
       <c r="D209" t="n">
-        <v>242742799521.0185</v>
+        <v>239763643113.476</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B210" t="n">
-        <v>387510000000</v>
+        <v>391548000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6187353050365053</v>
+        <v>0.6338742393509128</v>
       </c>
       <c r="D210" t="n">
-        <v>239766118054.6962</v>
+        <v>248192190669.3712</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B211" t="n">
-        <v>391450000000</v>
+        <v>395759000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6338742393509128</v>
+        <v>0.6612007405448295</v>
       </c>
       <c r="D211" t="n">
-        <v>248130070993.9148</v>
+        <v>261676143877.2812</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B212" t="n">
-        <v>395750000000</v>
+        <v>399895000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6612007405448295</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D212" t="n">
-        <v>261670193070.6163</v>
+        <v>259621502304.7458</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B213" t="n">
-        <v>399910000000</v>
+        <v>403122000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D213" t="n">
-        <v>259631240667.4025</v>
+        <v>269124774684.5584</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B214" t="n">
-        <v>403120000000</v>
+        <v>405535000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6514233600416911</v>
       </c>
       <c r="D214" t="n">
-        <v>269123439481.9414</v>
+        <v>264174972314.5072</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B215" t="n">
-        <v>405520000000</v>
+        <v>407895000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6514233600416911</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D215" t="n">
-        <v>264165200964.1066</v>
+        <v>260685754457.7235</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B216" t="n">
-        <v>407890000000</v>
+        <v>411004000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.6525285481239804</v>
       </c>
       <c r="D216" t="n">
-        <v>260682558956.9886</v>
+        <v>268191843393.1484</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B217" t="n">
-        <v>411000000000</v>
+        <v>414489000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6525285481239804</v>
+        <v>0.6388551715326136</v>
       </c>
       <c r="D217" t="n">
-        <v>268189233278.956</v>
+        <v>264798441193.3815</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B218" t="n">
-        <v>414510000000</v>
+        <v>417772000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6388551715326136</v>
+        <v>0.6352029473416757</v>
       </c>
       <c r="D218" t="n">
-        <v>264811857151.9837</v>
+        <v>265370005716.8265</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B219" t="n">
-        <v>417830000000</v>
+        <v>417806000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6352029473416757</v>
+        <v>0.6535520554212143</v>
       </c>
       <c r="D219" t="n">
-        <v>265406847487.7724</v>
+        <v>273057970067.3159</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B220" t="n">
-        <v>417850000000</v>
+        <v>418845000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6535520554212143</v>
+        <v>0.6369832473405949</v>
       </c>
       <c r="D220" t="n">
-        <v>273086726357.7544</v>
+        <v>266797248232.3715</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B221" t="n">
-        <v>418870000000</v>
+        <v>420631000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6369832473405949</v>
+        <v>0.6178178672927221</v>
       </c>
       <c r="D221" t="n">
-        <v>266813172813.555</v>
+        <v>259873347337.205</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B222" t="n">
-        <v>420650000000</v>
+        <v>422707000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6178178672927221</v>
+        <v>0.6076810889645115</v>
       </c>
       <c r="D222" t="n">
-        <v>259885085876.6836</v>
+        <v>256871050072.9218</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B223" t="n">
-        <v>422650000000</v>
+        <v>426368000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6076810889645115</v>
+        <v>0.5838052425710782</v>
       </c>
       <c r="D223" t="n">
-        <v>256836412250.8508</v>
+        <v>248915873664.5455</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B224" t="n">
-        <v>426220000000</v>
+        <v>429640000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.5838052425710782</v>
+        <v>0.5727048851726705</v>
       </c>
       <c r="D224" t="n">
-        <v>248829470488.645</v>
+        <v>246056926865.5862</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B225" t="n">
-        <v>429660000000</v>
+        <v>431970000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5727048851726705</v>
+        <v>0.5969080164746613</v>
       </c>
       <c r="D225" t="n">
-        <v>246068380963.2896</v>
+        <v>257846355876.5594</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B226" t="n">
-        <v>431980000000</v>
+        <v>434974000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5969080164746613</v>
+        <v>0.5809225049378413</v>
       </c>
       <c r="D226" t="n">
-        <v>257852324956.7242</v>
+        <v>252686185662.8326</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B227" t="n">
-        <v>434970000000</v>
+        <v>438250000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5809225049378413</v>
+        <v>0.576468553640399</v>
       </c>
       <c r="D227" t="n">
-        <v>252683861972.8128</v>
+        <v>252637343632.9048</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B228" t="n">
-        <v>438260000000</v>
+        <v>439943000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.576468553640399</v>
+        <v>0.5429176393941039</v>
       </c>
       <c r="D228" t="n">
-        <v>252643108318.4413</v>
+        <v>238852815027.9602</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B229" t="n">
-        <v>439950000000</v>
+        <v>442251000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5429176393941039</v>
+        <v>0.5178127589063795</v>
       </c>
       <c r="D229" t="n">
-        <v>238856615451.436</v>
+        <v>229003210439.1052</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B230" t="n">
-        <v>442280000000</v>
+        <v>436574000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5178127589063795</v>
+        <v>0.5281504172388296</v>
       </c>
       <c r="D230" t="n">
-        <v>229018227009.1135</v>
+        <v>230576740255.6248</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B231" t="n">
-        <v>436650000000</v>
+        <v>438371000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5281504172388296</v>
+        <v>0.5586280096084018</v>
       </c>
       <c r="D231" t="n">
-        <v>230616879687.335</v>
+        <v>244886319200.0447</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B232" t="n">
-        <v>438420000000</v>
+        <v>443319000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5586280096084018</v>
+        <v>0.5509338328466752</v>
       </c>
       <c r="D232" t="n">
-        <v>244913691972.5155</v>
+        <v>244239435843.7552</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B233" t="n">
-        <v>443340000000</v>
+        <v>448703000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5509338328466752</v>
+        <v>0.5259835893120135</v>
       </c>
       <c r="D233" t="n">
-        <v>244251005454.245</v>
+        <v>236010414475.0684</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B234" t="n">
-        <v>448720000000</v>
+        <v>453498000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.5259835893120135</v>
+        <v>0.4857198367981348</v>
       </c>
       <c r="D234" t="n">
-        <v>236019356196.0867</v>
+        <v>220272974548.2805</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B235" t="n">
-        <v>453480000000</v>
+        <v>458058000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.4857198367981348</v>
+        <v>0.5123738279448686</v>
       </c>
       <c r="D235" t="n">
-        <v>220264231591.2182</v>
+        <v>234696930880.7706</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B236" t="n">
-        <v>457780000000</v>
+        <v>463582000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5123738279448686</v>
+        <v>0.506868062243398</v>
       </c>
       <c r="D236" t="n">
-        <v>234554490956.602</v>
+        <v>234974910030.9189</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B237" t="n">
-        <v>463620000000</v>
+        <v>468478000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.506868062243398</v>
+        <v>0.5109078833086395</v>
       </c>
       <c r="D237" t="n">
-        <v>234994171017.2842</v>
+        <v>239349103356.6648</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B238" t="n">
-        <v>468500000000</v>
+        <v>466790000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5109078833086395</v>
+        <v>0.5097099750242112</v>
       </c>
       <c r="D238" t="n">
-        <v>239360343330.0976</v>
+        <v>237927519241.5515</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B239" t="n">
-        <v>466790000000</v>
+        <v>474303000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5097099750242112</v>
+        <v>0.5293526017680377</v>
       </c>
       <c r="D239" t="n">
-        <v>237927519241.5515</v>
+        <v>251073527076.3856</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B240" t="n">
-        <v>474320000000</v>
+        <v>480979000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5293526017680377</v>
+        <v>0.4912556494399685</v>
       </c>
       <c r="D240" t="n">
-        <v>251082526070.6156</v>
+        <v>236283651011.9866</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B241" t="n">
-        <v>481010000000</v>
+        <v>488315000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.4912556494399685</v>
+        <v>0.5031699708161417</v>
       </c>
       <c r="D241" t="n">
-        <v>236298879937.1193</v>
+        <v>245705444299.0842</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B242" t="n">
-        <v>488360000000</v>
+        <v>494013000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5031699708161417</v>
+        <v>0.5217028380634391</v>
       </c>
       <c r="D242" t="n">
-        <v>245728086947.7709</v>
+        <v>257727984140.2337</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B243" t="n">
-        <v>494090000000</v>
+        <v>498545000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5217028380634391</v>
+        <v>0.5105166428425566</v>
       </c>
       <c r="D243" t="n">
-        <v>257768155258.7646</v>
+        <v>254515519705.9424</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B244" t="n">
-        <v>498600000000</v>
+        <v>503448000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5105166428425566</v>
+        <v>0.5079752108097125</v>
       </c>
       <c r="D244" t="n">
-        <v>254543598121.2987</v>
+        <v>255739103931.7281</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B245" t="n">
-        <v>503470000000</v>
+        <v>506254000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5079752108097125</v>
+        <v>0.5176787285810426</v>
       </c>
       <c r="D245" t="n">
-        <v>255750279386.366</v>
+        <v>262076927059.0671</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B246" t="n">
-        <v>506280000000</v>
+        <v>512472999999.9999</v>
       </c>
       <c r="C246" t="n">
-        <v>0.5176787285810426</v>
+        <v>0.5332195798229711</v>
       </c>
       <c r="D246" t="n">
-        <v>262090386706.0102</v>
+        <v>273260637730.6174</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B247" t="n">
-        <v>513230000000</v>
+        <v>500266000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.5332195798229711</v>
+        <v>0.5384449709239716</v>
       </c>
       <c r="D247" t="n">
-        <v>273664284952.5435</v>
+        <v>269365711824.2516</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B248" t="n">
-        <v>499220000000</v>
+        <v>502835000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5384449709239716</v>
+        <v>0.5673115107505532</v>
       </c>
       <c r="D248" t="n">
-        <v>268802498384.6651</v>
+        <v>285264083508.2544</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B249" t="n">
-        <v>502860000000</v>
+        <v>496230000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5673115107505532</v>
+        <v>0.5634755169887868</v>
       </c>
       <c r="D249" t="n">
-        <v>285278266296.0232</v>
+        <v>279613455795.3457</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B250" t="n">
-        <v>496270000000</v>
+        <v>506215000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5634755169887868</v>
+        <v>0.5422405379026136</v>
       </c>
       <c r="D250" t="n">
-        <v>279635994816.0253</v>
+        <v>274490293894.3716</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B251" t="n">
-        <v>506220000000</v>
+        <v>513116999999.9999</v>
       </c>
       <c r="C251" t="n">
-        <v>0.5422405379026136</v>
+        <v>0.550812448361333</v>
       </c>
       <c r="D251" t="n">
-        <v>274493005097.0611</v>
+        <v>282631231065.8221</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B252" t="n">
-        <v>513150000000</v>
+        <v>515897000000.0001</v>
       </c>
       <c r="C252" t="n">
-        <v>0.550812448361333</v>
+        <v>0.5425935973955507</v>
       </c>
       <c r="D252" t="n">
-        <v>282649407876.618</v>
+        <v>279922409115.5724</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B253" t="n">
-        <v>515929999999.9999</v>
+        <v>519345000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.5425935973955507</v>
+        <v>0.5541701302299806</v>
       </c>
       <c r="D253" t="n">
-        <v>279940314704.2864</v>
+        <v>287805486284.2893</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B254" t="n">
-        <v>519380000000</v>
+        <v>526154000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5541701302299806</v>
+        <v>0.5607895917451773</v>
       </c>
       <c r="D254" t="n">
-        <v>287824882238.8474</v>
+        <v>295061686855.092</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B255" t="n">
-        <v>526200000000.0001</v>
+        <v>531523000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5607895917451773</v>
+        <v>0.5616399887672002</v>
       </c>
       <c r="D255" t="n">
-        <v>295087483176.3124</v>
+        <v>298524571749.5085</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B256" t="n">
-        <v>531549999999.9999</v>
+        <v>537544000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5616399887672002</v>
+        <v>0.5868544600938967</v>
       </c>
       <c r="D256" t="n">
-        <v>298539736029.2052</v>
+        <v>315460093896.7136</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B257" t="n">
-        <v>537549999999.9999</v>
+        <v>540568000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5868544600938967</v>
+        <v>0.6086797735711242</v>
       </c>
       <c r="D257" t="n">
-        <v>315463615023.4741</v>
+        <v>329032807839.7955</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B258" t="n">
-        <v>540590000000.0001</v>
+        <v>547669000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6086797735711242</v>
+        <v>0.6046680372475511</v>
       </c>
       <c r="D258" t="n">
-        <v>329046198794.8141</v>
+        <v>331157939291.3291</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B259" t="n">
-        <v>547510000000</v>
+        <v>553123000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6046680372475511</v>
+        <v>0.6265271599523839</v>
       </c>
       <c r="D259" t="n">
-        <v>331061797073.4067</v>
+        <v>346546582294.3425</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B260" t="n">
-        <v>553070000000</v>
+        <v>563646000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6265271599523839</v>
+        <v>0.6533385600418137</v>
       </c>
       <c r="D260" t="n">
-        <v>346513376354.865</v>
+        <v>368251666013.3281</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B261" t="n">
-        <v>563650000000</v>
+        <v>564361000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6533385600418137</v>
+        <v>0.6738544474393531</v>
       </c>
       <c r="D261" t="n">
-        <v>368254279367.5683</v>
+        <v>380297169811.3207</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B262" t="n">
-        <v>564390000000</v>
+        <v>557872000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6738544474393531</v>
+        <v>0.6487187804086928</v>
       </c>
       <c r="D262" t="n">
-        <v>380316711590.2965</v>
+        <v>361902043464.1583</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B263" t="n">
-        <v>557870000000</v>
+        <v>570787000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6487187804086928</v>
+        <v>0.6472073004983496</v>
       </c>
       <c r="D263" t="n">
-        <v>361900746026.5975</v>
+        <v>369417513429.5515</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B264" t="n">
-        <v>570820000000</v>
+        <v>577754000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6472073004983496</v>
+        <v>0.6807351940095303</v>
       </c>
       <c r="D264" t="n">
-        <v>369438871270.468</v>
+        <v>393297481279.7822</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B265" t="n">
-        <v>577790000000</v>
+        <v>582423000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.6807351940095303</v>
+        <v>0.7085163667280714</v>
       </c>
       <c r="D265" t="n">
-        <v>393321987746.7665</v>
+        <v>412656227858.8635</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B266" t="n">
-        <v>582450000000</v>
+        <v>587210000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7085163667280714</v>
+        <v>0.7242702976750923</v>
       </c>
       <c r="D266" t="n">
-        <v>412675357800.7652</v>
+        <v>425298761497.791</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B267" t="n">
-        <v>587230000000</v>
+        <v>594207000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7242702976750923</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D267" t="n">
-        <v>425313246903.7444</v>
+        <v>445032204913.1216</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B268" t="n">
-        <v>594210000000</v>
+        <v>595410000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7641170627340108</v>
       </c>
       <c r="D268" t="n">
-        <v>445034451767.5255</v>
+        <v>454962940322.4574</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B269" t="n">
-        <v>595400000000</v>
+        <v>603832000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7641170627340108</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D269" t="n">
-        <v>454955299151.83</v>
+        <v>467217579696.6883</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B270" t="n">
-        <v>603830000000</v>
+        <v>610678000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7667535654040791</v>
       </c>
       <c r="D270" t="n">
-        <v>467216032188.177</v>
+        <v>468239533813.8322</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B271" t="n">
-        <v>610420000000</v>
+        <v>615959000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7667535654040791</v>
+        <v>0.7206168480219068</v>
       </c>
       <c r="D271" t="n">
-        <v>468041711393.958</v>
+        <v>443870433090.7257</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B272" t="n">
-        <v>616240000000</v>
+        <v>616477000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7206168480219068</v>
+        <v>0.7153075822603721</v>
       </c>
       <c r="D272" t="n">
-        <v>444072926425.0199</v>
+        <v>440970672389.1274</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B273" t="n">
-        <v>616410000000</v>
+        <v>621338000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.7153075822603721</v>
+        <v>0.6989097008666479</v>
       </c>
       <c r="D273" t="n">
-        <v>440922746781.116</v>
+        <v>434259155717.0813</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B274" t="n">
-        <v>621360000000</v>
+        <v>628311000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.6989097008666479</v>
+        <v>0.7026419336706015</v>
       </c>
       <c r="D274" t="n">
-        <v>434274531730.5004</v>
+        <v>441477655986.5093</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B275" t="n">
-        <v>628300000000</v>
+        <v>631732000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7026419336706015</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D275" t="n">
-        <v>441469926925.2389</v>
+        <v>444819039571.8913</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B276" t="n">
-        <v>631750000000</v>
+        <v>631878000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D276" t="n">
-        <v>444831713843.1207</v>
+        <v>459581060440.7593</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B277" t="n">
-        <v>631890000000</v>
+        <v>636611000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7484469725319961</v>
       </c>
       <c r="D277" t="n">
-        <v>459589788348.2435</v>
+        <v>476469575630.5666</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B278" t="n">
-        <v>636610000000</v>
+        <v>643622000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7484469725319961</v>
+        <v>0.7728572532653218</v>
       </c>
       <c r="D278" t="n">
-        <v>476468827183.5941</v>
+        <v>497427931061.133</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B279" t="n">
-        <v>643610000000</v>
+        <v>647054000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7728572532653218</v>
+        <v>0.7802137785753296</v>
       </c>
       <c r="D279" t="n">
-        <v>497418656774.0938</v>
+        <v>504840446282.2813</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B280" t="n">
-        <v>647030000000</v>
+        <v>651977000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7802137785753296</v>
+        <v>0.7757350089209527</v>
       </c>
       <c r="D280" t="n">
-        <v>504821721151.5955</v>
+        <v>505761383911.256</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B281" t="n">
-        <v>651950000000</v>
+        <v>655658000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7757350089209527</v>
+        <v>0.791702953052015</v>
       </c>
       <c r="D281" t="n">
-        <v>505740439066.0151</v>
+        <v>519086374792.178</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B282" t="n">
-        <v>655630000000</v>
+        <v>657474000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.791702953052015</v>
+        <v>0.7723200494284832</v>
       </c>
       <c r="D282" t="n">
-        <v>519064207109.4926</v>
+        <v>507780352177.9426</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B283" t="n">
-        <v>658170000000</v>
+        <v>663688000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.7723200494284832</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D283" t="n">
-        <v>508317886932.3448</v>
+        <v>518627803391.4199</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B284" t="n">
-        <v>663270000000</v>
+        <v>670249000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7558007709167863</v>
       </c>
       <c r="D284" t="n">
-        <v>518301164335.3911</v>
+        <v>506574710906.2051</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B285" t="n">
-        <v>670110000000</v>
+        <v>677023000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.7558007709167863</v>
+        <v>0.7625438462711607</v>
       </c>
       <c r="D285" t="n">
-        <v>506469654599.0477</v>
+        <v>516259722434.04</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B286" t="n">
-        <v>677030000000</v>
+        <v>678485000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.7625438462711607</v>
+        <v>0.7568303943086355</v>
       </c>
       <c r="D286" t="n">
-        <v>516265060240.9639</v>
+        <v>513498070082.4946</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B287" t="n">
-        <v>678460000000</v>
+        <v>681160000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.7568303943086355</v>
+        <v>0.7554011179936546</v>
       </c>
       <c r="D287" t="n">
-        <v>513479149322.6368</v>
+        <v>514549025532.5578</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B288" t="n">
-        <v>681150000000</v>
+        <v>690129000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.7554011179936546</v>
+        <v>0.7620208793720947</v>
       </c>
       <c r="D288" t="n">
-        <v>514541471521.3779</v>
+        <v>525892707460.1844</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B289" t="n">
-        <v>690110000000</v>
+        <v>688212000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7620208793720947</v>
+        <v>0.7485590238790328</v>
       </c>
       <c r="D289" t="n">
-        <v>525878229063.4763</v>
+        <v>515167302941.837</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B290" t="n">
-        <v>688190000000</v>
+        <v>692301000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.7485590238790328</v>
+        <v>0.738061849582995</v>
       </c>
       <c r="D290" t="n">
-        <v>515150834643.3116</v>
+        <v>510960956528.157</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B291" t="n">
-        <v>692280000000</v>
+        <v>700073000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.738061849582995</v>
+        <v>0.7345379756133392</v>
       </c>
       <c r="D291" t="n">
-        <v>510945457229.3158</v>
+        <v>514230204201.5573</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B292" t="n">
-        <v>700040000000</v>
+        <v>708145000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.7345379756133392</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D292" t="n">
-        <v>514205964448.362</v>
+        <v>537165288629.2953</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B293" t="n">
-        <v>708110000000</v>
+        <v>711350000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D293" t="n">
-        <v>537138739285.4434</v>
+        <v>528374062244.6705</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B294" t="n">
-        <v>711320000000</v>
+        <v>722061000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7165376898824879</v>
       </c>
       <c r="D294" t="n">
-        <v>528351778949.714</v>
+        <v>517383920894.2391</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B295" t="n">
-        <v>721570000000</v>
+        <v>736225000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7165376898824879</v>
+        <v>0.7598206823189727</v>
       </c>
       <c r="D295" t="n">
-        <v>517032100888.5068</v>
+        <v>559398981840.2856</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B296" t="n">
-        <v>737180000000</v>
+        <v>740262000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.7598206823189727</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D296" t="n">
-        <v>560124610591.9003</v>
+        <v>556797292215.1185</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B297" t="n">
-        <v>740080000000</v>
+        <v>746274000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7427213309566251</v>
       </c>
       <c r="D297" t="n">
-        <v>556660398646.1077</v>
+        <v>554273618538.3245</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B298" t="n">
-        <v>746280000000</v>
+        <v>753038000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.7427213309566251</v>
+        <v>0.7659313725490196</v>
       </c>
       <c r="D298" t="n">
-        <v>554278074866.3102</v>
+        <v>576775428921.5686</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B299" t="n">
-        <v>752990000000</v>
+        <v>761297000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.7659313725490196</v>
+        <v>0.7638252367858235</v>
       </c>
       <c r="D299" t="n">
-        <v>576738664215.6863</v>
+        <v>581497861289.337</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B300" t="n">
-        <v>761270000000</v>
+        <v>767415000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.7638252367858235</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D300" t="n">
-        <v>581477238007.9438</v>
+        <v>573510948359.6144</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B301" t="n">
-        <v>767370000000</v>
+        <v>776626000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D301" t="n">
-        <v>573477318586.0548</v>
+        <v>601103715170.2786</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B302" t="n">
-        <v>776600000000</v>
+        <v>781730000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.7894529091339701</v>
       </c>
       <c r="D302" t="n">
-        <v>601083591331.2693</v>
+        <v>617139022657.2985</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B303" t="n">
-        <v>781710000000</v>
+        <v>791373000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7894529091339701</v>
+        <v>0.7895775759968418</v>
       </c>
       <c r="D303" t="n">
-        <v>617123233599.1158</v>
+        <v>624850375049.3486</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B304" t="n">
-        <v>791340000000</v>
+        <v>797749000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.7895775759968418</v>
+        <v>0.777363184079602</v>
       </c>
       <c r="D304" t="n">
-        <v>624824318989.3407</v>
+        <v>620140702736.3185</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B305" t="n">
-        <v>797720000000</v>
+        <v>814195000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.777363184079602</v>
+        <v>0.7879599716334411</v>
       </c>
       <c r="D305" t="n">
-        <v>620118159203.9801</v>
+        <v>641553069104.0896</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B306" t="n">
-        <v>814180000000</v>
+        <v>826266000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7879599716334411</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D306" t="n">
-        <v>641541249704.5151</v>
+        <v>668337782091.7253</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B307" t="n">
-        <v>825660000000</v>
+        <v>838018000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8300821781356353</v>
       </c>
       <c r="D307" t="n">
-        <v>667847609803.4458</v>
+        <v>695623806756.8689</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B308" t="n">
-        <v>839080000000</v>
+        <v>846637000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.8300821781356353</v>
+        <v>0.8279516476237788</v>
       </c>
       <c r="D308" t="n">
-        <v>696505354030.049</v>
+        <v>700974499089.2532</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B309" t="n">
-        <v>846460000000</v>
+        <v>869578000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8279516476237788</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D309" t="n">
-        <v>700827951647.6238</v>
+        <v>738495116772.8239</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B310" t="n">
-        <v>869580000000</v>
+        <v>880405000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8509189925119128</v>
       </c>
       <c r="D310" t="n">
-        <v>738496815286.6243</v>
+        <v>749153335602.4506</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B311" t="n">
-        <v>880350000000</v>
+        <v>899073000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8509189925119128</v>
+        <v>0.8180628272251309</v>
       </c>
       <c r="D311" t="n">
-        <v>749106535057.8624</v>
+        <v>735498200261.7802</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B312" t="n">
-        <v>899030000000</v>
+        <v>912986000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8180628272251309</v>
+        <v>0.8889679082585119</v>
       </c>
       <c r="D312" t="n">
-        <v>735463023560.2095</v>
+        <v>811615254689.3058</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B313" t="n">
-        <v>912930000000</v>
+        <v>938446000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.8889679082585119</v>
+        <v>0.9325748391308403</v>
       </c>
       <c r="D313" t="n">
-        <v>811565472486.4432</v>
+        <v>875171127482.9805</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B314" t="n">
-        <v>938410000000</v>
+        <v>962564000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9325748391308403</v>
+        <v>0.8844078889183691</v>
       </c>
       <c r="D314" t="n">
-        <v>875137554788.7719</v>
+        <v>851299195188.821</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B315" t="n">
-        <v>962560000000</v>
+        <v>971834000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8844078889183691</v>
+        <v>0.8749671887304226</v>
       </c>
       <c r="D315" t="n">
-        <v>851295657557.2654</v>
+        <v>850322862892.6415</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B316" t="n">
-        <v>971820000000</v>
+        <v>984284000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8749671887304226</v>
+        <v>0.8962982880702699</v>
       </c>
       <c r="D316" t="n">
-        <v>850310613351.9993</v>
+        <v>882212064174.9575</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B317" t="n">
-        <v>984270000000</v>
+        <v>992008000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.8962982880702699</v>
+        <v>0.9313588525658936</v>
       </c>
       <c r="D317" t="n">
-        <v>882199515998.9246</v>
+        <v>923915432616.1869</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B318" t="n">
-        <v>992020000000</v>
+        <v>1000377000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9313588525658936</v>
+        <v>0.9139097057210747</v>
       </c>
       <c r="D318" t="n">
-        <v>923926608922.4177</v>
+        <v>914254249680.1315</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B319" t="n">
-        <v>1001360000000</v>
+        <v>1013380000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9139097057210747</v>
+        <v>0.9437523593808984</v>
       </c>
       <c r="D319" t="n">
-        <v>915152622920.8553</v>
+        <v>956379765949.4148</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B320" t="n">
-        <v>1012690000000</v>
+        <v>1016485000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9437523593808984</v>
+        <v>0.9562057754828839</v>
       </c>
       <c r="D320" t="n">
-        <v>955728576821.442</v>
+        <v>971968827691.7192</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B321" t="n">
-        <v>1016350000000</v>
+        <v>1035594000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9562057754828839</v>
+        <v>0.9590486237652249</v>
       </c>
       <c r="D321" t="n">
-        <v>971839739912.0291</v>
+        <v>993185000479.5243</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B322" t="n">
-        <v>1035620000000</v>
+        <v>1057005000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9590486237652249</v>
+        <v>0.9417969485778865</v>
       </c>
       <c r="D322" t="n">
-        <v>993209935743.7422</v>
+        <v>995484083631.569</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B323" t="n">
-        <v>1056950000000</v>
+        <v>1069476000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9417969485778865</v>
+        <v>0.8582217645039478</v>
       </c>
       <c r="D323" t="n">
-        <v>995432284799.3972</v>
+        <v>917847579814.6241</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B324" t="n">
-        <v>1069430000000</v>
+        <v>1089266000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.8582217645039478</v>
+        <v>0.7951653944020356</v>
       </c>
       <c r="D324" t="n">
-        <v>917808101613.4569</v>
+        <v>866146628498.7277</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B325" t="n">
-        <v>1089220000000</v>
+        <v>1102968000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.7951653944020356</v>
+        <v>0.6685832720465333</v>
       </c>
       <c r="D325" t="n">
-        <v>866110050890.5852</v>
+        <v>737425954402.6207</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B326" t="n">
-        <v>1102950000000</v>
+        <v>1129317000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6685832720465333</v>
+        <v>0.6549646319098769</v>
       </c>
       <c r="D326" t="n">
-        <v>737413919903.724</v>
+        <v>739662693214.5664</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B327" t="n">
-        <v>1129340000000</v>
+        <v>1130783000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.6549646319098769</v>
+        <v>0.7015574575557738</v>
       </c>
       <c r="D327" t="n">
-        <v>739677757401.1003</v>
+        <v>793309246527.2905</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B328" t="n">
-        <v>1130780000000</v>
+        <v>1144917000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.7015574575557738</v>
+        <v>0.6358087487283826</v>
       </c>
       <c r="D328" t="n">
-        <v>793307141854.918</v>
+        <v>727948245167.8535</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B329" t="n">
-        <v>1144920000000</v>
+        <v>1163743000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.6358087487283826</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D329" t="n">
-        <v>727950152594.0997</v>
+        <v>743748322362.1143</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B330" t="n">
-        <v>1163770000000</v>
+        <v>1142763000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D330" t="n">
-        <v>743765578066.083</v>
+        <v>790730002767.783</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B331" t="n">
-        <v>1142150000000</v>
+        <v>1160667000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.691945751453086</v>
+        <v>0.7257420712678715</v>
       </c>
       <c r="D331" t="n">
-        <v>790305840022.1422</v>
+        <v>842344872632.2666</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B332" t="n">
-        <v>1161370000000</v>
+        <v>1167788000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.7257420712678715</v>
+        <v>0.8014747134727899</v>
       </c>
       <c r="D332" t="n">
-        <v>842855069308.3679</v>
+        <v>935952552696.9623</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B333" t="n">
-        <v>1167730000000</v>
+        <v>1178972000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8014747134727899</v>
+        <v>0.8062565508344756</v>
       </c>
       <c r="D333" t="n">
-        <v>935906067163.5809</v>
+        <v>950553898250.4233</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B334" t="n">
-        <v>1179010000000</v>
+        <v>1181019000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.8062565508344756</v>
+        <v>0.8364700961940611</v>
       </c>
       <c r="D334" t="n">
-        <v>950584535999.355</v>
+        <v>987887076537.0138</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B335" t="n">
-        <v>1180970000000</v>
+        <v>1185332000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8364700961940611</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D335" t="n">
-        <v>987846089502.3003</v>
+        <v>1000449020931.803</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B336" t="n">
-        <v>1185310000000</v>
+        <v>1184794000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.8841732979664014</v>
       </c>
       <c r="D336" t="n">
-        <v>1000430452397.029</v>
+        <v>1047563218390.805</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B337" t="n">
-        <v>1184770000000</v>
+        <v>1183584000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.8841732979664014</v>
+        <v>0.901631953836444</v>
       </c>
       <c r="D337" t="n">
-        <v>1047541998231.653</v>
+        <v>1067157154449.554</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B338" t="n">
-        <v>1183580000000</v>
+        <v>1182206000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.901631953836444</v>
+        <v>0.9161704076958315</v>
       </c>
       <c r="D338" t="n">
-        <v>1067153547921.738</v>
+        <v>1083102153000.458</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B339" t="n">
-        <v>1182230000000</v>
+        <v>1178434000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9161704076958315</v>
+        <v>0.8979078746520608</v>
       </c>
       <c r="D339" t="n">
-        <v>1083124141090.243</v>
+        <v>1058125168357.727</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B340" t="n">
-        <v>1178440000000</v>
+        <v>1182971000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.8979078746520608</v>
+        <v>0.8842514811212309</v>
       </c>
       <c r="D340" t="n">
-        <v>1058130555804.974</v>
+        <v>1046043858873.464</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B341" t="n">
-        <v>1182990000000</v>
+        <v>1195947000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.8842514811212309</v>
+        <v>0.8957362952346829</v>
       </c>
       <c r="D341" t="n">
-        <v>1046060659651.605</v>
+        <v>1071253135077.033</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B342" t="n">
-        <v>1195990000000</v>
+        <v>1210169000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.8957362952346829</v>
+        <v>0.9175153683824203</v>
       </c>
       <c r="D342" t="n">
-        <v>1071291651737.728</v>
+        <v>1110348655839.985</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B343" t="n">
-        <v>1209570000000</v>
+        <v>1216303000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9175153683824203</v>
+        <v>0.9247272054743851</v>
       </c>
       <c r="D343" t="n">
-        <v>1109799064134.324</v>
+        <v>1124748474200.111</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B344" t="n">
-        <v>1216770000000</v>
+        <v>1221498000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9247272054743851</v>
+        <v>0.8475294516484448</v>
       </c>
       <c r="D344" t="n">
-        <v>1125180321805.068</v>
+        <v>1035255530129.672</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B345" t="n">
-        <v>1221560000000</v>
+        <v>1231556000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.8475294516484448</v>
+        <v>0.8404773911581779</v>
       </c>
       <c r="D345" t="n">
-        <v>1035308076955.674</v>
+        <v>1035094973945.201</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B346" t="n">
-        <v>1231580000000</v>
+        <v>1242597000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.8404773911581779</v>
+        <v>0.904649900488511</v>
       </c>
       <c r="D346" t="n">
-        <v>1035115145402.589</v>
+        <v>1124115252397.322</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B347" t="n">
-        <v>1242560000000</v>
+        <v>1253020000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.904649900488511</v>
+        <v>0.8930166101089481</v>
       </c>
       <c r="D347" t="n">
-        <v>1124081780351.004</v>
+        <v>1118967672798.714</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B348" t="n">
-        <v>1253020000000</v>
+        <v>1260810000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.8930166101089481</v>
+        <v>0.9662769349695624</v>
       </c>
       <c r="D348" t="n">
-        <v>1118967672798.714</v>
+        <v>1218291622378.974</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B349" t="n">
-        <v>1260810000000</v>
+        <v>1273880000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9662769349695624</v>
+        <v>0.98405825624877</v>
       </c>
       <c r="D349" t="n">
-        <v>1218291622378.974</v>
+        <v>1253572131470.183</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B350" t="n">
-        <v>1273880000000</v>
+        <v>1294322000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.98405825624877</v>
+        <v>0.959140610013428</v>
       </c>
       <c r="D350" t="n">
-        <v>1253572131470.183</v>
+        <v>1241436792633.8</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B351" t="n">
-        <v>1294340000000</v>
+        <v>1302284000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.959140610013428</v>
+        <v>1.02364622786365</v>
       </c>
       <c r="D351" t="n">
-        <v>1241454057164.78</v>
+        <v>1333078104207.186</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B352" t="n">
-        <v>1302300000000</v>
+        <v>1311449000000</v>
       </c>
       <c r="C352" t="n">
-        <v>1.02364622786365</v>
+        <v>0.9979044007584074</v>
       </c>
       <c r="D352" t="n">
-        <v>1333094482546.832</v>
+        <v>1308700728470.213</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B353" t="n">
-        <v>1311480000000</v>
+        <v>1325187000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9979044007584074</v>
+        <v>1.018952516812716</v>
       </c>
       <c r="D353" t="n">
-        <v>1308731663506.636</v>
+        <v>1350302628897.493</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B354" t="n">
-        <v>1325230000000</v>
+        <v>1334278000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.018952516812716</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D354" t="n">
-        <v>1350346443855.716</v>
+        <v>1379241265247.054</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B355" t="n">
-        <v>1333630000000</v>
+        <v>1342207000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.033698573495968</v>
+        <v>1.097574360662935</v>
       </c>
       <c r="D355" t="n">
-        <v>1378571428571.428</v>
+        <v>1473171989902.316</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B356" t="n">
-        <v>1342680000000</v>
+        <v>1347691000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.097574360662935</v>
+        <v>1.066325442525059</v>
       </c>
       <c r="D356" t="n">
-        <v>1473691142574.909</v>
+        <v>1437077201962.039</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B357" t="n">
-        <v>1347820000000</v>
+        <v>1343534000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.066325442525059</v>
+        <v>1.071466838101361</v>
       </c>
       <c r="D357" t="n">
-        <v>1437214757944.125</v>
+        <v>1439552126861.674</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B358" t="n">
-        <v>1343520000000</v>
+        <v>1352722000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.071466838101361</v>
+        <v>1.1001100110011</v>
       </c>
       <c r="D358" t="n">
-        <v>1439537126325.94</v>
+        <v>1488143014301.43</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B359" t="n">
-        <v>1352690000000</v>
+        <v>1373328000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.1001100110011</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="D359" t="n">
-        <v>1488107810781.078</v>
+        <v>1468800000000</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B360" t="n">
-        <v>1373330000000</v>
+        <v>1383775000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.06951871657754</v>
+        <v>0.9666505558240697</v>
       </c>
       <c r="D360" t="n">
-        <v>1468802139037.433</v>
+        <v>1337626872885.452</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B361" t="n">
-        <v>1383780000000</v>
+        <v>1390449000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9666505558240697</v>
+        <v>1.05496360375567</v>
       </c>
       <c r="D361" t="n">
-        <v>1337631706138.231</v>
+        <v>1466873087878.468</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B362" t="n">
-        <v>1390450000000</v>
+        <v>1396042000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.05496360375567</v>
+        <v>1.02880658436214</v>
       </c>
       <c r="D362" t="n">
-        <v>1466874142842.072</v>
+        <v>1436257201646.091</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B363" t="n">
-        <v>1396040000000</v>
+        <v>1406582000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.02880658436214</v>
+        <v>1.021554806415364</v>
       </c>
       <c r="D363" t="n">
-        <v>1436255144032.922</v>
+        <v>1436900602717.336</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B364" t="n">
-        <v>1406570000000</v>
+        <v>1416621000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.021554806415364</v>
+        <v>1.062699256110521</v>
       </c>
       <c r="D364" t="n">
-        <v>1436888344059.659</v>
+        <v>1505442082890.542</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B365" t="n">
-        <v>1416700000000</v>
+        <v>1424055000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.062699256110521</v>
+        <v>1.073767851390529</v>
       </c>
       <c r="D365" t="n">
-        <v>1505526036131.775</v>
+        <v>1529104477611.94</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B366" t="n">
-        <v>1424080000000</v>
+        <v>1434208000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.073767851390529</v>
+        <v>1.034447088031447</v>
       </c>
       <c r="D366" t="n">
-        <v>1529131321808.225</v>
+        <v>1483612289231.406</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B367" t="n">
-        <v>1433570000000</v>
+        <v>1438755000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.034447088031447</v>
+        <v>1.043405676126878</v>
       </c>
       <c r="D367" t="n">
-        <v>1482952311989.242</v>
+        <v>1501205133555.927</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B368" t="n">
-        <v>1439230000000</v>
+        <v>1457290000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.043405676126878</v>
+        <v>0.97323600973236</v>
       </c>
       <c r="D368" t="n">
-        <v>1501700751252.087</v>
+        <v>1418287104622.871</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B369" t="n">
-        <v>1457460000000</v>
+        <v>1465374000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.97323600973236</v>
+        <v>1.024275325207416</v>
       </c>
       <c r="D369" t="n">
-        <v>1418452554744.525</v>
+        <v>1500946430400.492</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B370" t="n">
-        <v>1465340000000</v>
+        <v>1472304000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.024275325207416</v>
+        <v>1.049758555532228</v>
       </c>
       <c r="D370" t="n">
-        <v>1500911605039.435</v>
+        <v>1545563720344.321</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B371" t="n">
-        <v>1472270000000</v>
+        <v>1482867000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.049758555532228</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D371" t="n">
-        <v>1545528028553.433</v>
+        <v>1532837502584.246</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B372" t="n">
-        <v>1482870000000</v>
+        <v>1488548000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.033698573495968</v>
+        <v>1.03777501037775</v>
       </c>
       <c r="D372" t="n">
-        <v>1532840603679.967</v>
+        <v>1544777916147.779</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B373" t="n">
-        <v>1488540000000</v>
+        <v>1495483000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.03777501037775</v>
+        <v>1.038205980066445</v>
       </c>
       <c r="D373" t="n">
-        <v>1544769613947.696</v>
+        <v>1552619393687.708</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B374" t="n">
-        <v>1495460000000</v>
+        <v>1500153000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.038205980066445</v>
+        <v>1.043187982474442</v>
       </c>
       <c r="D374" t="n">
-        <v>1552595514950.166</v>
+        <v>1564941581472.981</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B375" t="n">
-        <v>1500120000000</v>
+        <v>1508423000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.043187982474442</v>
+        <v>1.039933444259567</v>
       </c>
       <c r="D375" t="n">
-        <v>1564907156269.56</v>
+        <v>1568659525790.349</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B376" t="n">
-        <v>1508390000000</v>
+        <v>1518967000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.039933444259567</v>
+        <v>1.043079169708981</v>
       </c>
       <c r="D376" t="n">
-        <v>1568625207986.689</v>
+        <v>1584402837175.342</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B377" t="n">
-        <v>1519100000000</v>
+        <v>1521736000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.043079169708981</v>
+        <v>1.022076860179886</v>
       </c>
       <c r="D377" t="n">
-        <v>1584541566704.913</v>
+        <v>1555331152902.698</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B378" t="n">
-        <v>1521770000000</v>
+        <v>1531399000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.022076860179886</v>
+        <v>1.042535446205171</v>
       </c>
       <c r="D378" t="n">
-        <v>1555365903515.944</v>
+        <v>1596537739783.153</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B379" t="n">
-        <v>1533120000000</v>
+        <v>1546552000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.042535446205171</v>
+        <v>1.037129226301597</v>
       </c>
       <c r="D379" t="n">
-        <v>1598331943286.072</v>
+        <v>1603974279195.188</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B380" t="n">
-        <v>1544670000000</v>
+        <v>1560756000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.037129226301597</v>
+        <v>0.9552010698251983</v>
       </c>
       <c r="D380" t="n">
-        <v>1602022401991.288</v>
+        <v>1490835800936.097</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B381" t="n">
-        <v>1560880000000</v>
+        <v>1561285000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9552010698251983</v>
+        <v>0.9149967975112088</v>
       </c>
       <c r="D381" t="n">
-        <v>1490954245868.755</v>
+        <v>1428570775002.288</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B382" t="n">
-        <v>1561340000000</v>
+        <v>1565767000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9149967975112088</v>
+        <v>0.8943743851176101</v>
       </c>
       <c r="D382" t="n">
-        <v>1428621099826.151</v>
+        <v>1400381897862.445</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B383" t="n">
-        <v>1565700000000</v>
+        <v>1567032000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8943743851176101</v>
+        <v>0.8903926631644555</v>
       </c>
       <c r="D383" t="n">
-        <v>1400321974778.642</v>
+        <v>1395273795743.923</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B384" t="n">
-        <v>1567000000000</v>
+        <v>1578348000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.8903926631644555</v>
+        <v>0.9329228472805299</v>
       </c>
       <c r="D384" t="n">
-        <v>1395245303178.702</v>
+        <v>1472476910159.53</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B385" t="n">
-        <v>1578330000000</v>
+        <v>1589865000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9329228472805299</v>
+        <v>0.9463423866754992</v>
       </c>
       <c r="D385" t="n">
-        <v>1472460117548.279</v>
+        <v>1504556638591.843</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B386" t="n">
-        <v>1589840000000</v>
+        <v>1599918000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9463423866754992</v>
+        <v>0.9112447603426281</v>
       </c>
       <c r="D386" t="n">
-        <v>1504532980032.176</v>
+        <v>1457916894477.857</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B387" t="n">
-        <v>1599870000000</v>
+        <v>1613768000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9112447603426281</v>
+        <v>0.8918219923303309</v>
       </c>
       <c r="D387" t="n">
-        <v>1457873154729.361</v>
+        <v>1439193792918.933</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B388" t="n">
-        <v>1613690000000</v>
+        <v>1622097000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8918219923303309</v>
+        <v>0.8759635599159076</v>
       </c>
       <c r="D388" t="n">
-        <v>1439124230803.532</v>
+        <v>1420897862648.914</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B389" t="n">
-        <v>1622300000000</v>
+        <v>1631933000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8759635599159076</v>
+        <v>0.8934953538241601</v>
       </c>
       <c r="D389" t="n">
-        <v>1421075683251.577</v>
+        <v>1458124553252.323</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B390" t="n">
-        <v>1631980000000</v>
+        <v>1637964000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8934953538241601</v>
+        <v>0.9266981744045965</v>
       </c>
       <c r="D390" t="n">
-        <v>1458166547533.953</v>
+        <v>1517898248540.45</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B391" t="n">
-        <v>1636970000000</v>
+        <v>1648196000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9266981744045965</v>
+        <v>0.9288500835965076</v>
       </c>
       <c r="D391" t="n">
-        <v>1516977110555.092</v>
+        <v>1530926992383.429</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B392" t="n">
-        <v>1649000000000</v>
+        <v>1661059000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9288500835965076</v>
+        <v>0.931445603576751</v>
       </c>
       <c r="D392" t="n">
-        <v>1531673787850.641</v>
+        <v>1547186102831.594</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B393" t="n">
-        <v>1661150000000</v>
+        <v>1668993000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.931445603576751</v>
+        <v>0.9433072351664937</v>
       </c>
       <c r="D393" t="n">
-        <v>1547270864381.52</v>
+        <v>1574373172342.232</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B394" t="n">
-        <v>1669190000000</v>
+        <v>1680499000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9433072351664937</v>
+        <v>0.9296272194849864</v>
       </c>
       <c r="D394" t="n">
-        <v>1574559003867.56</v>
+        <v>1562237612717.3</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B395" t="n">
-        <v>1680440000000</v>
+        <v>1693813000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9296272194849864</v>
+        <v>0.9344921035417251</v>
       </c>
       <c r="D395" t="n">
-        <v>1562182764711.351</v>
+        <v>1582854873376.32</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B396" t="n">
-        <v>1693780000000</v>
+        <v>1706001000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9344921035417251</v>
+        <v>0.8748906386701663</v>
       </c>
       <c r="D396" t="n">
-        <v>1582824035136.903</v>
+        <v>1492564304461.942</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B397" t="n">
-        <v>1705970000000</v>
+        <v>1712461000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.8748906386701663</v>
+        <v>0.880126738250308</v>
       </c>
       <c r="D397" t="n">
-        <v>1492537182852.144</v>
+        <v>1507182714310.861</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B398" t="n">
-        <v>1712420000000</v>
+        <v>1716847000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.880126738250308</v>
+        <v>0.8511362669163333</v>
       </c>
       <c r="D398" t="n">
-        <v>1507146629114.592</v>
+        <v>1461270746446.506</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B399" t="n">
-        <v>1716790000000</v>
+        <v>1731250000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8511362669163333</v>
+        <v>0.8176614881439084</v>
       </c>
       <c r="D399" t="n">
-        <v>1461222231679.292</v>
+        <v>1415576451349.141</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B400" t="n">
-        <v>1731120000000</v>
+        <v>1735199000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.8176614881439084</v>
+        <v>0.7771215418091389</v>
       </c>
       <c r="D400" t="n">
-        <v>1415470155355.683</v>
+        <v>1348460522225.676</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B401" t="n">
-        <v>1735430000000</v>
+        <v>1755949000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7771215418091389</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D401" t="n">
-        <v>1348640037301.834</v>
+        <v>1372156755489.568</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B402" t="n">
-        <v>1755980000000</v>
+        <v>1760584000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D402" t="n">
-        <v>1372180979917.168</v>
+        <v>1340274056029.233</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B403" t="n">
-        <v>1759290000000</v>
+        <v>1768918000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.7902015013828526</v>
       </c>
       <c r="D403" t="n">
-        <v>1339288976857.491</v>
+        <v>1397801659423.153</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B404" t="n">
-        <v>1769930000000</v>
+        <v>1772712000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7902015013828526</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D404" t="n">
-        <v>1398601343342.552</v>
+        <v>1355491665392.262</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B405" t="n">
-        <v>1772740000000</v>
+        <v>1781050000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7705347511172753</v>
       </c>
       <c r="D405" t="n">
-        <v>1355513075393.791</v>
+        <v>1372360918477.423</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B406" t="n">
-        <v>1781460000000</v>
+        <v>1795874000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7705347511172753</v>
+        <v>0.7316894709885124</v>
       </c>
       <c r="D406" t="n">
-        <v>1372676837725.381</v>
+        <v>1314022097022.024</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B407" t="n">
-        <v>1795870000000</v>
+        <v>1799219000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7316894709885124</v>
+        <v>0.7115411982353779</v>
       </c>
       <c r="D407" t="n">
-        <v>1314019170264.14</v>
+        <v>1280218443147.858</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B408" t="n">
-        <v>1799200000000</v>
+        <v>1812398000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.7115411982353779</v>
+        <v>0.702000702000702</v>
       </c>
       <c r="D408" t="n">
-        <v>1280204923865.092</v>
+        <v>1272304668304.668</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B409" t="n">
-        <v>1812350000000</v>
+        <v>1818447000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.702000702000702</v>
+        <v>0.7140307033202428</v>
       </c>
       <c r="D409" t="n">
-        <v>1272270972270.972</v>
+        <v>1298426990360.585</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B410" t="n">
-        <v>1818380000000</v>
+        <v>1831524000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7140307033202428</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D410" t="n">
-        <v>1298379150303.463</v>
+        <v>1324025157232.704</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B411" t="n">
-        <v>1831460000000</v>
+        <v>1836529000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7291286912139993</v>
       </c>
       <c r="D411" t="n">
-        <v>1323978891057.616</v>
+        <v>1339065986146.555</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B412" t="n">
-        <v>1836330000000</v>
+        <v>1845945000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7291286912139993</v>
+        <v>0.7085665698292355</v>
       </c>
       <c r="D412" t="n">
-        <v>1338920889537.003</v>
+        <v>1307974916743.428</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B413" t="n">
-        <v>1846170000000</v>
+        <v>1852876000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7085665698292355</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D413" t="n">
-        <v>1308134344221.64</v>
+        <v>1323388329405.042</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B414" t="n">
-        <v>1852880000000</v>
+        <v>1862728000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.7666360012266176</v>
       </c>
       <c r="D414" t="n">
-        <v>1323391186343.833</v>
+        <v>1428034345292.855</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B415" t="n">
-        <v>1864210000000</v>
+        <v>1870741000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7666360012266176</v>
+        <v>0.7617306520414382</v>
       </c>
       <c r="D415" t="n">
-        <v>1429170499846.673</v>
+        <v>1425000761730.652</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B416" t="n">
-        <v>1868720000000</v>
+        <v>1876371000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7617306520414382</v>
+        <v>0.7233273056057866</v>
       </c>
       <c r="D416" t="n">
-        <v>1423461304082.876</v>
+        <v>1357230379746.835</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B417" t="n">
-        <v>1876260000000</v>
+        <v>1883273000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7233273056057866</v>
+        <v>0.7444353457902182</v>
       </c>
       <c r="D417" t="n">
-        <v>1357150090415.913</v>
+        <v>1401974986972.382</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B418" t="n">
-        <v>1883960000000</v>
+        <v>1901275000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7444353457902182</v>
+        <v>0.761208799573723</v>
       </c>
       <c r="D418" t="n">
-        <v>1402486414054.939</v>
+        <v>1447267260409.53</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B419" t="n">
-        <v>1901750000000</v>
+        <v>1909699000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.761208799573723</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D419" t="n">
-        <v>1447628834589.328</v>
+        <v>1435432200841.852</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B420" t="n">
-        <v>1909580000000</v>
+        <v>1914336000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.751653638003608</v>
+        <v>0.7660487206986365</v>
       </c>
       <c r="D420" t="n">
-        <v>1435342754058.93</v>
+        <v>1466474643787.345</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B421" t="n">
-        <v>1914220000000</v>
+        <v>1927326000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7660487206986365</v>
+        <v>0.7608034083992696</v>
       </c>
       <c r="D421" t="n">
-        <v>1466385782135.744</v>
+        <v>1466316189896.531</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B422" t="n">
-        <v>1927220000000</v>
+        <v>1943834000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7608034083992696</v>
+        <v>0.7384978952809984</v>
       </c>
       <c r="D422" t="n">
-        <v>1466235544735.24</v>
+        <v>1435517317775.644</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B423" t="n">
-        <v>1943720000000</v>
+        <v>1963247000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7384978952809984</v>
+        <v>0.7213445863088797</v>
       </c>
       <c r="D423" t="n">
-        <v>1435433129015.582</v>
+        <v>1416177595037.149</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B424" t="n">
-        <v>1962910000000</v>
+        <v>1975270000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7213445863088797</v>
+        <v>0.7586102260658474</v>
       </c>
       <c r="D424" t="n">
-        <v>1415934501911.563</v>
+        <v>1498460021241.086</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B425" t="n">
-        <v>1975580000000</v>
+        <v>1985415000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7586102260658474</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D425" t="n">
-        <v>1498695190411.167</v>
+        <v>1520342292671.721</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B426" t="n">
-        <v>1985340000000</v>
+        <v>1990532000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7640586797066015</v>
       </c>
       <c r="D426" t="n">
-        <v>1520284861015.392</v>
+        <v>1520883251833.741</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B427" t="n">
-        <v>1988640000000</v>
+        <v>2006251000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7640586797066015</v>
+        <v>0.7499062617172854</v>
       </c>
       <c r="D427" t="n">
-        <v>1519437652811.736</v>
+        <v>1504500187476.565</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B428" t="n">
-        <v>2007380000000</v>
+        <v>2015317000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7499062617172854</v>
+        <v>0.7432181345224824</v>
       </c>
       <c r="D428" t="n">
-        <v>1505346831646.044</v>
+        <v>1497820141211.446</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B429" t="n">
-        <v>2014980000000</v>
+        <v>2028659000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7432181345224824</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D429" t="n">
-        <v>1497569676700.112</v>
+        <v>1562189280763.899</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B430" t="n">
-        <v>2029770000000</v>
+        <v>2032466000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.8002560819462228</v>
       </c>
       <c r="D430" t="n">
-        <v>1563044817495.765</v>
+        <v>1626493277848.912</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B431" t="n">
-        <v>2033570000000</v>
+        <v>2038289000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.8002560819462228</v>
+        <v>0.7947862025115244</v>
       </c>
       <c r="D431" t="n">
-        <v>1627376760563.38</v>
+        <v>1620003973931.013</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B432" t="n">
-        <v>2038080000000</v>
+        <v>2045353000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7947862025115244</v>
+        <v>0.7840677434530343</v>
       </c>
       <c r="D432" t="n">
-        <v>1619837863614.688</v>
+        <v>1603695311274.894</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B433" t="n">
-        <v>2045090000000</v>
+        <v>2054212000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7840677434530343</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D433" t="n">
-        <v>1603489101458.366</v>
+        <v>1573023968144.574</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B434" t="n">
-        <v>2053920000000</v>
+        <v>2058719000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D434" t="n">
-        <v>1572800367562.6</v>
+        <v>1557629567980.631</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B435" t="n">
-        <v>2058440000000</v>
+        <v>2055155000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D435" t="n">
-        <v>1557418476204.887</v>
+        <v>1604712266729.133</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B436" t="n">
-        <v>2054690000000</v>
+        <v>2061636000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.8058017727639</v>
       </c>
       <c r="D436" t="n">
-        <v>1604349184039.978</v>
+        <v>1661269943593.876</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B437" t="n">
-        <v>2062000000000</v>
+        <v>2062698000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.8058017727639</v>
+        <v>0.7762769756249029</v>
       </c>
       <c r="D437" t="n">
-        <v>1661563255439.162</v>
+        <v>1601224965067.536</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B438" t="n">
-        <v>2062550000000</v>
+        <v>2060315000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7762769756249029</v>
+        <v>0.7682851874615857</v>
       </c>
       <c r="D438" t="n">
-        <v>1601110076075.144</v>
+        <v>1582909496004.917</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B439" t="n">
-        <v>2061800000000</v>
+        <v>2059374000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7682851874615857</v>
+        <v>0.7532389273877674</v>
       </c>
       <c r="D439" t="n">
-        <v>1584050399508.297</v>
+        <v>1551200662850.256</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B440" t="n">
-        <v>2057150000000</v>
+        <v>2063352000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7532389273877674</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D440" t="n">
-        <v>1549525459475.746</v>
+        <v>1561489329499.016</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B441" t="n">
-        <v>2062740000000</v>
+        <v>2064535000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7406310176270182</v>
       </c>
       <c r="D441" t="n">
-        <v>1561026184349.932</v>
+        <v>1529058657976.596</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B442" t="n">
-        <v>2065920000000</v>
+        <v>2071062000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7406310176270182</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D442" t="n">
-        <v>1530084431936.01</v>
+        <v>1538336180643.244</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B443" t="n">
-        <v>2073320000000</v>
+        <v>2088226000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7193209610128039</v>
       </c>
       <c r="D443" t="n">
-        <v>1540013369976.974</v>
+        <v>1502104733131.923</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B444" t="n">
-        <v>2087740000000</v>
+        <v>2088608000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7193209610128039</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D444" t="n">
-        <v>1501755143144.871</v>
+        <v>1508564824846.515</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B445" t="n">
-        <v>2087960000000</v>
+        <v>2096096000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7078142695356738</v>
       </c>
       <c r="D445" t="n">
-        <v>1508096785843.265</v>
+        <v>1483646659116.648</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B446" t="n">
-        <v>2095390000000</v>
+        <v>2097660000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7078142695356738</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D446" t="n">
-        <v>1483146942242.356</v>
+        <v>1534498902706.657</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B447" t="n">
-        <v>2097020000000</v>
+        <v>2107869000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7052186177715092</v>
       </c>
       <c r="D447" t="n">
-        <v>1534030724213.606</v>
+        <v>1486508462623.413</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B448" t="n">
-        <v>2107230000000</v>
+        <v>2117724000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7052186177715092</v>
+        <v>0.7275902211874272</v>
       </c>
       <c r="D448" t="n">
-        <v>1486057827926.657</v>
+        <v>1540835273573.923</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B449" t="n">
-        <v>2118150000000</v>
+        <v>2130492000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7275902211874272</v>
+        <v>0.7094714437743881</v>
       </c>
       <c r="D449" t="n">
-        <v>1541145227008.149</v>
+        <v>1511523235189.784</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B450" t="n">
-        <v>2130360000000</v>
+        <v>2145779000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7094714437743881</v>
+        <v>0.7098743522396536</v>
       </c>
       <c r="D450" t="n">
-        <v>1511429584959.205</v>
+        <v>1523233477674.452</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B451" t="n">
-        <v>2144250000000</v>
+        <v>2146025000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7098743522396536</v>
+        <v>0.7049203440011278</v>
       </c>
       <c r="D451" t="n">
-        <v>1522148079789.877</v>
+        <v>1512776681235.02</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B452" t="n">
-        <v>2147360000000</v>
+        <v>2145795000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.7049203440011278</v>
+        <v>0.6937699458859442</v>
       </c>
       <c r="D452" t="n">
-        <v>1513717749894.262</v>
+        <v>1488688081032.33</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B453" t="n">
-        <v>2145170000000</v>
+        <v>2144720000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.6937699458859442</v>
+        <v>0.7023458350891979</v>
       </c>
       <c r="D453" t="n">
-        <v>1488254474816.151</v>
+        <v>1506335159432.505</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B454" t="n">
-        <v>2146470000000</v>
+        <v>2120778000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.7023458350891979</v>
+        <v>0.6845564074479736</v>
       </c>
       <c r="D454" t="n">
-        <v>1507564264643.911</v>
+        <v>1451792168674.699</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B455" t="n">
-        <v>2124300000000</v>
+        <v>2127611000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.6845564074479736</v>
+        <v>0.6738998584810297</v>
       </c>
       <c r="D455" t="n">
-        <v>1454203176341.73</v>
+        <v>1433796751802.682</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B456" t="n">
-        <v>2126860000000</v>
+        <v>2134296000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6738998584810297</v>
+        <v>0.6751282743721306</v>
       </c>
       <c r="D456" t="n">
-        <v>1433290653008.963</v>
+        <v>1440923575479.341</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B457" t="n">
-        <v>2132480000000</v>
+        <v>2144977000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6751282743721306</v>
+        <v>0.6892748828232699</v>
       </c>
       <c r="D457" t="n">
-        <v>1439697542533.081</v>
+        <v>1478478770333.609</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B458" t="n">
-        <v>2143460000000</v>
+        <v>2153619000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6892748828232699</v>
+        <v>0.6764526821348847</v>
       </c>
       <c r="D458" t="n">
-        <v>1477433140336.366</v>
+        <v>1456821348846.648</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B459" t="n">
-        <v>2152460000000</v>
+        <v>2159190000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6764526821348847</v>
+        <v>0.7019514249613926</v>
       </c>
       <c r="D459" t="n">
-        <v>1456037340188.054</v>
+        <v>1515646497262.389</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B460" t="n">
-        <v>2158240000000</v>
+        <v>2168139000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.7019514249613926</v>
+        <v>0.6690305746972637</v>
       </c>
       <c r="D460" t="n">
-        <v>1514979643408.676</v>
+        <v>1450551281193.551</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B461" t="n">
-        <v>2169160000000</v>
+        <v>2179429000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6690305746972637</v>
+        <v>0.6512112529304506</v>
       </c>
       <c r="D461" t="n">
-        <v>1451234361410.316</v>
+        <v>1419268689762.959</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B462" t="n">
-        <v>2179370000000</v>
+        <v>2240876000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6512112529304506</v>
+        <v>0.6160290765724142</v>
       </c>
       <c r="D462" t="n">
-        <v>1419230268299.036</v>
+        <v>1380444772993.285</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B463" t="n">
-        <v>2240450000000</v>
+        <v>2306773000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.6160290765724142</v>
+        <v>0.6506011554676522</v>
       </c>
       <c r="D463" t="n">
-        <v>1380182344606.666</v>
+        <v>1500789179201.583</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B464" t="n">
-        <v>2308210000000</v>
+        <v>2313500000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6506011554676522</v>
+        <v>0.6669779230307477</v>
       </c>
       <c r="D464" t="n">
-        <v>1501724093061.99</v>
+        <v>1543053424931.635</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B465" t="n">
-        <v>2313050000000</v>
+        <v>2326139000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6669779230307477</v>
+        <v>0.6903836461921891</v>
       </c>
       <c r="D465" t="n">
-        <v>1542753284866.271</v>
+        <v>1605928324369.853</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B466" t="n">
-        <v>2328290000000</v>
+        <v>2352750000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.6903836461921891</v>
+        <v>0.7144388083160678</v>
       </c>
       <c r="D466" t="n">
-        <v>1607413339592.812</v>
+        <v>1680895906265.628</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B467" t="n">
-        <v>2357680000000</v>
+        <v>2379316000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7144388083160678</v>
+        <v>0.7377024993360677</v>
       </c>
       <c r="D467" t="n">
-        <v>1684418089590.627</v>
+        <v>1755227359910.295</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B468" t="n">
-        <v>2377970000000</v>
+        <v>2394341000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7377024993360677</v>
+        <v>0.7162092476938062</v>
       </c>
       <c r="D468" t="n">
-        <v>1754234412346.189</v>
+        <v>1714849166332.436</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B469" t="n">
-        <v>2390620000000</v>
+        <v>2406686000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7162092476938062</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="D469" t="n">
-        <v>1712184151721.767</v>
+        <v>1691870650263.62</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B470" t="n">
-        <v>2403890000000</v>
+        <v>2422093000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7029876977152899</v>
+        <v>0.7344840249724569</v>
       </c>
       <c r="D470" t="n">
-        <v>1689905096660.808</v>
+        <v>1778988615497.613</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B471" t="n">
-        <v>2420220000000</v>
+        <v>2432541000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7344840249724569</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D471" t="n">
-        <v>1777612926918.84</v>
+        <v>1871905348210.85</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B472" t="n">
-        <v>2431700000000</v>
+        <v>2445355000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D472" t="n">
-        <v>1871258176221.624</v>
+        <v>1869823367487.383</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B473" t="n">
-        <v>2447500000000</v>
+        <v>2456982000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7710694733595498</v>
       </c>
       <c r="D473" t="n">
-        <v>1871463526533.109</v>
+        <v>1894503816793.893</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B474" t="n">
-        <v>2457230000000</v>
+        <v>2460631000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7710694733595498</v>
+        <v>0.7597052343690648</v>
       </c>
       <c r="D474" t="n">
-        <v>1894695042023.287</v>
+        <v>1869354250550.786</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B475" t="n">
-        <v>2461270000000</v>
+        <v>2468677000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7597052343690648</v>
+        <v>0.7714263673532361</v>
       </c>
       <c r="D475" t="n">
-        <v>1869839702195.548</v>
+        <v>1904402530278.485</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B476" t="n">
-        <v>2470370000000</v>
+        <v>2474575000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7714263673532361</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D476" t="n">
-        <v>1905708555118.414</v>
+        <v>1914712937171.154</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B477" t="n">
-        <v>2474230000000</v>
+        <v>2505723000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7502438292445045</v>
       </c>
       <c r="D477" t="n">
-        <v>1914445991952.956</v>
+        <v>1879903218546.028</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B478" t="n">
-        <v>2508270000000</v>
+        <v>2536103000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7502438292445045</v>
+        <v>0.7346998751010212</v>
       </c>
       <c r="D478" t="n">
-        <v>1881814089579.113</v>
+        <v>1863274557343.325</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B479" t="n">
-        <v>2541620000000</v>
+        <v>2547798000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7346998751010212</v>
+        <v>0.7317483663717721</v>
       </c>
       <c r="D479" t="n">
-        <v>1867327896554.258</v>
+        <v>1864347024345.268</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B480" t="n">
-        <v>2546150000000</v>
+        <v>2586119000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7317483663717721</v>
+        <v>0.7232592956900978</v>
       </c>
       <c r="D480" t="n">
-        <v>1863141103037.488</v>
+        <v>1870434606510.78</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B481" t="n">
-        <v>2580300000000</v>
+        <v>2600986000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7232592956900978</v>
+        <v>0.7523888345496953</v>
       </c>
       <c r="D481" t="n">
-        <v>1866225960669.159</v>
+        <v>1956952825220.074</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B482" t="n">
-        <v>2596780000000</v>
+        <v>2620281000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7523888345496953</v>
+        <v>0.7129565595568262</v>
       </c>
       <c r="D482" t="n">
-        <v>1953788277781.958</v>
+        <v>1868146526832.12</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B483" t="n">
-        <v>2617810000000</v>
+        <v>2658542000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.7129565595568262</v>
+        <v>0.726907951646083</v>
       </c>
       <c r="D483" t="n">
-        <v>1866384811173.455</v>
+        <v>1932515319585.081</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B484" t="n">
-        <v>2658280000000</v>
+        <v>2657176000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.726907951646083</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D484" t="n">
-        <v>1932324869701.75</v>
+        <v>1878659502262.443</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B485" t="n">
-        <v>2660780000000</v>
+        <v>2667865000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.7264115993404182</v>
       </c>
       <c r="D485" t="n">
-        <v>1881207579185.52</v>
+        <v>1937968081474.325</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B486" t="n">
-        <v>2668500000000</v>
+        <v>2688610000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7264115993404182</v>
+        <v>0.7486542939067027</v>
       </c>
       <c r="D486" t="n">
-        <v>1938429352839.906</v>
+        <v>2012839421140.5</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B487" t="n">
-        <v>2690630000000</v>
+        <v>2705320000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7486542939067027</v>
+        <v>0.7064142413111049</v>
       </c>
       <c r="D487" t="n">
-        <v>2014351702814.191</v>
+        <v>1911076575303.758</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B488" t="n">
-        <v>2707430000000</v>
+        <v>2729667000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7064142413111049</v>
+        <v>0.7179111656723597</v>
       </c>
       <c r="D488" t="n">
-        <v>1912567109352.925</v>
+        <v>1959658417867.373</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B489" t="n">
-        <v>2729080000000</v>
+        <v>2752207000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7179111656723597</v>
+        <v>0.6904170118751727</v>
       </c>
       <c r="D489" t="n">
-        <v>1959237004013.123</v>
+        <v>1900170533001.933</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B490" t="n">
-        <v>2754890000000</v>
+        <v>2765710000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.6904170118751727</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D490" t="n">
-        <v>1902022921844.794</v>
+        <v>1934198195678.02</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B491" t="n">
-        <v>2771400000000</v>
+        <v>2774212000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.6845189201029517</v>
       </c>
       <c r="D491" t="n">
-        <v>1938177494929.716</v>
+        <v>1899000602376.65</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B492" t="n">
-        <v>2773386000000</v>
+        <v>2773541000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6845189201029517</v>
+        <v>0.6402048655569782</v>
       </c>
       <c r="D492" t="n">
-        <v>1898435189748.645</v>
+        <v>1775634443021.767</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B493" t="n">
-        <v>2768622000000</v>
+        <v>2792938000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.6402048655569782</v>
+        <v>0.6400860275621043</v>
       </c>
       <c r="D493" t="n">
-        <v>1772485275288.092</v>
+        <v>1787720589647.249</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B494" t="n">
-        <v>2790928000000</v>
+        <v>2809906000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6400860275621043</v>
+        <v>0.6789788158609451</v>
       </c>
       <c r="D494" t="n">
-        <v>1786434016731.849</v>
+        <v>1907866648560.565</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B495" t="n">
-        <v>2810152000000</v>
+        <v>2828132000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6789788158609451</v>
+        <v>0.6818491749624983</v>
       </c>
       <c r="D495" t="n">
-        <v>1908033677349.267</v>
+        <v>1928359470885.04</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B496" t="n">
-        <v>2829079000000</v>
+        <v>2846999000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.6818491749624983</v>
+        <v>0.7056167090036692</v>
       </c>
       <c r="D496" t="n">
-        <v>1929005182053.73</v>
+        <v>2008890064916.737</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B497" t="n">
-        <v>2852199000000</v>
+        <v>2851089000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7056167090036692</v>
+        <v>0.6730833950326446</v>
       </c>
       <c r="D497" t="n">
-        <v>2012559271803.556</v>
+        <v>1919020663660.228</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B498" t="n">
-        <v>2851195000000</v>
+        <v>2867193000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.6730833950326446</v>
+        <v>0.6686726847208291</v>
       </c>
       <c r="D498" t="n">
-        <v>1919092010500.101</v>
+        <v>1917213640922.768</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B499" t="n">
-        <v>2870550000000</v>
+        <v>2876657000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6686726847208291</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D499" t="n">
-        <v>1919458375125.376</v>
+        <v>1903684071206.406</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B500" t="n">
-        <v>2876660000000</v>
+        <v>2879660000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.661769571835087</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="D500" t="n">
-        <v>1903686056515.121</v>
+        <v>1872949593495.935</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B501" t="n">
-        <v>2886600000000</v>
+        <v>2867780000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.6663557006730193</v>
       </c>
       <c r="D501" t="n">
-        <v>1877463414634.146</v>
+        <v>1910961551276.071</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -458,6994 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B2" t="n">
-        <v>71159000000</v>
+        <v>72996000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B3" t="n">
-        <v>71681000000</v>
+        <v>73612000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B4" t="n">
-        <v>72407000000</v>
+        <v>74469000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.090037061260083</v>
+        <v>1.062360599034121</v>
       </c>
       <c r="D4" t="n">
-        <v>78926313494.65883</v>
+        <v>79112931449.47195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B5" t="n">
-        <v>72996000000</v>
+        <v>75818000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.073076487325325</v>
+        <v>1.050640901981938</v>
       </c>
       <c r="D5" t="n">
-        <v>78330291268.79942</v>
+        <v>79657491906.46661</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B6" t="n">
-        <v>73612000000</v>
+        <v>75986000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.049538225221205</v>
+        <v>1.023227269244114</v>
       </c>
       <c r="D6" t="n">
-        <v>77258607834.98337</v>
+        <v>77750947280.78325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B7" t="n">
-        <v>74469000000</v>
+        <v>76398000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1.062360599034121</v>
+        <v>0.9930486889686798</v>
       </c>
       <c r="D7" t="n">
-        <v>79112931449.47195</v>
+        <v>75866933739.82919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B8" t="n">
-        <v>75818000000</v>
+        <v>76839000000</v>
       </c>
       <c r="C8" t="n">
-        <v>1.050640901981938</v>
+        <v>0.9654373617578175</v>
       </c>
       <c r="D8" t="n">
-        <v>79657491906.46661</v>
+        <v>74183241440.10893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B9" t="n">
-        <v>75986000000</v>
+        <v>77716000000</v>
       </c>
       <c r="C9" t="n">
-        <v>1.023227269244114</v>
+        <v>0.9494872678552291</v>
       </c>
       <c r="D9" t="n">
-        <v>77750947280.78325</v>
+        <v>73790352508.63698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B10" t="n">
-        <v>76398000000</v>
+        <v>77971000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9930486889686798</v>
+        <v>0.9358038029681562</v>
       </c>
       <c r="D10" t="n">
-        <v>75866933739.82919</v>
+        <v>72965558321.23012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B11" t="n">
-        <v>76839000000</v>
+        <v>78867000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9654373617578175</v>
+        <v>0.9554748892695373</v>
       </c>
       <c r="D11" t="n">
-        <v>74183241440.10893</v>
+        <v>75355438092.0206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B12" t="n">
-        <v>77716000000</v>
+        <v>79896000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9494872678552291</v>
+        <v>0.9800077920419547</v>
       </c>
       <c r="D12" t="n">
-        <v>73790352508.63698</v>
+        <v>78298702552.98401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B13" t="n">
-        <v>77971000000</v>
+        <v>80459000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9358038029681562</v>
+        <v>0.9691800454783859</v>
       </c>
       <c r="D13" t="n">
-        <v>72965558321.23012</v>
+        <v>77979257279.14545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B14" t="n">
-        <v>78867000000</v>
+        <v>81369000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9554748892695373</v>
+        <v>0.9542895678705817</v>
       </c>
       <c r="D14" t="n">
-        <v>75355438092.0206</v>
+        <v>77649587848.06137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B15" t="n">
-        <v>79896000000</v>
+        <v>83111000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9800077920419547</v>
+        <v>0.8649770556618704</v>
       </c>
       <c r="D15" t="n">
-        <v>78298702552.98401</v>
+        <v>71889108073.11371</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B16" t="n">
-        <v>80459000000</v>
+        <v>83602000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9691800454783859</v>
+        <v>0.8673779316051338</v>
       </c>
       <c r="D16" t="n">
-        <v>77979257279.14545</v>
+        <v>72514529838.0524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B17" t="n">
-        <v>81369000000</v>
+        <v>84753000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9542895678705817</v>
+        <v>0.8816787318229365</v>
       </c>
       <c r="D17" t="n">
-        <v>77649587848.06137</v>
+        <v>74724917558.18935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B18" t="n">
-        <v>83111000000</v>
+        <v>85713000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8649770556618704</v>
+        <v>0.8754267628869232</v>
       </c>
       <c r="D18" t="n">
-        <v>71889108073.11371</v>
+        <v>75035454127.32684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B19" t="n">
-        <v>83602000000</v>
+        <v>86532000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8673779316051338</v>
+        <v>0.880514228057711</v>
       </c>
       <c r="D19" t="n">
-        <v>72514529838.0524</v>
+        <v>76192657182.28984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B20" t="n">
-        <v>84753000000</v>
+        <v>87396000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8816787318229365</v>
+        <v>0.8775778696344384</v>
       </c>
       <c r="D20" t="n">
-        <v>74724917558.18935</v>
+        <v>76696795494.57138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B21" t="n">
-        <v>85713000000</v>
+        <v>88347000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8754267628869232</v>
+        <v>0.8973438380112031</v>
       </c>
       <c r="D21" t="n">
-        <v>75035454127.32684</v>
+        <v>79277636056.77576</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B22" t="n">
-        <v>86532000000</v>
+        <v>89071000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.880514228057711</v>
+        <v>0.9143274703151014</v>
       </c>
       <c r="D22" t="n">
-        <v>76192657182.28984</v>
+        <v>81440062108.4364</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B23" t="n">
-        <v>87396000000</v>
+        <v>90096000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8775778696344384</v>
+        <v>0.9153318329152906</v>
       </c>
       <c r="D23" t="n">
-        <v>76696795494.57138</v>
+        <v>82467736818.33603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B24" t="n">
-        <v>88347000000</v>
+        <v>91342000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8973438380112031</v>
+        <v>0.8987148458588554</v>
       </c>
       <c r="D24" t="n">
-        <v>79277636056.77576</v>
+        <v>82090411450.43958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B25" t="n">
-        <v>89071000000</v>
+        <v>92416000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9143274703151014</v>
+        <v>0.9180207135584059</v>
       </c>
       <c r="D25" t="n">
-        <v>81440062108.4364</v>
+        <v>84839802264.21364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B26" t="n">
-        <v>90096000000</v>
+        <v>93676000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9153318329152906</v>
+        <v>0.943841452455714</v>
       </c>
       <c r="D26" t="n">
-        <v>82467736818.33603</v>
+        <v>88415291900.24147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B27" t="n">
-        <v>91342000000</v>
+        <v>94512000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8987148458588554</v>
+        <v>0.9363296230835064</v>
       </c>
       <c r="D27" t="n">
-        <v>82090411450.43958</v>
+        <v>88494385336.86836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B28" t="n">
-        <v>92416000000</v>
+        <v>94904000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9180207135584059</v>
+        <v>0.9191175963721915</v>
       </c>
       <c r="D28" t="n">
-        <v>84839802264.21364</v>
+        <v>87227936366.10646</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B29" t="n">
-        <v>93676000000</v>
+        <v>95596000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.943841452455714</v>
+        <v>0.8991997041704909</v>
       </c>
       <c r="D29" t="n">
-        <v>88415291900.24147</v>
+        <v>85959894919.88225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B30" t="n">
-        <v>94512000000</v>
+        <v>96374000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9363296230835064</v>
+        <v>0.8608074299663646</v>
       </c>
       <c r="D30" t="n">
-        <v>88494385336.86836</v>
+        <v>82959455255.57843</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B31" t="n">
-        <v>94904000000</v>
+        <v>97560000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9191175963721915</v>
+        <v>0.8352823672877899</v>
       </c>
       <c r="D31" t="n">
-        <v>87227936366.10646</v>
+        <v>81490147752.59679</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B32" t="n">
-        <v>95596000000</v>
+        <v>98987000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8991997041704909</v>
+        <v>0.8490405408877293</v>
       </c>
       <c r="D32" t="n">
-        <v>85959894919.88225</v>
+        <v>84043976020.85365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B33" t="n">
-        <v>96374000000</v>
+        <v>100017000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8608074299663646</v>
+        <v>0.832639480976511</v>
       </c>
       <c r="D33" t="n">
-        <v>82959455255.57843</v>
+        <v>83278102968.8277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B34" t="n">
-        <v>97560000000</v>
+        <v>101110000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8352823672877899</v>
+        <v>0.8403360920838945</v>
       </c>
       <c r="D34" t="n">
-        <v>81490147752.59679</v>
+        <v>84966382270.60257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B35" t="n">
-        <v>98987000000</v>
+        <v>102721000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8490405408877293</v>
+        <v>0.8579272919317412</v>
       </c>
       <c r="D35" t="n">
-        <v>84043976020.85365</v>
+        <v>88127149354.52039</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B36" t="n">
-        <v>100017000000</v>
+        <v>104098000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.832639480976511</v>
+        <v>0.8254229952363601</v>
       </c>
       <c r="D36" t="n">
-        <v>83278102968.8277</v>
+        <v>85924882958.11461</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B37" t="n">
-        <v>101110000000</v>
+        <v>105967000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8403360920838945</v>
+        <v>0.8137358878260522</v>
       </c>
       <c r="D37" t="n">
-        <v>84966382270.60257</v>
+        <v>86229150825.26328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B38" t="n">
-        <v>102721000000</v>
+        <v>107266000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8579272919317412</v>
+        <v>0.7095217873529288</v>
       </c>
       <c r="D38" t="n">
-        <v>88127149354.52039</v>
+        <v>76107564042.19926</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B39" t="n">
-        <v>104098000000</v>
+        <v>108745000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8254229952363601</v>
+        <v>0.700525389138176</v>
       </c>
       <c r="D39" t="n">
-        <v>85924882958.11461</v>
+        <v>76178633441.83095</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B40" t="n">
-        <v>105967000000</v>
+        <v>109921000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8137358878260522</v>
+        <v>0.64649598336571</v>
       </c>
       <c r="D40" t="n">
-        <v>86229150825.26328</v>
+        <v>71063484987.54221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B41" t="n">
-        <v>107266000000</v>
+        <v>111426000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7095217873529288</v>
+        <v>0.6633059386875146</v>
       </c>
       <c r="D41" t="n">
-        <v>76107564042.19926</v>
+        <v>73909527524.19501</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B42" t="n">
-        <v>108745000000</v>
+        <v>111527000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.700525389138176</v>
+        <v>0.6680026809352395</v>
       </c>
       <c r="D42" t="n">
-        <v>76178633441.83095</v>
+        <v>74500334996.66446</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B43" t="n">
-        <v>109921000000</v>
+        <v>114424000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.64649598336571</v>
+        <v>0.7240081298583299</v>
       </c>
       <c r="D43" t="n">
-        <v>71063484987.54221</v>
+        <v>82843906250.90953</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B44" t="n">
-        <v>111426000000</v>
+        <v>115716000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6633059386875146</v>
+        <v>0.7039774528975021</v>
       </c>
       <c r="D44" t="n">
-        <v>73909527524.19501</v>
+        <v>81461454939.48735</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B45" t="n">
-        <v>111527000000</v>
+        <v>117171000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6680026809352395</v>
+        <v>0.7058159132437054</v>
       </c>
       <c r="D45" t="n">
-        <v>74500334996.66446</v>
+        <v>82701156370.67821</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B46" t="n">
-        <v>114424000000</v>
+        <v>117884000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7240081298583299</v>
+        <v>0.6999860247790153</v>
       </c>
       <c r="D46" t="n">
-        <v>82843906250.90953</v>
+        <v>82517152545.04944</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B47" t="n">
-        <v>115716000000</v>
+        <v>118880000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7039774528975021</v>
+        <v>0.6860122063112286</v>
       </c>
       <c r="D47" t="n">
-        <v>81461454939.48735</v>
+        <v>81553131086.27885</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B48" t="n">
-        <v>117171000000</v>
+        <v>119260000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7058159132437054</v>
+        <v>0.6823144058248198</v>
       </c>
       <c r="D48" t="n">
-        <v>82701156370.67821</v>
+        <v>81372816038.66801</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B49" t="n">
-        <v>117884000000</v>
+        <v>119603000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6999860247790153</v>
+        <v>0.7139797433665498</v>
       </c>
       <c r="D49" t="n">
-        <v>82517152545.04944</v>
+        <v>85394119245.86946</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B50" t="n">
-        <v>118880000000</v>
+        <v>119806000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6860122063112286</v>
+        <v>0.6995942500264639</v>
       </c>
       <c r="D50" t="n">
-        <v>81553131086.27885</v>
+        <v>83815588718.67053</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B51" t="n">
-        <v>119260000000</v>
+        <v>121533000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6823144058248198</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D51" t="n">
-        <v>81372816038.66801</v>
+        <v>86469580701.90038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B52" t="n">
-        <v>119603000000</v>
+        <v>123887000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7139797433665498</v>
+        <v>0.7407956090021808</v>
       </c>
       <c r="D52" t="n">
-        <v>85394119245.86946</v>
+        <v>91774945612.45317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B53" t="n">
-        <v>119806000000</v>
+        <v>124860000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6995942500264639</v>
+        <v>0.7157171537053905</v>
       </c>
       <c r="D53" t="n">
-        <v>83815588718.67053</v>
+        <v>89364443811.65506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B54" t="n">
-        <v>121533000000</v>
+        <v>125466000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.6734006688659887</v>
       </c>
       <c r="D54" t="n">
-        <v>86469580701.90038</v>
+        <v>84488888319.94014</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B55" t="n">
-        <v>123887000000</v>
+        <v>126349000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7407956090021808</v>
+        <v>0.5965163623394286</v>
       </c>
       <c r="D55" t="n">
-        <v>91774945612.45317</v>
+        <v>75369245865.22447</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B56" t="n">
-        <v>124860000000</v>
+        <v>127225000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7157171537053905</v>
+        <v>0.6090875682455973</v>
       </c>
       <c r="D56" t="n">
-        <v>89364443811.65506</v>
+        <v>77491165870.04611</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B57" t="n">
-        <v>125466000000</v>
+        <v>127635000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6734006688659887</v>
+        <v>0.6279829385827349</v>
       </c>
       <c r="D57" t="n">
-        <v>84488888319.94014</v>
+        <v>80152602366.00737</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B58" t="n">
-        <v>126349000000</v>
+        <v>128658000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5965163623394286</v>
+        <v>0.6413956646514849</v>
       </c>
       <c r="D58" t="n">
-        <v>75369245865.22447</v>
+        <v>82520683422.73074</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B59" t="n">
-        <v>127225000000</v>
+        <v>128693000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6090875682455973</v>
+        <v>0.6504064956044684</v>
       </c>
       <c r="D59" t="n">
-        <v>77491165870.04611</v>
+        <v>83702763138.82585</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B60" t="n">
-        <v>127635000000</v>
+        <v>130172000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6279829385827349</v>
+        <v>0.6649820322187385</v>
       </c>
       <c r="D60" t="n">
-        <v>80152602366.00737</v>
+        <v>86562041097.97763</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B61" t="n">
-        <v>128658000000</v>
+        <v>131854000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6413956646514849</v>
+        <v>0.6615068996194966</v>
       </c>
       <c r="D61" t="n">
-        <v>82520683422.73074</v>
+        <v>87222330742.42911</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B62" t="n">
-        <v>128693000000</v>
+        <v>133002000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6504064956044684</v>
+        <v>0.6769105572019712</v>
       </c>
       <c r="D62" t="n">
-        <v>83702763138.82585</v>
+        <v>90030457928.97658</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B63" t="n">
-        <v>130172000000</v>
+        <v>133229000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6649820322187385</v>
+        <v>0.7059155774806973</v>
       </c>
       <c r="D63" t="n">
-        <v>86562041097.97763</v>
+        <v>94048426472.17583</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B64" t="n">
-        <v>131854000000</v>
+        <v>133828000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6615068996194966</v>
+        <v>0.7025925517615565</v>
       </c>
       <c r="D64" t="n">
-        <v>87222330742.42911</v>
+        <v>94026556017.14558</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B65" t="n">
-        <v>133002000000</v>
+        <v>136015000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6769105572019712</v>
+        <v>0.7124029401752721</v>
       </c>
       <c r="D65" t="n">
-        <v>90030457928.97658</v>
+        <v>96897485907.93964</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B66" t="n">
-        <v>133229000000</v>
+        <v>137500000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7059155774806973</v>
+        <v>0.7207206947488037</v>
       </c>
       <c r="D66" t="n">
-        <v>94048426472.17583</v>
+        <v>99099095527.96051</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B67" t="n">
-        <v>133828000000</v>
+        <v>139415000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7025925517615565</v>
+        <v>0.6989097204056394</v>
       </c>
       <c r="D67" t="n">
-        <v>94026556017.14558</v>
+        <v>97438498670.35222</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B68" t="n">
-        <v>136015000000</v>
+        <v>140680000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7124029401752721</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D68" t="n">
-        <v>96897485907.93964</v>
+        <v>100092490213.7143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B69" t="n">
-        <v>137500000000</v>
+        <v>142162000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7207206947488037</v>
+        <v>0.7099751710323087</v>
       </c>
       <c r="D69" t="n">
-        <v>99099095527.96051</v>
+        <v>100931490264.2951</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B70" t="n">
-        <v>139415000000</v>
+        <v>143897000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6989097204056394</v>
+        <v>0.6687174223858975</v>
       </c>
       <c r="D70" t="n">
-        <v>97438498670.35222</v>
+        <v>96226430929.06349</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B71" t="n">
-        <v>140680000000</v>
+        <v>145973000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7114905474389702</v>
+        <v>0.7057162721644487</v>
       </c>
       <c r="D71" t="n">
-        <v>100092490213.7143</v>
+        <v>103015521396.6611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B72" t="n">
-        <v>142162000000</v>
+        <v>146592000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7099751710323087</v>
+        <v>0.7224389643467557</v>
       </c>
       <c r="D72" t="n">
-        <v>100931490264.2951</v>
+        <v>105903772661.5196</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B73" t="n">
-        <v>143897000000</v>
+        <v>147252000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6687174223858975</v>
+        <v>0.7090187030129318</v>
       </c>
       <c r="D73" t="n">
-        <v>96226430929.06349</v>
+        <v>104404422056.0602</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B74" t="n">
-        <v>145973000000</v>
+        <v>148183000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7057162721644487</v>
+        <v>0.7188039361272259</v>
       </c>
       <c r="D74" t="n">
-        <v>103015521396.6611</v>
+        <v>106514523667.1407</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B75" t="n">
-        <v>146592000000</v>
+        <v>150179000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7224389643467557</v>
+        <v>0.7416747124775601</v>
       </c>
       <c r="D75" t="n">
-        <v>105903772661.5196</v>
+        <v>111383966645.1675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B76" t="n">
-        <v>147252000000</v>
+        <v>151321000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7090187030129318</v>
+        <v>0.7579776809833542</v>
       </c>
       <c r="D76" t="n">
-        <v>104404422056.0602</v>
+        <v>114697940664.0821</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B77" t="n">
-        <v>148183000000</v>
+        <v>152842000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7188039361272259</v>
+        <v>0.8017317212763958</v>
       </c>
       <c r="D77" t="n">
-        <v>106514523667.1407</v>
+        <v>122538279743.3269</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B78" t="n">
-        <v>150179000000</v>
+        <v>155233000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7416747124775601</v>
+        <v>0.7907013145867962</v>
       </c>
       <c r="D78" t="n">
-        <v>111383966645.1675</v>
+        <v>122742937167.2521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B79" t="n">
-        <v>151321000000</v>
+        <v>156245000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7579776809833542</v>
+        <v>0.8037293104302308</v>
       </c>
       <c r="D79" t="n">
-        <v>114697940664.0821</v>
+        <v>125578686108.1714</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B80" t="n">
-        <v>152842000000</v>
+        <v>157947000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8017317212763958</v>
+        <v>0.803470955963155</v>
       </c>
       <c r="D80" t="n">
-        <v>122538279743.3269</v>
+        <v>126905827081.5124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B81" t="n">
-        <v>155233000000</v>
+        <v>160379000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7907013145867962</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D81" t="n">
-        <v>122742937167.2521</v>
+        <v>125975176718.6368</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B82" t="n">
-        <v>156245000000</v>
+        <v>163969000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8037293104302308</v>
+        <v>0.8196721109916694</v>
       </c>
       <c r="D82" t="n">
-        <v>125578686108.1714</v>
+        <v>134400816367.193</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B83" t="n">
-        <v>157947000000</v>
+        <v>167104000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.803470955963155</v>
+        <v>0.8749671963860984</v>
       </c>
       <c r="D83" t="n">
-        <v>126905827081.5124</v>
+        <v>146210518384.9026</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B84" t="n">
-        <v>160379000000</v>
+        <v>171100000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.8539709649871904</v>
       </c>
       <c r="D84" t="n">
-        <v>125975176718.6368</v>
+        <v>146114432109.3083</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B85" t="n">
-        <v>163969000000</v>
+        <v>175146000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8196721109916694</v>
+        <v>0.8895214453791269</v>
       </c>
       <c r="D85" t="n">
-        <v>134400816367.193</v>
+        <v>155796123072.3726</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B86" t="n">
-        <v>167104000000</v>
+        <v>178785000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8749671963860984</v>
+        <v>0.8005123342980495</v>
       </c>
       <c r="D86" t="n">
-        <v>146210518384.9026</v>
+        <v>143119597687.4768</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B87" t="n">
-        <v>171100000000</v>
+        <v>182050000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8539709649871904</v>
+        <v>0.8185315878911184</v>
       </c>
       <c r="D87" t="n">
-        <v>146114432109.3083</v>
+        <v>149013675575.5781</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B88" t="n">
-        <v>175146000000</v>
+        <v>185463000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8895214453791269</v>
+        <v>0.7940288963472376</v>
       </c>
       <c r="D88" t="n">
-        <v>155796123072.3726</v>
+        <v>147262981203.2477</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B89" t="n">
-        <v>178785000000</v>
+        <v>187851000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8005123342980495</v>
+        <v>0.750018756094043</v>
       </c>
       <c r="D89" t="n">
-        <v>143119597687.4768</v>
+        <v>140891773351.0221</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B90" t="n">
-        <v>182050000000</v>
+        <v>192873000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8185315878911184</v>
+        <v>0.755972157364011</v>
       </c>
       <c r="D90" t="n">
-        <v>149013675575.5781</v>
+        <v>145806617907.2689</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B91" t="n">
-        <v>185463000000</v>
+        <v>196146000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7940288963472376</v>
+        <v>0.7555152328681159</v>
       </c>
       <c r="D91" t="n">
-        <v>147262981203.2477</v>
+        <v>148191290866.1495</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B92" t="n">
-        <v>187851000000</v>
+        <v>199868000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.750018756094043</v>
+        <v>0.7645260114187923</v>
       </c>
       <c r="D92" t="n">
-        <v>140891773351.0221</v>
+        <v>152804284850.2512</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B93" t="n">
-        <v>192873000000</v>
+        <v>200107000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.755972157364011</v>
+        <v>0.7754943776657619</v>
       </c>
       <c r="D93" t="n">
-        <v>145806617907.2689</v>
+        <v>155181853431.5626</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B94" t="n">
-        <v>196146000000</v>
+        <v>201936000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7555152328681159</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D94" t="n">
-        <v>148191290866.1495</v>
+        <v>158120746021.1591</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B95" t="n">
-        <v>199868000000</v>
+        <v>203441000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7645260114187923</v>
+        <v>0.7824726134585289</v>
       </c>
       <c r="D95" t="n">
-        <v>152804284850.2512</v>
+        <v>159187010954.6166</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B96" t="n">
-        <v>200107000000</v>
+        <v>205222000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7754943776657619</v>
+        <v>0.7900142202559646</v>
       </c>
       <c r="D96" t="n">
-        <v>155181853431.5626</v>
+        <v>162128298309.3696</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B97" t="n">
-        <v>201936000000</v>
+        <v>207127000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.783024057231792</v>
+        <v>0.768698605099525</v>
       </c>
       <c r="D97" t="n">
-        <v>158120746021.1591</v>
+        <v>159218235978.4493</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B98" t="n">
-        <v>203441000000</v>
+        <v>209565000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.7606876674325853</v>
       </c>
       <c r="D98" t="n">
-        <v>159187010954.6166</v>
+        <v>159413511025.5097</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B99" t="n">
-        <v>205222000000</v>
+        <v>211691000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7900142202559646</v>
+        <v>0.753693101851772</v>
       </c>
       <c r="D99" t="n">
-        <v>162128298309.3696</v>
+        <v>159550046424.1035</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B100" t="n">
-        <v>207127000000</v>
+        <v>214181000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.768698605099525</v>
+        <v>0.7505253902889639</v>
       </c>
       <c r="D100" t="n">
-        <v>159218235978.4493</v>
+        <v>160748278617.4806</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B101" t="n">
-        <v>209565000000</v>
+        <v>215027000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7606876674325853</v>
+        <v>0.7695267469759658</v>
       </c>
       <c r="D101" t="n">
-        <v>159413511025.5097</v>
+        <v>165469027822.001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B102" t="n">
-        <v>211691000000</v>
+        <v>216615000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.753693101851772</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D102" t="n">
-        <v>159550046424.1035</v>
+        <v>171562655297.1113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B103" t="n">
-        <v>214181000000</v>
+        <v>216930000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7505253902889639</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D103" t="n">
-        <v>160748278617.4806</v>
+        <v>171812140496.2831</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B104" t="n">
-        <v>215027000000</v>
+        <v>219096000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7695267469759658</v>
+        <v>0.8145312372729494</v>
       </c>
       <c r="D104" t="n">
-        <v>165469027822.001</v>
+        <v>178460535961.5541</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B105" t="n">
-        <v>216615000000</v>
+        <v>221612000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7920165053071639</v>
+        <v>0.8259684207163319</v>
       </c>
       <c r="D105" t="n">
-        <v>171562655297.1113</v>
+        <v>183044513651.7878</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B106" t="n">
-        <v>216930000000</v>
+        <v>222945000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7920165053071639</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D106" t="n">
-        <v>171812140496.2831</v>
+        <v>175119783597.2071</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B107" t="n">
-        <v>219096000000</v>
+        <v>225259000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8145312372729494</v>
+        <v>0.7738740312770631</v>
       </c>
       <c r="D107" t="n">
-        <v>178460535961.5541</v>
+        <v>174322090411.44</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B108" t="n">
-        <v>221612000000</v>
+        <v>227094000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8259684207163319</v>
+        <v>0.771009993407479</v>
       </c>
       <c r="D108" t="n">
-        <v>183044513651.7878</v>
+        <v>175091743442.878</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B109" t="n">
-        <v>222945000000</v>
+        <v>224942000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D109" t="n">
-        <v>175119783597.2071</v>
+        <v>176134997481.8338</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B110" t="n">
-        <v>225259000000</v>
+        <v>224739000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7738740312770631</v>
+        <v>0.7849909541174906</v>
       </c>
       <c r="D110" t="n">
-        <v>174322090411.44</v>
+        <v>176418082037.4107</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B111" t="n">
-        <v>227094000000</v>
+        <v>225580000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.771009993407479</v>
+        <v>0.7750135567308878</v>
       </c>
       <c r="D111" t="n">
-        <v>175091743442.878</v>
+        <v>174827558127.3537</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B112" t="n">
-        <v>224942000000</v>
+        <v>225992000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.783024057231792</v>
+        <v>0.7819831030498662</v>
       </c>
       <c r="D112" t="n">
-        <v>176134997481.8338</v>
+        <v>176721925424.4453</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B113" t="n">
-        <v>224739000000</v>
+        <v>227444000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7849909541174906</v>
+        <v>0.7599939489281786</v>
       </c>
       <c r="D113" t="n">
-        <v>176418082037.4107</v>
+        <v>172856063720.0207</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B114" t="n">
-        <v>225580000000</v>
+        <v>228308000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7750135567308878</v>
+        <v>0.7675186358897425</v>
       </c>
       <c r="D114" t="n">
-        <v>174827558127.3537</v>
+        <v>175230644722.7153</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B115" t="n">
-        <v>225992000000</v>
+        <v>228924000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7819831030498662</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D115" t="n">
-        <v>176721925424.4453</v>
+        <v>177970924356.6819</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B116" t="n">
-        <v>227444000000</v>
+        <v>229742000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7599939489281786</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D116" t="n">
-        <v>172856063720.0207</v>
+        <v>180458719967.6582</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B117" t="n">
-        <v>228308000000</v>
+        <v>231055000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7675186358897425</v>
+        <v>0.7994883210786031</v>
       </c>
       <c r="D117" t="n">
-        <v>175230644722.7153</v>
+        <v>184725774026.8167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B118" t="n">
-        <v>228924000000</v>
+        <v>230570000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7774236181295188</v>
+        <v>0.7800312012480499</v>
       </c>
       <c r="D118" t="n">
-        <v>177970924356.6819</v>
+        <v>179851794071.7629</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B119" t="n">
-        <v>229742000000</v>
+        <v>230186000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7854842387010567</v>
+        <v>0.7845598619174643</v>
       </c>
       <c r="D119" t="n">
-        <v>180458719967.6582</v>
+        <v>180594696375.3334</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B120" t="n">
-        <v>231055000000</v>
+        <v>231685000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7994883210786031</v>
+        <v>0.7595321282090233</v>
       </c>
       <c r="D120" t="n">
-        <v>184725774026.8167</v>
+        <v>175972201124.1075</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B121" t="n">
-        <v>230570000000</v>
+        <v>231871000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7800312012480499</v>
+        <v>0.753012048192771</v>
       </c>
       <c r="D121" t="n">
-        <v>179851794071.7629</v>
+        <v>174601656626.506</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B122" t="n">
-        <v>230186000000</v>
+        <v>232831000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7845598619174643</v>
+        <v>0.7535227187099691</v>
       </c>
       <c r="D122" t="n">
-        <v>180594696375.3334</v>
+        <v>175443448119.9608</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B123" t="n">
-        <v>231685000000</v>
+        <v>231708000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7595321282090233</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D123" t="n">
-        <v>175972201124.1075</v>
+        <v>178305502116.1985</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B124" t="n">
-        <v>231871000000</v>
+        <v>233455000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.753012048192771</v>
+        <v>0.75642965204236</v>
       </c>
       <c r="D124" t="n">
-        <v>174601656626.506</v>
+        <v>176592284417.5492</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B125" t="n">
-        <v>232831000000</v>
+        <v>234636000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7535227187099691</v>
+        <v>0.7570022710068131</v>
       </c>
       <c r="D125" t="n">
-        <v>175443448119.9608</v>
+        <v>177619984859.9546</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B126" t="n">
-        <v>231708000000</v>
+        <v>234934000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.7483349547257352</v>
       </c>
       <c r="D126" t="n">
-        <v>178305502116.1985</v>
+        <v>175809324253.5359</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B127" t="n">
-        <v>233455000000</v>
+        <v>236713000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.75642965204236</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D127" t="n">
-        <v>176592284417.5492</v>
+        <v>176007881626.8867</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B128" t="n">
-        <v>234636000000</v>
+        <v>238887000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7570022710068131</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D128" t="n">
-        <v>177619984859.9546</v>
+        <v>170621384186.8438</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B129" t="n">
-        <v>234934000000</v>
+        <v>238735000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7483349547257352</v>
+        <v>0.7130124777183601</v>
       </c>
       <c r="D129" t="n">
-        <v>175809324253.5359</v>
+        <v>170221033868.0927</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B130" t="n">
-        <v>236713000000</v>
+        <v>238779000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.743549706297866</v>
+        <v>0.6965243435258063</v>
       </c>
       <c r="D130" t="n">
-        <v>176007881626.8867</v>
+        <v>166315386222.7485</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B131" t="n">
-        <v>238887000000</v>
+        <v>239956000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D131" t="n">
-        <v>170621384186.8438</v>
+        <v>162980370848.3326</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B132" t="n">
-        <v>238735000000</v>
+        <v>241001000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7130124777183601</v>
+        <v>0.6890374147316199</v>
       </c>
       <c r="D132" t="n">
-        <v>170221033868.0927</v>
+        <v>166058705987.7351</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B133" t="n">
-        <v>238779000000</v>
+        <v>242941000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6965243435258063</v>
+        <v>0.679671039217019</v>
       </c>
       <c r="D133" t="n">
-        <v>166315386222.7485</v>
+        <v>165119961938.4218</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B134" t="n">
-        <v>239956000000</v>
+        <v>244542000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6957973838018369</v>
       </c>
       <c r="D134" t="n">
-        <v>162980370848.3326</v>
+        <v>170151683829.6688</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B135" t="n">
-        <v>241001000000</v>
+        <v>245778000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6890374147316199</v>
+        <v>0.7055669230226487</v>
       </c>
       <c r="D135" t="n">
-        <v>166058705987.7351</v>
+        <v>173412827206.6606</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B136" t="n">
-        <v>242941000000</v>
+        <v>245850000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.679671039217019</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D136" t="n">
-        <v>165119961938.4218</v>
+        <v>173819287330.3167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B137" t="n">
-        <v>244542000000</v>
+        <v>246522000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6957973838018369</v>
+        <v>0.6761782405842179</v>
       </c>
       <c r="D137" t="n">
-        <v>170151683829.6688</v>
+        <v>166692812225.3026</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B138" t="n">
-        <v>245778000000</v>
+        <v>249827000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7055669230226487</v>
+        <v>0.6657789613848203</v>
       </c>
       <c r="D138" t="n">
-        <v>173412827206.6606</v>
+        <v>166329560585.8855</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B139" t="n">
-        <v>245850000000</v>
+        <v>250827000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.6898454746136865</v>
       </c>
       <c r="D139" t="n">
-        <v>173819287330.3167</v>
+        <v>173031870860.9272</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B140" t="n">
-        <v>246522000000</v>
+        <v>250151000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6761782405842179</v>
+        <v>0.6734006734006733</v>
       </c>
       <c r="D140" t="n">
-        <v>166692812225.3026</v>
+        <v>168451851851.8518</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B141" t="n">
-        <v>249827000000</v>
+        <v>252121000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6657789613848203</v>
+        <v>0.6471654154801968</v>
       </c>
       <c r="D141" t="n">
-        <v>166329560585.8855</v>
+        <v>163163991716.2827</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B142" t="n">
-        <v>250827000000</v>
+        <v>253450000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6898454746136865</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="D142" t="n">
-        <v>173031870860.9272</v>
+        <v>168921620901.093</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B143" t="n">
-        <v>250151000000</v>
+        <v>254478000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6734006734006733</v>
+        <v>0.6586747464102226</v>
       </c>
       <c r="D143" t="n">
-        <v>168451851851.8518</v>
+        <v>167618232116.9806</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B144" t="n">
-        <v>252121000000</v>
+        <v>255662000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6471654154801968</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D144" t="n">
-        <v>163163991716.2827</v>
+        <v>173612657884.0147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B145" t="n">
-        <v>253450000000</v>
+        <v>258513000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6664889362836577</v>
+        <v>0.7084159818645509</v>
       </c>
       <c r="D145" t="n">
-        <v>168921620901.093</v>
+        <v>183134740719.7506</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B146" t="n">
-        <v>254478000000</v>
+        <v>259889000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6586747464102226</v>
+        <v>0.7132667617689016</v>
       </c>
       <c r="D146" t="n">
-        <v>167618232116.9806</v>
+        <v>185370185449.3581</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B147" t="n">
-        <v>255662000000</v>
+        <v>263081000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6790710308298249</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D147" t="n">
-        <v>173612657884.0147</v>
+        <v>185242219405.7175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B148" t="n">
-        <v>258513000000</v>
+        <v>264823000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7084159818645509</v>
+        <v>0.7150007150007149</v>
       </c>
       <c r="D148" t="n">
-        <v>183134740719.7506</v>
+        <v>189348634348.6343</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B149" t="n">
-        <v>259889000000</v>
+        <v>266825000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7132667617689016</v>
+        <v>0.7370826269624825</v>
       </c>
       <c r="D149" t="n">
-        <v>185370185449.3581</v>
+        <v>196672071939.2644</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B150" t="n">
-        <v>263081000000</v>
+        <v>267811000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.728650539201399</v>
       </c>
       <c r="D150" t="n">
-        <v>185242219405.7175</v>
+        <v>195140629554.0659</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B151" t="n">
-        <v>264823000000</v>
+        <v>269074000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7150007150007149</v>
+        <v>0.7392622163081245</v>
       </c>
       <c r="D151" t="n">
-        <v>189348634348.6343</v>
+        <v>198916241590.8923</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B152" t="n">
-        <v>266825000000</v>
+        <v>271370000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7370826269624825</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D152" t="n">
-        <v>196672071939.2644</v>
+        <v>201567258411.9438</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B153" t="n">
-        <v>267811000000</v>
+        <v>271152000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.728650539201399</v>
+        <v>0.7397544015386892</v>
       </c>
       <c r="D153" t="n">
-        <v>195140629554.0659</v>
+        <v>200585885486.0186</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B154" t="n">
-        <v>269074000000</v>
+        <v>274934000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7392622163081245</v>
+        <v>0.7425007425007425</v>
       </c>
       <c r="D154" t="n">
-        <v>198916241590.8923</v>
+        <v>204138699138.6991</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B155" t="n">
-        <v>271370000000</v>
+        <v>277991000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7691124442393478</v>
       </c>
       <c r="D155" t="n">
-        <v>201567258411.9438</v>
+        <v>213806337486.5405</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B156" t="n">
-        <v>271152000000</v>
+        <v>280618000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7397544015386892</v>
+        <v>0.7753741180119407</v>
       </c>
       <c r="D156" t="n">
-        <v>200585885486.0186</v>
+        <v>217583934248.2748</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B157" t="n">
-        <v>274934000000</v>
+        <v>280403000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7425007425007425</v>
+        <v>0.7564868749527195</v>
       </c>
       <c r="D157" t="n">
-        <v>204138699138.6991</v>
+        <v>212121189197.3674</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B158" t="n">
-        <v>277991000000</v>
+        <v>281798000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7691124442393478</v>
+        <v>0.7388798581350673</v>
       </c>
       <c r="D158" t="n">
-        <v>213806337486.5405</v>
+        <v>208214866262.7457</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B159" t="n">
-        <v>280618000000</v>
+        <v>285117000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7753741180119407</v>
+        <v>0.7351319561861354</v>
       </c>
       <c r="D159" t="n">
-        <v>217583934248.2748</v>
+        <v>209598617951.9224</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B160" t="n">
-        <v>280403000000</v>
+        <v>286401000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7564868749527195</v>
+        <v>0.727749072119933</v>
       </c>
       <c r="D160" t="n">
-        <v>212121189197.3674</v>
+        <v>208428062004.2209</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B161" t="n">
-        <v>281798000000</v>
+        <v>288031000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7388798581350673</v>
+        <v>0.7183908045977012</v>
       </c>
       <c r="D161" t="n">
-        <v>208214866262.7457</v>
+        <v>206918821839.0805</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B162" t="n">
-        <v>285117000000</v>
+        <v>288176000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7351319561861354</v>
+        <v>0.709622480840193</v>
       </c>
       <c r="D162" t="n">
-        <v>209598617951.9224</v>
+        <v>204496168038.6035</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B163" t="n">
-        <v>286401000000</v>
+        <v>290343000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.727749072119933</v>
+        <v>0.7383343177790903</v>
       </c>
       <c r="D163" t="n">
-        <v>208428062004.2209</v>
+        <v>214370200826.9344</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B164" t="n">
-        <v>288031000000</v>
+        <v>292935000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7183908045977012</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D164" t="n">
-        <v>206918821839.0805</v>
+        <v>220185658448.5869</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B165" t="n">
-        <v>288176000000</v>
+        <v>296311000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.709622480840193</v>
+        <v>0.7553440592189742</v>
       </c>
       <c r="D165" t="n">
-        <v>204496168038.6035</v>
+        <v>223816753531.2335</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B166" t="n">
-        <v>290343000000</v>
+        <v>299249000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7383343177790903</v>
+        <v>0.76103500761035</v>
       </c>
       <c r="D166" t="n">
-        <v>214370200826.9344</v>
+        <v>227738964992.3896</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B167" t="n">
-        <v>292935000000</v>
+        <v>301591000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.751653638003608</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D167" t="n">
-        <v>220185658448.5869</v>
+        <v>224247899472.0797</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B168" t="n">
-        <v>296311000000</v>
+        <v>305907000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7553440592189742</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D168" t="n">
-        <v>223816753531.2335</v>
+        <v>227119311010.4685</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B169" t="n">
-        <v>299249000000</v>
+        <v>307042000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.76103500761035</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="D169" t="n">
-        <v>227738964992.3896</v>
+        <v>229135820895.5224</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B170" t="n">
-        <v>301591000000</v>
+        <v>309248000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.743549706297866</v>
+        <v>0.7640003056001222</v>
       </c>
       <c r="D170" t="n">
-        <v>224247899472.0797</v>
+        <v>236265566506.2266</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B171" t="n">
-        <v>305907000000</v>
+        <v>310928000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7424456158586383</v>
+        <v>0.7820442637053258</v>
       </c>
       <c r="D171" t="n">
-        <v>227119311010.4685</v>
+        <v>243159458825.3695</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B172" t="n">
-        <v>307042000000</v>
+        <v>312550000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7462686567164178</v>
+        <v>0.7871536523929471</v>
       </c>
       <c r="D172" t="n">
-        <v>229135820895.5224</v>
+        <v>246024874055.4156</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B173" t="n">
-        <v>309248000000</v>
+        <v>312639000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7640003056001222</v>
+        <v>0.7986582541330565</v>
       </c>
       <c r="D173" t="n">
-        <v>236265566506.2266</v>
+        <v>249691717913.9046</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B174" t="n">
-        <v>310928000000</v>
+        <v>315972000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7820442637053258</v>
+        <v>0.7877116975187081</v>
       </c>
       <c r="D174" t="n">
-        <v>243159458825.3695</v>
+        <v>248894840488.3812</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B175" t="n">
-        <v>312550000000</v>
+        <v>319512000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7871536523929471</v>
+        <v>0.7730364873222015</v>
       </c>
       <c r="D175" t="n">
-        <v>246024874055.4156</v>
+        <v>246994434137.2913</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B176" t="n">
-        <v>312639000000</v>
+        <v>321169000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7986582541330565</v>
+        <v>0.7901390644753477</v>
       </c>
       <c r="D176" t="n">
-        <v>249691717913.9046</v>
+        <v>253768173198.4829</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B177" t="n">
-        <v>315972000000</v>
+        <v>320134000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7877116975187081</v>
+        <v>0.7912644405760405</v>
       </c>
       <c r="D177" t="n">
-        <v>248894840488.3812</v>
+        <v>253310650419.3701</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B178" t="n">
-        <v>319512000000</v>
+        <v>326787000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7730364873222015</v>
+        <v>0.7917656373713381</v>
       </c>
       <c r="D178" t="n">
-        <v>246994434137.2913</v>
+        <v>258738717339.6674</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B179" t="n">
-        <v>321169000000</v>
+        <v>330167000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7901390644753477</v>
+        <v>0.8167265599477296</v>
       </c>
       <c r="D179" t="n">
-        <v>253768173198.4829</v>
+        <v>269656158118.262</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B180" t="n">
-        <v>320134000000</v>
+        <v>332215000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7912644405760405</v>
+        <v>0.794533608771651</v>
       </c>
       <c r="D180" t="n">
-        <v>253310650419.3701</v>
+        <v>263955982838.074</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B181" t="n">
-        <v>326787000000</v>
+        <v>334061000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7917656373713381</v>
+        <v>0.7627183281214248</v>
       </c>
       <c r="D181" t="n">
-        <v>258738717339.6674</v>
+        <v>254794447410.5713</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B182" t="n">
-        <v>330167000000</v>
+        <v>336884000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.8167265599477296</v>
+        <v>0.7789375292101574</v>
       </c>
       <c r="D182" t="n">
-        <v>269656158118.262</v>
+        <v>262411590590.4347</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B183" t="n">
-        <v>332215000000</v>
+        <v>337800000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.794533608771651</v>
+        <v>0.7855459544383347</v>
       </c>
       <c r="D183" t="n">
-        <v>263955982838.074</v>
+        <v>265357423409.2695</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B184" t="n">
-        <v>334061000000</v>
+        <v>341418000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7627183281214248</v>
+        <v>0.7805182641273807</v>
       </c>
       <c r="D184" t="n">
-        <v>254794447410.5713</v>
+        <v>266482984701.8421</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B185" t="n">
-        <v>336884000000</v>
+        <v>343454000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7789375292101574</v>
+        <v>0.7600516835144789</v>
       </c>
       <c r="D185" t="n">
-        <v>262411590590.4347</v>
+        <v>261042790909.7819</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B186" t="n">
-        <v>337800000000</v>
+        <v>345110000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7855459544383347</v>
+        <v>0.75431847325941</v>
       </c>
       <c r="D186" t="n">
-        <v>265357423409.2695</v>
+        <v>260322848306.555</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B187" t="n">
-        <v>341418000000</v>
+        <v>346119000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7805182641273807</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D187" t="n">
-        <v>266482984701.8421</v>
+        <v>258567906768.2654</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B188" t="n">
-        <v>343454000000</v>
+        <v>347534000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7600516835144789</v>
+        <v>0.7322252324815114</v>
       </c>
       <c r="D188" t="n">
-        <v>261042790909.7819</v>
+        <v>254473163945.2296</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B189" t="n">
-        <v>345110000000</v>
+        <v>347261000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.75431847325941</v>
+        <v>0.7246376811594204</v>
       </c>
       <c r="D189" t="n">
-        <v>260322848306.555</v>
+        <v>251638405797.1015</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B190" t="n">
-        <v>346119000000</v>
+        <v>350477000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7470491558344539</v>
+        <v>0.7011147724882564</v>
       </c>
       <c r="D190" t="n">
-        <v>258567906768.2654</v>
+        <v>245724602117.3666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B191" t="n">
-        <v>347534000000</v>
+        <v>351809000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7322252324815114</v>
+        <v>0.681384573453257</v>
       </c>
       <c r="D191" t="n">
-        <v>254473163945.2296</v>
+        <v>239717225402.0169</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B192" t="n">
-        <v>347261000000</v>
+        <v>354102000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7246376811594204</v>
+        <v>0.6503219093451258</v>
       </c>
       <c r="D192" t="n">
-        <v>251638405797.1015</v>
+        <v>230280288742.9277</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B193" t="n">
-        <v>350477000000</v>
+        <v>355662000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7011147724882564</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D193" t="n">
-        <v>245724602117.3666</v>
+        <v>244172731017.4379</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B194" t="n">
-        <v>351809000000</v>
+        <v>357456000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.681384573453257</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D194" t="n">
-        <v>239717225402.0169</v>
+        <v>242787475378.6593</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B195" t="n">
-        <v>354102000000</v>
+        <v>358460000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.6503219093451258</v>
+        <v>0.6624710168930109</v>
       </c>
       <c r="D195" t="n">
-        <v>230280288742.9277</v>
+        <v>237469360715.4687</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B196" t="n">
-        <v>355662000000</v>
+        <v>361075000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.686530275985171</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D196" t="n">
-        <v>244172731017.4379</v>
+        <v>234418619749.3995</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B197" t="n">
-        <v>357456000000</v>
+        <v>362734000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6792094002580996</v>
+        <v>0.6229365227683299</v>
       </c>
       <c r="D197" t="n">
-        <v>242787475378.6593</v>
+        <v>225960256649.8474</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B198" t="n">
-        <v>358460000000</v>
+        <v>366181000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6624710168930109</v>
+        <v>0.6206168931918327</v>
       </c>
       <c r="D198" t="n">
-        <v>237469360715.4687</v>
+        <v>227258114565.8785</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B199" t="n">
-        <v>361075000000</v>
+        <v>371148000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6060238773407672</v>
       </c>
       <c r="D199" t="n">
-        <v>234418619749.3995</v>
+        <v>224924550027.2711</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B200" t="n">
-        <v>362734000000</v>
+        <v>373883000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6229365227683299</v>
+        <v>0.5656748500961647</v>
       </c>
       <c r="D200" t="n">
-        <v>225960256649.8474</v>
+        <v>211496209978.5043</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B201" t="n">
-        <v>366181000000</v>
+        <v>376207000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.6206168931918327</v>
+        <v>0.5935774915415207</v>
       </c>
       <c r="D201" t="n">
-        <v>227258114565.8785</v>
+        <v>223308007360.3609</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B202" t="n">
-        <v>371148000000</v>
+        <v>377701000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6060238773407672</v>
+        <v>0.623208276205908</v>
       </c>
       <c r="D202" t="n">
-        <v>224924550027.2711</v>
+        <v>235386389131.2477</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B203" t="n">
-        <v>373883000000</v>
+        <v>378780000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.5656748500961647</v>
+        <v>0.6285355122564426</v>
       </c>
       <c r="D203" t="n">
-        <v>211496209978.5043</v>
+        <v>238076681332.4953</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B204" t="n">
-        <v>376207000000</v>
+        <v>382072000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5935774915415207</v>
+        <v>0.611321677466683</v>
       </c>
       <c r="D204" t="n">
-        <v>223308007360.3609</v>
+        <v>233568895953.0505</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B205" t="n">
-        <v>377701000000</v>
+        <v>385148000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.623208276205908</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D205" t="n">
-        <v>235386389131.2477</v>
+        <v>242735236654.6921</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B206" t="n">
-        <v>378780000000</v>
+        <v>387506000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6285355122564426</v>
+        <v>0.6187353050365053</v>
       </c>
       <c r="D206" t="n">
-        <v>238076681332.4953</v>
+        <v>239763643113.476</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B207" t="n">
-        <v>382072000000</v>
+        <v>391548000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.611321677466683</v>
+        <v>0.6338742393509128</v>
       </c>
       <c r="D207" t="n">
-        <v>233568895953.0505</v>
+        <v>248192190669.3712</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B208" t="n">
-        <v>385148000000</v>
+        <v>395759000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6302388605281402</v>
+        <v>0.6612007405448295</v>
       </c>
       <c r="D208" t="n">
-        <v>242735236654.6921</v>
+        <v>261676143877.2812</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B209" t="n">
-        <v>387506000000</v>
+        <v>399895000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6187353050365053</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D209" t="n">
-        <v>239763643113.476</v>
+        <v>259621502304.7458</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B210" t="n">
-        <v>391548000000</v>
+        <v>403122000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6338742393509128</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D210" t="n">
-        <v>248192190669.3712</v>
+        <v>269124774684.5584</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B211" t="n">
-        <v>395759000000</v>
+        <v>405535000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6612007405448295</v>
+        <v>0.6514233600416911</v>
       </c>
       <c r="D211" t="n">
-        <v>261676143877.2812</v>
+        <v>264174972314.5072</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B212" t="n">
-        <v>399895000000</v>
+        <v>407895000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6492241771083556</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D212" t="n">
-        <v>259621502304.7458</v>
+        <v>260685754457.7235</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B213" t="n">
-        <v>403122000000</v>
+        <v>411004000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6676013084985647</v>
+        <v>0.6525285481239804</v>
       </c>
       <c r="D213" t="n">
-        <v>269124774684.5584</v>
+        <v>268191843393.1484</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B214" t="n">
-        <v>405535000000</v>
+        <v>414489000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.6514233600416911</v>
+        <v>0.6388551715326136</v>
       </c>
       <c r="D214" t="n">
-        <v>264174972314.5072</v>
+        <v>264798441193.3815</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B215" t="n">
-        <v>407895000000</v>
+        <v>417772000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.6352029473416757</v>
       </c>
       <c r="D215" t="n">
-        <v>260685754457.7235</v>
+        <v>265370005716.8265</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B216" t="n">
-        <v>411004000000</v>
+        <v>417806000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6525285481239804</v>
+        <v>0.6535520554212143</v>
       </c>
       <c r="D216" t="n">
-        <v>268191843393.1484</v>
+        <v>273057970067.3159</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B217" t="n">
-        <v>414489000000</v>
+        <v>418845000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6388551715326136</v>
+        <v>0.6369832473405949</v>
       </c>
       <c r="D217" t="n">
-        <v>264798441193.3815</v>
+        <v>266797248232.3715</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B218" t="n">
-        <v>417772000000</v>
+        <v>420631000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.6352029473416757</v>
+        <v>0.6178178672927221</v>
       </c>
       <c r="D218" t="n">
-        <v>265370005716.8265</v>
+        <v>259873347337.205</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B219" t="n">
-        <v>417806000000</v>
+        <v>422707000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6535520554212143</v>
+        <v>0.6076810889645115</v>
       </c>
       <c r="D219" t="n">
-        <v>273057970067.3159</v>
+        <v>256871050072.9218</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B220" t="n">
-        <v>418845000000</v>
+        <v>426368000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6369832473405949</v>
+        <v>0.5838052425710782</v>
       </c>
       <c r="D220" t="n">
-        <v>266797248232.3715</v>
+        <v>248915873664.5455</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B221" t="n">
-        <v>420631000000</v>
+        <v>429640000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6178178672927221</v>
+        <v>0.5727048851726705</v>
       </c>
       <c r="D221" t="n">
-        <v>259873347337.205</v>
+        <v>246056926865.5862</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B222" t="n">
-        <v>422707000000</v>
+        <v>431970000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6076810889645115</v>
+        <v>0.5969080164746613</v>
       </c>
       <c r="D222" t="n">
-        <v>256871050072.9218</v>
+        <v>257846355876.5594</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B223" t="n">
-        <v>426368000000</v>
+        <v>434974000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.5838052425710782</v>
+        <v>0.5809225049378413</v>
       </c>
       <c r="D223" t="n">
-        <v>248915873664.5455</v>
+        <v>252686185662.8326</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B224" t="n">
-        <v>429640000000</v>
+        <v>438250000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.5727048851726705</v>
+        <v>0.576468553640399</v>
       </c>
       <c r="D224" t="n">
-        <v>246056926865.5862</v>
+        <v>252637343632.9048</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B225" t="n">
-        <v>431970000000</v>
+        <v>439943000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5969080164746613</v>
+        <v>0.5429176393941039</v>
       </c>
       <c r="D225" t="n">
-        <v>257846355876.5594</v>
+        <v>238852815027.9602</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B226" t="n">
-        <v>434974000000</v>
+        <v>442251000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5809225049378413</v>
+        <v>0.5178127589063795</v>
       </c>
       <c r="D226" t="n">
-        <v>252686185662.8326</v>
+        <v>229003210439.1052</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B227" t="n">
-        <v>438250000000</v>
+        <v>436574000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.576468553640399</v>
+        <v>0.5281504172388296</v>
       </c>
       <c r="D227" t="n">
-        <v>252637343632.9048</v>
+        <v>230576740255.6248</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B228" t="n">
-        <v>439943000000</v>
+        <v>438371000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5429176393941039</v>
+        <v>0.5586280096084018</v>
       </c>
       <c r="D228" t="n">
-        <v>238852815027.9602</v>
+        <v>244886319200.0447</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B229" t="n">
-        <v>442251000000</v>
+        <v>443319000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5178127589063795</v>
+        <v>0.5509338328466752</v>
       </c>
       <c r="D229" t="n">
-        <v>229003210439.1052</v>
+        <v>244239435843.7552</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B230" t="n">
-        <v>436574000000</v>
+        <v>448703000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5281504172388296</v>
+        <v>0.5259835893120135</v>
       </c>
       <c r="D230" t="n">
-        <v>230576740255.6248</v>
+        <v>236010414475.0684</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B231" t="n">
-        <v>438371000000</v>
+        <v>453498000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5586280096084018</v>
+        <v>0.4857198367981348</v>
       </c>
       <c r="D231" t="n">
-        <v>244886319200.0447</v>
+        <v>220272974548.2805</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B232" t="n">
-        <v>443319000000</v>
+        <v>458058000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.5509338328466752</v>
+        <v>0.5123738279448686</v>
       </c>
       <c r="D232" t="n">
-        <v>244239435843.7552</v>
+        <v>234696930880.7706</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B233" t="n">
-        <v>448703000000</v>
+        <v>463582000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.5259835893120135</v>
+        <v>0.506868062243398</v>
       </c>
       <c r="D233" t="n">
-        <v>236010414475.0684</v>
+        <v>234974910030.9189</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B234" t="n">
-        <v>453498000000</v>
+        <v>468478000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4857198367981348</v>
+        <v>0.5109078833086395</v>
       </c>
       <c r="D234" t="n">
-        <v>220272974548.2805</v>
+        <v>239349103356.6648</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B235" t="n">
-        <v>458058000000</v>
+        <v>466790000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5123738279448686</v>
+        <v>0.5097099750242112</v>
       </c>
       <c r="D235" t="n">
-        <v>234696930880.7706</v>
+        <v>237927519241.5515</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B236" t="n">
-        <v>463582000000</v>
+        <v>474303000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.506868062243398</v>
+        <v>0.5293526017680377</v>
       </c>
       <c r="D236" t="n">
-        <v>234974910030.9189</v>
+        <v>251073527076.3856</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B237" t="n">
-        <v>468478000000</v>
+        <v>480979000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5109078833086395</v>
+        <v>0.4912556494399685</v>
       </c>
       <c r="D237" t="n">
-        <v>239349103356.6648</v>
+        <v>236283651011.9866</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B238" t="n">
-        <v>466790000000</v>
+        <v>488315000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5097099750242112</v>
+        <v>0.5031699708161417</v>
       </c>
       <c r="D238" t="n">
-        <v>237927519241.5515</v>
+        <v>245705444299.0842</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B239" t="n">
-        <v>474303000000</v>
+        <v>494013000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5293526017680377</v>
+        <v>0.5217028380634391</v>
       </c>
       <c r="D239" t="n">
-        <v>251073527076.3856</v>
+        <v>257727984140.2337</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B240" t="n">
-        <v>480979000000</v>
+        <v>498545000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.4912556494399685</v>
+        <v>0.5105166428425566</v>
       </c>
       <c r="D240" t="n">
-        <v>236283651011.9866</v>
+        <v>254515519705.9424</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B241" t="n">
-        <v>488315000000</v>
+        <v>503448000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5031699708161417</v>
+        <v>0.5079752108097125</v>
       </c>
       <c r="D241" t="n">
-        <v>245705444299.0842</v>
+        <v>255739103931.7281</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B242" t="n">
-        <v>494013000000</v>
+        <v>506254000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5217028380634391</v>
+        <v>0.5176787285810426</v>
       </c>
       <c r="D242" t="n">
-        <v>257727984140.2337</v>
+        <v>262076927059.0671</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B243" t="n">
-        <v>498545000000</v>
+        <v>512472999999.9999</v>
       </c>
       <c r="C243" t="n">
-        <v>0.5105166428425566</v>
+        <v>0.5332195798229711</v>
       </c>
       <c r="D243" t="n">
-        <v>254515519705.9424</v>
+        <v>273260637730.6174</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B244" t="n">
-        <v>503448000000</v>
+        <v>500266000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5079752108097125</v>
+        <v>0.5384449709239716</v>
       </c>
       <c r="D244" t="n">
-        <v>255739103931.7281</v>
+        <v>269365711824.2516</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B245" t="n">
-        <v>506254000000</v>
+        <v>502835000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5176787285810426</v>
+        <v>0.5673115107505532</v>
       </c>
       <c r="D245" t="n">
-        <v>262076927059.0671</v>
+        <v>285264083508.2544</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B246" t="n">
-        <v>512472999999.9999</v>
+        <v>496230000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.5332195798229711</v>
+        <v>0.5634755169887868</v>
       </c>
       <c r="D246" t="n">
-        <v>273260637730.6174</v>
+        <v>279613455795.3457</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B247" t="n">
-        <v>500266000000</v>
+        <v>506215000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.5384449709239716</v>
+        <v>0.5422405379026136</v>
       </c>
       <c r="D247" t="n">
-        <v>269365711824.2516</v>
+        <v>274490293894.3716</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B248" t="n">
-        <v>502835000000</v>
+        <v>513116999999.9999</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5673115107505532</v>
+        <v>0.550812448361333</v>
       </c>
       <c r="D248" t="n">
-        <v>285264083508.2544</v>
+        <v>282631231065.8221</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B249" t="n">
-        <v>496230000000</v>
+        <v>515897000000.0001</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5634755169887868</v>
+        <v>0.5425935973955507</v>
       </c>
       <c r="D249" t="n">
-        <v>279613455795.3457</v>
+        <v>279922409115.5724</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B250" t="n">
-        <v>506215000000</v>
+        <v>519345000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5422405379026136</v>
+        <v>0.5541701302299806</v>
       </c>
       <c r="D250" t="n">
-        <v>274490293894.3716</v>
+        <v>287805486284.2893</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B251" t="n">
-        <v>513116999999.9999</v>
+        <v>526154000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.550812448361333</v>
+        <v>0.5607895917451773</v>
       </c>
       <c r="D251" t="n">
-        <v>282631231065.8221</v>
+        <v>295061686855.092</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B252" t="n">
-        <v>515897000000.0001</v>
+        <v>531523000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.5425935973955507</v>
+        <v>0.5616399887672002</v>
       </c>
       <c r="D252" t="n">
-        <v>279922409115.5724</v>
+        <v>298524571749.5085</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B253" t="n">
-        <v>519345000000</v>
+        <v>537544000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.5541701302299806</v>
+        <v>0.5868544600938967</v>
       </c>
       <c r="D253" t="n">
-        <v>287805486284.2893</v>
+        <v>315460093896.7136</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B254" t="n">
-        <v>526154000000</v>
+        <v>540568000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5607895917451773</v>
+        <v>0.6086797735711242</v>
       </c>
       <c r="D254" t="n">
-        <v>295061686855.092</v>
+        <v>329032807839.7955</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B255" t="n">
-        <v>531523000000</v>
+        <v>547669000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5616399887672002</v>
+        <v>0.6046680372475511</v>
       </c>
       <c r="D255" t="n">
-        <v>298524571749.5085</v>
+        <v>331157939291.3291</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B256" t="n">
-        <v>537544000000</v>
+        <v>553123000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5868544600938967</v>
+        <v>0.6265271599523839</v>
       </c>
       <c r="D256" t="n">
-        <v>315460093896.7136</v>
+        <v>346546582294.3425</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B257" t="n">
-        <v>540568000000</v>
+        <v>563646000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6086797735711242</v>
+        <v>0.6533385600418137</v>
       </c>
       <c r="D257" t="n">
-        <v>329032807839.7955</v>
+        <v>368251666013.3281</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B258" t="n">
-        <v>547669000000</v>
+        <v>564361000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6046680372475511</v>
+        <v>0.6738544474393531</v>
       </c>
       <c r="D258" t="n">
-        <v>331157939291.3291</v>
+        <v>380297169811.3207</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B259" t="n">
-        <v>553123000000</v>
+        <v>557872000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6265271599523839</v>
+        <v>0.6487187804086928</v>
       </c>
       <c r="D259" t="n">
-        <v>346546582294.3425</v>
+        <v>361902043464.1583</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B260" t="n">
-        <v>563646000000</v>
+        <v>570787000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6533385600418137</v>
+        <v>0.6472073004983496</v>
       </c>
       <c r="D260" t="n">
-        <v>368251666013.3281</v>
+        <v>369417513429.5515</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B261" t="n">
-        <v>564361000000</v>
+        <v>577754000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6738544474393531</v>
+        <v>0.6807351940095303</v>
       </c>
       <c r="D261" t="n">
-        <v>380297169811.3207</v>
+        <v>393297481279.7822</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B262" t="n">
-        <v>557872000000</v>
+        <v>582423000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6487187804086928</v>
+        <v>0.7085163667280714</v>
       </c>
       <c r="D262" t="n">
-        <v>361902043464.1583</v>
+        <v>412656227858.8635</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B263" t="n">
-        <v>570787000000</v>
+        <v>587210000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6472073004983496</v>
+        <v>0.7242702976750923</v>
       </c>
       <c r="D263" t="n">
-        <v>369417513429.5515</v>
+        <v>425298761497.791</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B264" t="n">
-        <v>577754000000</v>
+        <v>594207000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6807351940095303</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D264" t="n">
-        <v>393297481279.7822</v>
+        <v>445032204913.1216</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B265" t="n">
-        <v>582423000000</v>
+        <v>595410000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7085163667280714</v>
+        <v>0.7641170627340108</v>
       </c>
       <c r="D265" t="n">
-        <v>412656227858.8635</v>
+        <v>454962940322.4574</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B266" t="n">
-        <v>587210000000</v>
+        <v>603832000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7242702976750923</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D266" t="n">
-        <v>425298761497.791</v>
+        <v>467217579696.6883</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B267" t="n">
-        <v>594207000000</v>
+        <v>610678000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7489514679448772</v>
+        <v>0.7667535654040791</v>
       </c>
       <c r="D267" t="n">
-        <v>445032204913.1216</v>
+        <v>468239533813.8322</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B268" t="n">
-        <v>595410000000</v>
+        <v>615959000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.7641170627340108</v>
+        <v>0.7206168480219068</v>
       </c>
       <c r="D268" t="n">
-        <v>454962940322.4574</v>
+        <v>443870433090.7257</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B269" t="n">
-        <v>603832000000</v>
+        <v>616477000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7153075822603721</v>
       </c>
       <c r="D269" t="n">
-        <v>467217579696.6883</v>
+        <v>440970672389.1274</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B270" t="n">
-        <v>610678000000</v>
+        <v>621338000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7667535654040791</v>
+        <v>0.6989097008666479</v>
       </c>
       <c r="D270" t="n">
-        <v>468239533813.8322</v>
+        <v>434259155717.0813</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B271" t="n">
-        <v>615959000000</v>
+        <v>628311000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7206168480219068</v>
+        <v>0.7026419336706015</v>
       </c>
       <c r="D271" t="n">
-        <v>443870433090.7257</v>
+        <v>441477655986.5093</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B272" t="n">
-        <v>616477000000</v>
+        <v>631732000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7153075822603721</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D272" t="n">
-        <v>440970672389.1274</v>
+        <v>444819039571.8913</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B273" t="n">
-        <v>621338000000</v>
+        <v>631878000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.6989097008666479</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D273" t="n">
-        <v>434259155717.0813</v>
+        <v>459581060440.7593</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B274" t="n">
-        <v>628311000000</v>
+        <v>636611000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7026419336706015</v>
+        <v>0.7484469725319961</v>
       </c>
       <c r="D274" t="n">
-        <v>441477655986.5093</v>
+        <v>476469575630.5666</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B275" t="n">
-        <v>631732000000</v>
+        <v>643622000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7041261794113506</v>
+        <v>0.7728572532653218</v>
       </c>
       <c r="D275" t="n">
-        <v>444819039571.8913</v>
+        <v>497427931061.133</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B276" t="n">
-        <v>631878000000</v>
+        <v>647054000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7273256236817223</v>
+        <v>0.7802137785753296</v>
       </c>
       <c r="D276" t="n">
-        <v>459581060440.7593</v>
+        <v>504840446282.2813</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B277" t="n">
-        <v>636611000000</v>
+        <v>651977000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7484469725319961</v>
+        <v>0.7757350089209527</v>
       </c>
       <c r="D277" t="n">
-        <v>476469575630.5666</v>
+        <v>505761383911.256</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B278" t="n">
-        <v>643622000000</v>
+        <v>655658000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7728572532653218</v>
+        <v>0.791702953052015</v>
       </c>
       <c r="D278" t="n">
-        <v>497427931061.133</v>
+        <v>519086374792.178</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B279" t="n">
-        <v>647054000000</v>
+        <v>657474000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7802137785753296</v>
+        <v>0.7723200494284832</v>
       </c>
       <c r="D279" t="n">
-        <v>504840446282.2813</v>
+        <v>507780352177.9426</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B280" t="n">
-        <v>651977000000</v>
+        <v>663688000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7757350089209527</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D280" t="n">
-        <v>505761383911.256</v>
+        <v>518627803391.4199</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B281" t="n">
-        <v>655658000000</v>
+        <v>670249000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.791702953052015</v>
+        <v>0.7558007709167863</v>
       </c>
       <c r="D281" t="n">
-        <v>519086374792.178</v>
+        <v>506574710906.2051</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B282" t="n">
-        <v>657474000000</v>
+        <v>677023000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7723200494284832</v>
+        <v>0.7625438462711607</v>
       </c>
       <c r="D282" t="n">
-        <v>507780352177.9426</v>
+        <v>516259722434.04</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B283" t="n">
-        <v>663688000000</v>
+        <v>678485000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7568303943086355</v>
       </c>
       <c r="D283" t="n">
-        <v>518627803391.4199</v>
+        <v>513498070082.4946</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B284" t="n">
-        <v>670249000000</v>
+        <v>681160000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7558007709167863</v>
+        <v>0.7554011179936546</v>
       </c>
       <c r="D284" t="n">
-        <v>506574710906.2051</v>
+        <v>514549025532.5578</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B285" t="n">
-        <v>677023000000</v>
+        <v>690129000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.7625438462711607</v>
+        <v>0.7620208793720947</v>
       </c>
       <c r="D285" t="n">
-        <v>516259722434.04</v>
+        <v>525892707460.1844</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B286" t="n">
-        <v>678485000000</v>
+        <v>688212000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.7568303943086355</v>
+        <v>0.7485590238790328</v>
       </c>
       <c r="D286" t="n">
-        <v>513498070082.4946</v>
+        <v>515167302941.837</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B287" t="n">
-        <v>681160000000</v>
+        <v>692301000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.7554011179936546</v>
+        <v>0.738061849582995</v>
       </c>
       <c r="D287" t="n">
-        <v>514549025532.5578</v>
+        <v>510960956528.157</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B288" t="n">
-        <v>690129000000</v>
+        <v>700073000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.7620208793720947</v>
+        <v>0.7345379756133392</v>
       </c>
       <c r="D288" t="n">
-        <v>525892707460.1844</v>
+        <v>514230204201.5573</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B289" t="n">
-        <v>688212000000</v>
+        <v>708145000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7485590238790328</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D289" t="n">
-        <v>515167302941.837</v>
+        <v>537165288629.2953</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B290" t="n">
-        <v>692301000000</v>
+        <v>711350000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.738061849582995</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D290" t="n">
-        <v>510960956528.157</v>
+        <v>528374062244.6705</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B291" t="n">
-        <v>700073000000</v>
+        <v>722061000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.7345379756133392</v>
+        <v>0.7165376898824879</v>
       </c>
       <c r="D291" t="n">
-        <v>514230204201.5573</v>
+        <v>517383920894.2391</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B292" t="n">
-        <v>708145000000</v>
+        <v>736225000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.758552681483729</v>
+        <v>0.7598206823189727</v>
       </c>
       <c r="D292" t="n">
-        <v>537165288629.2953</v>
+        <v>559398981840.2856</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B293" t="n">
-        <v>711350000000</v>
+        <v>740262000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D293" t="n">
-        <v>528374062244.6705</v>
+        <v>556797292215.1185</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B294" t="n">
-        <v>722061000000</v>
+        <v>746274000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.7165376898824879</v>
+        <v>0.7427213309566251</v>
       </c>
       <c r="D294" t="n">
-        <v>517383920894.2391</v>
+        <v>554273618538.3245</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B295" t="n">
-        <v>736225000000</v>
+        <v>753038000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7598206823189727</v>
+        <v>0.7659313725490196</v>
       </c>
       <c r="D295" t="n">
-        <v>559398981840.2856</v>
+        <v>576775428921.5686</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B296" t="n">
-        <v>740262000000</v>
+        <v>761297000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.7521624670928921</v>
+        <v>0.7638252367858235</v>
       </c>
       <c r="D296" t="n">
-        <v>556797292215.1185</v>
+        <v>581497861289.337</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B297" t="n">
-        <v>746274000000</v>
+        <v>767415000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7427213309566251</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D297" t="n">
-        <v>554273618538.3245</v>
+        <v>573510948359.6144</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B298" t="n">
-        <v>753038000000</v>
+        <v>776626000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.7659313725490196</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D298" t="n">
-        <v>576775428921.5686</v>
+        <v>601103715170.2786</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B299" t="n">
-        <v>761297000000</v>
+        <v>781730000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.7638252367858235</v>
+        <v>0.7894529091339701</v>
       </c>
       <c r="D299" t="n">
-        <v>581497861289.337</v>
+        <v>617139022657.2985</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B300" t="n">
-        <v>767415000000</v>
+        <v>791373000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.7473283013227711</v>
+        <v>0.7895775759968418</v>
       </c>
       <c r="D300" t="n">
-        <v>573510948359.6144</v>
+        <v>624850375049.3486</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B301" t="n">
-        <v>776626000000</v>
+        <v>797749000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.7739938080495355</v>
+        <v>0.777363184079602</v>
       </c>
       <c r="D301" t="n">
-        <v>601103715170.2786</v>
+        <v>620140702736.3185</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B302" t="n">
-        <v>781730000000</v>
+        <v>814195000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7894529091339701</v>
+        <v>0.7879599716334411</v>
       </c>
       <c r="D302" t="n">
-        <v>617139022657.2985</v>
+        <v>641553069104.0896</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B303" t="n">
-        <v>791373000000</v>
+        <v>826266000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7895775759968418</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D303" t="n">
-        <v>624850375049.3486</v>
+        <v>668337782091.7253</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B304" t="n">
-        <v>797749000000</v>
+        <v>838018000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.777363184079602</v>
+        <v>0.8300821781356353</v>
       </c>
       <c r="D304" t="n">
-        <v>620140702736.3185</v>
+        <v>695623806756.8689</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B305" t="n">
-        <v>814195000000</v>
+        <v>846637000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7879599716334411</v>
+        <v>0.8279516476237788</v>
       </c>
       <c r="D305" t="n">
-        <v>641553069104.0896</v>
+        <v>700974499089.2532</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B306" t="n">
-        <v>826266000000</v>
+        <v>869578000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.8088651621774651</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D306" t="n">
-        <v>668337782091.7253</v>
+        <v>738495116772.8239</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B307" t="n">
-        <v>838018000000</v>
+        <v>880405000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8300821781356353</v>
+        <v>0.8509189925119128</v>
       </c>
       <c r="D307" t="n">
-        <v>695623806756.8689</v>
+        <v>749153335602.4506</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B308" t="n">
-        <v>846637000000</v>
+        <v>899073000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.8279516476237788</v>
+        <v>0.8180628272251309</v>
       </c>
       <c r="D308" t="n">
-        <v>700974499089.2532</v>
+        <v>735498200261.7802</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B309" t="n">
-        <v>869578000000</v>
+        <v>912986000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8492569002123143</v>
+        <v>0.8889679082585119</v>
       </c>
       <c r="D309" t="n">
-        <v>738495116772.8239</v>
+        <v>811615254689.3058</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B310" t="n">
-        <v>880405000000</v>
+        <v>938446000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8509189925119128</v>
+        <v>0.9325748391308403</v>
       </c>
       <c r="D310" t="n">
-        <v>749153335602.4506</v>
+        <v>875171127482.9805</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B311" t="n">
-        <v>899073000000</v>
+        <v>962564000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8180628272251309</v>
+        <v>0.8844078889183691</v>
       </c>
       <c r="D311" t="n">
-        <v>735498200261.7802</v>
+        <v>851299195188.821</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B312" t="n">
-        <v>912986000000</v>
+        <v>971834000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8889679082585119</v>
+        <v>0.8749671887304226</v>
       </c>
       <c r="D312" t="n">
-        <v>811615254689.3058</v>
+        <v>850322862892.6415</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B313" t="n">
-        <v>938446000000</v>
+        <v>984284000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9325748391308403</v>
+        <v>0.8962982880702699</v>
       </c>
       <c r="D313" t="n">
-        <v>875171127482.9805</v>
+        <v>882212064174.9575</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B314" t="n">
-        <v>962564000000</v>
+        <v>992008000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8844078889183691</v>
+        <v>0.9313588525658936</v>
       </c>
       <c r="D314" t="n">
-        <v>851299195188.821</v>
+        <v>923915432616.1869</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B315" t="n">
-        <v>971834000000</v>
+        <v>1000377000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8749671887304226</v>
+        <v>0.9139097057210747</v>
       </c>
       <c r="D315" t="n">
-        <v>850322862892.6415</v>
+        <v>914254249680.1315</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B316" t="n">
-        <v>984284000000</v>
+        <v>1013380000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8962982880702699</v>
+        <v>0.9437523593808984</v>
       </c>
       <c r="D316" t="n">
-        <v>882212064174.9575</v>
+        <v>956379765949.4148</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B317" t="n">
-        <v>992008000000</v>
+        <v>1016485000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9313588525658936</v>
+        <v>0.9562057754828839</v>
       </c>
       <c r="D317" t="n">
-        <v>923915432616.1869</v>
+        <v>971968827691.7192</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B318" t="n">
-        <v>1000377000000</v>
+        <v>1035594000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9139097057210747</v>
+        <v>0.9590486237652249</v>
       </c>
       <c r="D318" t="n">
-        <v>914254249680.1315</v>
+        <v>993185000479.5243</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B319" t="n">
-        <v>1013380000000</v>
+        <v>1057005000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9437523593808984</v>
+        <v>0.9417969485778865</v>
       </c>
       <c r="D319" t="n">
-        <v>956379765949.4148</v>
+        <v>995484083631.569</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B320" t="n">
-        <v>1016485000000</v>
+        <v>1069476000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9562057754828839</v>
+        <v>0.8582217645039478</v>
       </c>
       <c r="D320" t="n">
-        <v>971968827691.7192</v>
+        <v>917847579814.6241</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B321" t="n">
-        <v>1035594000000</v>
+        <v>1089266000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9590486237652249</v>
+        <v>0.7951653944020356</v>
       </c>
       <c r="D321" t="n">
-        <v>993185000479.5243</v>
+        <v>866146628498.7277</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B322" t="n">
-        <v>1057005000000</v>
+        <v>1102968000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9417969485778865</v>
+        <v>0.6685832720465333</v>
       </c>
       <c r="D322" t="n">
-        <v>995484083631.569</v>
+        <v>737425954402.6207</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B323" t="n">
-        <v>1069476000000</v>
+        <v>1129317000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.8582217645039478</v>
+        <v>0.6549646319098769</v>
       </c>
       <c r="D323" t="n">
-        <v>917847579814.6241</v>
+        <v>739662693214.5664</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B324" t="n">
-        <v>1089266000000</v>
+        <v>1130783000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.7951653944020356</v>
+        <v>0.7015574575557738</v>
       </c>
       <c r="D324" t="n">
-        <v>866146628498.7277</v>
+        <v>793309246527.2905</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B325" t="n">
-        <v>1102968000000</v>
+        <v>1144917000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.6685832720465333</v>
+        <v>0.6358087487283826</v>
       </c>
       <c r="D325" t="n">
-        <v>737425954402.6207</v>
+        <v>727948245167.8535</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B326" t="n">
-        <v>1129317000000</v>
+        <v>1163743000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6549646319098769</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D326" t="n">
-        <v>739662693214.5664</v>
+        <v>743748322362.1143</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B327" t="n">
-        <v>1130783000000</v>
+        <v>1142763000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.7015574575557738</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D327" t="n">
-        <v>793309246527.2905</v>
+        <v>790730002767.783</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B328" t="n">
-        <v>1144917000000</v>
+        <v>1160667000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.6358087487283826</v>
+        <v>0.7257420712678715</v>
       </c>
       <c r="D328" t="n">
-        <v>727948245167.8535</v>
+        <v>842344872632.2666</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B329" t="n">
-        <v>1163743000000</v>
+        <v>1167788000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.6391001469930339</v>
+        <v>0.8014747134727899</v>
       </c>
       <c r="D329" t="n">
-        <v>743748322362.1143</v>
+        <v>935952552696.9623</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B330" t="n">
-        <v>1142763000000</v>
+        <v>1178972000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.691945751453086</v>
+        <v>0.8062565508344756</v>
       </c>
       <c r="D330" t="n">
-        <v>790730002767.783</v>
+        <v>950553898250.4233</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B331" t="n">
-        <v>1160667000000</v>
+        <v>1181019000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.7257420712678715</v>
+        <v>0.8364700961940611</v>
       </c>
       <c r="D331" t="n">
-        <v>842344872632.2666</v>
+        <v>987887076537.0138</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B332" t="n">
-        <v>1167788000000</v>
+        <v>1185332000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.8014747134727899</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D332" t="n">
-        <v>935952552696.9623</v>
+        <v>1000449020931.803</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B333" t="n">
-        <v>1178972000000</v>
+        <v>1184794000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8062565508344756</v>
+        <v>0.8841732979664014</v>
       </c>
       <c r="D333" t="n">
-        <v>950553898250.4233</v>
+        <v>1047563218390.805</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B334" t="n">
-        <v>1181019000000</v>
+        <v>1183584000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.8364700961940611</v>
+        <v>0.901631953836444</v>
       </c>
       <c r="D334" t="n">
-        <v>987887076537.0138</v>
+        <v>1067157154449.554</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B335" t="n">
-        <v>1185332000000</v>
+        <v>1182206000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8440243079000674</v>
+        <v>0.9161704076958315</v>
       </c>
       <c r="D335" t="n">
-        <v>1000449020931.803</v>
+        <v>1083102153000.458</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B336" t="n">
-        <v>1184794000000</v>
+        <v>1178434000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8841732979664014</v>
+        <v>0.8979078746520608</v>
       </c>
       <c r="D336" t="n">
-        <v>1047563218390.805</v>
+        <v>1058125168357.727</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B337" t="n">
-        <v>1183584000000</v>
+        <v>1182971000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.901631953836444</v>
+        <v>0.8842514811212309</v>
       </c>
       <c r="D337" t="n">
-        <v>1067157154449.554</v>
+        <v>1046043858873.464</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B338" t="n">
-        <v>1182206000000</v>
+        <v>1195947000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9161704076958315</v>
+        <v>0.8957362952346829</v>
       </c>
       <c r="D338" t="n">
-        <v>1083102153000.458</v>
+        <v>1071253135077.033</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B339" t="n">
-        <v>1178434000000</v>
+        <v>1210169000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.8979078746520608</v>
+        <v>0.9175153683824203</v>
       </c>
       <c r="D339" t="n">
-        <v>1058125168357.727</v>
+        <v>1110348655839.985</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B340" t="n">
-        <v>1182971000000</v>
+        <v>1216303000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.8842514811212309</v>
+        <v>0.9247272054743851</v>
       </c>
       <c r="D340" t="n">
-        <v>1046043858873.464</v>
+        <v>1124748474200.111</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B341" t="n">
-        <v>1195947000000</v>
+        <v>1221498000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.8957362952346829</v>
+        <v>0.8475294516484448</v>
       </c>
       <c r="D341" t="n">
-        <v>1071253135077.033</v>
+        <v>1035255530129.672</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B342" t="n">
-        <v>1210169000000</v>
+        <v>1231556000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9175153683824203</v>
+        <v>0.8404773911581779</v>
       </c>
       <c r="D342" t="n">
-        <v>1110348655839.985</v>
+        <v>1035094973945.201</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B343" t="n">
-        <v>1216303000000</v>
+        <v>1242597000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9247272054743851</v>
+        <v>0.904649900488511</v>
       </c>
       <c r="D343" t="n">
-        <v>1124748474200.111</v>
+        <v>1124115252397.322</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B344" t="n">
-        <v>1221498000000</v>
+        <v>1253020000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8475294516484448</v>
+        <v>0.8930166101089481</v>
       </c>
       <c r="D344" t="n">
-        <v>1035255530129.672</v>
+        <v>1118967672798.714</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B345" t="n">
-        <v>1231556000000</v>
+        <v>1260810000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.8404773911581779</v>
+        <v>0.9662769349695624</v>
       </c>
       <c r="D345" t="n">
-        <v>1035094973945.201</v>
+        <v>1218291622378.974</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B346" t="n">
-        <v>1242597000000</v>
+        <v>1273880000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.904649900488511</v>
+        <v>0.98405825624877</v>
       </c>
       <c r="D346" t="n">
-        <v>1124115252397.322</v>
+        <v>1253572131470.183</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B347" t="n">
-        <v>1253020000000</v>
+        <v>1294322000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8930166101089481</v>
+        <v>0.959140610013428</v>
       </c>
       <c r="D347" t="n">
-        <v>1118967672798.714</v>
+        <v>1241436792633.8</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B348" t="n">
-        <v>1260810000000</v>
+        <v>1302284000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9662769349695624</v>
+        <v>1.02364622786365</v>
       </c>
       <c r="D348" t="n">
-        <v>1218291622378.974</v>
+        <v>1333078104207.186</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B349" t="n">
-        <v>1273880000000</v>
+        <v>1311449000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.98405825624877</v>
+        <v>0.9979044007584074</v>
       </c>
       <c r="D349" t="n">
-        <v>1253572131470.183</v>
+        <v>1308700728470.213</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B350" t="n">
-        <v>1294322000000</v>
+        <v>1325187000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.959140610013428</v>
+        <v>1.018952516812716</v>
       </c>
       <c r="D350" t="n">
-        <v>1241436792633.8</v>
+        <v>1350302628897.493</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B351" t="n">
-        <v>1302284000000</v>
+        <v>1334278000000</v>
       </c>
       <c r="C351" t="n">
-        <v>1.02364622786365</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D351" t="n">
-        <v>1333078104207.186</v>
+        <v>1379241265247.054</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B352" t="n">
-        <v>1311449000000</v>
+        <v>1342207000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9979044007584074</v>
+        <v>1.097574360662935</v>
       </c>
       <c r="D352" t="n">
-        <v>1308700728470.213</v>
+        <v>1473171989902.316</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B353" t="n">
-        <v>1325187000000</v>
+        <v>1347691000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.018952516812716</v>
+        <v>1.066325442525059</v>
       </c>
       <c r="D353" t="n">
-        <v>1350302628897.493</v>
+        <v>1437077201962.039</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B354" t="n">
-        <v>1334278000000</v>
+        <v>1343534000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.033698573495968</v>
+        <v>1.071466838101361</v>
       </c>
       <c r="D354" t="n">
-        <v>1379241265247.054</v>
+        <v>1439552126861.674</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B355" t="n">
-        <v>1342207000000</v>
+        <v>1352722000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.097574360662935</v>
+        <v>1.1001100110011</v>
       </c>
       <c r="D355" t="n">
-        <v>1473171989902.316</v>
+        <v>1488143014301.43</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B356" t="n">
-        <v>1347691000000</v>
+        <v>1373328000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.066325442525059</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="D356" t="n">
-        <v>1437077201962.039</v>
+        <v>1468800000000</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B357" t="n">
-        <v>1343534000000</v>
+        <v>1383775000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.071466838101361</v>
+        <v>0.9666505558240697</v>
       </c>
       <c r="D357" t="n">
-        <v>1439552126861.674</v>
+        <v>1337626872885.452</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B358" t="n">
-        <v>1352722000000</v>
+        <v>1390449000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.1001100110011</v>
+        <v>1.05496360375567</v>
       </c>
       <c r="D358" t="n">
-        <v>1488143014301.43</v>
+        <v>1466873087878.468</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B359" t="n">
-        <v>1373328000000</v>
+        <v>1396042000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.06951871657754</v>
+        <v>1.02880658436214</v>
       </c>
       <c r="D359" t="n">
-        <v>1468800000000</v>
+        <v>1436257201646.091</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B360" t="n">
-        <v>1383775000000</v>
+        <v>1406582000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9666505558240697</v>
+        <v>1.021554806415364</v>
       </c>
       <c r="D360" t="n">
-        <v>1337626872885.452</v>
+        <v>1436900602717.336</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B361" t="n">
-        <v>1390449000000</v>
+        <v>1416621000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.05496360375567</v>
+        <v>1.062699256110521</v>
       </c>
       <c r="D361" t="n">
-        <v>1466873087878.468</v>
+        <v>1505442082890.542</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B362" t="n">
-        <v>1396042000000</v>
+        <v>1424055000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.02880658436214</v>
+        <v>1.073767851390529</v>
       </c>
       <c r="D362" t="n">
-        <v>1436257201646.091</v>
+        <v>1529104477611.94</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B363" t="n">
-        <v>1406582000000</v>
+        <v>1434208000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.021554806415364</v>
+        <v>1.034447088031447</v>
       </c>
       <c r="D363" t="n">
-        <v>1436900602717.336</v>
+        <v>1483612289231.406</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B364" t="n">
-        <v>1416621000000</v>
+        <v>1438755000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.062699256110521</v>
+        <v>1.043405676126878</v>
       </c>
       <c r="D364" t="n">
-        <v>1505442082890.542</v>
+        <v>1501205133555.927</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B365" t="n">
-        <v>1424055000000</v>
+        <v>1457290000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.073767851390529</v>
+        <v>0.97323600973236</v>
       </c>
       <c r="D365" t="n">
-        <v>1529104477611.94</v>
+        <v>1418287104622.871</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B366" t="n">
-        <v>1434208000000</v>
+        <v>1465374000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.034447088031447</v>
+        <v>1.024275325207416</v>
       </c>
       <c r="D366" t="n">
-        <v>1483612289231.406</v>
+        <v>1500946430400.492</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B367" t="n">
-        <v>1438755000000</v>
+        <v>1472304000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.043405676126878</v>
+        <v>1.049758555532228</v>
       </c>
       <c r="D367" t="n">
-        <v>1501205133555.927</v>
+        <v>1545563720344.321</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B368" t="n">
-        <v>1457290000000</v>
+        <v>1482867000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.97323600973236</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D368" t="n">
-        <v>1418287104622.871</v>
+        <v>1532837502584.246</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B369" t="n">
-        <v>1465374000000</v>
+        <v>1488548000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.024275325207416</v>
+        <v>1.03777501037775</v>
       </c>
       <c r="D369" t="n">
-        <v>1500946430400.492</v>
+        <v>1544777916147.779</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B370" t="n">
-        <v>1472304000000</v>
+        <v>1495483000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.049758555532228</v>
+        <v>1.038205980066445</v>
       </c>
       <c r="D370" t="n">
-        <v>1545563720344.321</v>
+        <v>1552619393687.708</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B371" t="n">
-        <v>1482867000000</v>
+        <v>1500153000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.033698573495968</v>
+        <v>1.043187982474442</v>
       </c>
       <c r="D371" t="n">
-        <v>1532837502584.246</v>
+        <v>1564941581472.981</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B372" t="n">
-        <v>1488548000000</v>
+        <v>1508423000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.03777501037775</v>
+        <v>1.039933444259567</v>
       </c>
       <c r="D372" t="n">
-        <v>1544777916147.779</v>
+        <v>1568659525790.349</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B373" t="n">
-        <v>1495483000000</v>
+        <v>1518967000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.038205980066445</v>
+        <v>1.043079169708981</v>
       </c>
       <c r="D373" t="n">
-        <v>1552619393687.708</v>
+        <v>1584402837175.342</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B374" t="n">
-        <v>1500153000000</v>
+        <v>1521736000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.043187982474442</v>
+        <v>1.022076860179886</v>
       </c>
       <c r="D374" t="n">
-        <v>1564941581472.981</v>
+        <v>1555331152902.698</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B375" t="n">
-        <v>1508423000000</v>
+        <v>1531399000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.039933444259567</v>
+        <v>1.042535446205171</v>
       </c>
       <c r="D375" t="n">
-        <v>1568659525790.349</v>
+        <v>1596537739783.153</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B376" t="n">
-        <v>1518967000000</v>
+        <v>1546552000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.043079169708981</v>
+        <v>1.037129226301597</v>
       </c>
       <c r="D376" t="n">
-        <v>1584402837175.342</v>
+        <v>1603974279195.188</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B377" t="n">
-        <v>1521736000000</v>
+        <v>1560756000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.022076860179886</v>
+        <v>0.9552010698251983</v>
       </c>
       <c r="D377" t="n">
-        <v>1555331152902.698</v>
+        <v>1490835800936.097</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B378" t="n">
-        <v>1531399000000</v>
+        <v>1561285000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.042535446205171</v>
+        <v>0.9149967975112088</v>
       </c>
       <c r="D378" t="n">
-        <v>1596537739783.153</v>
+        <v>1428570775002.288</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B379" t="n">
-        <v>1546552000000</v>
+        <v>1565767000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.037129226301597</v>
+        <v>0.8943743851176101</v>
       </c>
       <c r="D379" t="n">
-        <v>1603974279195.188</v>
+        <v>1400381897862.445</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B380" t="n">
-        <v>1560756000000</v>
+        <v>1567032000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9552010698251983</v>
+        <v>0.8903926631644555</v>
       </c>
       <c r="D380" t="n">
-        <v>1490835800936.097</v>
+        <v>1395273795743.923</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B381" t="n">
-        <v>1561285000000</v>
+        <v>1578348000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9149967975112088</v>
+        <v>0.9329228472805299</v>
       </c>
       <c r="D381" t="n">
-        <v>1428570775002.288</v>
+        <v>1472476910159.53</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B382" t="n">
-        <v>1565767000000</v>
+        <v>1589865000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.8943743851176101</v>
+        <v>0.9463423866754992</v>
       </c>
       <c r="D382" t="n">
-        <v>1400381897862.445</v>
+        <v>1504556638591.843</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B383" t="n">
-        <v>1567032000000</v>
+        <v>1599918000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8903926631644555</v>
+        <v>0.9112447603426281</v>
       </c>
       <c r="D383" t="n">
-        <v>1395273795743.923</v>
+        <v>1457916894477.857</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B384" t="n">
-        <v>1578348000000</v>
+        <v>1613768000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9329228472805299</v>
+        <v>0.8918219923303309</v>
       </c>
       <c r="D384" t="n">
-        <v>1472476910159.53</v>
+        <v>1439193792918.933</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B385" t="n">
-        <v>1589865000000</v>
+        <v>1622097000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9463423866754992</v>
+        <v>0.8759635599159076</v>
       </c>
       <c r="D385" t="n">
-        <v>1504556638591.843</v>
+        <v>1420897862648.914</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B386" t="n">
-        <v>1599918000000</v>
+        <v>1631933000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9112447603426281</v>
+        <v>0.8934953538241601</v>
       </c>
       <c r="D386" t="n">
-        <v>1457916894477.857</v>
+        <v>1458124553252.323</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B387" t="n">
-        <v>1613768000000</v>
+        <v>1637964000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8918219923303309</v>
+        <v>0.9266981744045965</v>
       </c>
       <c r="D387" t="n">
-        <v>1439193792918.933</v>
+        <v>1517898248540.45</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B388" t="n">
-        <v>1622097000000</v>
+        <v>1648196000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8759635599159076</v>
+        <v>0.9288500835965076</v>
       </c>
       <c r="D388" t="n">
-        <v>1420897862648.914</v>
+        <v>1530926992383.429</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B389" t="n">
-        <v>1631933000000</v>
+        <v>1661059000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8934953538241601</v>
+        <v>0.931445603576751</v>
       </c>
       <c r="D389" t="n">
-        <v>1458124553252.323</v>
+        <v>1547186102831.594</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B390" t="n">
-        <v>1637964000000</v>
+        <v>1668993000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9266981744045965</v>
+        <v>0.9433072351664937</v>
       </c>
       <c r="D390" t="n">
-        <v>1517898248540.45</v>
+        <v>1574373172342.232</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B391" t="n">
-        <v>1648196000000</v>
+        <v>1680499000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9288500835965076</v>
+        <v>0.9296272194849864</v>
       </c>
       <c r="D391" t="n">
-        <v>1530926992383.429</v>
+        <v>1562237612717.3</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B392" t="n">
-        <v>1661059000000</v>
+        <v>1693813000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.931445603576751</v>
+        <v>0.9344921035417251</v>
       </c>
       <c r="D392" t="n">
-        <v>1547186102831.594</v>
+        <v>1582854873376.32</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B393" t="n">
-        <v>1668993000000</v>
+        <v>1706001000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9433072351664937</v>
+        <v>0.8748906386701663</v>
       </c>
       <c r="D393" t="n">
-        <v>1574373172342.232</v>
+        <v>1492564304461.942</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B394" t="n">
-        <v>1680499000000</v>
+        <v>1712461000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9296272194849864</v>
+        <v>0.880126738250308</v>
       </c>
       <c r="D394" t="n">
-        <v>1562237612717.3</v>
+        <v>1507182714310.861</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B395" t="n">
-        <v>1693813000000</v>
+        <v>1716847000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9344921035417251</v>
+        <v>0.8511362669163333</v>
       </c>
       <c r="D395" t="n">
-        <v>1582854873376.32</v>
+        <v>1461270746446.506</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B396" t="n">
-        <v>1706001000000</v>
+        <v>1731250000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8748906386701663</v>
+        <v>0.8176614881439084</v>
       </c>
       <c r="D396" t="n">
-        <v>1492564304461.942</v>
+        <v>1415576451349.141</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B397" t="n">
-        <v>1712461000000</v>
+        <v>1735199000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.880126738250308</v>
+        <v>0.7771215418091389</v>
       </c>
       <c r="D397" t="n">
-        <v>1507182714310.861</v>
+        <v>1348460522225.676</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B398" t="n">
-        <v>1716847000000</v>
+        <v>1755949000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8511362669163333</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D398" t="n">
-        <v>1461270746446.506</v>
+        <v>1372156755489.568</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B399" t="n">
-        <v>1731250000000</v>
+        <v>1760584000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8176614881439084</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D399" t="n">
-        <v>1415576451349.141</v>
+        <v>1340274056029.233</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B400" t="n">
-        <v>1735199000000</v>
+        <v>1768918000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7771215418091389</v>
+        <v>0.7902015013828526</v>
       </c>
       <c r="D400" t="n">
-        <v>1348460522225.676</v>
+        <v>1397801659423.153</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B401" t="n">
-        <v>1755949000000</v>
+        <v>1772712000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7814331483941549</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D401" t="n">
-        <v>1372156755489.568</v>
+        <v>1355491665392.262</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B402" t="n">
-        <v>1760584000000</v>
+        <v>1781050000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.7612667478684531</v>
+        <v>0.7705347511172753</v>
       </c>
       <c r="D402" t="n">
-        <v>1340274056029.233</v>
+        <v>1372360918477.423</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B403" t="n">
-        <v>1768918000000</v>
+        <v>1795874000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7902015013828526</v>
+        <v>0.7316894709885124</v>
       </c>
       <c r="D403" t="n">
-        <v>1397801659423.153</v>
+        <v>1314022097022.024</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B404" t="n">
-        <v>1772712000000</v>
+        <v>1799219000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7115411982353779</v>
       </c>
       <c r="D404" t="n">
-        <v>1355491665392.262</v>
+        <v>1280218443147.858</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B405" t="n">
-        <v>1781050000000</v>
+        <v>1812398000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.7705347511172753</v>
+        <v>0.702000702000702</v>
       </c>
       <c r="D405" t="n">
-        <v>1372360918477.423</v>
+        <v>1272304668304.668</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B406" t="n">
-        <v>1795874000000</v>
+        <v>1818447000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7316894709885124</v>
+        <v>0.7140307033202428</v>
       </c>
       <c r="D406" t="n">
-        <v>1314022097022.024</v>
+        <v>1298426990360.585</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B407" t="n">
-        <v>1799219000000</v>
+        <v>1831524000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.7115411982353779</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D407" t="n">
-        <v>1280218443147.858</v>
+        <v>1324025157232.704</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B408" t="n">
-        <v>1812398000000</v>
+        <v>1836529000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.702000702000702</v>
+        <v>0.7291286912139993</v>
       </c>
       <c r="D408" t="n">
-        <v>1272304668304.668</v>
+        <v>1339065986146.555</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B409" t="n">
-        <v>1818447000000</v>
+        <v>1845945000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7140307033202428</v>
+        <v>0.7085665698292355</v>
       </c>
       <c r="D409" t="n">
-        <v>1298426990360.585</v>
+        <v>1307974916743.428</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B410" t="n">
-        <v>1831524000000</v>
+        <v>1852876000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.722908985758693</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D410" t="n">
-        <v>1324025157232.704</v>
+        <v>1323388329405.042</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B411" t="n">
-        <v>1836529000000</v>
+        <v>1862728000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7291286912139993</v>
+        <v>0.7666360012266176</v>
       </c>
       <c r="D411" t="n">
-        <v>1339065986146.555</v>
+        <v>1428034345292.855</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B412" t="n">
-        <v>1845945000000</v>
+        <v>1870741000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.7085665698292355</v>
+        <v>0.7617306520414382</v>
       </c>
       <c r="D412" t="n">
-        <v>1307974916743.428</v>
+        <v>1425000761730.652</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B413" t="n">
-        <v>1852876000000</v>
+        <v>1876371000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.7142346975216056</v>
+        <v>0.7233273056057866</v>
       </c>
       <c r="D413" t="n">
-        <v>1323388329405.042</v>
+        <v>1357230379746.835</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B414" t="n">
-        <v>1862728000000</v>
+        <v>1883273000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7666360012266176</v>
+        <v>0.7444353457902182</v>
       </c>
       <c r="D414" t="n">
-        <v>1428034345292.855</v>
+        <v>1401974986972.382</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B415" t="n">
-        <v>1870741000000</v>
+        <v>1901275000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7617306520414382</v>
+        <v>0.761208799573723</v>
       </c>
       <c r="D415" t="n">
-        <v>1425000761730.652</v>
+        <v>1447267260409.53</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B416" t="n">
-        <v>1876371000000</v>
+        <v>1909699000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.7233273056057866</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D416" t="n">
-        <v>1357230379746.835</v>
+        <v>1435432200841.852</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B417" t="n">
-        <v>1883273000000</v>
+        <v>1914336000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7444353457902182</v>
+        <v>0.7660487206986365</v>
       </c>
       <c r="D417" t="n">
-        <v>1401974986972.382</v>
+        <v>1466474643787.345</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B418" t="n">
-        <v>1901275000000</v>
+        <v>1927326000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.761208799573723</v>
+        <v>0.7608034083992696</v>
       </c>
       <c r="D418" t="n">
-        <v>1447267260409.53</v>
+        <v>1466316189896.531</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B419" t="n">
-        <v>1909699000000</v>
+        <v>1943834000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.751653638003608</v>
+        <v>0.7384978952809984</v>
       </c>
       <c r="D419" t="n">
-        <v>1435432200841.852</v>
+        <v>1435517317775.644</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B420" t="n">
-        <v>1914336000000</v>
+        <v>1963247000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7660487206986365</v>
+        <v>0.7213445863088797</v>
       </c>
       <c r="D420" t="n">
-        <v>1466474643787.345</v>
+        <v>1416177595037.149</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B421" t="n">
-        <v>1927326000000</v>
+        <v>1975270000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.7608034083992696</v>
+        <v>0.7586102260658474</v>
       </c>
       <c r="D421" t="n">
-        <v>1466316189896.531</v>
+        <v>1498460021241.086</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B422" t="n">
-        <v>1943834000000</v>
+        <v>1985415000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7384978952809984</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D422" t="n">
-        <v>1435517317775.644</v>
+        <v>1520342292671.721</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B423" t="n">
-        <v>1963247000000</v>
+        <v>1990532000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.7213445863088797</v>
+        <v>0.7640586797066015</v>
       </c>
       <c r="D423" t="n">
-        <v>1416177595037.149</v>
+        <v>1520883251833.741</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B424" t="n">
-        <v>1975270000000</v>
+        <v>2006251000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7586102260658474</v>
+        <v>0.7499062617172854</v>
       </c>
       <c r="D424" t="n">
-        <v>1498460021241.086</v>
+        <v>1504500187476.565</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B425" t="n">
-        <v>1985415000000</v>
+        <v>2015317000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.7432181345224824</v>
       </c>
       <c r="D425" t="n">
-        <v>1520342292671.721</v>
+        <v>1497820141211.446</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B426" t="n">
-        <v>1990532000000</v>
+        <v>2028659000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.7640586797066015</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D426" t="n">
-        <v>1520883251833.741</v>
+        <v>1562189280763.899</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B427" t="n">
-        <v>2006251000000</v>
+        <v>2032466000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.7499062617172854</v>
+        <v>0.8002560819462228</v>
       </c>
       <c r="D427" t="n">
-        <v>1504500187476.565</v>
+        <v>1626493277848.912</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B428" t="n">
-        <v>2015317000000</v>
+        <v>2038289000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7432181345224824</v>
+        <v>0.7947862025115244</v>
       </c>
       <c r="D428" t="n">
-        <v>1497820141211.446</v>
+        <v>1620003973931.013</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B429" t="n">
-        <v>2028659000000</v>
+        <v>2045353000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7700600646850454</v>
+        <v>0.7840677434530343</v>
       </c>
       <c r="D429" t="n">
-        <v>1562189280763.899</v>
+        <v>1603695311274.894</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B430" t="n">
-        <v>2032466000000</v>
+        <v>2054212000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.8002560819462228</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D430" t="n">
-        <v>1626493277848.912</v>
+        <v>1573023968144.574</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B431" t="n">
-        <v>2038289000000</v>
+        <v>2058719000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.7947862025115244</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D431" t="n">
-        <v>1620003973931.013</v>
+        <v>1557629567980.631</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B432" t="n">
-        <v>2045353000000</v>
+        <v>2055155000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.7840677434530343</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D432" t="n">
-        <v>1603695311274.894</v>
+        <v>1604712266729.133</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B433" t="n">
-        <v>2054212000000</v>
+        <v>2061636000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.7657554177195803</v>
+        <v>0.8058017727639</v>
       </c>
       <c r="D433" t="n">
-        <v>1573023968144.574</v>
+        <v>1661269943593.876</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B434" t="n">
-        <v>2058719000000</v>
+        <v>2062698000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.7566013467503971</v>
+        <v>0.7762769756249029</v>
       </c>
       <c r="D434" t="n">
-        <v>1557629567980.631</v>
+        <v>1601224965067.536</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B435" t="n">
-        <v>2055155000000</v>
+        <v>2060315000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.7808229874287499</v>
+        <v>0.7682851874615857</v>
       </c>
       <c r="D435" t="n">
-        <v>1604712266729.133</v>
+        <v>1582909496004.917</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B436" t="n">
-        <v>2061636000000</v>
+        <v>2059374000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.8058017727639</v>
+        <v>0.7532389273877674</v>
       </c>
       <c r="D436" t="n">
-        <v>1661269943593.876</v>
+        <v>1551200662850.256</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B437" t="n">
-        <v>2062698000000</v>
+        <v>2063352000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7762769756249029</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D437" t="n">
-        <v>1601224965067.536</v>
+        <v>1561489329499.016</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B438" t="n">
-        <v>2060315000000</v>
+        <v>2064535000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.7682851874615857</v>
+        <v>0.7406310176270182</v>
       </c>
       <c r="D438" t="n">
-        <v>1582909496004.917</v>
+        <v>1529058657976.596</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B439" t="n">
-        <v>2059374000000</v>
+        <v>2071062000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7532389273877674</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D439" t="n">
-        <v>1551200662850.256</v>
+        <v>1538336180643.244</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B440" t="n">
-        <v>2063352000000</v>
+        <v>2088226000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7567731194187983</v>
+        <v>0.7193209610128039</v>
       </c>
       <c r="D440" t="n">
-        <v>1561489329499.016</v>
+        <v>1502104733131.923</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B441" t="n">
-        <v>2064535000000</v>
+        <v>2088608000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.7406310176270182</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D441" t="n">
-        <v>1529058657976.596</v>
+        <v>1508564824846.515</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B442" t="n">
-        <v>2071062000000</v>
+        <v>2096096000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.7427764985515858</v>
+        <v>0.7078142695356738</v>
       </c>
       <c r="D442" t="n">
-        <v>1538336180643.244</v>
+        <v>1483646659116.648</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B443" t="n">
-        <v>2088226000000</v>
+        <v>2097660000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.7193209610128039</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D443" t="n">
-        <v>1502104733131.923</v>
+        <v>1534498902706.657</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B444" t="n">
-        <v>2088608000000</v>
+        <v>2107869000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.7222824124232574</v>
+        <v>0.7052186177715092</v>
       </c>
       <c r="D444" t="n">
-        <v>1508564824846.515</v>
+        <v>1486508462623.413</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B445" t="n">
-        <v>2096096000000</v>
+        <v>2117724000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.7078142695356738</v>
+        <v>0.7275902211874272</v>
       </c>
       <c r="D445" t="n">
-        <v>1483646659116.648</v>
+        <v>1540835273573.923</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B446" t="n">
-        <v>2097660000000</v>
+        <v>2130492000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.731528895391368</v>
+        <v>0.7094714437743881</v>
       </c>
       <c r="D446" t="n">
-        <v>1534498902706.657</v>
+        <v>1511523235189.784</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B447" t="n">
-        <v>2107869000000</v>
+        <v>2145779000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7052186177715092</v>
+        <v>0.7098743522396536</v>
       </c>
       <c r="D447" t="n">
-        <v>1486508462623.413</v>
+        <v>1523233477674.452</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B448" t="n">
-        <v>2117724000000</v>
+        <v>2146025000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7275902211874272</v>
+        <v>0.7049203440011278</v>
       </c>
       <c r="D448" t="n">
-        <v>1540835273573.923</v>
+        <v>1512776681235.02</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B449" t="n">
-        <v>2130492000000</v>
+        <v>2145795000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.7094714437743881</v>
+        <v>0.6937699458859442</v>
       </c>
       <c r="D449" t="n">
-        <v>1511523235189.784</v>
+        <v>1488688081032.33</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B450" t="n">
-        <v>2145779000000</v>
+        <v>2144720000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7098743522396536</v>
+        <v>0.7023458350891979</v>
       </c>
       <c r="D450" t="n">
-        <v>1523233477674.452</v>
+        <v>1506335159432.505</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B451" t="n">
-        <v>2146025000000</v>
+        <v>2120778000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.7049203440011278</v>
+        <v>0.6845564074479736</v>
       </c>
       <c r="D451" t="n">
-        <v>1512776681235.02</v>
+        <v>1451792168674.699</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B452" t="n">
-        <v>2145795000000</v>
+        <v>2127611000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.6937699458859442</v>
+        <v>0.6738998584810297</v>
       </c>
       <c r="D452" t="n">
-        <v>1488688081032.33</v>
+        <v>1433796751802.682</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B453" t="n">
-        <v>2144720000000</v>
+        <v>2134296000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.7023458350891979</v>
+        <v>0.6751282743721306</v>
       </c>
       <c r="D453" t="n">
-        <v>1506335159432.505</v>
+        <v>1440923575479.341</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B454" t="n">
-        <v>2120778000000</v>
+        <v>2144977000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.6845564074479736</v>
+        <v>0.6892748828232699</v>
       </c>
       <c r="D454" t="n">
-        <v>1451792168674.699</v>
+        <v>1478478770333.609</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B455" t="n">
-        <v>2127611000000</v>
+        <v>2153619000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.6738998584810297</v>
+        <v>0.6764526821348847</v>
       </c>
       <c r="D455" t="n">
-        <v>1433796751802.682</v>
+        <v>1456821348846.648</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B456" t="n">
-        <v>2134296000000</v>
+        <v>2159190000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.6751282743721306</v>
+        <v>0.7019514249613926</v>
       </c>
       <c r="D456" t="n">
-        <v>1440923575479.341</v>
+        <v>1515646497262.389</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B457" t="n">
-        <v>2144977000000</v>
+        <v>2168139000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.6892748828232699</v>
+        <v>0.6690305746972637</v>
       </c>
       <c r="D457" t="n">
-        <v>1478478770333.609</v>
+        <v>1450551281193.551</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B458" t="n">
-        <v>2153619000000</v>
+        <v>2179429000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6764526821348847</v>
+        <v>0.6512112529304506</v>
       </c>
       <c r="D458" t="n">
-        <v>1456821348846.648</v>
+        <v>1419268689762.959</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B459" t="n">
-        <v>2159190000000</v>
+        <v>2240876000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.7019514249613926</v>
+        <v>0.6160290765724142</v>
       </c>
       <c r="D459" t="n">
-        <v>1515646497262.389</v>
+        <v>1380444772993.285</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B460" t="n">
-        <v>2168139000000</v>
+        <v>2306773000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.6690305746972637</v>
+        <v>0.6506011554676522</v>
       </c>
       <c r="D460" t="n">
-        <v>1450551281193.551</v>
+        <v>1500789179201.583</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B461" t="n">
-        <v>2179429000000</v>
+        <v>2313500000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6512112529304506</v>
+        <v>0.6669779230307477</v>
       </c>
       <c r="D461" t="n">
-        <v>1419268689762.959</v>
+        <v>1543053424931.635</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B462" t="n">
-        <v>2240876000000</v>
+        <v>2326139000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6160290765724142</v>
+        <v>0.6903836461921891</v>
       </c>
       <c r="D462" t="n">
-        <v>1380444772993.285</v>
+        <v>1605928324369.853</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B463" t="n">
-        <v>2306773000000</v>
+        <v>2352750000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.6506011554676522</v>
+        <v>0.7144388083160678</v>
       </c>
       <c r="D463" t="n">
-        <v>1500789179201.583</v>
+        <v>1680895906265.628</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B464" t="n">
-        <v>2313500000000</v>
+        <v>2379316000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.6669779230307477</v>
+        <v>0.7377024993360677</v>
       </c>
       <c r="D464" t="n">
-        <v>1543053424931.635</v>
+        <v>1755227359910.295</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B465" t="n">
-        <v>2326139000000</v>
+        <v>2394341000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6903836461921891</v>
+        <v>0.7162092476938062</v>
       </c>
       <c r="D465" t="n">
-        <v>1605928324369.853</v>
+        <v>1714849166332.436</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B466" t="n">
-        <v>2352750000000</v>
+        <v>2406686000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.7144388083160678</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="D466" t="n">
-        <v>1680895906265.628</v>
+        <v>1691870650263.62</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B467" t="n">
-        <v>2379316000000</v>
+        <v>2422093000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7377024993360677</v>
+        <v>0.7344840249724569</v>
       </c>
       <c r="D467" t="n">
-        <v>1755227359910.295</v>
+        <v>1778988615497.613</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B468" t="n">
-        <v>2394341000000</v>
+        <v>2432541000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7162092476938062</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D468" t="n">
-        <v>1714849166332.436</v>
+        <v>1871905348210.85</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B469" t="n">
-        <v>2406686000000</v>
+        <v>2445355000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7029876977152899</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D469" t="n">
-        <v>1691870650263.62</v>
+        <v>1869823367487.383</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B470" t="n">
-        <v>2422093000000</v>
+        <v>2456982000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7344840249724569</v>
+        <v>0.7710694733595498</v>
       </c>
       <c r="D470" t="n">
-        <v>1778988615497.613</v>
+        <v>1894503816793.893</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B471" t="n">
-        <v>2432541000000</v>
+        <v>2460631000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7695267410542516</v>
+        <v>0.7597052343690648</v>
       </c>
       <c r="D471" t="n">
-        <v>1871905348210.85</v>
+        <v>1869354250550.786</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B472" t="n">
-        <v>2445355000000</v>
+        <v>2468677000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7646429117602079</v>
+        <v>0.7714263673532361</v>
       </c>
       <c r="D472" t="n">
-        <v>1869823367487.383</v>
+        <v>1904402530278.485</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B473" t="n">
-        <v>2456982000000</v>
+        <v>2474575000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7710694733595498</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D473" t="n">
-        <v>1894503816793.893</v>
+        <v>1914712937171.154</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B474" t="n">
-        <v>2460631000000</v>
+        <v>2505723000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7597052343690648</v>
+        <v>0.7502438292445045</v>
       </c>
       <c r="D474" t="n">
-        <v>1869354250550.786</v>
+        <v>1879903218546.028</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B475" t="n">
-        <v>2468677000000</v>
+        <v>2536103000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7714263673532361</v>
+        <v>0.7346998751010212</v>
       </c>
       <c r="D475" t="n">
-        <v>1904402530278.485</v>
+        <v>1863274557343.325</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B476" t="n">
-        <v>2474575000000</v>
+        <v>2547798000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.7737542556484061</v>
+        <v>0.7317483663717721</v>
       </c>
       <c r="D476" t="n">
-        <v>1914712937171.154</v>
+        <v>1864347024345.268</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B477" t="n">
-        <v>2505723000000</v>
+        <v>2586119000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7502438292445045</v>
+        <v>0.7232592956900978</v>
       </c>
       <c r="D477" t="n">
-        <v>1879903218546.028</v>
+        <v>1870434606510.78</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B478" t="n">
-        <v>2536103000000</v>
+        <v>2600986000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7346998751010212</v>
+        <v>0.7523888345496953</v>
       </c>
       <c r="D478" t="n">
-        <v>1863274557343.325</v>
+        <v>1956952825220.074</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B479" t="n">
-        <v>2547798000000</v>
+        <v>2620281000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7317483663717721</v>
+        <v>0.7129565595568262</v>
       </c>
       <c r="D479" t="n">
-        <v>1864347024345.268</v>
+        <v>1868146526832.12</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B480" t="n">
-        <v>2586119000000</v>
+        <v>2658542000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7232592956900978</v>
+        <v>0.726907951646083</v>
       </c>
       <c r="D480" t="n">
-        <v>1870434606510.78</v>
+        <v>1932515319585.081</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B481" t="n">
-        <v>2600986000000</v>
+        <v>2657176000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7523888345496953</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D481" t="n">
-        <v>1956952825220.074</v>
+        <v>1878659502262.443</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B482" t="n">
-        <v>2620281000000</v>
+        <v>2667865000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7129565595568262</v>
+        <v>0.7264115993404182</v>
       </c>
       <c r="D482" t="n">
-        <v>1868146526832.12</v>
+        <v>1937968081474.325</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B483" t="n">
-        <v>2658542000000</v>
+        <v>2688610000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.726907951646083</v>
+        <v>0.7486542939067027</v>
       </c>
       <c r="D483" t="n">
-        <v>1932515319585.081</v>
+        <v>2012839421140.5</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B484" t="n">
-        <v>2657176000000</v>
+        <v>2705320000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.7070135746606334</v>
+        <v>0.7064142413111049</v>
       </c>
       <c r="D484" t="n">
-        <v>1878659502262.443</v>
+        <v>1911076575303.758</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B485" t="n">
-        <v>2667865000000</v>
+        <v>2729667000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7264115993404182</v>
+        <v>0.7179111656723597</v>
       </c>
       <c r="D485" t="n">
-        <v>1937968081474.325</v>
+        <v>1959658417867.373</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B486" t="n">
-        <v>2688610000000</v>
+        <v>2752207000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7486542939067027</v>
+        <v>0.6904170118751727</v>
       </c>
       <c r="D486" t="n">
-        <v>2012839421140.5</v>
+        <v>1900170533001.933</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B487" t="n">
-        <v>2705320000000</v>
+        <v>2765710000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7064142413111049</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D487" t="n">
-        <v>1911076575303.758</v>
+        <v>1934198195678.02</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B488" t="n">
-        <v>2729667000000</v>
+        <v>2774212000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7179111656723597</v>
+        <v>0.6845189201029517</v>
       </c>
       <c r="D488" t="n">
-        <v>1959658417867.373</v>
+        <v>1899000602376.65</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B489" t="n">
-        <v>2752207000000</v>
+        <v>2773541000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.6904170118751727</v>
+        <v>0.6402048655569782</v>
       </c>
       <c r="D489" t="n">
-        <v>1900170533001.933</v>
+        <v>1775634443021.767</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B490" t="n">
-        <v>2765710000000</v>
+        <v>2792938000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.6993496048674733</v>
+        <v>0.6400860275621043</v>
       </c>
       <c r="D490" t="n">
-        <v>1934198195678.02</v>
+        <v>1787720589647.249</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B491" t="n">
-        <v>2774212000000</v>
+        <v>2809906000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6845189201029517</v>
+        <v>0.6789788158609451</v>
       </c>
       <c r="D491" t="n">
-        <v>1899000602376.65</v>
+        <v>1907866648560.565</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B492" t="n">
-        <v>2773541000000</v>
+        <v>2828132000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6402048655569782</v>
+        <v>0.6818491749624983</v>
       </c>
       <c r="D492" t="n">
-        <v>1775634443021.767</v>
+        <v>1928359470885.04</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B493" t="n">
-        <v>2792938000000</v>
+        <v>2846999000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.6400860275621043</v>
+        <v>0.7056167090036692</v>
       </c>
       <c r="D493" t="n">
-        <v>1787720589647.249</v>
+        <v>2008890064916.737</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B494" t="n">
-        <v>2809906000000</v>
+        <v>2851089000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6789788158609451</v>
+        <v>0.6730833950326446</v>
       </c>
       <c r="D494" t="n">
-        <v>1907866648560.565</v>
+        <v>1919020663660.228</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B495" t="n">
-        <v>2828132000000</v>
+        <v>2864988000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.6818491749624983</v>
+        <v>0.6686726847208291</v>
       </c>
       <c r="D495" t="n">
-        <v>1928359470885.04</v>
+        <v>1915739217652.959</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B496" t="n">
-        <v>2846999000000</v>
+        <v>2873093000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7056167090036692</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D496" t="n">
-        <v>2008890064916.737</v>
+        <v>1901325524452.385</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B497" t="n">
-        <v>2851089000000</v>
+        <v>2879686000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.6730833950326446</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="D497" t="n">
-        <v>1919020663660.228</v>
+        <v>1872966504065.041</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B498" t="n">
-        <v>2867193000000</v>
+        <v>2867887000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.6686726847208291</v>
+        <v>0.6663557006730193</v>
       </c>
       <c r="D498" t="n">
-        <v>1917213640922.768</v>
+        <v>1911032851336.043</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B499" t="n">
-        <v>2876657000000</v>
+        <v>2876560000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.661769571835087</v>
+        <v>0.671952694530305</v>
       </c>
       <c r="D499" t="n">
-        <v>1903684071206.406</v>
+        <v>1932912242978.094</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B500" t="n">
-        <v>2879660000000</v>
+        <v>2896970000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.6486472461681163</v>
       </c>
       <c r="D500" t="n">
-        <v>1872949593495.935</v>
+        <v>1879111612731.648</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B501" t="n">
-        <v>2867780000000</v>
+        <v>2914420000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6663557006730193</v>
+        <v>0.6435006435006435</v>
       </c>
       <c r="D501" t="n">
-        <v>1910961551276.071</v>
+        <v>1875431145431.146</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Australia_M2 (AUD)</t>
+  </si>
+  <si>
+    <t>Australia_FX (USD)</t>
+  </si>
+  <si>
+    <t>Australia_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7029 +385,7013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Australia_M2 (AUD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Australia_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Australia_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>29983</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>72996000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30011</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>73612000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30042</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>74469000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.062360599034121</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>79112931449.47195</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30072</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>75818000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.050640901981938</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>79657491906.46661</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30103</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>75986000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.023227269244114</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>77750947280.78325</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30133</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>76398000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.9930486889686798</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>75866933739.82919</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30164</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>76839000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.9654373617578175</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>74183241440.10893</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30195</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>77716000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.9494872678552291</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>73790352508.63698</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30225</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>77971000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.9358038029681562</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>72965558321.23012</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30256</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>78867000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.9554748892695373</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>75355438092.0206</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30286</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>79896000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.9800077920419547</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>78298702552.98401</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30317</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>80459000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.9691800454783859</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>77979257279.14545</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30348</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>81369000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.9542895678705817</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>77649587848.06137</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30376</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>83111000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.8649770556618704</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>71889108073.11371</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30407</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>83602000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8673779316051338</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>72514529838.0524</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>30437</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>84753000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.8816787318229365</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>74724917558.18935</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>30468</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>85713000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.8754267628869232</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>75035454127.32684</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>30498</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>86532000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.880514228057711</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>76192657182.28984</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>30529</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>87396000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.8775778696344384</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>76696795494.57138</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>30560</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>88347000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.8973438380112031</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>79277636056.77576</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>30590</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>89071000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.9143274703151014</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>81440062108.4364</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>30621</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>90096000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.9153318329152906</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>82467736818.33603</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>30651</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>91342000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.8987148458588554</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>82090411450.43958</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>30682</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>92416000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.9180207135584059</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>84839802264.21364</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>30713</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>93676000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.943841452455714</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>88415291900.24147</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>30742</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>94512000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.9363296230835064</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>88494385336.86836</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>30773</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>94904000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.9191175963721915</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>87227936366.10646</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>30803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>95596000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.8991997041704909</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>85959894919.88225</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>30834</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>96374000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.8608074299663646</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>82959455255.57843</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>30864</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>97560000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.8352823672877899</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>81490147752.59679</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30895</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>98987000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.8490405408877293</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>84043976020.85365</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>30926</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>100017000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.832639480976511</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>83278102968.8277</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>30956</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>101110000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.8403360920838945</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>84966382270.60257</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>30987</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>102721000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.8579272919317412</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>88127149354.52039</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>31017</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>104098000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.8254229952363601</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>85924882958.11461</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>31048</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>105967000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.8137358878260522</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>86229150825.26328</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>31079</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>107266000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.7095217873529288</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>76107564042.19926</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>31107</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>108745000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.700525389138176</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>76178633441.83095</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>31138</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>109921000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.64649598336571</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>71063484987.54221</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>31168</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>111426000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.6633059386875146</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>73909527524.19501</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>31199</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>111527000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.6680026809352395</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>74500334996.66446</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>31229</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>114424000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.7240081298583299</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>82843906250.90953</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>31260</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>115716000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.7039774528975021</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>81461454939.48735</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>31291</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>117171000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.7058159132437054</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>82701156370.67821</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>31321</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>117884000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.6999860247790153</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>82517152545.04944</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>31352</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>118880000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.6860122063112286</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>81553131086.27885</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>31382</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>119260000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.6823144058248198</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>81372816038.66801</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31413</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>119603000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.7139797433665498</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>85394119245.86946</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31444</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>119806000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.6995942500264639</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>83815588718.67053</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31472</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>121533000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.7114905474389702</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>86469580701.90038</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31503</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>123887000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.7407956090021808</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>91774945612.45317</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31533</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>124860000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.7157171537053905</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>89364443811.65506</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31564</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>125466000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.6734006688659887</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>84488888319.94014</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31594</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>126349000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.5965163623394286</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>75369245865.22447</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31625</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>127225000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.6090875682455973</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>77491165870.04611</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31656</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>127635000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.6279829385827349</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>80152602366.00737</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31686</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>128658000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.6413956646514849</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>82520683422.73074</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31717</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>128693000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.6504064956044684</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>83702763138.82585</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31747</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>130172000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.6649820322187385</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>86562041097.97763</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31778</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>131854000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.6615068996194966</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>87222330742.42911</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31809</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>133002000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.6769105572019712</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>90030457928.97658</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31837</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>133229000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.7059155774806973</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>94048426472.17583</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31868</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>133828000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.7025925517615565</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>94026556017.14558</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31898</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>136015000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.7124029401752721</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>96897485907.93964</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>31929</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>137500000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.7207206947488037</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>99099095527.96051</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>31959</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>139415000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.6989097204056394</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>97438498670.35222</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>31990</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>140680000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.7114905474389702</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>100092490213.7143</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32021</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>142162000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.7099751710323087</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>100931490264.2951</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32051</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>143897000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.6687174223858975</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>96226430929.06349</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32082</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>145973000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.7057162721644487</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>103015521396.6611</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32112</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>146592000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.7224389643467557</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>105903772661.5196</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32143</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>147252000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.7090187030129318</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>104404422056.0602</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32174</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>148183000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.7188039361272259</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>106514523667.1407</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32203</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>150179000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.7416747124775601</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>111383966645.1675</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32234</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>151321000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.7579776809833542</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>114697940664.0821</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32264</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>152842000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.8017317212763958</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>122538279743.3269</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32295</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>155233000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.7907013145867962</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>122742937167.2521</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32325</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>156245000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.8037293104302308</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>125578686108.1714</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32356</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>157947000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.803470955963155</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>126905827081.5124</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32387</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>160379000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>125975176718.6368</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32417</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>163969000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.8196721109916694</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>134400816367.193</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32448</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>167104000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.8749671963860984</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>146210518384.9026</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32478</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>171100000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.8539709649871904</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>146114432109.3083</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32509</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>175146000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.8895214453791269</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>155796123072.3726</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32540</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>178785000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.8005123342980495</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>143119597687.4768</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32568</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>182050000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.8185315878911184</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>149013675575.5781</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32599</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>185463000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.7940288963472376</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>147262981203.2477</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32629</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>187851000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.750018756094043</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>140891773351.0221</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32660</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>192873000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.755972157364011</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>145806617907.2689</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32690</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>196146000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.7555152328681159</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>148191290866.1495</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32721</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>199868000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.7645260114187923</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>152804284850.2512</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32752</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>200107000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.7754943776657619</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>155181853431.5626</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32782</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>201936000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.783024057231792</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>158120746021.1591</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32813</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>203441000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.7824726134585289</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>159187010954.6166</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32843</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>205222000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.7900142202559646</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>162128298309.3696</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32874</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>207127000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.768698605099525</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>159218235978.4493</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32905</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>209565000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.7606876674325853</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>159413511025.5097</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>32933</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>211691000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.753693101851772</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>159550046424.1035</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>32964</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>214181000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.7505253902889639</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>160748278617.4806</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>32994</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>215027000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.7695267469759658</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>165469027822.001</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33025</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>216615000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.7920165053071639</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>171562655297.1113</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33055</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>216930000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.7920165053071639</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>171812140496.2831</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33086</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>219096000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.8145312372729494</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>178460535961.5541</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33117</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>221612000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.8259684207163319</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>183044513651.7878</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33147</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>222945000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>175119783597.2071</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33178</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>225259000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.7738740312770631</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>174322090411.44</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33208</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>227094000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.771009993407479</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>175091743442.878</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33239</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>224942000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.783024057231792</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>176134997481.8338</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33270</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>224739000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.7849909541174906</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>176418082037.4107</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33298</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>225580000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.7750135567308878</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>174827558127.3537</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33329</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>225992000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.7819831030498662</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>176721925424.4453</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33359</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>227444000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.7599939489281786</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>172856063720.0207</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33390</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>228308000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.7675186358897425</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>175230644722.7153</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33420</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>228924000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.7774236181295188</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>177970924356.6819</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33451</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>229742000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>180458719967.6582</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33482</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>231055000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.7994883210786031</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>184725774026.8167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33512</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>230570000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.7800312012480499</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>179851794071.7629</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33543</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>230186000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.7845598619174643</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>180594696375.3334</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33573</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>231685000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.7595321282090233</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>175972201124.1075</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33604</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>231871000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.753012048192771</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>174601656626.506</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33635</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>232831000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.7535227187099691</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>175443448119.9608</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33664</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>231708000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.7695267410542516</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>178305502116.1985</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33695</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>233455000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.75642965204236</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>176592284417.5492</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33725</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>234636000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.7570022710068131</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>177619984859.9546</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33756</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>234934000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.7483349547257352</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>175809324253.5359</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33786</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>236713000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.743549706297866</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>176007881626.8867</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33817</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>238887000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.7142346975216056</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>170621384186.8438</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33848</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>238735000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.7130124777183601</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>170221033868.0927</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33878</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>238779000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.6965243435258063</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>166315386222.7485</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>33909</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>239956000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.6792094002580996</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>162980370848.3326</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>33939</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>241001000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.6890374147316199</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>166058705987.7351</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>33970</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>242941000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.679671039217019</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>165119961938.4218</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34001</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>244542000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.6957973838018369</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>170151683829.6688</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34029</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>245778000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.7055669230226487</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>173412827206.6606</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34060</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>245850000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.7070135746606334</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>173819287330.3167</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34090</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>246522000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.6761782405842179</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>166692812225.3026</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34121</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>249827000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.6657789613848203</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>166329560585.8855</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34151</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>250827000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.6898454746136865</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>173031870860.9272</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34182</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>250151000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.6734006734006733</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>168451851851.8518</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34213</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>252121000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.6471654154801968</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>163163991716.2827</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34243</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>253450000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.6664889362836577</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>168921620901.093</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34274</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>254478000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.6586747464102226</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>167618232116.9806</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34304</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>255662000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.6790710308298249</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>173612657884.0147</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34335</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>258513000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.7084159818645509</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>183134740719.7506</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34366</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>259889000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.7132667617689016</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>185370185449.3581</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34394</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>263081000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.7041261794113506</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>185242219405.7175</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34425</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>264823000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.7150007150007149</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>189348634348.6343</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34455</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>266825000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.7370826269624825</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>196672071939.2644</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34486</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>267811000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.728650539201399</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>195140629554.0659</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34516</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>269074000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.7392622163081245</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>198916241590.8923</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34547</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>271370000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>201567258411.9438</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34578</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>271152000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.7397544015386892</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>200585885486.0186</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34608</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>274934000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.7425007425007425</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>204138699138.6991</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34639</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>277991000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.7691124442393478</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>213806337486.5405</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34669</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>280618000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.7753741180119407</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>217583934248.2748</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34700</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>280403000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.7564868749527195</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>212121189197.3674</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34731</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>281798000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.7388798581350673</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>208214866262.7457</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34759</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>285117000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.7351319561861354</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>209598617951.9224</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34790</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>286401000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.727749072119933</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>208428062004.2209</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34820</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>288031000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.7183908045977012</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>206918821839.0805</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34851</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>288176000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.709622480840193</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>204496168038.6035</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34881</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>290343000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.7383343177790903</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>214370200826.9344</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>34912</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>292935000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.751653638003608</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>220185658448.5869</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>34943</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>296311000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.7553440592189742</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>223816753531.2335</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>34973</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>299249000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.76103500761035</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>227738964992.3896</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35004</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>301591000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.743549706297866</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>224247899472.0797</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35034</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>305907000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>227119311010.4685</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35065</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>307042000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.7462686567164178</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>229135820895.5224</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35096</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>309248000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.7640003056001222</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>236265566506.2266</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35125</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>310928000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.7820442637053258</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>243159458825.3695</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35156</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>312550000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.7871536523929471</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>246024874055.4156</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35186</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>312639000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.7986582541330565</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>249691717913.9046</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35217</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>315972000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.7877116975187081</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>248894840488.3812</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35247</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>319512000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.7730364873222015</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>246994434137.2913</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35278</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>321169000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.7901390644753477</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>253768173198.4829</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35309</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>320134000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.7912644405760405</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>253310650419.3701</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35339</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>326787000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.7917656373713381</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>258738717339.6674</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35370</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>330167000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.8167265599477296</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>269656158118.262</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35400</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>332215000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.794533608771651</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>263955982838.074</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35431</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>334061000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.7627183281214248</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>254794447410.5713</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35462</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>336884000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.7789375292101574</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>262411590590.4347</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35490</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>337800000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.7855459544383347</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>265357423409.2695</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35521</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>341418000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.7805182641273807</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>266482984701.8421</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35551</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>343454000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.7600516835144789</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>261042790909.7819</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35582</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>345110000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.75431847325941</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>260322848306.555</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35612</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>346119000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.7470491558344539</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>258567906768.2654</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35643</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>347534000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.7322252324815114</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>254473163945.2296</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35674</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>347261000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.7246376811594204</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>251638405797.1015</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35704</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>350477000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.7011147724882564</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>245724602117.3666</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35735</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>351809000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.681384573453257</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>239717225402.0169</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35765</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>354102000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.6503219093451258</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>230280288742.9277</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35796</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>355662000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.686530275985171</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>244172731017.4379</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35827</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>357456000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.6792094002580996</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>242787475378.6593</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35855</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>358460000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.6624710168930109</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>237469360715.4687</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35886</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>361075000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.6492241771083556</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>234418619749.3995</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35916</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>362734000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.6229365227683299</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>225960256649.8474</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>35947</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>366181000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.6206168931918327</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>227258114565.8785</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>35977</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>371148000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.6060238773407672</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>224924550027.2711</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36008</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>373883000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.5656748500961647</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>211496209978.5043</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36039</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>376207000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.5935774915415207</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>223308007360.3609</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36069</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>377701000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.623208276205908</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>235386389131.2477</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36100</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>378780000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.6285355122564426</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>238076681332.4953</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36130</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>382072000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.611321677466683</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>233568895953.0505</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36161</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>385148000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.6302388605281402</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>242735236654.6921</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36192</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>387506000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.6187353050365053</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>239763643113.476</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36220</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>391548000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.6338742393509128</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>248192190669.3712</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36251</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>395759000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.6612007405448295</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>261676143877.2812</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36281</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>399895000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.6492241771083556</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>259621502304.7458</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36312</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>403122000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.6676013084985647</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>269124774684.5584</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36342</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>405535000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.6514233600416911</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>264174972314.5072</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36373</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>407895000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.6391001469930339</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>260685754457.7235</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36404</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>411004000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.6525285481239804</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>268191843393.1484</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36434</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>414489000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.6388551715326136</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>264798441193.3815</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36465</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>417772000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.6352029473416757</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>265370005716.8265</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36495</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>417806000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.6535520554212143</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>273057970067.3159</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36526</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>418845000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.6369832473405949</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>266797248232.3715</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36557</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>420631000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.6178178672927221</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>259873347337.205</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36586</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>422707000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.6076810889645115</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>256871050072.9218</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36617</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>426368000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.5838052425710782</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>248915873664.5455</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36647</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>429640000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.5727048851726705</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>246056926865.5862</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36678</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>431970000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.5969080164746613</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>257846355876.5594</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36708</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>434974000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.5809225049378413</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>252686185662.8326</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36739</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>438250000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.576468553640399</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>252637343632.9048</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36770</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>439943000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.5429176393941039</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>238852815027.9602</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36800</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>442251000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.5178127589063795</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>229003210439.1052</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36831</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>436574000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.5281504172388296</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>230576740255.6248</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36861</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>438371000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.5586280096084018</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>244886319200.0447</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36892</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>443319000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.5509338328466752</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>244239435843.7552</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36923</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>448703000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.5259835893120135</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>236010414475.0684</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>36951</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>453498000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.4857198367981348</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>220272974548.2805</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>36982</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>458058000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.5123738279448686</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>234696930880.7706</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37012</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>463582000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.506868062243398</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>234974910030.9189</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37043</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>468478000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.5109078833086395</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>239349103356.6648</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37073</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>466790000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.5097099750242112</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>237927519241.5515</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37104</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>474303000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.5293526017680377</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>251073527076.3856</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37135</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>480979000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.4912556494399685</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>236283651011.9866</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37165</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>488315000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.5031699708161417</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>245705444299.0842</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37196</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>494013000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.5217028380634391</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>257727984140.2337</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37226</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>498545000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.5105166428425566</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>254515519705.9424</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37257</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>503448000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.5079752108097125</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>255739103931.7281</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37288</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>506254000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.5176787285810426</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>262076927059.0671</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37316</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>512472999999.9999</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.5332195798229711</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>273260637730.6174</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37347</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>500266000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.5384449709239716</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>269365711824.2516</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37377</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>502835000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.5673115107505532</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>285264083508.2544</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37408</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>496230000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.5634755169887868</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>279613455795.3457</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37438</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>506215000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.5422405379026136</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>274490293894.3716</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37469</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>513116999999.9999</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.550812448361333</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>282631231065.8221</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37500</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>515897000000.0001</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.5425935973955507</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>279922409115.5724</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37530</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>519345000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.5541701302299806</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>287805486284.2893</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37561</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>526154000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.5607895917451773</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>295061686855.092</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37591</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>531523000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.5616399887672002</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>298524571749.5085</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37622</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>537544000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.5868544600938967</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>315460093896.7136</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37653</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>540568000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.6086797735711242</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>329032807839.7955</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37681</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>547669000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.6046680372475511</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>331157939291.3291</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37712</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>553123000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.6265271599523839</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>346546582294.3425</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37742</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>563646000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.6533385600418137</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>368251666013.3281</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37773</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>564361000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.6738544474393531</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>380297169811.3207</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37803</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>557872000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.6487187804086928</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>361902043464.1583</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37834</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>570787000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.6472073004983496</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>369417513429.5515</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37865</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>577754000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.6807351940095303</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>393297481279.7822</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37895</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>582423000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.7085163667280714</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>412656227858.8635</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37926</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>587210000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.7242702976750923</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>425298761497.791</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>37956</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>594207000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.7489514679448772</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>445032204913.1216</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>37987</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>595410000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.7641170627340108</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>454962940322.4574</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38018</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>603832000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.7737542556484061</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>467217579696.6883</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38047</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>610678000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.7667535654040791</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>468239533813.8322</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38078</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>615959000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.7206168480219068</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>443870433090.7257</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38108</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>616477000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.7153075822603721</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>440970672389.1274</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38139</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>621338000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.6989097008666479</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>434259155717.0813</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38169</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>628311000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.7026419336706015</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>441477655986.5093</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38200</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>631732000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.7041261794113506</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>444819039571.8913</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38231</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>631878000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.7273256236817223</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>459581060440.7593</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38261</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>636611000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.7484469725319961</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>476469575630.5666</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38292</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>643622000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.7728572532653218</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>497427931061.133</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38322</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>647054000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.7802137785753296</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>504840446282.2813</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38353</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>651977000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.7757350089209527</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>505761383911.256</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38384</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>655658000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.791702953052015</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>519086374792.178</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38412</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>657474000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.7723200494284832</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>507780352177.9426</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38443</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>663688000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.7814331483941549</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>518627803391.4199</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38473</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>670249000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.7558007709167863</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>506574710906.2051</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38504</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>677023000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.7625438462711607</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>516259722434.04</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38534</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>678485000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.7568303943086355</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>513498070082.4946</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38565</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>681160000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.7554011179936546</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>514549025532.5578</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38596</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>690129000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.7620208793720947</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>525892707460.1844</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38626</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>688212000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.7485590238790328</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>515167302941.837</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38657</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>692301000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.738061849582995</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>510960956528.157</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38687</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>700073000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.7345379756133392</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>514230204201.5573</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38718</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>708145000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.758552681483729</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>537165288629.2953</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38749</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>711350000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>528374062244.6705</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38777</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>722061000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.7165376898824879</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>517383920894.2391</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38808</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>736225000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.7598206823189727</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>559398981840.2856</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38838</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>740262000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.7521624670928921</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>556797292215.1185</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38869</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>746274000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.7427213309566251</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>554273618538.3245</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38899</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>753038000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.7659313725490196</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>576775428921.5686</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38930</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>761297000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.7638252367858235</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>581497861289.337</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>38961</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>767415000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.7473283013227711</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>573510948359.6144</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>38991</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>776626000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.7739938080495355</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>601103715170.2786</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39022</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>781730000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.7894529091339701</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>617139022657.2985</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39052</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>791373000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.7895775759968418</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>624850375049.3486</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39083</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>797749000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.777363184079602</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>620140702736.3185</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39114</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>814195000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.7879599716334411</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>641553069104.0896</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39142</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>826266000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.8088651621774651</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>668337782091.7253</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39173</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>838018000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.8300821781356353</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>695623806756.8689</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39203</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>846637000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.8279516476237788</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>700974499089.2532</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39234</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>869578000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.8492569002123143</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>738495116772.8239</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39264</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>880405000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.8509189925119128</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>749153335602.4506</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39295</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>899073000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.8180628272251309</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>735498200261.7802</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39326</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>912986000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.8889679082585119</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>811615254689.3058</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39356</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>938446000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.9325748391308403</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>875171127482.9805</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39387</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>962564000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.8844078889183691</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>851299195188.821</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39417</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>971834000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.8749671887304226</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>850322862892.6415</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39448</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>984284000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.8962982880702699</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>882212064174.9575</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39479</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>992008000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.9313588525658936</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>923915432616.1869</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39508</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1000377000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.9139097057210747</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>914254249680.1315</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39539</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1013380000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.9437523593808984</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>956379765949.4148</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39569</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1016485000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.9562057754828839</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>971968827691.7192</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39600</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1035594000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.9590486237652249</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>993185000479.5243</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39630</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1057005000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.9417969485778865</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>995484083631.569</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39661</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1069476000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.8582217645039478</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>917847579814.6241</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39692</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1089266000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.7951653944020356</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>866146628498.7277</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39722</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1102968000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.6685832720465333</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>737425954402.6207</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39753</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1129317000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.6549646319098769</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>739662693214.5664</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39783</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1130783000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.7015574575557738</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>793309246527.2905</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39814</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1144917000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.6358087487283826</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>727948245167.8535</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39845</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1163743000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.6391001469930339</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>743748322362.1143</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39873</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1142763000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.691945751453086</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>790730002767.783</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39904</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1160667000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.7257420712678715</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>842344872632.2666</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39934</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1167788000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.8014747134727899</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>935952552696.9623</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>39965</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1178972000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.8062565508344756</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>950553898250.4233</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>39995</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>1181019000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.8364700961940611</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>987887076537.0138</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40026</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1185332000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.8440243079000674</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>1000449020931.803</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40057</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1184794000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.8841732979664014</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>1047563218390.805</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40087</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1183584000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.901631953836444</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>1067157154449.554</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40118</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1182206000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.9161704076958315</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>1083102153000.458</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40148</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1178434000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.8979078746520608</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>1058125168357.727</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40179</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1182971000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.8842514811212309</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>1046043858873.464</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40210</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1195947000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.8957362952346829</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>1071253135077.033</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40238</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1210169000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.9175153683824203</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>1110348655839.985</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40269</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1216303000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.9247272054743851</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>1124748474200.111</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40299</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1221498000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.8475294516484448</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>1035255530129.672</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40330</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1231556000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.8404773911581779</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>1035094973945.201</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40360</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1242597000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.904649900488511</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>1124115252397.322</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40391</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1253020000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.8930166101089481</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>1118967672798.714</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40422</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1260810000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.9662769349695624</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>1218291622378.974</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40452</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1273880000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.98405825624877</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>1253572131470.183</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40483</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1294322000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.959140610013428</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>1241436792633.8</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40513</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>1302284000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>1.02364622786365</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>1333078104207.186</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40544</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>1311449000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.9979044007584074</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>1308700728470.213</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40575</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1325187000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>1.018952516812716</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>1350302628897.493</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40603</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>1334278000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>1.033698573495968</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>1379241265247.054</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40634</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>1342207000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>1.097574360662935</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>1473171989902.316</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40664</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>1347691000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>1.066325442525059</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>1437077201962.039</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40695</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>1343534000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>1.071466838101361</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>1439552126861.674</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40725</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>1352722000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>1.1001100110011</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>1488143014301.43</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40756</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>1373328000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>1.06951871657754</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>1468800000000</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40787</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>1383775000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.9666505558240697</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>1337626872885.452</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40817</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>1390449000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>1.05496360375567</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>1466873087878.468</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40848</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>1396042000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>1.02880658436214</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>1436257201646.091</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40878</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>1406582000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>1.021554806415364</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>1436900602717.336</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40909</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>1416621000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>1.062699256110521</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>1505442082890.542</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>40940</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>1424055000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>1.073767851390529</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>1529104477611.94</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>40969</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>1434208000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>1.034447088031447</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>1483612289231.406</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41000</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>1438755000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>1.043405676126878</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>1501205133555.927</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41030</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>1457290000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.97323600973236</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>1418287104622.871</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41061</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>1465374000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>1.024275325207416</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>1500946430400.492</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41091</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>1472304000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>1.049758555532228</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>1545563720344.321</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41122</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>1482867000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>1.033698573495968</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>1532837502584.246</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41153</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>1488548000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>1.03777501037775</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>1544777916147.779</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41183</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>1495483000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>1.038205980066445</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>1552619393687.708</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41214</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>1500153000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>1.043187982474442</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>1564941581472.981</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41244</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>1508423000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>1.039933444259567</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>1568659525790.349</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41275</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>1518967000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>1.043079169708981</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>1584402837175.342</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41306</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>1521736000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>1.022076860179886</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>1555331152902.698</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41334</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>1531399000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>1.042535446205171</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>1596537739783.153</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41365</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>1546552000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>1.037129226301597</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>1603974279195.188</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41395</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>1560756000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.9552010698251983</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>1490835800936.097</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41426</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>1561285000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.9149967975112088</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>1428570775002.288</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41456</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>1565767000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.8943743851176101</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>1400381897862.445</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41487</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>1567032000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.8903926631644555</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>1395273795743.923</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41518</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>1578348000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.9329228472805299</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>1472476910159.53</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41548</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>1589865000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.9463423866754992</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>1504556638591.843</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41579</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>1599918000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.9112447603426281</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>1457916894477.857</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41609</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>1613768000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.8918219923303309</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>1439193792918.933</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41640</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>1622097000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.8759635599159076</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>1420897862648.914</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41671</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>1631933000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.8934953538241601</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>1458124553252.323</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41699</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>1637964000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.9266981744045965</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>1517898248540.45</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41730</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>1648196000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.9288500835965076</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>1530926992383.429</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41760</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>1661059000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.931445603576751</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>1547186102831.594</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41791</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>1668993000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.9433072351664937</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>1574373172342.232</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41821</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>1680499000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.9296272194849864</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>1562237612717.3</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41852</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>1693813000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.9344921035417251</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>1582854873376.32</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41883</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>1706001000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.8748906386701663</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>1492564304461.942</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41913</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>1712461000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.880126738250308</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>1507182714310.861</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>41944</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>1716847000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.8511362669163333</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>1461270746446.506</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>41974</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>1731250000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.8176614881439084</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>1415576451349.141</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42005</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>1735199000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.7771215418091389</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>1348460522225.676</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42036</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>1755949000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.7814331483941549</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>1372156755489.568</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42064</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>1760584000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.7612667478684531</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>1340274056029.233</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42095</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>1768918000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.7902015013828526</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>1397801659423.153</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42125</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>1772712000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.7646429117602079</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>1355491665392.262</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42156</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>1781050000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.7705347511172753</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>1372360918477.423</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42186</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>1795874000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.7316894709885124</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>1314022097022.024</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42217</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>1799219000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.7115411982353779</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>1280218443147.858</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42248</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>1812398000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.702000702000702</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>1272304668304.668</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42278</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>1818447000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.7140307033202428</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>1298426990360.585</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42309</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>1831524000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.722908985758693</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>1324025157232.704</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42339</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>1836529000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.7291286912139993</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>1339065986146.555</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42370</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>1845945000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.7085665698292355</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>1307974916743.428</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42401</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>1852876000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.7142346975216056</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>1323388329405.042</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42430</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>1862728000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.7666360012266176</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>1428034345292.855</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42461</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>1870741000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.7617306520414382</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>1425000761730.652</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42491</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>1876371000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.7233273056057866</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>1357230379746.835</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42522</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>1883273000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.7444353457902182</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>1401974986972.382</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42552</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>1901275000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.761208799573723</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>1447267260409.53</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42583</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>1909699000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.751653638003608</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>1435432200841.852</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42614</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>1914336000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.7660487206986365</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>1466474643787.345</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42644</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>1927326000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.7608034083992696</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>1466316189896.531</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42675</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>1943834000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.7384978952809984</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>1435517317775.644</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42705</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>1963247000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.7213445863088797</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>1416177595037.149</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42736</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>1975270000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.7586102260658474</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>1498460021241.086</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42767</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>1985415000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.7657554177195803</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>1520342292671.721</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42795</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>1990532000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.7640586797066015</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>1520883251833.741</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42826</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>2006251000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.7499062617172854</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>1504500187476.565</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42856</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>2015317000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.7432181345224824</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>1497820141211.446</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42887</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>2028659000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.7700600646850454</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>1562189280763.899</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42917</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>2032466000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.8002560819462228</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>1626493277848.912</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>42948</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>2038289000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.7947862025115244</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>1620003973931.013</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>42979</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>2045353000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.7840677434530343</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>1603695311274.894</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43009</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>2054212000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.7657554177195803</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>1573023968144.574</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43040</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>2058719000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.7566013467503971</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>1557629567980.631</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43070</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>2055155000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.7808229874287499</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>1604712266729.133</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43101</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>2061636000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.8058017727639</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>1661269943593.876</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43132</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>2062698000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.7762769756249029</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>1601224965067.536</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43160</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>2060315000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.7682851874615857</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>1582909496004.917</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43191</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>2059374000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.7532389273877674</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>1551200662850.256</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43221</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>2063352000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.7567731194187983</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>1561489329499.016</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43252</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>2064535000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.7406310176270182</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>1529058657976.596</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43282</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>2071062000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>1538336180643.244</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43313</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>2088226000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.7193209610128039</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>1502104733131.923</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43344</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>2088608000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.7222824124232574</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>1508564824846.515</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43374</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>2096096000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.7078142695356738</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>1483646659116.648</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43405</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>2097660000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.731528895391368</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>1534498902706.657</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43435</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>2107869000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.7052186177715092</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>1486508462623.413</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43466</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>2117724000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.7275902211874272</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>1540835273573.923</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43497</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>2130492000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.7094714437743881</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>1511523235189.784</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43525</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>2145779000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.7098743522396536</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>1523233477674.452</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43556</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>2146025000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.7049203440011278</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>1512776681235.02</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43586</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>2145795000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.6937699458859442</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>1488688081032.33</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43617</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>2144720000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.7023458350891979</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>1506335159432.505</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43647</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>2120778000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.6845564074479736</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>1451792168674.699</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43678</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>2127611000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.6738998584810297</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>1433796751802.682</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43709</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>2134296000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.6751282743721306</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>1440923575479.341</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43739</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>2144977000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.6892748828232699</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>1478478770333.609</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43770</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>2153619000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.6764526821348847</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>1456821348846.648</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43800</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>2159190000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.7019514249613926</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>1515646497262.389</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43831</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>2168139000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.6690305746972637</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>1450551281193.551</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43862</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>2179429000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.6512112529304506</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>1419268689762.959</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43891</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>2240876000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.6160290765724142</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>1380444772993.285</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43922</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>2306773000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.6506011554676522</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>1500789179201.583</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>43952</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>2313500000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.6669779230307477</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>1543053424931.635</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>43983</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>2326139000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.6903836461921891</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>1605928324369.853</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44013</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>2352750000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.7144388083160678</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>1680895906265.628</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44044</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>2379316000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.7377024993360677</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>1755227359910.295</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44075</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>2394341000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.7162092476938062</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>1714849166332.436</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44105</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>2406686000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.7029876977152899</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>1691870650263.62</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44136</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>2422093000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.7344840249724569</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>1778988615497.613</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44166</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>2432541000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.7695267410542516</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>1871905348210.85</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44197</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>2445355000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.7646429117602079</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>1869823367487.383</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44228</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>2456982000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.7710694733595498</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>1894503816793.893</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44256</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>2460631000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.7597052343690648</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>1869354250550.786</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44287</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>2468677000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.7714263673532361</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>1904402530278.485</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44317</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>2474575000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.7737542556484061</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>1914712937171.154</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44348</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>2505723000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.7502438292445045</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>1879903218546.028</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44378</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>2536103000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.7346998751010212</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>1863274557343.325</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44409</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>2547798000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>0.7317483663717721</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>1864347024345.268</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44440</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>2586119000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>0.7232592956900978</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>1870434606510.78</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44470</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>2600986000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>0.7523888345496953</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>1956952825220.074</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44501</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>2620281000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>0.7129565595568262</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>1868146526832.12</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44531</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>2658542000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>0.726907951646083</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>1932515319585.081</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44562</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>2657176000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>0.7070135746606334</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>1878659502262.443</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44593</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>2667865000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>0.7264115993404182</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>1937968081474.325</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44621</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>2688610000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>0.7486542939067027</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>2012839421140.5</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44652</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>2705320000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>0.7064142413111049</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>1911076575303.758</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44682</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>2729667000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>0.7179111656723597</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>1959658417867.373</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44713</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>2752207000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>0.6904170118751727</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>1900170533001.933</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44743</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>2765710000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>0.6993496048674733</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>1934198195678.02</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44774</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>2774212000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>0.6845189201029517</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>1899000602376.65</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44805</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>2773541000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>0.6402048655569782</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>1775634443021.767</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44835</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>2792938000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>0.6400860275621043</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>1787720589647.249</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44866</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>2809906000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>0.6789788158609451</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>1907866648560.565</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44896</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>2828132000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>0.6818491749624983</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>1928359470885.04</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44927</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>2846999000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>0.7056167090036692</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>2008890064916.737</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>44958</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>2851089000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>0.6730833950326446</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>1919020663660.228</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>44986</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>2864988000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>0.6686726847208291</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>1915739217652.959</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45017</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>2873093000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>0.661769571835087</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>1901325524452.385</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45047</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>2879686000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>0.6504065040650406</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>1872966504065.041</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45078</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>2867887000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>0.6663557006730193</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>1911032851336.043</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45108</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>2876560000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>0.671952694530305</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>1932912242978.094</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45139</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>2896970000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>0.6486472461681163</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D500">
         <v>1879111612731.648</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
         <v>45170</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>2914420000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>0.6435006435006435</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D501">
         <v>1875431145431.146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -405,6990 +405,6990 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B2">
-        <v>72996000000</v>
+        <v>73612000000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B3">
-        <v>73612000000</v>
+        <v>74469000000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B4">
-        <v>74469000000</v>
+        <v>75818000000</v>
       </c>
       <c r="C4">
-        <v>1.062360599034121</v>
+        <v>1.050640901981938</v>
       </c>
       <c r="D4">
-        <v>79112931449.47195</v>
+        <v>79657491906.46661</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B5">
-        <v>75818000000</v>
+        <v>75986000000</v>
       </c>
       <c r="C5">
-        <v>1.050640901981938</v>
+        <v>1.023227269244114</v>
       </c>
       <c r="D5">
-        <v>79657491906.46661</v>
+        <v>77750947280.78325</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B6">
-        <v>75986000000</v>
+        <v>76398000000</v>
       </c>
       <c r="C6">
-        <v>1.023227269244114</v>
+        <v>0.9930486889686798</v>
       </c>
       <c r="D6">
-        <v>77750947280.78325</v>
+        <v>75866933739.82919</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B7">
-        <v>76398000000</v>
+        <v>76839000000</v>
       </c>
       <c r="C7">
-        <v>0.9930486889686798</v>
+        <v>0.9654373617578175</v>
       </c>
       <c r="D7">
-        <v>75866933739.82919</v>
+        <v>74183241440.10893</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B8">
-        <v>76839000000</v>
+        <v>77716000000</v>
       </c>
       <c r="C8">
-        <v>0.9654373617578175</v>
+        <v>0.9494872678552291</v>
       </c>
       <c r="D8">
-        <v>74183241440.10893</v>
+        <v>73790352508.63698</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B9">
-        <v>77716000000</v>
+        <v>77971000000</v>
       </c>
       <c r="C9">
-        <v>0.9494872678552291</v>
+        <v>0.9358038029681562</v>
       </c>
       <c r="D9">
-        <v>73790352508.63698</v>
+        <v>72965558321.23012</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B10">
-        <v>77971000000</v>
+        <v>78867000000</v>
       </c>
       <c r="C10">
-        <v>0.9358038029681562</v>
+        <v>0.9554748892695373</v>
       </c>
       <c r="D10">
-        <v>72965558321.23012</v>
+        <v>75355438092.0206</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B11">
-        <v>78867000000</v>
+        <v>79896000000</v>
       </c>
       <c r="C11">
-        <v>0.9554748892695373</v>
+        <v>0.9800077920419547</v>
       </c>
       <c r="D11">
-        <v>75355438092.0206</v>
+        <v>78298702552.98401</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B12">
-        <v>79896000000</v>
+        <v>80459000000</v>
       </c>
       <c r="C12">
-        <v>0.9800077920419547</v>
+        <v>0.9691800454783859</v>
       </c>
       <c r="D12">
-        <v>78298702552.98401</v>
+        <v>77979257279.14545</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B13">
-        <v>80459000000</v>
+        <v>81369000000</v>
       </c>
       <c r="C13">
-        <v>0.9691800454783859</v>
+        <v>0.9542895678705817</v>
       </c>
       <c r="D13">
-        <v>77979257279.14545</v>
+        <v>77649587848.06137</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B14">
-        <v>81369000000</v>
+        <v>83111000000</v>
       </c>
       <c r="C14">
-        <v>0.9542895678705817</v>
+        <v>0.8649770556618704</v>
       </c>
       <c r="D14">
-        <v>77649587848.06137</v>
+        <v>71889108073.11371</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B15">
-        <v>83111000000</v>
+        <v>83602000000</v>
       </c>
       <c r="C15">
-        <v>0.8649770556618704</v>
+        <v>0.8673779316051338</v>
       </c>
       <c r="D15">
-        <v>71889108073.11371</v>
+        <v>72514529838.0524</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B16">
-        <v>83602000000</v>
+        <v>84753000000</v>
       </c>
       <c r="C16">
-        <v>0.8673779316051338</v>
+        <v>0.8816787318229365</v>
       </c>
       <c r="D16">
-        <v>72514529838.0524</v>
+        <v>74724917558.18935</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B17">
-        <v>84753000000</v>
+        <v>85713000000</v>
       </c>
       <c r="C17">
-        <v>0.8816787318229365</v>
+        <v>0.8754267628869232</v>
       </c>
       <c r="D17">
-        <v>74724917558.18935</v>
+        <v>75035454127.32684</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B18">
-        <v>85713000000</v>
+        <v>86532000000</v>
       </c>
       <c r="C18">
-        <v>0.8754267628869232</v>
+        <v>0.880514228057711</v>
       </c>
       <c r="D18">
-        <v>75035454127.32684</v>
+        <v>76192657182.28984</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B19">
-        <v>86532000000</v>
+        <v>87396000000</v>
       </c>
       <c r="C19">
-        <v>0.880514228057711</v>
+        <v>0.8775778696344384</v>
       </c>
       <c r="D19">
-        <v>76192657182.28984</v>
+        <v>76696795494.57138</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B20">
-        <v>87396000000</v>
+        <v>88347000000</v>
       </c>
       <c r="C20">
-        <v>0.8775778696344384</v>
+        <v>0.8973438380112031</v>
       </c>
       <c r="D20">
-        <v>76696795494.57138</v>
+        <v>79277636056.77576</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B21">
-        <v>88347000000</v>
+        <v>89071000000</v>
       </c>
       <c r="C21">
-        <v>0.8973438380112031</v>
+        <v>0.9143274703151014</v>
       </c>
       <c r="D21">
-        <v>79277636056.77576</v>
+        <v>81440062108.4364</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B22">
-        <v>89071000000</v>
+        <v>90096000000</v>
       </c>
       <c r="C22">
-        <v>0.9143274703151014</v>
+        <v>0.9153318329152906</v>
       </c>
       <c r="D22">
-        <v>81440062108.4364</v>
+        <v>82467736818.33603</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B23">
-        <v>90096000000</v>
+        <v>91342000000</v>
       </c>
       <c r="C23">
-        <v>0.9153318329152906</v>
+        <v>0.8987148458588554</v>
       </c>
       <c r="D23">
-        <v>82467736818.33603</v>
+        <v>82090411450.43958</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B24">
-        <v>91342000000</v>
+        <v>92416000000</v>
       </c>
       <c r="C24">
-        <v>0.8987148458588554</v>
+        <v>0.9180207135584059</v>
       </c>
       <c r="D24">
-        <v>82090411450.43958</v>
+        <v>84839802264.21364</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B25">
-        <v>92416000000</v>
+        <v>93676000000</v>
       </c>
       <c r="C25">
-        <v>0.9180207135584059</v>
+        <v>0.943841452455714</v>
       </c>
       <c r="D25">
-        <v>84839802264.21364</v>
+        <v>88415291900.24147</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B26">
-        <v>93676000000</v>
+        <v>94512000000</v>
       </c>
       <c r="C26">
-        <v>0.943841452455714</v>
+        <v>0.9363296230835064</v>
       </c>
       <c r="D26">
-        <v>88415291900.24147</v>
+        <v>88494385336.86836</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B27">
-        <v>94512000000</v>
+        <v>94904000000</v>
       </c>
       <c r="C27">
-        <v>0.9363296230835064</v>
+        <v>0.9191175963721915</v>
       </c>
       <c r="D27">
-        <v>88494385336.86836</v>
+        <v>87227936366.10646</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B28">
-        <v>94904000000</v>
+        <v>95596000000</v>
       </c>
       <c r="C28">
-        <v>0.9191175963721915</v>
+        <v>0.8991997041704909</v>
       </c>
       <c r="D28">
-        <v>87227936366.10646</v>
+        <v>85959894919.88225</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B29">
-        <v>95596000000</v>
+        <v>96374000000</v>
       </c>
       <c r="C29">
-        <v>0.8991997041704909</v>
+        <v>0.8608074299663646</v>
       </c>
       <c r="D29">
-        <v>85959894919.88225</v>
+        <v>82959455255.57843</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B30">
-        <v>96374000000</v>
+        <v>97560000000</v>
       </c>
       <c r="C30">
-        <v>0.8608074299663646</v>
+        <v>0.8352823672877899</v>
       </c>
       <c r="D30">
-        <v>82959455255.57843</v>
+        <v>81490147752.59679</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B31">
-        <v>97560000000</v>
+        <v>98987000000</v>
       </c>
       <c r="C31">
-        <v>0.8352823672877899</v>
+        <v>0.8490405408877293</v>
       </c>
       <c r="D31">
-        <v>81490147752.59679</v>
+        <v>84043976020.85365</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B32">
-        <v>98987000000</v>
+        <v>100017000000</v>
       </c>
       <c r="C32">
-        <v>0.8490405408877293</v>
+        <v>0.832639480976511</v>
       </c>
       <c r="D32">
-        <v>84043976020.85365</v>
+        <v>83278102968.8277</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B33">
-        <v>100017000000</v>
+        <v>101110000000</v>
       </c>
       <c r="C33">
-        <v>0.832639480976511</v>
+        <v>0.8403360920838945</v>
       </c>
       <c r="D33">
-        <v>83278102968.8277</v>
+        <v>84966382270.60257</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B34">
-        <v>101110000000</v>
+        <v>102721000000</v>
       </c>
       <c r="C34">
-        <v>0.8403360920838945</v>
+        <v>0.8579272919317412</v>
       </c>
       <c r="D34">
-        <v>84966382270.60257</v>
+        <v>88127149354.52039</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B35">
-        <v>102721000000</v>
+        <v>104098000000</v>
       </c>
       <c r="C35">
-        <v>0.8579272919317412</v>
+        <v>0.8254229952363601</v>
       </c>
       <c r="D35">
-        <v>88127149354.52039</v>
+        <v>85924882958.11461</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B36">
-        <v>104098000000</v>
+        <v>105967000000</v>
       </c>
       <c r="C36">
-        <v>0.8254229952363601</v>
+        <v>0.8137358878260522</v>
       </c>
       <c r="D36">
-        <v>85924882958.11461</v>
+        <v>86229150825.26328</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B37">
-        <v>105967000000</v>
+        <v>107266000000</v>
       </c>
       <c r="C37">
-        <v>0.8137358878260522</v>
+        <v>0.7095217873529288</v>
       </c>
       <c r="D37">
-        <v>86229150825.26328</v>
+        <v>76107564042.19926</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B38">
-        <v>107266000000</v>
+        <v>108745000000</v>
       </c>
       <c r="C38">
-        <v>0.7095217873529288</v>
+        <v>0.700525389138176</v>
       </c>
       <c r="D38">
-        <v>76107564042.19926</v>
+        <v>76178633441.83095</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B39">
-        <v>108745000000</v>
+        <v>109921000000</v>
       </c>
       <c r="C39">
-        <v>0.700525389138176</v>
+        <v>0.64649598336571</v>
       </c>
       <c r="D39">
-        <v>76178633441.83095</v>
+        <v>71063484987.54221</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B40">
-        <v>109921000000</v>
+        <v>111426000000</v>
       </c>
       <c r="C40">
-        <v>0.64649598336571</v>
+        <v>0.6633059386875146</v>
       </c>
       <c r="D40">
-        <v>71063484987.54221</v>
+        <v>73909527524.19501</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B41">
-        <v>111426000000</v>
+        <v>111527000000</v>
       </c>
       <c r="C41">
-        <v>0.6633059386875146</v>
+        <v>0.6680026809352395</v>
       </c>
       <c r="D41">
-        <v>73909527524.19501</v>
+        <v>74500334996.66446</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B42">
-        <v>111527000000</v>
+        <v>114424000000</v>
       </c>
       <c r="C42">
-        <v>0.6680026809352395</v>
+        <v>0.7240081298583299</v>
       </c>
       <c r="D42">
-        <v>74500334996.66446</v>
+        <v>82843906250.90953</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B43">
-        <v>114424000000</v>
+        <v>115716000000</v>
       </c>
       <c r="C43">
-        <v>0.7240081298583299</v>
+        <v>0.7039774528975021</v>
       </c>
       <c r="D43">
-        <v>82843906250.90953</v>
+        <v>81461454939.48735</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B44">
-        <v>115716000000</v>
+        <v>117171000000</v>
       </c>
       <c r="C44">
-        <v>0.7039774528975021</v>
+        <v>0.7058159132437054</v>
       </c>
       <c r="D44">
-        <v>81461454939.48735</v>
+        <v>82701156370.67821</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B45">
-        <v>117171000000</v>
+        <v>117884000000</v>
       </c>
       <c r="C45">
-        <v>0.7058159132437054</v>
+        <v>0.6999860247790153</v>
       </c>
       <c r="D45">
-        <v>82701156370.67821</v>
+        <v>82517152545.04944</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B46">
-        <v>117884000000</v>
+        <v>118880000000</v>
       </c>
       <c r="C46">
-        <v>0.6999860247790153</v>
+        <v>0.6860122063112286</v>
       </c>
       <c r="D46">
-        <v>82517152545.04944</v>
+        <v>81553131086.27885</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B47">
-        <v>118880000000</v>
+        <v>119260000000</v>
       </c>
       <c r="C47">
-        <v>0.6860122063112286</v>
+        <v>0.6823144058248198</v>
       </c>
       <c r="D47">
-        <v>81553131086.27885</v>
+        <v>81372816038.66801</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B48">
-        <v>119260000000</v>
+        <v>119603000000</v>
       </c>
       <c r="C48">
-        <v>0.6823144058248198</v>
+        <v>0.7139797433665498</v>
       </c>
       <c r="D48">
-        <v>81372816038.66801</v>
+        <v>85394119245.86946</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B49">
-        <v>119603000000</v>
+        <v>119806000000</v>
       </c>
       <c r="C49">
-        <v>0.7139797433665498</v>
+        <v>0.6995942500264639</v>
       </c>
       <c r="D49">
-        <v>85394119245.86946</v>
+        <v>83815588718.67053</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B50">
-        <v>119806000000</v>
+        <v>121533000000</v>
       </c>
       <c r="C50">
-        <v>0.6995942500264639</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D50">
-        <v>83815588718.67053</v>
+        <v>86469580701.90038</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B51">
-        <v>121533000000</v>
+        <v>123887000000</v>
       </c>
       <c r="C51">
-        <v>0.7114905474389702</v>
+        <v>0.7407956090021808</v>
       </c>
       <c r="D51">
-        <v>86469580701.90038</v>
+        <v>91774945612.45317</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B52">
-        <v>123887000000</v>
+        <v>124860000000</v>
       </c>
       <c r="C52">
-        <v>0.7407956090021808</v>
+        <v>0.7157171537053905</v>
       </c>
       <c r="D52">
-        <v>91774945612.45317</v>
+        <v>89364443811.65506</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B53">
-        <v>124860000000</v>
+        <v>125466000000</v>
       </c>
       <c r="C53">
-        <v>0.7157171537053905</v>
+        <v>0.6734006688659887</v>
       </c>
       <c r="D53">
-        <v>89364443811.65506</v>
+        <v>84488888319.94014</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B54">
-        <v>125466000000</v>
+        <v>126349000000</v>
       </c>
       <c r="C54">
-        <v>0.6734006688659887</v>
+        <v>0.5965163623394286</v>
       </c>
       <c r="D54">
-        <v>84488888319.94014</v>
+        <v>75369245865.22447</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B55">
-        <v>126349000000</v>
+        <v>127225000000</v>
       </c>
       <c r="C55">
-        <v>0.5965163623394286</v>
+        <v>0.6090875682455973</v>
       </c>
       <c r="D55">
-        <v>75369245865.22447</v>
+        <v>77491165870.04611</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B56">
-        <v>127225000000</v>
+        <v>127635000000</v>
       </c>
       <c r="C56">
-        <v>0.6090875682455973</v>
+        <v>0.6279829385827349</v>
       </c>
       <c r="D56">
-        <v>77491165870.04611</v>
+        <v>80152602366.00737</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B57">
-        <v>127635000000</v>
+        <v>128658000000</v>
       </c>
       <c r="C57">
-        <v>0.6279829385827349</v>
+        <v>0.6413956646514849</v>
       </c>
       <c r="D57">
-        <v>80152602366.00737</v>
+        <v>82520683422.73074</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B58">
-        <v>128658000000</v>
+        <v>128693000000</v>
       </c>
       <c r="C58">
-        <v>0.6413956646514849</v>
+        <v>0.6504064956044684</v>
       </c>
       <c r="D58">
-        <v>82520683422.73074</v>
+        <v>83702763138.82585</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B59">
-        <v>128693000000</v>
+        <v>130172000000</v>
       </c>
       <c r="C59">
-        <v>0.6504064956044684</v>
+        <v>0.6649820322187385</v>
       </c>
       <c r="D59">
-        <v>83702763138.82585</v>
+        <v>86562041097.97763</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B60">
-        <v>130172000000</v>
+        <v>131854000000</v>
       </c>
       <c r="C60">
-        <v>0.6649820322187385</v>
+        <v>0.6615068996194966</v>
       </c>
       <c r="D60">
-        <v>86562041097.97763</v>
+        <v>87222330742.42911</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B61">
-        <v>131854000000</v>
+        <v>133002000000</v>
       </c>
       <c r="C61">
-        <v>0.6615068996194966</v>
+        <v>0.6769105572019712</v>
       </c>
       <c r="D61">
-        <v>87222330742.42911</v>
+        <v>90030457928.97658</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B62">
-        <v>133002000000</v>
+        <v>133229000000</v>
       </c>
       <c r="C62">
-        <v>0.6769105572019712</v>
+        <v>0.7059155774806973</v>
       </c>
       <c r="D62">
-        <v>90030457928.97658</v>
+        <v>94048426472.17583</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B63">
-        <v>133229000000</v>
+        <v>133828000000</v>
       </c>
       <c r="C63">
-        <v>0.7059155774806973</v>
+        <v>0.7025925517615565</v>
       </c>
       <c r="D63">
-        <v>94048426472.17583</v>
+        <v>94026556017.14558</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B64">
-        <v>133828000000</v>
+        <v>136015000000</v>
       </c>
       <c r="C64">
-        <v>0.7025925517615565</v>
+        <v>0.7124029401752721</v>
       </c>
       <c r="D64">
-        <v>94026556017.14558</v>
+        <v>96897485907.93964</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B65">
-        <v>136015000000</v>
+        <v>137500000000</v>
       </c>
       <c r="C65">
-        <v>0.7124029401752721</v>
+        <v>0.7207206947488037</v>
       </c>
       <c r="D65">
-        <v>96897485907.93964</v>
+        <v>99099095527.96051</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B66">
-        <v>137500000000</v>
+        <v>139415000000</v>
       </c>
       <c r="C66">
-        <v>0.7207206947488037</v>
+        <v>0.6989097204056394</v>
       </c>
       <c r="D66">
-        <v>99099095527.96051</v>
+        <v>97438498670.35222</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B67">
-        <v>139415000000</v>
+        <v>140680000000</v>
       </c>
       <c r="C67">
-        <v>0.6989097204056394</v>
+        <v>0.7114905474389702</v>
       </c>
       <c r="D67">
-        <v>97438498670.35222</v>
+        <v>100092490213.7143</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B68">
-        <v>140680000000</v>
+        <v>142162000000</v>
       </c>
       <c r="C68">
-        <v>0.7114905474389702</v>
+        <v>0.7099751710323087</v>
       </c>
       <c r="D68">
-        <v>100092490213.7143</v>
+        <v>100931490264.2951</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B69">
-        <v>142162000000</v>
+        <v>143897000000</v>
       </c>
       <c r="C69">
-        <v>0.7099751710323087</v>
+        <v>0.6687174223858975</v>
       </c>
       <c r="D69">
-        <v>100931490264.2951</v>
+        <v>96226430929.06349</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B70">
-        <v>143897000000</v>
+        <v>145973000000</v>
       </c>
       <c r="C70">
-        <v>0.6687174223858975</v>
+        <v>0.7057162721644487</v>
       </c>
       <c r="D70">
-        <v>96226430929.06349</v>
+        <v>103015521396.6611</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B71">
-        <v>145973000000</v>
+        <v>146592000000</v>
       </c>
       <c r="C71">
-        <v>0.7057162721644487</v>
+        <v>0.7224389643467557</v>
       </c>
       <c r="D71">
-        <v>103015521396.6611</v>
+        <v>105903772661.5196</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B72">
-        <v>146592000000</v>
+        <v>147252000000</v>
       </c>
       <c r="C72">
-        <v>0.7224389643467557</v>
+        <v>0.7090187030129318</v>
       </c>
       <c r="D72">
-        <v>105903772661.5196</v>
+        <v>104404422056.0602</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B73">
-        <v>147252000000</v>
+        <v>148183000000</v>
       </c>
       <c r="C73">
-        <v>0.7090187030129318</v>
+        <v>0.7188039361272259</v>
       </c>
       <c r="D73">
-        <v>104404422056.0602</v>
+        <v>106514523667.1407</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B74">
-        <v>148183000000</v>
+        <v>150179000000</v>
       </c>
       <c r="C74">
-        <v>0.7188039361272259</v>
+        <v>0.7416747124775601</v>
       </c>
       <c r="D74">
-        <v>106514523667.1407</v>
+        <v>111383966645.1675</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B75">
-        <v>150179000000</v>
+        <v>151321000000</v>
       </c>
       <c r="C75">
-        <v>0.7416747124775601</v>
+        <v>0.7579776809833542</v>
       </c>
       <c r="D75">
-        <v>111383966645.1675</v>
+        <v>114697940664.0821</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B76">
-        <v>151321000000</v>
+        <v>152842000000</v>
       </c>
       <c r="C76">
-        <v>0.7579776809833542</v>
+        <v>0.8017317212763958</v>
       </c>
       <c r="D76">
-        <v>114697940664.0821</v>
+        <v>122538279743.3269</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B77">
-        <v>152842000000</v>
+        <v>155233000000</v>
       </c>
       <c r="C77">
-        <v>0.8017317212763958</v>
+        <v>0.7907013145867962</v>
       </c>
       <c r="D77">
-        <v>122538279743.3269</v>
+        <v>122742937167.2521</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B78">
-        <v>155233000000</v>
+        <v>156245000000</v>
       </c>
       <c r="C78">
-        <v>0.7907013145867962</v>
+        <v>0.8037293104302308</v>
       </c>
       <c r="D78">
-        <v>122742937167.2521</v>
+        <v>125578686108.1714</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B79">
-        <v>156245000000</v>
+        <v>157947000000</v>
       </c>
       <c r="C79">
-        <v>0.8037293104302308</v>
+        <v>0.803470955963155</v>
       </c>
       <c r="D79">
-        <v>125578686108.1714</v>
+        <v>126905827081.5124</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B80">
-        <v>157947000000</v>
+        <v>160379000000</v>
       </c>
       <c r="C80">
-        <v>0.803470955963155</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D80">
-        <v>126905827081.5124</v>
+        <v>125975176718.6368</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B81">
-        <v>160379000000</v>
+        <v>163969000000</v>
       </c>
       <c r="C81">
-        <v>0.7854842387010567</v>
+        <v>0.8196721109916694</v>
       </c>
       <c r="D81">
-        <v>125975176718.6368</v>
+        <v>134400816367.193</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B82">
-        <v>163969000000</v>
+        <v>167104000000</v>
       </c>
       <c r="C82">
-        <v>0.8196721109916694</v>
+        <v>0.8749671963860984</v>
       </c>
       <c r="D82">
-        <v>134400816367.193</v>
+        <v>146210518384.9026</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B83">
-        <v>167104000000</v>
+        <v>171100000000</v>
       </c>
       <c r="C83">
-        <v>0.8749671963860984</v>
+        <v>0.8539709649871904</v>
       </c>
       <c r="D83">
-        <v>146210518384.9026</v>
+        <v>146114432109.3083</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B84">
-        <v>171100000000</v>
+        <v>175146000000</v>
       </c>
       <c r="C84">
-        <v>0.8539709649871904</v>
+        <v>0.8895214453791269</v>
       </c>
       <c r="D84">
-        <v>146114432109.3083</v>
+        <v>155796123072.3726</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B85">
-        <v>175146000000</v>
+        <v>178785000000</v>
       </c>
       <c r="C85">
-        <v>0.8895214453791269</v>
+        <v>0.8005123342980495</v>
       </c>
       <c r="D85">
-        <v>155796123072.3726</v>
+        <v>143119597687.4768</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B86">
-        <v>178785000000</v>
+        <v>182050000000</v>
       </c>
       <c r="C86">
-        <v>0.8005123342980495</v>
+        <v>0.8185315878911184</v>
       </c>
       <c r="D86">
-        <v>143119597687.4768</v>
+        <v>149013675575.5781</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B87">
-        <v>182050000000</v>
+        <v>185463000000</v>
       </c>
       <c r="C87">
-        <v>0.8185315878911184</v>
+        <v>0.7940288963472376</v>
       </c>
       <c r="D87">
-        <v>149013675575.5781</v>
+        <v>147262981203.2477</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B88">
-        <v>185463000000</v>
+        <v>187851000000</v>
       </c>
       <c r="C88">
-        <v>0.7940288963472376</v>
+        <v>0.750018756094043</v>
       </c>
       <c r="D88">
-        <v>147262981203.2477</v>
+        <v>140891773351.0221</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B89">
-        <v>187851000000</v>
+        <v>192873000000</v>
       </c>
       <c r="C89">
-        <v>0.750018756094043</v>
+        <v>0.755972157364011</v>
       </c>
       <c r="D89">
-        <v>140891773351.0221</v>
+        <v>145806617907.2689</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B90">
-        <v>192873000000</v>
+        <v>196146000000</v>
       </c>
       <c r="C90">
-        <v>0.755972157364011</v>
+        <v>0.7555152328681159</v>
       </c>
       <c r="D90">
-        <v>145806617907.2689</v>
+        <v>148191290866.1495</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B91">
-        <v>196146000000</v>
+        <v>199868000000</v>
       </c>
       <c r="C91">
-        <v>0.7555152328681159</v>
+        <v>0.7645260114187923</v>
       </c>
       <c r="D91">
-        <v>148191290866.1495</v>
+        <v>152804284850.2512</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B92">
-        <v>199868000000</v>
+        <v>200107000000</v>
       </c>
       <c r="C92">
-        <v>0.7645260114187923</v>
+        <v>0.7754943776657619</v>
       </c>
       <c r="D92">
-        <v>152804284850.2512</v>
+        <v>155181853431.5626</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B93">
-        <v>200107000000</v>
+        <v>201936000000</v>
       </c>
       <c r="C93">
-        <v>0.7754943776657619</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D93">
-        <v>155181853431.5626</v>
+        <v>158120746021.1591</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B94">
-        <v>201936000000</v>
+        <v>203441000000</v>
       </c>
       <c r="C94">
-        <v>0.783024057231792</v>
+        <v>0.7824726134585289</v>
       </c>
       <c r="D94">
-        <v>158120746021.1591</v>
+        <v>159187010954.6166</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B95">
-        <v>203441000000</v>
+        <v>205222000000</v>
       </c>
       <c r="C95">
-        <v>0.7824726134585289</v>
+        <v>0.7900142202559646</v>
       </c>
       <c r="D95">
-        <v>159187010954.6166</v>
+        <v>162128298309.3696</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B96">
-        <v>205222000000</v>
+        <v>207127000000</v>
       </c>
       <c r="C96">
-        <v>0.7900142202559646</v>
+        <v>0.768698605099525</v>
       </c>
       <c r="D96">
-        <v>162128298309.3696</v>
+        <v>159218235978.4493</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B97">
-        <v>207127000000</v>
+        <v>209565000000</v>
       </c>
       <c r="C97">
-        <v>0.768698605099525</v>
+        <v>0.7606876674325853</v>
       </c>
       <c r="D97">
-        <v>159218235978.4493</v>
+        <v>159413511025.5097</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B98">
-        <v>209565000000</v>
+        <v>211691000000</v>
       </c>
       <c r="C98">
-        <v>0.7606876674325853</v>
+        <v>0.753693101851772</v>
       </c>
       <c r="D98">
-        <v>159413511025.5097</v>
+        <v>159550046424.1035</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B99">
-        <v>211691000000</v>
+        <v>214181000000</v>
       </c>
       <c r="C99">
-        <v>0.753693101851772</v>
+        <v>0.7505253902889639</v>
       </c>
       <c r="D99">
-        <v>159550046424.1035</v>
+        <v>160748278617.4806</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B100">
-        <v>214181000000</v>
+        <v>215027000000</v>
       </c>
       <c r="C100">
-        <v>0.7505253902889639</v>
+        <v>0.7695267469759658</v>
       </c>
       <c r="D100">
-        <v>160748278617.4806</v>
+        <v>165469027822.001</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B101">
-        <v>215027000000</v>
+        <v>216615000000</v>
       </c>
       <c r="C101">
-        <v>0.7695267469759658</v>
+        <v>0.7920165053071639</v>
       </c>
       <c r="D101">
-        <v>165469027822.001</v>
+        <v>171562655297.1113</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B102">
-        <v>216615000000</v>
+        <v>216930000000</v>
       </c>
       <c r="C102">
         <v>0.7920165053071639</v>
       </c>
       <c r="D102">
-        <v>171562655297.1113</v>
+        <v>171812140496.2831</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B103">
-        <v>216930000000</v>
+        <v>219096000000</v>
       </c>
       <c r="C103">
-        <v>0.7920165053071639</v>
+        <v>0.8145312372729494</v>
       </c>
       <c r="D103">
-        <v>171812140496.2831</v>
+        <v>178460535961.5541</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B104">
-        <v>219096000000</v>
+        <v>221612000000</v>
       </c>
       <c r="C104">
-        <v>0.8145312372729494</v>
+        <v>0.8259684207163319</v>
       </c>
       <c r="D104">
-        <v>178460535961.5541</v>
+        <v>183044513651.7878</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B105">
-        <v>221612000000</v>
+        <v>222945000000</v>
       </c>
       <c r="C105">
-        <v>0.8259684207163319</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D105">
-        <v>183044513651.7878</v>
+        <v>175119783597.2071</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B106">
-        <v>222945000000</v>
+        <v>225259000000</v>
       </c>
       <c r="C106">
-        <v>0.7854842387010567</v>
+        <v>0.7738740312770631</v>
       </c>
       <c r="D106">
-        <v>175119783597.2071</v>
+        <v>174322090411.44</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B107">
-        <v>225259000000</v>
+        <v>227094000000</v>
       </c>
       <c r="C107">
-        <v>0.7738740312770631</v>
+        <v>0.771009993407479</v>
       </c>
       <c r="D107">
-        <v>174322090411.44</v>
+        <v>175091743442.878</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B108">
-        <v>227094000000</v>
+        <v>224942000000</v>
       </c>
       <c r="C108">
-        <v>0.771009993407479</v>
+        <v>0.783024057231792</v>
       </c>
       <c r="D108">
-        <v>175091743442.878</v>
+        <v>176134997481.8338</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B109">
-        <v>224942000000</v>
+        <v>224739000000</v>
       </c>
       <c r="C109">
-        <v>0.783024057231792</v>
+        <v>0.7849909541174906</v>
       </c>
       <c r="D109">
-        <v>176134997481.8338</v>
+        <v>176418082037.4107</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B110">
-        <v>224739000000</v>
+        <v>225580000000</v>
       </c>
       <c r="C110">
-        <v>0.7849909541174906</v>
+        <v>0.7750135567308878</v>
       </c>
       <c r="D110">
-        <v>176418082037.4107</v>
+        <v>174827558127.3537</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B111">
-        <v>225580000000</v>
+        <v>225992000000</v>
       </c>
       <c r="C111">
-        <v>0.7750135567308878</v>
+        <v>0.7819831030498662</v>
       </c>
       <c r="D111">
-        <v>174827558127.3537</v>
+        <v>176721925424.4453</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B112">
-        <v>225992000000</v>
+        <v>227444000000</v>
       </c>
       <c r="C112">
-        <v>0.7819831030498662</v>
+        <v>0.7599939489281786</v>
       </c>
       <c r="D112">
-        <v>176721925424.4453</v>
+        <v>172856063720.0207</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B113">
-        <v>227444000000</v>
+        <v>228308000000</v>
       </c>
       <c r="C113">
-        <v>0.7599939489281786</v>
+        <v>0.7675186358897425</v>
       </c>
       <c r="D113">
-        <v>172856063720.0207</v>
+        <v>175230644722.7153</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B114">
-        <v>228308000000</v>
+        <v>228924000000</v>
       </c>
       <c r="C114">
-        <v>0.7675186358897425</v>
+        <v>0.7774236181295188</v>
       </c>
       <c r="D114">
-        <v>175230644722.7153</v>
+        <v>177970924356.6819</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B115">
-        <v>228924000000</v>
+        <v>229742000000</v>
       </c>
       <c r="C115">
-        <v>0.7774236181295188</v>
+        <v>0.7854842387010567</v>
       </c>
       <c r="D115">
-        <v>177970924356.6819</v>
+        <v>180458719967.6582</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B116">
-        <v>229742000000</v>
+        <v>231055000000</v>
       </c>
       <c r="C116">
-        <v>0.7854842387010567</v>
+        <v>0.7994883210786031</v>
       </c>
       <c r="D116">
-        <v>180458719967.6582</v>
+        <v>184725774026.8167</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B117">
-        <v>231055000000</v>
+        <v>230570000000</v>
       </c>
       <c r="C117">
-        <v>0.7994883210786031</v>
+        <v>0.7800312012480499</v>
       </c>
       <c r="D117">
-        <v>184725774026.8167</v>
+        <v>179851794071.7629</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B118">
-        <v>230570000000</v>
+        <v>230186000000</v>
       </c>
       <c r="C118">
-        <v>0.7800312012480499</v>
+        <v>0.7845598619174643</v>
       </c>
       <c r="D118">
-        <v>179851794071.7629</v>
+        <v>180594696375.3334</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B119">
-        <v>230186000000</v>
+        <v>231685000000</v>
       </c>
       <c r="C119">
-        <v>0.7845598619174643</v>
+        <v>0.7595321282090233</v>
       </c>
       <c r="D119">
-        <v>180594696375.3334</v>
+        <v>175972201124.1075</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B120">
-        <v>231685000000</v>
+        <v>231871000000</v>
       </c>
       <c r="C120">
-        <v>0.7595321282090233</v>
+        <v>0.753012048192771</v>
       </c>
       <c r="D120">
-        <v>175972201124.1075</v>
+        <v>174601656626.506</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B121">
-        <v>231871000000</v>
+        <v>232831000000</v>
       </c>
       <c r="C121">
-        <v>0.753012048192771</v>
+        <v>0.7535227187099691</v>
       </c>
       <c r="D121">
-        <v>174601656626.506</v>
+        <v>175443448119.9608</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B122">
-        <v>232831000000</v>
+        <v>231708000000</v>
       </c>
       <c r="C122">
-        <v>0.7535227187099691</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D122">
-        <v>175443448119.9608</v>
+        <v>178305502116.1985</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B123">
-        <v>231708000000</v>
+        <v>233455000000</v>
       </c>
       <c r="C123">
-        <v>0.7695267410542516</v>
+        <v>0.75642965204236</v>
       </c>
       <c r="D123">
-        <v>178305502116.1985</v>
+        <v>176592284417.5492</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B124">
-        <v>233455000000</v>
+        <v>234636000000</v>
       </c>
       <c r="C124">
-        <v>0.75642965204236</v>
+        <v>0.7570022710068131</v>
       </c>
       <c r="D124">
-        <v>176592284417.5492</v>
+        <v>177619984859.9546</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B125">
-        <v>234636000000</v>
+        <v>234934000000</v>
       </c>
       <c r="C125">
-        <v>0.7570022710068131</v>
+        <v>0.7483349547257352</v>
       </c>
       <c r="D125">
-        <v>177619984859.9546</v>
+        <v>175809324253.5359</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B126">
-        <v>234934000000</v>
+        <v>236713000000</v>
       </c>
       <c r="C126">
-        <v>0.7483349547257352</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D126">
-        <v>175809324253.5359</v>
+        <v>176007881626.8867</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B127">
-        <v>236713000000</v>
+        <v>238887000000</v>
       </c>
       <c r="C127">
-        <v>0.743549706297866</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D127">
-        <v>176007881626.8867</v>
+        <v>170621384186.8438</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B128">
-        <v>238887000000</v>
+        <v>238735000000</v>
       </c>
       <c r="C128">
-        <v>0.7142346975216056</v>
+        <v>0.7130124777183601</v>
       </c>
       <c r="D128">
-        <v>170621384186.8438</v>
+        <v>170221033868.0927</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B129">
-        <v>238735000000</v>
+        <v>238779000000</v>
       </c>
       <c r="C129">
-        <v>0.7130124777183601</v>
+        <v>0.6965243435258063</v>
       </c>
       <c r="D129">
-        <v>170221033868.0927</v>
+        <v>166315386222.7485</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B130">
-        <v>238779000000</v>
+        <v>239956000000</v>
       </c>
       <c r="C130">
-        <v>0.6965243435258063</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D130">
-        <v>166315386222.7485</v>
+        <v>162980370848.3326</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B131">
-        <v>239956000000</v>
+        <v>241001000000</v>
       </c>
       <c r="C131">
-        <v>0.6792094002580996</v>
+        <v>0.6890374147316199</v>
       </c>
       <c r="D131">
-        <v>162980370848.3326</v>
+        <v>166058705987.7351</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B132">
-        <v>241001000000</v>
+        <v>242941000000</v>
       </c>
       <c r="C132">
-        <v>0.6890374147316199</v>
+        <v>0.679671039217019</v>
       </c>
       <c r="D132">
-        <v>166058705987.7351</v>
+        <v>165119961938.4218</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B133">
-        <v>242941000000</v>
+        <v>244542000000</v>
       </c>
       <c r="C133">
-        <v>0.679671039217019</v>
+        <v>0.6957973838018369</v>
       </c>
       <c r="D133">
-        <v>165119961938.4218</v>
+        <v>170151683829.6688</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B134">
-        <v>244542000000</v>
+        <v>245778000000</v>
       </c>
       <c r="C134">
-        <v>0.6957973838018369</v>
+        <v>0.7055669230226487</v>
       </c>
       <c r="D134">
-        <v>170151683829.6688</v>
+        <v>173412827206.6606</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B135">
-        <v>245778000000</v>
+        <v>245850000000</v>
       </c>
       <c r="C135">
-        <v>0.7055669230226487</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D135">
-        <v>173412827206.6606</v>
+        <v>173819287330.3167</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B136">
-        <v>245850000000</v>
+        <v>246522000000</v>
       </c>
       <c r="C136">
-        <v>0.7070135746606334</v>
+        <v>0.6761782405842179</v>
       </c>
       <c r="D136">
-        <v>173819287330.3167</v>
+        <v>166692812225.3026</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B137">
-        <v>246522000000</v>
+        <v>249827000000</v>
       </c>
       <c r="C137">
-        <v>0.6761782405842179</v>
+        <v>0.6657789613848203</v>
       </c>
       <c r="D137">
-        <v>166692812225.3026</v>
+        <v>166329560585.8855</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B138">
-        <v>249827000000</v>
+        <v>250827000000</v>
       </c>
       <c r="C138">
-        <v>0.6657789613848203</v>
+        <v>0.6898454746136865</v>
       </c>
       <c r="D138">
-        <v>166329560585.8855</v>
+        <v>173031870860.9272</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B139">
-        <v>250827000000</v>
+        <v>250151000000</v>
       </c>
       <c r="C139">
-        <v>0.6898454746136865</v>
+        <v>0.6734006734006733</v>
       </c>
       <c r="D139">
-        <v>173031870860.9272</v>
+        <v>168451851851.8518</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B140">
-        <v>250151000000</v>
+        <v>252121000000</v>
       </c>
       <c r="C140">
-        <v>0.6734006734006733</v>
+        <v>0.6471654154801968</v>
       </c>
       <c r="D140">
-        <v>168451851851.8518</v>
+        <v>163163991716.2827</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B141">
-        <v>252121000000</v>
+        <v>253450000000</v>
       </c>
       <c r="C141">
-        <v>0.6471654154801968</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="D141">
-        <v>163163991716.2827</v>
+        <v>168921620901.093</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B142">
-        <v>253450000000</v>
+        <v>254478000000</v>
       </c>
       <c r="C142">
-        <v>0.6664889362836577</v>
+        <v>0.6586747464102226</v>
       </c>
       <c r="D142">
-        <v>168921620901.093</v>
+        <v>167618232116.9806</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B143">
-        <v>254478000000</v>
+        <v>255662000000</v>
       </c>
       <c r="C143">
-        <v>0.6586747464102226</v>
+        <v>0.6790710308298249</v>
       </c>
       <c r="D143">
-        <v>167618232116.9806</v>
+        <v>173612657884.0147</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B144">
-        <v>255662000000</v>
+        <v>258513000000</v>
       </c>
       <c r="C144">
-        <v>0.6790710308298249</v>
+        <v>0.7084159818645509</v>
       </c>
       <c r="D144">
-        <v>173612657884.0147</v>
+        <v>183134740719.7506</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B145">
-        <v>258513000000</v>
+        <v>259889000000</v>
       </c>
       <c r="C145">
-        <v>0.7084159818645509</v>
+        <v>0.7132667617689016</v>
       </c>
       <c r="D145">
-        <v>183134740719.7506</v>
+        <v>185370185449.3581</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B146">
-        <v>259889000000</v>
+        <v>263081000000</v>
       </c>
       <c r="C146">
-        <v>0.7132667617689016</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D146">
-        <v>185370185449.3581</v>
+        <v>185242219405.7175</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B147">
-        <v>263081000000</v>
+        <v>264823000000</v>
       </c>
       <c r="C147">
-        <v>0.7041261794113506</v>
+        <v>0.7150007150007149</v>
       </c>
       <c r="D147">
-        <v>185242219405.7175</v>
+        <v>189348634348.6343</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B148">
-        <v>264823000000</v>
+        <v>266825000000</v>
       </c>
       <c r="C148">
-        <v>0.7150007150007149</v>
+        <v>0.7370826269624825</v>
       </c>
       <c r="D148">
-        <v>189348634348.6343</v>
+        <v>196672071939.2644</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B149">
-        <v>266825000000</v>
+        <v>267811000000</v>
       </c>
       <c r="C149">
-        <v>0.7370826269624825</v>
+        <v>0.728650539201399</v>
       </c>
       <c r="D149">
-        <v>196672071939.2644</v>
+        <v>195140629554.0659</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B150">
-        <v>267811000000</v>
+        <v>269074000000</v>
       </c>
       <c r="C150">
-        <v>0.728650539201399</v>
+        <v>0.7392622163081245</v>
       </c>
       <c r="D150">
-        <v>195140629554.0659</v>
+        <v>198916241590.8923</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B151">
-        <v>269074000000</v>
+        <v>271370000000</v>
       </c>
       <c r="C151">
-        <v>0.7392622163081245</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D151">
-        <v>198916241590.8923</v>
+        <v>201567258411.9438</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B152">
-        <v>271370000000</v>
+        <v>271152000000</v>
       </c>
       <c r="C152">
-        <v>0.7427764985515858</v>
+        <v>0.7397544015386892</v>
       </c>
       <c r="D152">
-        <v>201567258411.9438</v>
+        <v>200585885486.0186</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B153">
-        <v>271152000000</v>
+        <v>274934000000</v>
       </c>
       <c r="C153">
-        <v>0.7397544015386892</v>
+        <v>0.7425007425007425</v>
       </c>
       <c r="D153">
-        <v>200585885486.0186</v>
+        <v>204138699138.6991</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B154">
-        <v>274934000000</v>
+        <v>277991000000</v>
       </c>
       <c r="C154">
-        <v>0.7425007425007425</v>
+        <v>0.7691124442393478</v>
       </c>
       <c r="D154">
-        <v>204138699138.6991</v>
+        <v>213806337486.5405</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B155">
-        <v>277991000000</v>
+        <v>280618000000</v>
       </c>
       <c r="C155">
-        <v>0.7691124442393478</v>
+        <v>0.7753741180119407</v>
       </c>
       <c r="D155">
-        <v>213806337486.5405</v>
+        <v>217583934248.2748</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B156">
-        <v>280618000000</v>
+        <v>280403000000</v>
       </c>
       <c r="C156">
-        <v>0.7753741180119407</v>
+        <v>0.7564868749527195</v>
       </c>
       <c r="D156">
-        <v>217583934248.2748</v>
+        <v>212121189197.3674</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B157">
-        <v>280403000000</v>
+        <v>281798000000</v>
       </c>
       <c r="C157">
-        <v>0.7564868749527195</v>
+        <v>0.7388798581350673</v>
       </c>
       <c r="D157">
-        <v>212121189197.3674</v>
+        <v>208214866262.7457</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B158">
-        <v>281798000000</v>
+        <v>285117000000</v>
       </c>
       <c r="C158">
-        <v>0.7388798581350673</v>
+        <v>0.7351319561861354</v>
       </c>
       <c r="D158">
-        <v>208214866262.7457</v>
+        <v>209598617951.9224</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B159">
-        <v>285117000000</v>
+        <v>286401000000</v>
       </c>
       <c r="C159">
-        <v>0.7351319561861354</v>
+        <v>0.727749072119933</v>
       </c>
       <c r="D159">
-        <v>209598617951.9224</v>
+        <v>208428062004.2209</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B160">
-        <v>286401000000</v>
+        <v>288031000000</v>
       </c>
       <c r="C160">
-        <v>0.727749072119933</v>
+        <v>0.7183908045977012</v>
       </c>
       <c r="D160">
-        <v>208428062004.2209</v>
+        <v>206918821839.0805</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B161">
-        <v>288031000000</v>
+        <v>288176000000</v>
       </c>
       <c r="C161">
-        <v>0.7183908045977012</v>
+        <v>0.709622480840193</v>
       </c>
       <c r="D161">
-        <v>206918821839.0805</v>
+        <v>204496168038.6035</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B162">
-        <v>288176000000</v>
+        <v>290343000000</v>
       </c>
       <c r="C162">
-        <v>0.709622480840193</v>
+        <v>0.7383343177790903</v>
       </c>
       <c r="D162">
-        <v>204496168038.6035</v>
+        <v>214370200826.9344</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B163">
-        <v>290343000000</v>
+        <v>292935000000</v>
       </c>
       <c r="C163">
-        <v>0.7383343177790903</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D163">
-        <v>214370200826.9344</v>
+        <v>220185658448.5869</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B164">
-        <v>292935000000</v>
+        <v>296311000000</v>
       </c>
       <c r="C164">
-        <v>0.751653638003608</v>
+        <v>0.7553440592189742</v>
       </c>
       <c r="D164">
-        <v>220185658448.5869</v>
+        <v>223816753531.2335</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B165">
-        <v>296311000000</v>
+        <v>299249000000</v>
       </c>
       <c r="C165">
-        <v>0.7553440592189742</v>
+        <v>0.76103500761035</v>
       </c>
       <c r="D165">
-        <v>223816753531.2335</v>
+        <v>227738964992.3896</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B166">
-        <v>299249000000</v>
+        <v>301591000000</v>
       </c>
       <c r="C166">
-        <v>0.76103500761035</v>
+        <v>0.743549706297866</v>
       </c>
       <c r="D166">
-        <v>227738964992.3896</v>
+        <v>224247899472.0797</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B167">
-        <v>301591000000</v>
+        <v>305907000000</v>
       </c>
       <c r="C167">
-        <v>0.743549706297866</v>
+        <v>0.7424456158586383</v>
       </c>
       <c r="D167">
-        <v>224247899472.0797</v>
+        <v>227119311010.4685</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B168">
-        <v>305907000000</v>
+        <v>307042000000</v>
       </c>
       <c r="C168">
-        <v>0.7424456158586383</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="D168">
-        <v>227119311010.4685</v>
+        <v>229135820895.5224</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B169">
-        <v>307042000000</v>
+        <v>309248000000</v>
       </c>
       <c r="C169">
-        <v>0.7462686567164178</v>
+        <v>0.7640003056001222</v>
       </c>
       <c r="D169">
-        <v>229135820895.5224</v>
+        <v>236265566506.2266</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B170">
-        <v>309248000000</v>
+        <v>310928000000</v>
       </c>
       <c r="C170">
-        <v>0.7640003056001222</v>
+        <v>0.7820442637053258</v>
       </c>
       <c r="D170">
-        <v>236265566506.2266</v>
+        <v>243159458825.3695</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B171">
-        <v>310928000000</v>
+        <v>312550000000</v>
       </c>
       <c r="C171">
-        <v>0.7820442637053258</v>
+        <v>0.7871536523929471</v>
       </c>
       <c r="D171">
-        <v>243159458825.3695</v>
+        <v>246024874055.4156</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B172">
-        <v>312550000000</v>
+        <v>312639000000</v>
       </c>
       <c r="C172">
-        <v>0.7871536523929471</v>
+        <v>0.7986582541330565</v>
       </c>
       <c r="D172">
-        <v>246024874055.4156</v>
+        <v>249691717913.9046</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B173">
-        <v>312639000000</v>
+        <v>315972000000</v>
       </c>
       <c r="C173">
-        <v>0.7986582541330565</v>
+        <v>0.7877116975187081</v>
       </c>
       <c r="D173">
-        <v>249691717913.9046</v>
+        <v>248894840488.3812</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B174">
-        <v>315972000000</v>
+        <v>319512000000</v>
       </c>
       <c r="C174">
-        <v>0.7877116975187081</v>
+        <v>0.7730364873222015</v>
       </c>
       <c r="D174">
-        <v>248894840488.3812</v>
+        <v>246994434137.2913</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B175">
-        <v>319512000000</v>
+        <v>321169000000</v>
       </c>
       <c r="C175">
-        <v>0.7730364873222015</v>
+        <v>0.7901390644753477</v>
       </c>
       <c r="D175">
-        <v>246994434137.2913</v>
+        <v>253768173198.4829</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B176">
-        <v>321169000000</v>
+        <v>320134000000</v>
       </c>
       <c r="C176">
-        <v>0.7901390644753477</v>
+        <v>0.7912644405760405</v>
       </c>
       <c r="D176">
-        <v>253768173198.4829</v>
+        <v>253310650419.3701</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B177">
-        <v>320134000000</v>
+        <v>326787000000</v>
       </c>
       <c r="C177">
-        <v>0.7912644405760405</v>
+        <v>0.7917656373713381</v>
       </c>
       <c r="D177">
-        <v>253310650419.3701</v>
+        <v>258738717339.6674</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B178">
-        <v>326787000000</v>
+        <v>330167000000</v>
       </c>
       <c r="C178">
-        <v>0.7917656373713381</v>
+        <v>0.8167265599477296</v>
       </c>
       <c r="D178">
-        <v>258738717339.6674</v>
+        <v>269656158118.262</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B179">
-        <v>330167000000</v>
+        <v>332215000000</v>
       </c>
       <c r="C179">
-        <v>0.8167265599477296</v>
+        <v>0.794533608771651</v>
       </c>
       <c r="D179">
-        <v>269656158118.262</v>
+        <v>263955982838.074</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B180">
-        <v>332215000000</v>
+        <v>334061000000</v>
       </c>
       <c r="C180">
-        <v>0.794533608771651</v>
+        <v>0.7627183281214248</v>
       </c>
       <c r="D180">
-        <v>263955982838.074</v>
+        <v>254794447410.5713</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B181">
-        <v>334061000000</v>
+        <v>336884000000</v>
       </c>
       <c r="C181">
-        <v>0.7627183281214248</v>
+        <v>0.7789375292101574</v>
       </c>
       <c r="D181">
-        <v>254794447410.5713</v>
+        <v>262411590590.4347</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B182">
-        <v>336884000000</v>
+        <v>337800000000</v>
       </c>
       <c r="C182">
-        <v>0.7789375292101574</v>
+        <v>0.7855459544383347</v>
       </c>
       <c r="D182">
-        <v>262411590590.4347</v>
+        <v>265357423409.2695</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B183">
-        <v>337800000000</v>
+        <v>341418000000</v>
       </c>
       <c r="C183">
-        <v>0.7855459544383347</v>
+        <v>0.7805182641273807</v>
       </c>
       <c r="D183">
-        <v>265357423409.2695</v>
+        <v>266482984701.8421</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B184">
-        <v>341418000000</v>
+        <v>343454000000</v>
       </c>
       <c r="C184">
-        <v>0.7805182641273807</v>
+        <v>0.7600516835144789</v>
       </c>
       <c r="D184">
-        <v>266482984701.8421</v>
+        <v>261042790909.7819</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B185">
-        <v>343454000000</v>
+        <v>345110000000</v>
       </c>
       <c r="C185">
-        <v>0.7600516835144789</v>
+        <v>0.75431847325941</v>
       </c>
       <c r="D185">
-        <v>261042790909.7819</v>
+        <v>260322848306.555</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B186">
-        <v>345110000000</v>
+        <v>346119000000</v>
       </c>
       <c r="C186">
-        <v>0.75431847325941</v>
+        <v>0.7470491558344539</v>
       </c>
       <c r="D186">
-        <v>260322848306.555</v>
+        <v>258567906768.2654</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B187">
-        <v>346119000000</v>
+        <v>347534000000</v>
       </c>
       <c r="C187">
-        <v>0.7470491558344539</v>
+        <v>0.7322252324815114</v>
       </c>
       <c r="D187">
-        <v>258567906768.2654</v>
+        <v>254473163945.2296</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B188">
-        <v>347534000000</v>
+        <v>347261000000</v>
       </c>
       <c r="C188">
-        <v>0.7322252324815114</v>
+        <v>0.7246376811594204</v>
       </c>
       <c r="D188">
-        <v>254473163945.2296</v>
+        <v>251638405797.1015</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B189">
-        <v>347261000000</v>
+        <v>350477000000</v>
       </c>
       <c r="C189">
-        <v>0.7246376811594204</v>
+        <v>0.7011147724882564</v>
       </c>
       <c r="D189">
-        <v>251638405797.1015</v>
+        <v>245724602117.3666</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B190">
-        <v>350477000000</v>
+        <v>351809000000</v>
       </c>
       <c r="C190">
-        <v>0.7011147724882564</v>
+        <v>0.681384573453257</v>
       </c>
       <c r="D190">
-        <v>245724602117.3666</v>
+        <v>239717225402.0169</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B191">
-        <v>351809000000</v>
+        <v>354102000000</v>
       </c>
       <c r="C191">
-        <v>0.681384573453257</v>
+        <v>0.6503219093451258</v>
       </c>
       <c r="D191">
-        <v>239717225402.0169</v>
+        <v>230280288742.9277</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B192">
-        <v>354102000000</v>
+        <v>355662000000</v>
       </c>
       <c r="C192">
-        <v>0.6503219093451258</v>
+        <v>0.686530275985171</v>
       </c>
       <c r="D192">
-        <v>230280288742.9277</v>
+        <v>244172731017.4379</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B193">
-        <v>355662000000</v>
+        <v>357456000000</v>
       </c>
       <c r="C193">
-        <v>0.686530275985171</v>
+        <v>0.6792094002580996</v>
       </c>
       <c r="D193">
-        <v>244172731017.4379</v>
+        <v>242787475378.6593</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B194">
-        <v>357456000000</v>
+        <v>358460000000</v>
       </c>
       <c r="C194">
-        <v>0.6792094002580996</v>
+        <v>0.6624710168930109</v>
       </c>
       <c r="D194">
-        <v>242787475378.6593</v>
+        <v>237469360715.4687</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B195">
-        <v>358460000000</v>
+        <v>361075000000</v>
       </c>
       <c r="C195">
-        <v>0.6624710168930109</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D195">
-        <v>237469360715.4687</v>
+        <v>234418619749.3995</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B196">
-        <v>361075000000</v>
+        <v>362734000000</v>
       </c>
       <c r="C196">
-        <v>0.6492241771083556</v>
+        <v>0.6229365227683299</v>
       </c>
       <c r="D196">
-        <v>234418619749.3995</v>
+        <v>225960256649.8474</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B197">
-        <v>362734000000</v>
+        <v>366181000000</v>
       </c>
       <c r="C197">
-        <v>0.6229365227683299</v>
+        <v>0.6206168931918327</v>
       </c>
       <c r="D197">
-        <v>225960256649.8474</v>
+        <v>227258114565.8785</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B198">
-        <v>366181000000</v>
+        <v>371148000000</v>
       </c>
       <c r="C198">
-        <v>0.6206168931918327</v>
+        <v>0.6060238773407672</v>
       </c>
       <c r="D198">
-        <v>227258114565.8785</v>
+        <v>224924550027.2711</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B199">
-        <v>371148000000</v>
+        <v>373883000000</v>
       </c>
       <c r="C199">
-        <v>0.6060238773407672</v>
+        <v>0.5656748500961647</v>
       </c>
       <c r="D199">
-        <v>224924550027.2711</v>
+        <v>211496209978.5043</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B200">
-        <v>373883000000</v>
+        <v>376207000000</v>
       </c>
       <c r="C200">
-        <v>0.5656748500961647</v>
+        <v>0.5935774915415207</v>
       </c>
       <c r="D200">
-        <v>211496209978.5043</v>
+        <v>223308007360.3609</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B201">
-        <v>376207000000</v>
+        <v>377701000000</v>
       </c>
       <c r="C201">
-        <v>0.5935774915415207</v>
+        <v>0.623208276205908</v>
       </c>
       <c r="D201">
-        <v>223308007360.3609</v>
+        <v>235386389131.2477</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B202">
-        <v>377701000000</v>
+        <v>378780000000</v>
       </c>
       <c r="C202">
-        <v>0.623208276205908</v>
+        <v>0.6285355122564426</v>
       </c>
       <c r="D202">
-        <v>235386389131.2477</v>
+        <v>238076681332.4953</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B203">
-        <v>378780000000</v>
+        <v>382072000000</v>
       </c>
       <c r="C203">
-        <v>0.6285355122564426</v>
+        <v>0.611321677466683</v>
       </c>
       <c r="D203">
-        <v>238076681332.4953</v>
+        <v>233568895953.0505</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B204">
-        <v>382072000000</v>
+        <v>385148000000</v>
       </c>
       <c r="C204">
-        <v>0.611321677466683</v>
+        <v>0.6302388605281402</v>
       </c>
       <c r="D204">
-        <v>233568895953.0505</v>
+        <v>242735236654.6921</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B205">
-        <v>385148000000</v>
+        <v>387506000000</v>
       </c>
       <c r="C205">
-        <v>0.6302388605281402</v>
+        <v>0.6187353050365053</v>
       </c>
       <c r="D205">
-        <v>242735236654.6921</v>
+        <v>239763643113.476</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B206">
-        <v>387506000000</v>
+        <v>391548000000</v>
       </c>
       <c r="C206">
-        <v>0.6187353050365053</v>
+        <v>0.6338742393509128</v>
       </c>
       <c r="D206">
-        <v>239763643113.476</v>
+        <v>248192190669.3712</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B207">
-        <v>391548000000</v>
+        <v>395759000000</v>
       </c>
       <c r="C207">
-        <v>0.6338742393509128</v>
+        <v>0.6612007405448295</v>
       </c>
       <c r="D207">
-        <v>248192190669.3712</v>
+        <v>261676143877.2812</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B208">
-        <v>395759000000</v>
+        <v>399895000000</v>
       </c>
       <c r="C208">
-        <v>0.6612007405448295</v>
+        <v>0.6492241771083556</v>
       </c>
       <c r="D208">
-        <v>261676143877.2812</v>
+        <v>259621502304.7458</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B209">
-        <v>399895000000</v>
+        <v>403122000000</v>
       </c>
       <c r="C209">
-        <v>0.6492241771083556</v>
+        <v>0.6676013084985647</v>
       </c>
       <c r="D209">
-        <v>259621502304.7458</v>
+        <v>269124774684.5584</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B210">
-        <v>403122000000</v>
+        <v>405535000000</v>
       </c>
       <c r="C210">
-        <v>0.6676013084985647</v>
+        <v>0.6514233600416911</v>
       </c>
       <c r="D210">
-        <v>269124774684.5584</v>
+        <v>264174972314.5072</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B211">
-        <v>405535000000</v>
+        <v>407895000000</v>
       </c>
       <c r="C211">
-        <v>0.6514233600416911</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D211">
-        <v>264174972314.5072</v>
+        <v>260685754457.7235</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B212">
-        <v>407895000000</v>
+        <v>411004000000</v>
       </c>
       <c r="C212">
-        <v>0.6391001469930339</v>
+        <v>0.6525285481239804</v>
       </c>
       <c r="D212">
-        <v>260685754457.7235</v>
+        <v>268191843393.1484</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B213">
-        <v>411004000000</v>
+        <v>414489000000</v>
       </c>
       <c r="C213">
-        <v>0.6525285481239804</v>
+        <v>0.6388551715326136</v>
       </c>
       <c r="D213">
-        <v>268191843393.1484</v>
+        <v>264798441193.3815</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B214">
-        <v>414489000000</v>
+        <v>417772000000</v>
       </c>
       <c r="C214">
-        <v>0.6388551715326136</v>
+        <v>0.6352029473416757</v>
       </c>
       <c r="D214">
-        <v>264798441193.3815</v>
+        <v>265370005716.8265</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B215">
-        <v>417772000000</v>
+        <v>417806000000</v>
       </c>
       <c r="C215">
-        <v>0.6352029473416757</v>
+        <v>0.6535520554212143</v>
       </c>
       <c r="D215">
-        <v>265370005716.8265</v>
+        <v>273057970067.3159</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B216">
-        <v>417806000000</v>
+        <v>418845000000</v>
       </c>
       <c r="C216">
-        <v>0.6535520554212143</v>
+        <v>0.6369832473405949</v>
       </c>
       <c r="D216">
-        <v>273057970067.3159</v>
+        <v>266797248232.3715</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B217">
-        <v>418845000000</v>
+        <v>420631000000</v>
       </c>
       <c r="C217">
-        <v>0.6369832473405949</v>
+        <v>0.6178178672927221</v>
       </c>
       <c r="D217">
-        <v>266797248232.3715</v>
+        <v>259873347337.205</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B218">
-        <v>420631000000</v>
+        <v>422707000000</v>
       </c>
       <c r="C218">
-        <v>0.6178178672927221</v>
+        <v>0.6076810889645115</v>
       </c>
       <c r="D218">
-        <v>259873347337.205</v>
+        <v>256871050072.9218</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B219">
-        <v>422707000000</v>
+        <v>426368000000</v>
       </c>
       <c r="C219">
-        <v>0.6076810889645115</v>
+        <v>0.5838052425710782</v>
       </c>
       <c r="D219">
-        <v>256871050072.9218</v>
+        <v>248915873664.5455</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B220">
-        <v>426368000000</v>
+        <v>429640000000</v>
       </c>
       <c r="C220">
-        <v>0.5838052425710782</v>
+        <v>0.5727048851726705</v>
       </c>
       <c r="D220">
-        <v>248915873664.5455</v>
+        <v>246056926865.5862</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B221">
-        <v>429640000000</v>
+        <v>431970000000</v>
       </c>
       <c r="C221">
-        <v>0.5727048851726705</v>
+        <v>0.5969080164746613</v>
       </c>
       <c r="D221">
-        <v>246056926865.5862</v>
+        <v>257846355876.5594</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B222">
-        <v>431970000000</v>
+        <v>434974000000</v>
       </c>
       <c r="C222">
-        <v>0.5969080164746613</v>
+        <v>0.5809225049378413</v>
       </c>
       <c r="D222">
-        <v>257846355876.5594</v>
+        <v>252686185662.8326</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B223">
-        <v>434974000000</v>
+        <v>438250000000</v>
       </c>
       <c r="C223">
-        <v>0.5809225049378413</v>
+        <v>0.576468553640399</v>
       </c>
       <c r="D223">
-        <v>252686185662.8326</v>
+        <v>252637343632.9048</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B224">
-        <v>438250000000</v>
+        <v>439943000000</v>
       </c>
       <c r="C224">
-        <v>0.576468553640399</v>
+        <v>0.5429176393941039</v>
       </c>
       <c r="D224">
-        <v>252637343632.9048</v>
+        <v>238852815027.9602</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B225">
-        <v>439943000000</v>
+        <v>442251000000</v>
       </c>
       <c r="C225">
-        <v>0.5429176393941039</v>
+        <v>0.5178127589063795</v>
       </c>
       <c r="D225">
-        <v>238852815027.9602</v>
+        <v>229003210439.1052</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B226">
-        <v>442251000000</v>
+        <v>436574000000</v>
       </c>
       <c r="C226">
-        <v>0.5178127589063795</v>
+        <v>0.5281504172388296</v>
       </c>
       <c r="D226">
-        <v>229003210439.1052</v>
+        <v>230576740255.6248</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B227">
-        <v>436574000000</v>
+        <v>438371000000</v>
       </c>
       <c r="C227">
-        <v>0.5281504172388296</v>
+        <v>0.5586280096084018</v>
       </c>
       <c r="D227">
-        <v>230576740255.6248</v>
+        <v>244886319200.0447</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B228">
-        <v>438371000000</v>
+        <v>443319000000</v>
       </c>
       <c r="C228">
-        <v>0.5586280096084018</v>
+        <v>0.5509338328466752</v>
       </c>
       <c r="D228">
-        <v>244886319200.0447</v>
+        <v>244239435843.7552</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B229">
-        <v>443319000000</v>
+        <v>448703000000</v>
       </c>
       <c r="C229">
-        <v>0.5509338328466752</v>
+        <v>0.5259835893120135</v>
       </c>
       <c r="D229">
-        <v>244239435843.7552</v>
+        <v>236010414475.0684</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B230">
-        <v>448703000000</v>
+        <v>453498000000</v>
       </c>
       <c r="C230">
-        <v>0.5259835893120135</v>
+        <v>0.4857198367981348</v>
       </c>
       <c r="D230">
-        <v>236010414475.0684</v>
+        <v>220272974548.2805</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B231">
-        <v>453498000000</v>
+        <v>458058000000</v>
       </c>
       <c r="C231">
-        <v>0.4857198367981348</v>
+        <v>0.5123738279448686</v>
       </c>
       <c r="D231">
-        <v>220272974548.2805</v>
+        <v>234696930880.7706</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B232">
-        <v>458058000000</v>
+        <v>463582000000</v>
       </c>
       <c r="C232">
-        <v>0.5123738279448686</v>
+        <v>0.506868062243398</v>
       </c>
       <c r="D232">
-        <v>234696930880.7706</v>
+        <v>234974910030.9189</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B233">
-        <v>463582000000</v>
+        <v>468478000000</v>
       </c>
       <c r="C233">
-        <v>0.506868062243398</v>
+        <v>0.5109078833086395</v>
       </c>
       <c r="D233">
-        <v>234974910030.9189</v>
+        <v>239349103356.6648</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B234">
-        <v>468478000000</v>
+        <v>466790000000</v>
       </c>
       <c r="C234">
-        <v>0.5109078833086395</v>
+        <v>0.5097099750242112</v>
       </c>
       <c r="D234">
-        <v>239349103356.6648</v>
+        <v>237927519241.5515</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B235">
-        <v>466790000000</v>
+        <v>474303000000</v>
       </c>
       <c r="C235">
-        <v>0.5097099750242112</v>
+        <v>0.5293526017680377</v>
       </c>
       <c r="D235">
-        <v>237927519241.5515</v>
+        <v>251073527076.3856</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B236">
-        <v>474303000000</v>
+        <v>480979000000</v>
       </c>
       <c r="C236">
-        <v>0.5293526017680377</v>
+        <v>0.4912556494399685</v>
       </c>
       <c r="D236">
-        <v>251073527076.3856</v>
+        <v>236283651011.9866</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B237">
-        <v>480979000000</v>
+        <v>488315000000</v>
       </c>
       <c r="C237">
-        <v>0.4912556494399685</v>
+        <v>0.5031699708161417</v>
       </c>
       <c r="D237">
-        <v>236283651011.9866</v>
+        <v>245705444299.0842</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B238">
-        <v>488315000000</v>
+        <v>494013000000</v>
       </c>
       <c r="C238">
-        <v>0.5031699708161417</v>
+        <v>0.5217028380634391</v>
       </c>
       <c r="D238">
-        <v>245705444299.0842</v>
+        <v>257727984140.2337</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B239">
-        <v>494013000000</v>
+        <v>498545000000</v>
       </c>
       <c r="C239">
-        <v>0.5217028380634391</v>
+        <v>0.5105166428425566</v>
       </c>
       <c r="D239">
-        <v>257727984140.2337</v>
+        <v>254515519705.9424</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B240">
-        <v>498545000000</v>
+        <v>503448000000</v>
       </c>
       <c r="C240">
-        <v>0.5105166428425566</v>
+        <v>0.5079752108097125</v>
       </c>
       <c r="D240">
-        <v>254515519705.9424</v>
+        <v>255739103931.7281</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B241">
-        <v>503448000000</v>
+        <v>506254000000</v>
       </c>
       <c r="C241">
-        <v>0.5079752108097125</v>
+        <v>0.5176787285810426</v>
       </c>
       <c r="D241">
-        <v>255739103931.7281</v>
+        <v>262076927059.0671</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B242">
-        <v>506254000000</v>
+        <v>512472999999.9999</v>
       </c>
       <c r="C242">
-        <v>0.5176787285810426</v>
+        <v>0.5332195798229711</v>
       </c>
       <c r="D242">
-        <v>262076927059.0671</v>
+        <v>273260637730.6174</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B243">
-        <v>512472999999.9999</v>
+        <v>500266000000</v>
       </c>
       <c r="C243">
-        <v>0.5332195798229711</v>
+        <v>0.5384449709239716</v>
       </c>
       <c r="D243">
-        <v>273260637730.6174</v>
+        <v>269365711824.2516</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B244">
-        <v>500266000000</v>
+        <v>502835000000</v>
       </c>
       <c r="C244">
-        <v>0.5384449709239716</v>
+        <v>0.5673115107505532</v>
       </c>
       <c r="D244">
-        <v>269365711824.2516</v>
+        <v>285264083508.2544</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B245">
-        <v>502835000000</v>
+        <v>496230000000</v>
       </c>
       <c r="C245">
-        <v>0.5673115107505532</v>
+        <v>0.5634755169887868</v>
       </c>
       <c r="D245">
-        <v>285264083508.2544</v>
+        <v>279613455795.3457</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B246">
-        <v>496230000000</v>
+        <v>506215000000</v>
       </c>
       <c r="C246">
-        <v>0.5634755169887868</v>
+        <v>0.5422405379026136</v>
       </c>
       <c r="D246">
-        <v>279613455795.3457</v>
+        <v>274490293894.3716</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B247">
-        <v>506215000000</v>
+        <v>513116999999.9999</v>
       </c>
       <c r="C247">
-        <v>0.5422405379026136</v>
+        <v>0.550812448361333</v>
       </c>
       <c r="D247">
-        <v>274490293894.3716</v>
+        <v>282631231065.8221</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B248">
-        <v>513116999999.9999</v>
+        <v>515897000000.0001</v>
       </c>
       <c r="C248">
-        <v>0.550812448361333</v>
+        <v>0.5425935973955507</v>
       </c>
       <c r="D248">
-        <v>282631231065.8221</v>
+        <v>279922409115.5724</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B249">
-        <v>515897000000.0001</v>
+        <v>519345000000</v>
       </c>
       <c r="C249">
-        <v>0.5425935973955507</v>
+        <v>0.5541701302299806</v>
       </c>
       <c r="D249">
-        <v>279922409115.5724</v>
+        <v>287805486284.2893</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B250">
-        <v>519345000000</v>
+        <v>526154000000</v>
       </c>
       <c r="C250">
-        <v>0.5541701302299806</v>
+        <v>0.5607895917451773</v>
       </c>
       <c r="D250">
-        <v>287805486284.2893</v>
+        <v>295061686855.092</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B251">
-        <v>526154000000</v>
+        <v>531523000000</v>
       </c>
       <c r="C251">
-        <v>0.5607895917451773</v>
+        <v>0.5616399887672002</v>
       </c>
       <c r="D251">
-        <v>295061686855.092</v>
+        <v>298524571749.5085</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B252">
-        <v>531523000000</v>
+        <v>537544000000</v>
       </c>
       <c r="C252">
-        <v>0.5616399887672002</v>
+        <v>0.5868544600938967</v>
       </c>
       <c r="D252">
-        <v>298524571749.5085</v>
+        <v>315460093896.7136</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B253">
-        <v>537544000000</v>
+        <v>540568000000</v>
       </c>
       <c r="C253">
-        <v>0.5868544600938967</v>
+        <v>0.6086797735711242</v>
       </c>
       <c r="D253">
-        <v>315460093896.7136</v>
+        <v>329032807839.7955</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B254">
-        <v>540568000000</v>
+        <v>547669000000</v>
       </c>
       <c r="C254">
-        <v>0.6086797735711242</v>
+        <v>0.6046680372475511</v>
       </c>
       <c r="D254">
-        <v>329032807839.7955</v>
+        <v>331157939291.3291</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B255">
-        <v>547669000000</v>
+        <v>553123000000</v>
       </c>
       <c r="C255">
-        <v>0.6046680372475511</v>
+        <v>0.6265271599523839</v>
       </c>
       <c r="D255">
-        <v>331157939291.3291</v>
+        <v>346546582294.3425</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B256">
-        <v>553123000000</v>
+        <v>563646000000</v>
       </c>
       <c r="C256">
-        <v>0.6265271599523839</v>
+        <v>0.6533385600418137</v>
       </c>
       <c r="D256">
-        <v>346546582294.3425</v>
+        <v>368251666013.3281</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B257">
-        <v>563646000000</v>
+        <v>564361000000</v>
       </c>
       <c r="C257">
-        <v>0.6533385600418137</v>
+        <v>0.6738544474393531</v>
       </c>
       <c r="D257">
-        <v>368251666013.3281</v>
+        <v>380297169811.3207</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B258">
-        <v>564361000000</v>
+        <v>557872000000</v>
       </c>
       <c r="C258">
-        <v>0.6738544474393531</v>
+        <v>0.6487187804086928</v>
       </c>
       <c r="D258">
-        <v>380297169811.3207</v>
+        <v>361902043464.1583</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B259">
-        <v>557872000000</v>
+        <v>570787000000</v>
       </c>
       <c r="C259">
-        <v>0.6487187804086928</v>
+        <v>0.6472073004983496</v>
       </c>
       <c r="D259">
-        <v>361902043464.1583</v>
+        <v>369417513429.5515</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B260">
-        <v>570787000000</v>
+        <v>577754000000</v>
       </c>
       <c r="C260">
-        <v>0.6472073004983496</v>
+        <v>0.6807351940095303</v>
       </c>
       <c r="D260">
-        <v>369417513429.5515</v>
+        <v>393297481279.7822</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B261">
-        <v>577754000000</v>
+        <v>582423000000</v>
       </c>
       <c r="C261">
-        <v>0.6807351940095303</v>
+        <v>0.7085163667280714</v>
       </c>
       <c r="D261">
-        <v>393297481279.7822</v>
+        <v>412656227858.8635</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B262">
-        <v>582423000000</v>
+        <v>587210000000</v>
       </c>
       <c r="C262">
-        <v>0.7085163667280714</v>
+        <v>0.7242702976750923</v>
       </c>
       <c r="D262">
-        <v>412656227858.8635</v>
+        <v>425298761497.791</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B263">
-        <v>587210000000</v>
+        <v>594207000000</v>
       </c>
       <c r="C263">
-        <v>0.7242702976750923</v>
+        <v>0.7489514679448772</v>
       </c>
       <c r="D263">
-        <v>425298761497.791</v>
+        <v>445032204913.1216</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B264">
-        <v>594207000000</v>
+        <v>595410000000</v>
       </c>
       <c r="C264">
-        <v>0.7489514679448772</v>
+        <v>0.7641170627340108</v>
       </c>
       <c r="D264">
-        <v>445032204913.1216</v>
+        <v>454962940322.4574</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B265">
-        <v>595410000000</v>
+        <v>603832000000</v>
       </c>
       <c r="C265">
-        <v>0.7641170627340108</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D265">
-        <v>454962940322.4574</v>
+        <v>467217579696.6883</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B266">
-        <v>603832000000</v>
+        <v>610678000000</v>
       </c>
       <c r="C266">
-        <v>0.7737542556484061</v>
+        <v>0.7667535654040791</v>
       </c>
       <c r="D266">
-        <v>467217579696.6883</v>
+        <v>468239533813.8322</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B267">
-        <v>610678000000</v>
+        <v>615959000000</v>
       </c>
       <c r="C267">
-        <v>0.7667535654040791</v>
+        <v>0.7206168480219068</v>
       </c>
       <c r="D267">
-        <v>468239533813.8322</v>
+        <v>443870433090.7257</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B268">
-        <v>615959000000</v>
+        <v>616477000000</v>
       </c>
       <c r="C268">
-        <v>0.7206168480219068</v>
+        <v>0.7153075822603721</v>
       </c>
       <c r="D268">
-        <v>443870433090.7257</v>
+        <v>440970672389.1274</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B269">
-        <v>616477000000</v>
+        <v>621338000000</v>
       </c>
       <c r="C269">
-        <v>0.7153075822603721</v>
+        <v>0.6989097008666479</v>
       </c>
       <c r="D269">
-        <v>440970672389.1274</v>
+        <v>434259155717.0813</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B270">
-        <v>621338000000</v>
+        <v>628311000000</v>
       </c>
       <c r="C270">
-        <v>0.6989097008666479</v>
+        <v>0.7026419336706015</v>
       </c>
       <c r="D270">
-        <v>434259155717.0813</v>
+        <v>441477655986.5093</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B271">
-        <v>628311000000</v>
+        <v>631732000000</v>
       </c>
       <c r="C271">
-        <v>0.7026419336706015</v>
+        <v>0.7041261794113506</v>
       </c>
       <c r="D271">
-        <v>441477655986.5093</v>
+        <v>444819039571.8913</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B272">
-        <v>631732000000</v>
+        <v>631878000000</v>
       </c>
       <c r="C272">
-        <v>0.7041261794113506</v>
+        <v>0.7273256236817223</v>
       </c>
       <c r="D272">
-        <v>444819039571.8913</v>
+        <v>459581060440.7593</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B273">
-        <v>631878000000</v>
+        <v>636611000000</v>
       </c>
       <c r="C273">
-        <v>0.7273256236817223</v>
+        <v>0.7484469725319961</v>
       </c>
       <c r="D273">
-        <v>459581060440.7593</v>
+        <v>476469575630.5666</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B274">
-        <v>636611000000</v>
+        <v>643622000000</v>
       </c>
       <c r="C274">
-        <v>0.7484469725319961</v>
+        <v>0.7728572532653218</v>
       </c>
       <c r="D274">
-        <v>476469575630.5666</v>
+        <v>497427931061.133</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B275">
-        <v>643622000000</v>
+        <v>647054000000</v>
       </c>
       <c r="C275">
-        <v>0.7728572532653218</v>
+        <v>0.7802137785753296</v>
       </c>
       <c r="D275">
-        <v>497427931061.133</v>
+        <v>504840446282.2813</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B276">
-        <v>647054000000</v>
+        <v>651977000000</v>
       </c>
       <c r="C276">
-        <v>0.7802137785753296</v>
+        <v>0.7757350089209527</v>
       </c>
       <c r="D276">
-        <v>504840446282.2813</v>
+        <v>505761383911.256</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B277">
-        <v>651977000000</v>
+        <v>655658000000</v>
       </c>
       <c r="C277">
-        <v>0.7757350089209527</v>
+        <v>0.791702953052015</v>
       </c>
       <c r="D277">
-        <v>505761383911.256</v>
+        <v>519086374792.178</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B278">
-        <v>655658000000</v>
+        <v>657474000000</v>
       </c>
       <c r="C278">
-        <v>0.791702953052015</v>
+        <v>0.7723200494284832</v>
       </c>
       <c r="D278">
-        <v>519086374792.178</v>
+        <v>507780352177.9426</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B279">
-        <v>657474000000</v>
+        <v>663688000000</v>
       </c>
       <c r="C279">
-        <v>0.7723200494284832</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D279">
-        <v>507780352177.9426</v>
+        <v>518627803391.4199</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B280">
-        <v>663688000000</v>
+        <v>670249000000</v>
       </c>
       <c r="C280">
-        <v>0.7814331483941549</v>
+        <v>0.7558007709167863</v>
       </c>
       <c r="D280">
-        <v>518627803391.4199</v>
+        <v>506574710906.2051</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B281">
-        <v>670249000000</v>
+        <v>677023000000</v>
       </c>
       <c r="C281">
-        <v>0.7558007709167863</v>
+        <v>0.7625438462711607</v>
       </c>
       <c r="D281">
-        <v>506574710906.2051</v>
+        <v>516259722434.04</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B282">
-        <v>677023000000</v>
+        <v>678485000000</v>
       </c>
       <c r="C282">
-        <v>0.7625438462711607</v>
+        <v>0.7568303943086355</v>
       </c>
       <c r="D282">
-        <v>516259722434.04</v>
+        <v>513498070082.4946</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B283">
-        <v>678485000000</v>
+        <v>681160000000</v>
       </c>
       <c r="C283">
-        <v>0.7568303943086355</v>
+        <v>0.7554011179936546</v>
       </c>
       <c r="D283">
-        <v>513498070082.4946</v>
+        <v>514549025532.5578</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B284">
-        <v>681160000000</v>
+        <v>690129000000</v>
       </c>
       <c r="C284">
-        <v>0.7554011179936546</v>
+        <v>0.7620208793720947</v>
       </c>
       <c r="D284">
-        <v>514549025532.5578</v>
+        <v>525892707460.1844</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B285">
-        <v>690129000000</v>
+        <v>688212000000</v>
       </c>
       <c r="C285">
-        <v>0.7620208793720947</v>
+        <v>0.7485590238790328</v>
       </c>
       <c r="D285">
-        <v>525892707460.1844</v>
+        <v>515167302941.837</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B286">
-        <v>688212000000</v>
+        <v>692301000000</v>
       </c>
       <c r="C286">
-        <v>0.7485590238790328</v>
+        <v>0.738061849582995</v>
       </c>
       <c r="D286">
-        <v>515167302941.837</v>
+        <v>510960956528.157</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B287">
-        <v>692301000000</v>
+        <v>700073000000</v>
       </c>
       <c r="C287">
-        <v>0.738061849582995</v>
+        <v>0.7345379756133392</v>
       </c>
       <c r="D287">
-        <v>510960956528.157</v>
+        <v>514230204201.5573</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B288">
-        <v>700073000000</v>
+        <v>708145000000</v>
       </c>
       <c r="C288">
-        <v>0.7345379756133392</v>
+        <v>0.758552681483729</v>
       </c>
       <c r="D288">
-        <v>514230204201.5573</v>
+        <v>537165288629.2953</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B289">
-        <v>708145000000</v>
+        <v>711350000000</v>
       </c>
       <c r="C289">
-        <v>0.758552681483729</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D289">
-        <v>537165288629.2953</v>
+        <v>528374062244.6705</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B290">
-        <v>711350000000</v>
+        <v>722061000000</v>
       </c>
       <c r="C290">
-        <v>0.7427764985515858</v>
+        <v>0.7165376898824879</v>
       </c>
       <c r="D290">
-        <v>528374062244.6705</v>
+        <v>517383920894.2391</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B291">
-        <v>722061000000</v>
+        <v>736225000000</v>
       </c>
       <c r="C291">
-        <v>0.7165376898824879</v>
+        <v>0.7598206823189727</v>
       </c>
       <c r="D291">
-        <v>517383920894.2391</v>
+        <v>559398981840.2856</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B292">
-        <v>736225000000</v>
+        <v>740262000000</v>
       </c>
       <c r="C292">
-        <v>0.7598206823189727</v>
+        <v>0.7521624670928921</v>
       </c>
       <c r="D292">
-        <v>559398981840.2856</v>
+        <v>556797292215.1185</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B293">
-        <v>740262000000</v>
+        <v>746274000000</v>
       </c>
       <c r="C293">
-        <v>0.7521624670928921</v>
+        <v>0.7427213309566251</v>
       </c>
       <c r="D293">
-        <v>556797292215.1185</v>
+        <v>554273618538.3245</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B294">
-        <v>746274000000</v>
+        <v>753038000000</v>
       </c>
       <c r="C294">
-        <v>0.7427213309566251</v>
+        <v>0.7659313725490196</v>
       </c>
       <c r="D294">
-        <v>554273618538.3245</v>
+        <v>576775428921.5686</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B295">
-        <v>753038000000</v>
+        <v>761297000000</v>
       </c>
       <c r="C295">
-        <v>0.7659313725490196</v>
+        <v>0.7638252367858235</v>
       </c>
       <c r="D295">
-        <v>576775428921.5686</v>
+        <v>581497861289.337</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B296">
-        <v>761297000000</v>
+        <v>767415000000</v>
       </c>
       <c r="C296">
-        <v>0.7638252367858235</v>
+        <v>0.7473283013227711</v>
       </c>
       <c r="D296">
-        <v>581497861289.337</v>
+        <v>573510948359.6144</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B297">
-        <v>767415000000</v>
+        <v>776626000000</v>
       </c>
       <c r="C297">
-        <v>0.7473283013227711</v>
+        <v>0.7739938080495355</v>
       </c>
       <c r="D297">
-        <v>573510948359.6144</v>
+        <v>601103715170.2786</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B298">
-        <v>776626000000</v>
+        <v>781730000000</v>
       </c>
       <c r="C298">
-        <v>0.7739938080495355</v>
+        <v>0.7894529091339701</v>
       </c>
       <c r="D298">
-        <v>601103715170.2786</v>
+        <v>617139022657.2985</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B299">
-        <v>781730000000</v>
+        <v>791373000000</v>
       </c>
       <c r="C299">
-        <v>0.7894529091339701</v>
+        <v>0.7895775759968418</v>
       </c>
       <c r="D299">
-        <v>617139022657.2985</v>
+        <v>624850375049.3486</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B300">
-        <v>791373000000</v>
+        <v>797749000000</v>
       </c>
       <c r="C300">
-        <v>0.7895775759968418</v>
+        <v>0.777363184079602</v>
       </c>
       <c r="D300">
-        <v>624850375049.3486</v>
+        <v>620140702736.3185</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B301">
-        <v>797749000000</v>
+        <v>814195000000</v>
       </c>
       <c r="C301">
-        <v>0.777363184079602</v>
+        <v>0.7879599716334411</v>
       </c>
       <c r="D301">
-        <v>620140702736.3185</v>
+        <v>641553069104.0896</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B302">
-        <v>814195000000</v>
+        <v>826266000000</v>
       </c>
       <c r="C302">
-        <v>0.7879599716334411</v>
+        <v>0.8088651621774651</v>
       </c>
       <c r="D302">
-        <v>641553069104.0896</v>
+        <v>668337782091.7253</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B303">
-        <v>826266000000</v>
+        <v>838018000000</v>
       </c>
       <c r="C303">
-        <v>0.8088651621774651</v>
+        <v>0.8300821781356353</v>
       </c>
       <c r="D303">
-        <v>668337782091.7253</v>
+        <v>695623806756.8689</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B304">
-        <v>838018000000</v>
+        <v>846637000000</v>
       </c>
       <c r="C304">
-        <v>0.8300821781356353</v>
+        <v>0.8279516476237788</v>
       </c>
       <c r="D304">
-        <v>695623806756.8689</v>
+        <v>700974499089.2532</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B305">
-        <v>846637000000</v>
+        <v>869578000000</v>
       </c>
       <c r="C305">
-        <v>0.8279516476237788</v>
+        <v>0.8492569002123143</v>
       </c>
       <c r="D305">
-        <v>700974499089.2532</v>
+        <v>738495116772.8239</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B306">
-        <v>869578000000</v>
+        <v>880405000000</v>
       </c>
       <c r="C306">
-        <v>0.8492569002123143</v>
+        <v>0.8509189925119128</v>
       </c>
       <c r="D306">
-        <v>738495116772.8239</v>
+        <v>749153335602.4506</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B307">
-        <v>880405000000</v>
+        <v>899073000000</v>
       </c>
       <c r="C307">
-        <v>0.8509189925119128</v>
+        <v>0.8180628272251309</v>
       </c>
       <c r="D307">
-        <v>749153335602.4506</v>
+        <v>735498200261.7802</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B308">
-        <v>899073000000</v>
+        <v>912986000000</v>
       </c>
       <c r="C308">
-        <v>0.8180628272251309</v>
+        <v>0.8889679082585119</v>
       </c>
       <c r="D308">
-        <v>735498200261.7802</v>
+        <v>811615254689.3058</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B309">
-        <v>912986000000</v>
+        <v>938446000000</v>
       </c>
       <c r="C309">
-        <v>0.8889679082585119</v>
+        <v>0.9325748391308403</v>
       </c>
       <c r="D309">
-        <v>811615254689.3058</v>
+        <v>875171127482.9805</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B310">
-        <v>938446000000</v>
+        <v>962564000000</v>
       </c>
       <c r="C310">
-        <v>0.9325748391308403</v>
+        <v>0.8844078889183691</v>
       </c>
       <c r="D310">
-        <v>875171127482.9805</v>
+        <v>851299195188.821</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B311">
-        <v>962564000000</v>
+        <v>971834000000</v>
       </c>
       <c r="C311">
-        <v>0.8844078889183691</v>
+        <v>0.8749671887304226</v>
       </c>
       <c r="D311">
-        <v>851299195188.821</v>
+        <v>850322862892.6415</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B312">
-        <v>971834000000</v>
+        <v>984284000000</v>
       </c>
       <c r="C312">
-        <v>0.8749671887304226</v>
+        <v>0.8962982880702699</v>
       </c>
       <c r="D312">
-        <v>850322862892.6415</v>
+        <v>882212064174.9575</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B313">
-        <v>984284000000</v>
+        <v>992008000000</v>
       </c>
       <c r="C313">
-        <v>0.8962982880702699</v>
+        <v>0.9313588525658936</v>
       </c>
       <c r="D313">
-        <v>882212064174.9575</v>
+        <v>923915432616.1869</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B314">
-        <v>992008000000</v>
+        <v>1000377000000</v>
       </c>
       <c r="C314">
-        <v>0.9313588525658936</v>
+        <v>0.9139097057210747</v>
       </c>
       <c r="D314">
-        <v>923915432616.1869</v>
+        <v>914254249680.1315</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B315">
-        <v>1000377000000</v>
+        <v>1013380000000</v>
       </c>
       <c r="C315">
-        <v>0.9139097057210747</v>
+        <v>0.9437523593808984</v>
       </c>
       <c r="D315">
-        <v>914254249680.1315</v>
+        <v>956379765949.4148</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B316">
-        <v>1013380000000</v>
+        <v>1016485000000</v>
       </c>
       <c r="C316">
-        <v>0.9437523593808984</v>
+        <v>0.9562057754828839</v>
       </c>
       <c r="D316">
-        <v>956379765949.4148</v>
+        <v>971968827691.7192</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B317">
-        <v>1016485000000</v>
+        <v>1035594000000</v>
       </c>
       <c r="C317">
-        <v>0.9562057754828839</v>
+        <v>0.9590486237652249</v>
       </c>
       <c r="D317">
-        <v>971968827691.7192</v>
+        <v>993185000479.5243</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B318">
-        <v>1035594000000</v>
+        <v>1057005000000</v>
       </c>
       <c r="C318">
-        <v>0.9590486237652249</v>
+        <v>0.9417969485778865</v>
       </c>
       <c r="D318">
-        <v>993185000479.5243</v>
+        <v>995484083631.569</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B319">
-        <v>1057005000000</v>
+        <v>1069476000000</v>
       </c>
       <c r="C319">
-        <v>0.9417969485778865</v>
+        <v>0.8582217645039478</v>
       </c>
       <c r="D319">
-        <v>995484083631.569</v>
+        <v>917847579814.6241</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B320">
-        <v>1069476000000</v>
+        <v>1089266000000</v>
       </c>
       <c r="C320">
-        <v>0.8582217645039478</v>
+        <v>0.7951653944020356</v>
       </c>
       <c r="D320">
-        <v>917847579814.6241</v>
+        <v>866146628498.7277</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B321">
-        <v>1089266000000</v>
+        <v>1102968000000</v>
       </c>
       <c r="C321">
-        <v>0.7951653944020356</v>
+        <v>0.6685832720465333</v>
       </c>
       <c r="D321">
-        <v>866146628498.7277</v>
+        <v>737425954402.6207</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B322">
-        <v>1102968000000</v>
+        <v>1129317000000</v>
       </c>
       <c r="C322">
-        <v>0.6685832720465333</v>
+        <v>0.6549646319098769</v>
       </c>
       <c r="D322">
-        <v>737425954402.6207</v>
+        <v>739662693214.5664</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B323">
-        <v>1129317000000</v>
+        <v>1130783000000</v>
       </c>
       <c r="C323">
-        <v>0.6549646319098769</v>
+        <v>0.7015574575557738</v>
       </c>
       <c r="D323">
-        <v>739662693214.5664</v>
+        <v>793309246527.2905</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B324">
-        <v>1130783000000</v>
+        <v>1144917000000</v>
       </c>
       <c r="C324">
-        <v>0.7015574575557738</v>
+        <v>0.6358087487283826</v>
       </c>
       <c r="D324">
-        <v>793309246527.2905</v>
+        <v>727948245167.8535</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B325">
-        <v>1144917000000</v>
+        <v>1163743000000</v>
       </c>
       <c r="C325">
-        <v>0.6358087487283826</v>
+        <v>0.6391001469930339</v>
       </c>
       <c r="D325">
-        <v>727948245167.8535</v>
+        <v>743748322362.1143</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B326">
-        <v>1163743000000</v>
+        <v>1142763000000</v>
       </c>
       <c r="C326">
-        <v>0.6391001469930339</v>
+        <v>0.691945751453086</v>
       </c>
       <c r="D326">
-        <v>743748322362.1143</v>
+        <v>790730002767.783</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B327">
-        <v>1142763000000</v>
+        <v>1160667000000</v>
       </c>
       <c r="C327">
-        <v>0.691945751453086</v>
+        <v>0.7257420712678715</v>
       </c>
       <c r="D327">
-        <v>790730002767.783</v>
+        <v>842344872632.2666</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B328">
-        <v>1160667000000</v>
+        <v>1167788000000</v>
       </c>
       <c r="C328">
-        <v>0.7257420712678715</v>
+        <v>0.8014747134727899</v>
       </c>
       <c r="D328">
-        <v>842344872632.2666</v>
+        <v>935952552696.9623</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B329">
-        <v>1167788000000</v>
+        <v>1178972000000</v>
       </c>
       <c r="C329">
-        <v>0.8014747134727899</v>
+        <v>0.8062565508344756</v>
       </c>
       <c r="D329">
-        <v>935952552696.9623</v>
+        <v>950553898250.4233</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B330">
-        <v>1178972000000</v>
+        <v>1181019000000</v>
       </c>
       <c r="C330">
-        <v>0.8062565508344756</v>
+        <v>0.8364700961940611</v>
       </c>
       <c r="D330">
-        <v>950553898250.4233</v>
+        <v>987887076537.0138</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B331">
-        <v>1181019000000</v>
+        <v>1185332000000</v>
       </c>
       <c r="C331">
-        <v>0.8364700961940611</v>
+        <v>0.8440243079000674</v>
       </c>
       <c r="D331">
-        <v>987887076537.0138</v>
+        <v>1000449020931.803</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B332">
-        <v>1185332000000</v>
+        <v>1184794000000</v>
       </c>
       <c r="C332">
-        <v>0.8440243079000674</v>
+        <v>0.8841732979664014</v>
       </c>
       <c r="D332">
-        <v>1000449020931.803</v>
+        <v>1047563218390.805</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B333">
-        <v>1184794000000</v>
+        <v>1183584000000</v>
       </c>
       <c r="C333">
-        <v>0.8841732979664014</v>
+        <v>0.901631953836444</v>
       </c>
       <c r="D333">
-        <v>1047563218390.805</v>
+        <v>1067157154449.554</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B334">
-        <v>1183584000000</v>
+        <v>1182206000000</v>
       </c>
       <c r="C334">
-        <v>0.901631953836444</v>
+        <v>0.9161704076958315</v>
       </c>
       <c r="D334">
-        <v>1067157154449.554</v>
+        <v>1083102153000.458</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B335">
-        <v>1182206000000</v>
+        <v>1178434000000</v>
       </c>
       <c r="C335">
-        <v>0.9161704076958315</v>
+        <v>0.8979078746520608</v>
       </c>
       <c r="D335">
-        <v>1083102153000.458</v>
+        <v>1058125168357.727</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B336">
-        <v>1178434000000</v>
+        <v>1182971000000</v>
       </c>
       <c r="C336">
-        <v>0.8979078746520608</v>
+        <v>0.8842514811212309</v>
       </c>
       <c r="D336">
-        <v>1058125168357.727</v>
+        <v>1046043858873.464</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B337">
-        <v>1182971000000</v>
+        <v>1195947000000</v>
       </c>
       <c r="C337">
-        <v>0.8842514811212309</v>
+        <v>0.8957362952346829</v>
       </c>
       <c r="D337">
-        <v>1046043858873.464</v>
+        <v>1071253135077.033</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B338">
-        <v>1195947000000</v>
+        <v>1210169000000</v>
       </c>
       <c r="C338">
-        <v>0.8957362952346829</v>
+        <v>0.9175153683824203</v>
       </c>
       <c r="D338">
-        <v>1071253135077.033</v>
+        <v>1110348655839.985</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B339">
-        <v>1210169000000</v>
+        <v>1216303000000</v>
       </c>
       <c r="C339">
-        <v>0.9175153683824203</v>
+        <v>0.9247272054743851</v>
       </c>
       <c r="D339">
-        <v>1110348655839.985</v>
+        <v>1124748474200.111</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B340">
-        <v>1216303000000</v>
+        <v>1221498000000</v>
       </c>
       <c r="C340">
-        <v>0.9247272054743851</v>
+        <v>0.8475294516484448</v>
       </c>
       <c r="D340">
-        <v>1124748474200.111</v>
+        <v>1035255530129.672</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B341">
-        <v>1221498000000</v>
+        <v>1231556000000</v>
       </c>
       <c r="C341">
-        <v>0.8475294516484448</v>
+        <v>0.8404773911581779</v>
       </c>
       <c r="D341">
-        <v>1035255530129.672</v>
+        <v>1035094973945.201</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B342">
-        <v>1231556000000</v>
+        <v>1242597000000</v>
       </c>
       <c r="C342">
-        <v>0.8404773911581779</v>
+        <v>0.904649900488511</v>
       </c>
       <c r="D342">
-        <v>1035094973945.201</v>
+        <v>1124115252397.322</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B343">
-        <v>1242597000000</v>
+        <v>1253020000000</v>
       </c>
       <c r="C343">
-        <v>0.904649900488511</v>
+        <v>0.8930166101089481</v>
       </c>
       <c r="D343">
-        <v>1124115252397.322</v>
+        <v>1118967672798.714</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B344">
-        <v>1253020000000</v>
+        <v>1260810000000</v>
       </c>
       <c r="C344">
-        <v>0.8930166101089481</v>
+        <v>0.9662769349695624</v>
       </c>
       <c r="D344">
-        <v>1118967672798.714</v>
+        <v>1218291622378.974</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B345">
-        <v>1260810000000</v>
+        <v>1273880000000</v>
       </c>
       <c r="C345">
-        <v>0.9662769349695624</v>
+        <v>0.98405825624877</v>
       </c>
       <c r="D345">
-        <v>1218291622378.974</v>
+        <v>1253572131470.183</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B346">
-        <v>1273880000000</v>
+        <v>1294322000000</v>
       </c>
       <c r="C346">
-        <v>0.98405825624877</v>
+        <v>0.959140610013428</v>
       </c>
       <c r="D346">
-        <v>1253572131470.183</v>
+        <v>1241436792633.8</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B347">
-        <v>1294322000000</v>
+        <v>1302284000000</v>
       </c>
       <c r="C347">
-        <v>0.959140610013428</v>
+        <v>1.02364622786365</v>
       </c>
       <c r="D347">
-        <v>1241436792633.8</v>
+        <v>1333078104207.186</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B348">
-        <v>1302284000000</v>
+        <v>1311449000000</v>
       </c>
       <c r="C348">
-        <v>1.02364622786365</v>
+        <v>0.9979044007584074</v>
       </c>
       <c r="D348">
-        <v>1333078104207.186</v>
+        <v>1308700728470.213</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B349">
-        <v>1311449000000</v>
+        <v>1325187000000</v>
       </c>
       <c r="C349">
-        <v>0.9979044007584074</v>
+        <v>1.018952516812716</v>
       </c>
       <c r="D349">
-        <v>1308700728470.213</v>
+        <v>1350302628897.493</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B350">
-        <v>1325187000000</v>
+        <v>1334278000000</v>
       </c>
       <c r="C350">
-        <v>1.018952516812716</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D350">
-        <v>1350302628897.493</v>
+        <v>1379241265247.054</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B351">
-        <v>1334278000000</v>
+        <v>1342207000000</v>
       </c>
       <c r="C351">
-        <v>1.033698573495968</v>
+        <v>1.097574360662935</v>
       </c>
       <c r="D351">
-        <v>1379241265247.054</v>
+        <v>1473171989902.316</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B352">
-        <v>1342207000000</v>
+        <v>1347691000000</v>
       </c>
       <c r="C352">
-        <v>1.097574360662935</v>
+        <v>1.066325442525059</v>
       </c>
       <c r="D352">
-        <v>1473171989902.316</v>
+        <v>1437077201962.039</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B353">
-        <v>1347691000000</v>
+        <v>1343534000000</v>
       </c>
       <c r="C353">
-        <v>1.066325442525059</v>
+        <v>1.071466838101361</v>
       </c>
       <c r="D353">
-        <v>1437077201962.039</v>
+        <v>1439552126861.674</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B354">
-        <v>1343534000000</v>
+        <v>1352722000000</v>
       </c>
       <c r="C354">
-        <v>1.071466838101361</v>
+        <v>1.1001100110011</v>
       </c>
       <c r="D354">
-        <v>1439552126861.674</v>
+        <v>1488143014301.43</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B355">
-        <v>1352722000000</v>
+        <v>1373328000000</v>
       </c>
       <c r="C355">
-        <v>1.1001100110011</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="D355">
-        <v>1488143014301.43</v>
+        <v>1468800000000</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B356">
-        <v>1373328000000</v>
+        <v>1383775000000</v>
       </c>
       <c r="C356">
-        <v>1.06951871657754</v>
+        <v>0.9666505558240697</v>
       </c>
       <c r="D356">
-        <v>1468800000000</v>
+        <v>1337626872885.452</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B357">
-        <v>1383775000000</v>
+        <v>1390449000000</v>
       </c>
       <c r="C357">
-        <v>0.9666505558240697</v>
+        <v>1.05496360375567</v>
       </c>
       <c r="D357">
-        <v>1337626872885.452</v>
+        <v>1466873087878.468</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B358">
-        <v>1390449000000</v>
+        <v>1396042000000</v>
       </c>
       <c r="C358">
-        <v>1.05496360375567</v>
+        <v>1.02880658436214</v>
       </c>
       <c r="D358">
-        <v>1466873087878.468</v>
+        <v>1436257201646.091</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B359">
-        <v>1396042000000</v>
+        <v>1406582000000</v>
       </c>
       <c r="C359">
-        <v>1.02880658436214</v>
+        <v>1.021554806415364</v>
       </c>
       <c r="D359">
-        <v>1436257201646.091</v>
+        <v>1436900602717.336</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B360">
-        <v>1406582000000</v>
+        <v>1416621000000</v>
       </c>
       <c r="C360">
-        <v>1.021554806415364</v>
+        <v>1.062699256110521</v>
       </c>
       <c r="D360">
-        <v>1436900602717.336</v>
+        <v>1505442082890.542</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B361">
-        <v>1416621000000</v>
+        <v>1424055000000</v>
       </c>
       <c r="C361">
-        <v>1.062699256110521</v>
+        <v>1.073767851390529</v>
       </c>
       <c r="D361">
-        <v>1505442082890.542</v>
+        <v>1529104477611.94</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B362">
-        <v>1424055000000</v>
+        <v>1434208000000</v>
       </c>
       <c r="C362">
-        <v>1.073767851390529</v>
+        <v>1.034447088031447</v>
       </c>
       <c r="D362">
-        <v>1529104477611.94</v>
+        <v>1483612289231.406</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B363">
-        <v>1434208000000</v>
+        <v>1438755000000</v>
       </c>
       <c r="C363">
-        <v>1.034447088031447</v>
+        <v>1.043405676126878</v>
       </c>
       <c r="D363">
-        <v>1483612289231.406</v>
+        <v>1501205133555.927</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B364">
-        <v>1438755000000</v>
+        <v>1457290000000</v>
       </c>
       <c r="C364">
-        <v>1.043405676126878</v>
+        <v>0.97323600973236</v>
       </c>
       <c r="D364">
-        <v>1501205133555.927</v>
+        <v>1418287104622.871</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B365">
-        <v>1457290000000</v>
+        <v>1465374000000</v>
       </c>
       <c r="C365">
-        <v>0.97323600973236</v>
+        <v>1.024275325207416</v>
       </c>
       <c r="D365">
-        <v>1418287104622.871</v>
+        <v>1500946430400.492</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B366">
-        <v>1465374000000</v>
+        <v>1472304000000</v>
       </c>
       <c r="C366">
-        <v>1.024275325207416</v>
+        <v>1.049758555532228</v>
       </c>
       <c r="D366">
-        <v>1500946430400.492</v>
+        <v>1545563720344.321</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B367">
-        <v>1472304000000</v>
+        <v>1482867000000</v>
       </c>
       <c r="C367">
-        <v>1.049758555532228</v>
+        <v>1.033698573495968</v>
       </c>
       <c r="D367">
-        <v>1545563720344.321</v>
+        <v>1532837502584.246</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B368">
-        <v>1482867000000</v>
+        <v>1488548000000</v>
       </c>
       <c r="C368">
-        <v>1.033698573495968</v>
+        <v>1.03777501037775</v>
       </c>
       <c r="D368">
-        <v>1532837502584.246</v>
+        <v>1544777916147.779</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B369">
-        <v>1488548000000</v>
+        <v>1495483000000</v>
       </c>
       <c r="C369">
-        <v>1.03777501037775</v>
+        <v>1.038205980066445</v>
       </c>
       <c r="D369">
-        <v>1544777916147.779</v>
+        <v>1552619393687.708</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B370">
-        <v>1495483000000</v>
+        <v>1500153000000</v>
       </c>
       <c r="C370">
-        <v>1.038205980066445</v>
+        <v>1.043187982474442</v>
       </c>
       <c r="D370">
-        <v>1552619393687.708</v>
+        <v>1564941581472.981</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B371">
-        <v>1500153000000</v>
+        <v>1508423000000</v>
       </c>
       <c r="C371">
-        <v>1.043187982474442</v>
+        <v>1.039933444259567</v>
       </c>
       <c r="D371">
-        <v>1564941581472.981</v>
+        <v>1568659525790.349</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B372">
-        <v>1508423000000</v>
+        <v>1518967000000</v>
       </c>
       <c r="C372">
-        <v>1.039933444259567</v>
+        <v>1.043079169708981</v>
       </c>
       <c r="D372">
-        <v>1568659525790.349</v>
+        <v>1584402837175.342</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B373">
-        <v>1518967000000</v>
+        <v>1521736000000</v>
       </c>
       <c r="C373">
-        <v>1.043079169708981</v>
+        <v>1.022076860179886</v>
       </c>
       <c r="D373">
-        <v>1584402837175.342</v>
+        <v>1555331152902.698</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B374">
-        <v>1521736000000</v>
+        <v>1531399000000</v>
       </c>
       <c r="C374">
-        <v>1.022076860179886</v>
+        <v>1.042535446205171</v>
       </c>
       <c r="D374">
-        <v>1555331152902.698</v>
+        <v>1596537739783.153</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B375">
-        <v>1531399000000</v>
+        <v>1546552000000</v>
       </c>
       <c r="C375">
-        <v>1.042535446205171</v>
+        <v>1.037129226301597</v>
       </c>
       <c r="D375">
-        <v>1596537739783.153</v>
+        <v>1603974279195.188</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B376">
-        <v>1546552000000</v>
+        <v>1560756000000</v>
       </c>
       <c r="C376">
-        <v>1.037129226301597</v>
+        <v>0.9552010698251983</v>
       </c>
       <c r="D376">
-        <v>1603974279195.188</v>
+        <v>1490835800936.097</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B377">
-        <v>1560756000000</v>
+        <v>1561285000000</v>
       </c>
       <c r="C377">
-        <v>0.9552010698251983</v>
+        <v>0.9149967975112088</v>
       </c>
       <c r="D377">
-        <v>1490835800936.097</v>
+        <v>1428570775002.288</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B378">
-        <v>1561285000000</v>
+        <v>1565767000000</v>
       </c>
       <c r="C378">
-        <v>0.9149967975112088</v>
+        <v>0.8943743851176101</v>
       </c>
       <c r="D378">
-        <v>1428570775002.288</v>
+        <v>1400381897862.445</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B379">
-        <v>1565767000000</v>
+        <v>1567032000000</v>
       </c>
       <c r="C379">
-        <v>0.8943743851176101</v>
+        <v>0.8903926631644555</v>
       </c>
       <c r="D379">
-        <v>1400381897862.445</v>
+        <v>1395273795743.923</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B380">
-        <v>1567032000000</v>
+        <v>1578348000000</v>
       </c>
       <c r="C380">
-        <v>0.8903926631644555</v>
+        <v>0.9329228472805299</v>
       </c>
       <c r="D380">
-        <v>1395273795743.923</v>
+        <v>1472476910159.53</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B381">
-        <v>1578348000000</v>
+        <v>1589865000000</v>
       </c>
       <c r="C381">
-        <v>0.9329228472805299</v>
+        <v>0.9463423866754992</v>
       </c>
       <c r="D381">
-        <v>1472476910159.53</v>
+        <v>1504556638591.843</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B382">
-        <v>1589865000000</v>
+        <v>1599918000000</v>
       </c>
       <c r="C382">
-        <v>0.9463423866754992</v>
+        <v>0.9112447603426281</v>
       </c>
       <c r="D382">
-        <v>1504556638591.843</v>
+        <v>1457916894477.857</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B383">
-        <v>1599918000000</v>
+        <v>1613768000000</v>
       </c>
       <c r="C383">
-        <v>0.9112447603426281</v>
+        <v>0.8918219923303309</v>
       </c>
       <c r="D383">
-        <v>1457916894477.857</v>
+        <v>1439193792918.933</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B384">
-        <v>1613768000000</v>
+        <v>1622097000000</v>
       </c>
       <c r="C384">
-        <v>0.8918219923303309</v>
+        <v>0.8759635599159076</v>
       </c>
       <c r="D384">
-        <v>1439193792918.933</v>
+        <v>1420897862648.914</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B385">
-        <v>1622097000000</v>
+        <v>1631933000000</v>
       </c>
       <c r="C385">
-        <v>0.8759635599159076</v>
+        <v>0.8934953538241601</v>
       </c>
       <c r="D385">
-        <v>1420897862648.914</v>
+        <v>1458124553252.323</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B386">
-        <v>1631933000000</v>
+        <v>1637964000000</v>
       </c>
       <c r="C386">
-        <v>0.8934953538241601</v>
+        <v>0.9266981744045965</v>
       </c>
       <c r="D386">
-        <v>1458124553252.323</v>
+        <v>1517898248540.45</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B387">
-        <v>1637964000000</v>
+        <v>1648196000000</v>
       </c>
       <c r="C387">
-        <v>0.9266981744045965</v>
+        <v>0.9288500835965076</v>
       </c>
       <c r="D387">
-        <v>1517898248540.45</v>
+        <v>1530926992383.429</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B388">
-        <v>1648196000000</v>
+        <v>1661059000000</v>
       </c>
       <c r="C388">
-        <v>0.9288500835965076</v>
+        <v>0.931445603576751</v>
       </c>
       <c r="D388">
-        <v>1530926992383.429</v>
+        <v>1547186102831.594</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B389">
-        <v>1661059000000</v>
+        <v>1668993000000</v>
       </c>
       <c r="C389">
-        <v>0.931445603576751</v>
+        <v>0.9433072351664937</v>
       </c>
       <c r="D389">
-        <v>1547186102831.594</v>
+        <v>1574373172342.232</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B390">
-        <v>1668993000000</v>
+        <v>1680499000000</v>
       </c>
       <c r="C390">
-        <v>0.9433072351664937</v>
+        <v>0.9296272194849864</v>
       </c>
       <c r="D390">
-        <v>1574373172342.232</v>
+        <v>1562237612717.3</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B391">
-        <v>1680499000000</v>
+        <v>1693813000000</v>
       </c>
       <c r="C391">
-        <v>0.9296272194849864</v>
+        <v>0.9344921035417251</v>
       </c>
       <c r="D391">
-        <v>1562237612717.3</v>
+        <v>1582854873376.32</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B392">
-        <v>1693813000000</v>
+        <v>1706001000000</v>
       </c>
       <c r="C392">
-        <v>0.9344921035417251</v>
+        <v>0.8748906386701663</v>
       </c>
       <c r="D392">
-        <v>1582854873376.32</v>
+        <v>1492564304461.942</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B393">
-        <v>1706001000000</v>
+        <v>1712461000000</v>
       </c>
       <c r="C393">
-        <v>0.8748906386701663</v>
+        <v>0.880126738250308</v>
       </c>
       <c r="D393">
-        <v>1492564304461.942</v>
+        <v>1507182714310.861</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B394">
-        <v>1712461000000</v>
+        <v>1716847000000</v>
       </c>
       <c r="C394">
-        <v>0.880126738250308</v>
+        <v>0.8511362669163333</v>
       </c>
       <c r="D394">
-        <v>1507182714310.861</v>
+        <v>1461270746446.506</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B395">
-        <v>1716847000000</v>
+        <v>1731250000000</v>
       </c>
       <c r="C395">
-        <v>0.8511362669163333</v>
+        <v>0.8176614881439084</v>
       </c>
       <c r="D395">
-        <v>1461270746446.506</v>
+        <v>1415576451349.141</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B396">
-        <v>1731250000000</v>
+        <v>1735199000000</v>
       </c>
       <c r="C396">
-        <v>0.8176614881439084</v>
+        <v>0.7771215418091389</v>
       </c>
       <c r="D396">
-        <v>1415576451349.141</v>
+        <v>1348460522225.676</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B397">
-        <v>1735199000000</v>
+        <v>1755949000000</v>
       </c>
       <c r="C397">
-        <v>0.7771215418091389</v>
+        <v>0.7814331483941549</v>
       </c>
       <c r="D397">
-        <v>1348460522225.676</v>
+        <v>1372156755489.568</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B398">
-        <v>1755949000000</v>
+        <v>1760584000000</v>
       </c>
       <c r="C398">
-        <v>0.7814331483941549</v>
+        <v>0.7612667478684531</v>
       </c>
       <c r="D398">
-        <v>1372156755489.568</v>
+        <v>1340274056029.233</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B399">
-        <v>1760584000000</v>
+        <v>1768918000000</v>
       </c>
       <c r="C399">
-        <v>0.7612667478684531</v>
+        <v>0.7902015013828526</v>
       </c>
       <c r="D399">
-        <v>1340274056029.233</v>
+        <v>1397801659423.153</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B400">
-        <v>1768918000000</v>
+        <v>1772712000000</v>
       </c>
       <c r="C400">
-        <v>0.7902015013828526</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D400">
-        <v>1397801659423.153</v>
+        <v>1355491665392.262</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B401">
-        <v>1772712000000</v>
+        <v>1781050000000</v>
       </c>
       <c r="C401">
-        <v>0.7646429117602079</v>
+        <v>0.7705347511172753</v>
       </c>
       <c r="D401">
-        <v>1355491665392.262</v>
+        <v>1372360918477.423</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B402">
-        <v>1781050000000</v>
+        <v>1795874000000</v>
       </c>
       <c r="C402">
-        <v>0.7705347511172753</v>
+        <v>0.7316894709885124</v>
       </c>
       <c r="D402">
-        <v>1372360918477.423</v>
+        <v>1314022097022.024</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B403">
-        <v>1795874000000</v>
+        <v>1799219000000</v>
       </c>
       <c r="C403">
-        <v>0.7316894709885124</v>
+        <v>0.7115411982353779</v>
       </c>
       <c r="D403">
-        <v>1314022097022.024</v>
+        <v>1280218443147.858</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B404">
-        <v>1799219000000</v>
+        <v>1812398000000</v>
       </c>
       <c r="C404">
-        <v>0.7115411982353779</v>
+        <v>0.702000702000702</v>
       </c>
       <c r="D404">
-        <v>1280218443147.858</v>
+        <v>1272304668304.668</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B405">
-        <v>1812398000000</v>
+        <v>1818447000000</v>
       </c>
       <c r="C405">
-        <v>0.702000702000702</v>
+        <v>0.7140307033202428</v>
       </c>
       <c r="D405">
-        <v>1272304668304.668</v>
+        <v>1298426990360.585</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B406">
-        <v>1818447000000</v>
+        <v>1831524000000</v>
       </c>
       <c r="C406">
-        <v>0.7140307033202428</v>
+        <v>0.722908985758693</v>
       </c>
       <c r="D406">
-        <v>1298426990360.585</v>
+        <v>1324025157232.704</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B407">
-        <v>1831524000000</v>
+        <v>1836529000000</v>
       </c>
       <c r="C407">
-        <v>0.722908985758693</v>
+        <v>0.7291286912139993</v>
       </c>
       <c r="D407">
-        <v>1324025157232.704</v>
+        <v>1339065986146.555</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B408">
-        <v>1836529000000</v>
+        <v>1845945000000</v>
       </c>
       <c r="C408">
-        <v>0.7291286912139993</v>
+        <v>0.7085665698292355</v>
       </c>
       <c r="D408">
-        <v>1339065986146.555</v>
+        <v>1307974916743.428</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B409">
-        <v>1845945000000</v>
+        <v>1852876000000</v>
       </c>
       <c r="C409">
-        <v>0.7085665698292355</v>
+        <v>0.7142346975216056</v>
       </c>
       <c r="D409">
-        <v>1307974916743.428</v>
+        <v>1323388329405.042</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B410">
-        <v>1852876000000</v>
+        <v>1862728000000</v>
       </c>
       <c r="C410">
-        <v>0.7142346975216056</v>
+        <v>0.7666360012266176</v>
       </c>
       <c r="D410">
-        <v>1323388329405.042</v>
+        <v>1428034345292.855</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B411">
-        <v>1862728000000</v>
+        <v>1870741000000</v>
       </c>
       <c r="C411">
-        <v>0.7666360012266176</v>
+        <v>0.7617306520414382</v>
       </c>
       <c r="D411">
-        <v>1428034345292.855</v>
+        <v>1425000761730.652</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B412">
-        <v>1870741000000</v>
+        <v>1876371000000</v>
       </c>
       <c r="C412">
-        <v>0.7617306520414382</v>
+        <v>0.7233273056057866</v>
       </c>
       <c r="D412">
-        <v>1425000761730.652</v>
+        <v>1357230379746.835</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B413">
-        <v>1876371000000</v>
+        <v>1883273000000</v>
       </c>
       <c r="C413">
-        <v>0.7233273056057866</v>
+        <v>0.7444353457902182</v>
       </c>
       <c r="D413">
-        <v>1357230379746.835</v>
+        <v>1401974986972.382</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B414">
-        <v>1883273000000</v>
+        <v>1901275000000</v>
       </c>
       <c r="C414">
-        <v>0.7444353457902182</v>
+        <v>0.761208799573723</v>
       </c>
       <c r="D414">
-        <v>1401974986972.382</v>
+        <v>1447267260409.53</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B415">
-        <v>1901275000000</v>
+        <v>1909699000000</v>
       </c>
       <c r="C415">
-        <v>0.761208799573723</v>
+        <v>0.751653638003608</v>
       </c>
       <c r="D415">
-        <v>1447267260409.53</v>
+        <v>1435432200841.852</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B416">
-        <v>1909699000000</v>
+        <v>1914336000000</v>
       </c>
       <c r="C416">
-        <v>0.751653638003608</v>
+        <v>0.7660487206986365</v>
       </c>
       <c r="D416">
-        <v>1435432200841.852</v>
+        <v>1466474643787.345</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B417">
-        <v>1914336000000</v>
+        <v>1927326000000</v>
       </c>
       <c r="C417">
-        <v>0.7660487206986365</v>
+        <v>0.7608034083992696</v>
       </c>
       <c r="D417">
-        <v>1466474643787.345</v>
+        <v>1466316189896.531</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B418">
-        <v>1927326000000</v>
+        <v>1943834000000</v>
       </c>
       <c r="C418">
-        <v>0.7608034083992696</v>
+        <v>0.7384978952809984</v>
       </c>
       <c r="D418">
-        <v>1466316189896.531</v>
+        <v>1435517317775.644</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B419">
-        <v>1943834000000</v>
+        <v>1963247000000</v>
       </c>
       <c r="C419">
-        <v>0.7384978952809984</v>
+        <v>0.7213445863088797</v>
       </c>
       <c r="D419">
-        <v>1435517317775.644</v>
+        <v>1416177595037.149</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B420">
-        <v>1963247000000</v>
+        <v>1975270000000</v>
       </c>
       <c r="C420">
-        <v>0.7213445863088797</v>
+        <v>0.7586102260658474</v>
       </c>
       <c r="D420">
-        <v>1416177595037.149</v>
+        <v>1498460021241.086</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B421">
-        <v>1975270000000</v>
+        <v>1985415000000</v>
       </c>
       <c r="C421">
-        <v>0.7586102260658474</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D421">
-        <v>1498460021241.086</v>
+        <v>1520342292671.721</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B422">
-        <v>1985415000000</v>
+        <v>1990532000000</v>
       </c>
       <c r="C422">
-        <v>0.7657554177195803</v>
+        <v>0.7640586797066015</v>
       </c>
       <c r="D422">
-        <v>1520342292671.721</v>
+        <v>1520883251833.741</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B423">
-        <v>1990532000000</v>
+        <v>2006251000000</v>
       </c>
       <c r="C423">
-        <v>0.7640586797066015</v>
+        <v>0.7499062617172854</v>
       </c>
       <c r="D423">
-        <v>1520883251833.741</v>
+        <v>1504500187476.565</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B424">
-        <v>2006251000000</v>
+        <v>2015317000000</v>
       </c>
       <c r="C424">
-        <v>0.7499062617172854</v>
+        <v>0.7432181345224824</v>
       </c>
       <c r="D424">
-        <v>1504500187476.565</v>
+        <v>1497820141211.446</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B425">
-        <v>2015317000000</v>
+        <v>2028659000000</v>
       </c>
       <c r="C425">
-        <v>0.7432181345224824</v>
+        <v>0.7700600646850454</v>
       </c>
       <c r="D425">
-        <v>1497820141211.446</v>
+        <v>1562189280763.899</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B426">
-        <v>2028659000000</v>
+        <v>2032466000000</v>
       </c>
       <c r="C426">
-        <v>0.7700600646850454</v>
+        <v>0.8002560819462228</v>
       </c>
       <c r="D426">
-        <v>1562189280763.899</v>
+        <v>1626493277848.912</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B427">
-        <v>2032466000000</v>
+        <v>2038289000000</v>
       </c>
       <c r="C427">
-        <v>0.8002560819462228</v>
+        <v>0.7947862025115244</v>
       </c>
       <c r="D427">
-        <v>1626493277848.912</v>
+        <v>1620003973931.013</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B428">
-        <v>2038289000000</v>
+        <v>2045353000000</v>
       </c>
       <c r="C428">
-        <v>0.7947862025115244</v>
+        <v>0.7840677434530343</v>
       </c>
       <c r="D428">
-        <v>1620003973931.013</v>
+        <v>1603695311274.894</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B429">
-        <v>2045353000000</v>
+        <v>2054212000000</v>
       </c>
       <c r="C429">
-        <v>0.7840677434530343</v>
+        <v>0.7657554177195803</v>
       </c>
       <c r="D429">
-        <v>1603695311274.894</v>
+        <v>1573023968144.574</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B430">
-        <v>2054212000000</v>
+        <v>2058719000000</v>
       </c>
       <c r="C430">
-        <v>0.7657554177195803</v>
+        <v>0.7566013467503971</v>
       </c>
       <c r="D430">
-        <v>1573023968144.574</v>
+        <v>1557629567980.631</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B431">
-        <v>2058719000000</v>
+        <v>2055155000000</v>
       </c>
       <c r="C431">
-        <v>0.7566013467503971</v>
+        <v>0.7808229874287499</v>
       </c>
       <c r="D431">
-        <v>1557629567980.631</v>
+        <v>1604712266729.133</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B432">
-        <v>2055155000000</v>
+        <v>2061636000000</v>
       </c>
       <c r="C432">
-        <v>0.7808229874287499</v>
+        <v>0.8058017727639</v>
       </c>
       <c r="D432">
-        <v>1604712266729.133</v>
+        <v>1661269943593.876</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B433">
-        <v>2061636000000</v>
+        <v>2062698000000</v>
       </c>
       <c r="C433">
-        <v>0.8058017727639</v>
+        <v>0.7762769756249029</v>
       </c>
       <c r="D433">
-        <v>1661269943593.876</v>
+        <v>1601224965067.536</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B434">
-        <v>2062698000000</v>
+        <v>2060315000000</v>
       </c>
       <c r="C434">
-        <v>0.7762769756249029</v>
+        <v>0.7682851874615857</v>
       </c>
       <c r="D434">
-        <v>1601224965067.536</v>
+        <v>1582909496004.917</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B435">
-        <v>2060315000000</v>
+        <v>2059374000000</v>
       </c>
       <c r="C435">
-        <v>0.7682851874615857</v>
+        <v>0.7532389273877674</v>
       </c>
       <c r="D435">
-        <v>1582909496004.917</v>
+        <v>1551200662850.256</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B436">
-        <v>2059374000000</v>
+        <v>2063352000000</v>
       </c>
       <c r="C436">
-        <v>0.7532389273877674</v>
+        <v>0.7567731194187983</v>
       </c>
       <c r="D436">
-        <v>1551200662850.256</v>
+        <v>1561489329499.016</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B437">
-        <v>2063352000000</v>
+        <v>2064535000000</v>
       </c>
       <c r="C437">
-        <v>0.7567731194187983</v>
+        <v>0.7406310176270182</v>
       </c>
       <c r="D437">
-        <v>1561489329499.016</v>
+        <v>1529058657976.596</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B438">
-        <v>2064535000000</v>
+        <v>2071062000000</v>
       </c>
       <c r="C438">
-        <v>0.7406310176270182</v>
+        <v>0.7427764985515858</v>
       </c>
       <c r="D438">
-        <v>1529058657976.596</v>
+        <v>1538336180643.244</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B439">
-        <v>2071062000000</v>
+        <v>2088226000000</v>
       </c>
       <c r="C439">
-        <v>0.7427764985515858</v>
+        <v>0.7193209610128039</v>
       </c>
       <c r="D439">
-        <v>1538336180643.244</v>
+        <v>1502104733131.923</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B440">
-        <v>2088226000000</v>
+        <v>2088608000000</v>
       </c>
       <c r="C440">
-        <v>0.7193209610128039</v>
+        <v>0.7222824124232574</v>
       </c>
       <c r="D440">
-        <v>1502104733131.923</v>
+        <v>1508564824846.515</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B441">
-        <v>2088608000000</v>
+        <v>2096096000000</v>
       </c>
       <c r="C441">
-        <v>0.7222824124232574</v>
+        <v>0.7078142695356738</v>
       </c>
       <c r="D441">
-        <v>1508564824846.515</v>
+        <v>1483646659116.648</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B442">
-        <v>2096096000000</v>
+        <v>2097660000000</v>
       </c>
       <c r="C442">
-        <v>0.7078142695356738</v>
+        <v>0.731528895391368</v>
       </c>
       <c r="D442">
-        <v>1483646659116.648</v>
+        <v>1534498902706.657</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B443">
-        <v>2097660000000</v>
+        <v>2107869000000</v>
       </c>
       <c r="C443">
-        <v>0.731528895391368</v>
+        <v>0.7052186177715092</v>
       </c>
       <c r="D443">
-        <v>1534498902706.657</v>
+        <v>1486508462623.413</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B444">
-        <v>2107869000000</v>
+        <v>2117724000000</v>
       </c>
       <c r="C444">
-        <v>0.7052186177715092</v>
+        <v>0.7275902211874272</v>
       </c>
       <c r="D444">
-        <v>1486508462623.413</v>
+        <v>1540835273573.923</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B445">
-        <v>2117724000000</v>
+        <v>2130492000000</v>
       </c>
       <c r="C445">
-        <v>0.7275902211874272</v>
+        <v>0.7094714437743881</v>
       </c>
       <c r="D445">
-        <v>1540835273573.923</v>
+        <v>1511523235189.784</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B446">
-        <v>2130492000000</v>
+        <v>2145779000000</v>
       </c>
       <c r="C446">
-        <v>0.7094714437743881</v>
+        <v>0.7098743522396536</v>
       </c>
       <c r="D446">
-        <v>1511523235189.784</v>
+        <v>1523233477674.452</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B447">
-        <v>2145779000000</v>
+        <v>2146025000000</v>
       </c>
       <c r="C447">
-        <v>0.7098743522396536</v>
+        <v>0.7049203440011278</v>
       </c>
       <c r="D447">
-        <v>1523233477674.452</v>
+        <v>1512776681235.02</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B448">
-        <v>2146025000000</v>
+        <v>2145795000000</v>
       </c>
       <c r="C448">
-        <v>0.7049203440011278</v>
+        <v>0.6937699458859442</v>
       </c>
       <c r="D448">
-        <v>1512776681235.02</v>
+        <v>1488688081032.33</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B449">
-        <v>2145795000000</v>
+        <v>2144720000000</v>
       </c>
       <c r="C449">
-        <v>0.6937699458859442</v>
+        <v>0.7023458350891979</v>
       </c>
       <c r="D449">
-        <v>1488688081032.33</v>
+        <v>1506335159432.505</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B450">
-        <v>2144720000000</v>
+        <v>2120778000000</v>
       </c>
       <c r="C450">
-        <v>0.7023458350891979</v>
+        <v>0.6845564074479736</v>
       </c>
       <c r="D450">
-        <v>1506335159432.505</v>
+        <v>1451792168674.699</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B451">
-        <v>2120778000000</v>
+        <v>2127611000000</v>
       </c>
       <c r="C451">
-        <v>0.6845564074479736</v>
+        <v>0.6738998584810297</v>
       </c>
       <c r="D451">
-        <v>1451792168674.699</v>
+        <v>1433796751802.682</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B452">
-        <v>2127611000000</v>
+        <v>2134296000000</v>
       </c>
       <c r="C452">
-        <v>0.6738998584810297</v>
+        <v>0.6751282743721306</v>
       </c>
       <c r="D452">
-        <v>1433796751802.682</v>
+        <v>1440923575479.341</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B453">
-        <v>2134296000000</v>
+        <v>2144977000000</v>
       </c>
       <c r="C453">
-        <v>0.6751282743721306</v>
+        <v>0.6892748828232699</v>
       </c>
       <c r="D453">
-        <v>1440923575479.341</v>
+        <v>1478478770333.609</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B454">
-        <v>2144977000000</v>
+        <v>2153619000000</v>
       </c>
       <c r="C454">
-        <v>0.6892748828232699</v>
+        <v>0.6764526821348847</v>
       </c>
       <c r="D454">
-        <v>1478478770333.609</v>
+        <v>1456821348846.648</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B455">
-        <v>2153619000000</v>
+        <v>2159190000000</v>
       </c>
       <c r="C455">
-        <v>0.6764526821348847</v>
+        <v>0.7019514249613926</v>
       </c>
       <c r="D455">
-        <v>1456821348846.648</v>
+        <v>1515646497262.389</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B456">
-        <v>2159190000000</v>
+        <v>2168139000000</v>
       </c>
       <c r="C456">
-        <v>0.7019514249613926</v>
+        <v>0.6690305746972637</v>
       </c>
       <c r="D456">
-        <v>1515646497262.389</v>
+        <v>1450551281193.551</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B457">
-        <v>2168139000000</v>
+        <v>2179429000000</v>
       </c>
       <c r="C457">
-        <v>0.6690305746972637</v>
+        <v>0.6512112529304506</v>
       </c>
       <c r="D457">
-        <v>1450551281193.551</v>
+        <v>1419268689762.959</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B458">
-        <v>2179429000000</v>
+        <v>2240876000000</v>
       </c>
       <c r="C458">
-        <v>0.6512112529304506</v>
+        <v>0.6160290765724142</v>
       </c>
       <c r="D458">
-        <v>1419268689762.959</v>
+        <v>1380444772993.285</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B459">
-        <v>2240876000000</v>
+        <v>2306773000000</v>
       </c>
       <c r="C459">
-        <v>0.6160290765724142</v>
+        <v>0.6506011554676522</v>
       </c>
       <c r="D459">
-        <v>1380444772993.285</v>
+        <v>1500789179201.583</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B460">
-        <v>2306773000000</v>
+        <v>2313500000000</v>
       </c>
       <c r="C460">
-        <v>0.6506011554676522</v>
+        <v>0.6669779230307477</v>
       </c>
       <c r="D460">
-        <v>1500789179201.583</v>
+        <v>1543053424931.635</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B461">
-        <v>2313500000000</v>
+        <v>2326139000000</v>
       </c>
       <c r="C461">
-        <v>0.6669779230307477</v>
+        <v>0.6903836461921891</v>
       </c>
       <c r="D461">
-        <v>1543053424931.635</v>
+        <v>1605928324369.853</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B462">
-        <v>2326139000000</v>
+        <v>2352750000000</v>
       </c>
       <c r="C462">
-        <v>0.6903836461921891</v>
+        <v>0.7144388083160678</v>
       </c>
       <c r="D462">
-        <v>1605928324369.853</v>
+        <v>1680895906265.628</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B463">
-        <v>2352750000000</v>
+        <v>2379316000000</v>
       </c>
       <c r="C463">
-        <v>0.7144388083160678</v>
+        <v>0.7377024993360677</v>
       </c>
       <c r="D463">
-        <v>1680895906265.628</v>
+        <v>1755227359910.295</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B464">
-        <v>2379316000000</v>
+        <v>2394341000000</v>
       </c>
       <c r="C464">
-        <v>0.7377024993360677</v>
+        <v>0.7162092476938062</v>
       </c>
       <c r="D464">
-        <v>1755227359910.295</v>
+        <v>1714849166332.436</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B465">
-        <v>2394341000000</v>
+        <v>2406686000000</v>
       </c>
       <c r="C465">
-        <v>0.7162092476938062</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="D465">
-        <v>1714849166332.436</v>
+        <v>1691870650263.62</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B466">
-        <v>2406686000000</v>
+        <v>2422093000000</v>
       </c>
       <c r="C466">
-        <v>0.7029876977152899</v>
+        <v>0.7344840249724569</v>
       </c>
       <c r="D466">
-        <v>1691870650263.62</v>
+        <v>1778988615497.613</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B467">
-        <v>2422093000000</v>
+        <v>2432541000000</v>
       </c>
       <c r="C467">
-        <v>0.7344840249724569</v>
+        <v>0.7695267410542516</v>
       </c>
       <c r="D467">
-        <v>1778988615497.613</v>
+        <v>1871905348210.85</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B468">
-        <v>2432541000000</v>
+        <v>2445355000000</v>
       </c>
       <c r="C468">
-        <v>0.7695267410542516</v>
+        <v>0.7646429117602079</v>
       </c>
       <c r="D468">
-        <v>1871905348210.85</v>
+        <v>1869823367487.383</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B469">
-        <v>2445355000000</v>
+        <v>2456982000000</v>
       </c>
       <c r="C469">
-        <v>0.7646429117602079</v>
+        <v>0.7710694733595498</v>
       </c>
       <c r="D469">
-        <v>1869823367487.383</v>
+        <v>1894503816793.893</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B470">
-        <v>2456982000000</v>
+        <v>2460631000000</v>
       </c>
       <c r="C470">
-        <v>0.7710694733595498</v>
+        <v>0.7597052343690648</v>
       </c>
       <c r="D470">
-        <v>1894503816793.893</v>
+        <v>1869354250550.786</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B471">
-        <v>2460631000000</v>
+        <v>2468677000000</v>
       </c>
       <c r="C471">
-        <v>0.7597052343690648</v>
+        <v>0.7714263673532361</v>
       </c>
       <c r="D471">
-        <v>1869354250550.786</v>
+        <v>1904402530278.485</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B472">
-        <v>2468677000000</v>
+        <v>2474575000000</v>
       </c>
       <c r="C472">
-        <v>0.7714263673532361</v>
+        <v>0.7737542556484061</v>
       </c>
       <c r="D472">
-        <v>1904402530278.485</v>
+        <v>1914712937171.154</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B473">
-        <v>2474575000000</v>
+        <v>2505723000000</v>
       </c>
       <c r="C473">
-        <v>0.7737542556484061</v>
+        <v>0.7502438292445045</v>
       </c>
       <c r="D473">
-        <v>1914712937171.154</v>
+        <v>1879903218546.028</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B474">
-        <v>2505723000000</v>
+        <v>2536103000000</v>
       </c>
       <c r="C474">
-        <v>0.7502438292445045</v>
+        <v>0.7346998751010212</v>
       </c>
       <c r="D474">
-        <v>1879903218546.028</v>
+        <v>1863274557343.325</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B475">
-        <v>2536103000000</v>
+        <v>2547798000000</v>
       </c>
       <c r="C475">
-        <v>0.7346998751010212</v>
+        <v>0.7317483663717721</v>
       </c>
       <c r="D475">
-        <v>1863274557343.325</v>
+        <v>1864347024345.268</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B476">
-        <v>2547798000000</v>
+        <v>2586119000000</v>
       </c>
       <c r="C476">
-        <v>0.7317483663717721</v>
+        <v>0.7232592956900978</v>
       </c>
       <c r="D476">
-        <v>1864347024345.268</v>
+        <v>1870434606510.78</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B477">
-        <v>2586119000000</v>
+        <v>2600986000000</v>
       </c>
       <c r="C477">
-        <v>0.7232592956900978</v>
+        <v>0.7523888345496953</v>
       </c>
       <c r="D477">
-        <v>1870434606510.78</v>
+        <v>1956952825220.074</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B478">
-        <v>2600986000000</v>
+        <v>2620281000000</v>
       </c>
       <c r="C478">
-        <v>0.7523888345496953</v>
+        <v>0.7129565595568262</v>
       </c>
       <c r="D478">
-        <v>1956952825220.074</v>
+        <v>1868146526832.12</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B479">
-        <v>2620281000000</v>
+        <v>2658542000000</v>
       </c>
       <c r="C479">
-        <v>0.7129565595568262</v>
+        <v>0.726907951646083</v>
       </c>
       <c r="D479">
-        <v>1868146526832.12</v>
+        <v>1932515319585.081</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B480">
-        <v>2658542000000</v>
+        <v>2657176000000</v>
       </c>
       <c r="C480">
-        <v>0.726907951646083</v>
+        <v>0.7070135746606334</v>
       </c>
       <c r="D480">
-        <v>1932515319585.081</v>
+        <v>1878659502262.443</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B481">
-        <v>2657176000000</v>
+        <v>2667865000000</v>
       </c>
       <c r="C481">
-        <v>0.7070135746606334</v>
+        <v>0.7264115993404182</v>
       </c>
       <c r="D481">
-        <v>1878659502262.443</v>
+        <v>1937968081474.325</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B482">
-        <v>2667865000000</v>
+        <v>2688610000000</v>
       </c>
       <c r="C482">
-        <v>0.7264115993404182</v>
+        <v>0.7486542939067027</v>
       </c>
       <c r="D482">
-        <v>1937968081474.325</v>
+        <v>2012839421140.5</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B483">
-        <v>2688610000000</v>
+        <v>2705320000000</v>
       </c>
       <c r="C483">
-        <v>0.7486542939067027</v>
+        <v>0.7064142413111049</v>
       </c>
       <c r="D483">
-        <v>2012839421140.5</v>
+        <v>1911076575303.758</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B484">
-        <v>2705320000000</v>
+        <v>2729667000000</v>
       </c>
       <c r="C484">
-        <v>0.7064142413111049</v>
+        <v>0.7179111656723597</v>
       </c>
       <c r="D484">
-        <v>1911076575303.758</v>
+        <v>1959658417867.373</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B485">
-        <v>2729667000000</v>
+        <v>2752207000000</v>
       </c>
       <c r="C485">
-        <v>0.7179111656723597</v>
+        <v>0.6904170118751727</v>
       </c>
       <c r="D485">
-        <v>1959658417867.373</v>
+        <v>1900170533001.933</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B486">
-        <v>2752207000000</v>
+        <v>2765710000000</v>
       </c>
       <c r="C486">
-        <v>0.6904170118751727</v>
+        <v>0.6993496048674733</v>
       </c>
       <c r="D486">
-        <v>1900170533001.933</v>
+        <v>1934198195678.02</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B487">
-        <v>2765710000000</v>
+        <v>2774212000000</v>
       </c>
       <c r="C487">
-        <v>0.6993496048674733</v>
+        <v>0.6845189201029517</v>
       </c>
       <c r="D487">
-        <v>1934198195678.02</v>
+        <v>1899000602376.65</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B488">
-        <v>2774212000000</v>
+        <v>2773541000000</v>
       </c>
       <c r="C488">
-        <v>0.6845189201029517</v>
+        <v>0.6402048655569782</v>
       </c>
       <c r="D488">
-        <v>1899000602376.65</v>
+        <v>1775634443021.767</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B489">
-        <v>2773541000000</v>
+        <v>2792938000000</v>
       </c>
       <c r="C489">
-        <v>0.6402048655569782</v>
+        <v>0.6400860275621043</v>
       </c>
       <c r="D489">
-        <v>1775634443021.767</v>
+        <v>1787720589647.249</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B490">
-        <v>2792938000000</v>
+        <v>2809906000000</v>
       </c>
       <c r="C490">
-        <v>0.6400860275621043</v>
+        <v>0.6789788158609451</v>
       </c>
       <c r="D490">
-        <v>1787720589647.249</v>
+        <v>1907866648560.565</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B491">
-        <v>2809906000000</v>
+        <v>2828132000000</v>
       </c>
       <c r="C491">
-        <v>0.6789788158609451</v>
+        <v>0.6818491749624983</v>
       </c>
       <c r="D491">
-        <v>1907866648560.565</v>
+        <v>1928359470885.04</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B492">
-        <v>2828132000000</v>
+        <v>2846999000000</v>
       </c>
       <c r="C492">
-        <v>0.6818491749624983</v>
+        <v>0.7056167090036692</v>
       </c>
       <c r="D492">
-        <v>1928359470885.04</v>
+        <v>2008890064916.737</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B493">
-        <v>2846999000000</v>
+        <v>2851089000000</v>
       </c>
       <c r="C493">
-        <v>0.7056167090036692</v>
+        <v>0.6730833950326446</v>
       </c>
       <c r="D493">
-        <v>2008890064916.737</v>
+        <v>1919020663660.228</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B494">
-        <v>2851089000000</v>
+        <v>2864988000000</v>
       </c>
       <c r="C494">
-        <v>0.6730833950326446</v>
+        <v>0.6686726847208291</v>
       </c>
       <c r="D494">
-        <v>1919020663660.228</v>
+        <v>1915739217652.959</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B495">
-        <v>2864988000000</v>
+        <v>2873093000000</v>
       </c>
       <c r="C495">
-        <v>0.6686726847208291</v>
+        <v>0.661769571835087</v>
       </c>
       <c r="D495">
-        <v>1915739217652.959</v>
+        <v>1901325524452.385</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B496">
-        <v>2873093000000</v>
+        <v>2879686000000</v>
       </c>
       <c r="C496">
-        <v>0.661769571835087</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="D496">
-        <v>1901325524452.385</v>
+        <v>1872966504065.041</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B497">
-        <v>2879686000000</v>
+        <v>2867887000000</v>
       </c>
       <c r="C497">
-        <v>0.6504065040650406</v>
+        <v>0.6663557006730193</v>
       </c>
       <c r="D497">
-        <v>1872966504065.041</v>
+        <v>1911032851336.043</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B498">
-        <v>2867887000000</v>
+        <v>2876560000000</v>
       </c>
       <c r="C498">
-        <v>0.6663557006730193</v>
+        <v>0.671952694530305</v>
       </c>
       <c r="D498">
-        <v>1911032851336.043</v>
+        <v>1932912242978.094</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B499">
-        <v>2876560000000</v>
+        <v>2896970000000</v>
       </c>
       <c r="C499">
-        <v>0.671952694530305</v>
+        <v>0.6486472461681163</v>
       </c>
       <c r="D499">
-        <v>1932912242978.094</v>
+        <v>1879111612731.648</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B500">
-        <v>2896970000000</v>
+        <v>2912060000000</v>
       </c>
       <c r="C500">
-        <v>0.6486472461681163</v>
+        <v>0.6435006435006435</v>
       </c>
       <c r="D500">
-        <v>1879111612731.648</v>
+        <v>1873912483912.484</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B501">
-        <v>2914420000000</v>
+        <v>2921060000000</v>
       </c>
       <c r="C501">
-        <v>0.6435006435006435</v>
+        <v>0.6338983480609049</v>
       </c>
       <c r="D501">
-        <v>1875431145431.146</v>
+        <v>1851655108586.787</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Australia_M2 (AUD)</t>
-  </si>
-  <si>
-    <t>Australia_FX (USD)</t>
-  </si>
-  <si>
-    <t>Australia_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,7013 +426,7029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>30011</v>
-      </c>
-      <c r="B2">
-        <v>73612000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Australia_M2 (AUD)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Australia_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Australia_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>30042</v>
       </c>
-      <c r="B3">
+      <c r="B2" t="n">
         <v>74469000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30072</v>
       </c>
-      <c r="B4">
+      <c r="B3" t="n">
         <v>75818000000</v>
       </c>
-      <c r="C4">
-        <v>1.050640901981938</v>
-      </c>
-      <c r="D4">
-        <v>79657491906.46661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30103</v>
       </c>
-      <c r="B5">
+      <c r="B4" t="n">
         <v>75986000000</v>
       </c>
-      <c r="C5">
+      <c r="C4" t="n">
         <v>1.023227269244114</v>
       </c>
-      <c r="D5">
+      <c r="D4" t="n">
         <v>77750947280.78325</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="B6">
+      <c r="B5" t="n">
         <v>76398000000</v>
       </c>
-      <c r="C6">
+      <c r="C5" t="n">
         <v>0.9930486889686798</v>
       </c>
-      <c r="D6">
+      <c r="D5" t="n">
         <v>75866933739.82919</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30164</v>
       </c>
-      <c r="B7">
+      <c r="B6" t="n">
         <v>76839000000</v>
       </c>
-      <c r="C7">
+      <c r="C6" t="n">
         <v>0.9654373617578175</v>
       </c>
-      <c r="D7">
+      <c r="D6" t="n">
         <v>74183241440.10893</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30195</v>
       </c>
-      <c r="B8">
+      <c r="B7" t="n">
         <v>77716000000</v>
       </c>
-      <c r="C8">
+      <c r="C7" t="n">
         <v>0.9494872678552291</v>
       </c>
-      <c r="D8">
+      <c r="D7" t="n">
         <v>73790352508.63698</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="B9">
+      <c r="B8" t="n">
         <v>77971000000</v>
       </c>
-      <c r="C9">
+      <c r="C8" t="n">
         <v>0.9358038029681562</v>
       </c>
-      <c r="D9">
+      <c r="D8" t="n">
         <v>72965558321.23012</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>30256</v>
       </c>
-      <c r="B10">
+      <c r="B9" t="n">
         <v>78867000000</v>
       </c>
-      <c r="C10">
+      <c r="C9" t="n">
         <v>0.9554748892695373</v>
       </c>
-      <c r="D10">
+      <c r="D9" t="n">
         <v>75355438092.0206</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>30286</v>
       </c>
-      <c r="B11">
+      <c r="B10" t="n">
         <v>79896000000</v>
       </c>
-      <c r="C11">
+      <c r="C10" t="n">
         <v>0.9800077920419547</v>
       </c>
-      <c r="D11">
+      <c r="D10" t="n">
         <v>78298702552.98401</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="B12">
+      <c r="B11" t="n">
         <v>80459000000</v>
       </c>
-      <c r="C12">
+      <c r="C11" t="n">
         <v>0.9691800454783859</v>
       </c>
-      <c r="D12">
+      <c r="D11" t="n">
         <v>77979257279.14545</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>30348</v>
       </c>
-      <c r="B13">
+      <c r="B12" t="n">
         <v>81369000000</v>
       </c>
-      <c r="C13">
+      <c r="C12" t="n">
         <v>0.9542895678705817</v>
       </c>
-      <c r="D13">
+      <c r="D12" t="n">
         <v>77649587848.06137</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>30376</v>
       </c>
-      <c r="B14">
+      <c r="B13" t="n">
         <v>83111000000</v>
       </c>
-      <c r="C14">
+      <c r="C13" t="n">
         <v>0.8649770556618704</v>
       </c>
-      <c r="D14">
+      <c r="D13" t="n">
         <v>71889108073.11371</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="B15">
+      <c r="B14" t="n">
         <v>83602000000</v>
       </c>
-      <c r="C15">
+      <c r="C14" t="n">
         <v>0.8673779316051338</v>
       </c>
-      <c r="D15">
+      <c r="D14" t="n">
         <v>72514529838.0524</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>30437</v>
       </c>
-      <c r="B16">
+      <c r="B15" t="n">
         <v>84753000000</v>
       </c>
-      <c r="C16">
+      <c r="C15" t="n">
         <v>0.8816787318229365</v>
       </c>
-      <c r="D16">
+      <c r="D15" t="n">
         <v>74724917558.18935</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>30468</v>
       </c>
-      <c r="B17">
+      <c r="B16" t="n">
         <v>85713000000</v>
       </c>
-      <c r="C17">
+      <c r="C16" t="n">
         <v>0.8754267628869232</v>
       </c>
-      <c r="D17">
+      <c r="D16" t="n">
         <v>75035454127.32684</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="B18">
+      <c r="B17" t="n">
         <v>86532000000</v>
       </c>
-      <c r="C18">
+      <c r="C17" t="n">
         <v>0.880514228057711</v>
       </c>
-      <c r="D18">
+      <c r="D17" t="n">
         <v>76192657182.28984</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>30529</v>
       </c>
-      <c r="B19">
+      <c r="B18" t="n">
         <v>87396000000</v>
       </c>
-      <c r="C19">
+      <c r="C18" t="n">
         <v>0.8775778696344384</v>
       </c>
-      <c r="D19">
+      <c r="D18" t="n">
         <v>76696795494.57138</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>30560</v>
       </c>
-      <c r="B20">
+      <c r="B19" t="n">
         <v>88347000000</v>
       </c>
-      <c r="C20">
+      <c r="C19" t="n">
         <v>0.8973438380112031</v>
       </c>
-      <c r="D20">
+      <c r="D19" t="n">
         <v>79277636056.77576</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="B21">
+      <c r="B20" t="n">
         <v>89071000000</v>
       </c>
-      <c r="C21">
+      <c r="C20" t="n">
         <v>0.9143274703151014</v>
       </c>
-      <c r="D21">
+      <c r="D20" t="n">
         <v>81440062108.4364</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>30621</v>
       </c>
-      <c r="B22">
+      <c r="B21" t="n">
         <v>90096000000</v>
       </c>
-      <c r="C22">
+      <c r="C21" t="n">
         <v>0.9153318329152906</v>
       </c>
-      <c r="D22">
+      <c r="D21" t="n">
         <v>82467736818.33603</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>30651</v>
       </c>
-      <c r="B23">
+      <c r="B22" t="n">
         <v>91342000000</v>
       </c>
-      <c r="C23">
+      <c r="C22" t="n">
         <v>0.8987148458588554</v>
       </c>
-      <c r="D23">
+      <c r="D22" t="n">
         <v>82090411450.43958</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="B24">
+      <c r="B23" t="n">
         <v>92416000000</v>
       </c>
-      <c r="C24">
+      <c r="C23" t="n">
         <v>0.9180207135584059</v>
       </c>
-      <c r="D24">
+      <c r="D23" t="n">
         <v>84839802264.21364</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="B25">
+      <c r="B24" t="n">
         <v>93676000000</v>
       </c>
-      <c r="C25">
+      <c r="C24" t="n">
         <v>0.943841452455714</v>
       </c>
-      <c r="D25">
+      <c r="D24" t="n">
         <v>88415291900.24147</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>30742</v>
       </c>
-      <c r="B26">
+      <c r="B25" t="n">
         <v>94512000000</v>
       </c>
-      <c r="C26">
+      <c r="C25" t="n">
         <v>0.9363296230835064</v>
       </c>
-      <c r="D26">
+      <c r="D25" t="n">
         <v>88494385336.86836</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="B27">
+      <c r="B26" t="n">
         <v>94904000000</v>
       </c>
-      <c r="C27">
+      <c r="C26" t="n">
         <v>0.9191175963721915</v>
       </c>
-      <c r="D27">
+      <c r="D26" t="n">
         <v>87227936366.10646</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>30803</v>
       </c>
-      <c r="B28">
+      <c r="B27" t="n">
         <v>95596000000</v>
       </c>
-      <c r="C28">
+      <c r="C27" t="n">
         <v>0.8991997041704909</v>
       </c>
-      <c r="D28">
+      <c r="D27" t="n">
         <v>85959894919.88225</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="B29">
+      <c r="B28" t="n">
         <v>96374000000</v>
       </c>
-      <c r="C29">
+      <c r="C28" t="n">
         <v>0.8608074299663646</v>
       </c>
-      <c r="D29">
+      <c r="D28" t="n">
         <v>82959455255.57843</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B30">
+      <c r="B29" t="n">
         <v>97560000000</v>
       </c>
-      <c r="C30">
+      <c r="C29" t="n">
         <v>0.8352823672877899</v>
       </c>
-      <c r="D30">
+      <c r="D29" t="n">
         <v>81490147752.59679</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="B31">
+      <c r="B30" t="n">
         <v>98987000000</v>
       </c>
-      <c r="C31">
+      <c r="C30" t="n">
         <v>0.8490405408877293</v>
       </c>
-      <c r="D31">
+      <c r="D30" t="n">
         <v>84043976020.85365</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="B32">
+      <c r="B31" t="n">
         <v>100017000000</v>
       </c>
-      <c r="C32">
+      <c r="C31" t="n">
         <v>0.832639480976511</v>
       </c>
-      <c r="D32">
+      <c r="D31" t="n">
         <v>83278102968.8277</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B33">
+      <c r="B32" t="n">
         <v>101110000000</v>
       </c>
-      <c r="C33">
+      <c r="C32" t="n">
         <v>0.8403360920838945</v>
       </c>
-      <c r="D33">
+      <c r="D32" t="n">
         <v>84966382270.60257</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="B34">
+      <c r="B33" t="n">
         <v>102721000000</v>
       </c>
-      <c r="C34">
+      <c r="C33" t="n">
         <v>0.8579272919317412</v>
       </c>
-      <c r="D34">
+      <c r="D33" t="n">
         <v>88127149354.52039</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="B35">
+      <c r="B34" t="n">
         <v>104098000000</v>
       </c>
-      <c r="C35">
+      <c r="C34" t="n">
         <v>0.8254229952363601</v>
       </c>
-      <c r="D35">
+      <c r="D34" t="n">
         <v>85924882958.11461</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B36">
+      <c r="B35" t="n">
         <v>105967000000</v>
       </c>
-      <c r="C36">
+      <c r="C35" t="n">
         <v>0.8137358878260522</v>
       </c>
-      <c r="D36">
+      <c r="D35" t="n">
         <v>86229150825.26328</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B37">
+      <c r="B36" t="n">
         <v>107266000000</v>
       </c>
-      <c r="C37">
+      <c r="C36" t="n">
         <v>0.7095217873529288</v>
       </c>
-      <c r="D37">
+      <c r="D36" t="n">
         <v>76107564042.19926</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B38">
+      <c r="B37" t="n">
         <v>108745000000</v>
       </c>
-      <c r="C38">
+      <c r="C37" t="n">
         <v>0.700525389138176</v>
       </c>
-      <c r="D38">
+      <c r="D37" t="n">
         <v>76178633441.83095</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B39">
+      <c r="B38" t="n">
         <v>109921000000</v>
       </c>
-      <c r="C39">
+      <c r="C38" t="n">
         <v>0.64649598336571</v>
       </c>
-      <c r="D39">
+      <c r="D38" t="n">
         <v>71063484987.54221</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B40">
+      <c r="B39" t="n">
         <v>111426000000</v>
       </c>
-      <c r="C40">
+      <c r="C39" t="n">
         <v>0.6633059386875146</v>
       </c>
-      <c r="D40">
+      <c r="D39" t="n">
         <v>73909527524.19501</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B41">
+      <c r="B40" t="n">
         <v>111527000000</v>
       </c>
-      <c r="C41">
+      <c r="C40" t="n">
         <v>0.6680026809352395</v>
       </c>
-      <c r="D41">
+      <c r="D40" t="n">
         <v>74500334996.66446</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B42">
+      <c r="B41" t="n">
         <v>114424000000</v>
       </c>
-      <c r="C42">
+      <c r="C41" t="n">
         <v>0.7240081298583299</v>
       </c>
-      <c r="D42">
+      <c r="D41" t="n">
         <v>82843906250.90953</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B43">
+      <c r="B42" t="n">
         <v>115716000000</v>
       </c>
-      <c r="C43">
+      <c r="C42" t="n">
         <v>0.7039774528975021</v>
       </c>
-      <c r="D43">
+      <c r="D42" t="n">
         <v>81461454939.48735</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B44">
+      <c r="B43" t="n">
         <v>117171000000</v>
       </c>
-      <c r="C44">
+      <c r="C43" t="n">
         <v>0.7058159132437054</v>
       </c>
-      <c r="D44">
+      <c r="D43" t="n">
         <v>82701156370.67821</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B45">
+      <c r="B44" t="n">
         <v>117884000000</v>
       </c>
-      <c r="C45">
+      <c r="C44" t="n">
         <v>0.6999860247790153</v>
       </c>
-      <c r="D45">
+      <c r="D44" t="n">
         <v>82517152545.04944</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B46">
+      <c r="B45" t="n">
         <v>118880000000</v>
       </c>
-      <c r="C46">
+      <c r="C45" t="n">
         <v>0.6860122063112286</v>
       </c>
-      <c r="D46">
+      <c r="D45" t="n">
         <v>81553131086.27885</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B47">
+      <c r="B46" t="n">
         <v>119260000000</v>
       </c>
-      <c r="C47">
+      <c r="C46" t="n">
         <v>0.6823144058248198</v>
       </c>
-      <c r="D47">
+      <c r="D46" t="n">
         <v>81372816038.66801</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B48">
+      <c r="B47" t="n">
         <v>119603000000</v>
       </c>
-      <c r="C48">
+      <c r="C47" t="n">
         <v>0.7139797433665498</v>
       </c>
-      <c r="D48">
+      <c r="D47" t="n">
         <v>85394119245.86946</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B49">
+      <c r="B48" t="n">
         <v>119806000000</v>
       </c>
-      <c r="C49">
+      <c r="C48" t="n">
         <v>0.6995942500264639</v>
       </c>
-      <c r="D49">
+      <c r="D48" t="n">
         <v>83815588718.67053</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B50">
+      <c r="B49" t="n">
         <v>121533000000</v>
       </c>
-      <c r="C50">
+      <c r="C49" t="n">
         <v>0.7114905474389702</v>
       </c>
-      <c r="D50">
+      <c r="D49" t="n">
         <v>86469580701.90038</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B51">
+      <c r="B50" t="n">
         <v>123887000000</v>
       </c>
-      <c r="C51">
+      <c r="C50" t="n">
         <v>0.7407956090021808</v>
       </c>
-      <c r="D51">
+      <c r="D50" t="n">
         <v>91774945612.45317</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B52">
+      <c r="B51" t="n">
         <v>124860000000</v>
       </c>
-      <c r="C52">
+      <c r="C51" t="n">
         <v>0.7157171537053905</v>
       </c>
-      <c r="D52">
+      <c r="D51" t="n">
         <v>89364443811.65506</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B53">
+      <c r="B52" t="n">
         <v>125466000000</v>
       </c>
-      <c r="C53">
+      <c r="C52" t="n">
         <v>0.6734006688659887</v>
       </c>
-      <c r="D53">
+      <c r="D52" t="n">
         <v>84488888319.94014</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B54">
+      <c r="B53" t="n">
         <v>126349000000</v>
       </c>
-      <c r="C54">
+      <c r="C53" t="n">
         <v>0.5965163623394286</v>
       </c>
-      <c r="D54">
+      <c r="D53" t="n">
         <v>75369245865.22447</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B55">
+      <c r="B54" t="n">
         <v>127225000000</v>
       </c>
-      <c r="C55">
+      <c r="C54" t="n">
         <v>0.6090875682455973</v>
       </c>
-      <c r="D55">
+      <c r="D54" t="n">
         <v>77491165870.04611</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B56">
+      <c r="B55" t="n">
         <v>127635000000</v>
       </c>
-      <c r="C56">
+      <c r="C55" t="n">
         <v>0.6279829385827349</v>
       </c>
-      <c r="D56">
+      <c r="D55" t="n">
         <v>80152602366.00737</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B57">
+      <c r="B56" t="n">
         <v>128658000000</v>
       </c>
-      <c r="C57">
+      <c r="C56" t="n">
         <v>0.6413956646514849</v>
       </c>
-      <c r="D57">
+      <c r="D56" t="n">
         <v>82520683422.73074</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B58">
+      <c r="B57" t="n">
         <v>128693000000</v>
       </c>
-      <c r="C58">
+      <c r="C57" t="n">
         <v>0.6504064956044684</v>
       </c>
-      <c r="D58">
+      <c r="D57" t="n">
         <v>83702763138.82585</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B59">
+      <c r="B58" t="n">
         <v>130172000000</v>
       </c>
-      <c r="C59">
+      <c r="C58" t="n">
         <v>0.6649820322187385</v>
       </c>
-      <c r="D59">
+      <c r="D58" t="n">
         <v>86562041097.97763</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B60">
+      <c r="B59" t="n">
         <v>131854000000</v>
       </c>
-      <c r="C60">
+      <c r="C59" t="n">
         <v>0.6615068996194966</v>
       </c>
-      <c r="D60">
+      <c r="D59" t="n">
         <v>87222330742.42911</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B61">
+      <c r="B60" t="n">
         <v>133002000000</v>
       </c>
-      <c r="C61">
+      <c r="C60" t="n">
         <v>0.6769105572019712</v>
       </c>
-      <c r="D61">
+      <c r="D60" t="n">
         <v>90030457928.97658</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B62">
+      <c r="B61" t="n">
         <v>133229000000</v>
       </c>
-      <c r="C62">
+      <c r="C61" t="n">
         <v>0.7059155774806973</v>
       </c>
-      <c r="D62">
+      <c r="D61" t="n">
         <v>94048426472.17583</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B63">
+      <c r="B62" t="n">
         <v>133828000000</v>
       </c>
-      <c r="C63">
+      <c r="C62" t="n">
         <v>0.7025925517615565</v>
       </c>
-      <c r="D63">
+      <c r="D62" t="n">
         <v>94026556017.14558</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B64">
+      <c r="B63" t="n">
         <v>136015000000</v>
       </c>
-      <c r="C64">
+      <c r="C63" t="n">
         <v>0.7124029401752721</v>
       </c>
-      <c r="D64">
+      <c r="D63" t="n">
         <v>96897485907.93964</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B65">
+      <c r="B64" t="n">
         <v>137500000000</v>
       </c>
-      <c r="C65">
+      <c r="C64" t="n">
         <v>0.7207206947488037</v>
       </c>
-      <c r="D65">
+      <c r="D64" t="n">
         <v>99099095527.96051</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B66">
+      <c r="B65" t="n">
         <v>139415000000</v>
       </c>
-      <c r="C66">
+      <c r="C65" t="n">
         <v>0.6989097204056394</v>
       </c>
-      <c r="D66">
+      <c r="D65" t="n">
         <v>97438498670.35222</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B67">
+      <c r="B66" t="n">
         <v>140680000000</v>
       </c>
-      <c r="C67">
+      <c r="C66" t="n">
         <v>0.7114905474389702</v>
       </c>
-      <c r="D67">
+      <c r="D66" t="n">
         <v>100092490213.7143</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B68">
+      <c r="B67" t="n">
         <v>142162000000</v>
       </c>
-      <c r="C68">
+      <c r="C67" t="n">
         <v>0.7099751710323087</v>
       </c>
-      <c r="D68">
+      <c r="D67" t="n">
         <v>100931490264.2951</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B69">
+      <c r="B68" t="n">
         <v>143897000000</v>
       </c>
-      <c r="C69">
+      <c r="C68" t="n">
         <v>0.6687174223858975</v>
       </c>
-      <c r="D69">
+      <c r="D68" t="n">
         <v>96226430929.06349</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B70">
+      <c r="B69" t="n">
         <v>145973000000</v>
       </c>
-      <c r="C70">
+      <c r="C69" t="n">
         <v>0.7057162721644487</v>
       </c>
-      <c r="D70">
+      <c r="D69" t="n">
         <v>103015521396.6611</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B71">
+      <c r="B70" t="n">
         <v>146592000000</v>
       </c>
-      <c r="C71">
+      <c r="C70" t="n">
         <v>0.7224389643467557</v>
       </c>
-      <c r="D71">
+      <c r="D70" t="n">
         <v>105903772661.5196</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B72">
+      <c r="B71" t="n">
         <v>147252000000</v>
       </c>
-      <c r="C72">
+      <c r="C71" t="n">
         <v>0.7090187030129318</v>
       </c>
-      <c r="D72">
+      <c r="D71" t="n">
         <v>104404422056.0602</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B73">
+      <c r="B72" t="n">
         <v>148183000000</v>
       </c>
-      <c r="C73">
+      <c r="C72" t="n">
         <v>0.7188039361272259</v>
       </c>
-      <c r="D73">
+      <c r="D72" t="n">
         <v>106514523667.1407</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B74">
+      <c r="B73" t="n">
         <v>150179000000</v>
       </c>
-      <c r="C74">
+      <c r="C73" t="n">
         <v>0.7416747124775601</v>
       </c>
-      <c r="D74">
+      <c r="D73" t="n">
         <v>111383966645.1675</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B75">
+      <c r="B74" t="n">
         <v>151321000000</v>
       </c>
-      <c r="C75">
+      <c r="C74" t="n">
         <v>0.7579776809833542</v>
       </c>
-      <c r="D75">
+      <c r="D74" t="n">
         <v>114697940664.0821</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B76">
+      <c r="B75" t="n">
         <v>152842000000</v>
       </c>
-      <c r="C76">
+      <c r="C75" t="n">
         <v>0.8017317212763958</v>
       </c>
-      <c r="D76">
+      <c r="D75" t="n">
         <v>122538279743.3269</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B77">
+      <c r="B76" t="n">
         <v>155233000000</v>
       </c>
-      <c r="C77">
+      <c r="C76" t="n">
         <v>0.7907013145867962</v>
       </c>
-      <c r="D77">
+      <c r="D76" t="n">
         <v>122742937167.2521</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B78">
+      <c r="B77" t="n">
         <v>156245000000</v>
       </c>
-      <c r="C78">
+      <c r="C77" t="n">
         <v>0.8037293104302308</v>
       </c>
-      <c r="D78">
+      <c r="D77" t="n">
         <v>125578686108.1714</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B79">
+      <c r="B78" t="n">
         <v>157947000000</v>
       </c>
-      <c r="C79">
+      <c r="C78" t="n">
         <v>0.803470955963155</v>
       </c>
-      <c r="D79">
+      <c r="D78" t="n">
         <v>126905827081.5124</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B80">
+      <c r="B79" t="n">
         <v>160379000000</v>
       </c>
-      <c r="C80">
+      <c r="C79" t="n">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D80">
+      <c r="D79" t="n">
         <v>125975176718.6368</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B81">
+      <c r="B80" t="n">
         <v>163969000000</v>
       </c>
-      <c r="C81">
+      <c r="C80" t="n">
         <v>0.8196721109916694</v>
       </c>
-      <c r="D81">
+      <c r="D80" t="n">
         <v>134400816367.193</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B82">
+      <c r="B81" t="n">
         <v>167104000000</v>
       </c>
-      <c r="C82">
+      <c r="C81" t="n">
         <v>0.8749671963860984</v>
       </c>
-      <c r="D82">
+      <c r="D81" t="n">
         <v>146210518384.9026</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B83">
+      <c r="B82" t="n">
         <v>171100000000</v>
       </c>
-      <c r="C83">
+      <c r="C82" t="n">
         <v>0.8539709649871904</v>
       </c>
-      <c r="D83">
+      <c r="D82" t="n">
         <v>146114432109.3083</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B84">
+      <c r="B83" t="n">
         <v>175146000000</v>
       </c>
-      <c r="C84">
+      <c r="C83" t="n">
         <v>0.8895214453791269</v>
       </c>
-      <c r="D84">
+      <c r="D83" t="n">
         <v>155796123072.3726</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B85">
+      <c r="B84" t="n">
         <v>178785000000</v>
       </c>
-      <c r="C85">
+      <c r="C84" t="n">
         <v>0.8005123342980495</v>
       </c>
-      <c r="D85">
+      <c r="D84" t="n">
         <v>143119597687.4768</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B86">
+      <c r="B85" t="n">
         <v>182050000000</v>
       </c>
-      <c r="C86">
+      <c r="C85" t="n">
         <v>0.8185315878911184</v>
       </c>
-      <c r="D86">
+      <c r="D85" t="n">
         <v>149013675575.5781</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B87">
+      <c r="B86" t="n">
         <v>185463000000</v>
       </c>
-      <c r="C87">
+      <c r="C86" t="n">
         <v>0.7940288963472376</v>
       </c>
-      <c r="D87">
+      <c r="D86" t="n">
         <v>147262981203.2477</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B88">
+      <c r="B87" t="n">
         <v>187851000000</v>
       </c>
-      <c r="C88">
+      <c r="C87" t="n">
         <v>0.750018756094043</v>
       </c>
-      <c r="D88">
+      <c r="D87" t="n">
         <v>140891773351.0221</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B89">
+      <c r="B88" t="n">
         <v>192873000000</v>
       </c>
-      <c r="C89">
+      <c r="C88" t="n">
         <v>0.755972157364011</v>
       </c>
-      <c r="D89">
+      <c r="D88" t="n">
         <v>145806617907.2689</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B90">
+      <c r="B89" t="n">
         <v>196146000000</v>
       </c>
-      <c r="C90">
+      <c r="C89" t="n">
         <v>0.7555152328681159</v>
       </c>
-      <c r="D90">
+      <c r="D89" t="n">
         <v>148191290866.1495</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B91">
+      <c r="B90" t="n">
         <v>199868000000</v>
       </c>
-      <c r="C91">
+      <c r="C90" t="n">
         <v>0.7645260114187923</v>
       </c>
-      <c r="D91">
+      <c r="D90" t="n">
         <v>152804284850.2512</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B92">
+      <c r="B91" t="n">
         <v>200107000000</v>
       </c>
-      <c r="C92">
+      <c r="C91" t="n">
         <v>0.7754943776657619</v>
       </c>
-      <c r="D92">
+      <c r="D91" t="n">
         <v>155181853431.5626</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B93">
+      <c r="B92" t="n">
         <v>201936000000</v>
       </c>
-      <c r="C93">
+      <c r="C92" t="n">
         <v>0.783024057231792</v>
       </c>
-      <c r="D93">
+      <c r="D92" t="n">
         <v>158120746021.1591</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B94">
+      <c r="B93" t="n">
         <v>203441000000</v>
       </c>
-      <c r="C94">
+      <c r="C93" t="n">
         <v>0.7824726134585289</v>
       </c>
-      <c r="D94">
+      <c r="D93" t="n">
         <v>159187010954.6166</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B95">
+      <c r="B94" t="n">
         <v>205222000000</v>
       </c>
-      <c r="C95">
+      <c r="C94" t="n">
         <v>0.7900142202559646</v>
       </c>
-      <c r="D95">
+      <c r="D94" t="n">
         <v>162128298309.3696</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B96">
+      <c r="B95" t="n">
         <v>207127000000</v>
       </c>
-      <c r="C96">
+      <c r="C95" t="n">
         <v>0.768698605099525</v>
       </c>
-      <c r="D96">
+      <c r="D95" t="n">
         <v>159218235978.4493</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B97">
+      <c r="B96" t="n">
         <v>209565000000</v>
       </c>
-      <c r="C97">
+      <c r="C96" t="n">
         <v>0.7606876674325853</v>
       </c>
-      <c r="D97">
+      <c r="D96" t="n">
         <v>159413511025.5097</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B98">
+      <c r="B97" t="n">
         <v>211691000000</v>
       </c>
-      <c r="C98">
+      <c r="C97" t="n">
         <v>0.753693101851772</v>
       </c>
-      <c r="D98">
+      <c r="D97" t="n">
         <v>159550046424.1035</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B99">
+      <c r="B98" t="n">
         <v>214181000000</v>
       </c>
-      <c r="C99">
+      <c r="C98" t="n">
         <v>0.7505253902889639</v>
       </c>
-      <c r="D99">
+      <c r="D98" t="n">
         <v>160748278617.4806</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B100">
+      <c r="B99" t="n">
         <v>215027000000</v>
       </c>
-      <c r="C100">
+      <c r="C99" t="n">
         <v>0.7695267469759658</v>
       </c>
-      <c r="D100">
+      <c r="D99" t="n">
         <v>165469027822.001</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B101">
+      <c r="B100" t="n">
         <v>216615000000</v>
       </c>
-      <c r="C101">
+      <c r="C100" t="n">
         <v>0.7920165053071639</v>
       </c>
-      <c r="D101">
+      <c r="D100" t="n">
         <v>171562655297.1113</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B102">
+      <c r="B101" t="n">
         <v>216930000000</v>
       </c>
-      <c r="C102">
+      <c r="C101" t="n">
         <v>0.7920165053071639</v>
       </c>
-      <c r="D102">
+      <c r="D101" t="n">
         <v>171812140496.2831</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B103">
+      <c r="B102" t="n">
         <v>219096000000</v>
       </c>
-      <c r="C103">
+      <c r="C102" t="n">
         <v>0.8145312372729494</v>
       </c>
-      <c r="D103">
+      <c r="D102" t="n">
         <v>178460535961.5541</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B104">
+      <c r="B103" t="n">
         <v>221612000000</v>
       </c>
-      <c r="C104">
+      <c r="C103" t="n">
         <v>0.8259684207163319</v>
       </c>
-      <c r="D104">
+      <c r="D103" t="n">
         <v>183044513651.7878</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B105">
+      <c r="B104" t="n">
         <v>222945000000</v>
       </c>
-      <c r="C105">
+      <c r="C104" t="n">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D105">
+      <c r="D104" t="n">
         <v>175119783597.2071</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B106">
+      <c r="B105" t="n">
         <v>225259000000</v>
       </c>
-      <c r="C106">
+      <c r="C105" t="n">
         <v>0.7738740312770631</v>
       </c>
-      <c r="D106">
+      <c r="D105" t="n">
         <v>174322090411.44</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B107">
+      <c r="B106" t="n">
         <v>227094000000</v>
       </c>
-      <c r="C107">
+      <c r="C106" t="n">
         <v>0.771009993407479</v>
       </c>
-      <c r="D107">
+      <c r="D106" t="n">
         <v>175091743442.878</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B108">
+      <c r="B107" t="n">
         <v>224942000000</v>
       </c>
-      <c r="C108">
+      <c r="C107" t="n">
         <v>0.783024057231792</v>
       </c>
-      <c r="D108">
+      <c r="D107" t="n">
         <v>176134997481.8338</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B109">
+      <c r="B108" t="n">
         <v>224739000000</v>
       </c>
-      <c r="C109">
+      <c r="C108" t="n">
         <v>0.7849909541174906</v>
       </c>
-      <c r="D109">
+      <c r="D108" t="n">
         <v>176418082037.4107</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B110">
+      <c r="B109" t="n">
         <v>225580000000</v>
       </c>
-      <c r="C110">
+      <c r="C109" t="n">
         <v>0.7750135567308878</v>
       </c>
-      <c r="D110">
+      <c r="D109" t="n">
         <v>174827558127.3537</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B111">
+      <c r="B110" t="n">
         <v>225992000000</v>
       </c>
-      <c r="C111">
+      <c r="C110" t="n">
         <v>0.7819831030498662</v>
       </c>
-      <c r="D111">
+      <c r="D110" t="n">
         <v>176721925424.4453</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B112">
+      <c r="B111" t="n">
         <v>227444000000</v>
       </c>
-      <c r="C112">
+      <c r="C111" t="n">
         <v>0.7599939489281786</v>
       </c>
-      <c r="D112">
+      <c r="D111" t="n">
         <v>172856063720.0207</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B113">
+      <c r="B112" t="n">
         <v>228308000000</v>
       </c>
-      <c r="C113">
+      <c r="C112" t="n">
         <v>0.7675186358897425</v>
       </c>
-      <c r="D113">
+      <c r="D112" t="n">
         <v>175230644722.7153</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B114">
+      <c r="B113" t="n">
         <v>228924000000</v>
       </c>
-      <c r="C114">
+      <c r="C113" t="n">
         <v>0.7774236181295188</v>
       </c>
-      <c r="D114">
+      <c r="D113" t="n">
         <v>177970924356.6819</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B115">
+      <c r="B114" t="n">
         <v>229742000000</v>
       </c>
-      <c r="C115">
+      <c r="C114" t="n">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D115">
+      <c r="D114" t="n">
         <v>180458719967.6582</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B116">
+      <c r="B115" t="n">
         <v>231055000000</v>
       </c>
-      <c r="C116">
+      <c r="C115" t="n">
         <v>0.7994883210786031</v>
       </c>
-      <c r="D116">
+      <c r="D115" t="n">
         <v>184725774026.8167</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B117">
+      <c r="B116" t="n">
         <v>230570000000</v>
       </c>
-      <c r="C117">
+      <c r="C116" t="n">
         <v>0.7800312012480499</v>
       </c>
-      <c r="D117">
+      <c r="D116" t="n">
         <v>179851794071.7629</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B118">
+      <c r="B117" t="n">
         <v>230186000000</v>
       </c>
-      <c r="C118">
+      <c r="C117" t="n">
         <v>0.7845598619174643</v>
       </c>
-      <c r="D118">
+      <c r="D117" t="n">
         <v>180594696375.3334</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B119">
+      <c r="B118" t="n">
         <v>231685000000</v>
       </c>
-      <c r="C119">
+      <c r="C118" t="n">
         <v>0.7595321282090233</v>
       </c>
-      <c r="D119">
+      <c r="D118" t="n">
         <v>175972201124.1075</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B120">
+      <c r="B119" t="n">
         <v>231871000000</v>
       </c>
-      <c r="C120">
+      <c r="C119" t="n">
         <v>0.753012048192771</v>
       </c>
-      <c r="D120">
+      <c r="D119" t="n">
         <v>174601656626.506</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B121">
+      <c r="B120" t="n">
         <v>232831000000</v>
       </c>
-      <c r="C121">
+      <c r="C120" t="n">
         <v>0.7535227187099691</v>
       </c>
-      <c r="D121">
+      <c r="D120" t="n">
         <v>175443448119.9608</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B122">
+      <c r="B121" t="n">
         <v>231708000000</v>
       </c>
-      <c r="C122">
+      <c r="C121" t="n">
         <v>0.7695267410542516</v>
       </c>
-      <c r="D122">
+      <c r="D121" t="n">
         <v>178305502116.1985</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B123">
+      <c r="B122" t="n">
         <v>233455000000</v>
       </c>
-      <c r="C123">
+      <c r="C122" t="n">
         <v>0.75642965204236</v>
       </c>
-      <c r="D123">
+      <c r="D122" t="n">
         <v>176592284417.5492</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B124">
+      <c r="B123" t="n">
         <v>234636000000</v>
       </c>
-      <c r="C124">
+      <c r="C123" t="n">
         <v>0.7570022710068131</v>
       </c>
-      <c r="D124">
+      <c r="D123" t="n">
         <v>177619984859.9546</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B125">
+      <c r="B124" t="n">
         <v>234934000000</v>
       </c>
-      <c r="C125">
+      <c r="C124" t="n">
         <v>0.7483349547257352</v>
       </c>
-      <c r="D125">
+      <c r="D124" t="n">
         <v>175809324253.5359</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B126">
+      <c r="B125" t="n">
         <v>236713000000</v>
       </c>
-      <c r="C126">
+      <c r="C125" t="n">
         <v>0.743549706297866</v>
       </c>
-      <c r="D126">
+      <c r="D125" t="n">
         <v>176007881626.8867</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B127">
+      <c r="B126" t="n">
         <v>238887000000</v>
       </c>
-      <c r="C127">
+      <c r="C126" t="n">
         <v>0.7142346975216056</v>
       </c>
-      <c r="D127">
+      <c r="D126" t="n">
         <v>170621384186.8438</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B128">
+      <c r="B127" t="n">
         <v>238735000000</v>
       </c>
-      <c r="C128">
+      <c r="C127" t="n">
         <v>0.7130124777183601</v>
       </c>
-      <c r="D128">
+      <c r="D127" t="n">
         <v>170221033868.0927</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B129">
+      <c r="B128" t="n">
         <v>238779000000</v>
       </c>
-      <c r="C129">
+      <c r="C128" t="n">
         <v>0.6965243435258063</v>
       </c>
-      <c r="D129">
+      <c r="D128" t="n">
         <v>166315386222.7485</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B130">
+      <c r="B129" t="n">
         <v>239956000000</v>
       </c>
-      <c r="C130">
+      <c r="C129" t="n">
         <v>0.6792094002580996</v>
       </c>
-      <c r="D130">
+      <c r="D129" t="n">
         <v>162980370848.3326</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B131">
+      <c r="B130" t="n">
         <v>241001000000</v>
       </c>
-      <c r="C131">
+      <c r="C130" t="n">
         <v>0.6890374147316199</v>
       </c>
-      <c r="D131">
+      <c r="D130" t="n">
         <v>166058705987.7351</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B132">
+      <c r="B131" t="n">
         <v>242941000000</v>
       </c>
-      <c r="C132">
+      <c r="C131" t="n">
         <v>0.679671039217019</v>
       </c>
-      <c r="D132">
+      <c r="D131" t="n">
         <v>165119961938.4218</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B133">
+      <c r="B132" t="n">
         <v>244542000000</v>
       </c>
-      <c r="C133">
+      <c r="C132" t="n">
         <v>0.6957973838018369</v>
       </c>
-      <c r="D133">
+      <c r="D132" t="n">
         <v>170151683829.6688</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B134">
+      <c r="B133" t="n">
         <v>245778000000</v>
       </c>
-      <c r="C134">
+      <c r="C133" t="n">
         <v>0.7055669230226487</v>
       </c>
-      <c r="D134">
+      <c r="D133" t="n">
         <v>173412827206.6606</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B135">
+      <c r="B134" t="n">
         <v>245850000000</v>
       </c>
-      <c r="C135">
+      <c r="C134" t="n">
         <v>0.7070135746606334</v>
       </c>
-      <c r="D135">
+      <c r="D134" t="n">
         <v>173819287330.3167</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B136">
+      <c r="B135" t="n">
         <v>246522000000</v>
       </c>
-      <c r="C136">
+      <c r="C135" t="n">
         <v>0.6761782405842179</v>
       </c>
-      <c r="D136">
+      <c r="D135" t="n">
         <v>166692812225.3026</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B137">
+      <c r="B136" t="n">
         <v>249827000000</v>
       </c>
-      <c r="C137">
+      <c r="C136" t="n">
         <v>0.6657789613848203</v>
       </c>
-      <c r="D137">
+      <c r="D136" t="n">
         <v>166329560585.8855</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B138">
+      <c r="B137" t="n">
         <v>250827000000</v>
       </c>
-      <c r="C138">
+      <c r="C137" t="n">
         <v>0.6898454746136865</v>
       </c>
-      <c r="D138">
+      <c r="D137" t="n">
         <v>173031870860.9272</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B139">
+      <c r="B138" t="n">
         <v>250151000000</v>
       </c>
-      <c r="C139">
+      <c r="C138" t="n">
         <v>0.6734006734006733</v>
       </c>
-      <c r="D139">
+      <c r="D138" t="n">
         <v>168451851851.8518</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B140">
+      <c r="B139" t="n">
         <v>252121000000</v>
       </c>
-      <c r="C140">
+      <c r="C139" t="n">
         <v>0.6471654154801968</v>
       </c>
-      <c r="D140">
+      <c r="D139" t="n">
         <v>163163991716.2827</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B141">
+      <c r="B140" t="n">
         <v>253450000000</v>
       </c>
-      <c r="C141">
+      <c r="C140" t="n">
         <v>0.6664889362836577</v>
       </c>
-      <c r="D141">
+      <c r="D140" t="n">
         <v>168921620901.093</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B142">
+      <c r="B141" t="n">
         <v>254478000000</v>
       </c>
-      <c r="C142">
+      <c r="C141" t="n">
         <v>0.6586747464102226</v>
       </c>
-      <c r="D142">
+      <c r="D141" t="n">
         <v>167618232116.9806</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B143">
+      <c r="B142" t="n">
         <v>255662000000</v>
       </c>
-      <c r="C143">
+      <c r="C142" t="n">
         <v>0.6790710308298249</v>
       </c>
-      <c r="D143">
+      <c r="D142" t="n">
         <v>173612657884.0147</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B144">
+      <c r="B143" t="n">
         <v>258513000000</v>
       </c>
-      <c r="C144">
+      <c r="C143" t="n">
         <v>0.7084159818645509</v>
       </c>
-      <c r="D144">
+      <c r="D143" t="n">
         <v>183134740719.7506</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B145">
+      <c r="B144" t="n">
         <v>259889000000</v>
       </c>
-      <c r="C145">
+      <c r="C144" t="n">
         <v>0.7132667617689016</v>
       </c>
-      <c r="D145">
+      <c r="D144" t="n">
         <v>185370185449.3581</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B146">
+      <c r="B145" t="n">
         <v>263081000000</v>
       </c>
-      <c r="C146">
+      <c r="C145" t="n">
         <v>0.7041261794113506</v>
       </c>
-      <c r="D146">
+      <c r="D145" t="n">
         <v>185242219405.7175</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B147">
+      <c r="B146" t="n">
         <v>264823000000</v>
       </c>
-      <c r="C147">
+      <c r="C146" t="n">
         <v>0.7150007150007149</v>
       </c>
-      <c r="D147">
+      <c r="D146" t="n">
         <v>189348634348.6343</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B148">
+      <c r="B147" t="n">
         <v>266825000000</v>
       </c>
-      <c r="C148">
+      <c r="C147" t="n">
         <v>0.7370826269624825</v>
       </c>
-      <c r="D148">
+      <c r="D147" t="n">
         <v>196672071939.2644</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B149">
+      <c r="B148" t="n">
         <v>267811000000</v>
       </c>
-      <c r="C149">
+      <c r="C148" t="n">
         <v>0.728650539201399</v>
       </c>
-      <c r="D149">
+      <c r="D148" t="n">
         <v>195140629554.0659</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B150">
+      <c r="B149" t="n">
         <v>269074000000</v>
       </c>
-      <c r="C150">
+      <c r="C149" t="n">
         <v>0.7392622163081245</v>
       </c>
-      <c r="D150">
+      <c r="D149" t="n">
         <v>198916241590.8923</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B151">
+      <c r="B150" t="n">
         <v>271370000000</v>
       </c>
-      <c r="C151">
+      <c r="C150" t="n">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D151">
+      <c r="D150" t="n">
         <v>201567258411.9438</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B152">
+      <c r="B151" t="n">
         <v>271152000000</v>
       </c>
-      <c r="C152">
+      <c r="C151" t="n">
         <v>0.7397544015386892</v>
       </c>
-      <c r="D152">
+      <c r="D151" t="n">
         <v>200585885486.0186</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B153">
+      <c r="B152" t="n">
         <v>274934000000</v>
       </c>
-      <c r="C153">
+      <c r="C152" t="n">
         <v>0.7425007425007425</v>
       </c>
-      <c r="D153">
+      <c r="D152" t="n">
         <v>204138699138.6991</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B154">
+      <c r="B153" t="n">
         <v>277991000000</v>
       </c>
-      <c r="C154">
+      <c r="C153" t="n">
         <v>0.7691124442393478</v>
       </c>
-      <c r="D154">
+      <c r="D153" t="n">
         <v>213806337486.5405</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B155">
+      <c r="B154" t="n">
         <v>280618000000</v>
       </c>
-      <c r="C155">
+      <c r="C154" t="n">
         <v>0.7753741180119407</v>
       </c>
-      <c r="D155">
+      <c r="D154" t="n">
         <v>217583934248.2748</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B156">
+      <c r="B155" t="n">
         <v>280403000000</v>
       </c>
-      <c r="C156">
+      <c r="C155" t="n">
         <v>0.7564868749527195</v>
       </c>
-      <c r="D156">
+      <c r="D155" t="n">
         <v>212121189197.3674</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B157">
+      <c r="B156" t="n">
         <v>281798000000</v>
       </c>
-      <c r="C157">
+      <c r="C156" t="n">
         <v>0.7388798581350673</v>
       </c>
-      <c r="D157">
+      <c r="D156" t="n">
         <v>208214866262.7457</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B158">
+      <c r="B157" t="n">
         <v>285117000000</v>
       </c>
-      <c r="C158">
+      <c r="C157" t="n">
         <v>0.7351319561861354</v>
       </c>
-      <c r="D158">
+      <c r="D157" t="n">
         <v>209598617951.9224</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B159">
+      <c r="B158" t="n">
         <v>286401000000</v>
       </c>
-      <c r="C159">
+      <c r="C158" t="n">
         <v>0.727749072119933</v>
       </c>
-      <c r="D159">
+      <c r="D158" t="n">
         <v>208428062004.2209</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B160">
+      <c r="B159" t="n">
         <v>288031000000</v>
       </c>
-      <c r="C160">
+      <c r="C159" t="n">
         <v>0.7183908045977012</v>
       </c>
-      <c r="D160">
+      <c r="D159" t="n">
         <v>206918821839.0805</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B161">
+      <c r="B160" t="n">
         <v>288176000000</v>
       </c>
-      <c r="C161">
+      <c r="C160" t="n">
         <v>0.709622480840193</v>
       </c>
-      <c r="D161">
+      <c r="D160" t="n">
         <v>204496168038.6035</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B162">
+      <c r="B161" t="n">
         <v>290343000000</v>
       </c>
-      <c r="C162">
+      <c r="C161" t="n">
         <v>0.7383343177790903</v>
       </c>
-      <c r="D162">
+      <c r="D161" t="n">
         <v>214370200826.9344</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B163">
+      <c r="B162" t="n">
         <v>292935000000</v>
       </c>
-      <c r="C163">
+      <c r="C162" t="n">
         <v>0.751653638003608</v>
       </c>
-      <c r="D163">
+      <c r="D162" t="n">
         <v>220185658448.5869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B164">
+      <c r="B163" t="n">
         <v>296311000000</v>
       </c>
-      <c r="C164">
+      <c r="C163" t="n">
         <v>0.7553440592189742</v>
       </c>
-      <c r="D164">
+      <c r="D163" t="n">
         <v>223816753531.2335</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B165">
+      <c r="B164" t="n">
         <v>299249000000</v>
       </c>
-      <c r="C165">
+      <c r="C164" t="n">
         <v>0.76103500761035</v>
       </c>
-      <c r="D165">
+      <c r="D164" t="n">
         <v>227738964992.3896</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B166">
+      <c r="B165" t="n">
         <v>301591000000</v>
       </c>
-      <c r="C166">
+      <c r="C165" t="n">
         <v>0.743549706297866</v>
       </c>
-      <c r="D166">
+      <c r="D165" t="n">
         <v>224247899472.0797</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B167">
+      <c r="B166" t="n">
         <v>305907000000</v>
       </c>
-      <c r="C167">
+      <c r="C166" t="n">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D167">
+      <c r="D166" t="n">
         <v>227119311010.4685</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B168">
+      <c r="B167" t="n">
         <v>307042000000</v>
       </c>
-      <c r="C168">
+      <c r="C167" t="n">
         <v>0.7462686567164178</v>
       </c>
-      <c r="D168">
+      <c r="D167" t="n">
         <v>229135820895.5224</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B169">
+      <c r="B168" t="n">
         <v>309248000000</v>
       </c>
-      <c r="C169">
+      <c r="C168" t="n">
         <v>0.7640003056001222</v>
       </c>
-      <c r="D169">
+      <c r="D168" t="n">
         <v>236265566506.2266</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B170">
+      <c r="B169" t="n">
         <v>310928000000</v>
       </c>
-      <c r="C170">
+      <c r="C169" t="n">
         <v>0.7820442637053258</v>
       </c>
-      <c r="D170">
+      <c r="D169" t="n">
         <v>243159458825.3695</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B171">
+      <c r="B170" t="n">
         <v>312550000000</v>
       </c>
-      <c r="C171">
+      <c r="C170" t="n">
         <v>0.7871536523929471</v>
       </c>
-      <c r="D171">
+      <c r="D170" t="n">
         <v>246024874055.4156</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B172">
+      <c r="B171" t="n">
         <v>312639000000</v>
       </c>
-      <c r="C172">
+      <c r="C171" t="n">
         <v>0.7986582541330565</v>
       </c>
-      <c r="D172">
+      <c r="D171" t="n">
         <v>249691717913.9046</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B173">
+      <c r="B172" t="n">
         <v>315972000000</v>
       </c>
-      <c r="C173">
+      <c r="C172" t="n">
         <v>0.7877116975187081</v>
       </c>
-      <c r="D173">
+      <c r="D172" t="n">
         <v>248894840488.3812</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B174">
+      <c r="B173" t="n">
         <v>319512000000</v>
       </c>
-      <c r="C174">
+      <c r="C173" t="n">
         <v>0.7730364873222015</v>
       </c>
-      <c r="D174">
+      <c r="D173" t="n">
         <v>246994434137.2913</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B175">
+      <c r="B174" t="n">
         <v>321169000000</v>
       </c>
-      <c r="C175">
+      <c r="C174" t="n">
         <v>0.7901390644753477</v>
       </c>
-      <c r="D175">
+      <c r="D174" t="n">
         <v>253768173198.4829</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B176">
+      <c r="B175" t="n">
         <v>320134000000</v>
       </c>
-      <c r="C176">
+      <c r="C175" t="n">
         <v>0.7912644405760405</v>
       </c>
-      <c r="D176">
+      <c r="D175" t="n">
         <v>253310650419.3701</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B177">
+      <c r="B176" t="n">
         <v>326787000000</v>
       </c>
-      <c r="C177">
+      <c r="C176" t="n">
         <v>0.7917656373713381</v>
       </c>
-      <c r="D177">
+      <c r="D176" t="n">
         <v>258738717339.6674</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B178">
+      <c r="B177" t="n">
         <v>330167000000</v>
       </c>
-      <c r="C178">
+      <c r="C177" t="n">
         <v>0.8167265599477296</v>
       </c>
-      <c r="D178">
+      <c r="D177" t="n">
         <v>269656158118.262</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B179">
+      <c r="B178" t="n">
         <v>332215000000</v>
       </c>
-      <c r="C179">
+      <c r="C178" t="n">
         <v>0.794533608771651</v>
       </c>
-      <c r="D179">
+      <c r="D178" t="n">
         <v>263955982838.074</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B180">
+      <c r="B179" t="n">
         <v>334061000000</v>
       </c>
-      <c r="C180">
+      <c r="C179" t="n">
         <v>0.7627183281214248</v>
       </c>
-      <c r="D180">
+      <c r="D179" t="n">
         <v>254794447410.5713</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B181">
+      <c r="B180" t="n">
         <v>336884000000</v>
       </c>
-      <c r="C181">
+      <c r="C180" t="n">
         <v>0.7789375292101574</v>
       </c>
-      <c r="D181">
+      <c r="D180" t="n">
         <v>262411590590.4347</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B182">
+      <c r="B181" t="n">
         <v>337800000000</v>
       </c>
-      <c r="C182">
+      <c r="C181" t="n">
         <v>0.7855459544383347</v>
       </c>
-      <c r="D182">
+      <c r="D181" t="n">
         <v>265357423409.2695</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B183">
+      <c r="B182" t="n">
         <v>341418000000</v>
       </c>
-      <c r="C183">
+      <c r="C182" t="n">
         <v>0.7805182641273807</v>
       </c>
-      <c r="D183">
+      <c r="D182" t="n">
         <v>266482984701.8421</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B184">
+      <c r="B183" t="n">
         <v>343454000000</v>
       </c>
-      <c r="C184">
+      <c r="C183" t="n">
         <v>0.7600516835144789</v>
       </c>
-      <c r="D184">
+      <c r="D183" t="n">
         <v>261042790909.7819</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B185">
+      <c r="B184" t="n">
         <v>345110000000</v>
       </c>
-      <c r="C185">
+      <c r="C184" t="n">
         <v>0.75431847325941</v>
       </c>
-      <c r="D185">
+      <c r="D184" t="n">
         <v>260322848306.555</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B186">
+      <c r="B185" t="n">
         <v>346119000000</v>
       </c>
-      <c r="C186">
+      <c r="C185" t="n">
         <v>0.7470491558344539</v>
       </c>
-      <c r="D186">
+      <c r="D185" t="n">
         <v>258567906768.2654</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B187">
+      <c r="B186" t="n">
         <v>347534000000</v>
       </c>
-      <c r="C187">
+      <c r="C186" t="n">
         <v>0.7322252324815114</v>
       </c>
-      <c r="D187">
+      <c r="D186" t="n">
         <v>254473163945.2296</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B188">
+      <c r="B187" t="n">
         <v>347261000000</v>
       </c>
-      <c r="C188">
+      <c r="C187" t="n">
         <v>0.7246376811594204</v>
       </c>
-      <c r="D188">
+      <c r="D187" t="n">
         <v>251638405797.1015</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B189">
+      <c r="B188" t="n">
         <v>350477000000</v>
       </c>
-      <c r="C189">
+      <c r="C188" t="n">
         <v>0.7011147724882564</v>
       </c>
-      <c r="D189">
+      <c r="D188" t="n">
         <v>245724602117.3666</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B190">
+      <c r="B189" t="n">
         <v>351809000000</v>
       </c>
-      <c r="C190">
+      <c r="C189" t="n">
         <v>0.681384573453257</v>
       </c>
-      <c r="D190">
+      <c r="D189" t="n">
         <v>239717225402.0169</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B191">
+      <c r="B190" t="n">
         <v>354102000000</v>
       </c>
-      <c r="C191">
+      <c r="C190" t="n">
         <v>0.6503219093451258</v>
       </c>
-      <c r="D191">
+      <c r="D190" t="n">
         <v>230280288742.9277</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B192">
+      <c r="B191" t="n">
         <v>355662000000</v>
       </c>
-      <c r="C192">
+      <c r="C191" t="n">
         <v>0.686530275985171</v>
       </c>
-      <c r="D192">
+      <c r="D191" t="n">
         <v>244172731017.4379</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B193">
+      <c r="B192" t="n">
         <v>357456000000</v>
       </c>
-      <c r="C193">
+      <c r="C192" t="n">
         <v>0.6792094002580996</v>
       </c>
-      <c r="D193">
+      <c r="D192" t="n">
         <v>242787475378.6593</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B194">
+      <c r="B193" t="n">
         <v>358460000000</v>
       </c>
-      <c r="C194">
+      <c r="C193" t="n">
         <v>0.6624710168930109</v>
       </c>
-      <c r="D194">
+      <c r="D193" t="n">
         <v>237469360715.4687</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B195">
+      <c r="B194" t="n">
         <v>361075000000</v>
       </c>
-      <c r="C195">
+      <c r="C194" t="n">
         <v>0.6492241771083556</v>
       </c>
-      <c r="D195">
+      <c r="D194" t="n">
         <v>234418619749.3995</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B196">
+      <c r="B195" t="n">
         <v>362734000000</v>
       </c>
-      <c r="C196">
+      <c r="C195" t="n">
         <v>0.6229365227683299</v>
       </c>
-      <c r="D196">
+      <c r="D195" t="n">
         <v>225960256649.8474</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B197">
+      <c r="B196" t="n">
         <v>366181000000</v>
       </c>
-      <c r="C197">
+      <c r="C196" t="n">
         <v>0.6206168931918327</v>
       </c>
-      <c r="D197">
+      <c r="D196" t="n">
         <v>227258114565.8785</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B198">
+      <c r="B197" t="n">
         <v>371148000000</v>
       </c>
-      <c r="C198">
+      <c r="C197" t="n">
         <v>0.6060238773407672</v>
       </c>
-      <c r="D198">
+      <c r="D197" t="n">
         <v>224924550027.2711</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B199">
+      <c r="B198" t="n">
         <v>373883000000</v>
       </c>
-      <c r="C199">
+      <c r="C198" t="n">
         <v>0.5656748500961647</v>
       </c>
-      <c r="D199">
+      <c r="D198" t="n">
         <v>211496209978.5043</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B200">
+      <c r="B199" t="n">
         <v>376207000000</v>
       </c>
-      <c r="C200">
+      <c r="C199" t="n">
         <v>0.5935774915415207</v>
       </c>
-      <c r="D200">
+      <c r="D199" t="n">
         <v>223308007360.3609</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B201">
+      <c r="B200" t="n">
         <v>377701000000</v>
       </c>
-      <c r="C201">
+      <c r="C200" t="n">
         <v>0.623208276205908</v>
       </c>
-      <c r="D201">
+      <c r="D200" t="n">
         <v>235386389131.2477</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B202">
+      <c r="B201" t="n">
         <v>378780000000</v>
       </c>
-      <c r="C202">
+      <c r="C201" t="n">
         <v>0.6285355122564426</v>
       </c>
-      <c r="D202">
+      <c r="D201" t="n">
         <v>238076681332.4953</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B203">
+      <c r="B202" t="n">
         <v>382072000000</v>
       </c>
-      <c r="C203">
+      <c r="C202" t="n">
         <v>0.611321677466683</v>
       </c>
-      <c r="D203">
+      <c r="D202" t="n">
         <v>233568895953.0505</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B204">
+      <c r="B203" t="n">
         <v>385148000000</v>
       </c>
-      <c r="C204">
+      <c r="C203" t="n">
         <v>0.6302388605281402</v>
       </c>
-      <c r="D204">
+      <c r="D203" t="n">
         <v>242735236654.6921</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B205">
+      <c r="B204" t="n">
         <v>387506000000</v>
       </c>
-      <c r="C205">
+      <c r="C204" t="n">
         <v>0.6187353050365053</v>
       </c>
-      <c r="D205">
+      <c r="D204" t="n">
         <v>239763643113.476</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B206">
+      <c r="B205" t="n">
         <v>391548000000</v>
       </c>
-      <c r="C206">
+      <c r="C205" t="n">
         <v>0.6338742393509128</v>
       </c>
-      <c r="D206">
+      <c r="D205" t="n">
         <v>248192190669.3712</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B207">
+      <c r="B206" t="n">
         <v>395759000000</v>
       </c>
-      <c r="C207">
+      <c r="C206" t="n">
         <v>0.6612007405448295</v>
       </c>
-      <c r="D207">
+      <c r="D206" t="n">
         <v>261676143877.2812</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B208">
+      <c r="B207" t="n">
         <v>399895000000</v>
       </c>
-      <c r="C208">
+      <c r="C207" t="n">
         <v>0.6492241771083556</v>
       </c>
-      <c r="D208">
+      <c r="D207" t="n">
         <v>259621502304.7458</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B209">
+      <c r="B208" t="n">
         <v>403122000000</v>
       </c>
-      <c r="C209">
+      <c r="C208" t="n">
         <v>0.6676013084985647</v>
       </c>
-      <c r="D209">
+      <c r="D208" t="n">
         <v>269124774684.5584</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B210">
+      <c r="B209" t="n">
         <v>405535000000</v>
       </c>
-      <c r="C210">
+      <c r="C209" t="n">
         <v>0.6514233600416911</v>
       </c>
-      <c r="D210">
+      <c r="D209" t="n">
         <v>264174972314.5072</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B211">
+      <c r="B210" t="n">
         <v>407895000000</v>
       </c>
-      <c r="C211">
+      <c r="C210" t="n">
         <v>0.6391001469930339</v>
       </c>
-      <c r="D211">
+      <c r="D210" t="n">
         <v>260685754457.7235</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B212">
+      <c r="B211" t="n">
         <v>411004000000</v>
       </c>
-      <c r="C212">
+      <c r="C211" t="n">
         <v>0.6525285481239804</v>
       </c>
-      <c r="D212">
+      <c r="D211" t="n">
         <v>268191843393.1484</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B213">
+      <c r="B212" t="n">
         <v>414489000000</v>
       </c>
-      <c r="C213">
+      <c r="C212" t="n">
         <v>0.6388551715326136</v>
       </c>
-      <c r="D213">
+      <c r="D212" t="n">
         <v>264798441193.3815</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B214">
+      <c r="B213" t="n">
         <v>417772000000</v>
       </c>
-      <c r="C214">
+      <c r="C213" t="n">
         <v>0.6352029473416757</v>
       </c>
-      <c r="D214">
+      <c r="D213" t="n">
         <v>265370005716.8265</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B215">
+      <c r="B214" t="n">
         <v>417806000000</v>
       </c>
-      <c r="C215">
+      <c r="C214" t="n">
         <v>0.6535520554212143</v>
       </c>
-      <c r="D215">
+      <c r="D214" t="n">
         <v>273057970067.3159</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B216">
+      <c r="B215" t="n">
         <v>418845000000</v>
       </c>
-      <c r="C216">
+      <c r="C215" t="n">
         <v>0.6369832473405949</v>
       </c>
-      <c r="D216">
+      <c r="D215" t="n">
         <v>266797248232.3715</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B217">
+      <c r="B216" t="n">
         <v>420631000000</v>
       </c>
-      <c r="C217">
+      <c r="C216" t="n">
         <v>0.6178178672927221</v>
       </c>
-      <c r="D217">
+      <c r="D216" t="n">
         <v>259873347337.205</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B218">
+      <c r="B217" t="n">
         <v>422707000000</v>
       </c>
-      <c r="C218">
+      <c r="C217" t="n">
         <v>0.6076810889645115</v>
       </c>
-      <c r="D218">
+      <c r="D217" t="n">
         <v>256871050072.9218</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B219">
+      <c r="B218" t="n">
         <v>426368000000</v>
       </c>
-      <c r="C219">
+      <c r="C218" t="n">
         <v>0.5838052425710782</v>
       </c>
-      <c r="D219">
+      <c r="D218" t="n">
         <v>248915873664.5455</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B220">
+      <c r="B219" t="n">
         <v>429640000000</v>
       </c>
-      <c r="C220">
+      <c r="C219" t="n">
         <v>0.5727048851726705</v>
       </c>
-      <c r="D220">
+      <c r="D219" t="n">
         <v>246056926865.5862</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B221">
+      <c r="B220" t="n">
         <v>431970000000</v>
       </c>
-      <c r="C221">
+      <c r="C220" t="n">
         <v>0.5969080164746613</v>
       </c>
-      <c r="D221">
+      <c r="D220" t="n">
         <v>257846355876.5594</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B222">
+      <c r="B221" t="n">
         <v>434974000000</v>
       </c>
-      <c r="C222">
+      <c r="C221" t="n">
         <v>0.5809225049378413</v>
       </c>
-      <c r="D222">
+      <c r="D221" t="n">
         <v>252686185662.8326</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B223">
+      <c r="B222" t="n">
         <v>438250000000</v>
       </c>
-      <c r="C223">
+      <c r="C222" t="n">
         <v>0.576468553640399</v>
       </c>
-      <c r="D223">
+      <c r="D222" t="n">
         <v>252637343632.9048</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B224">
+      <c r="B223" t="n">
         <v>439943000000</v>
       </c>
-      <c r="C224">
+      <c r="C223" t="n">
         <v>0.5429176393941039</v>
       </c>
-      <c r="D224">
+      <c r="D223" t="n">
         <v>238852815027.9602</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B225">
+      <c r="B224" t="n">
         <v>442251000000</v>
       </c>
-      <c r="C225">
+      <c r="C224" t="n">
         <v>0.5178127589063795</v>
       </c>
-      <c r="D225">
+      <c r="D224" t="n">
         <v>229003210439.1052</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B226">
+      <c r="B225" t="n">
         <v>436574000000</v>
       </c>
-      <c r="C226">
+      <c r="C225" t="n">
         <v>0.5281504172388296</v>
       </c>
-      <c r="D226">
+      <c r="D225" t="n">
         <v>230576740255.6248</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B227">
+      <c r="B226" t="n">
         <v>438371000000</v>
       </c>
-      <c r="C227">
+      <c r="C226" t="n">
         <v>0.5586280096084018</v>
       </c>
-      <c r="D227">
+      <c r="D226" t="n">
         <v>244886319200.0447</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B228">
+      <c r="B227" t="n">
         <v>443319000000</v>
       </c>
-      <c r="C228">
+      <c r="C227" t="n">
         <v>0.5509338328466752</v>
       </c>
-      <c r="D228">
+      <c r="D227" t="n">
         <v>244239435843.7552</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B229">
+      <c r="B228" t="n">
         <v>448703000000</v>
       </c>
-      <c r="C229">
+      <c r="C228" t="n">
         <v>0.5259835893120135</v>
       </c>
-      <c r="D229">
+      <c r="D228" t="n">
         <v>236010414475.0684</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B230">
+      <c r="B229" t="n">
         <v>453498000000</v>
       </c>
-      <c r="C230">
+      <c r="C229" t="n">
         <v>0.4857198367981348</v>
       </c>
-      <c r="D230">
+      <c r="D229" t="n">
         <v>220272974548.2805</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B231">
+      <c r="B230" t="n">
         <v>458058000000</v>
       </c>
-      <c r="C231">
+      <c r="C230" t="n">
         <v>0.5123738279448686</v>
       </c>
-      <c r="D231">
+      <c r="D230" t="n">
         <v>234696930880.7706</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B232">
+      <c r="B231" t="n">
         <v>463582000000</v>
       </c>
-      <c r="C232">
+      <c r="C231" t="n">
         <v>0.506868062243398</v>
       </c>
-      <c r="D232">
+      <c r="D231" t="n">
         <v>234974910030.9189</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B233">
+      <c r="B232" t="n">
         <v>468478000000</v>
       </c>
-      <c r="C233">
+      <c r="C232" t="n">
         <v>0.5109078833086395</v>
       </c>
-      <c r="D233">
+      <c r="D232" t="n">
         <v>239349103356.6648</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B234">
+      <c r="B233" t="n">
         <v>466790000000</v>
       </c>
-      <c r="C234">
+      <c r="C233" t="n">
         <v>0.5097099750242112</v>
       </c>
-      <c r="D234">
+      <c r="D233" t="n">
         <v>237927519241.5515</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B235">
+      <c r="B234" t="n">
         <v>474303000000</v>
       </c>
-      <c r="C235">
+      <c r="C234" t="n">
         <v>0.5293526017680377</v>
       </c>
-      <c r="D235">
+      <c r="D234" t="n">
         <v>251073527076.3856</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B236">
+      <c r="B235" t="n">
         <v>480979000000</v>
       </c>
-      <c r="C236">
+      <c r="C235" t="n">
         <v>0.4912556494399685</v>
       </c>
-      <c r="D236">
+      <c r="D235" t="n">
         <v>236283651011.9866</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B237">
+      <c r="B236" t="n">
         <v>488315000000</v>
       </c>
-      <c r="C237">
+      <c r="C236" t="n">
         <v>0.5031699708161417</v>
       </c>
-      <c r="D237">
+      <c r="D236" t="n">
         <v>245705444299.0842</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B238">
+      <c r="B237" t="n">
         <v>494013000000</v>
       </c>
-      <c r="C238">
+      <c r="C237" t="n">
         <v>0.5217028380634391</v>
       </c>
-      <c r="D238">
+      <c r="D237" t="n">
         <v>257727984140.2337</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B239">
+      <c r="B238" t="n">
         <v>498545000000</v>
       </c>
-      <c r="C239">
+      <c r="C238" t="n">
         <v>0.5105166428425566</v>
       </c>
-      <c r="D239">
+      <c r="D238" t="n">
         <v>254515519705.9424</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B240">
+      <c r="B239" t="n">
         <v>503448000000</v>
       </c>
-      <c r="C240">
+      <c r="C239" t="n">
         <v>0.5079752108097125</v>
       </c>
-      <c r="D240">
+      <c r="D239" t="n">
         <v>255739103931.7281</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B241">
+      <c r="B240" t="n">
         <v>506254000000</v>
       </c>
-      <c r="C241">
+      <c r="C240" t="n">
         <v>0.5176787285810426</v>
       </c>
-      <c r="D241">
+      <c r="D240" t="n">
         <v>262076927059.0671</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B242">
+      <c r="B241" t="n">
         <v>512472999999.9999</v>
       </c>
-      <c r="C242">
+      <c r="C241" t="n">
         <v>0.5332195798229711</v>
       </c>
-      <c r="D242">
+      <c r="D241" t="n">
         <v>273260637730.6174</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B243">
+      <c r="B242" t="n">
         <v>500266000000</v>
       </c>
-      <c r="C243">
+      <c r="C242" t="n">
         <v>0.5384449709239716</v>
       </c>
-      <c r="D243">
+      <c r="D242" t="n">
         <v>269365711824.2516</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B244">
+      <c r="B243" t="n">
         <v>502835000000</v>
       </c>
-      <c r="C244">
+      <c r="C243" t="n">
         <v>0.5673115107505532</v>
       </c>
-      <c r="D244">
+      <c r="D243" t="n">
         <v>285264083508.2544</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B245">
+      <c r="B244" t="n">
         <v>496230000000</v>
       </c>
-      <c r="C245">
+      <c r="C244" t="n">
         <v>0.5634755169887868</v>
       </c>
-      <c r="D245">
+      <c r="D244" t="n">
         <v>279613455795.3457</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B246">
+      <c r="B245" t="n">
         <v>506215000000</v>
       </c>
-      <c r="C246">
+      <c r="C245" t="n">
         <v>0.5422405379026136</v>
       </c>
-      <c r="D246">
+      <c r="D245" t="n">
         <v>274490293894.3716</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B247">
+      <c r="B246" t="n">
         <v>513116999999.9999</v>
       </c>
-      <c r="C247">
+      <c r="C246" t="n">
         <v>0.550812448361333</v>
       </c>
-      <c r="D247">
+      <c r="D246" t="n">
         <v>282631231065.8221</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B248">
+      <c r="B247" t="n">
         <v>515897000000.0001</v>
       </c>
-      <c r="C248">
+      <c r="C247" t="n">
         <v>0.5425935973955507</v>
       </c>
-      <c r="D248">
+      <c r="D247" t="n">
         <v>279922409115.5724</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B249">
+      <c r="B248" t="n">
         <v>519345000000</v>
       </c>
-      <c r="C249">
+      <c r="C248" t="n">
         <v>0.5541701302299806</v>
       </c>
-      <c r="D249">
+      <c r="D248" t="n">
         <v>287805486284.2893</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B250">
+      <c r="B249" t="n">
         <v>526154000000</v>
       </c>
-      <c r="C250">
+      <c r="C249" t="n">
         <v>0.5607895917451773</v>
       </c>
-      <c r="D250">
+      <c r="D249" t="n">
         <v>295061686855.092</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B251">
+      <c r="B250" t="n">
         <v>531523000000</v>
       </c>
-      <c r="C251">
+      <c r="C250" t="n">
         <v>0.5616399887672002</v>
       </c>
-      <c r="D251">
+      <c r="D250" t="n">
         <v>298524571749.5085</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B252">
+      <c r="B251" t="n">
         <v>537544000000</v>
       </c>
-      <c r="C252">
+      <c r="C251" t="n">
         <v>0.5868544600938967</v>
       </c>
-      <c r="D252">
+      <c r="D251" t="n">
         <v>315460093896.7136</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B253">
+      <c r="B252" t="n">
         <v>540568000000</v>
       </c>
-      <c r="C253">
+      <c r="C252" t="n">
         <v>0.6086797735711242</v>
       </c>
-      <c r="D253">
+      <c r="D252" t="n">
         <v>329032807839.7955</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B254">
+      <c r="B253" t="n">
         <v>547669000000</v>
       </c>
-      <c r="C254">
+      <c r="C253" t="n">
         <v>0.6046680372475511</v>
       </c>
-      <c r="D254">
+      <c r="D253" t="n">
         <v>331157939291.3291</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B255">
+      <c r="B254" t="n">
         <v>553123000000</v>
       </c>
-      <c r="C255">
+      <c r="C254" t="n">
         <v>0.6265271599523839</v>
       </c>
-      <c r="D255">
+      <c r="D254" t="n">
         <v>346546582294.3425</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B256">
+      <c r="B255" t="n">
         <v>563646000000</v>
       </c>
-      <c r="C256">
+      <c r="C255" t="n">
         <v>0.6533385600418137</v>
       </c>
-      <c r="D256">
+      <c r="D255" t="n">
         <v>368251666013.3281</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B257">
+      <c r="B256" t="n">
         <v>564361000000</v>
       </c>
-      <c r="C257">
+      <c r="C256" t="n">
         <v>0.6738544474393531</v>
       </c>
-      <c r="D257">
+      <c r="D256" t="n">
         <v>380297169811.3207</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B258">
+      <c r="B257" t="n">
         <v>557872000000</v>
       </c>
-      <c r="C258">
+      <c r="C257" t="n">
         <v>0.6487187804086928</v>
       </c>
-      <c r="D258">
+      <c r="D257" t="n">
         <v>361902043464.1583</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B259">
+      <c r="B258" t="n">
         <v>570787000000</v>
       </c>
-      <c r="C259">
+      <c r="C258" t="n">
         <v>0.6472073004983496</v>
       </c>
-      <c r="D259">
+      <c r="D258" t="n">
         <v>369417513429.5515</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B260">
+      <c r="B259" t="n">
         <v>577754000000</v>
       </c>
-      <c r="C260">
+      <c r="C259" t="n">
         <v>0.6807351940095303</v>
       </c>
-      <c r="D260">
+      <c r="D259" t="n">
         <v>393297481279.7822</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B261">
+      <c r="B260" t="n">
         <v>582423000000</v>
       </c>
-      <c r="C261">
+      <c r="C260" t="n">
         <v>0.7085163667280714</v>
       </c>
-      <c r="D261">
+      <c r="D260" t="n">
         <v>412656227858.8635</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B262">
+      <c r="B261" t="n">
         <v>587210000000</v>
       </c>
-      <c r="C262">
+      <c r="C261" t="n">
         <v>0.7242702976750923</v>
       </c>
-      <c r="D262">
+      <c r="D261" t="n">
         <v>425298761497.791</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B263">
+      <c r="B262" t="n">
         <v>594207000000</v>
       </c>
-      <c r="C263">
+      <c r="C262" t="n">
         <v>0.7489514679448772</v>
       </c>
-      <c r="D263">
+      <c r="D262" t="n">
         <v>445032204913.1216</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B264">
+      <c r="B263" t="n">
         <v>595410000000</v>
       </c>
-      <c r="C264">
+      <c r="C263" t="n">
         <v>0.7641170627340108</v>
       </c>
-      <c r="D264">
+      <c r="D263" t="n">
         <v>454962940322.4574</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B265">
+      <c r="B264" t="n">
         <v>603832000000</v>
       </c>
-      <c r="C265">
+      <c r="C264" t="n">
         <v>0.7737542556484061</v>
       </c>
-      <c r="D265">
+      <c r="D264" t="n">
         <v>467217579696.6883</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B266">
+      <c r="B265" t="n">
         <v>610678000000</v>
       </c>
-      <c r="C266">
+      <c r="C265" t="n">
         <v>0.7667535654040791</v>
       </c>
-      <c r="D266">
+      <c r="D265" t="n">
         <v>468239533813.8322</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B267">
+      <c r="B266" t="n">
         <v>615959000000</v>
       </c>
-      <c r="C267">
+      <c r="C266" t="n">
         <v>0.7206168480219068</v>
       </c>
-      <c r="D267">
+      <c r="D266" t="n">
         <v>443870433090.7257</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B268">
+      <c r="B267" t="n">
         <v>616477000000</v>
       </c>
-      <c r="C268">
+      <c r="C267" t="n">
         <v>0.7153075822603721</v>
       </c>
-      <c r="D268">
+      <c r="D267" t="n">
         <v>440970672389.1274</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B269">
+      <c r="B268" t="n">
         <v>621338000000</v>
       </c>
-      <c r="C269">
+      <c r="C268" t="n">
         <v>0.6989097008666479</v>
       </c>
-      <c r="D269">
+      <c r="D268" t="n">
         <v>434259155717.0813</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B270">
+      <c r="B269" t="n">
         <v>628311000000</v>
       </c>
-      <c r="C270">
+      <c r="C269" t="n">
         <v>0.7026419336706015</v>
       </c>
-      <c r="D270">
+      <c r="D269" t="n">
         <v>441477655986.5093</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B271">
+      <c r="B270" t="n">
         <v>631732000000</v>
       </c>
-      <c r="C271">
+      <c r="C270" t="n">
         <v>0.7041261794113506</v>
       </c>
-      <c r="D271">
+      <c r="D270" t="n">
         <v>444819039571.8913</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B272">
+      <c r="B271" t="n">
         <v>631878000000</v>
       </c>
-      <c r="C272">
+      <c r="C271" t="n">
         <v>0.7273256236817223</v>
       </c>
-      <c r="D272">
+      <c r="D271" t="n">
         <v>459581060440.7593</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B273">
+      <c r="B272" t="n">
         <v>636611000000</v>
       </c>
-      <c r="C273">
+      <c r="C272" t="n">
         <v>0.7484469725319961</v>
       </c>
-      <c r="D273">
+      <c r="D272" t="n">
         <v>476469575630.5666</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B274">
+      <c r="B273" t="n">
         <v>643622000000</v>
       </c>
-      <c r="C274">
+      <c r="C273" t="n">
         <v>0.7728572532653218</v>
       </c>
-      <c r="D274">
+      <c r="D273" t="n">
         <v>497427931061.133</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B275">
+      <c r="B274" t="n">
         <v>647054000000</v>
       </c>
-      <c r="C275">
+      <c r="C274" t="n">
         <v>0.7802137785753296</v>
       </c>
-      <c r="D275">
+      <c r="D274" t="n">
         <v>504840446282.2813</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B276">
+      <c r="B275" t="n">
         <v>651977000000</v>
       </c>
-      <c r="C276">
+      <c r="C275" t="n">
         <v>0.7757350089209527</v>
       </c>
-      <c r="D276">
+      <c r="D275" t="n">
         <v>505761383911.256</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B277">
+      <c r="B276" t="n">
         <v>655658000000</v>
       </c>
-      <c r="C277">
+      <c r="C276" t="n">
         <v>0.791702953052015</v>
       </c>
-      <c r="D277">
+      <c r="D276" t="n">
         <v>519086374792.178</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B278">
+      <c r="B277" t="n">
         <v>657474000000</v>
       </c>
-      <c r="C278">
+      <c r="C277" t="n">
         <v>0.7723200494284832</v>
       </c>
-      <c r="D278">
+      <c r="D277" t="n">
         <v>507780352177.9426</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B279">
+      <c r="B278" t="n">
         <v>663688000000</v>
       </c>
-      <c r="C279">
+      <c r="C278" t="n">
         <v>0.7814331483941549</v>
       </c>
-      <c r="D279">
+      <c r="D278" t="n">
         <v>518627803391.4199</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B280">
+      <c r="B279" t="n">
         <v>670249000000</v>
       </c>
-      <c r="C280">
+      <c r="C279" t="n">
         <v>0.7558007709167863</v>
       </c>
-      <c r="D280">
+      <c r="D279" t="n">
         <v>506574710906.2051</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B281">
+      <c r="B280" t="n">
         <v>677023000000</v>
       </c>
-      <c r="C281">
+      <c r="C280" t="n">
         <v>0.7625438462711607</v>
       </c>
-      <c r="D281">
+      <c r="D280" t="n">
         <v>516259722434.04</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B282">
+      <c r="B281" t="n">
         <v>678485000000</v>
       </c>
-      <c r="C282">
+      <c r="C281" t="n">
         <v>0.7568303943086355</v>
       </c>
-      <c r="D282">
+      <c r="D281" t="n">
         <v>513498070082.4946</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B283">
+      <c r="B282" t="n">
         <v>681160000000</v>
       </c>
-      <c r="C283">
+      <c r="C282" t="n">
         <v>0.7554011179936546</v>
       </c>
-      <c r="D283">
+      <c r="D282" t="n">
         <v>514549025532.5578</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B284">
+      <c r="B283" t="n">
         <v>690129000000</v>
       </c>
-      <c r="C284">
+      <c r="C283" t="n">
         <v>0.7620208793720947</v>
       </c>
-      <c r="D284">
+      <c r="D283" t="n">
         <v>525892707460.1844</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B285">
+      <c r="B284" t="n">
         <v>688212000000</v>
       </c>
-      <c r="C285">
+      <c r="C284" t="n">
         <v>0.7485590238790328</v>
       </c>
-      <c r="D285">
+      <c r="D284" t="n">
         <v>515167302941.837</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B286">
+      <c r="B285" t="n">
         <v>692301000000</v>
       </c>
-      <c r="C286">
+      <c r="C285" t="n">
         <v>0.738061849582995</v>
       </c>
-      <c r="D286">
+      <c r="D285" t="n">
         <v>510960956528.157</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B287">
+      <c r="B286" t="n">
         <v>700073000000</v>
       </c>
-      <c r="C287">
+      <c r="C286" t="n">
         <v>0.7345379756133392</v>
       </c>
-      <c r="D287">
+      <c r="D286" t="n">
         <v>514230204201.5573</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B288">
+      <c r="B287" t="n">
         <v>708145000000</v>
       </c>
-      <c r="C288">
+      <c r="C287" t="n">
         <v>0.758552681483729</v>
       </c>
-      <c r="D288">
+      <c r="D287" t="n">
         <v>537165288629.2953</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B289">
+      <c r="B288" t="n">
         <v>711350000000</v>
       </c>
-      <c r="C289">
+      <c r="C288" t="n">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D289">
+      <c r="D288" t="n">
         <v>528374062244.6705</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B290">
+      <c r="B289" t="n">
         <v>722061000000</v>
       </c>
-      <c r="C290">
+      <c r="C289" t="n">
         <v>0.7165376898824879</v>
       </c>
-      <c r="D290">
+      <c r="D289" t="n">
         <v>517383920894.2391</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B291">
+      <c r="B290" t="n">
         <v>736225000000</v>
       </c>
-      <c r="C291">
+      <c r="C290" t="n">
         <v>0.7598206823189727</v>
       </c>
-      <c r="D291">
+      <c r="D290" t="n">
         <v>559398981840.2856</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B292">
+      <c r="B291" t="n">
         <v>740262000000</v>
       </c>
-      <c r="C292">
+      <c r="C291" t="n">
         <v>0.7521624670928921</v>
       </c>
-      <c r="D292">
+      <c r="D291" t="n">
         <v>556797292215.1185</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B293">
+      <c r="B292" t="n">
         <v>746274000000</v>
       </c>
-      <c r="C293">
+      <c r="C292" t="n">
         <v>0.7427213309566251</v>
       </c>
-      <c r="D293">
+      <c r="D292" t="n">
         <v>554273618538.3245</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B294">
+      <c r="B293" t="n">
         <v>753038000000</v>
       </c>
-      <c r="C294">
+      <c r="C293" t="n">
         <v>0.7659313725490196</v>
       </c>
-      <c r="D294">
+      <c r="D293" t="n">
         <v>576775428921.5686</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B295">
+      <c r="B294" t="n">
         <v>761297000000</v>
       </c>
-      <c r="C295">
+      <c r="C294" t="n">
         <v>0.7638252367858235</v>
       </c>
-      <c r="D295">
+      <c r="D294" t="n">
         <v>581497861289.337</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B296">
+      <c r="B295" t="n">
         <v>767415000000</v>
       </c>
-      <c r="C296">
+      <c r="C295" t="n">
         <v>0.7473283013227711</v>
       </c>
-      <c r="D296">
+      <c r="D295" t="n">
         <v>573510948359.6144</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B297">
+      <c r="B296" t="n">
         <v>776626000000</v>
       </c>
-      <c r="C297">
+      <c r="C296" t="n">
         <v>0.7739938080495355</v>
       </c>
-      <c r="D297">
+      <c r="D296" t="n">
         <v>601103715170.2786</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B298">
+      <c r="B297" t="n">
         <v>781730000000</v>
       </c>
-      <c r="C298">
+      <c r="C297" t="n">
         <v>0.7894529091339701</v>
       </c>
-      <c r="D298">
+      <c r="D297" t="n">
         <v>617139022657.2985</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B299">
+      <c r="B298" t="n">
         <v>791373000000</v>
       </c>
-      <c r="C299">
+      <c r="C298" t="n">
         <v>0.7895775759968418</v>
       </c>
-      <c r="D299">
+      <c r="D298" t="n">
         <v>624850375049.3486</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B300">
+      <c r="B299" t="n">
         <v>797749000000</v>
       </c>
-      <c r="C300">
+      <c r="C299" t="n">
         <v>0.777363184079602</v>
       </c>
-      <c r="D300">
+      <c r="D299" t="n">
         <v>620140702736.3185</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B301">
+      <c r="B300" t="n">
         <v>814195000000</v>
       </c>
-      <c r="C301">
+      <c r="C300" t="n">
         <v>0.7879599716334411</v>
       </c>
-      <c r="D301">
+      <c r="D300" t="n">
         <v>641553069104.0896</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B302">
+      <c r="B301" t="n">
         <v>826266000000</v>
       </c>
-      <c r="C302">
+      <c r="C301" t="n">
         <v>0.8088651621774651</v>
       </c>
-      <c r="D302">
+      <c r="D301" t="n">
         <v>668337782091.7253</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B303">
+      <c r="B302" t="n">
         <v>838018000000</v>
       </c>
-      <c r="C303">
+      <c r="C302" t="n">
         <v>0.8300821781356353</v>
       </c>
-      <c r="D303">
+      <c r="D302" t="n">
         <v>695623806756.8689</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B304">
+      <c r="B303" t="n">
         <v>846637000000</v>
       </c>
-      <c r="C304">
+      <c r="C303" t="n">
         <v>0.8279516476237788</v>
       </c>
-      <c r="D304">
+      <c r="D303" t="n">
         <v>700974499089.2532</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B305">
+      <c r="B304" t="n">
         <v>869578000000</v>
       </c>
-      <c r="C305">
+      <c r="C304" t="n">
         <v>0.8492569002123143</v>
       </c>
-      <c r="D305">
+      <c r="D304" t="n">
         <v>738495116772.8239</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B306">
+      <c r="B305" t="n">
         <v>880405000000</v>
       </c>
-      <c r="C306">
+      <c r="C305" t="n">
         <v>0.8509189925119128</v>
       </c>
-      <c r="D306">
+      <c r="D305" t="n">
         <v>749153335602.4506</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B307">
+      <c r="B306" t="n">
         <v>899073000000</v>
       </c>
-      <c r="C307">
+      <c r="C306" t="n">
         <v>0.8180628272251309</v>
       </c>
-      <c r="D307">
+      <c r="D306" t="n">
         <v>735498200261.7802</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B308">
+      <c r="B307" t="n">
         <v>912986000000</v>
       </c>
-      <c r="C308">
+      <c r="C307" t="n">
         <v>0.8889679082585119</v>
       </c>
-      <c r="D308">
+      <c r="D307" t="n">
         <v>811615254689.3058</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B309">
+      <c r="B308" t="n">
         <v>938446000000</v>
       </c>
-      <c r="C309">
+      <c r="C308" t="n">
         <v>0.9325748391308403</v>
       </c>
-      <c r="D309">
+      <c r="D308" t="n">
         <v>875171127482.9805</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B310">
+      <c r="B309" t="n">
         <v>962564000000</v>
       </c>
-      <c r="C310">
+      <c r="C309" t="n">
         <v>0.8844078889183691</v>
       </c>
-      <c r="D310">
+      <c r="D309" t="n">
         <v>851299195188.821</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B311">
+      <c r="B310" t="n">
         <v>971834000000</v>
       </c>
-      <c r="C311">
+      <c r="C310" t="n">
         <v>0.8749671887304226</v>
       </c>
-      <c r="D311">
+      <c r="D310" t="n">
         <v>850322862892.6415</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B312">
+      <c r="B311" t="n">
         <v>984284000000</v>
       </c>
-      <c r="C312">
+      <c r="C311" t="n">
         <v>0.8962982880702699</v>
       </c>
-      <c r="D312">
+      <c r="D311" t="n">
         <v>882212064174.9575</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B313">
+      <c r="B312" t="n">
         <v>992008000000</v>
       </c>
-      <c r="C313">
+      <c r="C312" t="n">
         <v>0.9313588525658936</v>
       </c>
-      <c r="D313">
+      <c r="D312" t="n">
         <v>923915432616.1869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B314">
+      <c r="B313" t="n">
         <v>1000377000000</v>
       </c>
-      <c r="C314">
+      <c r="C313" t="n">
         <v>0.9139097057210747</v>
       </c>
-      <c r="D314">
+      <c r="D313" t="n">
         <v>914254249680.1315</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B315">
+      <c r="B314" t="n">
         <v>1013380000000</v>
       </c>
-      <c r="C315">
+      <c r="C314" t="n">
         <v>0.9437523593808984</v>
       </c>
-      <c r="D315">
+      <c r="D314" t="n">
         <v>956379765949.4148</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B316">
+      <c r="B315" t="n">
         <v>1016485000000</v>
       </c>
-      <c r="C316">
+      <c r="C315" t="n">
         <v>0.9562057754828839</v>
       </c>
-      <c r="D316">
+      <c r="D315" t="n">
         <v>971968827691.7192</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B317">
+      <c r="B316" t="n">
         <v>1035594000000</v>
       </c>
-      <c r="C317">
+      <c r="C316" t="n">
         <v>0.9590486237652249</v>
       </c>
-      <c r="D317">
+      <c r="D316" t="n">
         <v>993185000479.5243</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B318">
+      <c r="B317" t="n">
         <v>1057005000000</v>
       </c>
-      <c r="C318">
+      <c r="C317" t="n">
         <v>0.9417969485778865</v>
       </c>
-      <c r="D318">
+      <c r="D317" t="n">
         <v>995484083631.569</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B319">
+      <c r="B318" t="n">
         <v>1069476000000</v>
       </c>
-      <c r="C319">
+      <c r="C318" t="n">
         <v>0.8582217645039478</v>
       </c>
-      <c r="D319">
+      <c r="D318" t="n">
         <v>917847579814.6241</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B320">
+      <c r="B319" t="n">
         <v>1089266000000</v>
       </c>
-      <c r="C320">
+      <c r="C319" t="n">
         <v>0.7951653944020356</v>
       </c>
-      <c r="D320">
+      <c r="D319" t="n">
         <v>866146628498.7277</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B321">
+      <c r="B320" t="n">
         <v>1102968000000</v>
       </c>
-      <c r="C321">
+      <c r="C320" t="n">
         <v>0.6685832720465333</v>
       </c>
-      <c r="D321">
+      <c r="D320" t="n">
         <v>737425954402.6207</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B322">
+      <c r="B321" t="n">
         <v>1129317000000</v>
       </c>
-      <c r="C322">
+      <c r="C321" t="n">
         <v>0.6549646319098769</v>
       </c>
-      <c r="D322">
+      <c r="D321" t="n">
         <v>739662693214.5664</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B323">
+      <c r="B322" t="n">
         <v>1130783000000</v>
       </c>
-      <c r="C323">
+      <c r="C322" t="n">
         <v>0.7015574575557738</v>
       </c>
-      <c r="D323">
+      <c r="D322" t="n">
         <v>793309246527.2905</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B324">
+      <c r="B323" t="n">
         <v>1144917000000</v>
       </c>
-      <c r="C324">
+      <c r="C323" t="n">
         <v>0.6358087487283826</v>
       </c>
-      <c r="D324">
+      <c r="D323" t="n">
         <v>727948245167.8535</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B325">
+      <c r="B324" t="n">
         <v>1163743000000</v>
       </c>
-      <c r="C325">
+      <c r="C324" t="n">
         <v>0.6391001469930339</v>
       </c>
-      <c r="D325">
+      <c r="D324" t="n">
         <v>743748322362.1143</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B326">
+      <c r="B325" t="n">
         <v>1142763000000</v>
       </c>
-      <c r="C326">
+      <c r="C325" t="n">
         <v>0.691945751453086</v>
       </c>
-      <c r="D326">
+      <c r="D325" t="n">
         <v>790730002767.783</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B327">
+      <c r="B326" t="n">
         <v>1160667000000</v>
       </c>
-      <c r="C327">
+      <c r="C326" t="n">
         <v>0.7257420712678715</v>
       </c>
-      <c r="D327">
+      <c r="D326" t="n">
         <v>842344872632.2666</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B328">
+      <c r="B327" t="n">
         <v>1167788000000</v>
       </c>
-      <c r="C328">
+      <c r="C327" t="n">
         <v>0.8014747134727899</v>
       </c>
-      <c r="D328">
+      <c r="D327" t="n">
         <v>935952552696.9623</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B329">
+      <c r="B328" t="n">
         <v>1178972000000</v>
       </c>
-      <c r="C329">
+      <c r="C328" t="n">
         <v>0.8062565508344756</v>
       </c>
-      <c r="D329">
+      <c r="D328" t="n">
         <v>950553898250.4233</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B330">
+      <c r="B329" t="n">
         <v>1181019000000</v>
       </c>
-      <c r="C330">
+      <c r="C329" t="n">
         <v>0.8364700961940611</v>
       </c>
-      <c r="D330">
+      <c r="D329" t="n">
         <v>987887076537.0138</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B331">
+      <c r="B330" t="n">
         <v>1185332000000</v>
       </c>
-      <c r="C331">
+      <c r="C330" t="n">
         <v>0.8440243079000674</v>
       </c>
-      <c r="D331">
+      <c r="D330" t="n">
         <v>1000449020931.803</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B332">
+      <c r="B331" t="n">
         <v>1184794000000</v>
       </c>
-      <c r="C332">
+      <c r="C331" t="n">
         <v>0.8841732979664014</v>
       </c>
-      <c r="D332">
+      <c r="D331" t="n">
         <v>1047563218390.805</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B333">
+      <c r="B332" t="n">
         <v>1183584000000</v>
       </c>
-      <c r="C333">
+      <c r="C332" t="n">
         <v>0.901631953836444</v>
       </c>
-      <c r="D333">
+      <c r="D332" t="n">
         <v>1067157154449.554</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B334">
+      <c r="B333" t="n">
         <v>1182206000000</v>
       </c>
-      <c r="C334">
+      <c r="C333" t="n">
         <v>0.9161704076958315</v>
       </c>
-      <c r="D334">
+      <c r="D333" t="n">
         <v>1083102153000.458</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B335">
+      <c r="B334" t="n">
         <v>1178434000000</v>
       </c>
-      <c r="C335">
+      <c r="C334" t="n">
         <v>0.8979078746520608</v>
       </c>
-      <c r="D335">
+      <c r="D334" t="n">
         <v>1058125168357.727</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B336">
+      <c r="B335" t="n">
         <v>1182971000000</v>
       </c>
-      <c r="C336">
+      <c r="C335" t="n">
         <v>0.8842514811212309</v>
       </c>
-      <c r="D336">
+      <c r="D335" t="n">
         <v>1046043858873.464</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B337">
+      <c r="B336" t="n">
         <v>1195947000000</v>
       </c>
-      <c r="C337">
+      <c r="C336" t="n">
         <v>0.8957362952346829</v>
       </c>
-      <c r="D337">
+      <c r="D336" t="n">
         <v>1071253135077.033</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B338">
+      <c r="B337" t="n">
         <v>1210169000000</v>
       </c>
-      <c r="C338">
+      <c r="C337" t="n">
         <v>0.9175153683824203</v>
       </c>
-      <c r="D338">
+      <c r="D337" t="n">
         <v>1110348655839.985</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B339">
+      <c r="B338" t="n">
         <v>1216303000000</v>
       </c>
-      <c r="C339">
+      <c r="C338" t="n">
         <v>0.9247272054743851</v>
       </c>
-      <c r="D339">
+      <c r="D338" t="n">
         <v>1124748474200.111</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B340">
+      <c r="B339" t="n">
         <v>1221498000000</v>
       </c>
-      <c r="C340">
+      <c r="C339" t="n">
         <v>0.8475294516484448</v>
       </c>
-      <c r="D340">
+      <c r="D339" t="n">
         <v>1035255530129.672</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B341">
+      <c r="B340" t="n">
         <v>1231556000000</v>
       </c>
-      <c r="C341">
+      <c r="C340" t="n">
         <v>0.8404773911581779</v>
       </c>
-      <c r="D341">
+      <c r="D340" t="n">
         <v>1035094973945.201</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B342">
+      <c r="B341" t="n">
         <v>1242597000000</v>
       </c>
-      <c r="C342">
+      <c r="C341" t="n">
         <v>0.904649900488511</v>
       </c>
-      <c r="D342">
+      <c r="D341" t="n">
         <v>1124115252397.322</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B343">
+      <c r="B342" t="n">
         <v>1253020000000</v>
       </c>
-      <c r="C343">
+      <c r="C342" t="n">
         <v>0.8930166101089481</v>
       </c>
-      <c r="D343">
+      <c r="D342" t="n">
         <v>1118967672798.714</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B344">
+      <c r="B343" t="n">
         <v>1260810000000</v>
       </c>
-      <c r="C344">
+      <c r="C343" t="n">
         <v>0.9662769349695624</v>
       </c>
-      <c r="D344">
+      <c r="D343" t="n">
         <v>1218291622378.974</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B345">
+      <c r="B344" t="n">
         <v>1273880000000</v>
       </c>
-      <c r="C345">
+      <c r="C344" t="n">
         <v>0.98405825624877</v>
       </c>
-      <c r="D345">
+      <c r="D344" t="n">
         <v>1253572131470.183</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B346">
+      <c r="B345" t="n">
         <v>1294322000000</v>
       </c>
-      <c r="C346">
+      <c r="C345" t="n">
         <v>0.959140610013428</v>
       </c>
-      <c r="D346">
+      <c r="D345" t="n">
         <v>1241436792633.8</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B347">
+      <c r="B346" t="n">
         <v>1302284000000</v>
       </c>
-      <c r="C347">
+      <c r="C346" t="n">
         <v>1.02364622786365</v>
       </c>
-      <c r="D347">
+      <c r="D346" t="n">
         <v>1333078104207.186</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B348">
+      <c r="B347" t="n">
         <v>1311449000000</v>
       </c>
-      <c r="C348">
+      <c r="C347" t="n">
         <v>0.9979044007584074</v>
       </c>
-      <c r="D348">
+      <c r="D347" t="n">
         <v>1308700728470.213</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B349">
+      <c r="B348" t="n">
         <v>1325187000000</v>
       </c>
-      <c r="C349">
+      <c r="C348" t="n">
         <v>1.018952516812716</v>
       </c>
-      <c r="D349">
+      <c r="D348" t="n">
         <v>1350302628897.493</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B350">
+      <c r="B349" t="n">
         <v>1334278000000</v>
       </c>
-      <c r="C350">
+      <c r="C349" t="n">
         <v>1.033698573495968</v>
       </c>
-      <c r="D350">
+      <c r="D349" t="n">
         <v>1379241265247.054</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B351">
+      <c r="B350" t="n">
         <v>1342207000000</v>
       </c>
-      <c r="C351">
+      <c r="C350" t="n">
         <v>1.097574360662935</v>
       </c>
-      <c r="D351">
+      <c r="D350" t="n">
         <v>1473171989902.316</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B352">
+      <c r="B351" t="n">
         <v>1347691000000</v>
       </c>
-      <c r="C352">
+      <c r="C351" t="n">
         <v>1.066325442525059</v>
       </c>
-      <c r="D352">
+      <c r="D351" t="n">
         <v>1437077201962.039</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B353">
+      <c r="B352" t="n">
         <v>1343534000000</v>
       </c>
-      <c r="C353">
+      <c r="C352" t="n">
         <v>1.071466838101361</v>
       </c>
-      <c r="D353">
+      <c r="D352" t="n">
         <v>1439552126861.674</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B354">
+      <c r="B353" t="n">
         <v>1352722000000</v>
       </c>
-      <c r="C354">
+      <c r="C353" t="n">
         <v>1.1001100110011</v>
       </c>
-      <c r="D354">
+      <c r="D353" t="n">
         <v>1488143014301.43</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B355">
+      <c r="B354" t="n">
         <v>1373328000000</v>
       </c>
-      <c r="C355">
+      <c r="C354" t="n">
         <v>1.06951871657754</v>
       </c>
-      <c r="D355">
+      <c r="D354" t="n">
         <v>1468800000000</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B356">
+      <c r="B355" t="n">
         <v>1383775000000</v>
       </c>
-      <c r="C356">
+      <c r="C355" t="n">
         <v>0.9666505558240697</v>
       </c>
-      <c r="D356">
+      <c r="D355" t="n">
         <v>1337626872885.452</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B357">
+      <c r="B356" t="n">
         <v>1390449000000</v>
       </c>
-      <c r="C357">
+      <c r="C356" t="n">
         <v>1.05496360375567</v>
       </c>
-      <c r="D357">
+      <c r="D356" t="n">
         <v>1466873087878.468</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B358">
+      <c r="B357" t="n">
         <v>1396042000000</v>
       </c>
-      <c r="C358">
+      <c r="C357" t="n">
         <v>1.02880658436214</v>
       </c>
-      <c r="D358">
+      <c r="D357" t="n">
         <v>1436257201646.091</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B359">
+      <c r="B358" t="n">
         <v>1406582000000</v>
       </c>
-      <c r="C359">
+      <c r="C358" t="n">
         <v>1.021554806415364</v>
       </c>
-      <c r="D359">
+      <c r="D358" t="n">
         <v>1436900602717.336</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B360">
+      <c r="B359" t="n">
         <v>1416621000000</v>
       </c>
-      <c r="C360">
+      <c r="C359" t="n">
         <v>1.062699256110521</v>
       </c>
-      <c r="D360">
+      <c r="D359" t="n">
         <v>1505442082890.542</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B361">
+      <c r="B360" t="n">
         <v>1424055000000</v>
       </c>
-      <c r="C361">
+      <c r="C360" t="n">
         <v>1.073767851390529</v>
       </c>
-      <c r="D361">
+      <c r="D360" t="n">
         <v>1529104477611.94</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B362">
+      <c r="B361" t="n">
         <v>1434208000000</v>
       </c>
-      <c r="C362">
+      <c r="C361" t="n">
         <v>1.034447088031447</v>
       </c>
-      <c r="D362">
+      <c r="D361" t="n">
         <v>1483612289231.406</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B363">
+      <c r="B362" t="n">
         <v>1438755000000</v>
       </c>
-      <c r="C363">
+      <c r="C362" t="n">
         <v>1.043405676126878</v>
       </c>
-      <c r="D363">
+      <c r="D362" t="n">
         <v>1501205133555.927</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B364">
+      <c r="B363" t="n">
         <v>1457290000000</v>
       </c>
-      <c r="C364">
+      <c r="C363" t="n">
         <v>0.97323600973236</v>
       </c>
-      <c r="D364">
+      <c r="D363" t="n">
         <v>1418287104622.871</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B365">
+      <c r="B364" t="n">
         <v>1465374000000</v>
       </c>
-      <c r="C365">
+      <c r="C364" t="n">
         <v>1.024275325207416</v>
       </c>
-      <c r="D365">
+      <c r="D364" t="n">
         <v>1500946430400.492</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B366">
+      <c r="B365" t="n">
         <v>1472304000000</v>
       </c>
-      <c r="C366">
+      <c r="C365" t="n">
         <v>1.049758555532228</v>
       </c>
-      <c r="D366">
+      <c r="D365" t="n">
         <v>1545563720344.321</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B367">
+      <c r="B366" t="n">
         <v>1482867000000</v>
       </c>
-      <c r="C367">
+      <c r="C366" t="n">
         <v>1.033698573495968</v>
       </c>
-      <c r="D367">
+      <c r="D366" t="n">
         <v>1532837502584.246</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B368">
+      <c r="B367" t="n">
         <v>1488548000000</v>
       </c>
-      <c r="C368">
+      <c r="C367" t="n">
         <v>1.03777501037775</v>
       </c>
-      <c r="D368">
+      <c r="D367" t="n">
         <v>1544777916147.779</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B369">
+      <c r="B368" t="n">
         <v>1495483000000</v>
       </c>
-      <c r="C369">
+      <c r="C368" t="n">
         <v>1.038205980066445</v>
       </c>
-      <c r="D369">
+      <c r="D368" t="n">
         <v>1552619393687.708</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B370">
+      <c r="B369" t="n">
         <v>1500153000000</v>
       </c>
-      <c r="C370">
+      <c r="C369" t="n">
         <v>1.043187982474442</v>
       </c>
-      <c r="D370">
+      <c r="D369" t="n">
         <v>1564941581472.981</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B371">
+      <c r="B370" t="n">
         <v>1508423000000</v>
       </c>
-      <c r="C371">
+      <c r="C370" t="n">
         <v>1.039933444259567</v>
       </c>
-      <c r="D371">
+      <c r="D370" t="n">
         <v>1568659525790.349</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B372">
+      <c r="B371" t="n">
         <v>1518967000000</v>
       </c>
-      <c r="C372">
+      <c r="C371" t="n">
         <v>1.043079169708981</v>
       </c>
-      <c r="D372">
+      <c r="D371" t="n">
         <v>1584402837175.342</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B373">
+      <c r="B372" t="n">
         <v>1521736000000</v>
       </c>
-      <c r="C373">
+      <c r="C372" t="n">
         <v>1.022076860179886</v>
       </c>
-      <c r="D373">
+      <c r="D372" t="n">
         <v>1555331152902.698</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B374">
+      <c r="B373" t="n">
         <v>1531399000000</v>
       </c>
-      <c r="C374">
+      <c r="C373" t="n">
         <v>1.042535446205171</v>
       </c>
-      <c r="D374">
+      <c r="D373" t="n">
         <v>1596537739783.153</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B375">
+      <c r="B374" t="n">
         <v>1546552000000</v>
       </c>
-      <c r="C375">
+      <c r="C374" t="n">
         <v>1.037129226301597</v>
       </c>
-      <c r="D375">
+      <c r="D374" t="n">
         <v>1603974279195.188</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B376">
+      <c r="B375" t="n">
         <v>1560756000000</v>
       </c>
-      <c r="C376">
+      <c r="C375" t="n">
         <v>0.9552010698251983</v>
       </c>
-      <c r="D376">
+      <c r="D375" t="n">
         <v>1490835800936.097</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B377">
+      <c r="B376" t="n">
         <v>1561285000000</v>
       </c>
-      <c r="C377">
+      <c r="C376" t="n">
         <v>0.9149967975112088</v>
       </c>
-      <c r="D377">
+      <c r="D376" t="n">
         <v>1428570775002.288</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B378">
+      <c r="B377" t="n">
         <v>1565767000000</v>
       </c>
-      <c r="C378">
+      <c r="C377" t="n">
         <v>0.8943743851176101</v>
       </c>
-      <c r="D378">
+      <c r="D377" t="n">
         <v>1400381897862.445</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B379">
+      <c r="B378" t="n">
         <v>1567032000000</v>
       </c>
-      <c r="C379">
+      <c r="C378" t="n">
         <v>0.8903926631644555</v>
       </c>
-      <c r="D379">
+      <c r="D378" t="n">
         <v>1395273795743.923</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B380">
+      <c r="B379" t="n">
         <v>1578348000000</v>
       </c>
-      <c r="C380">
+      <c r="C379" t="n">
         <v>0.9329228472805299</v>
       </c>
-      <c r="D380">
+      <c r="D379" t="n">
         <v>1472476910159.53</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B381">
+      <c r="B380" t="n">
         <v>1589865000000</v>
       </c>
-      <c r="C381">
+      <c r="C380" t="n">
         <v>0.9463423866754992</v>
       </c>
-      <c r="D381">
+      <c r="D380" t="n">
         <v>1504556638591.843</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B382">
+      <c r="B381" t="n">
         <v>1599918000000</v>
       </c>
-      <c r="C382">
+      <c r="C381" t="n">
         <v>0.9112447603426281</v>
       </c>
-      <c r="D382">
+      <c r="D381" t="n">
         <v>1457916894477.857</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B383">
+      <c r="B382" t="n">
         <v>1613768000000</v>
       </c>
-      <c r="C383">
+      <c r="C382" t="n">
         <v>0.8918219923303309</v>
       </c>
-      <c r="D383">
+      <c r="D382" t="n">
         <v>1439193792918.933</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B384">
+      <c r="B383" t="n">
         <v>1622097000000</v>
       </c>
-      <c r="C384">
+      <c r="C383" t="n">
         <v>0.8759635599159076</v>
       </c>
-      <c r="D384">
+      <c r="D383" t="n">
         <v>1420897862648.914</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B385">
+      <c r="B384" t="n">
         <v>1631933000000</v>
       </c>
-      <c r="C385">
+      <c r="C384" t="n">
         <v>0.8934953538241601</v>
       </c>
-      <c r="D385">
+      <c r="D384" t="n">
         <v>1458124553252.323</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B386">
+      <c r="B385" t="n">
         <v>1637964000000</v>
       </c>
-      <c r="C386">
+      <c r="C385" t="n">
         <v>0.9266981744045965</v>
       </c>
-      <c r="D386">
+      <c r="D385" t="n">
         <v>1517898248540.45</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B387">
+      <c r="B386" t="n">
         <v>1648196000000</v>
       </c>
-      <c r="C387">
+      <c r="C386" t="n">
         <v>0.9288500835965076</v>
       </c>
-      <c r="D387">
+      <c r="D386" t="n">
         <v>1530926992383.429</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B388">
+      <c r="B387" t="n">
         <v>1661059000000</v>
       </c>
-      <c r="C388">
+      <c r="C387" t="n">
         <v>0.931445603576751</v>
       </c>
-      <c r="D388">
+      <c r="D387" t="n">
         <v>1547186102831.594</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B389">
+      <c r="B388" t="n">
         <v>1668993000000</v>
       </c>
-      <c r="C389">
+      <c r="C388" t="n">
         <v>0.9433072351664937</v>
       </c>
-      <c r="D389">
+      <c r="D388" t="n">
         <v>1574373172342.232</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B390">
+      <c r="B389" t="n">
         <v>1680499000000</v>
       </c>
-      <c r="C390">
+      <c r="C389" t="n">
         <v>0.9296272194849864</v>
       </c>
-      <c r="D390">
+      <c r="D389" t="n">
         <v>1562237612717.3</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B391">
+      <c r="B390" t="n">
         <v>1693813000000</v>
       </c>
-      <c r="C391">
+      <c r="C390" t="n">
         <v>0.9344921035417251</v>
       </c>
-      <c r="D391">
+      <c r="D390" t="n">
         <v>1582854873376.32</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B392">
+      <c r="B391" t="n">
         <v>1706001000000</v>
       </c>
-      <c r="C392">
+      <c r="C391" t="n">
         <v>0.8748906386701663</v>
       </c>
-      <c r="D392">
+      <c r="D391" t="n">
         <v>1492564304461.942</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B393">
+      <c r="B392" t="n">
         <v>1712461000000</v>
       </c>
-      <c r="C393">
+      <c r="C392" t="n">
         <v>0.880126738250308</v>
       </c>
-      <c r="D393">
+      <c r="D392" t="n">
         <v>1507182714310.861</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B394">
+      <c r="B393" t="n">
         <v>1716847000000</v>
       </c>
-      <c r="C394">
+      <c r="C393" t="n">
         <v>0.8511362669163333</v>
       </c>
-      <c r="D394">
+      <c r="D393" t="n">
         <v>1461270746446.506</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B395">
+      <c r="B394" t="n">
         <v>1731250000000</v>
       </c>
-      <c r="C395">
+      <c r="C394" t="n">
         <v>0.8176614881439084</v>
       </c>
-      <c r="D395">
+      <c r="D394" t="n">
         <v>1415576451349.141</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B396">
+      <c r="B395" t="n">
         <v>1735199000000</v>
       </c>
-      <c r="C396">
+      <c r="C395" t="n">
         <v>0.7771215418091389</v>
       </c>
-      <c r="D396">
+      <c r="D395" t="n">
         <v>1348460522225.676</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B397">
+      <c r="B396" t="n">
         <v>1755949000000</v>
       </c>
-      <c r="C397">
+      <c r="C396" t="n">
         <v>0.7814331483941549</v>
       </c>
-      <c r="D397">
+      <c r="D396" t="n">
         <v>1372156755489.568</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B398">
+      <c r="B397" t="n">
         <v>1760584000000</v>
       </c>
-      <c r="C398">
+      <c r="C397" t="n">
         <v>0.7612667478684531</v>
       </c>
-      <c r="D398">
+      <c r="D397" t="n">
         <v>1340274056029.233</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B399">
+      <c r="B398" t="n">
         <v>1768918000000</v>
       </c>
-      <c r="C399">
+      <c r="C398" t="n">
         <v>0.7902015013828526</v>
       </c>
-      <c r="D399">
+      <c r="D398" t="n">
         <v>1397801659423.153</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B400">
+      <c r="B399" t="n">
         <v>1772712000000</v>
       </c>
-      <c r="C400">
+      <c r="C399" t="n">
         <v>0.7646429117602079</v>
       </c>
-      <c r="D400">
+      <c r="D399" t="n">
         <v>1355491665392.262</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B401">
+      <c r="B400" t="n">
         <v>1781050000000</v>
       </c>
-      <c r="C401">
+      <c r="C400" t="n">
         <v>0.7705347511172753</v>
       </c>
-      <c r="D401">
+      <c r="D400" t="n">
         <v>1372360918477.423</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B402">
+      <c r="B401" t="n">
         <v>1795874000000</v>
       </c>
-      <c r="C402">
+      <c r="C401" t="n">
         <v>0.7316894709885124</v>
       </c>
-      <c r="D402">
+      <c r="D401" t="n">
         <v>1314022097022.024</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B403">
+      <c r="B402" t="n">
         <v>1799219000000</v>
       </c>
-      <c r="C403">
+      <c r="C402" t="n">
         <v>0.7115411982353779</v>
       </c>
-      <c r="D403">
+      <c r="D402" t="n">
         <v>1280218443147.858</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B404">
+      <c r="B403" t="n">
         <v>1812398000000</v>
       </c>
-      <c r="C404">
+      <c r="C403" t="n">
         <v>0.702000702000702</v>
       </c>
-      <c r="D404">
+      <c r="D403" t="n">
         <v>1272304668304.668</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B405">
+      <c r="B404" t="n">
         <v>1818447000000</v>
       </c>
-      <c r="C405">
+      <c r="C404" t="n">
         <v>0.7140307033202428</v>
       </c>
-      <c r="D405">
+      <c r="D404" t="n">
         <v>1298426990360.585</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B406">
+      <c r="B405" t="n">
         <v>1831524000000</v>
       </c>
-      <c r="C406">
+      <c r="C405" t="n">
         <v>0.722908985758693</v>
       </c>
-      <c r="D406">
+      <c r="D405" t="n">
         <v>1324025157232.704</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B407">
+      <c r="B406" t="n">
         <v>1836529000000</v>
       </c>
-      <c r="C407">
+      <c r="C406" t="n">
         <v>0.7291286912139993</v>
       </c>
-      <c r="D407">
+      <c r="D406" t="n">
         <v>1339065986146.555</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B408">
+      <c r="B407" t="n">
         <v>1845945000000</v>
       </c>
-      <c r="C408">
+      <c r="C407" t="n">
         <v>0.7085665698292355</v>
       </c>
-      <c r="D408">
+      <c r="D407" t="n">
         <v>1307974916743.428</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B409">
+      <c r="B408" t="n">
         <v>1852876000000</v>
       </c>
-      <c r="C409">
+      <c r="C408" t="n">
         <v>0.7142346975216056</v>
       </c>
-      <c r="D409">
+      <c r="D408" t="n">
         <v>1323388329405.042</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B410">
+      <c r="B409" t="n">
         <v>1862728000000</v>
       </c>
-      <c r="C410">
+      <c r="C409" t="n">
         <v>0.7666360012266176</v>
       </c>
-      <c r="D410">
+      <c r="D409" t="n">
         <v>1428034345292.855</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B411">
+      <c r="B410" t="n">
         <v>1870741000000</v>
       </c>
-      <c r="C411">
+      <c r="C410" t="n">
         <v>0.7617306520414382</v>
       </c>
-      <c r="D411">
+      <c r="D410" t="n">
         <v>1425000761730.652</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B412">
+      <c r="B411" t="n">
         <v>1876371000000</v>
       </c>
-      <c r="C412">
+      <c r="C411" t="n">
         <v>0.7233273056057866</v>
       </c>
-      <c r="D412">
+      <c r="D411" t="n">
         <v>1357230379746.835</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B413">
+      <c r="B412" t="n">
         <v>1883273000000</v>
       </c>
-      <c r="C413">
+      <c r="C412" t="n">
         <v>0.7444353457902182</v>
       </c>
-      <c r="D413">
+      <c r="D412" t="n">
         <v>1401974986972.382</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B414">
+      <c r="B413" t="n">
         <v>1901275000000</v>
       </c>
-      <c r="C414">
+      <c r="C413" t="n">
         <v>0.761208799573723</v>
       </c>
-      <c r="D414">
+      <c r="D413" t="n">
         <v>1447267260409.53</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B415">
+      <c r="B414" t="n">
         <v>1909699000000</v>
       </c>
-      <c r="C415">
+      <c r="C414" t="n">
         <v>0.751653638003608</v>
       </c>
-      <c r="D415">
+      <c r="D414" t="n">
         <v>1435432200841.852</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B416">
+      <c r="B415" t="n">
         <v>1914336000000</v>
       </c>
-      <c r="C416">
+      <c r="C415" t="n">
         <v>0.7660487206986365</v>
       </c>
-      <c r="D416">
+      <c r="D415" t="n">
         <v>1466474643787.345</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B417">
+      <c r="B416" t="n">
         <v>1927326000000</v>
       </c>
-      <c r="C417">
+      <c r="C416" t="n">
         <v>0.7608034083992696</v>
       </c>
-      <c r="D417">
+      <c r="D416" t="n">
         <v>1466316189896.531</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B418">
+      <c r="B417" t="n">
         <v>1943834000000</v>
       </c>
-      <c r="C418">
+      <c r="C417" t="n">
         <v>0.7384978952809984</v>
       </c>
-      <c r="D418">
+      <c r="D417" t="n">
         <v>1435517317775.644</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B419">
+      <c r="B418" t="n">
         <v>1963247000000</v>
       </c>
-      <c r="C419">
+      <c r="C418" t="n">
         <v>0.7213445863088797</v>
       </c>
-      <c r="D419">
+      <c r="D418" t="n">
         <v>1416177595037.149</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B420">
+      <c r="B419" t="n">
         <v>1975270000000</v>
       </c>
-      <c r="C420">
+      <c r="C419" t="n">
         <v>0.7586102260658474</v>
       </c>
-      <c r="D420">
+      <c r="D419" t="n">
         <v>1498460021241.086</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B421">
+      <c r="B420" t="n">
         <v>1985415000000</v>
       </c>
-      <c r="C421">
+      <c r="C420" t="n">
         <v>0.7657554177195803</v>
       </c>
-      <c r="D421">
+      <c r="D420" t="n">
         <v>1520342292671.721</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B422">
+      <c r="B421" t="n">
         <v>1990532000000</v>
       </c>
-      <c r="C422">
+      <c r="C421" t="n">
         <v>0.7640586797066015</v>
       </c>
-      <c r="D422">
+      <c r="D421" t="n">
         <v>1520883251833.741</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B423">
+      <c r="B422" t="n">
         <v>2006251000000</v>
       </c>
-      <c r="C423">
+      <c r="C422" t="n">
         <v>0.7499062617172854</v>
       </c>
-      <c r="D423">
+      <c r="D422" t="n">
         <v>1504500187476.565</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B424">
+      <c r="B423" t="n">
         <v>2015317000000</v>
       </c>
-      <c r="C424">
+      <c r="C423" t="n">
         <v>0.7432181345224824</v>
       </c>
-      <c r="D424">
+      <c r="D423" t="n">
         <v>1497820141211.446</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B425">
+      <c r="B424" t="n">
         <v>2028659000000</v>
       </c>
-      <c r="C425">
+      <c r="C424" t="n">
         <v>0.7700600646850454</v>
       </c>
-      <c r="D425">
+      <c r="D424" t="n">
         <v>1562189280763.899</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B426">
+      <c r="B425" t="n">
         <v>2032466000000</v>
       </c>
-      <c r="C426">
+      <c r="C425" t="n">
         <v>0.8002560819462228</v>
       </c>
-      <c r="D426">
+      <c r="D425" t="n">
         <v>1626493277848.912</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B427">
+      <c r="B426" t="n">
         <v>2038289000000</v>
       </c>
-      <c r="C427">
+      <c r="C426" t="n">
         <v>0.7947862025115244</v>
       </c>
-      <c r="D427">
+      <c r="D426" t="n">
         <v>1620003973931.013</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B428">
+      <c r="B427" t="n">
         <v>2045353000000</v>
       </c>
-      <c r="C428">
+      <c r="C427" t="n">
         <v>0.7840677434530343</v>
       </c>
-      <c r="D428">
+      <c r="D427" t="n">
         <v>1603695311274.894</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B429">
+      <c r="B428" t="n">
         <v>2054212000000</v>
       </c>
-      <c r="C429">
+      <c r="C428" t="n">
         <v>0.7657554177195803</v>
       </c>
-      <c r="D429">
+      <c r="D428" t="n">
         <v>1573023968144.574</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B430">
+      <c r="B429" t="n">
         <v>2058719000000</v>
       </c>
-      <c r="C430">
+      <c r="C429" t="n">
         <v>0.7566013467503971</v>
       </c>
-      <c r="D430">
+      <c r="D429" t="n">
         <v>1557629567980.631</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B431">
+      <c r="B430" t="n">
         <v>2055155000000</v>
       </c>
-      <c r="C431">
+      <c r="C430" t="n">
         <v>0.7808229874287499</v>
       </c>
-      <c r="D431">
+      <c r="D430" t="n">
         <v>1604712266729.133</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B432">
+      <c r="B431" t="n">
         <v>2061636000000</v>
       </c>
-      <c r="C432">
+      <c r="C431" t="n">
         <v>0.8058017727639</v>
       </c>
-      <c r="D432">
+      <c r="D431" t="n">
         <v>1661269943593.876</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B433">
+      <c r="B432" t="n">
         <v>2062698000000</v>
       </c>
-      <c r="C433">
+      <c r="C432" t="n">
         <v>0.7762769756249029</v>
       </c>
-      <c r="D433">
+      <c r="D432" t="n">
         <v>1601224965067.536</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B434">
+      <c r="B433" t="n">
         <v>2060315000000</v>
       </c>
-      <c r="C434">
+      <c r="C433" t="n">
         <v>0.7682851874615857</v>
       </c>
-      <c r="D434">
+      <c r="D433" t="n">
         <v>1582909496004.917</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B435">
+      <c r="B434" t="n">
         <v>2059374000000</v>
       </c>
-      <c r="C435">
+      <c r="C434" t="n">
         <v>0.7532389273877674</v>
       </c>
-      <c r="D435">
+      <c r="D434" t="n">
         <v>1551200662850.256</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B436">
+      <c r="B435" t="n">
         <v>2063352000000</v>
       </c>
-      <c r="C436">
+      <c r="C435" t="n">
         <v>0.7567731194187983</v>
       </c>
-      <c r="D436">
+      <c r="D435" t="n">
         <v>1561489329499.016</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B437">
+      <c r="B436" t="n">
         <v>2064535000000</v>
       </c>
-      <c r="C437">
+      <c r="C436" t="n">
         <v>0.7406310176270182</v>
       </c>
-      <c r="D437">
+      <c r="D436" t="n">
         <v>1529058657976.596</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B438">
+      <c r="B437" t="n">
         <v>2071062000000</v>
       </c>
-      <c r="C438">
+      <c r="C437" t="n">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D438">
+      <c r="D437" t="n">
         <v>1538336180643.244</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B439">
+      <c r="B438" t="n">
         <v>2088226000000</v>
       </c>
-      <c r="C439">
+      <c r="C438" t="n">
         <v>0.7193209610128039</v>
       </c>
-      <c r="D439">
+      <c r="D438" t="n">
         <v>1502104733131.923</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B440">
+      <c r="B439" t="n">
         <v>2088608000000</v>
       </c>
-      <c r="C440">
+      <c r="C439" t="n">
         <v>0.7222824124232574</v>
       </c>
-      <c r="D440">
+      <c r="D439" t="n">
         <v>1508564824846.515</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B441">
+      <c r="B440" t="n">
         <v>2096096000000</v>
       </c>
-      <c r="C441">
+      <c r="C440" t="n">
         <v>0.7078142695356738</v>
       </c>
-      <c r="D441">
+      <c r="D440" t="n">
         <v>1483646659116.648</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B442">
+      <c r="B441" t="n">
         <v>2097660000000</v>
       </c>
-      <c r="C442">
+      <c r="C441" t="n">
         <v>0.731528895391368</v>
       </c>
-      <c r="D442">
+      <c r="D441" t="n">
         <v>1534498902706.657</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B443">
+      <c r="B442" t="n">
         <v>2107869000000</v>
       </c>
-      <c r="C443">
+      <c r="C442" t="n">
         <v>0.7052186177715092</v>
       </c>
-      <c r="D443">
+      <c r="D442" t="n">
         <v>1486508462623.413</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B444">
+      <c r="B443" t="n">
         <v>2117724000000</v>
       </c>
-      <c r="C444">
+      <c r="C443" t="n">
         <v>0.7275902211874272</v>
       </c>
-      <c r="D444">
+      <c r="D443" t="n">
         <v>1540835273573.923</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B445">
+      <c r="B444" t="n">
         <v>2130492000000</v>
       </c>
-      <c r="C445">
+      <c r="C444" t="n">
         <v>0.7094714437743881</v>
       </c>
-      <c r="D445">
+      <c r="D444" t="n">
         <v>1511523235189.784</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B446">
+      <c r="B445" t="n">
         <v>2145779000000</v>
       </c>
-      <c r="C446">
+      <c r="C445" t="n">
         <v>0.7098743522396536</v>
       </c>
-      <c r="D446">
+      <c r="D445" t="n">
         <v>1523233477674.452</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B447">
+      <c r="B446" t="n">
         <v>2146025000000</v>
       </c>
-      <c r="C447">
+      <c r="C446" t="n">
         <v>0.7049203440011278</v>
       </c>
-      <c r="D447">
+      <c r="D446" t="n">
         <v>1512776681235.02</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B448">
+      <c r="B447" t="n">
         <v>2145795000000</v>
       </c>
-      <c r="C448">
+      <c r="C447" t="n">
         <v>0.6937699458859442</v>
       </c>
-      <c r="D448">
+      <c r="D447" t="n">
         <v>1488688081032.33</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B449">
+      <c r="B448" t="n">
         <v>2144720000000</v>
       </c>
-      <c r="C449">
+      <c r="C448" t="n">
         <v>0.7023458350891979</v>
       </c>
-      <c r="D449">
+      <c r="D448" t="n">
         <v>1506335159432.505</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B450">
+      <c r="B449" t="n">
         <v>2120778000000</v>
       </c>
-      <c r="C450">
+      <c r="C449" t="n">
         <v>0.6845564074479736</v>
       </c>
-      <c r="D450">
+      <c r="D449" t="n">
         <v>1451792168674.699</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B451">
+      <c r="B450" t="n">
         <v>2127611000000</v>
       </c>
-      <c r="C451">
+      <c r="C450" t="n">
         <v>0.6738998584810297</v>
       </c>
-      <c r="D451">
+      <c r="D450" t="n">
         <v>1433796751802.682</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B452">
+      <c r="B451" t="n">
         <v>2134296000000</v>
       </c>
-      <c r="C452">
+      <c r="C451" t="n">
         <v>0.6751282743721306</v>
       </c>
-      <c r="D452">
+      <c r="D451" t="n">
         <v>1440923575479.341</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B453">
+      <c r="B452" t="n">
         <v>2144977000000</v>
       </c>
-      <c r="C453">
+      <c r="C452" t="n">
         <v>0.6892748828232699</v>
       </c>
-      <c r="D453">
+      <c r="D452" t="n">
         <v>1478478770333.609</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B454">
+      <c r="B453" t="n">
         <v>2153619000000</v>
       </c>
-      <c r="C454">
+      <c r="C453" t="n">
         <v>0.6764526821348847</v>
       </c>
-      <c r="D454">
+      <c r="D453" t="n">
         <v>1456821348846.648</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B455">
+      <c r="B454" t="n">
         <v>2159190000000</v>
       </c>
-      <c r="C455">
+      <c r="C454" t="n">
         <v>0.7019514249613926</v>
       </c>
-      <c r="D455">
+      <c r="D454" t="n">
         <v>1515646497262.389</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B456">
+      <c r="B455" t="n">
         <v>2168139000000</v>
       </c>
-      <c r="C456">
+      <c r="C455" t="n">
         <v>0.6690305746972637</v>
       </c>
-      <c r="D456">
+      <c r="D455" t="n">
         <v>1450551281193.551</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B457">
+      <c r="B456" t="n">
         <v>2179429000000</v>
       </c>
-      <c r="C457">
+      <c r="C456" t="n">
         <v>0.6512112529304506</v>
       </c>
-      <c r="D457">
+      <c r="D456" t="n">
         <v>1419268689762.959</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B458">
+      <c r="B457" t="n">
         <v>2240876000000</v>
       </c>
-      <c r="C458">
+      <c r="C457" t="n">
         <v>0.6160290765724142</v>
       </c>
-      <c r="D458">
+      <c r="D457" t="n">
         <v>1380444772993.285</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B459">
+      <c r="B458" t="n">
         <v>2306773000000</v>
       </c>
-      <c r="C459">
+      <c r="C458" t="n">
         <v>0.6506011554676522</v>
       </c>
-      <c r="D459">
+      <c r="D458" t="n">
         <v>1500789179201.583</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B460">
+      <c r="B459" t="n">
         <v>2313500000000</v>
       </c>
-      <c r="C460">
+      <c r="C459" t="n">
         <v>0.6669779230307477</v>
       </c>
-      <c r="D460">
+      <c r="D459" t="n">
         <v>1543053424931.635</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B461">
+      <c r="B460" t="n">
         <v>2326139000000</v>
       </c>
-      <c r="C461">
+      <c r="C460" t="n">
         <v>0.6903836461921891</v>
       </c>
-      <c r="D461">
+      <c r="D460" t="n">
         <v>1605928324369.853</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B462">
+      <c r="B461" t="n">
         <v>2352750000000</v>
       </c>
-      <c r="C462">
+      <c r="C461" t="n">
         <v>0.7144388083160678</v>
       </c>
-      <c r="D462">
+      <c r="D461" t="n">
         <v>1680895906265.628</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B463">
+      <c r="B462" t="n">
         <v>2379316000000</v>
       </c>
-      <c r="C463">
+      <c r="C462" t="n">
         <v>0.7377024993360677</v>
       </c>
-      <c r="D463">
+      <c r="D462" t="n">
         <v>1755227359910.295</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B464">
+      <c r="B463" t="n">
         <v>2394341000000</v>
       </c>
-      <c r="C464">
+      <c r="C463" t="n">
         <v>0.7162092476938062</v>
       </c>
-      <c r="D464">
+      <c r="D463" t="n">
         <v>1714849166332.436</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B465">
+      <c r="B464" t="n">
         <v>2406686000000</v>
       </c>
-      <c r="C465">
+      <c r="C464" t="n">
         <v>0.7029876977152899</v>
       </c>
-      <c r="D465">
+      <c r="D464" t="n">
         <v>1691870650263.62</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B466">
+      <c r="B465" t="n">
         <v>2422093000000</v>
       </c>
-      <c r="C466">
+      <c r="C465" t="n">
         <v>0.7344840249724569</v>
       </c>
-      <c r="D466">
+      <c r="D465" t="n">
         <v>1778988615497.613</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B467">
+      <c r="B466" t="n">
         <v>2432541000000</v>
       </c>
-      <c r="C467">
+      <c r="C466" t="n">
         <v>0.7695267410542516</v>
       </c>
-      <c r="D467">
+      <c r="D466" t="n">
         <v>1871905348210.85</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B468">
+      <c r="B467" t="n">
         <v>2445355000000</v>
       </c>
-      <c r="C468">
+      <c r="C467" t="n">
         <v>0.7646429117602079</v>
       </c>
-      <c r="D468">
+      <c r="D467" t="n">
         <v>1869823367487.383</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B469">
+      <c r="B468" t="n">
         <v>2456982000000</v>
       </c>
-      <c r="C469">
+      <c r="C468" t="n">
         <v>0.7710694733595498</v>
       </c>
-      <c r="D469">
+      <c r="D468" t="n">
         <v>1894503816793.893</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B470">
+      <c r="B469" t="n">
         <v>2460631000000</v>
       </c>
-      <c r="C470">
+      <c r="C469" t="n">
         <v>0.7597052343690648</v>
       </c>
-      <c r="D470">
+      <c r="D469" t="n">
         <v>1869354250550.786</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B471">
+      <c r="B470" t="n">
         <v>2468677000000</v>
       </c>
-      <c r="C471">
+      <c r="C470" t="n">
         <v>0.7714263673532361</v>
       </c>
-      <c r="D471">
+      <c r="D470" t="n">
         <v>1904402530278.485</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B472">
+      <c r="B471" t="n">
         <v>2474575000000</v>
       </c>
-      <c r="C472">
+      <c r="C471" t="n">
         <v>0.7737542556484061</v>
       </c>
-      <c r="D472">
+      <c r="D471" t="n">
         <v>1914712937171.154</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B473">
+      <c r="B472" t="n">
         <v>2505723000000</v>
       </c>
-      <c r="C473">
+      <c r="C472" t="n">
         <v>0.7502438292445045</v>
       </c>
-      <c r="D473">
+      <c r="D472" t="n">
         <v>1879903218546.028</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B474">
+      <c r="B473" t="n">
         <v>2536103000000</v>
       </c>
-      <c r="C474">
+      <c r="C473" t="n">
         <v>0.7346998751010212</v>
       </c>
-      <c r="D474">
+      <c r="D473" t="n">
         <v>1863274557343.325</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B475">
+      <c r="B474" t="n">
         <v>2547798000000</v>
       </c>
-      <c r="C475">
+      <c r="C474" t="n">
         <v>0.7317483663717721</v>
       </c>
-      <c r="D475">
+      <c r="D474" t="n">
         <v>1864347024345.268</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
+    <row r="475">
+      <c r="A475" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B476">
+      <c r="B475" t="n">
         <v>2586119000000</v>
       </c>
-      <c r="C476">
+      <c r="C475" t="n">
         <v>0.7232592956900978</v>
       </c>
-      <c r="D476">
+      <c r="D475" t="n">
         <v>1870434606510.78</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B477">
+      <c r="B476" t="n">
         <v>2600986000000</v>
       </c>
-      <c r="C477">
+      <c r="C476" t="n">
         <v>0.7523888345496953</v>
       </c>
-      <c r="D477">
+      <c r="D476" t="n">
         <v>1956952825220.074</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
+    <row r="477">
+      <c r="A477" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B478">
+      <c r="B477" t="n">
         <v>2620281000000</v>
       </c>
-      <c r="C478">
+      <c r="C477" t="n">
         <v>0.7129565595568262</v>
       </c>
-      <c r="D478">
+      <c r="D477" t="n">
         <v>1868146526832.12</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
+    <row r="478">
+      <c r="A478" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B479">
+      <c r="B478" t="n">
         <v>2658542000000</v>
       </c>
-      <c r="C479">
+      <c r="C478" t="n">
         <v>0.726907951646083</v>
       </c>
-      <c r="D479">
+      <c r="D478" t="n">
         <v>1932515319585.081</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
+    <row r="479">
+      <c r="A479" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B480">
+      <c r="B479" t="n">
         <v>2657176000000</v>
       </c>
-      <c r="C480">
+      <c r="C479" t="n">
         <v>0.7070135746606334</v>
       </c>
-      <c r="D480">
+      <c r="D479" t="n">
         <v>1878659502262.443</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
+    <row r="480">
+      <c r="A480" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B481">
+      <c r="B480" t="n">
         <v>2667865000000</v>
       </c>
-      <c r="C481">
+      <c r="C480" t="n">
         <v>0.7264115993404182</v>
       </c>
-      <c r="D481">
+      <c r="D480" t="n">
         <v>1937968081474.325</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
+    <row r="481">
+      <c r="A481" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B482">
+      <c r="B481" t="n">
         <v>2688610000000</v>
       </c>
-      <c r="C482">
+      <c r="C481" t="n">
         <v>0.7486542939067027</v>
       </c>
-      <c r="D482">
+      <c r="D481" t="n">
         <v>2012839421140.5</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
+    <row r="482">
+      <c r="A482" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B483">
+      <c r="B482" t="n">
         <v>2705320000000</v>
       </c>
-      <c r="C483">
+      <c r="C482" t="n">
         <v>0.7064142413111049</v>
       </c>
-      <c r="D483">
+      <c r="D482" t="n">
         <v>1911076575303.758</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
+    <row r="483">
+      <c r="A483" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B484">
+      <c r="B483" t="n">
         <v>2729667000000</v>
       </c>
-      <c r="C484">
+      <c r="C483" t="n">
         <v>0.7179111656723597</v>
       </c>
-      <c r="D484">
+      <c r="D483" t="n">
         <v>1959658417867.373</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
+    <row r="484">
+      <c r="A484" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B485">
+      <c r="B484" t="n">
         <v>2752207000000</v>
       </c>
-      <c r="C485">
+      <c r="C484" t="n">
         <v>0.6904170118751727</v>
       </c>
-      <c r="D485">
+      <c r="D484" t="n">
         <v>1900170533001.933</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B486">
+      <c r="B485" t="n">
         <v>2765710000000</v>
       </c>
-      <c r="C486">
+      <c r="C485" t="n">
         <v>0.6993496048674733</v>
       </c>
-      <c r="D486">
+      <c r="D485" t="n">
         <v>1934198195678.02</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B487">
+      <c r="B486" t="n">
         <v>2774212000000</v>
       </c>
-      <c r="C487">
+      <c r="C486" t="n">
         <v>0.6845189201029517</v>
       </c>
-      <c r="D487">
+      <c r="D486" t="n">
         <v>1899000602376.65</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B488">
+      <c r="B487" t="n">
         <v>2773541000000</v>
       </c>
-      <c r="C488">
+      <c r="C487" t="n">
         <v>0.6402048655569782</v>
       </c>
-      <c r="D488">
+      <c r="D487" t="n">
         <v>1775634443021.767</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B489">
+      <c r="B488" t="n">
         <v>2792938000000</v>
       </c>
-      <c r="C489">
+      <c r="C488" t="n">
         <v>0.6400860275621043</v>
       </c>
-      <c r="D489">
+      <c r="D488" t="n">
         <v>1787720589647.249</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B490">
+      <c r="B489" t="n">
         <v>2809906000000</v>
       </c>
-      <c r="C490">
+      <c r="C489" t="n">
         <v>0.6789788158609451</v>
       </c>
-      <c r="D490">
+      <c r="D489" t="n">
         <v>1907866648560.565</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B491">
+      <c r="B490" t="n">
         <v>2828132000000</v>
       </c>
-      <c r="C491">
+      <c r="C490" t="n">
         <v>0.6818491749624983</v>
       </c>
-      <c r="D491">
+      <c r="D490" t="n">
         <v>1928359470885.04</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B492">
+      <c r="B491" t="n">
         <v>2846999000000</v>
       </c>
-      <c r="C492">
+      <c r="C491" t="n">
         <v>0.7056167090036692</v>
       </c>
-      <c r="D492">
+      <c r="D491" t="n">
         <v>2008890064916.737</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B493">
+      <c r="B492" t="n">
         <v>2851089000000</v>
       </c>
-      <c r="C493">
+      <c r="C492" t="n">
         <v>0.6730833950326446</v>
       </c>
-      <c r="D493">
+      <c r="D492" t="n">
         <v>1919020663660.228</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
+    <row r="493">
+      <c r="A493" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B494">
+      <c r="B493" t="n">
         <v>2864988000000</v>
       </c>
-      <c r="C494">
+      <c r="C493" t="n">
         <v>0.6686726847208291</v>
       </c>
-      <c r="D494">
+      <c r="D493" t="n">
         <v>1915739217652.959</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B495">
+      <c r="B494" t="n">
         <v>2873093000000</v>
       </c>
-      <c r="C495">
+      <c r="C494" t="n">
         <v>0.661769571835087</v>
       </c>
-      <c r="D495">
+      <c r="D494" t="n">
         <v>1901325524452.385</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
+    <row r="495">
+      <c r="A495" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B496">
+      <c r="B495" t="n">
         <v>2879686000000</v>
       </c>
-      <c r="C496">
+      <c r="C495" t="n">
         <v>0.6504065040650406</v>
       </c>
-      <c r="D496">
+      <c r="D495" t="n">
         <v>1872966504065.041</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
+    <row r="496">
+      <c r="A496" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B497">
+      <c r="B496" t="n">
         <v>2867887000000</v>
       </c>
-      <c r="C497">
+      <c r="C496" t="n">
         <v>0.6663557006730193</v>
       </c>
-      <c r="D497">
+      <c r="D496" t="n">
         <v>1911032851336.043</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
+    <row r="497">
+      <c r="A497" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B498">
+      <c r="B497" t="n">
         <v>2876560000000</v>
       </c>
-      <c r="C498">
+      <c r="C497" t="n">
         <v>0.671952694530305</v>
       </c>
-      <c r="D498">
+      <c r="D497" t="n">
         <v>1932912242978.094</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
+    <row r="498">
+      <c r="A498" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B499">
+      <c r="B498" t="n">
         <v>2896970000000</v>
       </c>
-      <c r="C499">
+      <c r="C498" t="n">
         <v>0.6486472461681163</v>
       </c>
-      <c r="D499">
+      <c r="D498" t="n">
         <v>1879111612731.648</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="2">
+    <row r="499">
+      <c r="A499" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B500">
+      <c r="B499" t="n">
         <v>2912060000000</v>
       </c>
-      <c r="C500">
+      <c r="C499" t="n">
         <v>0.6435006435006435</v>
       </c>
-      <c r="D500">
+      <c r="D499" t="n">
         <v>1873912483912.484</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="2">
+    <row r="500">
+      <c r="A500" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B501">
-        <v>2921060000000</v>
-      </c>
-      <c r="C501">
+      <c r="B500" t="n">
+        <v>2922450000000</v>
+      </c>
+      <c r="C500" t="n">
         <v>0.6338983480609049</v>
       </c>
-      <c r="D501">
-        <v>1851655108586.787</v>
+      <c r="D500" t="n">
+        <v>1852536227290.592</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B501" t="n">
+        <v>2941890000000</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.6606197934902526</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1943470764271.039</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Australia.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Australia.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Australia_M2 (AUD)</t>
+  </si>
+  <si>
+    <t>Australia_FX (USD)</t>
+  </si>
+  <si>
+    <t>Australia_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7029 +385,7013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Australia_M2 (AUD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Australia_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Australia_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30042</v>
-      </c>
-      <c r="B2" t="n">
-        <v>74469000000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30072</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2">
         <v>75818000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30103</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>75986000000</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.023227269244114</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77750947280.78325</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30133</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B4">
         <v>76398000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C4">
         <v>0.9930486889686798</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D4">
         <v>75866933739.82919</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30164</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B5">
         <v>76839000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C5">
         <v>0.9654373617578175</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D5">
         <v>74183241440.10893</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30195</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B6">
         <v>77716000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C6">
         <v>0.9494872678552291</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D6">
         <v>73790352508.63698</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30225</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B7">
         <v>77971000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C7">
         <v>0.9358038029681562</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D7">
         <v>72965558321.23012</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30256</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B8">
         <v>78867000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C8">
         <v>0.9554748892695373</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D8">
         <v>75355438092.0206</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30286</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B9">
         <v>79896000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C9">
         <v>0.9800077920419547</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D9">
         <v>78298702552.98401</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30317</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B10">
         <v>80459000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C10">
         <v>0.9691800454783859</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D10">
         <v>77979257279.14545</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30348</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B11">
         <v>81369000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C11">
         <v>0.9542895678705817</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D11">
         <v>77649587848.06137</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30376</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B12">
         <v>83111000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C12">
         <v>0.8649770556618704</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D12">
         <v>71889108073.11371</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30407</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B13">
         <v>83602000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C13">
         <v>0.8673779316051338</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D13">
         <v>72514529838.0524</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30437</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B14">
         <v>84753000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C14">
         <v>0.8816787318229365</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D14">
         <v>74724917558.18935</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30468</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B15">
         <v>85713000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C15">
         <v>0.8754267628869232</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D15">
         <v>75035454127.32684</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30498</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B16">
         <v>86532000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C16">
         <v>0.880514228057711</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D16">
         <v>76192657182.28984</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>30529</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B17">
         <v>87396000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C17">
         <v>0.8775778696344384</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D17">
         <v>76696795494.57138</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>30560</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B18">
         <v>88347000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C18">
         <v>0.8973438380112031</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D18">
         <v>79277636056.77576</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>30590</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B19">
         <v>89071000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C19">
         <v>0.9143274703151014</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D19">
         <v>81440062108.4364</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>30621</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B20">
         <v>90096000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C20">
         <v>0.9153318329152906</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D20">
         <v>82467736818.33603</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>30651</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B21">
         <v>91342000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C21">
         <v>0.8987148458588554</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D21">
         <v>82090411450.43958</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>30682</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B22">
         <v>92416000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C22">
         <v>0.9180207135584059</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D22">
         <v>84839802264.21364</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>30713</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B23">
         <v>93676000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C23">
         <v>0.943841452455714</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D23">
         <v>88415291900.24147</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>30742</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B24">
         <v>94512000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C24">
         <v>0.9363296230835064</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D24">
         <v>88494385336.86836</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>30773</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B25">
         <v>94904000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C25">
         <v>0.9191175963721915</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D25">
         <v>87227936366.10646</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>30803</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B26">
         <v>95596000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C26">
         <v>0.8991997041704909</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D26">
         <v>85959894919.88225</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>30834</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B27">
         <v>96374000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C27">
         <v>0.8608074299663646</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D27">
         <v>82959455255.57843</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>30864</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B28">
         <v>97560000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C28">
         <v>0.8352823672877899</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D28">
         <v>81490147752.59679</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>30895</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B29">
         <v>98987000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C29">
         <v>0.8490405408877293</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D29">
         <v>84043976020.85365</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>30926</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B30">
         <v>100017000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C30">
         <v>0.832639480976511</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D30">
         <v>83278102968.8277</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>30956</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B31">
         <v>101110000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C31">
         <v>0.8403360920838945</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D31">
         <v>84966382270.60257</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30987</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B32">
         <v>102721000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C32">
         <v>0.8579272919317412</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D32">
         <v>88127149354.52039</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>31017</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B33">
         <v>104098000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C33">
         <v>0.8254229952363601</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D33">
         <v>85924882958.11461</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>31048</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B34">
         <v>105967000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C34">
         <v>0.8137358878260522</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D34">
         <v>86229150825.26328</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>31079</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B35">
         <v>107266000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C35">
         <v>0.7095217873529288</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D35">
         <v>76107564042.19926</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>31107</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B36">
         <v>108745000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C36">
         <v>0.700525389138176</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D36">
         <v>76178633441.83095</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>31138</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B37">
         <v>109921000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C37">
         <v>0.64649598336571</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D37">
         <v>71063484987.54221</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>31168</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B38">
         <v>111426000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C38">
         <v>0.6633059386875146</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D38">
         <v>73909527524.19501</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>31199</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B39">
         <v>111527000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C39">
         <v>0.6680026809352395</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D39">
         <v>74500334996.66446</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>31229</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B40">
         <v>114424000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C40">
         <v>0.7240081298583299</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D40">
         <v>82843906250.90953</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>31260</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B41">
         <v>115716000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C41">
         <v>0.7039774528975021</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D41">
         <v>81461454939.48735</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>31291</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B42">
         <v>117171000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C42">
         <v>0.7058159132437054</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D42">
         <v>82701156370.67821</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>31321</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B43">
         <v>117884000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C43">
         <v>0.6999860247790153</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D43">
         <v>82517152545.04944</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>31352</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B44">
         <v>118880000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C44">
         <v>0.6860122063112286</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D44">
         <v>81553131086.27885</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>31382</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B45">
         <v>119260000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C45">
         <v>0.6823144058248198</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D45">
         <v>81372816038.66801</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>31413</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B46">
         <v>119603000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C46">
         <v>0.7139797433665498</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D46">
         <v>85394119245.86946</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>31444</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B47">
         <v>119806000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C47">
         <v>0.6995942500264639</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D47">
         <v>83815588718.67053</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>31472</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B48">
         <v>121533000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C48">
         <v>0.7114905474389702</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D48">
         <v>86469580701.90038</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31503</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B49">
         <v>123887000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C49">
         <v>0.7407956090021808</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D49">
         <v>91774945612.45317</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31533</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B50">
         <v>124860000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C50">
         <v>0.7157171537053905</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D50">
         <v>89364443811.65506</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31564</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B51">
         <v>125466000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C51">
         <v>0.6734006688659887</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D51">
         <v>84488888319.94014</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31594</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B52">
         <v>126349000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C52">
         <v>0.5965163623394286</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D52">
         <v>75369245865.22447</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31625</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B53">
         <v>127225000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C53">
         <v>0.6090875682455973</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D53">
         <v>77491165870.04611</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31656</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B54">
         <v>127635000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C54">
         <v>0.6279829385827349</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D54">
         <v>80152602366.00737</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31686</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B55">
         <v>128658000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C55">
         <v>0.6413956646514849</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D55">
         <v>82520683422.73074</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31717</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B56">
         <v>128693000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C56">
         <v>0.6504064956044684</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D56">
         <v>83702763138.82585</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31747</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B57">
         <v>130172000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C57">
         <v>0.6649820322187385</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D57">
         <v>86562041097.97763</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31778</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B58">
         <v>131854000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C58">
         <v>0.6615068996194966</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D58">
         <v>87222330742.42911</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31809</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B59">
         <v>133002000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C59">
         <v>0.6769105572019712</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D59">
         <v>90030457928.97658</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31837</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B60">
         <v>133229000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C60">
         <v>0.7059155774806973</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D60">
         <v>94048426472.17583</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31868</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B61">
         <v>133828000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C61">
         <v>0.7025925517615565</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D61">
         <v>94026556017.14558</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31898</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B62">
         <v>136015000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C62">
         <v>0.7124029401752721</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D62">
         <v>96897485907.93964</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31929</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B63">
         <v>137500000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C63">
         <v>0.7207206947488037</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D63">
         <v>99099095527.96051</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31959</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B64">
         <v>139415000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C64">
         <v>0.6989097204056394</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D64">
         <v>97438498670.35222</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31990</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B65">
         <v>140680000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C65">
         <v>0.7114905474389702</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D65">
         <v>100092490213.7143</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>32021</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B66">
         <v>142162000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C66">
         <v>0.7099751710323087</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D66">
         <v>100931490264.2951</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>32051</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B67">
         <v>143897000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C67">
         <v>0.6687174223858975</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D67">
         <v>96226430929.06349</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>32082</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B68">
         <v>145973000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C68">
         <v>0.7057162721644487</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D68">
         <v>103015521396.6611</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32112</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B69">
         <v>146592000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C69">
         <v>0.7224389643467557</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D69">
         <v>105903772661.5196</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32143</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B70">
         <v>147252000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C70">
         <v>0.7090187030129318</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D70">
         <v>104404422056.0602</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32174</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B71">
         <v>148183000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C71">
         <v>0.7188039361272259</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D71">
         <v>106514523667.1407</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32203</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B72">
         <v>150179000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C72">
         <v>0.7416747124775601</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D72">
         <v>111383966645.1675</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32234</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B73">
         <v>151321000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C73">
         <v>0.7579776809833542</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D73">
         <v>114697940664.0821</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32264</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B74">
         <v>152842000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C74">
         <v>0.8017317212763958</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D74">
         <v>122538279743.3269</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32295</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B75">
         <v>155233000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C75">
         <v>0.7907013145867962</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D75">
         <v>122742937167.2521</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32325</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B76">
         <v>156245000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C76">
         <v>0.8037293104302308</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D76">
         <v>125578686108.1714</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32356</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B77">
         <v>157947000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C77">
         <v>0.803470955963155</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D77">
         <v>126905827081.5124</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32387</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B78">
         <v>160379000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C78">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D78">
         <v>125975176718.6368</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32417</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B79">
         <v>163969000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C79">
         <v>0.8196721109916694</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D79">
         <v>134400816367.193</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32448</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B80">
         <v>167104000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C80">
         <v>0.8749671963860984</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D80">
         <v>146210518384.9026</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32478</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B81">
         <v>171100000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C81">
         <v>0.8539709649871904</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D81">
         <v>146114432109.3083</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32509</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B82">
         <v>175146000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C82">
         <v>0.8895214453791269</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D82">
         <v>155796123072.3726</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32540</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B83">
         <v>178785000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C83">
         <v>0.8005123342980495</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D83">
         <v>143119597687.4768</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32568</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B84">
         <v>182050000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C84">
         <v>0.8185315878911184</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D84">
         <v>149013675575.5781</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32599</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B85">
         <v>185463000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C85">
         <v>0.7940288963472376</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D85">
         <v>147262981203.2477</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32629</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B86">
         <v>187851000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C86">
         <v>0.750018756094043</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D86">
         <v>140891773351.0221</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32660</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B87">
         <v>192873000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C87">
         <v>0.755972157364011</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D87">
         <v>145806617907.2689</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32690</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B88">
         <v>196146000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C88">
         <v>0.7555152328681159</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D88">
         <v>148191290866.1495</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32721</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B89">
         <v>199868000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C89">
         <v>0.7645260114187923</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D89">
         <v>152804284850.2512</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32752</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B90">
         <v>200107000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C90">
         <v>0.7754943776657619</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D90">
         <v>155181853431.5626</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32782</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B91">
         <v>201936000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C91">
         <v>0.783024057231792</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D91">
         <v>158120746021.1591</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32813</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B92">
         <v>203441000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C92">
         <v>0.7824726134585289</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D92">
         <v>159187010954.6166</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32843</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B93">
         <v>205222000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C93">
         <v>0.7900142202559646</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D93">
         <v>162128298309.3696</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32874</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B94">
         <v>207127000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C94">
         <v>0.768698605099525</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D94">
         <v>159218235978.4493</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32905</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B95">
         <v>209565000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C95">
         <v>0.7606876674325853</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D95">
         <v>159413511025.5097</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32933</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B96">
         <v>211691000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C96">
         <v>0.753693101851772</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D96">
         <v>159550046424.1035</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32964</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B97">
         <v>214181000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C97">
         <v>0.7505253902889639</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D97">
         <v>160748278617.4806</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32994</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B98">
         <v>215027000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C98">
         <v>0.7695267469759658</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D98">
         <v>165469027822.001</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>33025</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B99">
         <v>216615000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C99">
         <v>0.7920165053071639</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D99">
         <v>171562655297.1113</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>33055</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B100">
         <v>216930000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C100">
         <v>0.7920165053071639</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D100">
         <v>171812140496.2831</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>33086</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B101">
         <v>219096000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C101">
         <v>0.8145312372729494</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D101">
         <v>178460535961.5541</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33117</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B102">
         <v>221612000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C102">
         <v>0.8259684207163319</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D102">
         <v>183044513651.7878</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33147</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B103">
         <v>222945000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C103">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D103">
         <v>175119783597.2071</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33178</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B104">
         <v>225259000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C104">
         <v>0.7738740312770631</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D104">
         <v>174322090411.44</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33208</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B105">
         <v>227094000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C105">
         <v>0.771009993407479</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D105">
         <v>175091743442.878</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33239</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B106">
         <v>224942000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C106">
         <v>0.783024057231792</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D106">
         <v>176134997481.8338</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33270</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B107">
         <v>224739000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C107">
         <v>0.7849909541174906</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D107">
         <v>176418082037.4107</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33298</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B108">
         <v>225580000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C108">
         <v>0.7750135567308878</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D108">
         <v>174827558127.3537</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33329</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B109">
         <v>225992000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C109">
         <v>0.7819831030498662</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D109">
         <v>176721925424.4453</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33359</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B110">
         <v>227444000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C110">
         <v>0.7599939489281786</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D110">
         <v>172856063720.0207</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33390</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B111">
         <v>228308000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C111">
         <v>0.7675186358897425</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D111">
         <v>175230644722.7153</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33420</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B112">
         <v>228924000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C112">
         <v>0.7774236181295188</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D112">
         <v>177970924356.6819</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33451</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B113">
         <v>229742000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C113">
         <v>0.7854842387010567</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D113">
         <v>180458719967.6582</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33482</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B114">
         <v>231055000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C114">
         <v>0.7994883210786031</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D114">
         <v>184725774026.8167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33512</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B115">
         <v>230570000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C115">
         <v>0.7800312012480499</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D115">
         <v>179851794071.7629</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33543</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B116">
         <v>230186000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C116">
         <v>0.7845598619174643</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D116">
         <v>180594696375.3334</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33573</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B117">
         <v>231685000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C117">
         <v>0.7595321282090233</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D117">
         <v>175972201124.1075</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33604</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B118">
         <v>231871000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C118">
         <v>0.753012048192771</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D118">
         <v>174601656626.506</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33635</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B119">
         <v>232831000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C119">
         <v>0.7535227187099691</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D119">
         <v>175443448119.9608</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33664</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B120">
         <v>231708000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C120">
         <v>0.7695267410542516</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D120">
         <v>178305502116.1985</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33695</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B121">
         <v>233455000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C121">
         <v>0.75642965204236</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D121">
         <v>176592284417.5492</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33725</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B122">
         <v>234636000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C122">
         <v>0.7570022710068131</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D122">
         <v>177619984859.9546</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33756</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B123">
         <v>234934000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C123">
         <v>0.7483349547257352</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D123">
         <v>175809324253.5359</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33786</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B124">
         <v>236713000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C124">
         <v>0.743549706297866</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D124">
         <v>176007881626.8867</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33817</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B125">
         <v>238887000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C125">
         <v>0.7142346975216056</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D125">
         <v>170621384186.8438</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33848</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B126">
         <v>238735000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C126">
         <v>0.7130124777183601</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D126">
         <v>170221033868.0927</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33878</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B127">
         <v>238779000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C127">
         <v>0.6965243435258063</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D127">
         <v>166315386222.7485</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33909</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B128">
         <v>239956000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C128">
         <v>0.6792094002580996</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D128">
         <v>162980370848.3326</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33939</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B129">
         <v>241001000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C129">
         <v>0.6890374147316199</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D129">
         <v>166058705987.7351</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33970</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B130">
         <v>242941000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C130">
         <v>0.679671039217019</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D130">
         <v>165119961938.4218</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>34001</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B131">
         <v>244542000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C131">
         <v>0.6957973838018369</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D131">
         <v>170151683829.6688</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>34029</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B132">
         <v>245778000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C132">
         <v>0.7055669230226487</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D132">
         <v>173412827206.6606</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>34060</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B133">
         <v>245850000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C133">
         <v>0.7070135746606334</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D133">
         <v>173819287330.3167</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34090</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B134">
         <v>246522000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C134">
         <v>0.6761782405842179</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D134">
         <v>166692812225.3026</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34121</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B135">
         <v>249827000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C135">
         <v>0.6657789613848203</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D135">
         <v>166329560585.8855</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34151</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B136">
         <v>250827000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C136">
         <v>0.6898454746136865</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D136">
         <v>173031870860.9272</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34182</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B137">
         <v>250151000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C137">
         <v>0.6734006734006733</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D137">
         <v>168451851851.8518</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34213</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B138">
         <v>252121000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C138">
         <v>0.6471654154801968</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D138">
         <v>163163991716.2827</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34243</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B139">
         <v>253450000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C139">
         <v>0.6664889362836577</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D139">
         <v>168921620901.093</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34274</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B140">
         <v>254478000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C140">
         <v>0.6586747464102226</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D140">
         <v>167618232116.9806</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34304</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B141">
         <v>255662000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C141">
         <v>0.6790710308298249</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D141">
         <v>173612657884.0147</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34335</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B142">
         <v>258513000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C142">
         <v>0.7084159818645509</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D142">
         <v>183134740719.7506</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34366</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B143">
         <v>259889000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C143">
         <v>0.7132667617689016</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D143">
         <v>185370185449.3581</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34394</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B144">
         <v>263081000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C144">
         <v>0.7041261794113506</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D144">
         <v>185242219405.7175</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34425</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B145">
         <v>264823000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C145">
         <v>0.7150007150007149</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D145">
         <v>189348634348.6343</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34455</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B146">
         <v>266825000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C146">
         <v>0.7370826269624825</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D146">
         <v>196672071939.2644</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34486</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B147">
         <v>267811000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C147">
         <v>0.728650539201399</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D147">
         <v>195140629554.0659</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34516</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B148">
         <v>269074000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C148">
         <v>0.7392622163081245</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D148">
         <v>198916241590.8923</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34547</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B149">
         <v>271370000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C149">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D149">
         <v>201567258411.9438</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34578</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B150">
         <v>271152000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C150">
         <v>0.7397544015386892</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D150">
         <v>200585885486.0186</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34608</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B151">
         <v>274934000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C151">
         <v>0.7425007425007425</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D151">
         <v>204138699138.6991</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34639</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B152">
         <v>277991000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C152">
         <v>0.7691124442393478</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D152">
         <v>213806337486.5405</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34669</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B153">
         <v>280618000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C153">
         <v>0.7753741180119407</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D153">
         <v>217583934248.2748</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34700</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B154">
         <v>280403000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C154">
         <v>0.7564868749527195</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D154">
         <v>212121189197.3674</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34731</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B155">
         <v>281798000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C155">
         <v>0.7388798581350673</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D155">
         <v>208214866262.7457</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34759</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B156">
         <v>285117000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C156">
         <v>0.7351319561861354</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D156">
         <v>209598617951.9224</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34790</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B157">
         <v>286401000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C157">
         <v>0.727749072119933</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D157">
         <v>208428062004.2209</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34820</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B158">
         <v>288031000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C158">
         <v>0.7183908045977012</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D158">
         <v>206918821839.0805</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34851</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B159">
         <v>288176000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C159">
         <v>0.709622480840193</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D159">
         <v>204496168038.6035</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34881</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B160">
         <v>290343000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C160">
         <v>0.7383343177790903</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D160">
         <v>214370200826.9344</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34912</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B161">
         <v>292935000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C161">
         <v>0.751653638003608</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D161">
         <v>220185658448.5869</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34943</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B162">
         <v>296311000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C162">
         <v>0.7553440592189742</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D162">
         <v>223816753531.2335</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34973</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B163">
         <v>299249000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C163">
         <v>0.76103500761035</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D163">
         <v>227738964992.3896</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35004</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B164">
         <v>301591000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C164">
         <v>0.743549706297866</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D164">
         <v>224247899472.0797</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35034</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B165">
         <v>305907000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C165">
         <v>0.7424456158586383</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D165">
         <v>227119311010.4685</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35065</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B166">
         <v>307042000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C166">
         <v>0.7462686567164178</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D166">
         <v>229135820895.5224</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35096</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B167">
         <v>309248000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C167">
         <v>0.7640003056001222</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D167">
         <v>236265566506.2266</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35125</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B168">
         <v>310928000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C168">
         <v>0.7820442637053258</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D168">
         <v>243159458825.3695</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35156</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B169">
         <v>312550000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C169">
         <v>0.7871536523929471</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D169">
         <v>246024874055.4156</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35186</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B170">
         <v>312639000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C170">
         <v>0.7986582541330565</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D170">
         <v>249691717913.9046</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35217</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B171">
         <v>315972000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C171">
         <v>0.7877116975187081</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D171">
         <v>248894840488.3812</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35247</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B172">
         <v>319512000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C172">
         <v>0.7730364873222015</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D172">
         <v>246994434137.2913</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35278</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B173">
         <v>321169000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C173">
         <v>0.7901390644753477</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D173">
         <v>253768173198.4829</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35309</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B174">
         <v>320134000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C174">
         <v>0.7912644405760405</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D174">
         <v>253310650419.3701</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35339</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B175">
         <v>326787000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C175">
         <v>0.7917656373713381</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D175">
         <v>258738717339.6674</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35370</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B176">
         <v>330167000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C176">
         <v>0.8167265599477296</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D176">
         <v>269656158118.262</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35400</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B177">
         <v>332215000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C177">
         <v>0.794533608771651</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D177">
         <v>263955982838.074</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35431</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B178">
         <v>334061000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C178">
         <v>0.7627183281214248</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D178">
         <v>254794447410.5713</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35462</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B179">
         <v>336884000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C179">
         <v>0.7789375292101574</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D179">
         <v>262411590590.4347</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35490</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B180">
         <v>337800000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C180">
         <v>0.7855459544383347</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D180">
         <v>265357423409.2695</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35521</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B181">
         <v>341418000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C181">
         <v>0.7805182641273807</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D181">
         <v>266482984701.8421</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35551</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B182">
         <v>343454000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C182">
         <v>0.7600516835144789</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D182">
         <v>261042790909.7819</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35582</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B183">
         <v>345110000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C183">
         <v>0.75431847325941</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D183">
         <v>260322848306.555</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35612</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B184">
         <v>346119000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C184">
         <v>0.7470491558344539</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D184">
         <v>258567906768.2654</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35643</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B185">
         <v>347534000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C185">
         <v>0.7322252324815114</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D185">
         <v>254473163945.2296</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35674</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B186">
         <v>347261000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C186">
         <v>0.7246376811594204</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D186">
         <v>251638405797.1015</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35704</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B187">
         <v>350477000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C187">
         <v>0.7011147724882564</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D187">
         <v>245724602117.3666</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35735</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B188">
         <v>351809000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C188">
         <v>0.681384573453257</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D188">
         <v>239717225402.0169</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35765</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B189">
         <v>354102000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C189">
         <v>0.6503219093451258</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D189">
         <v>230280288742.9277</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35796</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B190">
         <v>355662000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C190">
         <v>0.686530275985171</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D190">
         <v>244172731017.4379</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35827</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B191">
         <v>357456000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C191">
         <v>0.6792094002580996</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D191">
         <v>242787475378.6593</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35855</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B192">
         <v>358460000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C192">
         <v>0.6624710168930109</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D192">
         <v>237469360715.4687</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35886</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B193">
         <v>361075000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C193">
         <v>0.6492241771083556</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D193">
         <v>234418619749.3995</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35916</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B194">
         <v>362734000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C194">
         <v>0.6229365227683299</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D194">
         <v>225960256649.8474</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35947</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B195">
         <v>366181000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C195">
         <v>0.6206168931918327</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D195">
         <v>227258114565.8785</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35977</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B196">
         <v>371148000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C196">
         <v>0.6060238773407672</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D196">
         <v>224924550027.2711</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36008</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B197">
         <v>373883000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C197">
         <v>0.5656748500961647</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D197">
         <v>211496209978.5043</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36039</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B198">
         <v>376207000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C198">
         <v>0.5935774915415207</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D198">
         <v>223308007360.3609</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36069</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B199">
         <v>377701000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C199">
         <v>0.623208276205908</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D199">
         <v>235386389131.2477</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36100</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B200">
         <v>378780000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C200">
         <v>0.6285355122564426</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D200">
         <v>238076681332.4953</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36130</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B201">
         <v>382072000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C201">
         <v>0.611321677466683</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D201">
         <v>233568895953.0505</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36161</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B202">
         <v>385148000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C202">
         <v>0.6302388605281402</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D202">
         <v>242735236654.6921</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36192</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B203">
         <v>387506000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C203">
         <v>0.6187353050365053</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D203">
         <v>239763643113.476</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36220</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B204">
         <v>391548000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C204">
         <v>0.6338742393509128</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D204">
         <v>248192190669.3712</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36251</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B205">
         <v>395759000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C205">
         <v>0.6612007405448295</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D205">
         <v>261676143877.2812</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36281</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B206">
         <v>399895000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C206">
         <v>0.6492241771083556</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D206">
         <v>259621502304.7458</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36312</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B207">
         <v>403122000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C207">
         <v>0.6676013084985647</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D207">
         <v>269124774684.5584</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36342</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B208">
         <v>405535000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C208">
         <v>0.6514233600416911</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D208">
         <v>264174972314.5072</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36373</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B209">
         <v>407895000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C209">
         <v>0.6391001469930339</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D209">
         <v>260685754457.7235</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36404</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B210">
         <v>411004000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C210">
         <v>0.6525285481239804</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D210">
         <v>268191843393.1484</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36434</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B211">
         <v>414489000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C211">
         <v>0.6388551715326136</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D211">
         <v>264798441193.3815</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36465</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B212">
         <v>417772000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C212">
         <v>0.6352029473416757</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D212">
         <v>265370005716.8265</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36495</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B213">
         <v>417806000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C213">
         <v>0.6535520554212143</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D213">
         <v>273057970067.3159</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36526</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B214">
         <v>418845000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C214">
         <v>0.6369832473405949</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D214">
         <v>266797248232.3715</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36557</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B215">
         <v>420631000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C215">
         <v>0.6178178672927221</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D215">
         <v>259873347337.205</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36586</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B216">
         <v>422707000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C216">
         <v>0.6076810889645115</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D216">
         <v>256871050072.9218</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36617</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B217">
         <v>426368000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C217">
         <v>0.5838052425710782</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D217">
         <v>248915873664.5455</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36647</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B218">
         <v>429640000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C218">
         <v>0.5727048851726705</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D218">
         <v>246056926865.5862</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36678</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B219">
         <v>431970000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C219">
         <v>0.5969080164746613</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D219">
         <v>257846355876.5594</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36708</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B220">
         <v>434974000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C220">
         <v>0.5809225049378413</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D220">
         <v>252686185662.8326</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36739</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B221">
         <v>438250000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C221">
         <v>0.576468553640399</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D221">
         <v>252637343632.9048</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36770</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B222">
         <v>439943000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C222">
         <v>0.5429176393941039</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D222">
         <v>238852815027.9602</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36800</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B223">
         <v>442251000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C223">
         <v>0.5178127589063795</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D223">
         <v>229003210439.1052</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36831</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B224">
         <v>436574000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C224">
         <v>0.5281504172388296</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D224">
         <v>230576740255.6248</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36861</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B225">
         <v>438371000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C225">
         <v>0.5586280096084018</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D225">
         <v>244886319200.0447</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36892</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B226">
         <v>443319000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C226">
         <v>0.5509338328466752</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D226">
         <v>244239435843.7552</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36923</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B227">
         <v>448703000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C227">
         <v>0.5259835893120135</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D227">
         <v>236010414475.0684</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36951</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B228">
         <v>453498000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C228">
         <v>0.4857198367981348</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D228">
         <v>220272974548.2805</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36982</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B229">
         <v>458058000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C229">
         <v>0.5123738279448686</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D229">
         <v>234696930880.7706</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37012</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B230">
         <v>463582000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C230">
         <v>0.506868062243398</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D230">
         <v>234974910030.9189</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37043</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B231">
         <v>468478000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C231">
         <v>0.5109078833086395</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D231">
         <v>239349103356.6648</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37073</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B232">
         <v>466790000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C232">
         <v>0.5097099750242112</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D232">
         <v>237927519241.5515</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37104</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B233">
         <v>474303000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C233">
         <v>0.5293526017680377</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D233">
         <v>251073527076.3856</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37135</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B234">
         <v>480979000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C234">
         <v>0.4912556494399685</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D234">
         <v>236283651011.9866</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37165</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B235">
         <v>488315000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C235">
         <v>0.5031699708161417</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D235">
         <v>245705444299.0842</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37196</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B236">
         <v>494013000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C236">
         <v>0.5217028380634391</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D236">
         <v>257727984140.2337</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37226</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B237">
         <v>498545000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C237">
         <v>0.5105166428425566</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D237">
         <v>254515519705.9424</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37257</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B238">
         <v>503448000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C238">
         <v>0.5079752108097125</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D238">
         <v>255739103931.7281</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37288</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B239">
         <v>506254000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C239">
         <v>0.5176787285810426</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D239">
         <v>262076927059.0671</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37316</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B240">
         <v>512472999999.9999</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C240">
         <v>0.5332195798229711</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D240">
         <v>273260637730.6174</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37347</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B241">
         <v>500266000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C241">
         <v>0.5384449709239716</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D241">
         <v>269365711824.2516</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37377</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B242">
         <v>502835000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C242">
         <v>0.5673115107505532</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D242">
         <v>285264083508.2544</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37408</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B243">
         <v>496230000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C243">
         <v>0.5634755169887868</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D243">
         <v>279613455795.3457</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37438</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B244">
         <v>506215000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C244">
         <v>0.5422405379026136</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D244">
         <v>274490293894.3716</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37469</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B245">
         <v>513116999999.9999</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C245">
         <v>0.550812448361333</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D245">
         <v>282631231065.8221</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37500</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B246">
         <v>515897000000.0001</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C246">
         <v>0.5425935973955507</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D246">
         <v>279922409115.5724</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37530</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B247">
         <v>519345000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C247">
         <v>0.5541701302299806</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D247">
         <v>287805486284.2893</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37561</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B248">
         <v>526154000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C248">
         <v>0.5607895917451773</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D248">
         <v>295061686855.092</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37591</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B249">
         <v>531523000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C249">
         <v>0.5616399887672002</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D249">
         <v>298524571749.5085</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37622</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B250">
         <v>537544000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C250">
         <v>0.5868544600938967</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D250">
         <v>315460093896.7136</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37653</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B251">
         <v>540568000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C251">
         <v>0.6086797735711242</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D251">
         <v>329032807839.7955</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37681</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B252">
         <v>547669000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C252">
         <v>0.6046680372475511</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D252">
         <v>331157939291.3291</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37712</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B253">
         <v>553123000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C253">
         <v>0.6265271599523839</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D253">
         <v>346546582294.3425</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37742</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B254">
         <v>563646000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C254">
         <v>0.6533385600418137</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D254">
         <v>368251666013.3281</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37773</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B255">
         <v>564361000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C255">
         <v>0.6738544474393531</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D255">
         <v>380297169811.3207</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37803</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B256">
         <v>557872000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C256">
         <v>0.6487187804086928</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D256">
         <v>361902043464.1583</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37834</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B257">
         <v>570787000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C257">
         <v>0.6472073004983496</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D257">
         <v>369417513429.5515</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37865</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B258">
         <v>577754000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C258">
         <v>0.6807351940095303</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D258">
         <v>393297481279.7822</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37895</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B259">
         <v>582423000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C259">
         <v>0.7085163667280714</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D259">
         <v>412656227858.8635</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37926</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B260">
         <v>587210000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C260">
         <v>0.7242702976750923</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D260">
         <v>425298761497.791</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37956</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B261">
         <v>594207000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C261">
         <v>0.7489514679448772</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D261">
         <v>445032204913.1216</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37987</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B262">
         <v>595410000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C262">
         <v>0.7641170627340108</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D262">
         <v>454962940322.4574</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38018</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B263">
         <v>603832000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C263">
         <v>0.7737542556484061</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D263">
         <v>467217579696.6883</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38047</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B264">
         <v>610678000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C264">
         <v>0.7667535654040791</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D264">
         <v>468239533813.8322</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38078</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B265">
         <v>615959000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C265">
         <v>0.7206168480219068</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D265">
         <v>443870433090.7257</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38108</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B266">
         <v>616477000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C266">
         <v>0.7153075822603721</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D266">
         <v>440970672389.1274</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38139</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B267">
         <v>621338000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C267">
         <v>0.6989097008666479</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D267">
         <v>434259155717.0813</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38169</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B268">
         <v>628311000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C268">
         <v>0.7026419336706015</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D268">
         <v>441477655986.5093</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38200</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B269">
         <v>631732000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C269">
         <v>0.7041261794113506</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D269">
         <v>444819039571.8913</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38231</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B270">
         <v>631878000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C270">
         <v>0.7273256236817223</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D270">
         <v>459581060440.7593</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38261</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B271">
         <v>636611000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C271">
         <v>0.7484469725319961</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D271">
         <v>476469575630.5666</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38292</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B272">
         <v>643622000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C272">
         <v>0.7728572532653218</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D272">
         <v>497427931061.133</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38322</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B273">
         <v>647054000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C273">
         <v>0.7802137785753296</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D273">
         <v>504840446282.2813</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38353</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B274">
         <v>651977000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C274">
         <v>0.7757350089209527</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D274">
         <v>505761383911.256</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38384</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B275">
         <v>655658000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C275">
         <v>0.791702953052015</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D275">
         <v>519086374792.178</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38412</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B276">
         <v>657474000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C276">
         <v>0.7723200494284832</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D276">
         <v>507780352177.9426</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38443</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B277">
         <v>663688000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C277">
         <v>0.7814331483941549</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D277">
         <v>518627803391.4199</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38473</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B278">
         <v>670249000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C278">
         <v>0.7558007709167863</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D278">
         <v>506574710906.2051</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38504</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B279">
         <v>677023000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C279">
         <v>0.7625438462711607</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D279">
         <v>516259722434.04</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38534</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B280">
         <v>678485000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C280">
         <v>0.7568303943086355</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D280">
         <v>513498070082.4946</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38565</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B281">
         <v>681160000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C281">
         <v>0.7554011179936546</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D281">
         <v>514549025532.5578</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38596</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B282">
         <v>690129000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C282">
         <v>0.7620208793720947</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D282">
         <v>525892707460.1844</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38626</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B283">
         <v>688212000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C283">
         <v>0.7485590238790328</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D283">
         <v>515167302941.837</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38657</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B284">
         <v>692301000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C284">
         <v>0.738061849582995</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D284">
         <v>510960956528.157</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38687</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B285">
         <v>700073000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C285">
         <v>0.7345379756133392</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D285">
         <v>514230204201.5573</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38718</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B286">
         <v>708145000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C286">
         <v>0.758552681483729</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D286">
         <v>537165288629.2953</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38749</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B287">
         <v>711350000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C287">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D287">
         <v>528374062244.6705</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38777</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B288">
         <v>722061000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C288">
         <v>0.7165376898824879</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D288">
         <v>517383920894.2391</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38808</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B289">
         <v>736225000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C289">
         <v>0.7598206823189727</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D289">
         <v>559398981840.2856</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38838</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B290">
         <v>740262000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C290">
         <v>0.7521624670928921</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D290">
         <v>556797292215.1185</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38869</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B291">
         <v>746274000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C291">
         <v>0.7427213309566251</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D291">
         <v>554273618538.3245</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38899</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B292">
         <v>753038000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C292">
         <v>0.7659313725490196</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D292">
         <v>576775428921.5686</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38930</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B293">
         <v>761297000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C293">
         <v>0.7638252367858235</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D293">
         <v>581497861289.337</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38961</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B294">
         <v>767415000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C294">
         <v>0.7473283013227711</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D294">
         <v>573510948359.6144</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38991</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B295">
         <v>776626000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C295">
         <v>0.7739938080495355</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D295">
         <v>601103715170.2786</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39022</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B296">
         <v>781730000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C296">
         <v>0.7894529091339701</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D296">
         <v>617139022657.2985</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39052</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B297">
         <v>791373000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C297">
         <v>0.7895775759968418</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D297">
         <v>624850375049.3486</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39083</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B298">
         <v>797749000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C298">
         <v>0.777363184079602</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D298">
         <v>620140702736.3185</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39114</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B299">
         <v>814195000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C299">
         <v>0.7879599716334411</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D299">
         <v>641553069104.0896</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39142</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B300">
         <v>826266000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C300">
         <v>0.8088651621774651</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D300">
         <v>668337782091.7253</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39173</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B301">
         <v>838018000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C301">
         <v>0.8300821781356353</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D301">
         <v>695623806756.8689</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39203</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B302">
         <v>846637000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C302">
         <v>0.8279516476237788</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D302">
         <v>700974499089.2532</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39234</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B303">
         <v>869578000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C303">
         <v>0.8492569002123143</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D303">
         <v>738495116772.8239</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39264</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B304">
         <v>880405000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C304">
         <v>0.8509189925119128</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D304">
         <v>749153335602.4506</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39295</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B305">
         <v>899073000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C305">
         <v>0.8180628272251309</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D305">
         <v>735498200261.7802</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39326</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B306">
         <v>912986000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C306">
         <v>0.8889679082585119</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D306">
         <v>811615254689.3058</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39356</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B307">
         <v>938446000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C307">
         <v>0.9325748391308403</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D307">
         <v>875171127482.9805</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39387</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B308">
         <v>962564000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C308">
         <v>0.8844078889183691</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D308">
         <v>851299195188.821</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39417</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B309">
         <v>971834000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C309">
         <v>0.8749671887304226</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D309">
         <v>850322862892.6415</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39448</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B310">
         <v>984284000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C310">
         <v>0.8962982880702699</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D310">
         <v>882212064174.9575</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39479</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B311">
         <v>992008000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C311">
         <v>0.9313588525658936</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D311">
         <v>923915432616.1869</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39508</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B312">
         <v>1000377000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C312">
         <v>0.9139097057210747</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D312">
         <v>914254249680.1315</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39539</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B313">
         <v>1013380000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C313">
         <v>0.9437523593808984</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D313">
         <v>956379765949.4148</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39569</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B314">
         <v>1016485000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C314">
         <v>0.9562057754828839</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D314">
         <v>971968827691.7192</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39600</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B315">
         <v>1035594000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C315">
         <v>0.9590486237652249</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D315">
         <v>993185000479.5243</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39630</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B316">
         <v>1057005000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C316">
         <v>0.9417969485778865</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D316">
         <v>995484083631.569</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39661</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B317">
         <v>1069476000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C317">
         <v>0.8582217645039478</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D317">
         <v>917847579814.6241</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39692</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B318">
         <v>1089266000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C318">
         <v>0.7951653944020356</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D318">
         <v>866146628498.7277</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39722</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B319">
         <v>1102968000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C319">
         <v>0.6685832720465333</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D319">
         <v>737425954402.6207</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39753</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B320">
         <v>1129317000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C320">
         <v>0.6549646319098769</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D320">
         <v>739662693214.5664</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39783</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B321">
         <v>1130783000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C321">
         <v>0.7015574575557738</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D321">
         <v>793309246527.2905</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39814</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B322">
         <v>1144917000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C322">
         <v>0.6358087487283826</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D322">
         <v>727948245167.8535</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39845</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B323">
         <v>1163743000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C323">
         <v>0.6391001469930339</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D323">
         <v>743748322362.1143</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39873</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B324">
         <v>1142763000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C324">
         <v>0.691945751453086</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D324">
         <v>790730002767.783</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39904</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B325">
         <v>1160667000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C325">
         <v>0.7257420712678715</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D325">
         <v>842344872632.2666</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39934</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B326">
         <v>1167788000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C326">
         <v>0.8014747134727899</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D326">
         <v>935952552696.9623</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39965</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B327">
         <v>1178972000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C327">
         <v>0.8062565508344756</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D327">
         <v>950553898250.4233</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39995</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B328">
         <v>1181019000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C328">
         <v>0.8364700961940611</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D328">
         <v>987887076537.0138</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>40026</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B329">
         <v>1185332000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C329">
         <v>0.8440243079000674</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D329">
         <v>1000449020931.803</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40057</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B330">
         <v>1184794000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C330">
         <v>0.8841732979664014</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D330">
         <v>1047563218390.805</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40087</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B331">
         <v>1183584000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C331">
         <v>0.901631953836444</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D331">
         <v>1067157154449.554</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40118</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B332">
         <v>1182206000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C332">
         <v>0.9161704076958315</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D332">
         <v>1083102153000.458</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40148</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B333">
         <v>1178434000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C333">
         <v>0.8979078746520608</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D333">
         <v>1058125168357.727</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40179</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B334">
         <v>1182971000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C334">
         <v>0.8842514811212309</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D334">
         <v>1046043858873.464</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40210</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B335">
         <v>1195947000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C335">
         <v>0.8957362952346829</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D335">
         <v>1071253135077.033</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40238</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B336">
         <v>1210169000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C336">
         <v>0.9175153683824203</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D336">
         <v>1110348655839.985</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40269</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B337">
         <v>1216303000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C337">
         <v>0.9247272054743851</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D337">
         <v>1124748474200.111</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40299</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B338">
         <v>1221498000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C338">
         <v>0.8475294516484448</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D338">
         <v>1035255530129.672</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40330</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B339">
         <v>1231556000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C339">
         <v>0.8404773911581779</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D339">
         <v>1035094973945.201</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40360</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B340">
         <v>1242597000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C340">
         <v>0.904649900488511</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D340">
         <v>1124115252397.322</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40391</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B341">
         <v>1253020000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C341">
         <v>0.8930166101089481</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D341">
         <v>1118967672798.714</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40422</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B342">
         <v>1260810000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C342">
         <v>0.9662769349695624</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D342">
         <v>1218291622378.974</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40452</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B343">
         <v>1273880000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C343">
         <v>0.98405825624877</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D343">
         <v>1253572131470.183</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40483</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B344">
         <v>1294322000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C344">
         <v>0.959140610013428</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D344">
         <v>1241436792633.8</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40513</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B345">
         <v>1302284000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C345">
         <v>1.02364622786365</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D345">
         <v>1333078104207.186</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40544</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B346">
         <v>1311449000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C346">
         <v>0.9979044007584074</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D346">
         <v>1308700728470.213</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40575</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B347">
         <v>1325187000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C347">
         <v>1.018952516812716</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D347">
         <v>1350302628897.493</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40603</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B348">
         <v>1334278000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C348">
         <v>1.033698573495968</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D348">
         <v>1379241265247.054</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40634</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B349">
         <v>1342207000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C349">
         <v>1.097574360662935</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D349">
         <v>1473171989902.316</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40664</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B350">
         <v>1347691000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C350">
         <v>1.066325442525059</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D350">
         <v>1437077201962.039</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40695</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B351">
         <v>1343534000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C351">
         <v>1.071466838101361</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D351">
         <v>1439552126861.674</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40725</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B352">
         <v>1352722000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C352">
         <v>1.1001100110011</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D352">
         <v>1488143014301.43</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40756</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B353">
         <v>1373328000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C353">
         <v>1.06951871657754</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D353">
         <v>1468800000000</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40787</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B354">
         <v>1383775000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C354">
         <v>0.9666505558240697</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D354">
         <v>1337626872885.452</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40817</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B355">
         <v>1390449000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C355">
         <v>1.05496360375567</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D355">
         <v>1466873087878.468</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40848</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B356">
         <v>1396042000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C356">
         <v>1.02880658436214</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D356">
         <v>1436257201646.091</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40878</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B357">
         <v>1406582000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C357">
         <v>1.021554806415364</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D357">
         <v>1436900602717.336</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40909</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B358">
         <v>1416621000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C358">
         <v>1.062699256110521</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D358">
         <v>1505442082890.542</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40940</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B359">
         <v>1424055000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C359">
         <v>1.073767851390529</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D359">
         <v>1529104477611.94</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40969</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B360">
         <v>1434208000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C360">
         <v>1.034447088031447</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D360">
         <v>1483612289231.406</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41000</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B361">
         <v>1438755000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C361">
         <v>1.043405676126878</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D361">
         <v>1501205133555.927</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41030</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B362">
         <v>1457290000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C362">
         <v>0.97323600973236</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D362">
         <v>1418287104622.871</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41061</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B363">
         <v>1465374000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C363">
         <v>1.024275325207416</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D363">
         <v>1500946430400.492</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41091</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B364">
         <v>1472304000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C364">
         <v>1.049758555532228</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D364">
         <v>1545563720344.321</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41122</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B365">
         <v>1482867000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C365">
         <v>1.033698573495968</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D365">
         <v>1532837502584.246</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41153</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B366">
         <v>1488548000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C366">
         <v>1.03777501037775</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D366">
         <v>1544777916147.779</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41183</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B367">
         <v>1495483000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C367">
         <v>1.038205980066445</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D367">
         <v>1552619393687.708</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41214</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B368">
         <v>1500153000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C368">
         <v>1.043187982474442</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D368">
         <v>1564941581472.981</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41244</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B369">
         <v>1508423000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C369">
         <v>1.039933444259567</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D369">
         <v>1568659525790.349</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41275</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B370">
         <v>1518967000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C370">
         <v>1.043079169708981</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D370">
         <v>1584402837175.342</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41306</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B371">
         <v>1521736000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C371">
         <v>1.022076860179886</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D371">
         <v>1555331152902.698</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41334</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B372">
         <v>1531399000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C372">
         <v>1.042535446205171</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D372">
         <v>1596537739783.153</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41365</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B373">
         <v>1546552000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C373">
         <v>1.037129226301597</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D373">
         <v>1603974279195.188</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41395</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B374">
         <v>1560756000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C374">
         <v>0.9552010698251983</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D374">
         <v>1490835800936.097</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41426</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B375">
         <v>1561285000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C375">
         <v>0.9149967975112088</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D375">
         <v>1428570775002.288</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41456</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B376">
         <v>1565767000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C376">
         <v>0.8943743851176101</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D376">
         <v>1400381897862.445</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41487</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B377">
         <v>1567032000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C377">
         <v>0.8903926631644555</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D377">
         <v>1395273795743.923</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41518</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B378">
         <v>1578348000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C378">
         <v>0.9329228472805299</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D378">
         <v>1472476910159.53</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41548</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B379">
         <v>1589865000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C379">
         <v>0.9463423866754992</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D379">
         <v>1504556638591.843</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41579</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B380">
         <v>1599918000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C380">
         <v>0.9112447603426281</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D380">
         <v>1457916894477.857</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41609</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B381">
         <v>1613768000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C381">
         <v>0.8918219923303309</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D381">
         <v>1439193792918.933</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41640</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B382">
         <v>1622097000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C382">
         <v>0.8759635599159076</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D382">
         <v>1420897862648.914</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41671</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B383">
         <v>1631933000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C383">
         <v>0.8934953538241601</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D383">
         <v>1458124553252.323</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41699</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B384">
         <v>1637964000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C384">
         <v>0.9266981744045965</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D384">
         <v>1517898248540.45</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41730</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B385">
         <v>1648196000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C385">
         <v>0.9288500835965076</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D385">
         <v>1530926992383.429</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41760</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B386">
         <v>1661059000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C386">
         <v>0.931445603576751</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D386">
         <v>1547186102831.594</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41791</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B387">
         <v>1668993000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C387">
         <v>0.9433072351664937</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D387">
         <v>1574373172342.232</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41821</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B388">
         <v>1680499000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C388">
         <v>0.9296272194849864</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D388">
         <v>1562237612717.3</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41852</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B389">
         <v>1693813000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C389">
         <v>0.9344921035417251</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D389">
         <v>1582854873376.32</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41883</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B390">
         <v>1706001000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C390">
         <v>0.8748906386701663</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D390">
         <v>1492564304461.942</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41913</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B391">
         <v>1712461000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C391">
         <v>0.880126738250308</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D391">
         <v>1507182714310.861</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41944</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B392">
         <v>1716847000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C392">
         <v>0.8511362669163333</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D392">
         <v>1461270746446.506</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41974</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B393">
         <v>1731250000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C393">
         <v>0.8176614881439084</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D393">
         <v>1415576451349.141</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42005</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B394">
         <v>1735199000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C394">
         <v>0.7771215418091389</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D394">
         <v>1348460522225.676</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42036</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B395">
         <v>1755949000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C395">
         <v>0.7814331483941549</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D395">
         <v>1372156755489.568</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42064</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B396">
         <v>1760584000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C396">
         <v>0.7612667478684531</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D396">
         <v>1340274056029.233</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42095</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B397">
         <v>1768918000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C397">
         <v>0.7902015013828526</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D397">
         <v>1397801659423.153</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42125</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B398">
         <v>1772712000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C398">
         <v>0.7646429117602079</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D398">
         <v>1355491665392.262</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42156</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B399">
         <v>1781050000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C399">
         <v>0.7705347511172753</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D399">
         <v>1372360918477.423</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42186</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B400">
         <v>1795874000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C400">
         <v>0.7316894709885124</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D400">
         <v>1314022097022.024</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42217</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B401">
         <v>1799219000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C401">
         <v>0.7115411982353779</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D401">
         <v>1280218443147.858</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42248</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B402">
         <v>1812398000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C402">
         <v>0.702000702000702</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D402">
         <v>1272304668304.668</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42278</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B403">
         <v>1818447000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C403">
         <v>0.7140307033202428</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D403">
         <v>1298426990360.585</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42309</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B404">
         <v>1831524000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C404">
         <v>0.722908985758693</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D404">
         <v>1324025157232.704</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42339</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B405">
         <v>1836529000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C405">
         <v>0.7291286912139993</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D405">
         <v>1339065986146.555</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42370</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B406">
         <v>1845945000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C406">
         <v>0.7085665698292355</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D406">
         <v>1307974916743.428</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42401</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B407">
         <v>1852876000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C407">
         <v>0.7142346975216056</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D407">
         <v>1323388329405.042</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42430</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B408">
         <v>1862728000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C408">
         <v>0.7666360012266176</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D408">
         <v>1428034345292.855</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42461</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B409">
         <v>1870741000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C409">
         <v>0.7617306520414382</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D409">
         <v>1425000761730.652</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42491</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B410">
         <v>1876371000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C410">
         <v>0.7233273056057866</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D410">
         <v>1357230379746.835</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42522</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B411">
         <v>1883273000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C411">
         <v>0.7444353457902182</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D411">
         <v>1401974986972.382</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42552</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B412">
         <v>1901275000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C412">
         <v>0.761208799573723</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D412">
         <v>1447267260409.53</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42583</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B413">
         <v>1909699000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C413">
         <v>0.751653638003608</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D413">
         <v>1435432200841.852</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42614</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B414">
         <v>1914336000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C414">
         <v>0.7660487206986365</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D414">
         <v>1466474643787.345</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42644</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B415">
         <v>1927326000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C415">
         <v>0.7608034083992696</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D415">
         <v>1466316189896.531</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42675</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B416">
         <v>1943834000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C416">
         <v>0.7384978952809984</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D416">
         <v>1435517317775.644</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42705</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B417">
         <v>1963247000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C417">
         <v>0.7213445863088797</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D417">
         <v>1416177595037.149</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42736</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B418">
         <v>1975270000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C418">
         <v>0.7586102260658474</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D418">
         <v>1498460021241.086</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42767</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B419">
         <v>1985415000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C419">
         <v>0.7657554177195803</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D419">
         <v>1520342292671.721</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42795</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B420">
         <v>1990532000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C420">
         <v>0.7640586797066015</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D420">
         <v>1520883251833.741</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42826</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B421">
         <v>2006251000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C421">
         <v>0.7499062617172854</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D421">
         <v>1504500187476.565</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42856</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B422">
         <v>2015317000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C422">
         <v>0.7432181345224824</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D422">
         <v>1497820141211.446</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42887</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B423">
         <v>2028659000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C423">
         <v>0.7700600646850454</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D423">
         <v>1562189280763.899</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42917</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B424">
         <v>2032466000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C424">
         <v>0.8002560819462228</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D424">
         <v>1626493277848.912</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42948</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B425">
         <v>2038289000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C425">
         <v>0.7947862025115244</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D425">
         <v>1620003973931.013</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42979</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B426">
         <v>2045353000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C426">
         <v>0.7840677434530343</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D426">
         <v>1603695311274.894</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43009</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B427">
         <v>2054212000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C427">
         <v>0.7657554177195803</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D427">
         <v>1573023968144.574</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43040</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B428">
         <v>2058719000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C428">
         <v>0.7566013467503971</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D428">
         <v>1557629567980.631</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43070</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B429">
         <v>2055155000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C429">
         <v>0.7808229874287499</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D429">
         <v>1604712266729.133</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43101</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B430">
         <v>2061636000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C430">
         <v>0.8058017727639</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D430">
         <v>1661269943593.876</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43132</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B431">
         <v>2062698000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C431">
         <v>0.7762769756249029</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D431">
         <v>1601224965067.536</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43160</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B432">
         <v>2060315000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C432">
         <v>0.7682851874615857</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D432">
         <v>1582909496004.917</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43191</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B433">
         <v>2059374000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C433">
         <v>0.7532389273877674</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D433">
         <v>1551200662850.256</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43221</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B434">
         <v>2063352000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C434">
         <v>0.7567731194187983</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D434">
         <v>1561489329499.016</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43252</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B435">
         <v>2064535000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C435">
         <v>0.7406310176270182</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D435">
         <v>1529058657976.596</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43282</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B436">
         <v>2071062000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C436">
         <v>0.7427764985515858</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D436">
         <v>1538336180643.244</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43313</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B437">
         <v>2088226000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C437">
         <v>0.7193209610128039</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D437">
         <v>1502104733131.923</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43344</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B438">
         <v>2088608000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C438">
         <v>0.7222824124232574</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D438">
         <v>1508564824846.515</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43374</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B439">
         <v>2096096000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C439">
         <v>0.7078142695356738</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D439">
         <v>1483646659116.648</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43405</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B440">
         <v>2097660000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C440">
         <v>0.731528895391368</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D440">
         <v>1534498902706.657</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43435</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B441">
         <v>2107869000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C441">
         <v>0.7052186177715092</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D441">
         <v>1486508462623.413</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43466</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B442">
         <v>2117724000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C442">
         <v>0.7275902211874272</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D442">
         <v>1540835273573.923</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43497</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B443">
         <v>2130492000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C443">
         <v>0.7094714437743881</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D443">
         <v>1511523235189.784</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43525</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B444">
         <v>2145779000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C444">
         <v>0.7098743522396536</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D444">
         <v>1523233477674.452</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43556</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B445">
         <v>2146025000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C445">
         <v>0.7049203440011278</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D445">
         <v>1512776681235.02</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43586</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B446">
         <v>2145795000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C446">
         <v>0.6937699458859442</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D446">
         <v>1488688081032.33</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43617</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B447">
         <v>2144720000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C447">
         <v>0.7023458350891979</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D447">
         <v>1506335159432.505</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43647</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B448">
         <v>2120778000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C448">
         <v>0.6845564074479736</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D448">
         <v>1451792168674.699</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43678</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B449">
         <v>2127611000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C449">
         <v>0.6738998584810297</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D449">
         <v>1433796751802.682</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43709</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B450">
         <v>2134296000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C450">
         <v>0.6751282743721306</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D450">
         <v>1440923575479.341</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43739</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B451">
         <v>2144977000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C451">
         <v>0.6892748828232699</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D451">
         <v>1478478770333.609</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43770</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B452">
         <v>2153619000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C452">
         <v>0.6764526821348847</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D452">
         <v>1456821348846.648</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43800</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B453">
         <v>2159190000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C453">
         <v>0.7019514249613926</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D453">
         <v>1515646497262.389</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43831</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B454">
         <v>2168139000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C454">
         <v>0.6690305746972637</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D454">
         <v>1450551281193.551</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43862</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B455">
         <v>2179429000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C455">
         <v>0.6512112529304506</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D455">
         <v>1419268689762.959</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43891</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B456">
         <v>2240876000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C456">
         <v>0.6160290765724142</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D456">
         <v>1380444772993.285</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43922</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B457">
         <v>2306773000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C457">
         <v>0.6506011554676522</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D457">
         <v>1500789179201.583</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43952</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B458">
         <v>2313500000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C458">
         <v>0.6669779230307477</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D458">
         <v>1543053424931.635</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43983</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B459">
         <v>2326139000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C459">
         <v>0.6903836461921891</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D459">
         <v>1605928324369.853</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44013</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B460">
         <v>2352750000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C460">
         <v>0.7144388083160678</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D460">
         <v>1680895906265.628</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44044</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B461">
         <v>2379316000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C461">
         <v>0.7377024993360677</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D461">
         <v>1755227359910.295</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44075</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B462">
         <v>2394341000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C462">
         <v>0.7162092476938062</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D462">
         <v>1714849166332.436</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44105</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B463">
         <v>2406686000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C463">
         <v>0.7029876977152899</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D463">
         <v>1691870650263.62</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44136</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B464">
         <v>2422093000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C464">
         <v>0.7344840249724569</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D464">
         <v>1778988615497.613</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44166</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B465">
         <v>2432541000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C465">
         <v>0.7695267410542516</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D465">
         <v>1871905348210.85</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44197</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B466">
         <v>2445355000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C466">
         <v>0.7646429117602079</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D466">
         <v>1869823367487.383</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44228</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B467">
         <v>2456982000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C467">
         <v>0.7710694733595498</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D467">
         <v>1894503816793.893</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44256</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B468">
         <v>2460631000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C468">
         <v>0.7597052343690648</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D468">
         <v>1869354250550.786</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44287</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B469">
         <v>2468677000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C469">
         <v>0.7714263673532361</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D469">
         <v>1904402530278.485</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44317</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B470">
         <v>2474575000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C470">
         <v>0.7737542556484061</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D470">
         <v>1914712937171.154</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44348</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B471">
         <v>2505723000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C471">
         <v>0.7502438292445045</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D471">
         <v>1879903218546.028</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44378</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B472">
         <v>2536103000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C472">
         <v>0.7346998751010212</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D472">
         <v>1863274557343.325</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44409</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B473">
         <v>2547798000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C473">
         <v>0.7317483663717721</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D473">
         <v>1864347024345.268</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44440</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B474">
         <v>2586119000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C474">
         <v>0.7232592956900978</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D474">
         <v>1870434606510.78</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44470</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B475">
         <v>2600986000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C475">
         <v>0.7523888345496953</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D475">
         <v>1956952825220.074</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44501</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B476">
         <v>2620281000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C476">
         <v>0.7129565595568262</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D476">
         <v>1868146526832.12</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44531</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B477">
         <v>2658542000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C477">
         <v>0.726907951646083</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D477">
         <v>1932515319585.081</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44562</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B478">
         <v>2657176000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C478">
         <v>0.7070135746606334</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D478">
         <v>1878659502262.443</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44593</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B479">
         <v>2667865000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C479">
         <v>0.7264115993404182</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D479">
         <v>1937968081474.325</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44621</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B480">
         <v>2688610000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C480">
         <v>0.7486542939067027</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D480">
         <v>2012839421140.5</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44652</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B481">
         <v>2705320000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C481">
         <v>0.7064142413111049</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D481">
         <v>1911076575303.758</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44682</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B482">
         <v>2729667000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C482">
         <v>0.7179111656723597</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D482">
         <v>1959658417867.373</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44713</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B483">
         <v>2752207000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C483">
         <v>0.6904170118751727</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D483">
         <v>1900170533001.933</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44743</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B484">
         <v>2765710000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C484">
         <v>0.6993496048674733</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D484">
         <v>1934198195678.02</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44774</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B485">
         <v>2774212000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C485">
         <v>0.6845189201029517</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D485">
         <v>1899000602376.65</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44805</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B486">
         <v>2773541000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C486">
         <v>0.6402048655569782</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D486">
         <v>1775634443021.767</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44835</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B487">
         <v>2792938000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C487">
         <v>0.6400860275621043</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D487">
         <v>1787720589647.249</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44866</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B488">
         <v>2809906000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C488">
         <v>0.6789788158609451</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D488">
         <v>1907866648560.565</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44896</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B489">
         <v>2828132000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C489">
         <v>0.6818491749624983</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D489">
         <v>1928359470885.04</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44927</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B490">
         <v>2846999000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C490">
         <v>0.7056167090036692</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D490">
         <v>2008890064916.737</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44958</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B491">
         <v>2851089000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C491">
         <v>0.6730833950326446</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D491">
         <v>1919020663660.228</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44986</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B492">
         <v>2864988000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C492">
         <v>0.6686726847208291</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D492">
         <v>1915739217652.959</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>45017</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B493">
         <v>2873093000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C493">
         <v>0.661769571835087</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D493">
         <v>1901325524452.385</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45047</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B494">
         <v>2879686000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C494">
         <v>0.6504065040650406</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D494">
         <v>1872966504065.041</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45078</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B495">
         <v>2867887000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C495">
         <v>0.6663557006730193</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D495">
         <v>1911032851336.043</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45108</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B496">
         <v>2876560000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C496">
         <v>0.671952694530305</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D496">
         <v>1932912242978.094</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45139</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B497">
         <v>2896970000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C497">
         <v>0.6486472461681163</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D497">
         <v>1879111612731.648</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45170</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B498">
         <v>2912060000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C498">
         <v>0.6435006435006435</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D498">
         <v>1873912483912.484</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45200</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B499">
         <v>2922450000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C499">
         <v>0.6338983480609049</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D499">
         <v>1852536227290.592</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45231</v>
       </c>
-      <c r="B501" t="n">
-        <v>2941890000000</v>
-      </c>
-      <c r="C501" t="n">
+      <c r="B500">
+        <v>2943200000000</v>
+      </c>
+      <c r="C500">
         <v>0.6606197934902526</v>
       </c>
-      <c r="D501" t="n">
-        <v>1943470764271.039</v>
+      <c r="D500">
+        <v>1944336176200.511</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B501">
+        <v>2965920000000</v>
+      </c>
+      <c r="C501">
+        <v>0.6813381481229134</v>
+      </c>
+      <c r="D501">
+        <v>2020794440280.711</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>